--- a/konzept/projektplan.xlsx
+++ b/konzept/projektplan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="133">
   <si>
     <t>#</t>
   </si>
@@ -413,6 +413,12 @@
   </si>
   <si>
     <t>Soll-Stunde</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>Planung Vorgehen</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1013,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1191,6 +1197,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -1573,10 +1583,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EH206"/>
+  <dimension ref="A1:EH207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="C14" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3243,65 +3253,82 @@
       <c r="CQ32" s="16"/>
     </row>
     <row r="33" spans="1:109">
-      <c r="A33" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33">
-        <v>3</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="AT33" s="95"/>
-      <c r="AU33" s="93"/>
-      <c r="AV33" s="91"/>
+      <c r="A33" s="123" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="124" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR33" s="68"/>
+      <c r="AS33" s="69"/>
+      <c r="AT33" s="70"/>
+      <c r="AU33" s="68"/>
+      <c r="AV33" s="68"/>
+      <c r="AW33" s="68"/>
+      <c r="AX33" s="68"/>
+      <c r="AY33" s="68"/>
+      <c r="AZ33" s="68"/>
+      <c r="BA33" s="68"/>
+      <c r="BB33" s="68"/>
+      <c r="BC33" s="68"/>
+      <c r="BD33" s="71"/>
+      <c r="BE33" s="68"/>
+      <c r="BF33" s="68"/>
+      <c r="BG33" s="68"/>
+      <c r="BH33" s="68"/>
+      <c r="BI33" s="68"/>
+      <c r="BJ33" s="68"/>
+      <c r="BK33" s="68"/>
+      <c r="BL33" s="68"/>
+      <c r="BM33" s="68"/>
+      <c r="BN33" s="68"/>
+      <c r="BO33" s="68"/>
       <c r="CM33" s="82"/>
       <c r="CQ33" s="16"/>
     </row>
     <row r="34" spans="1:109">
       <c r="A34" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>5</v>
-      </c>
-      <c r="AV34" s="94"/>
-      <c r="AW34" s="94"/>
+        <v>3</v>
+      </c>
+      <c r="AT34" s="95"/>
+      <c r="AU34" s="93"/>
+      <c r="AV34" s="91"/>
       <c r="CM34" s="82"/>
       <c r="CQ34" s="16"/>
     </row>
     <row r="35" spans="1:109">
       <c r="A35" s="1" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E35">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="AV35" s="94"/>
       <c r="AW35" s="94"/>
       <c r="CM35" s="82"/>
       <c r="CQ35" s="16"/>
     </row>
     <row r="36" spans="1:109">
       <c r="A36" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -3309,90 +3336,103 @@
       <c r="E36">
         <v>4</v>
       </c>
-      <c r="BA36" s="96"/>
-      <c r="BB36" s="96"/>
+      <c r="AW36" s="94"/>
       <c r="CM36" s="82"/>
       <c r="CQ36" s="16"/>
     </row>
     <row r="37" spans="1:109">
       <c r="A37" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E37">
-        <v>5</v>
-      </c>
-      <c r="BC37" s="97"/>
-      <c r="BD37" s="98"/>
-      <c r="BH37" s="97"/>
+        <v>4</v>
+      </c>
+      <c r="BA37" s="96"/>
+      <c r="BB37" s="96"/>
       <c r="CM37" s="82"/>
       <c r="CQ37" s="16"/>
     </row>
     <row r="38" spans="1:109">
       <c r="A38" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E38">
-        <v>8</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="BC38" s="97"/>
+      <c r="BD38" s="98"/>
       <c r="BH38" s="97"/>
-      <c r="BI38" s="97"/>
-      <c r="BJ38" s="97"/>
-      <c r="BK38" s="97"/>
-      <c r="BO38" s="82"/>
-      <c r="BP38" s="91"/>
       <c r="CM38" s="82"/>
       <c r="CQ38" s="16"/>
     </row>
     <row r="39" spans="1:109">
       <c r="A39" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E39">
-        <v>3</v>
-      </c>
-      <c r="BO39" s="96"/>
-      <c r="BP39" s="96"/>
-      <c r="BQ39" s="91"/>
+        <v>8</v>
+      </c>
+      <c r="BH39" s="97"/>
+      <c r="BI39" s="97"/>
+      <c r="BJ39" s="97"/>
+      <c r="BK39" s="97"/>
+      <c r="BO39" s="82"/>
+      <c r="BP39" s="91"/>
       <c r="CM39" s="82"/>
       <c r="CQ39" s="16"/>
     </row>
     <row r="40" spans="1:109">
       <c r="A40" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="BO40" s="96"/>
       <c r="BP40" s="96"/>
-      <c r="BQ40" s="96"/>
+      <c r="BQ40" s="91"/>
       <c r="CM40" s="82"/>
       <c r="CQ40" s="16"/>
     </row>
     <row r="41" spans="1:109">
+      <c r="A41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="BP41" s="96"/>
+      <c r="BQ41" s="96"/>
       <c r="CM41" s="82"/>
       <c r="CQ41" s="16"/>
     </row>
@@ -3401,361 +3441,347 @@
       <c r="CQ42" s="16"/>
     </row>
     <row r="43" spans="1:109">
-      <c r="A43" s="8" t="s">
+      <c r="CM43" s="82"/>
+      <c r="CQ43" s="16"/>
+    </row>
+    <row r="44" spans="1:109">
+      <c r="A44" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B44" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C43">
+      <c r="C44">
         <v>95</v>
       </c>
-      <c r="E43">
+      <c r="E44">
         <v>95</v>
       </c>
-      <c r="BM43" s="82"/>
-      <c r="BN43" s="82"/>
-      <c r="BO43" s="72"/>
-      <c r="BP43" s="72"/>
-      <c r="BQ43" s="72"/>
-      <c r="BR43" s="72"/>
-      <c r="BS43" s="72"/>
-      <c r="BT43" s="72"/>
-      <c r="BU43" s="72"/>
-      <c r="BV43" s="72"/>
-      <c r="BW43" s="73"/>
-      <c r="BX43" s="74"/>
-      <c r="BY43" s="72"/>
-      <c r="BZ43" s="72"/>
-      <c r="CA43" s="72"/>
-      <c r="CB43" s="72"/>
-      <c r="CC43" s="72"/>
-      <c r="CD43" s="72"/>
-      <c r="CE43" s="72"/>
-      <c r="CF43" s="72"/>
-      <c r="CG43" s="72"/>
-      <c r="CH43" s="72"/>
-      <c r="CI43" s="72"/>
-      <c r="CJ43" s="72"/>
-      <c r="CK43" s="72"/>
-      <c r="CL43" s="72"/>
-      <c r="CM43" s="72"/>
-      <c r="CN43" s="72"/>
-      <c r="CO43" s="72"/>
-      <c r="CP43" s="72"/>
-      <c r="CQ43" s="72"/>
-      <c r="CR43" s="105"/>
-      <c r="CS43" s="105"/>
-      <c r="CT43" s="105"/>
-      <c r="CU43" s="105"/>
-      <c r="CV43" s="105"/>
-      <c r="CW43" s="105"/>
-      <c r="CX43" s="105"/>
-      <c r="CY43" s="105"/>
-      <c r="CZ43" s="105"/>
-      <c r="DA43" s="105"/>
-      <c r="DB43" s="106"/>
-      <c r="DC43" s="107"/>
-      <c r="DD43" s="105"/>
-      <c r="DE43" s="105"/>
-    </row>
-    <row r="44" spans="1:109">
-      <c r="A44" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BO44" s="102"/>
-      <c r="BP44" s="102"/>
-      <c r="BQ44" s="102"/>
-      <c r="BR44" s="102"/>
-      <c r="BS44" s="82"/>
-      <c r="CM44" s="82"/>
-      <c r="CQ44" s="16"/>
+      <c r="BM44" s="82"/>
+      <c r="BN44" s="82"/>
+      <c r="BO44" s="72"/>
+      <c r="BP44" s="72"/>
+      <c r="BQ44" s="72"/>
+      <c r="BR44" s="72"/>
+      <c r="BS44" s="72"/>
+      <c r="BT44" s="72"/>
+      <c r="BU44" s="72"/>
+      <c r="BV44" s="72"/>
+      <c r="BW44" s="73"/>
+      <c r="BX44" s="74"/>
+      <c r="BY44" s="72"/>
+      <c r="BZ44" s="72"/>
+      <c r="CA44" s="72"/>
+      <c r="CB44" s="72"/>
+      <c r="CC44" s="72"/>
+      <c r="CD44" s="72"/>
+      <c r="CE44" s="72"/>
+      <c r="CF44" s="72"/>
+      <c r="CG44" s="72"/>
+      <c r="CH44" s="72"/>
+      <c r="CI44" s="72"/>
+      <c r="CJ44" s="72"/>
+      <c r="CK44" s="72"/>
+      <c r="CL44" s="72"/>
+      <c r="CM44" s="72"/>
+      <c r="CN44" s="72"/>
+      <c r="CO44" s="72"/>
+      <c r="CP44" s="72"/>
+      <c r="CQ44" s="72"/>
+      <c r="CR44" s="105"/>
+      <c r="CS44" s="105"/>
+      <c r="CT44" s="105"/>
+      <c r="CU44" s="105"/>
+      <c r="CV44" s="105"/>
+      <c r="CW44" s="105"/>
+      <c r="CX44" s="105"/>
+      <c r="CY44" s="105"/>
+      <c r="CZ44" s="105"/>
+      <c r="DA44" s="105"/>
+      <c r="DB44" s="106"/>
+      <c r="DC44" s="107"/>
+      <c r="DD44" s="105"/>
+      <c r="DE44" s="105"/>
     </row>
     <row r="45" spans="1:109">
       <c r="A45" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BU45" s="102"/>
-      <c r="BV45" s="102"/>
-      <c r="BW45" s="103"/>
-      <c r="BX45" s="104"/>
-      <c r="BY45" s="102"/>
+        <v>89</v>
+      </c>
+      <c r="BO45" s="102"/>
+      <c r="BP45" s="102"/>
+      <c r="BQ45" s="102"/>
+      <c r="BR45" s="102"/>
+      <c r="BS45" s="82"/>
       <c r="CM45" s="82"/>
       <c r="CQ45" s="16"/>
     </row>
     <row r="46" spans="1:109">
       <c r="A46" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CB46" s="102"/>
-      <c r="CC46" s="102"/>
-      <c r="CD46" s="102"/>
-      <c r="CE46" s="102"/>
-      <c r="CF46" s="102"/>
+        <v>91</v>
+      </c>
+      <c r="BU46" s="102"/>
+      <c r="BV46" s="102"/>
+      <c r="BW46" s="103"/>
+      <c r="BX46" s="104"/>
+      <c r="BY46" s="102"/>
       <c r="CM46" s="82"/>
       <c r="CQ46" s="16"/>
     </row>
     <row r="47" spans="1:109">
       <c r="A47" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CI47" s="102"/>
-      <c r="CJ47" s="102"/>
-      <c r="CK47" s="102"/>
-      <c r="CL47" s="102"/>
-      <c r="CM47" s="102"/>
+        <v>92</v>
+      </c>
+      <c r="CB47" s="102"/>
+      <c r="CC47" s="102"/>
+      <c r="CD47" s="102"/>
+      <c r="CE47" s="102"/>
+      <c r="CF47" s="102"/>
+      <c r="CM47" s="82"/>
       <c r="CQ47" s="16"/>
     </row>
     <row r="48" spans="1:109">
       <c r="A48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CI48" s="102"/>
+      <c r="CJ48" s="102"/>
+      <c r="CK48" s="102"/>
+      <c r="CL48" s="102"/>
+      <c r="CM48" s="102"/>
+      <c r="CQ48" s="16"/>
+    </row>
+    <row r="49" spans="1:133">
+      <c r="A49" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>95</v>
       </c>
-      <c r="C48">
+      <c r="C49">
         <v>30</v>
       </c>
-      <c r="E48">
+      <c r="E49">
         <v>30</v>
       </c>
-      <c r="CM48" s="82"/>
-      <c r="CQ48" s="16"/>
-    </row>
-    <row r="49" spans="1:133">
-      <c r="CM49" s="102"/>
-      <c r="CN49" s="102"/>
-      <c r="CO49" s="102"/>
-      <c r="CP49" s="102"/>
-      <c r="CQ49" s="102"/>
+      <c r="CM49" s="82"/>
+      <c r="CQ49" s="16"/>
     </row>
     <row r="50" spans="1:133">
-      <c r="A50" s="10" t="s">
+      <c r="CM50" s="102"/>
+      <c r="CN50" s="102"/>
+      <c r="CO50" s="102"/>
+      <c r="CP50" s="102"/>
+      <c r="CQ50" s="102"/>
+    </row>
+    <row r="51" spans="1:133">
+      <c r="A51" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B51" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AR50" s="75"/>
-      <c r="AS50" s="76"/>
-      <c r="AT50" s="77"/>
-      <c r="AU50" s="75"/>
-      <c r="AV50" s="75"/>
-      <c r="AW50" s="75"/>
-      <c r="AX50" s="75"/>
-      <c r="AY50" s="75"/>
-      <c r="AZ50" s="75"/>
-      <c r="BA50" s="75"/>
-      <c r="BB50" s="75"/>
-      <c r="BC50" s="75"/>
-      <c r="BD50" s="78"/>
-      <c r="BE50" s="75"/>
-      <c r="BF50" s="75"/>
-      <c r="BG50" s="75"/>
-      <c r="BH50" s="75"/>
-      <c r="BI50" s="75"/>
-      <c r="BJ50" s="75"/>
-      <c r="BK50" s="75"/>
-      <c r="BL50" s="75"/>
-      <c r="BM50" s="75"/>
-      <c r="BN50" s="75"/>
-      <c r="BO50" s="75"/>
-      <c r="BP50" s="75"/>
-      <c r="BQ50" s="75"/>
-      <c r="BR50" s="75"/>
-      <c r="BS50" s="75"/>
-      <c r="BT50" s="75"/>
-      <c r="BU50" s="75"/>
-      <c r="BV50" s="75"/>
-      <c r="BW50" s="76"/>
-      <c r="BX50" s="77"/>
-      <c r="BY50" s="75"/>
-      <c r="BZ50" s="75"/>
-      <c r="CA50" s="75"/>
-      <c r="CB50" s="75"/>
-      <c r="CC50" s="75"/>
-      <c r="CD50" s="75"/>
-      <c r="CE50" s="75"/>
-      <c r="CF50" s="75"/>
-      <c r="CG50" s="75"/>
-      <c r="CH50" s="75"/>
-      <c r="CI50" s="75"/>
-      <c r="CJ50" s="75"/>
-      <c r="CK50" s="75"/>
-      <c r="CL50" s="75"/>
-      <c r="CM50" s="75"/>
-      <c r="CN50" s="75"/>
-      <c r="CO50" s="75"/>
-      <c r="CP50" s="75"/>
-      <c r="CQ50" s="75"/>
-      <c r="CR50" s="75"/>
-      <c r="CS50" s="75"/>
-      <c r="CT50" s="75"/>
-      <c r="CU50" s="75"/>
-      <c r="CV50" s="75"/>
-      <c r="CW50" s="75"/>
-      <c r="CX50" s="75"/>
-      <c r="CY50" s="75"/>
-      <c r="CZ50" s="75"/>
-      <c r="DA50" s="75"/>
-      <c r="DB50" s="76"/>
-      <c r="DC50" s="77"/>
-      <c r="DD50" s="75"/>
-      <c r="DE50" s="75"/>
-      <c r="DF50" s="75"/>
-      <c r="DG50" s="75"/>
-      <c r="DH50" s="75"/>
-      <c r="DI50" s="75"/>
-      <c r="DJ50" s="75"/>
-      <c r="DK50" s="75"/>
-      <c r="DL50" s="75"/>
-      <c r="DM50" s="75"/>
-      <c r="DN50" s="75"/>
-      <c r="DO50" s="75"/>
-    </row>
-    <row r="51" spans="1:133">
-      <c r="A51" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B51" t="s">
-        <v>126</v>
-      </c>
-      <c r="C51">
-        <v>2</v>
-      </c>
-      <c r="E51">
-        <v>3</v>
-      </c>
-      <c r="AW51" s="84"/>
-      <c r="BA51" s="84"/>
-      <c r="BB51" s="84"/>
-      <c r="CM51" s="82"/>
-      <c r="CQ51" s="16"/>
+      <c r="AR51" s="75"/>
+      <c r="AS51" s="76"/>
+      <c r="AT51" s="77"/>
+      <c r="AU51" s="75"/>
+      <c r="AV51" s="75"/>
+      <c r="AW51" s="75"/>
+      <c r="AX51" s="75"/>
+      <c r="AY51" s="75"/>
+      <c r="AZ51" s="75"/>
+      <c r="BA51" s="75"/>
+      <c r="BB51" s="75"/>
+      <c r="BC51" s="75"/>
+      <c r="BD51" s="78"/>
+      <c r="BE51" s="75"/>
+      <c r="BF51" s="75"/>
+      <c r="BG51" s="75"/>
+      <c r="BH51" s="75"/>
+      <c r="BI51" s="75"/>
+      <c r="BJ51" s="75"/>
+      <c r="BK51" s="75"/>
+      <c r="BL51" s="75"/>
+      <c r="BM51" s="75"/>
+      <c r="BN51" s="75"/>
+      <c r="BO51" s="75"/>
+      <c r="BP51" s="75"/>
+      <c r="BQ51" s="75"/>
+      <c r="BR51" s="75"/>
+      <c r="BS51" s="75"/>
+      <c r="BT51" s="75"/>
+      <c r="BU51" s="75"/>
+      <c r="BV51" s="75"/>
+      <c r="BW51" s="76"/>
+      <c r="BX51" s="77"/>
+      <c r="BY51" s="75"/>
+      <c r="BZ51" s="75"/>
+      <c r="CA51" s="75"/>
+      <c r="CB51" s="75"/>
+      <c r="CC51" s="75"/>
+      <c r="CD51" s="75"/>
+      <c r="CE51" s="75"/>
+      <c r="CF51" s="75"/>
+      <c r="CG51" s="75"/>
+      <c r="CH51" s="75"/>
+      <c r="CI51" s="75"/>
+      <c r="CJ51" s="75"/>
+      <c r="CK51" s="75"/>
+      <c r="CL51" s="75"/>
+      <c r="CM51" s="75"/>
+      <c r="CN51" s="75"/>
+      <c r="CO51" s="75"/>
+      <c r="CP51" s="75"/>
+      <c r="CQ51" s="75"/>
+      <c r="CR51" s="75"/>
+      <c r="CS51" s="75"/>
+      <c r="CT51" s="75"/>
+      <c r="CU51" s="75"/>
+      <c r="CV51" s="75"/>
+      <c r="CW51" s="75"/>
+      <c r="CX51" s="75"/>
+      <c r="CY51" s="75"/>
+      <c r="CZ51" s="75"/>
+      <c r="DA51" s="75"/>
+      <c r="DB51" s="76"/>
+      <c r="DC51" s="77"/>
+      <c r="DD51" s="75"/>
+      <c r="DE51" s="75"/>
+      <c r="DF51" s="75"/>
+      <c r="DG51" s="75"/>
+      <c r="DH51" s="75"/>
+      <c r="DI51" s="75"/>
+      <c r="DJ51" s="75"/>
+      <c r="DK51" s="75"/>
+      <c r="DL51" s="75"/>
+      <c r="DM51" s="75"/>
+      <c r="DN51" s="75"/>
+      <c r="DO51" s="75"/>
     </row>
     <row r="52" spans="1:133">
       <c r="A52" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C52">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="E52">
-        <v>45</v>
-      </c>
-      <c r="BD52" s="85"/>
-      <c r="BH52" s="84"/>
-      <c r="BI52" s="84"/>
-      <c r="BJ52" s="84"/>
-      <c r="BK52" s="84"/>
-      <c r="BO52" s="84"/>
-      <c r="BP52" s="84"/>
-      <c r="BQ52" s="84"/>
-      <c r="BR52" s="84"/>
-      <c r="BS52" s="84"/>
-      <c r="BV52" s="84"/>
-      <c r="BW52" s="86"/>
-      <c r="BX52" s="87"/>
-      <c r="BY52" s="84"/>
-      <c r="CC52" s="84"/>
-      <c r="CD52" s="84"/>
-      <c r="CE52" s="84"/>
-      <c r="CF52" s="84"/>
-      <c r="CJ52" s="84"/>
-      <c r="CK52" s="84"/>
-      <c r="CL52" s="84"/>
-      <c r="CM52" s="84"/>
-      <c r="CP52" s="84"/>
-      <c r="CQ52" s="84"/>
-      <c r="CR52" s="84"/>
-      <c r="CS52" s="84"/>
-      <c r="CT52" s="84"/>
-      <c r="CW52" s="84"/>
-      <c r="CX52" s="84"/>
+        <v>3</v>
+      </c>
+      <c r="AW52" s="84"/>
+      <c r="BA52" s="84"/>
+      <c r="BB52" s="84"/>
+      <c r="CM52" s="82"/>
+      <c r="CQ52" s="16"/>
     </row>
     <row r="53" spans="1:133">
       <c r="A53" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53">
+        <v>45</v>
+      </c>
+      <c r="E53">
+        <v>45</v>
+      </c>
+      <c r="BD53" s="85"/>
+      <c r="BH53" s="84"/>
+      <c r="BI53" s="84"/>
+      <c r="BJ53" s="84"/>
+      <c r="BK53" s="84"/>
+      <c r="BO53" s="84"/>
+      <c r="BP53" s="84"/>
+      <c r="BQ53" s="84"/>
+      <c r="BR53" s="84"/>
+      <c r="BS53" s="84"/>
+      <c r="BV53" s="84"/>
+      <c r="BW53" s="86"/>
+      <c r="BX53" s="87"/>
+      <c r="BY53" s="84"/>
+      <c r="CC53" s="84"/>
+      <c r="CD53" s="84"/>
+      <c r="CE53" s="84"/>
+      <c r="CF53" s="84"/>
+      <c r="CJ53" s="84"/>
+      <c r="CK53" s="84"/>
+      <c r="CL53" s="84"/>
+      <c r="CM53" s="84"/>
+      <c r="CP53" s="84"/>
+      <c r="CQ53" s="84"/>
+      <c r="CR53" s="84"/>
+      <c r="CS53" s="84"/>
+      <c r="CT53" s="84"/>
+      <c r="CW53" s="84"/>
+      <c r="CX53" s="84"/>
+    </row>
+    <row r="54" spans="1:133">
+      <c r="A54" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>128</v>
       </c>
-      <c r="C53">
+      <c r="C54">
         <v>10</v>
       </c>
-      <c r="E53">
+      <c r="E54">
         <v>10</v>
       </c>
-      <c r="CM53" s="82"/>
-      <c r="CQ53" s="16"/>
-      <c r="DA53" s="84"/>
-      <c r="DD53" s="84"/>
-      <c r="DE53" s="84"/>
-      <c r="DF53" s="84"/>
-      <c r="DG53" s="84"/>
-      <c r="DH53" s="84"/>
-      <c r="DK53" s="84"/>
-      <c r="DL53" s="84"/>
-    </row>
-    <row r="54" spans="1:133">
       <c r="CM54" s="82"/>
       <c r="CQ54" s="16"/>
+      <c r="DA54" s="84"/>
+      <c r="DD54" s="84"/>
+      <c r="DE54" s="84"/>
+      <c r="DF54" s="84"/>
+      <c r="DG54" s="84"/>
+      <c r="DH54" s="84"/>
+      <c r="DK54" s="84"/>
+      <c r="DL54" s="84"/>
     </row>
     <row r="55" spans="1:133">
-      <c r="A55" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="BA55" s="79"/>
-      <c r="BB55" s="79"/>
-      <c r="BC55" s="79"/>
-      <c r="BD55" s="80"/>
       <c r="CM55" s="82"/>
       <c r="CQ55" s="16"/>
-      <c r="DO55" s="79"/>
-      <c r="DP55" s="79"/>
-      <c r="DQ55" s="79"/>
-      <c r="DR55" s="79"/>
-      <c r="DS55" s="79"/>
-      <c r="DT55" s="79"/>
-      <c r="DU55" s="79"/>
-      <c r="DV55" s="79"/>
-      <c r="DW55" s="79"/>
-      <c r="DX55" s="79"/>
-      <c r="DY55" s="79"/>
-      <c r="DZ55" s="79"/>
-      <c r="EA55" s="79"/>
-      <c r="EB55" s="79"/>
-      <c r="EC55" s="79"/>
     </row>
     <row r="56" spans="1:133">
-      <c r="A56" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B56" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="AW56" s="83"/>
-      <c r="BA56" s="82"/>
+      <c r="A56" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA56" s="79"/>
+      <c r="BB56" s="79"/>
+      <c r="BC56" s="79"/>
+      <c r="BD56" s="80"/>
       <c r="CM56" s="82"/>
       <c r="CQ56" s="16"/>
+      <c r="DO56" s="79"/>
+      <c r="DP56" s="79"/>
+      <c r="DQ56" s="79"/>
+      <c r="DR56" s="79"/>
+      <c r="DS56" s="79"/>
+      <c r="DT56" s="79"/>
+      <c r="DU56" s="79"/>
+      <c r="DV56" s="79"/>
+      <c r="DW56" s="79"/>
+      <c r="DX56" s="79"/>
+      <c r="DY56" s="79"/>
+      <c r="DZ56" s="79"/>
+      <c r="EA56" s="79"/>
+      <c r="EB56" s="79"/>
+      <c r="EC56" s="79"/>
     </row>
     <row r="57" spans="1:133">
       <c r="A57" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -3763,16 +3789,17 @@
       <c r="E57">
         <v>1</v>
       </c>
+      <c r="AW57" s="83"/>
+      <c r="BA57" s="82"/>
       <c r="CM57" s="82"/>
       <c r="CQ57" s="16"/>
-      <c r="DS57" s="83"/>
     </row>
     <row r="58" spans="1:133">
       <c r="A58" s="1" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -3782,11 +3809,24 @@
       </c>
       <c r="CM58" s="82"/>
       <c r="CQ58" s="16"/>
-      <c r="DZ58" s="83"/>
+      <c r="DS58" s="83"/>
     </row>
     <row r="59" spans="1:133">
+      <c r="A59" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
       <c r="CM59" s="82"/>
       <c r="CQ59" s="16"/>
+      <c r="DZ59" s="83"/>
     </row>
     <row r="60" spans="1:133">
       <c r="CM60" s="82"/>
@@ -3813,42 +3853,42 @@
       <c r="CQ65" s="16"/>
     </row>
     <row r="66" spans="3:95">
-      <c r="C66">
-        <f>SUM(C4:C65)</f>
-        <v>297</v>
-      </c>
-      <c r="D66">
-        <f>SUM(D4:D65)</f>
-        <v>37</v>
-      </c>
-      <c r="E66" s="81">
-        <f>SUM(E4:E65)</f>
-        <v>303</v>
-      </c>
-      <c r="F66">
-        <f>SUM(F4:F65)</f>
-        <v>44</v>
-      </c>
       <c r="CM66" s="82"/>
       <c r="CQ66" s="16"/>
     </row>
     <row r="67" spans="3:95">
-      <c r="C67" t="s">
-        <v>102</v>
-      </c>
-      <c r="D67" t="s">
-        <v>103</v>
-      </c>
-      <c r="E67" t="s">
-        <v>130</v>
-      </c>
-      <c r="F67" t="s">
-        <v>129</v>
+      <c r="C67">
+        <f>SUM(C4:C66)</f>
+        <v>297</v>
+      </c>
+      <c r="D67">
+        <f>SUM(D4:D66)</f>
+        <v>37</v>
+      </c>
+      <c r="E67" s="81">
+        <f>SUM(E4:E66)</f>
+        <v>303</v>
+      </c>
+      <c r="F67">
+        <f>SUM(F4:F66)</f>
+        <v>44</v>
       </c>
       <c r="CM67" s="82"/>
       <c r="CQ67" s="16"/>
     </row>
     <row r="68" spans="3:95">
+      <c r="C68" t="s">
+        <v>102</v>
+      </c>
+      <c r="D68" t="s">
+        <v>103</v>
+      </c>
+      <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
+        <v>129</v>
+      </c>
       <c r="CM68" s="82"/>
       <c r="CQ68" s="16"/>
     </row>
@@ -3878,6 +3918,7 @@
     </row>
     <row r="75" spans="3:95">
       <c r="CM75" s="82"/>
+      <c r="CQ75" s="16"/>
     </row>
     <row r="76" spans="3:95">
       <c r="CM76" s="82"/>
@@ -4271,6 +4312,9 @@
     </row>
     <row r="206" spans="91:91">
       <c r="CM206" s="82"/>
+    </row>
+    <row r="207" spans="91:91">
+      <c r="CM207" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/konzept/projektplan.xlsx
+++ b/konzept/projektplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="6380" yWindow="2020" windowWidth="29960" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="159">
   <si>
     <t>#</t>
   </si>
@@ -316,9 +316,6 @@
     <t>5.2</t>
   </si>
   <si>
-    <t>5.3</t>
-  </si>
-  <si>
     <t>6.</t>
   </si>
   <si>
@@ -337,30 +334,18 @@
     <t>MCI Vorgehen</t>
   </si>
   <si>
-    <t>User-Profiles</t>
-  </si>
-  <si>
     <t>Szenarien</t>
   </si>
   <si>
-    <t>Aufgabenmodellierung</t>
-  </si>
-  <si>
     <t>4.2.1</t>
   </si>
   <si>
     <t>4.2.2</t>
   </si>
   <si>
-    <t>Usecases</t>
-  </si>
-  <si>
     <t>Gestaltungslösungen</t>
   </si>
   <si>
-    <t>4.5.1</t>
-  </si>
-  <si>
     <t>Iterationen</t>
   </si>
   <si>
@@ -400,12 +385,6 @@
     <t xml:space="preserve">     </t>
   </si>
   <si>
-    <t>Konzept überarbeiten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parallele Ausarbeitung </t>
-  </si>
-  <si>
     <t>Überarbeitung</t>
   </si>
   <si>
@@ -415,10 +394,109 @@
     <t>Soll-Stunde</t>
   </si>
   <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>Planung Vorgehen</t>
+    <t>MCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ausarbeitung </t>
+  </si>
+  <si>
+    <t>Einarbeitung Android</t>
+  </si>
+  <si>
+    <t>Einrichtung Latex</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>Vorgehensplanung</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>WBA</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>Sonstiges</t>
+  </si>
+  <si>
+    <t>User Profiles</t>
+  </si>
+  <si>
+    <t>Personae</t>
+  </si>
+  <si>
+    <t>User Roles + Role Map</t>
+  </si>
+  <si>
+    <t>Role Model</t>
+  </si>
+  <si>
+    <t>4.1.1</t>
+  </si>
+  <si>
+    <t>Task Model</t>
+  </si>
+  <si>
+    <t>Essentiell Use Cases</t>
+  </si>
+  <si>
+    <t>Use Case Map</t>
+  </si>
+  <si>
+    <t>Concrete Use Cases</t>
+  </si>
+  <si>
+    <t>Navigation Map</t>
+  </si>
+  <si>
+    <t>Interface Context Model</t>
+  </si>
+  <si>
+    <t>Content Model?</t>
+  </si>
+  <si>
+    <t>Anforderungsermittlung</t>
+  </si>
+  <si>
+    <t>Problemszenarien</t>
+  </si>
+  <si>
+    <t>Informationsszenarien</t>
+  </si>
+  <si>
+    <t>Aktivitätsszenarien</t>
+  </si>
+  <si>
+    <t>Interaktionsszenarien</t>
+  </si>
+  <si>
+    <t>Aufgabenstrukturen</t>
+  </si>
+  <si>
+    <t>Metaphern+ Paradigmen</t>
+  </si>
+  <si>
+    <t>Interaktionsparadigmen</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>Redesign</t>
   </si>
 </sst>
 </file>
@@ -582,12 +660,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -606,24 +678,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF1BC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEDA5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE78A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -631,6 +685,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,7 +1091,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1126,32 +1204,32 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1191,16 +1269,25 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -1583,10 +1670,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EH207"/>
+  <dimension ref="A1:EH226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1751,7 +1838,7 @@
       <c r="CJ1" s="50"/>
       <c r="CK1" s="50"/>
       <c r="CL1" s="50"/>
-      <c r="CM1" s="99"/>
+      <c r="CM1" s="92"/>
       <c r="CN1" s="50"/>
       <c r="CO1" s="50"/>
       <c r="CP1" s="50"/>
@@ -1809,155 +1896,155 @@
       <c r="EH1" s="55"/>
     </row>
     <row r="2" spans="1:138">
-      <c r="C2" s="121" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="118" t="s">
+      <c r="C2" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="103"/>
+      <c r="G2" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="108" t="s">
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="109"/>
-      <c r="AD2" s="109"/>
-      <c r="AE2" s="109"/>
-      <c r="AF2" s="109"/>
-      <c r="AG2" s="109"/>
-      <c r="AH2" s="109"/>
-      <c r="AI2" s="109"/>
-      <c r="AJ2" s="109"/>
-      <c r="AK2" s="109"/>
-      <c r="AL2" s="109"/>
-      <c r="AM2" s="109"/>
-      <c r="AN2" s="109"/>
-      <c r="AO2" s="109"/>
-      <c r="AP2" s="109"/>
-      <c r="AQ2" s="109"/>
-      <c r="AR2" s="109"/>
-      <c r="AS2" s="110"/>
-      <c r="AT2" s="111" t="s">
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="105"/>
+      <c r="AE2" s="105"/>
+      <c r="AF2" s="105"/>
+      <c r="AG2" s="105"/>
+      <c r="AH2" s="105"/>
+      <c r="AI2" s="105"/>
+      <c r="AJ2" s="105"/>
+      <c r="AK2" s="105"/>
+      <c r="AL2" s="105"/>
+      <c r="AM2" s="105"/>
+      <c r="AN2" s="105"/>
+      <c r="AO2" s="105"/>
+      <c r="AP2" s="105"/>
+      <c r="AQ2" s="105"/>
+      <c r="AR2" s="105"/>
+      <c r="AS2" s="106"/>
+      <c r="AT2" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="AU2" s="112"/>
-      <c r="AV2" s="112"/>
-      <c r="AW2" s="112"/>
-      <c r="AX2" s="112"/>
-      <c r="AY2" s="112"/>
-      <c r="AZ2" s="112"/>
-      <c r="BA2" s="112"/>
-      <c r="BB2" s="112"/>
-      <c r="BC2" s="112"/>
-      <c r="BD2" s="112"/>
-      <c r="BE2" s="112"/>
-      <c r="BF2" s="112"/>
-      <c r="BG2" s="112"/>
-      <c r="BH2" s="112"/>
-      <c r="BI2" s="112"/>
-      <c r="BJ2" s="112"/>
-      <c r="BK2" s="112"/>
-      <c r="BL2" s="112"/>
-      <c r="BM2" s="112"/>
-      <c r="BN2" s="112"/>
-      <c r="BO2" s="112"/>
-      <c r="BP2" s="112"/>
-      <c r="BQ2" s="112"/>
-      <c r="BR2" s="112"/>
-      <c r="BS2" s="112"/>
-      <c r="BT2" s="112"/>
-      <c r="BU2" s="112"/>
-      <c r="BV2" s="112"/>
-      <c r="BW2" s="113"/>
-      <c r="BX2" s="114" t="s">
+      <c r="AU2" s="108"/>
+      <c r="AV2" s="108"/>
+      <c r="AW2" s="108"/>
+      <c r="AX2" s="108"/>
+      <c r="AY2" s="108"/>
+      <c r="AZ2" s="108"/>
+      <c r="BA2" s="108"/>
+      <c r="BB2" s="108"/>
+      <c r="BC2" s="108"/>
+      <c r="BD2" s="108"/>
+      <c r="BE2" s="108"/>
+      <c r="BF2" s="108"/>
+      <c r="BG2" s="108"/>
+      <c r="BH2" s="108"/>
+      <c r="BI2" s="108"/>
+      <c r="BJ2" s="108"/>
+      <c r="BK2" s="108"/>
+      <c r="BL2" s="108"/>
+      <c r="BM2" s="108"/>
+      <c r="BN2" s="108"/>
+      <c r="BO2" s="108"/>
+      <c r="BP2" s="108"/>
+      <c r="BQ2" s="108"/>
+      <c r="BR2" s="108"/>
+      <c r="BS2" s="108"/>
+      <c r="BT2" s="108"/>
+      <c r="BU2" s="108"/>
+      <c r="BV2" s="108"/>
+      <c r="BW2" s="109"/>
+      <c r="BX2" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="BY2" s="115"/>
-      <c r="BZ2" s="115"/>
-      <c r="CA2" s="115"/>
-      <c r="CB2" s="115"/>
-      <c r="CC2" s="115"/>
-      <c r="CD2" s="115"/>
-      <c r="CE2" s="115"/>
-      <c r="CF2" s="115"/>
-      <c r="CG2" s="115"/>
-      <c r="CH2" s="115"/>
-      <c r="CI2" s="115"/>
-      <c r="CJ2" s="115"/>
-      <c r="CK2" s="115"/>
-      <c r="CL2" s="115"/>
-      <c r="CM2" s="115"/>
-      <c r="CN2" s="115"/>
-      <c r="CO2" s="115"/>
-      <c r="CP2" s="115"/>
-      <c r="CQ2" s="115"/>
-      <c r="CR2" s="115"/>
-      <c r="CS2" s="115"/>
-      <c r="CT2" s="115"/>
-      <c r="CU2" s="115"/>
-      <c r="CV2" s="115"/>
-      <c r="CW2" s="115"/>
-      <c r="CX2" s="115"/>
-      <c r="CY2" s="115"/>
-      <c r="CZ2" s="115"/>
-      <c r="DA2" s="115"/>
-      <c r="DB2" s="116"/>
-      <c r="DC2" s="111" t="s">
+      <c r="BY2" s="111"/>
+      <c r="BZ2" s="111"/>
+      <c r="CA2" s="111"/>
+      <c r="CB2" s="111"/>
+      <c r="CC2" s="111"/>
+      <c r="CD2" s="111"/>
+      <c r="CE2" s="111"/>
+      <c r="CF2" s="111"/>
+      <c r="CG2" s="111"/>
+      <c r="CH2" s="111"/>
+      <c r="CI2" s="111"/>
+      <c r="CJ2" s="111"/>
+      <c r="CK2" s="111"/>
+      <c r="CL2" s="111"/>
+      <c r="CM2" s="111"/>
+      <c r="CN2" s="111"/>
+      <c r="CO2" s="111"/>
+      <c r="CP2" s="111"/>
+      <c r="CQ2" s="111"/>
+      <c r="CR2" s="111"/>
+      <c r="CS2" s="111"/>
+      <c r="CT2" s="111"/>
+      <c r="CU2" s="111"/>
+      <c r="CV2" s="111"/>
+      <c r="CW2" s="111"/>
+      <c r="CX2" s="111"/>
+      <c r="CY2" s="111"/>
+      <c r="CZ2" s="111"/>
+      <c r="DA2" s="111"/>
+      <c r="DB2" s="112"/>
+      <c r="DC2" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="DD2" s="112"/>
-      <c r="DE2" s="112"/>
-      <c r="DF2" s="112"/>
-      <c r="DG2" s="112"/>
-      <c r="DH2" s="112"/>
-      <c r="DI2" s="112"/>
-      <c r="DJ2" s="112"/>
-      <c r="DK2" s="112"/>
-      <c r="DL2" s="112"/>
-      <c r="DM2" s="112"/>
-      <c r="DN2" s="112"/>
-      <c r="DO2" s="112"/>
-      <c r="DP2" s="112"/>
-      <c r="DQ2" s="112"/>
-      <c r="DR2" s="112"/>
-      <c r="DS2" s="112"/>
-      <c r="DT2" s="112"/>
-      <c r="DU2" s="112"/>
-      <c r="DV2" s="112"/>
-      <c r="DW2" s="112"/>
-      <c r="DX2" s="112"/>
-      <c r="DY2" s="112"/>
-      <c r="DZ2" s="112"/>
-      <c r="EA2" s="112"/>
-      <c r="EB2" s="112"/>
-      <c r="EC2" s="112"/>
-      <c r="ED2" s="112"/>
-      <c r="EE2" s="112"/>
-      <c r="EF2" s="112"/>
-      <c r="EG2" s="117"/>
+      <c r="DD2" s="108"/>
+      <c r="DE2" s="108"/>
+      <c r="DF2" s="108"/>
+      <c r="DG2" s="108"/>
+      <c r="DH2" s="108"/>
+      <c r="DI2" s="108"/>
+      <c r="DJ2" s="108"/>
+      <c r="DK2" s="108"/>
+      <c r="DL2" s="108"/>
+      <c r="DM2" s="108"/>
+      <c r="DN2" s="108"/>
+      <c r="DO2" s="108"/>
+      <c r="DP2" s="108"/>
+      <c r="DQ2" s="108"/>
+      <c r="DR2" s="108"/>
+      <c r="DS2" s="108"/>
+      <c r="DT2" s="108"/>
+      <c r="DU2" s="108"/>
+      <c r="DV2" s="108"/>
+      <c r="DW2" s="108"/>
+      <c r="DX2" s="108"/>
+      <c r="DY2" s="108"/>
+      <c r="DZ2" s="108"/>
+      <c r="EA2" s="108"/>
+      <c r="EB2" s="108"/>
+      <c r="EC2" s="108"/>
+      <c r="ED2" s="108"/>
+      <c r="EE2" s="108"/>
+      <c r="EF2" s="108"/>
+      <c r="EG2" s="113"/>
     </row>
     <row r="3" spans="1:138" s="31" customFormat="1" ht="16" thickBot="1">
       <c r="A3" s="30" t="s">
@@ -1967,16 +2054,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="31" t="s">
-        <v>103</v>
-      </c>
       <c r="E3" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="31" t="s">
         <v>102</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>103</v>
       </c>
       <c r="G3" s="66">
         <v>23</v>
@@ -2230,7 +2317,7 @@
       <c r="CL3" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="CM3" s="100" t="s">
+      <c r="CM3" s="93" t="s">
         <v>19</v>
       </c>
       <c r="CN3" s="35" t="s">
@@ -2464,7 +2551,7 @@
       <c r="CJ4" s="24"/>
       <c r="CK4" s="25"/>
       <c r="CL4" s="25"/>
-      <c r="CM4" s="101"/>
+      <c r="CM4" s="94"/>
       <c r="CN4" s="24"/>
       <c r="CO4" s="24"/>
       <c r="CP4" s="24"/>
@@ -2724,6 +2811,7 @@
       <c r="AB12" s="21">
         <v>2</v>
       </c>
+      <c r="AW12" s="82"/>
       <c r="CM12" s="82"/>
       <c r="CQ12" s="16"/>
     </row>
@@ -2738,7 +2826,7 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2751,6 +2839,9 @@
       </c>
       <c r="AM13" s="82"/>
       <c r="AP13" s="21">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="21">
         <v>1</v>
       </c>
       <c r="CM13" s="82"/>
@@ -2767,18 +2858,24 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB14" s="21">
         <v>1</v>
       </c>
       <c r="AI14" s="21">
+        <v>1</v>
+      </c>
+      <c r="BA14" s="21">
+        <v>1</v>
+      </c>
+      <c r="BB14" s="21">
         <v>1</v>
       </c>
       <c r="CM14" s="82"/>
@@ -2829,7 +2926,7 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -2849,6 +2946,10 @@
       <c r="AP16" s="21">
         <v>2</v>
       </c>
+      <c r="AW16" s="21">
+        <v>1</v>
+      </c>
+      <c r="BA16" s="21"/>
       <c r="CM16" s="82"/>
       <c r="CQ16" s="16"/>
     </row>
@@ -3008,21 +3109,24 @@
         <v>71</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <v>4</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21" s="82"/>
       <c r="AI21" s="82"/>
       <c r="AL21" s="82"/>
       <c r="AM21" s="82"/>
+      <c r="BA21" s="21">
+        <v>3</v>
+      </c>
       <c r="CM21" s="82"/>
       <c r="CQ21" s="16"/>
     </row>
@@ -3034,10 +3138,10 @@
         <v>81</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -3046,10 +3150,13 @@
         <v>1</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AM22" s="82"/>
       <c r="AP22" s="21">
+        <v>1</v>
+      </c>
+      <c r="AW22" s="21">
         <v>1</v>
       </c>
       <c r="CM22" s="82"/>
@@ -3098,7 +3205,7 @@
         <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C25">
         <v>8</v>
@@ -3107,39 +3214,31 @@
         <v>8</v>
       </c>
       <c r="AQ25" s="82"/>
-      <c r="AT25" s="89"/>
-      <c r="AU25" s="88"/>
-      <c r="AV25" s="88"/>
-      <c r="AW25" s="88"/>
+      <c r="AT25" s="91"/>
+      <c r="AU25" s="90"/>
+      <c r="AV25" s="90"/>
+      <c r="AW25" s="82"/>
       <c r="CM25" s="82"/>
       <c r="CQ25" s="16"/>
     </row>
     <row r="26" spans="1:95">
-      <c r="A26" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="B26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26">
-        <v>8</v>
-      </c>
-      <c r="E26">
-        <v>8</v>
-      </c>
-      <c r="AV26" s="88"/>
-      <c r="AW26" s="88"/>
-      <c r="AX26" s="88"/>
-      <c r="BA26" s="88"/>
+        <v>126</v>
+      </c>
+      <c r="AQ26" s="82"/>
+      <c r="AT26" s="88"/>
+      <c r="AU26" s="87"/>
+      <c r="AV26" s="87"/>
+      <c r="AW26" s="87"/>
       <c r="CM26" s="82"/>
       <c r="CQ26" s="16"/>
     </row>
     <row r="27" spans="1:95">
       <c r="A27" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C27">
         <v>8</v>
@@ -3147,19 +3246,19 @@
       <c r="E27">
         <v>8</v>
       </c>
-      <c r="BA27" s="88"/>
-      <c r="BB27" s="88"/>
-      <c r="BC27" s="88"/>
-      <c r="BD27" s="90"/>
+      <c r="AV27" s="87"/>
+      <c r="AW27" s="87"/>
+      <c r="AX27" s="87"/>
+      <c r="BA27" s="87"/>
       <c r="CM27" s="82"/>
       <c r="CQ27" s="16"/>
     </row>
     <row r="28" spans="1:95">
       <c r="A28" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C28">
         <v>8</v>
@@ -3167,20 +3266,19 @@
       <c r="E28">
         <v>8</v>
       </c>
-      <c r="BD28" s="90"/>
-      <c r="BG28" s="82"/>
-      <c r="BH28" s="88"/>
-      <c r="BI28" s="88"/>
-      <c r="BJ28" s="88"/>
+      <c r="BA28" s="87"/>
+      <c r="BB28" s="87"/>
+      <c r="BC28" s="87"/>
+      <c r="BD28" s="89"/>
       <c r="CM28" s="82"/>
       <c r="CQ28" s="16"/>
     </row>
     <row r="29" spans="1:95">
       <c r="A29" s="1" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -3188,76 +3286,63 @@
       <c r="E29">
         <v>8</v>
       </c>
-      <c r="BI29" s="88"/>
-      <c r="BJ29" s="88"/>
-      <c r="BK29" s="88"/>
-      <c r="BO29" s="88"/>
+      <c r="BD29" s="89"/>
+      <c r="BG29" s="82"/>
+      <c r="BH29" s="87"/>
+      <c r="BI29" s="87"/>
+      <c r="BJ29" s="87"/>
       <c r="CM29" s="82"/>
       <c r="CQ29" s="16"/>
     </row>
     <row r="30" spans="1:95">
       <c r="A30" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="BO30" s="88"/>
-      <c r="BP30" s="88"/>
+        <v>8</v>
+      </c>
+      <c r="BI30" s="87"/>
+      <c r="BJ30" s="87"/>
+      <c r="BK30" s="87"/>
+      <c r="BO30" s="87"/>
       <c r="CM30" s="82"/>
       <c r="CQ30" s="16"/>
     </row>
     <row r="31" spans="1:95">
-      <c r="AT31" s="92"/>
+      <c r="A31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="BO31" s="87"/>
+      <c r="BP31" s="87"/>
       <c r="CM31" s="82"/>
       <c r="CQ31" s="16"/>
     </row>
     <row r="32" spans="1:95">
-      <c r="A32" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="AR32" s="68"/>
-      <c r="AS32" s="69"/>
-      <c r="AT32" s="70"/>
-      <c r="AU32" s="68"/>
-      <c r="AV32" s="68"/>
-      <c r="AW32" s="68"/>
-      <c r="AX32" s="68"/>
-      <c r="AY32" s="68"/>
-      <c r="AZ32" s="68"/>
-      <c r="BA32" s="68"/>
-      <c r="BB32" s="68"/>
-      <c r="BC32" s="68"/>
-      <c r="BD32" s="71"/>
-      <c r="BE32" s="68"/>
-      <c r="BF32" s="68"/>
-      <c r="BG32" s="68"/>
-      <c r="BH32" s="68"/>
-      <c r="BI32" s="68"/>
-      <c r="BJ32" s="68"/>
-      <c r="BK32" s="68"/>
-      <c r="BL32" s="68"/>
-      <c r="BM32" s="68"/>
-      <c r="BN32" s="68"/>
-      <c r="BO32" s="68"/>
+      <c r="AT32" s="91"/>
       <c r="CM32" s="82"/>
       <c r="CQ32" s="16"/>
     </row>
-    <row r="33" spans="1:109">
-      <c r="A33" s="123" t="s">
-        <v>131</v>
-      </c>
-      <c r="B33" s="124" t="s">
-        <v>132</v>
+    <row r="33" spans="1:95">
+      <c r="A33" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="57" t="s">
+        <v>103</v>
       </c>
       <c r="AR33" s="68"/>
       <c r="AS33" s="69"/>
@@ -3286,12 +3371,12 @@
       <c r="CM33" s="82"/>
       <c r="CQ33" s="16"/>
     </row>
-    <row r="34" spans="1:109">
+    <row r="34" spans="1:95">
       <c r="A34" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -3299,688 +3384,964 @@
       <c r="E34">
         <v>3</v>
       </c>
-      <c r="AT34" s="95"/>
-      <c r="AU34" s="93"/>
-      <c r="AV34" s="91"/>
+      <c r="AT34" s="91"/>
+      <c r="AU34" s="120"/>
       <c r="CM34" s="82"/>
       <c r="CQ34" s="16"/>
     </row>
-    <row r="35" spans="1:109">
-      <c r="A35" s="1" t="s">
-        <v>91</v>
-      </c>
+    <row r="35" spans="1:95">
       <c r="B35" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35">
-        <v>5</v>
-      </c>
-      <c r="E35">
-        <v>5</v>
-      </c>
-      <c r="AV35" s="94"/>
-      <c r="AW35" s="94"/>
+        <v>135</v>
+      </c>
+      <c r="AT35" s="91"/>
+      <c r="AU35" s="120"/>
       <c r="CM35" s="82"/>
       <c r="CQ35" s="16"/>
     </row>
-    <row r="36" spans="1:109">
-      <c r="A36" s="1" t="s">
-        <v>108</v>
-      </c>
+    <row r="36" spans="1:95">
       <c r="B36" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36">
-        <v>4</v>
-      </c>
-      <c r="E36">
-        <v>4</v>
-      </c>
-      <c r="AW36" s="94"/>
+        <v>136</v>
+      </c>
+      <c r="AT36" s="91"/>
+      <c r="AU36" s="120"/>
       <c r="CM36" s="82"/>
       <c r="CQ36" s="16"/>
     </row>
-    <row r="37" spans="1:109">
+    <row r="37" spans="1:95">
       <c r="A37" s="1" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37">
-        <v>4</v>
-      </c>
-      <c r="E37">
-        <v>4</v>
-      </c>
-      <c r="BA37" s="96"/>
-      <c r="BB37" s="96"/>
+        <v>138</v>
+      </c>
+      <c r="AT37" s="91"/>
+      <c r="AU37" s="120"/>
       <c r="CM37" s="82"/>
       <c r="CQ37" s="16"/>
     </row>
-    <row r="38" spans="1:109">
-      <c r="A38" s="1" t="s">
-        <v>92</v>
-      </c>
+    <row r="38" spans="1:95">
       <c r="B38" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38">
-        <v>5</v>
-      </c>
-      <c r="E38">
-        <v>5</v>
-      </c>
-      <c r="BC38" s="97"/>
-      <c r="BD38" s="98"/>
-      <c r="BH38" s="97"/>
+        <v>137</v>
+      </c>
+      <c r="AT38" s="91"/>
+      <c r="AU38" s="120"/>
       <c r="CM38" s="82"/>
       <c r="CQ38" s="16"/>
     </row>
-    <row r="39" spans="1:109">
+    <row r="39" spans="1:95">
       <c r="A39" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="C39">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E39">
-        <v>8</v>
-      </c>
-      <c r="BH39" s="97"/>
-      <c r="BI39" s="97"/>
-      <c r="BJ39" s="97"/>
-      <c r="BK39" s="97"/>
-      <c r="BO39" s="82"/>
-      <c r="BP39" s="91"/>
+        <v>5</v>
+      </c>
+      <c r="AW39" s="82"/>
       <c r="CM39" s="82"/>
       <c r="CQ39" s="16"/>
     </row>
-    <row r="40" spans="1:109">
+    <row r="40" spans="1:95">
       <c r="A40" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E40">
-        <v>3</v>
-      </c>
-      <c r="BO40" s="96"/>
-      <c r="BP40" s="96"/>
-      <c r="BQ40" s="91"/>
+        <v>4</v>
+      </c>
+      <c r="AW40" s="82"/>
       <c r="CM40" s="82"/>
       <c r="CQ40" s="16"/>
     </row>
-    <row r="41" spans="1:109">
-      <c r="A41" s="1" t="s">
-        <v>112</v>
-      </c>
+    <row r="41" spans="1:95">
       <c r="B41" t="s">
-        <v>113</v>
-      </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-      <c r="BP41" s="96"/>
-      <c r="BQ41" s="96"/>
+        <v>148</v>
+      </c>
+      <c r="AW41" s="82"/>
       <c r="CM41" s="82"/>
       <c r="CQ41" s="16"/>
     </row>
-    <row r="42" spans="1:109">
+    <row r="42" spans="1:95">
+      <c r="B42" t="s">
+        <v>149</v>
+      </c>
+      <c r="AW42" s="82"/>
       <c r="CM42" s="82"/>
       <c r="CQ42" s="16"/>
     </row>
-    <row r="43" spans="1:109">
+    <row r="43" spans="1:95">
+      <c r="B43" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW43" s="82"/>
       <c r="CM43" s="82"/>
       <c r="CQ43" s="16"/>
     </row>
-    <row r="44" spans="1:109">
-      <c r="A44" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44">
-        <v>95</v>
-      </c>
-      <c r="E44">
-        <v>95</v>
-      </c>
-      <c r="BM44" s="82"/>
-      <c r="BN44" s="82"/>
-      <c r="BO44" s="72"/>
-      <c r="BP44" s="72"/>
-      <c r="BQ44" s="72"/>
-      <c r="BR44" s="72"/>
-      <c r="BS44" s="72"/>
-      <c r="BT44" s="72"/>
-      <c r="BU44" s="72"/>
-      <c r="BV44" s="72"/>
-      <c r="BW44" s="73"/>
-      <c r="BX44" s="74"/>
-      <c r="BY44" s="72"/>
-      <c r="BZ44" s="72"/>
-      <c r="CA44" s="72"/>
-      <c r="CB44" s="72"/>
-      <c r="CC44" s="72"/>
-      <c r="CD44" s="72"/>
-      <c r="CE44" s="72"/>
-      <c r="CF44" s="72"/>
-      <c r="CG44" s="72"/>
-      <c r="CH44" s="72"/>
-      <c r="CI44" s="72"/>
-      <c r="CJ44" s="72"/>
-      <c r="CK44" s="72"/>
-      <c r="CL44" s="72"/>
-      <c r="CM44" s="72"/>
-      <c r="CN44" s="72"/>
-      <c r="CO44" s="72"/>
-      <c r="CP44" s="72"/>
-      <c r="CQ44" s="72"/>
-      <c r="CR44" s="105"/>
-      <c r="CS44" s="105"/>
-      <c r="CT44" s="105"/>
-      <c r="CU44" s="105"/>
-      <c r="CV44" s="105"/>
-      <c r="CW44" s="105"/>
-      <c r="CX44" s="105"/>
-      <c r="CY44" s="105"/>
-      <c r="CZ44" s="105"/>
-      <c r="DA44" s="105"/>
-      <c r="DB44" s="106"/>
-      <c r="DC44" s="107"/>
-      <c r="DD44" s="105"/>
-      <c r="DE44" s="105"/>
-    </row>
-    <row r="45" spans="1:109">
+    <row r="44" spans="1:95">
+      <c r="B44" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW44" s="82"/>
+      <c r="CM44" s="82"/>
+      <c r="CQ44" s="16"/>
+    </row>
+    <row r="45" spans="1:95">
       <c r="A45" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BO45" s="102"/>
-      <c r="BP45" s="102"/>
-      <c r="BQ45" s="102"/>
-      <c r="BR45" s="102"/>
-      <c r="BS45" s="82"/>
+        <v>106</v>
+      </c>
+      <c r="B45" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="BA45" s="82"/>
       <c r="CM45" s="82"/>
       <c r="CQ45" s="16"/>
     </row>
-    <row r="46" spans="1:109">
-      <c r="A46" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BU46" s="102"/>
-      <c r="BV46" s="102"/>
-      <c r="BW46" s="103"/>
-      <c r="BX46" s="104"/>
-      <c r="BY46" s="102"/>
+    <row r="46" spans="1:95">
+      <c r="B46" t="s">
+        <v>152</v>
+      </c>
+      <c r="BA46" s="82"/>
       <c r="CM46" s="82"/>
       <c r="CQ46" s="16"/>
     </row>
-    <row r="47" spans="1:109">
-      <c r="A47" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CB47" s="102"/>
-      <c r="CC47" s="102"/>
-      <c r="CD47" s="102"/>
-      <c r="CE47" s="102"/>
-      <c r="CF47" s="102"/>
+    <row r="47" spans="1:95">
+      <c r="B47" t="s">
+        <v>143</v>
+      </c>
+      <c r="BA47" s="82"/>
       <c r="CM47" s="82"/>
       <c r="CQ47" s="16"/>
     </row>
-    <row r="48" spans="1:109">
-      <c r="A48" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CI48" s="102"/>
-      <c r="CJ48" s="102"/>
-      <c r="CK48" s="102"/>
-      <c r="CL48" s="102"/>
-      <c r="CM48" s="102"/>
+    <row r="48" spans="1:95">
+      <c r="B48" t="s">
+        <v>141</v>
+      </c>
+      <c r="BA48" s="82"/>
+      <c r="CM48" s="82"/>
       <c r="CQ48" s="16"/>
     </row>
-    <row r="49" spans="1:133">
-      <c r="A49" s="1" t="s">
-        <v>94</v>
-      </c>
+    <row r="49" spans="1:109">
       <c r="B49" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49">
-        <v>30</v>
-      </c>
-      <c r="E49">
-        <v>30</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="BA49" s="82"/>
       <c r="CM49" s="82"/>
       <c r="CQ49" s="16"/>
     </row>
-    <row r="50" spans="1:133">
-      <c r="CM50" s="102"/>
-      <c r="CN50" s="102"/>
-      <c r="CO50" s="102"/>
-      <c r="CP50" s="102"/>
-      <c r="CQ50" s="102"/>
-    </row>
-    <row r="51" spans="1:133">
-      <c r="A51" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR51" s="75"/>
-      <c r="AS51" s="76"/>
-      <c r="AT51" s="77"/>
-      <c r="AU51" s="75"/>
-      <c r="AV51" s="75"/>
-      <c r="AW51" s="75"/>
-      <c r="AX51" s="75"/>
-      <c r="AY51" s="75"/>
-      <c r="AZ51" s="75"/>
-      <c r="BA51" s="75"/>
-      <c r="BB51" s="75"/>
-      <c r="BC51" s="75"/>
-      <c r="BD51" s="78"/>
-      <c r="BE51" s="75"/>
-      <c r="BF51" s="75"/>
-      <c r="BG51" s="75"/>
-      <c r="BH51" s="75"/>
-      <c r="BI51" s="75"/>
-      <c r="BJ51" s="75"/>
-      <c r="BK51" s="75"/>
-      <c r="BL51" s="75"/>
-      <c r="BM51" s="75"/>
-      <c r="BN51" s="75"/>
-      <c r="BO51" s="75"/>
-      <c r="BP51" s="75"/>
-      <c r="BQ51" s="75"/>
-      <c r="BR51" s="75"/>
-      <c r="BS51" s="75"/>
-      <c r="BT51" s="75"/>
-      <c r="BU51" s="75"/>
-      <c r="BV51" s="75"/>
-      <c r="BW51" s="76"/>
-      <c r="BX51" s="77"/>
-      <c r="BY51" s="75"/>
-      <c r="BZ51" s="75"/>
-      <c r="CA51" s="75"/>
-      <c r="CB51" s="75"/>
-      <c r="CC51" s="75"/>
-      <c r="CD51" s="75"/>
-      <c r="CE51" s="75"/>
-      <c r="CF51" s="75"/>
-      <c r="CG51" s="75"/>
-      <c r="CH51" s="75"/>
-      <c r="CI51" s="75"/>
-      <c r="CJ51" s="75"/>
-      <c r="CK51" s="75"/>
-      <c r="CL51" s="75"/>
-      <c r="CM51" s="75"/>
-      <c r="CN51" s="75"/>
-      <c r="CO51" s="75"/>
-      <c r="CP51" s="75"/>
-      <c r="CQ51" s="75"/>
-      <c r="CR51" s="75"/>
-      <c r="CS51" s="75"/>
-      <c r="CT51" s="75"/>
-      <c r="CU51" s="75"/>
-      <c r="CV51" s="75"/>
-      <c r="CW51" s="75"/>
-      <c r="CX51" s="75"/>
-      <c r="CY51" s="75"/>
-      <c r="CZ51" s="75"/>
-      <c r="DA51" s="75"/>
-      <c r="DB51" s="76"/>
-      <c r="DC51" s="77"/>
-      <c r="DD51" s="75"/>
-      <c r="DE51" s="75"/>
-      <c r="DF51" s="75"/>
-      <c r="DG51" s="75"/>
-      <c r="DH51" s="75"/>
-      <c r="DI51" s="75"/>
-      <c r="DJ51" s="75"/>
-      <c r="DK51" s="75"/>
-      <c r="DL51" s="75"/>
-      <c r="DM51" s="75"/>
-      <c r="DN51" s="75"/>
-      <c r="DO51" s="75"/>
-    </row>
-    <row r="52" spans="1:133">
-      <c r="A52" s="1" t="s">
-        <v>96</v>
-      </c>
+    <row r="50" spans="1:109">
+      <c r="A50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA50" s="82"/>
+      <c r="CM50" s="82"/>
+      <c r="CQ50" s="16"/>
+    </row>
+    <row r="51" spans="1:109">
+      <c r="B51" t="s">
+        <v>145</v>
+      </c>
+      <c r="BA51" s="82"/>
+      <c r="CM51" s="82"/>
+      <c r="CQ51" s="16"/>
+    </row>
+    <row r="52" spans="1:109">
       <c r="B52" t="s">
-        <v>126</v>
-      </c>
-      <c r="C52">
-        <v>2</v>
-      </c>
-      <c r="E52">
-        <v>3</v>
-      </c>
-      <c r="AW52" s="84"/>
-      <c r="BA52" s="84"/>
-      <c r="BB52" s="84"/>
+        <v>144</v>
+      </c>
+      <c r="BA52" s="82"/>
       <c r="CM52" s="82"/>
       <c r="CQ52" s="16"/>
     </row>
-    <row r="53" spans="1:133">
+    <row r="53" spans="1:109">
       <c r="A53" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B53" t="s">
-        <v>127</v>
-      </c>
-      <c r="C53">
-        <v>45</v>
-      </c>
-      <c r="E53">
-        <v>45</v>
-      </c>
-      <c r="BD53" s="85"/>
-      <c r="BH53" s="84"/>
-      <c r="BI53" s="84"/>
-      <c r="BJ53" s="84"/>
-      <c r="BK53" s="84"/>
-      <c r="BO53" s="84"/>
-      <c r="BP53" s="84"/>
-      <c r="BQ53" s="84"/>
-      <c r="BR53" s="84"/>
-      <c r="BS53" s="84"/>
-      <c r="BV53" s="84"/>
-      <c r="BW53" s="86"/>
-      <c r="BX53" s="87"/>
-      <c r="BY53" s="84"/>
-      <c r="CC53" s="84"/>
-      <c r="CD53" s="84"/>
-      <c r="CE53" s="84"/>
-      <c r="CF53" s="84"/>
-      <c r="CJ53" s="84"/>
-      <c r="CK53" s="84"/>
-      <c r="CL53" s="84"/>
-      <c r="CM53" s="84"/>
-      <c r="CP53" s="84"/>
-      <c r="CQ53" s="84"/>
-      <c r="CR53" s="84"/>
-      <c r="CS53" s="84"/>
-      <c r="CT53" s="84"/>
-      <c r="CW53" s="84"/>
-      <c r="CX53" s="84"/>
-    </row>
-    <row r="54" spans="1:133">
+        <v>154</v>
+      </c>
+      <c r="BA53" s="82"/>
+      <c r="CM53" s="82"/>
+      <c r="CQ53" s="16"/>
+    </row>
+    <row r="54" spans="1:109">
       <c r="A54" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B54" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C54">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E54">
-        <v>10</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="BH54" s="82"/>
       <c r="CM54" s="82"/>
       <c r="CQ54" s="16"/>
-      <c r="DA54" s="84"/>
-      <c r="DD54" s="84"/>
-      <c r="DE54" s="84"/>
-      <c r="DF54" s="84"/>
-      <c r="DG54" s="84"/>
-      <c r="DH54" s="84"/>
-      <c r="DK54" s="84"/>
-      <c r="DL54" s="84"/>
-    </row>
-    <row r="55" spans="1:133">
+    </row>
+    <row r="55" spans="1:109">
+      <c r="BH55" s="82"/>
       <c r="CM55" s="82"/>
       <c r="CQ55" s="16"/>
     </row>
-    <row r="56" spans="1:133">
-      <c r="A56" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="BA56" s="79"/>
-      <c r="BB56" s="79"/>
-      <c r="BC56" s="79"/>
-      <c r="BD56" s="80"/>
+    <row r="56" spans="1:109">
+      <c r="B56" t="s">
+        <v>158</v>
+      </c>
+      <c r="BH56" s="82"/>
       <c r="CM56" s="82"/>
       <c r="CQ56" s="16"/>
-      <c r="DO56" s="79"/>
-      <c r="DP56" s="79"/>
-      <c r="DQ56" s="79"/>
-      <c r="DR56" s="79"/>
-      <c r="DS56" s="79"/>
-      <c r="DT56" s="79"/>
-      <c r="DU56" s="79"/>
-      <c r="DV56" s="79"/>
-      <c r="DW56" s="79"/>
-      <c r="DX56" s="79"/>
-      <c r="DY56" s="79"/>
-      <c r="DZ56" s="79"/>
-      <c r="EA56" s="79"/>
-      <c r="EB56" s="79"/>
-      <c r="EC56" s="79"/>
-    </row>
-    <row r="57" spans="1:133">
+    </row>
+    <row r="57" spans="1:109">
       <c r="A57" s="1" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="AW57" s="83"/>
-      <c r="BA57" s="82"/>
+        <v>8</v>
+      </c>
+      <c r="BH57" s="82"/>
+      <c r="BK57" s="82"/>
+      <c r="BO57" s="82"/>
       <c r="CM57" s="82"/>
       <c r="CQ57" s="16"/>
     </row>
-    <row r="58" spans="1:133">
-      <c r="A58" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B58" t="s">
-        <v>40</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
+    <row r="58" spans="1:109">
+      <c r="BH58" s="82"/>
+      <c r="BK58" s="82"/>
+      <c r="BO58" s="82"/>
       <c r="CM58" s="82"/>
       <c r="CQ58" s="16"/>
-      <c r="DS58" s="83"/>
-    </row>
-    <row r="59" spans="1:133">
+    </row>
+    <row r="59" spans="1:109">
       <c r="A59" s="1" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="B59" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E59">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="BO59" s="82"/>
       <c r="CM59" s="82"/>
       <c r="CQ59" s="16"/>
-      <c r="DZ59" s="83"/>
-    </row>
-    <row r="60" spans="1:133">
+    </row>
+    <row r="60" spans="1:109">
+      <c r="A60" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
       <c r="CM60" s="82"/>
       <c r="CQ60" s="16"/>
     </row>
-    <row r="61" spans="1:133">
+    <row r="61" spans="1:109">
+      <c r="B61" t="s">
+        <v>153</v>
+      </c>
       <c r="CM61" s="82"/>
       <c r="CQ61" s="16"/>
     </row>
-    <row r="62" spans="1:133">
+    <row r="62" spans="1:109">
       <c r="CM62" s="82"/>
       <c r="CQ62" s="16"/>
     </row>
-    <row r="63" spans="1:133">
-      <c r="CM63" s="82"/>
-      <c r="CQ63" s="16"/>
-    </row>
-    <row r="64" spans="1:133">
+    <row r="63" spans="1:109">
+      <c r="A63" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63">
+        <v>95</v>
+      </c>
+      <c r="E63">
+        <v>95</v>
+      </c>
+      <c r="BM63" s="82"/>
+      <c r="BN63" s="82"/>
+      <c r="BO63" s="72"/>
+      <c r="BP63" s="72"/>
+      <c r="BQ63" s="72"/>
+      <c r="BR63" s="72"/>
+      <c r="BS63" s="72"/>
+      <c r="BT63" s="72"/>
+      <c r="BU63" s="72"/>
+      <c r="BV63" s="72"/>
+      <c r="BW63" s="73"/>
+      <c r="BX63" s="74"/>
+      <c r="BY63" s="72"/>
+      <c r="BZ63" s="72"/>
+      <c r="CA63" s="72"/>
+      <c r="CB63" s="72"/>
+      <c r="CC63" s="72"/>
+      <c r="CD63" s="72"/>
+      <c r="CE63" s="72"/>
+      <c r="CF63" s="72"/>
+      <c r="CG63" s="72"/>
+      <c r="CH63" s="72"/>
+      <c r="CI63" s="72"/>
+      <c r="CJ63" s="72"/>
+      <c r="CK63" s="72"/>
+      <c r="CL63" s="72"/>
+      <c r="CM63" s="72"/>
+      <c r="CN63" s="72"/>
+      <c r="CO63" s="72"/>
+      <c r="CP63" s="72"/>
+      <c r="CQ63" s="72"/>
+      <c r="CR63" s="98"/>
+      <c r="CS63" s="98"/>
+      <c r="CT63" s="98"/>
+      <c r="CU63" s="98"/>
+      <c r="CV63" s="98"/>
+      <c r="CW63" s="98"/>
+      <c r="CX63" s="98"/>
+      <c r="CY63" s="98"/>
+      <c r="CZ63" s="98"/>
+      <c r="DA63" s="98"/>
+      <c r="DB63" s="99"/>
+      <c r="DC63" s="100"/>
+      <c r="DD63" s="98"/>
+      <c r="DE63" s="98"/>
+    </row>
+    <row r="64" spans="1:109">
+      <c r="A64" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BO64" s="95"/>
+      <c r="BP64" s="95"/>
+      <c r="BQ64" s="95"/>
+      <c r="BR64" s="95"/>
+      <c r="BS64" s="82"/>
       <c r="CM64" s="82"/>
       <c r="CQ64" s="16"/>
     </row>
-    <row r="65" spans="3:95">
+    <row r="65" spans="1:133">
+      <c r="A65" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BU65" s="95"/>
+      <c r="BV65" s="95"/>
+      <c r="BW65" s="96"/>
+      <c r="BX65" s="97"/>
+      <c r="BY65" s="95"/>
       <c r="CM65" s="82"/>
       <c r="CQ65" s="16"/>
     </row>
-    <row r="66" spans="3:95">
+    <row r="66" spans="1:133">
+      <c r="A66" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CB66" s="95"/>
+      <c r="CC66" s="95"/>
+      <c r="CD66" s="95"/>
+      <c r="CE66" s="95"/>
+      <c r="CF66" s="95"/>
       <c r="CM66" s="82"/>
       <c r="CQ66" s="16"/>
     </row>
-    <row r="67" spans="3:95">
-      <c r="C67">
-        <f>SUM(C4:C66)</f>
-        <v>297</v>
-      </c>
-      <c r="D67">
-        <f>SUM(D4:D66)</f>
-        <v>37</v>
-      </c>
-      <c r="E67" s="81">
-        <f>SUM(E4:E66)</f>
-        <v>303</v>
-      </c>
-      <c r="F67">
-        <f>SUM(F4:F66)</f>
-        <v>44</v>
-      </c>
-      <c r="CM67" s="82"/>
+    <row r="67" spans="1:133">
+      <c r="A67" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CI67" s="95"/>
+      <c r="CJ67" s="95"/>
+      <c r="CK67" s="95"/>
+      <c r="CL67" s="95"/>
+      <c r="CM67" s="95"/>
       <c r="CQ67" s="16"/>
     </row>
-    <row r="68" spans="3:95">
-      <c r="C68" t="s">
-        <v>102</v>
-      </c>
-      <c r="D68" t="s">
-        <v>103</v>
-      </c>
-      <c r="E68" t="s">
-        <v>130</v>
-      </c>
-      <c r="F68" t="s">
-        <v>129</v>
+    <row r="68" spans="1:133">
+      <c r="A68" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68">
+        <v>30</v>
+      </c>
+      <c r="E68">
+        <v>30</v>
       </c>
       <c r="CM68" s="82"/>
       <c r="CQ68" s="16"/>
     </row>
-    <row r="69" spans="3:95">
-      <c r="CM69" s="82"/>
-      <c r="CQ69" s="16"/>
-    </row>
-    <row r="70" spans="3:95">
-      <c r="CM70" s="82"/>
-      <c r="CQ70" s="16"/>
-    </row>
-    <row r="71" spans="3:95">
+    <row r="69" spans="1:133">
+      <c r="CM69" s="95"/>
+      <c r="CN69" s="95"/>
+      <c r="CO69" s="95"/>
+      <c r="CP69" s="95"/>
+      <c r="CQ69" s="95"/>
+    </row>
+    <row r="70" spans="1:133">
+      <c r="A70" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR70" s="75"/>
+      <c r="AS70" s="76"/>
+      <c r="AT70" s="77"/>
+      <c r="AU70" s="75"/>
+      <c r="AV70" s="75"/>
+      <c r="AW70" s="75"/>
+      <c r="AX70" s="75"/>
+      <c r="AY70" s="75"/>
+      <c r="AZ70" s="75"/>
+      <c r="BA70" s="75"/>
+      <c r="BB70" s="75"/>
+      <c r="BC70" s="75"/>
+      <c r="BD70" s="78"/>
+      <c r="BE70" s="75"/>
+      <c r="BF70" s="75"/>
+      <c r="BG70" s="75"/>
+      <c r="BH70" s="75"/>
+      <c r="BI70" s="75"/>
+      <c r="BJ70" s="75"/>
+      <c r="BK70" s="75"/>
+      <c r="BL70" s="75"/>
+      <c r="BM70" s="75"/>
+      <c r="BN70" s="75"/>
+      <c r="BO70" s="75"/>
+      <c r="BP70" s="75"/>
+      <c r="BQ70" s="75"/>
+      <c r="BR70" s="75"/>
+      <c r="BS70" s="75"/>
+      <c r="BT70" s="75"/>
+      <c r="BU70" s="75"/>
+      <c r="BV70" s="75"/>
+      <c r="BW70" s="76"/>
+      <c r="BX70" s="77"/>
+      <c r="BY70" s="75"/>
+      <c r="BZ70" s="75"/>
+      <c r="CA70" s="75"/>
+      <c r="CB70" s="75"/>
+      <c r="CC70" s="75"/>
+      <c r="CD70" s="75"/>
+      <c r="CE70" s="75"/>
+      <c r="CF70" s="75"/>
+      <c r="CG70" s="75"/>
+      <c r="CH70" s="75"/>
+      <c r="CI70" s="75"/>
+      <c r="CJ70" s="75"/>
+      <c r="CK70" s="75"/>
+      <c r="CL70" s="75"/>
+      <c r="CM70" s="75"/>
+      <c r="CN70" s="75"/>
+      <c r="CO70" s="75"/>
+      <c r="CP70" s="75"/>
+      <c r="CQ70" s="75"/>
+      <c r="CR70" s="75"/>
+      <c r="CS70" s="75"/>
+      <c r="CT70" s="75"/>
+      <c r="CU70" s="75"/>
+      <c r="CV70" s="75"/>
+      <c r="CW70" s="75"/>
+      <c r="CX70" s="75"/>
+      <c r="CY70" s="75"/>
+      <c r="CZ70" s="75"/>
+      <c r="DA70" s="75"/>
+      <c r="DB70" s="76"/>
+      <c r="DC70" s="77"/>
+      <c r="DD70" s="75"/>
+      <c r="DE70" s="75"/>
+      <c r="DF70" s="75"/>
+      <c r="DG70" s="75"/>
+      <c r="DH70" s="75"/>
+      <c r="DI70" s="75"/>
+      <c r="DJ70" s="75"/>
+      <c r="DK70" s="75"/>
+      <c r="DL70" s="75"/>
+      <c r="DM70" s="75"/>
+      <c r="DN70" s="75"/>
+      <c r="DO70" s="75"/>
+    </row>
+    <row r="71" spans="1:133">
+      <c r="A71" s="121"/>
+      <c r="B71" s="101" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="AR71" s="82"/>
+      <c r="AS71" s="117"/>
+      <c r="AT71" s="91"/>
+      <c r="AW71" s="83">
+        <v>1</v>
+      </c>
+      <c r="AX71" s="82"/>
+      <c r="AY71" s="82"/>
+      <c r="AZ71" s="82"/>
+      <c r="BA71" s="83">
+        <v>1</v>
+      </c>
+      <c r="BD71" s="118"/>
+      <c r="BE71" s="82"/>
+      <c r="BF71" s="82"/>
+      <c r="BG71" s="82"/>
+      <c r="BH71" s="82"/>
+      <c r="BK71" s="82"/>
+      <c r="BL71" s="82"/>
+      <c r="BM71" s="82"/>
+      <c r="BN71" s="82"/>
+      <c r="BO71" s="82"/>
+      <c r="BS71" s="82"/>
+      <c r="BT71" s="82"/>
+      <c r="BU71" s="82"/>
+      <c r="BV71" s="82"/>
+      <c r="BY71" s="82"/>
+      <c r="BZ71" s="82"/>
+      <c r="CA71" s="82"/>
+      <c r="CB71" s="82"/>
+      <c r="CC71" s="82"/>
+      <c r="CF71" s="82"/>
+      <c r="CG71" s="82"/>
+      <c r="CH71" s="82"/>
+      <c r="CI71" s="82"/>
+      <c r="CJ71" s="82"/>
       <c r="CM71" s="82"/>
+      <c r="CN71" s="82"/>
+      <c r="CO71" s="82"/>
+      <c r="CP71" s="82"/>
       <c r="CQ71" s="16"/>
-    </row>
-    <row r="72" spans="3:95">
-      <c r="CM72" s="82"/>
-      <c r="CQ72" s="16"/>
-    </row>
-    <row r="73" spans="3:95">
+      <c r="CT71" s="82"/>
+      <c r="CU71" s="82"/>
+      <c r="CV71" s="82"/>
+      <c r="CW71" s="82"/>
+      <c r="CX71" s="82"/>
+      <c r="DA71" s="82"/>
+      <c r="DB71" s="117"/>
+      <c r="DC71" s="91"/>
+      <c r="DD71" s="82"/>
+      <c r="DE71" s="82"/>
+      <c r="DH71" s="82"/>
+      <c r="DI71" s="82"/>
+      <c r="DJ71" s="82"/>
+      <c r="DK71" s="82"/>
+      <c r="DL71" s="82"/>
+    </row>
+    <row r="72" spans="1:133">
+      <c r="A72" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72">
+        <v>45</v>
+      </c>
+      <c r="E72">
+        <v>45</v>
+      </c>
+      <c r="BD72" s="84"/>
+      <c r="BH72" s="83"/>
+      <c r="BI72" s="83"/>
+      <c r="BJ72" s="83"/>
+      <c r="BK72" s="83"/>
+      <c r="BO72" s="83"/>
+      <c r="BP72" s="83"/>
+      <c r="BQ72" s="83"/>
+      <c r="BR72" s="83"/>
+      <c r="BS72" s="83"/>
+      <c r="BV72" s="83"/>
+      <c r="BW72" s="85"/>
+      <c r="BX72" s="86"/>
+      <c r="BY72" s="83"/>
+      <c r="CC72" s="83"/>
+      <c r="CD72" s="83"/>
+      <c r="CE72" s="83"/>
+      <c r="CF72" s="83"/>
+      <c r="CJ72" s="83"/>
+      <c r="CK72" s="83"/>
+      <c r="CL72" s="83"/>
+      <c r="CM72" s="83"/>
+      <c r="CP72" s="83"/>
+      <c r="CQ72" s="83"/>
+      <c r="CR72" s="83"/>
+      <c r="CS72" s="83"/>
+      <c r="CT72" s="83"/>
+      <c r="CW72" s="83"/>
+      <c r="CX72" s="83"/>
+    </row>
+    <row r="73" spans="1:133">
+      <c r="A73" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" t="s">
+        <v>121</v>
+      </c>
+      <c r="C73">
+        <v>10</v>
+      </c>
+      <c r="E73">
+        <v>10</v>
+      </c>
       <c r="CM73" s="82"/>
       <c r="CQ73" s="16"/>
-    </row>
-    <row r="74" spans="3:95">
+      <c r="DA73" s="83"/>
+      <c r="DD73" s="83"/>
+      <c r="DE73" s="83"/>
+      <c r="DF73" s="83"/>
+      <c r="DG73" s="83"/>
+      <c r="DH73" s="83"/>
+      <c r="DK73" s="83"/>
+      <c r="DL73" s="83"/>
+    </row>
+    <row r="74" spans="1:133">
       <c r="CM74" s="82"/>
       <c r="CQ74" s="16"/>
     </row>
-    <row r="75" spans="3:95">
+    <row r="75" spans="1:133">
+      <c r="A75" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA75" s="79"/>
+      <c r="BB75" s="79"/>
+      <c r="BC75" s="79"/>
+      <c r="BD75" s="80"/>
       <c r="CM75" s="82"/>
       <c r="CQ75" s="16"/>
-    </row>
-    <row r="76" spans="3:95">
+      <c r="DO75" s="79"/>
+      <c r="DP75" s="79"/>
+      <c r="DQ75" s="79"/>
+      <c r="DR75" s="79"/>
+      <c r="DS75" s="79"/>
+      <c r="DT75" s="79"/>
+      <c r="DU75" s="79"/>
+      <c r="DV75" s="79"/>
+      <c r="DW75" s="79"/>
+      <c r="DX75" s="79"/>
+      <c r="DY75" s="79"/>
+      <c r="DZ75" s="79"/>
+      <c r="EA75" s="79"/>
+      <c r="EB75" s="79"/>
+      <c r="EC75" s="79"/>
+    </row>
+    <row r="76" spans="1:133">
+      <c r="A76" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B76" t="s">
+        <v>118</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="AW76" s="82"/>
+      <c r="BA76" s="82"/>
       <c r="CM76" s="82"/>
-    </row>
-    <row r="77" spans="3:95">
+      <c r="CQ76" s="16"/>
+    </row>
+    <row r="77" spans="1:133">
+      <c r="A77" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="AW77" s="119">
+        <v>2</v>
+      </c>
+      <c r="AZ77" s="82"/>
       <c r="CM77" s="82"/>
-    </row>
-    <row r="78" spans="3:95">
+      <c r="CQ77" s="16"/>
+      <c r="DS77" s="82"/>
+    </row>
+    <row r="78" spans="1:133">
+      <c r="A78" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B78" t="s">
+        <v>41</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
       <c r="CM78" s="82"/>
-    </row>
-    <row r="79" spans="3:95">
+      <c r="CQ78" s="16"/>
+      <c r="DO78" s="129"/>
+      <c r="DZ78" s="82"/>
+    </row>
+    <row r="79" spans="1:133">
       <c r="CM79" s="82"/>
-    </row>
-    <row r="80" spans="3:95">
+      <c r="CQ79" s="16"/>
+      <c r="DV79" s="129"/>
+    </row>
+    <row r="80" spans="1:133">
       <c r="CM80" s="82"/>
-    </row>
-    <row r="81" spans="91:91">
-      <c r="CM81" s="82"/>
-    </row>
-    <row r="82" spans="91:91">
+      <c r="CQ80" s="16"/>
+    </row>
+    <row r="81" spans="1:116">
+      <c r="A81" s="122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B81" s="123" t="s">
+        <v>129</v>
+      </c>
+      <c r="AR81" s="124"/>
+      <c r="AS81" s="125"/>
+      <c r="AT81" s="126"/>
+      <c r="AU81" s="124"/>
+      <c r="AV81" s="124"/>
+      <c r="AW81" s="124"/>
+      <c r="AX81" s="124"/>
+      <c r="AY81" s="124"/>
+      <c r="AZ81" s="124"/>
+      <c r="BA81" s="124"/>
+      <c r="BB81" s="124"/>
+      <c r="BC81" s="124"/>
+      <c r="BD81" s="127"/>
+      <c r="BE81" s="124"/>
+      <c r="BF81" s="124"/>
+      <c r="BG81" s="124"/>
+      <c r="BH81" s="124"/>
+      <c r="BI81" s="124"/>
+      <c r="BJ81" s="124"/>
+      <c r="BK81" s="124"/>
+      <c r="BL81" s="124"/>
+      <c r="BM81" s="124"/>
+      <c r="BN81" s="124"/>
+      <c r="BO81" s="124"/>
+      <c r="BP81" s="124"/>
+      <c r="BQ81" s="124"/>
+      <c r="BR81" s="124"/>
+      <c r="BS81" s="124"/>
+      <c r="BT81" s="124"/>
+      <c r="BU81" s="124"/>
+      <c r="BV81" s="124"/>
+      <c r="BW81" s="125"/>
+      <c r="BX81" s="126"/>
+      <c r="BY81" s="124"/>
+      <c r="BZ81" s="124"/>
+      <c r="CA81" s="124"/>
+      <c r="CB81" s="124"/>
+      <c r="CC81" s="124"/>
+      <c r="CD81" s="124"/>
+      <c r="CE81" s="124"/>
+      <c r="CF81" s="124"/>
+      <c r="CG81" s="124"/>
+      <c r="CH81" s="124"/>
+      <c r="CI81" s="124"/>
+      <c r="CJ81" s="124"/>
+      <c r="CK81" s="124"/>
+      <c r="CL81" s="124"/>
+      <c r="CM81" s="124"/>
+      <c r="CN81" s="124"/>
+      <c r="CO81" s="124"/>
+      <c r="CP81" s="124"/>
+      <c r="CQ81" s="124"/>
+      <c r="CR81" s="124"/>
+      <c r="CS81" s="124"/>
+      <c r="CT81" s="124"/>
+      <c r="CU81" s="124"/>
+      <c r="CV81" s="124"/>
+      <c r="CW81" s="124"/>
+      <c r="CX81" s="124"/>
+      <c r="CY81" s="124"/>
+      <c r="CZ81" s="124"/>
+      <c r="DA81" s="124"/>
+      <c r="DB81" s="125"/>
+      <c r="DC81" s="126"/>
+      <c r="DD81" s="124"/>
+      <c r="DE81" s="124"/>
+      <c r="DF81" s="124"/>
+      <c r="DG81" s="124"/>
+      <c r="DH81" s="124"/>
+      <c r="DI81" s="124"/>
+      <c r="DJ81" s="124"/>
+      <c r="DK81" s="124"/>
+      <c r="DL81" s="124"/>
+    </row>
+    <row r="82" spans="1:116">
+      <c r="A82" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B82" t="s">
+        <v>124</v>
+      </c>
+      <c r="D82">
+        <v>5</v>
+      </c>
+      <c r="AT82" s="131">
+        <v>1</v>
+      </c>
+      <c r="AU82" s="130"/>
+      <c r="BB82" s="128">
+        <v>1</v>
+      </c>
+      <c r="BI82" s="128">
+        <v>1</v>
+      </c>
+      <c r="BS82" s="128">
+        <v>1</v>
+      </c>
+      <c r="CB82" s="128">
+        <v>1</v>
+      </c>
       <c r="CM82" s="82"/>
-    </row>
-    <row r="83" spans="91:91">
+      <c r="CQ82" s="16"/>
+    </row>
+    <row r="83" spans="1:116">
+      <c r="A83" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B83" t="s">
+        <v>132</v>
+      </c>
       <c r="CM83" s="82"/>
-    </row>
-    <row r="84" spans="91:91">
+      <c r="CQ83" s="16"/>
+    </row>
+    <row r="84" spans="1:116">
+      <c r="A84" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B84" t="s">
+        <v>134</v>
+      </c>
       <c r="CM84" s="82"/>
-    </row>
-    <row r="85" spans="91:91">
+      <c r="CQ84" s="16"/>
+    </row>
+    <row r="85" spans="1:116">
       <c r="CM85" s="82"/>
-    </row>
-    <row r="86" spans="91:91">
+      <c r="CQ85" s="16"/>
+    </row>
+    <row r="86" spans="1:116">
+      <c r="C86">
+        <f>SUM(C4:C85)</f>
+        <v>298</v>
+      </c>
+      <c r="D86">
+        <f>SUM(D4:D85)</f>
+        <v>53</v>
+      </c>
+      <c r="E86" s="81">
+        <f>SUM(E4:E85)</f>
+        <v>300</v>
+      </c>
+      <c r="F86">
+        <f>SUM(F4:F85)</f>
+        <v>48</v>
+      </c>
       <c r="CM86" s="82"/>
-    </row>
-    <row r="87" spans="91:91">
+      <c r="CQ86" s="16"/>
+    </row>
+    <row r="87" spans="1:116">
+      <c r="C87" t="s">
+        <v>101</v>
+      </c>
+      <c r="D87" t="s">
+        <v>102</v>
+      </c>
+      <c r="E87" t="s">
+        <v>123</v>
+      </c>
+      <c r="F87" t="s">
+        <v>122</v>
+      </c>
       <c r="CM87" s="82"/>
-    </row>
-    <row r="88" spans="91:91">
+      <c r="CQ87" s="16"/>
+    </row>
+    <row r="88" spans="1:116">
       <c r="CM88" s="82"/>
-    </row>
-    <row r="89" spans="91:91">
+      <c r="CQ88" s="16"/>
+    </row>
+    <row r="89" spans="1:116">
       <c r="CM89" s="82"/>
-    </row>
-    <row r="90" spans="91:91">
+      <c r="CQ89" s="16"/>
+    </row>
+    <row r="90" spans="1:116">
       <c r="CM90" s="82"/>
-    </row>
-    <row r="91" spans="91:91">
+      <c r="CQ90" s="16"/>
+    </row>
+    <row r="91" spans="1:116">
       <c r="CM91" s="82"/>
-    </row>
-    <row r="92" spans="91:91">
+      <c r="CQ91" s="16"/>
+    </row>
+    <row r="92" spans="1:116">
       <c r="CM92" s="82"/>
-    </row>
-    <row r="93" spans="91:91">
+      <c r="CQ92" s="16"/>
+    </row>
+    <row r="93" spans="1:116">
       <c r="CM93" s="82"/>
-    </row>
-    <row r="94" spans="91:91">
+      <c r="CQ93" s="16"/>
+    </row>
+    <row r="94" spans="1:116">
       <c r="CM94" s="82"/>
-    </row>
-    <row r="95" spans="91:91">
+      <c r="CQ94" s="16"/>
+    </row>
+    <row r="95" spans="1:116">
       <c r="CM95" s="82"/>
     </row>
-    <row r="96" spans="91:91">
+    <row r="96" spans="1:116">
       <c r="CM96" s="82"/>
     </row>
     <row r="97" spans="91:91">
@@ -4316,15 +4677,72 @@
     <row r="207" spans="91:91">
       <c r="CM207" s="82"/>
     </row>
+    <row r="208" spans="91:91">
+      <c r="CM208" s="82"/>
+    </row>
+    <row r="209" spans="91:91">
+      <c r="CM209" s="82"/>
+    </row>
+    <row r="210" spans="91:91">
+      <c r="CM210" s="82"/>
+    </row>
+    <row r="211" spans="91:91">
+      <c r="CM211" s="82"/>
+    </row>
+    <row r="212" spans="91:91">
+      <c r="CM212" s="82"/>
+    </row>
+    <row r="213" spans="91:91">
+      <c r="CM213" s="82"/>
+    </row>
+    <row r="214" spans="91:91">
+      <c r="CM214" s="82"/>
+    </row>
+    <row r="215" spans="91:91">
+      <c r="CM215" s="82"/>
+    </row>
+    <row r="216" spans="91:91">
+      <c r="CM216" s="82"/>
+    </row>
+    <row r="217" spans="91:91">
+      <c r="CM217" s="82"/>
+    </row>
+    <row r="218" spans="91:91">
+      <c r="CM218" s="82"/>
+    </row>
+    <row r="219" spans="91:91">
+      <c r="CM219" s="82"/>
+    </row>
+    <row r="220" spans="91:91">
+      <c r="CM220" s="82"/>
+    </row>
+    <row r="221" spans="91:91">
+      <c r="CM221" s="82"/>
+    </row>
+    <row r="222" spans="91:91">
+      <c r="CM222" s="82"/>
+    </row>
+    <row r="223" spans="91:91">
+      <c r="CM223" s="82"/>
+    </row>
+    <row r="224" spans="91:91">
+      <c r="CM224" s="82"/>
+    </row>
+    <row r="225" spans="91:91">
+      <c r="CM225" s="82"/>
+    </row>
+    <row r="226" spans="91:91">
+      <c r="CM226" s="82"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="DC2:EG2"/>
+    <mergeCell ref="G2:N2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="O2:AS2"/>
     <mergeCell ref="AT2:BW2"/>
     <mergeCell ref="BX2:DB2"/>
-    <mergeCell ref="DC2:EG2"/>
-    <mergeCell ref="G2:N2"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/konzept/projektplan.xlsx
+++ b/konzept/projektplan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="161">
   <si>
     <t>#</t>
   </si>
@@ -497,6 +497,12 @@
   </si>
   <si>
     <t>Redesign</t>
+  </si>
+  <si>
+    <t>Einführung MCI</t>
+  </si>
+  <si>
+    <t>2.14</t>
   </si>
 </sst>
 </file>
@@ -1670,10 +1676,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EH226"/>
+  <dimension ref="A1:EH227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="BC21" sqref="BC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2797,7 +2803,7 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -2812,6 +2818,9 @@
         <v>2</v>
       </c>
       <c r="AW12" s="82"/>
+      <c r="BB12" s="21">
+        <v>1</v>
+      </c>
       <c r="CM12" s="82"/>
       <c r="CQ12" s="16"/>
     </row>
@@ -2841,9 +2850,7 @@
       <c r="AP13" s="21">
         <v>1</v>
       </c>
-      <c r="AW13" s="21">
-        <v>1</v>
-      </c>
+      <c r="AW13" s="21"/>
       <c r="CM13" s="82"/>
       <c r="CQ13" s="16"/>
     </row>
@@ -2858,7 +2865,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2872,11 +2879,12 @@
       <c r="AI14" s="21">
         <v>1</v>
       </c>
-      <c r="BA14" s="21">
-        <v>1</v>
-      </c>
+      <c r="AW14" s="21">
+        <v>1</v>
+      </c>
+      <c r="BA14" s="82"/>
       <c r="BB14" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CM14" s="82"/>
       <c r="CQ14" s="16"/>
@@ -2886,32 +2894,31 @@
         <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="82"/>
+      <c r="AH15" s="21">
         <v>2</v>
       </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="Y15" s="21">
+      <c r="AI15" s="82"/>
+      <c r="AO15" s="21">
         <v>2</v>
       </c>
-      <c r="AF15" s="21">
-        <v>2</v>
-      </c>
-      <c r="AM15" s="21">
-        <v>1</v>
-      </c>
-      <c r="AP15" s="21">
-        <v>1</v>
-      </c>
+      <c r="AW15" s="82"/>
+      <c r="AZ15" s="21"/>
+      <c r="BA15" s="82"/>
       <c r="CM15" s="82"/>
       <c r="CQ15" s="16"/>
     </row>
@@ -2920,13 +2927,13 @@
         <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -2934,22 +2941,18 @@
       <c r="F16">
         <v>3</v>
       </c>
-      <c r="AB16" s="21">
+      <c r="Y16" s="21">
         <v>2</v>
       </c>
       <c r="AF16" s="21">
-        <v>1</v>
-      </c>
-      <c r="AI16" s="21">
+        <v>2</v>
+      </c>
+      <c r="AM16" s="21">
         <v>1</v>
       </c>
       <c r="AP16" s="21">
-        <v>2</v>
-      </c>
-      <c r="AW16" s="21">
-        <v>1</v>
-      </c>
-      <c r="BA16" s="21"/>
+        <v>1</v>
+      </c>
       <c r="CM16" s="82"/>
       <c r="CQ16" s="16"/>
     </row>
@@ -2958,26 +2961,35 @@
         <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
         <v>4</v>
       </c>
-      <c r="D17">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
         <v>3</v>
       </c>
-      <c r="E17" s="81">
-        <v>0</v>
-      </c>
-      <c r="F17" s="81">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="21">
+      <c r="AB17" s="21">
         <v>2</v>
       </c>
-      <c r="AO17" s="21">
-        <v>1</v>
-      </c>
+      <c r="AF17" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="21">
+        <v>1</v>
+      </c>
+      <c r="AP17" s="21">
+        <v>2</v>
+      </c>
+      <c r="AW17" s="21"/>
+      <c r="AZ17" s="21"/>
+      <c r="BA17" s="82"/>
       <c r="CM17" s="82"/>
       <c r="CQ17" s="16"/>
     </row>
@@ -2986,7 +2998,7 @@
         <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -2994,25 +3006,16 @@
       <c r="D18">
         <v>3</v>
       </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="Y18" s="21">
+      <c r="E18" s="81">
+        <v>0</v>
+      </c>
+      <c r="F18" s="81">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="21">
         <v>2</v>
       </c>
-      <c r="AB18" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF18" s="21">
-        <v>1</v>
-      </c>
-      <c r="AI18" s="21">
-        <v>1</v>
-      </c>
-      <c r="AM18" s="21">
+      <c r="AO18" s="21">
         <v>1</v>
       </c>
       <c r="CM18" s="82"/>
@@ -3023,39 +3026,33 @@
         <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>7</v>
-      </c>
-      <c r="AE19" s="21">
         <v>3</v>
       </c>
+      <c r="Y19" s="21">
+        <v>2</v>
+      </c>
+      <c r="AB19" s="21">
+        <v>1</v>
+      </c>
       <c r="AF19" s="21">
-        <v>3</v>
-      </c>
-      <c r="AG19" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI19" s="21">
         <v>1</v>
       </c>
-      <c r="AL19" s="21">
-        <v>3</v>
-      </c>
       <c r="AM19" s="21">
-        <v>2</v>
-      </c>
-      <c r="AN19" s="21">
         <v>1</v>
       </c>
       <c r="CM19" s="82"/>
@@ -3066,37 +3063,40 @@
         <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F20">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="AE20" s="21">
+        <v>3</v>
       </c>
       <c r="AF20" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG20" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI20" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="21">
+        <v>3</v>
+      </c>
+      <c r="AM20" s="21">
         <v>2</v>
       </c>
-      <c r="AL20" s="21">
-        <v>1</v>
-      </c>
-      <c r="AM20" s="21">
-        <v>1</v>
-      </c>
       <c r="AN20" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CM20" s="82"/>
       <c r="CQ20" s="16"/>
@@ -3106,26 +3106,37 @@
         <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="AF21" s="82"/>
-      <c r="AI21" s="82"/>
-      <c r="AL21" s="82"/>
-      <c r="AM21" s="82"/>
-      <c r="BA21" s="21">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="AF21" s="21">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI21" s="21">
+        <v>2</v>
+      </c>
+      <c r="AL21" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM21" s="21">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="21">
+        <v>2</v>
       </c>
       <c r="CM21" s="82"/>
       <c r="CQ21" s="16"/>
@@ -3135,130 +3146,139 @@
         <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
-      <c r="M22" s="15" t="s">
-        <v>120</v>
-      </c>
+      <c r="AF22" s="82"/>
+      <c r="AI22" s="82"/>
+      <c r="AL22" s="82"/>
       <c r="AM22" s="82"/>
-      <c r="AP22" s="21">
-        <v>1</v>
-      </c>
-      <c r="AW22" s="21">
-        <v>1</v>
+      <c r="BA22" s="21">
+        <v>3</v>
       </c>
       <c r="CM22" s="82"/>
       <c r="CQ22" s="16"/>
     </row>
     <row r="23" spans="1:95">
+      <c r="A23" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM23" s="82"/>
+      <c r="AP23" s="21">
+        <v>1</v>
+      </c>
+      <c r="AW23" s="21">
+        <v>1</v>
+      </c>
       <c r="CM23" s="82"/>
       <c r="CQ23" s="16"/>
     </row>
     <row r="24" spans="1:95">
-      <c r="A24" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR24" s="22"/>
-      <c r="AS24" s="42"/>
-      <c r="AT24" s="65"/>
-      <c r="AU24" s="22"/>
-      <c r="AV24" s="22"/>
-      <c r="AW24" s="22"/>
-      <c r="AX24" s="22"/>
-      <c r="AY24" s="22"/>
-      <c r="AZ24" s="22"/>
-      <c r="BA24" s="22"/>
-      <c r="BB24" s="22"/>
-      <c r="BC24" s="22"/>
-      <c r="BD24" s="23"/>
-      <c r="BE24" s="22"/>
-      <c r="BF24" s="22"/>
-      <c r="BG24" s="22"/>
-      <c r="BH24" s="22"/>
-      <c r="BI24" s="22"/>
-      <c r="BJ24" s="22"/>
-      <c r="BK24" s="22"/>
-      <c r="BL24" s="22"/>
-      <c r="BM24" s="22"/>
-      <c r="BN24" s="22"/>
-      <c r="BO24" s="22"/>
       <c r="CM24" s="82"/>
       <c r="CQ24" s="16"/>
     </row>
     <row r="25" spans="1:95">
-      <c r="A25" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25">
-        <v>8</v>
-      </c>
-      <c r="E25">
-        <v>8</v>
-      </c>
-      <c r="AQ25" s="82"/>
-      <c r="AT25" s="91"/>
-      <c r="AU25" s="90"/>
-      <c r="AV25" s="90"/>
-      <c r="AW25" s="82"/>
+      <c r="A25" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR25" s="22"/>
+      <c r="AS25" s="42"/>
+      <c r="AT25" s="65"/>
+      <c r="AU25" s="22"/>
+      <c r="AV25" s="22"/>
+      <c r="AW25" s="22"/>
+      <c r="AX25" s="22"/>
+      <c r="AY25" s="22"/>
+      <c r="AZ25" s="22"/>
+      <c r="BA25" s="22"/>
+      <c r="BB25" s="22"/>
+      <c r="BC25" s="22"/>
+      <c r="BD25" s="23"/>
+      <c r="BE25" s="22"/>
+      <c r="BF25" s="22"/>
+      <c r="BG25" s="22"/>
+      <c r="BH25" s="22"/>
+      <c r="BI25" s="22"/>
+      <c r="BJ25" s="22"/>
+      <c r="BK25" s="22"/>
+      <c r="BL25" s="22"/>
+      <c r="BM25" s="22"/>
+      <c r="BN25" s="22"/>
+      <c r="BO25" s="22"/>
       <c r="CM25" s="82"/>
       <c r="CQ25" s="16"/>
     </row>
     <row r="26" spans="1:95">
+      <c r="A26" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>110</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>8</v>
       </c>
       <c r="AQ26" s="82"/>
-      <c r="AT26" s="88"/>
-      <c r="AU26" s="87"/>
-      <c r="AV26" s="87"/>
-      <c r="AW26" s="87"/>
+      <c r="AT26" s="91"/>
+      <c r="AU26" s="90"/>
+      <c r="AV26" s="90"/>
+      <c r="AW26" s="82"/>
       <c r="CM26" s="82"/>
       <c r="CQ26" s="16"/>
     </row>
     <row r="27" spans="1:95">
-      <c r="A27" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="B27" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27">
-        <v>8</v>
-      </c>
-      <c r="E27">
-        <v>8</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="AQ27" s="82"/>
+      <c r="AT27" s="88"/>
+      <c r="AU27" s="87"/>
       <c r="AV27" s="87"/>
       <c r="AW27" s="87"/>
-      <c r="AX27" s="87"/>
-      <c r="BA27" s="87"/>
       <c r="CM27" s="82"/>
       <c r="CQ27" s="16"/>
     </row>
     <row r="28" spans="1:95">
       <c r="A28" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C28">
         <v>8</v>
@@ -3266,19 +3286,19 @@
       <c r="E28">
         <v>8</v>
       </c>
+      <c r="AV28" s="87"/>
+      <c r="AW28" s="87"/>
+      <c r="AX28" s="87"/>
       <c r="BA28" s="87"/>
-      <c r="BB28" s="87"/>
-      <c r="BC28" s="87"/>
-      <c r="BD28" s="89"/>
       <c r="CM28" s="82"/>
       <c r="CQ28" s="16"/>
     </row>
     <row r="29" spans="1:95">
       <c r="A29" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -3286,20 +3306,19 @@
       <c r="E29">
         <v>8</v>
       </c>
+      <c r="BA29" s="87"/>
+      <c r="BB29" s="87"/>
+      <c r="BC29" s="87"/>
       <c r="BD29" s="89"/>
-      <c r="BG29" s="82"/>
-      <c r="BH29" s="87"/>
-      <c r="BI29" s="87"/>
-      <c r="BJ29" s="87"/>
       <c r="CM29" s="82"/>
       <c r="CQ29" s="16"/>
     </row>
     <row r="30" spans="1:95">
       <c r="A30" s="1" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C30">
         <v>8</v>
@@ -3307,91 +3326,103 @@
       <c r="E30">
         <v>8</v>
       </c>
+      <c r="BD30" s="89"/>
+      <c r="BG30" s="82"/>
+      <c r="BH30" s="87"/>
       <c r="BI30" s="87"/>
       <c r="BJ30" s="87"/>
-      <c r="BK30" s="87"/>
-      <c r="BO30" s="87"/>
       <c r="CM30" s="82"/>
       <c r="CQ30" s="16"/>
     </row>
     <row r="31" spans="1:95">
       <c r="A31" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E31">
-        <v>3</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="BI31" s="87"/>
+      <c r="BJ31" s="87"/>
+      <c r="BK31" s="87"/>
       <c r="BO31" s="87"/>
-      <c r="BP31" s="87"/>
       <c r="CM31" s="82"/>
       <c r="CQ31" s="16"/>
     </row>
     <row r="32" spans="1:95">
-      <c r="AT32" s="91"/>
+      <c r="A32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="BO32" s="87"/>
+      <c r="BP32" s="87"/>
       <c r="CM32" s="82"/>
       <c r="CQ32" s="16"/>
     </row>
     <row r="33" spans="1:95">
-      <c r="A33" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="AR33" s="68"/>
-      <c r="AS33" s="69"/>
-      <c r="AT33" s="70"/>
-      <c r="AU33" s="68"/>
-      <c r="AV33" s="68"/>
-      <c r="AW33" s="68"/>
-      <c r="AX33" s="68"/>
-      <c r="AY33" s="68"/>
-      <c r="AZ33" s="68"/>
-      <c r="BA33" s="68"/>
-      <c r="BB33" s="68"/>
-      <c r="BC33" s="68"/>
-      <c r="BD33" s="71"/>
-      <c r="BE33" s="68"/>
-      <c r="BF33" s="68"/>
-      <c r="BG33" s="68"/>
-      <c r="BH33" s="68"/>
-      <c r="BI33" s="68"/>
-      <c r="BJ33" s="68"/>
-      <c r="BK33" s="68"/>
-      <c r="BL33" s="68"/>
-      <c r="BM33" s="68"/>
-      <c r="BN33" s="68"/>
-      <c r="BO33" s="68"/>
+      <c r="AT33" s="91"/>
       <c r="CM33" s="82"/>
       <c r="CQ33" s="16"/>
     </row>
     <row r="34" spans="1:95">
-      <c r="A34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="AT34" s="91"/>
-      <c r="AU34" s="120"/>
+      <c r="A34" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR34" s="68"/>
+      <c r="AS34" s="69"/>
+      <c r="AT34" s="70"/>
+      <c r="AU34" s="68"/>
+      <c r="AV34" s="68"/>
+      <c r="AW34" s="68"/>
+      <c r="AX34" s="68"/>
+      <c r="AY34" s="68"/>
+      <c r="AZ34" s="68"/>
+      <c r="BA34" s="68"/>
+      <c r="BB34" s="68"/>
+      <c r="BC34" s="68"/>
+      <c r="BD34" s="71"/>
+      <c r="BE34" s="68"/>
+      <c r="BF34" s="68"/>
+      <c r="BG34" s="68"/>
+      <c r="BH34" s="68"/>
+      <c r="BI34" s="68"/>
+      <c r="BJ34" s="68"/>
+      <c r="BK34" s="68"/>
+      <c r="BL34" s="68"/>
+      <c r="BM34" s="68"/>
+      <c r="BN34" s="68"/>
+      <c r="BO34" s="68"/>
       <c r="CM34" s="82"/>
       <c r="CQ34" s="16"/>
     </row>
     <row r="35" spans="1:95">
+      <c r="A35" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="B35" t="s">
-        <v>135</v>
+        <v>72</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
       </c>
       <c r="AT35" s="91"/>
       <c r="AU35" s="120"/>
@@ -3400,7 +3431,7 @@
     </row>
     <row r="36" spans="1:95">
       <c r="B36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AT36" s="91"/>
       <c r="AU36" s="120"/>
@@ -3408,11 +3439,8 @@
       <c r="CQ36" s="16"/>
     </row>
     <row r="37" spans="1:95">
-      <c r="A37" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="B37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AT37" s="91"/>
       <c r="AU37" s="120"/>
@@ -3420,8 +3448,11 @@
       <c r="CQ37" s="16"/>
     </row>
     <row r="38" spans="1:95">
+      <c r="A38" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AT38" s="91"/>
       <c r="AU38" s="120"/>
@@ -3429,42 +3460,43 @@
       <c r="CQ38" s="16"/>
     </row>
     <row r="39" spans="1:95">
-      <c r="A39" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="B39" t="s">
-        <v>147</v>
-      </c>
-      <c r="C39">
-        <v>5</v>
-      </c>
-      <c r="E39">
-        <v>5</v>
-      </c>
-      <c r="AW39" s="82"/>
+        <v>137</v>
+      </c>
+      <c r="AT39" s="91"/>
+      <c r="AU39" s="120"/>
       <c r="CM39" s="82"/>
       <c r="CQ39" s="16"/>
     </row>
     <row r="40" spans="1:95">
       <c r="A40" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW40" s="82"/>
       <c r="CM40" s="82"/>
       <c r="CQ40" s="16"/>
     </row>
     <row r="41" spans="1:95">
+      <c r="A41" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="B41" t="s">
-        <v>148</v>
+        <v>104</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
       </c>
       <c r="AW41" s="82"/>
       <c r="CM41" s="82"/>
@@ -3472,7 +3504,7 @@
     </row>
     <row r="42" spans="1:95">
       <c r="B42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AW42" s="82"/>
       <c r="CM42" s="82"/>
@@ -3480,7 +3512,7 @@
     </row>
     <row r="43" spans="1:95">
       <c r="B43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AW43" s="82"/>
       <c r="CM43" s="82"/>
@@ -3488,32 +3520,32 @@
     </row>
     <row r="44" spans="1:95">
       <c r="B44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AW44" s="82"/>
       <c r="CM44" s="82"/>
       <c r="CQ44" s="16"/>
     </row>
     <row r="45" spans="1:95">
-      <c r="A45" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="B45" t="s">
-        <v>140</v>
-      </c>
-      <c r="C45">
-        <v>4</v>
-      </c>
-      <c r="E45">
-        <v>4</v>
-      </c>
-      <c r="BA45" s="82"/>
+        <v>151</v>
+      </c>
+      <c r="AW45" s="82"/>
       <c r="CM45" s="82"/>
       <c r="CQ45" s="16"/>
     </row>
     <row r="46" spans="1:95">
+      <c r="A46" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="B46" t="s">
-        <v>152</v>
+        <v>140</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
       </c>
       <c r="BA46" s="82"/>
       <c r="CM46" s="82"/>
@@ -3521,7 +3553,7 @@
     </row>
     <row r="47" spans="1:95">
       <c r="B47" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="BA47" s="82"/>
       <c r="CM47" s="82"/>
@@ -3529,7 +3561,7 @@
     </row>
     <row r="48" spans="1:95">
       <c r="B48" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="BA48" s="82"/>
       <c r="CM48" s="82"/>
@@ -3537,26 +3569,26 @@
     </row>
     <row r="49" spans="1:109">
       <c r="B49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="BA49" s="82"/>
       <c r="CM49" s="82"/>
       <c r="CQ49" s="16"/>
     </row>
     <row r="50" spans="1:109">
-      <c r="A50" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="B50" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="BA50" s="82"/>
       <c r="CM50" s="82"/>
       <c r="CQ50" s="16"/>
     </row>
     <row r="51" spans="1:109">
+      <c r="A51" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="BA51" s="82"/>
       <c r="CM51" s="82"/>
@@ -3564,18 +3596,15 @@
     </row>
     <row r="52" spans="1:109">
       <c r="B52" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="BA52" s="82"/>
       <c r="CM52" s="82"/>
       <c r="CQ52" s="16"/>
     </row>
     <row r="53" spans="1:109">
-      <c r="A53" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="B53" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="BA53" s="82"/>
       <c r="CM53" s="82"/>
@@ -3583,54 +3612,58 @@
     </row>
     <row r="54" spans="1:109">
       <c r="A54" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
-      </c>
-      <c r="C54">
-        <v>5</v>
-      </c>
-      <c r="E54">
-        <v>5</v>
-      </c>
-      <c r="BH54" s="82"/>
+        <v>154</v>
+      </c>
+      <c r="BA54" s="82"/>
       <c r="CM54" s="82"/>
       <c r="CQ54" s="16"/>
     </row>
     <row r="55" spans="1:109">
+      <c r="A55" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
       <c r="BH55" s="82"/>
       <c r="CM55" s="82"/>
       <c r="CQ55" s="16"/>
     </row>
     <row r="56" spans="1:109">
-      <c r="B56" t="s">
-        <v>158</v>
-      </c>
       <c r="BH56" s="82"/>
       <c r="CM56" s="82"/>
       <c r="CQ56" s="16"/>
     </row>
     <row r="57" spans="1:109">
-      <c r="A57" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="B57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C57">
-        <v>8</v>
-      </c>
-      <c r="E57">
-        <v>8</v>
+        <v>158</v>
       </c>
       <c r="BH57" s="82"/>
-      <c r="BK57" s="82"/>
-      <c r="BO57" s="82"/>
       <c r="CM57" s="82"/>
       <c r="CQ57" s="16"/>
     </row>
     <row r="58" spans="1:109">
+      <c r="A58" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B58" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58">
+        <v>8</v>
+      </c>
+      <c r="E58">
+        <v>8</v>
+      </c>
       <c r="BH58" s="82"/>
       <c r="BK58" s="82"/>
       <c r="BO58" s="82"/>
@@ -3638,487 +3671,473 @@
       <c r="CQ58" s="16"/>
     </row>
     <row r="59" spans="1:109">
-      <c r="A59" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B59" t="s">
-        <v>87</v>
-      </c>
-      <c r="C59">
-        <v>3</v>
-      </c>
-      <c r="E59">
-        <v>3</v>
-      </c>
+      <c r="BH59" s="82"/>
+      <c r="BK59" s="82"/>
       <c r="BO59" s="82"/>
       <c r="CM59" s="82"/>
       <c r="CQ59" s="16"/>
     </row>
     <row r="60" spans="1:109">
       <c r="A60" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E60">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="BO60" s="82"/>
       <c r="CM60" s="82"/>
       <c r="CQ60" s="16"/>
     </row>
     <row r="61" spans="1:109">
+      <c r="A61" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="B61" t="s">
-        <v>153</v>
+        <v>108</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
       </c>
       <c r="CM61" s="82"/>
       <c r="CQ61" s="16"/>
     </row>
     <row r="62" spans="1:109">
+      <c r="B62" t="s">
+        <v>153</v>
+      </c>
       <c r="CM62" s="82"/>
       <c r="CQ62" s="16"/>
     </row>
     <row r="63" spans="1:109">
-      <c r="A63" s="8" t="s">
+      <c r="CM63" s="82"/>
+      <c r="CQ63" s="16"/>
+    </row>
+    <row r="64" spans="1:109">
+      <c r="A64" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B64" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C63">
+      <c r="C64">
         <v>95</v>
       </c>
-      <c r="E63">
+      <c r="E64">
         <v>95</v>
       </c>
-      <c r="BM63" s="82"/>
-      <c r="BN63" s="82"/>
-      <c r="BO63" s="72"/>
-      <c r="BP63" s="72"/>
-      <c r="BQ63" s="72"/>
-      <c r="BR63" s="72"/>
-      <c r="BS63" s="72"/>
-      <c r="BT63" s="72"/>
-      <c r="BU63" s="72"/>
-      <c r="BV63" s="72"/>
-      <c r="BW63" s="73"/>
-      <c r="BX63" s="74"/>
-      <c r="BY63" s="72"/>
-      <c r="BZ63" s="72"/>
-      <c r="CA63" s="72"/>
-      <c r="CB63" s="72"/>
-      <c r="CC63" s="72"/>
-      <c r="CD63" s="72"/>
-      <c r="CE63" s="72"/>
-      <c r="CF63" s="72"/>
-      <c r="CG63" s="72"/>
-      <c r="CH63" s="72"/>
-      <c r="CI63" s="72"/>
-      <c r="CJ63" s="72"/>
-      <c r="CK63" s="72"/>
-      <c r="CL63" s="72"/>
-      <c r="CM63" s="72"/>
-      <c r="CN63" s="72"/>
-      <c r="CO63" s="72"/>
-      <c r="CP63" s="72"/>
-      <c r="CQ63" s="72"/>
-      <c r="CR63" s="98"/>
-      <c r="CS63" s="98"/>
-      <c r="CT63" s="98"/>
-      <c r="CU63" s="98"/>
-      <c r="CV63" s="98"/>
-      <c r="CW63" s="98"/>
-      <c r="CX63" s="98"/>
-      <c r="CY63" s="98"/>
-      <c r="CZ63" s="98"/>
-      <c r="DA63" s="98"/>
-      <c r="DB63" s="99"/>
-      <c r="DC63" s="100"/>
-      <c r="DD63" s="98"/>
-      <c r="DE63" s="98"/>
-    </row>
-    <row r="64" spans="1:109">
-      <c r="A64" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BO64" s="95"/>
-      <c r="BP64" s="95"/>
-      <c r="BQ64" s="95"/>
-      <c r="BR64" s="95"/>
-      <c r="BS64" s="82"/>
-      <c r="CM64" s="82"/>
-      <c r="CQ64" s="16"/>
+      <c r="BM64" s="82"/>
+      <c r="BN64" s="82"/>
+      <c r="BO64" s="72"/>
+      <c r="BP64" s="72"/>
+      <c r="BQ64" s="72"/>
+      <c r="BR64" s="72"/>
+      <c r="BS64" s="72"/>
+      <c r="BT64" s="72"/>
+      <c r="BU64" s="72"/>
+      <c r="BV64" s="72"/>
+      <c r="BW64" s="73"/>
+      <c r="BX64" s="74"/>
+      <c r="BY64" s="72"/>
+      <c r="BZ64" s="72"/>
+      <c r="CA64" s="72"/>
+      <c r="CB64" s="72"/>
+      <c r="CC64" s="72"/>
+      <c r="CD64" s="72"/>
+      <c r="CE64" s="72"/>
+      <c r="CF64" s="72"/>
+      <c r="CG64" s="72"/>
+      <c r="CH64" s="72"/>
+      <c r="CI64" s="72"/>
+      <c r="CJ64" s="72"/>
+      <c r="CK64" s="72"/>
+      <c r="CL64" s="72"/>
+      <c r="CM64" s="72"/>
+      <c r="CN64" s="72"/>
+      <c r="CO64" s="72"/>
+      <c r="CP64" s="72"/>
+      <c r="CQ64" s="72"/>
+      <c r="CR64" s="98"/>
+      <c r="CS64" s="98"/>
+      <c r="CT64" s="98"/>
+      <c r="CU64" s="98"/>
+      <c r="CV64" s="98"/>
+      <c r="CW64" s="98"/>
+      <c r="CX64" s="98"/>
+      <c r="CY64" s="98"/>
+      <c r="CZ64" s="98"/>
+      <c r="DA64" s="98"/>
+      <c r="DB64" s="99"/>
+      <c r="DC64" s="100"/>
+      <c r="DD64" s="98"/>
+      <c r="DE64" s="98"/>
     </row>
     <row r="65" spans="1:133">
       <c r="A65" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BU65" s="95"/>
-      <c r="BV65" s="95"/>
-      <c r="BW65" s="96"/>
-      <c r="BX65" s="97"/>
-      <c r="BY65" s="95"/>
+        <v>89</v>
+      </c>
+      <c r="BO65" s="95"/>
+      <c r="BP65" s="95"/>
+      <c r="BQ65" s="95"/>
+      <c r="BR65" s="95"/>
+      <c r="BS65" s="82"/>
       <c r="CM65" s="82"/>
       <c r="CQ65" s="16"/>
     </row>
     <row r="66" spans="1:133">
       <c r="A66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CB66" s="95"/>
-      <c r="CC66" s="95"/>
-      <c r="CD66" s="95"/>
-      <c r="CE66" s="95"/>
-      <c r="CF66" s="95"/>
+        <v>91</v>
+      </c>
+      <c r="BU66" s="95"/>
+      <c r="BV66" s="95"/>
+      <c r="BW66" s="96"/>
+      <c r="BX66" s="97"/>
+      <c r="BY66" s="95"/>
       <c r="CM66" s="82"/>
       <c r="CQ66" s="16"/>
     </row>
     <row r="67" spans="1:133">
       <c r="A67" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CI67" s="95"/>
-      <c r="CJ67" s="95"/>
-      <c r="CK67" s="95"/>
-      <c r="CL67" s="95"/>
-      <c r="CM67" s="95"/>
+        <v>92</v>
+      </c>
+      <c r="CB67" s="95"/>
+      <c r="CC67" s="95"/>
+      <c r="CD67" s="95"/>
+      <c r="CE67" s="95"/>
+      <c r="CF67" s="95"/>
+      <c r="CM67" s="82"/>
       <c r="CQ67" s="16"/>
     </row>
     <row r="68" spans="1:133">
       <c r="A68" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CI68" s="95"/>
+      <c r="CJ68" s="95"/>
+      <c r="CK68" s="95"/>
+      <c r="CL68" s="95"/>
+      <c r="CM68" s="95"/>
+      <c r="CQ68" s="16"/>
+    </row>
+    <row r="69" spans="1:133">
+      <c r="A69" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>95</v>
       </c>
-      <c r="C68">
+      <c r="C69">
         <v>30</v>
       </c>
-      <c r="E68">
+      <c r="E69">
         <v>30</v>
       </c>
-      <c r="CM68" s="82"/>
-      <c r="CQ68" s="16"/>
-    </row>
-    <row r="69" spans="1:133">
-      <c r="CM69" s="95"/>
-      <c r="CN69" s="95"/>
-      <c r="CO69" s="95"/>
-      <c r="CP69" s="95"/>
-      <c r="CQ69" s="95"/>
+      <c r="CM69" s="82"/>
+      <c r="CQ69" s="16"/>
     </row>
     <row r="70" spans="1:133">
-      <c r="A70" s="10" t="s">
+      <c r="CM70" s="95"/>
+      <c r="CN70" s="95"/>
+      <c r="CO70" s="95"/>
+      <c r="CP70" s="95"/>
+      <c r="CQ70" s="95"/>
+    </row>
+    <row r="71" spans="1:133">
+      <c r="A71" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B71" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AR70" s="75"/>
-      <c r="AS70" s="76"/>
-      <c r="AT70" s="77"/>
-      <c r="AU70" s="75"/>
-      <c r="AV70" s="75"/>
-      <c r="AW70" s="75"/>
-      <c r="AX70" s="75"/>
-      <c r="AY70" s="75"/>
-      <c r="AZ70" s="75"/>
-      <c r="BA70" s="75"/>
-      <c r="BB70" s="75"/>
-      <c r="BC70" s="75"/>
-      <c r="BD70" s="78"/>
-      <c r="BE70" s="75"/>
-      <c r="BF70" s="75"/>
-      <c r="BG70" s="75"/>
-      <c r="BH70" s="75"/>
-      <c r="BI70" s="75"/>
-      <c r="BJ70" s="75"/>
-      <c r="BK70" s="75"/>
-      <c r="BL70" s="75"/>
-      <c r="BM70" s="75"/>
-      <c r="BN70" s="75"/>
-      <c r="BO70" s="75"/>
-      <c r="BP70" s="75"/>
-      <c r="BQ70" s="75"/>
-      <c r="BR70" s="75"/>
-      <c r="BS70" s="75"/>
-      <c r="BT70" s="75"/>
-      <c r="BU70" s="75"/>
-      <c r="BV70" s="75"/>
-      <c r="BW70" s="76"/>
-      <c r="BX70" s="77"/>
-      <c r="BY70" s="75"/>
-      <c r="BZ70" s="75"/>
-      <c r="CA70" s="75"/>
-      <c r="CB70" s="75"/>
-      <c r="CC70" s="75"/>
-      <c r="CD70" s="75"/>
-      <c r="CE70" s="75"/>
-      <c r="CF70" s="75"/>
-      <c r="CG70" s="75"/>
-      <c r="CH70" s="75"/>
-      <c r="CI70" s="75"/>
-      <c r="CJ70" s="75"/>
-      <c r="CK70" s="75"/>
-      <c r="CL70" s="75"/>
-      <c r="CM70" s="75"/>
-      <c r="CN70" s="75"/>
-      <c r="CO70" s="75"/>
-      <c r="CP70" s="75"/>
-      <c r="CQ70" s="75"/>
-      <c r="CR70" s="75"/>
-      <c r="CS70" s="75"/>
-      <c r="CT70" s="75"/>
-      <c r="CU70" s="75"/>
-      <c r="CV70" s="75"/>
-      <c r="CW70" s="75"/>
-      <c r="CX70" s="75"/>
-      <c r="CY70" s="75"/>
-      <c r="CZ70" s="75"/>
-      <c r="DA70" s="75"/>
-      <c r="DB70" s="76"/>
-      <c r="DC70" s="77"/>
-      <c r="DD70" s="75"/>
-      <c r="DE70" s="75"/>
-      <c r="DF70" s="75"/>
-      <c r="DG70" s="75"/>
-      <c r="DH70" s="75"/>
-      <c r="DI70" s="75"/>
-      <c r="DJ70" s="75"/>
-      <c r="DK70" s="75"/>
-      <c r="DL70" s="75"/>
-      <c r="DM70" s="75"/>
-      <c r="DN70" s="75"/>
-      <c r="DO70" s="75"/>
-    </row>
-    <row r="71" spans="1:133">
-      <c r="A71" s="121"/>
-      <c r="B71" s="101" t="s">
+      <c r="AR71" s="75"/>
+      <c r="AS71" s="76"/>
+      <c r="AT71" s="77"/>
+      <c r="AU71" s="75"/>
+      <c r="AV71" s="75"/>
+      <c r="AW71" s="75"/>
+      <c r="AX71" s="75"/>
+      <c r="AY71" s="75"/>
+      <c r="AZ71" s="75"/>
+      <c r="BA71" s="75"/>
+      <c r="BB71" s="75"/>
+      <c r="BC71" s="75"/>
+      <c r="BD71" s="78"/>
+      <c r="BE71" s="75"/>
+      <c r="BF71" s="75"/>
+      <c r="BG71" s="75"/>
+      <c r="BH71" s="75"/>
+      <c r="BI71" s="75"/>
+      <c r="BJ71" s="75"/>
+      <c r="BK71" s="75"/>
+      <c r="BL71" s="75"/>
+      <c r="BM71" s="75"/>
+      <c r="BN71" s="75"/>
+      <c r="BO71" s="75"/>
+      <c r="BP71" s="75"/>
+      <c r="BQ71" s="75"/>
+      <c r="BR71" s="75"/>
+      <c r="BS71" s="75"/>
+      <c r="BT71" s="75"/>
+      <c r="BU71" s="75"/>
+      <c r="BV71" s="75"/>
+      <c r="BW71" s="76"/>
+      <c r="BX71" s="77"/>
+      <c r="BY71" s="75"/>
+      <c r="BZ71" s="75"/>
+      <c r="CA71" s="75"/>
+      <c r="CB71" s="75"/>
+      <c r="CC71" s="75"/>
+      <c r="CD71" s="75"/>
+      <c r="CE71" s="75"/>
+      <c r="CF71" s="75"/>
+      <c r="CG71" s="75"/>
+      <c r="CH71" s="75"/>
+      <c r="CI71" s="75"/>
+      <c r="CJ71" s="75"/>
+      <c r="CK71" s="75"/>
+      <c r="CL71" s="75"/>
+      <c r="CM71" s="75"/>
+      <c r="CN71" s="75"/>
+      <c r="CO71" s="75"/>
+      <c r="CP71" s="75"/>
+      <c r="CQ71" s="75"/>
+      <c r="CR71" s="75"/>
+      <c r="CS71" s="75"/>
+      <c r="CT71" s="75"/>
+      <c r="CU71" s="75"/>
+      <c r="CV71" s="75"/>
+      <c r="CW71" s="75"/>
+      <c r="CX71" s="75"/>
+      <c r="CY71" s="75"/>
+      <c r="CZ71" s="75"/>
+      <c r="DA71" s="75"/>
+      <c r="DB71" s="76"/>
+      <c r="DC71" s="77"/>
+      <c r="DD71" s="75"/>
+      <c r="DE71" s="75"/>
+      <c r="DF71" s="75"/>
+      <c r="DG71" s="75"/>
+      <c r="DH71" s="75"/>
+      <c r="DI71" s="75"/>
+      <c r="DJ71" s="75"/>
+      <c r="DK71" s="75"/>
+      <c r="DL71" s="75"/>
+      <c r="DM71" s="75"/>
+      <c r="DN71" s="75"/>
+      <c r="DO71" s="75"/>
+    </row>
+    <row r="72" spans="1:133">
+      <c r="A72" s="121"/>
+      <c r="B72" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
         <v>2</v>
       </c>
-      <c r="E71">
+      <c r="E72">
         <v>0</v>
       </c>
-      <c r="F71">
+      <c r="F72">
         <v>0</v>
       </c>
-      <c r="AR71" s="82"/>
-      <c r="AS71" s="117"/>
-      <c r="AT71" s="91"/>
-      <c r="AW71" s="83">
-        <v>1</v>
-      </c>
-      <c r="AX71" s="82"/>
-      <c r="AY71" s="82"/>
-      <c r="AZ71" s="82"/>
-      <c r="BA71" s="83">
-        <v>1</v>
-      </c>
-      <c r="BD71" s="118"/>
-      <c r="BE71" s="82"/>
-      <c r="BF71" s="82"/>
-      <c r="BG71" s="82"/>
-      <c r="BH71" s="82"/>
-      <c r="BK71" s="82"/>
-      <c r="BL71" s="82"/>
-      <c r="BM71" s="82"/>
-      <c r="BN71" s="82"/>
-      <c r="BO71" s="82"/>
-      <c r="BS71" s="82"/>
-      <c r="BT71" s="82"/>
-      <c r="BU71" s="82"/>
-      <c r="BV71" s="82"/>
-      <c r="BY71" s="82"/>
-      <c r="BZ71" s="82"/>
-      <c r="CA71" s="82"/>
-      <c r="CB71" s="82"/>
-      <c r="CC71" s="82"/>
-      <c r="CF71" s="82"/>
-      <c r="CG71" s="82"/>
-      <c r="CH71" s="82"/>
-      <c r="CI71" s="82"/>
-      <c r="CJ71" s="82"/>
-      <c r="CM71" s="82"/>
-      <c r="CN71" s="82"/>
-      <c r="CO71" s="82"/>
-      <c r="CP71" s="82"/>
-      <c r="CQ71" s="16"/>
-      <c r="CT71" s="82"/>
-      <c r="CU71" s="82"/>
-      <c r="CV71" s="82"/>
-      <c r="CW71" s="82"/>
-      <c r="CX71" s="82"/>
-      <c r="DA71" s="82"/>
-      <c r="DB71" s="117"/>
-      <c r="DC71" s="91"/>
-      <c r="DD71" s="82"/>
-      <c r="DE71" s="82"/>
-      <c r="DH71" s="82"/>
-      <c r="DI71" s="82"/>
-      <c r="DJ71" s="82"/>
-      <c r="DK71" s="82"/>
-      <c r="DL71" s="82"/>
-    </row>
-    <row r="72" spans="1:133">
-      <c r="A72" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B72" t="s">
-        <v>125</v>
-      </c>
-      <c r="C72">
-        <v>45</v>
-      </c>
-      <c r="E72">
-        <v>45</v>
-      </c>
-      <c r="BD72" s="84"/>
-      <c r="BH72" s="83"/>
-      <c r="BI72" s="83"/>
-      <c r="BJ72" s="83"/>
-      <c r="BK72" s="83"/>
-      <c r="BO72" s="83"/>
-      <c r="BP72" s="83"/>
-      <c r="BQ72" s="83"/>
-      <c r="BR72" s="83"/>
-      <c r="BS72" s="83"/>
-      <c r="BV72" s="83"/>
-      <c r="BW72" s="85"/>
-      <c r="BX72" s="86"/>
-      <c r="BY72" s="83"/>
-      <c r="CC72" s="83"/>
-      <c r="CD72" s="83"/>
-      <c r="CE72" s="83"/>
-      <c r="CF72" s="83"/>
-      <c r="CJ72" s="83"/>
-      <c r="CK72" s="83"/>
-      <c r="CL72" s="83"/>
-      <c r="CM72" s="83"/>
-      <c r="CP72" s="83"/>
-      <c r="CQ72" s="83"/>
-      <c r="CR72" s="83"/>
-      <c r="CS72" s="83"/>
-      <c r="CT72" s="83"/>
-      <c r="CW72" s="83"/>
-      <c r="CX72" s="83"/>
+      <c r="AR72" s="82"/>
+      <c r="AS72" s="117"/>
+      <c r="AT72" s="91"/>
+      <c r="AW72" s="83">
+        <v>1</v>
+      </c>
+      <c r="AX72" s="82"/>
+      <c r="AY72" s="82"/>
+      <c r="AZ72" s="82"/>
+      <c r="BA72" s="83">
+        <v>1</v>
+      </c>
+      <c r="BD72" s="118"/>
+      <c r="BE72" s="82"/>
+      <c r="BF72" s="82"/>
+      <c r="BG72" s="82"/>
+      <c r="BH72" s="82"/>
+      <c r="BK72" s="82"/>
+      <c r="BL72" s="82"/>
+      <c r="BM72" s="82"/>
+      <c r="BN72" s="82"/>
+      <c r="BO72" s="82"/>
+      <c r="BS72" s="82"/>
+      <c r="BT72" s="82"/>
+      <c r="BU72" s="82"/>
+      <c r="BV72" s="82"/>
+      <c r="BY72" s="82"/>
+      <c r="BZ72" s="82"/>
+      <c r="CA72" s="82"/>
+      <c r="CB72" s="82"/>
+      <c r="CC72" s="82"/>
+      <c r="CF72" s="82"/>
+      <c r="CG72" s="82"/>
+      <c r="CH72" s="82"/>
+      <c r="CI72" s="82"/>
+      <c r="CJ72" s="82"/>
+      <c r="CM72" s="82"/>
+      <c r="CN72" s="82"/>
+      <c r="CO72" s="82"/>
+      <c r="CP72" s="82"/>
+      <c r="CQ72" s="16"/>
+      <c r="CT72" s="82"/>
+      <c r="CU72" s="82"/>
+      <c r="CV72" s="82"/>
+      <c r="CW72" s="82"/>
+      <c r="CX72" s="82"/>
+      <c r="DA72" s="82"/>
+      <c r="DB72" s="117"/>
+      <c r="DC72" s="91"/>
+      <c r="DD72" s="82"/>
+      <c r="DE72" s="82"/>
+      <c r="DH72" s="82"/>
+      <c r="DI72" s="82"/>
+      <c r="DJ72" s="82"/>
+      <c r="DK72" s="82"/>
+      <c r="DL72" s="82"/>
     </row>
     <row r="73" spans="1:133">
       <c r="A73" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B73" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73">
+        <v>45</v>
+      </c>
+      <c r="E73">
+        <v>45</v>
+      </c>
+      <c r="BD73" s="84"/>
+      <c r="BH73" s="83"/>
+      <c r="BI73" s="83"/>
+      <c r="BJ73" s="83"/>
+      <c r="BK73" s="83"/>
+      <c r="BO73" s="83"/>
+      <c r="BP73" s="83"/>
+      <c r="BQ73" s="83"/>
+      <c r="BR73" s="83"/>
+      <c r="BS73" s="83"/>
+      <c r="BV73" s="83"/>
+      <c r="BW73" s="85"/>
+      <c r="BX73" s="86"/>
+      <c r="BY73" s="83"/>
+      <c r="CC73" s="83"/>
+      <c r="CD73" s="83"/>
+      <c r="CE73" s="83"/>
+      <c r="CF73" s="83"/>
+      <c r="CJ73" s="83"/>
+      <c r="CK73" s="83"/>
+      <c r="CL73" s="83"/>
+      <c r="CM73" s="83"/>
+      <c r="CP73" s="83"/>
+      <c r="CQ73" s="83"/>
+      <c r="CR73" s="83"/>
+      <c r="CS73" s="83"/>
+      <c r="CT73" s="83"/>
+      <c r="CW73" s="83"/>
+      <c r="CX73" s="83"/>
+    </row>
+    <row r="74" spans="1:133">
+      <c r="A74" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>121</v>
       </c>
-      <c r="C73">
+      <c r="C74">
         <v>10</v>
       </c>
-      <c r="E73">
+      <c r="E74">
         <v>10</v>
       </c>
-      <c r="CM73" s="82"/>
-      <c r="CQ73" s="16"/>
-      <c r="DA73" s="83"/>
-      <c r="DD73" s="83"/>
-      <c r="DE73" s="83"/>
-      <c r="DF73" s="83"/>
-      <c r="DG73" s="83"/>
-      <c r="DH73" s="83"/>
-      <c r="DK73" s="83"/>
-      <c r="DL73" s="83"/>
-    </row>
-    <row r="74" spans="1:133">
       <c r="CM74" s="82"/>
       <c r="CQ74" s="16"/>
+      <c r="DA74" s="83"/>
+      <c r="DD74" s="83"/>
+      <c r="DE74" s="83"/>
+      <c r="DF74" s="83"/>
+      <c r="DG74" s="83"/>
+      <c r="DH74" s="83"/>
+      <c r="DK74" s="83"/>
+      <c r="DL74" s="83"/>
     </row>
     <row r="75" spans="1:133">
-      <c r="A75" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="BA75" s="79"/>
-      <c r="BB75" s="79"/>
-      <c r="BC75" s="79"/>
-      <c r="BD75" s="80"/>
       <c r="CM75" s="82"/>
       <c r="CQ75" s="16"/>
-      <c r="DO75" s="79"/>
-      <c r="DP75" s="79"/>
-      <c r="DQ75" s="79"/>
-      <c r="DR75" s="79"/>
-      <c r="DS75" s="79"/>
-      <c r="DT75" s="79"/>
-      <c r="DU75" s="79"/>
-      <c r="DV75" s="79"/>
-      <c r="DW75" s="79"/>
-      <c r="DX75" s="79"/>
-      <c r="DY75" s="79"/>
-      <c r="DZ75" s="79"/>
-      <c r="EA75" s="79"/>
-      <c r="EB75" s="79"/>
-      <c r="EC75" s="79"/>
     </row>
     <row r="76" spans="1:133">
-      <c r="A76" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B76" t="s">
-        <v>118</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>2</v>
-      </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
-      <c r="F76">
-        <v>2</v>
-      </c>
-      <c r="AW76" s="82"/>
-      <c r="BA76" s="82"/>
+      <c r="A76" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA76" s="79"/>
+      <c r="BB76" s="79"/>
+      <c r="BC76" s="79"/>
+      <c r="BD76" s="80"/>
       <c r="CM76" s="82"/>
       <c r="CQ76" s="16"/>
+      <c r="DO76" s="79"/>
+      <c r="DP76" s="79"/>
+      <c r="DQ76" s="79"/>
+      <c r="DR76" s="79"/>
+      <c r="DS76" s="79"/>
+      <c r="DT76" s="79"/>
+      <c r="DU76" s="79"/>
+      <c r="DV76" s="79"/>
+      <c r="DW76" s="79"/>
+      <c r="DX76" s="79"/>
+      <c r="DY76" s="79"/>
+      <c r="DZ76" s="79"/>
+      <c r="EA76" s="79"/>
+      <c r="EB76" s="79"/>
+      <c r="EC76" s="79"/>
     </row>
     <row r="77" spans="1:133">
       <c r="A77" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B77" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
       <c r="E77">
         <v>1</v>
       </c>
-      <c r="AW77" s="119">
+      <c r="F77">
         <v>2</v>
       </c>
-      <c r="AZ77" s="82"/>
+      <c r="AW77" s="82"/>
+      <c r="BA77" s="82"/>
       <c r="CM77" s="82"/>
       <c r="CQ77" s="16"/>
-      <c r="DS77" s="82"/>
     </row>
     <row r="78" spans="1:133">
       <c r="A78" s="1" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="B78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4126,191 +4145,208 @@
       <c r="E78">
         <v>1</v>
       </c>
+      <c r="AW78" s="119">
+        <v>2</v>
+      </c>
+      <c r="AZ78" s="82"/>
       <c r="CM78" s="82"/>
       <c r="CQ78" s="16"/>
-      <c r="DO78" s="129"/>
-      <c r="DZ78" s="82"/>
+      <c r="DS78" s="82"/>
     </row>
     <row r="79" spans="1:133">
+      <c r="A79" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B79" t="s">
+        <v>41</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
       <c r="CM79" s="82"/>
       <c r="CQ79" s="16"/>
-      <c r="DV79" s="129"/>
+      <c r="DO79" s="129"/>
+      <c r="DZ79" s="82"/>
     </row>
     <row r="80" spans="1:133">
       <c r="CM80" s="82"/>
       <c r="CQ80" s="16"/>
+      <c r="DV80" s="129"/>
     </row>
     <row r="81" spans="1:116">
-      <c r="A81" s="122" t="s">
+      <c r="CM81" s="82"/>
+      <c r="CQ81" s="16"/>
+    </row>
+    <row r="82" spans="1:116">
+      <c r="A82" s="122" t="s">
         <v>128</v>
       </c>
-      <c r="B81" s="123" t="s">
+      <c r="B82" s="123" t="s">
         <v>129</v>
       </c>
-      <c r="AR81" s="124"/>
-      <c r="AS81" s="125"/>
-      <c r="AT81" s="126"/>
-      <c r="AU81" s="124"/>
-      <c r="AV81" s="124"/>
-      <c r="AW81" s="124"/>
-      <c r="AX81" s="124"/>
-      <c r="AY81" s="124"/>
-      <c r="AZ81" s="124"/>
-      <c r="BA81" s="124"/>
-      <c r="BB81" s="124"/>
-      <c r="BC81" s="124"/>
-      <c r="BD81" s="127"/>
-      <c r="BE81" s="124"/>
-      <c r="BF81" s="124"/>
-      <c r="BG81" s="124"/>
-      <c r="BH81" s="124"/>
-      <c r="BI81" s="124"/>
-      <c r="BJ81" s="124"/>
-      <c r="BK81" s="124"/>
-      <c r="BL81" s="124"/>
-      <c r="BM81" s="124"/>
-      <c r="BN81" s="124"/>
-      <c r="BO81" s="124"/>
-      <c r="BP81" s="124"/>
-      <c r="BQ81" s="124"/>
-      <c r="BR81" s="124"/>
-      <c r="BS81" s="124"/>
-      <c r="BT81" s="124"/>
-      <c r="BU81" s="124"/>
-      <c r="BV81" s="124"/>
-      <c r="BW81" s="125"/>
-      <c r="BX81" s="126"/>
-      <c r="BY81" s="124"/>
-      <c r="BZ81" s="124"/>
-      <c r="CA81" s="124"/>
-      <c r="CB81" s="124"/>
-      <c r="CC81" s="124"/>
-      <c r="CD81" s="124"/>
-      <c r="CE81" s="124"/>
-      <c r="CF81" s="124"/>
-      <c r="CG81" s="124"/>
-      <c r="CH81" s="124"/>
-      <c r="CI81" s="124"/>
-      <c r="CJ81" s="124"/>
-      <c r="CK81" s="124"/>
-      <c r="CL81" s="124"/>
-      <c r="CM81" s="124"/>
-      <c r="CN81" s="124"/>
-      <c r="CO81" s="124"/>
-      <c r="CP81" s="124"/>
-      <c r="CQ81" s="124"/>
-      <c r="CR81" s="124"/>
-      <c r="CS81" s="124"/>
-      <c r="CT81" s="124"/>
-      <c r="CU81" s="124"/>
-      <c r="CV81" s="124"/>
-      <c r="CW81" s="124"/>
-      <c r="CX81" s="124"/>
-      <c r="CY81" s="124"/>
-      <c r="CZ81" s="124"/>
-      <c r="DA81" s="124"/>
-      <c r="DB81" s="125"/>
-      <c r="DC81" s="126"/>
-      <c r="DD81" s="124"/>
-      <c r="DE81" s="124"/>
-      <c r="DF81" s="124"/>
-      <c r="DG81" s="124"/>
-      <c r="DH81" s="124"/>
-      <c r="DI81" s="124"/>
-      <c r="DJ81" s="124"/>
-      <c r="DK81" s="124"/>
-      <c r="DL81" s="124"/>
-    </row>
-    <row r="82" spans="1:116">
-      <c r="A82" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B82" t="s">
-        <v>124</v>
-      </c>
-      <c r="D82">
-        <v>5</v>
-      </c>
-      <c r="AT82" s="131">
-        <v>1</v>
-      </c>
-      <c r="AU82" s="130"/>
-      <c r="BB82" s="128">
-        <v>1</v>
-      </c>
-      <c r="BI82" s="128">
-        <v>1</v>
-      </c>
-      <c r="BS82" s="128">
-        <v>1</v>
-      </c>
-      <c r="CB82" s="128">
-        <v>1</v>
-      </c>
-      <c r="CM82" s="82"/>
-      <c r="CQ82" s="16"/>
+      <c r="AR82" s="124"/>
+      <c r="AS82" s="125"/>
+      <c r="AT82" s="126"/>
+      <c r="AU82" s="124"/>
+      <c r="AV82" s="124"/>
+      <c r="AW82" s="124"/>
+      <c r="AX82" s="124"/>
+      <c r="AY82" s="124"/>
+      <c r="AZ82" s="124"/>
+      <c r="BA82" s="124"/>
+      <c r="BB82" s="124"/>
+      <c r="BC82" s="124"/>
+      <c r="BD82" s="127"/>
+      <c r="BE82" s="124"/>
+      <c r="BF82" s="124"/>
+      <c r="BG82" s="124"/>
+      <c r="BH82" s="124"/>
+      <c r="BI82" s="124"/>
+      <c r="BJ82" s="124"/>
+      <c r="BK82" s="124"/>
+      <c r="BL82" s="124"/>
+      <c r="BM82" s="124"/>
+      <c r="BN82" s="124"/>
+      <c r="BO82" s="124"/>
+      <c r="BP82" s="124"/>
+      <c r="BQ82" s="124"/>
+      <c r="BR82" s="124"/>
+      <c r="BS82" s="124"/>
+      <c r="BT82" s="124"/>
+      <c r="BU82" s="124"/>
+      <c r="BV82" s="124"/>
+      <c r="BW82" s="125"/>
+      <c r="BX82" s="126"/>
+      <c r="BY82" s="124"/>
+      <c r="BZ82" s="124"/>
+      <c r="CA82" s="124"/>
+      <c r="CB82" s="124"/>
+      <c r="CC82" s="124"/>
+      <c r="CD82" s="124"/>
+      <c r="CE82" s="124"/>
+      <c r="CF82" s="124"/>
+      <c r="CG82" s="124"/>
+      <c r="CH82" s="124"/>
+      <c r="CI82" s="124"/>
+      <c r="CJ82" s="124"/>
+      <c r="CK82" s="124"/>
+      <c r="CL82" s="124"/>
+      <c r="CM82" s="124"/>
+      <c r="CN82" s="124"/>
+      <c r="CO82" s="124"/>
+      <c r="CP82" s="124"/>
+      <c r="CQ82" s="124"/>
+      <c r="CR82" s="124"/>
+      <c r="CS82" s="124"/>
+      <c r="CT82" s="124"/>
+      <c r="CU82" s="124"/>
+      <c r="CV82" s="124"/>
+      <c r="CW82" s="124"/>
+      <c r="CX82" s="124"/>
+      <c r="CY82" s="124"/>
+      <c r="CZ82" s="124"/>
+      <c r="DA82" s="124"/>
+      <c r="DB82" s="125"/>
+      <c r="DC82" s="126"/>
+      <c r="DD82" s="124"/>
+      <c r="DE82" s="124"/>
+      <c r="DF82" s="124"/>
+      <c r="DG82" s="124"/>
+      <c r="DH82" s="124"/>
+      <c r="DI82" s="124"/>
+      <c r="DJ82" s="124"/>
+      <c r="DK82" s="124"/>
+      <c r="DL82" s="124"/>
     </row>
     <row r="83" spans="1:116">
       <c r="A83" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B83" t="s">
-        <v>132</v>
+        <v>124</v>
+      </c>
+      <c r="D83">
+        <v>5</v>
+      </c>
+      <c r="AT83" s="131">
+        <v>1</v>
+      </c>
+      <c r="AU83" s="130"/>
+      <c r="BB83" s="128">
+        <v>1</v>
+      </c>
+      <c r="BI83" s="128">
+        <v>1</v>
+      </c>
+      <c r="BS83" s="128">
+        <v>1</v>
+      </c>
+      <c r="CB83" s="128">
+        <v>1</v>
       </c>
       <c r="CM83" s="82"/>
       <c r="CQ83" s="16"/>
     </row>
     <row r="84" spans="1:116">
       <c r="A84" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B84" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="CM84" s="82"/>
       <c r="CQ84" s="16"/>
     </row>
     <row r="85" spans="1:116">
+      <c r="A85" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B85" t="s">
+        <v>134</v>
+      </c>
       <c r="CM85" s="82"/>
       <c r="CQ85" s="16"/>
     </row>
     <row r="86" spans="1:116">
-      <c r="C86">
-        <f>SUM(C4:C85)</f>
-        <v>298</v>
-      </c>
-      <c r="D86">
-        <f>SUM(D4:D85)</f>
-        <v>53</v>
-      </c>
-      <c r="E86" s="81">
-        <f>SUM(E4:E85)</f>
-        <v>300</v>
-      </c>
-      <c r="F86">
-        <f>SUM(F4:F85)</f>
-        <v>48</v>
-      </c>
       <c r="CM86" s="82"/>
       <c r="CQ86" s="16"/>
     </row>
     <row r="87" spans="1:116">
-      <c r="C87" t="s">
-        <v>101</v>
-      </c>
-      <c r="D87" t="s">
-        <v>102</v>
-      </c>
-      <c r="E87" t="s">
-        <v>123</v>
-      </c>
-      <c r="F87" t="s">
-        <v>122</v>
+      <c r="C87">
+        <f>SUM(C4:C86)</f>
+        <v>300</v>
+      </c>
+      <c r="D87">
+        <f>SUM(D4:D86)</f>
+        <v>59</v>
+      </c>
+      <c r="E87" s="81">
+        <f>SUM(E4:E86)</f>
+        <v>300</v>
+      </c>
+      <c r="F87">
+        <f>SUM(F4:F86)</f>
+        <v>49</v>
       </c>
       <c r="CM87" s="82"/>
       <c r="CQ87" s="16"/>
     </row>
     <row r="88" spans="1:116">
+      <c r="C88" t="s">
+        <v>101</v>
+      </c>
+      <c r="D88" t="s">
+        <v>102</v>
+      </c>
+      <c r="E88" t="s">
+        <v>123</v>
+      </c>
+      <c r="F88" t="s">
+        <v>122</v>
+      </c>
       <c r="CM88" s="82"/>
       <c r="CQ88" s="16"/>
     </row>
@@ -4340,6 +4376,7 @@
     </row>
     <row r="95" spans="1:116">
       <c r="CM95" s="82"/>
+      <c r="CQ95" s="16"/>
     </row>
     <row r="96" spans="1:116">
       <c r="CM96" s="82"/>
@@ -4733,6 +4770,9 @@
     </row>
     <row r="226" spans="91:91">
       <c r="CM226" s="82"/>
+    </row>
+    <row r="227" spans="91:91">
+      <c r="CM227" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4748,7 +4788,7 @@
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" fitToWidth="10" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="23" max="16383" man="1"/>
+    <brk id="24" max="16383" man="1"/>
   </rowBreaks>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/konzept/projektplan.xlsx
+++ b/konzept/projektplan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="162">
   <si>
     <t>#</t>
   </si>
@@ -499,10 +499,13 @@
     <t>Redesign</t>
   </si>
   <si>
-    <t>Einführung MCI</t>
-  </si>
-  <si>
     <t>2.14</t>
+  </si>
+  <si>
+    <t>Abwägung MCI</t>
+  </si>
+  <si>
+    <t>AKTUELL</t>
   </si>
 </sst>
 </file>
@@ -579,7 +582,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -715,6 +718,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6FFA0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,7 +1106,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1294,6 +1303,8 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -1679,7 +1690,7 @@
   <dimension ref="A1:EH227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="BC21" sqref="BC21"/>
+      <selection activeCell="BG36" sqref="BG36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1834,7 +1845,9 @@
       <c r="BZ1" s="50"/>
       <c r="CA1" s="50"/>
       <c r="CB1" s="50"/>
-      <c r="CC1" s="50"/>
+      <c r="CC1" t="s">
+        <v>161</v>
+      </c>
       <c r="CD1" s="50"/>
       <c r="CE1" s="50"/>
       <c r="CF1" s="50"/>
@@ -2894,7 +2907,7 @@
         <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -3098,6 +3111,8 @@
       <c r="AN20" s="21">
         <v>1</v>
       </c>
+      <c r="AZ20" s="21"/>
+      <c r="BC20" s="21"/>
       <c r="CM20" s="82"/>
       <c r="CQ20" s="16"/>
     </row>
@@ -3138,6 +3153,7 @@
       <c r="AN21" s="21">
         <v>2</v>
       </c>
+      <c r="BC21" s="21"/>
       <c r="CM21" s="82"/>
       <c r="CQ21" s="16"/>
     </row>
@@ -3167,12 +3183,13 @@
       <c r="BA22" s="21">
         <v>3</v>
       </c>
+      <c r="BD22" s="132"/>
       <c r="CM22" s="82"/>
       <c r="CQ22" s="16"/>
     </row>
     <row r="23" spans="1:95">
       <c r="A23" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s">
         <v>81</v>
@@ -3421,11 +3438,17 @@
       <c r="C35">
         <v>3</v>
       </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
       <c r="E35">
         <v>3</v>
       </c>
       <c r="AT35" s="91"/>
       <c r="AU35" s="120"/>
+      <c r="BD35" s="133">
+        <v>2</v>
+      </c>
       <c r="CM35" s="82"/>
       <c r="CQ35" s="16"/>
     </row>
@@ -4321,7 +4344,7 @@
       </c>
       <c r="D87">
         <f>SUM(D4:D86)</f>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E87" s="81">
         <f>SUM(E4:E86)</f>

--- a/konzept/projektplan.xlsx
+++ b/konzept/projektplan.xlsx
@@ -1239,51 +1239,6 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1303,8 +1258,53 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -1689,8 +1689,8 @@
   </sheetPr>
   <dimension ref="A1:EH227"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="BG36" sqref="BG36"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1915,155 +1915,155 @@
       <c r="EH1" s="55"/>
     </row>
     <row r="2" spans="1:138">
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="124" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102" t="s">
+      <c r="D2" s="124"/>
+      <c r="E2" s="124" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="103"/>
-      <c r="G2" s="114" t="s">
+      <c r="F2" s="125"/>
+      <c r="G2" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="104" t="s">
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="105"/>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="105"/>
-      <c r="AH2" s="105"/>
-      <c r="AI2" s="105"/>
-      <c r="AJ2" s="105"/>
-      <c r="AK2" s="105"/>
-      <c r="AL2" s="105"/>
-      <c r="AM2" s="105"/>
-      <c r="AN2" s="105"/>
-      <c r="AO2" s="105"/>
-      <c r="AP2" s="105"/>
-      <c r="AQ2" s="105"/>
-      <c r="AR2" s="105"/>
-      <c r="AS2" s="106"/>
-      <c r="AT2" s="107" t="s">
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="127"/>
+      <c r="X2" s="127"/>
+      <c r="Y2" s="127"/>
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="127"/>
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="127"/>
+      <c r="AH2" s="127"/>
+      <c r="AI2" s="127"/>
+      <c r="AJ2" s="127"/>
+      <c r="AK2" s="127"/>
+      <c r="AL2" s="127"/>
+      <c r="AM2" s="127"/>
+      <c r="AN2" s="127"/>
+      <c r="AO2" s="127"/>
+      <c r="AP2" s="127"/>
+      <c r="AQ2" s="127"/>
+      <c r="AR2" s="127"/>
+      <c r="AS2" s="128"/>
+      <c r="AT2" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="AU2" s="108"/>
-      <c r="AV2" s="108"/>
-      <c r="AW2" s="108"/>
-      <c r="AX2" s="108"/>
-      <c r="AY2" s="108"/>
-      <c r="AZ2" s="108"/>
-      <c r="BA2" s="108"/>
-      <c r="BB2" s="108"/>
-      <c r="BC2" s="108"/>
-      <c r="BD2" s="108"/>
-      <c r="BE2" s="108"/>
-      <c r="BF2" s="108"/>
-      <c r="BG2" s="108"/>
-      <c r="BH2" s="108"/>
-      <c r="BI2" s="108"/>
-      <c r="BJ2" s="108"/>
-      <c r="BK2" s="108"/>
-      <c r="BL2" s="108"/>
-      <c r="BM2" s="108"/>
-      <c r="BN2" s="108"/>
-      <c r="BO2" s="108"/>
-      <c r="BP2" s="108"/>
-      <c r="BQ2" s="108"/>
-      <c r="BR2" s="108"/>
-      <c r="BS2" s="108"/>
-      <c r="BT2" s="108"/>
-      <c r="BU2" s="108"/>
-      <c r="BV2" s="108"/>
-      <c r="BW2" s="109"/>
-      <c r="BX2" s="110" t="s">
+      <c r="AU2" s="119"/>
+      <c r="AV2" s="119"/>
+      <c r="AW2" s="119"/>
+      <c r="AX2" s="119"/>
+      <c r="AY2" s="119"/>
+      <c r="AZ2" s="119"/>
+      <c r="BA2" s="119"/>
+      <c r="BB2" s="119"/>
+      <c r="BC2" s="119"/>
+      <c r="BD2" s="119"/>
+      <c r="BE2" s="119"/>
+      <c r="BF2" s="119"/>
+      <c r="BG2" s="119"/>
+      <c r="BH2" s="119"/>
+      <c r="BI2" s="119"/>
+      <c r="BJ2" s="119"/>
+      <c r="BK2" s="119"/>
+      <c r="BL2" s="119"/>
+      <c r="BM2" s="119"/>
+      <c r="BN2" s="119"/>
+      <c r="BO2" s="119"/>
+      <c r="BP2" s="119"/>
+      <c r="BQ2" s="119"/>
+      <c r="BR2" s="119"/>
+      <c r="BS2" s="119"/>
+      <c r="BT2" s="119"/>
+      <c r="BU2" s="119"/>
+      <c r="BV2" s="119"/>
+      <c r="BW2" s="129"/>
+      <c r="BX2" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="BY2" s="111"/>
-      <c r="BZ2" s="111"/>
-      <c r="CA2" s="111"/>
-      <c r="CB2" s="111"/>
-      <c r="CC2" s="111"/>
-      <c r="CD2" s="111"/>
-      <c r="CE2" s="111"/>
-      <c r="CF2" s="111"/>
-      <c r="CG2" s="111"/>
-      <c r="CH2" s="111"/>
-      <c r="CI2" s="111"/>
-      <c r="CJ2" s="111"/>
-      <c r="CK2" s="111"/>
-      <c r="CL2" s="111"/>
-      <c r="CM2" s="111"/>
-      <c r="CN2" s="111"/>
-      <c r="CO2" s="111"/>
-      <c r="CP2" s="111"/>
-      <c r="CQ2" s="111"/>
-      <c r="CR2" s="111"/>
-      <c r="CS2" s="111"/>
-      <c r="CT2" s="111"/>
-      <c r="CU2" s="111"/>
-      <c r="CV2" s="111"/>
-      <c r="CW2" s="111"/>
-      <c r="CX2" s="111"/>
-      <c r="CY2" s="111"/>
-      <c r="CZ2" s="111"/>
-      <c r="DA2" s="111"/>
-      <c r="DB2" s="112"/>
-      <c r="DC2" s="107" t="s">
+      <c r="BY2" s="131"/>
+      <c r="BZ2" s="131"/>
+      <c r="CA2" s="131"/>
+      <c r="CB2" s="131"/>
+      <c r="CC2" s="131"/>
+      <c r="CD2" s="131"/>
+      <c r="CE2" s="131"/>
+      <c r="CF2" s="131"/>
+      <c r="CG2" s="131"/>
+      <c r="CH2" s="131"/>
+      <c r="CI2" s="131"/>
+      <c r="CJ2" s="131"/>
+      <c r="CK2" s="131"/>
+      <c r="CL2" s="131"/>
+      <c r="CM2" s="131"/>
+      <c r="CN2" s="131"/>
+      <c r="CO2" s="131"/>
+      <c r="CP2" s="131"/>
+      <c r="CQ2" s="131"/>
+      <c r="CR2" s="131"/>
+      <c r="CS2" s="131"/>
+      <c r="CT2" s="131"/>
+      <c r="CU2" s="131"/>
+      <c r="CV2" s="131"/>
+      <c r="CW2" s="131"/>
+      <c r="CX2" s="131"/>
+      <c r="CY2" s="131"/>
+      <c r="CZ2" s="131"/>
+      <c r="DA2" s="131"/>
+      <c r="DB2" s="132"/>
+      <c r="DC2" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="DD2" s="108"/>
-      <c r="DE2" s="108"/>
-      <c r="DF2" s="108"/>
-      <c r="DG2" s="108"/>
-      <c r="DH2" s="108"/>
-      <c r="DI2" s="108"/>
-      <c r="DJ2" s="108"/>
-      <c r="DK2" s="108"/>
-      <c r="DL2" s="108"/>
-      <c r="DM2" s="108"/>
-      <c r="DN2" s="108"/>
-      <c r="DO2" s="108"/>
-      <c r="DP2" s="108"/>
-      <c r="DQ2" s="108"/>
-      <c r="DR2" s="108"/>
-      <c r="DS2" s="108"/>
-      <c r="DT2" s="108"/>
-      <c r="DU2" s="108"/>
-      <c r="DV2" s="108"/>
-      <c r="DW2" s="108"/>
-      <c r="DX2" s="108"/>
-      <c r="DY2" s="108"/>
-      <c r="DZ2" s="108"/>
-      <c r="EA2" s="108"/>
-      <c r="EB2" s="108"/>
-      <c r="EC2" s="108"/>
-      <c r="ED2" s="108"/>
-      <c r="EE2" s="108"/>
-      <c r="EF2" s="108"/>
-      <c r="EG2" s="113"/>
+      <c r="DD2" s="119"/>
+      <c r="DE2" s="119"/>
+      <c r="DF2" s="119"/>
+      <c r="DG2" s="119"/>
+      <c r="DH2" s="119"/>
+      <c r="DI2" s="119"/>
+      <c r="DJ2" s="119"/>
+      <c r="DK2" s="119"/>
+      <c r="DL2" s="119"/>
+      <c r="DM2" s="119"/>
+      <c r="DN2" s="119"/>
+      <c r="DO2" s="119"/>
+      <c r="DP2" s="119"/>
+      <c r="DQ2" s="119"/>
+      <c r="DR2" s="119"/>
+      <c r="DS2" s="119"/>
+      <c r="DT2" s="119"/>
+      <c r="DU2" s="119"/>
+      <c r="DV2" s="119"/>
+      <c r="DW2" s="119"/>
+      <c r="DX2" s="119"/>
+      <c r="DY2" s="119"/>
+      <c r="DZ2" s="119"/>
+      <c r="EA2" s="119"/>
+      <c r="EB2" s="119"/>
+      <c r="EC2" s="119"/>
+      <c r="ED2" s="119"/>
+      <c r="EE2" s="119"/>
+      <c r="EF2" s="119"/>
+      <c r="EG2" s="120"/>
     </row>
     <row r="3" spans="1:138" s="31" customFormat="1" ht="16" thickBot="1">
       <c r="A3" s="30" t="s">
@@ -2863,7 +2863,9 @@
       <c r="AP13" s="21">
         <v>1</v>
       </c>
-      <c r="AW13" s="21"/>
+      <c r="AW13" s="21">
+        <v>1</v>
+      </c>
       <c r="CM13" s="82"/>
       <c r="CQ13" s="16"/>
     </row>
@@ -2930,7 +2932,7 @@
         <v>2</v>
       </c>
       <c r="AW15" s="82"/>
-      <c r="AZ15" s="21"/>
+      <c r="AZ15" s="82"/>
       <c r="BA15" s="82"/>
       <c r="CM15" s="82"/>
       <c r="CQ15" s="16"/>
@@ -2980,7 +2982,7 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -3000,8 +3002,12 @@
       <c r="AP17" s="21">
         <v>2</v>
       </c>
-      <c r="AW17" s="21"/>
-      <c r="AZ17" s="21"/>
+      <c r="AW17" s="21">
+        <v>1</v>
+      </c>
+      <c r="AZ17" s="21">
+        <v>1</v>
+      </c>
       <c r="BA17" s="82"/>
       <c r="CM17" s="82"/>
       <c r="CQ17" s="16"/>
@@ -3111,8 +3117,8 @@
       <c r="AN20" s="21">
         <v>1</v>
       </c>
-      <c r="AZ20" s="21"/>
-      <c r="BC20" s="21"/>
+      <c r="AZ20" s="82"/>
+      <c r="BC20" s="105"/>
       <c r="CM20" s="82"/>
       <c r="CQ20" s="16"/>
     </row>
@@ -3127,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>5</v>
@@ -3153,7 +3159,9 @@
       <c r="AN21" s="21">
         <v>2</v>
       </c>
-      <c r="BC21" s="21"/>
+      <c r="BC21" s="21">
+        <v>1</v>
+      </c>
       <c r="CM21" s="82"/>
       <c r="CQ21" s="16"/>
     </row>
@@ -3168,7 +3176,7 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E22">
         <v>4</v>
@@ -3183,7 +3191,9 @@
       <c r="BA22" s="21">
         <v>3</v>
       </c>
-      <c r="BD22" s="132"/>
+      <c r="BD22" s="133">
+        <v>3</v>
+      </c>
       <c r="CM22" s="82"/>
       <c r="CQ22" s="16"/>
     </row>
@@ -3445,8 +3455,8 @@
         <v>3</v>
       </c>
       <c r="AT35" s="91"/>
-      <c r="AU35" s="120"/>
-      <c r="BD35" s="133">
+      <c r="AU35" s="105"/>
+      <c r="BD35" s="117">
         <v>2</v>
       </c>
       <c r="CM35" s="82"/>
@@ -3457,7 +3467,7 @@
         <v>135</v>
       </c>
       <c r="AT36" s="91"/>
-      <c r="AU36" s="120"/>
+      <c r="AU36" s="105"/>
       <c r="CM36" s="82"/>
       <c r="CQ36" s="16"/>
     </row>
@@ -3466,7 +3476,7 @@
         <v>136</v>
       </c>
       <c r="AT37" s="91"/>
-      <c r="AU37" s="120"/>
+      <c r="AU37" s="105"/>
       <c r="CM37" s="82"/>
       <c r="CQ37" s="16"/>
     </row>
@@ -3478,7 +3488,7 @@
         <v>138</v>
       </c>
       <c r="AT38" s="91"/>
-      <c r="AU38" s="120"/>
+      <c r="AU38" s="105"/>
       <c r="CM38" s="82"/>
       <c r="CQ38" s="16"/>
     </row>
@@ -3487,7 +3497,7 @@
         <v>137</v>
       </c>
       <c r="AT39" s="91"/>
-      <c r="AU39" s="120"/>
+      <c r="AU39" s="105"/>
       <c r="CM39" s="82"/>
       <c r="CQ39" s="16"/>
     </row>
@@ -3958,7 +3968,7 @@
       <c r="DO71" s="75"/>
     </row>
     <row r="72" spans="1:133">
-      <c r="A72" s="121"/>
+      <c r="A72" s="106"/>
       <c r="B72" s="101" t="s">
         <v>127</v>
       </c>
@@ -3975,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="AR72" s="82"/>
-      <c r="AS72" s="117"/>
+      <c r="AS72" s="102"/>
       <c r="AT72" s="91"/>
       <c r="AW72" s="83">
         <v>1</v>
@@ -3986,7 +3996,7 @@
       <c r="BA72" s="83">
         <v>1</v>
       </c>
-      <c r="BD72" s="118"/>
+      <c r="BD72" s="103"/>
       <c r="BE72" s="82"/>
       <c r="BF72" s="82"/>
       <c r="BG72" s="82"/>
@@ -4021,7 +4031,7 @@
       <c r="CW72" s="82"/>
       <c r="CX72" s="82"/>
       <c r="DA72" s="82"/>
-      <c r="DB72" s="117"/>
+      <c r="DB72" s="102"/>
       <c r="DC72" s="91"/>
       <c r="DD72" s="82"/>
       <c r="DE72" s="82"/>
@@ -4168,7 +4178,7 @@
       <c r="E78">
         <v>1</v>
       </c>
-      <c r="AW78" s="119">
+      <c r="AW78" s="104">
         <v>2</v>
       </c>
       <c r="AZ78" s="82"/>
@@ -4191,98 +4201,98 @@
       </c>
       <c r="CM79" s="82"/>
       <c r="CQ79" s="16"/>
-      <c r="DO79" s="129"/>
+      <c r="DO79" s="114"/>
       <c r="DZ79" s="82"/>
     </row>
     <row r="80" spans="1:133">
       <c r="CM80" s="82"/>
       <c r="CQ80" s="16"/>
-      <c r="DV80" s="129"/>
+      <c r="DV80" s="114"/>
     </row>
     <row r="81" spans="1:116">
       <c r="CM81" s="82"/>
       <c r="CQ81" s="16"/>
     </row>
     <row r="82" spans="1:116">
-      <c r="A82" s="122" t="s">
+      <c r="A82" s="107" t="s">
         <v>128</v>
       </c>
-      <c r="B82" s="123" t="s">
+      <c r="B82" s="108" t="s">
         <v>129</v>
       </c>
-      <c r="AR82" s="124"/>
-      <c r="AS82" s="125"/>
-      <c r="AT82" s="126"/>
-      <c r="AU82" s="124"/>
-      <c r="AV82" s="124"/>
-      <c r="AW82" s="124"/>
-      <c r="AX82" s="124"/>
-      <c r="AY82" s="124"/>
-      <c r="AZ82" s="124"/>
-      <c r="BA82" s="124"/>
-      <c r="BB82" s="124"/>
-      <c r="BC82" s="124"/>
-      <c r="BD82" s="127"/>
-      <c r="BE82" s="124"/>
-      <c r="BF82" s="124"/>
-      <c r="BG82" s="124"/>
-      <c r="BH82" s="124"/>
-      <c r="BI82" s="124"/>
-      <c r="BJ82" s="124"/>
-      <c r="BK82" s="124"/>
-      <c r="BL82" s="124"/>
-      <c r="BM82" s="124"/>
-      <c r="BN82" s="124"/>
-      <c r="BO82" s="124"/>
-      <c r="BP82" s="124"/>
-      <c r="BQ82" s="124"/>
-      <c r="BR82" s="124"/>
-      <c r="BS82" s="124"/>
-      <c r="BT82" s="124"/>
-      <c r="BU82" s="124"/>
-      <c r="BV82" s="124"/>
-      <c r="BW82" s="125"/>
-      <c r="BX82" s="126"/>
-      <c r="BY82" s="124"/>
-      <c r="BZ82" s="124"/>
-      <c r="CA82" s="124"/>
-      <c r="CB82" s="124"/>
-      <c r="CC82" s="124"/>
-      <c r="CD82" s="124"/>
-      <c r="CE82" s="124"/>
-      <c r="CF82" s="124"/>
-      <c r="CG82" s="124"/>
-      <c r="CH82" s="124"/>
-      <c r="CI82" s="124"/>
-      <c r="CJ82" s="124"/>
-      <c r="CK82" s="124"/>
-      <c r="CL82" s="124"/>
-      <c r="CM82" s="124"/>
-      <c r="CN82" s="124"/>
-      <c r="CO82" s="124"/>
-      <c r="CP82" s="124"/>
-      <c r="CQ82" s="124"/>
-      <c r="CR82" s="124"/>
-      <c r="CS82" s="124"/>
-      <c r="CT82" s="124"/>
-      <c r="CU82" s="124"/>
-      <c r="CV82" s="124"/>
-      <c r="CW82" s="124"/>
-      <c r="CX82" s="124"/>
-      <c r="CY82" s="124"/>
-      <c r="CZ82" s="124"/>
-      <c r="DA82" s="124"/>
-      <c r="DB82" s="125"/>
-      <c r="DC82" s="126"/>
-      <c r="DD82" s="124"/>
-      <c r="DE82" s="124"/>
-      <c r="DF82" s="124"/>
-      <c r="DG82" s="124"/>
-      <c r="DH82" s="124"/>
-      <c r="DI82" s="124"/>
-      <c r="DJ82" s="124"/>
-      <c r="DK82" s="124"/>
-      <c r="DL82" s="124"/>
+      <c r="AR82" s="109"/>
+      <c r="AS82" s="110"/>
+      <c r="AT82" s="111"/>
+      <c r="AU82" s="109"/>
+      <c r="AV82" s="109"/>
+      <c r="AW82" s="109"/>
+      <c r="AX82" s="109"/>
+      <c r="AY82" s="109"/>
+      <c r="AZ82" s="109"/>
+      <c r="BA82" s="109"/>
+      <c r="BB82" s="109"/>
+      <c r="BC82" s="109"/>
+      <c r="BD82" s="112"/>
+      <c r="BE82" s="109"/>
+      <c r="BF82" s="109"/>
+      <c r="BG82" s="109"/>
+      <c r="BH82" s="109"/>
+      <c r="BI82" s="109"/>
+      <c r="BJ82" s="109"/>
+      <c r="BK82" s="109"/>
+      <c r="BL82" s="109"/>
+      <c r="BM82" s="109"/>
+      <c r="BN82" s="109"/>
+      <c r="BO82" s="109"/>
+      <c r="BP82" s="109"/>
+      <c r="BQ82" s="109"/>
+      <c r="BR82" s="109"/>
+      <c r="BS82" s="109"/>
+      <c r="BT82" s="109"/>
+      <c r="BU82" s="109"/>
+      <c r="BV82" s="109"/>
+      <c r="BW82" s="110"/>
+      <c r="BX82" s="111"/>
+      <c r="BY82" s="109"/>
+      <c r="BZ82" s="109"/>
+      <c r="CA82" s="109"/>
+      <c r="CB82" s="109"/>
+      <c r="CC82" s="109"/>
+      <c r="CD82" s="109"/>
+      <c r="CE82" s="109"/>
+      <c r="CF82" s="109"/>
+      <c r="CG82" s="109"/>
+      <c r="CH82" s="109"/>
+      <c r="CI82" s="109"/>
+      <c r="CJ82" s="109"/>
+      <c r="CK82" s="109"/>
+      <c r="CL82" s="109"/>
+      <c r="CM82" s="109"/>
+      <c r="CN82" s="109"/>
+      <c r="CO82" s="109"/>
+      <c r="CP82" s="109"/>
+      <c r="CQ82" s="109"/>
+      <c r="CR82" s="109"/>
+      <c r="CS82" s="109"/>
+      <c r="CT82" s="109"/>
+      <c r="CU82" s="109"/>
+      <c r="CV82" s="109"/>
+      <c r="CW82" s="109"/>
+      <c r="CX82" s="109"/>
+      <c r="CY82" s="109"/>
+      <c r="CZ82" s="109"/>
+      <c r="DA82" s="109"/>
+      <c r="DB82" s="110"/>
+      <c r="DC82" s="111"/>
+      <c r="DD82" s="109"/>
+      <c r="DE82" s="109"/>
+      <c r="DF82" s="109"/>
+      <c r="DG82" s="109"/>
+      <c r="DH82" s="109"/>
+      <c r="DI82" s="109"/>
+      <c r="DJ82" s="109"/>
+      <c r="DK82" s="109"/>
+      <c r="DL82" s="109"/>
     </row>
     <row r="83" spans="1:116">
       <c r="A83" s="1" t="s">
@@ -4294,20 +4304,20 @@
       <c r="D83">
         <v>5</v>
       </c>
-      <c r="AT83" s="131">
-        <v>1</v>
-      </c>
-      <c r="AU83" s="130"/>
-      <c r="BB83" s="128">
-        <v>1</v>
-      </c>
-      <c r="BI83" s="128">
-        <v>1</v>
-      </c>
-      <c r="BS83" s="128">
-        <v>1</v>
-      </c>
-      <c r="CB83" s="128">
+      <c r="AT83" s="116">
+        <v>1</v>
+      </c>
+      <c r="AU83" s="115"/>
+      <c r="BB83" s="113">
+        <v>1</v>
+      </c>
+      <c r="BI83" s="113">
+        <v>1</v>
+      </c>
+      <c r="BS83" s="113">
+        <v>1</v>
+      </c>
+      <c r="CB83" s="113">
         <v>1</v>
       </c>
       <c r="CM83" s="82"/>
@@ -4344,7 +4354,7 @@
       </c>
       <c r="D87">
         <f>SUM(D4:D86)</f>
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E87" s="81">
         <f>SUM(E4:E86)</f>

--- a/konzept/projektplan.xlsx
+++ b/konzept/projektplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6380" yWindow="2020" windowWidth="29960" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="260" yWindow="1200" windowWidth="37900" windowHeight="19900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="163">
   <si>
     <t>#</t>
   </si>
@@ -313,9 +313,6 @@
     <t>5.1</t>
   </si>
   <si>
-    <t>5.2</t>
-  </si>
-  <si>
     <t>6.</t>
   </si>
   <si>
@@ -397,9 +394,6 @@
     <t>MCI</t>
   </si>
   <si>
-    <t xml:space="preserve">Ausarbeitung </t>
-  </si>
-  <si>
     <t>Einarbeitung Android</t>
   </si>
   <si>
@@ -506,6 +500,15 @@
   </si>
   <si>
     <t>AKTUELL</t>
+  </si>
+  <si>
+    <t>Theorie</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>Film</t>
   </si>
 </sst>
 </file>
@@ -582,7 +585,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -705,25 +708,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6FFA0"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFBAB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCFFBE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEFFB9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,7 +1133,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1205,9 +1232,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1219,12 +1243,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1246,19 +1267,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1304,7 +1316,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -1687,10 +1722,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EH227"/>
+  <dimension ref="A1:EH228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="BI37" sqref="BI37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1846,7 +1881,7 @@
       <c r="CA1" s="50"/>
       <c r="CB1" s="50"/>
       <c r="CC1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="CD1" s="50"/>
       <c r="CE1" s="50"/>
@@ -1857,7 +1892,7 @@
       <c r="CJ1" s="50"/>
       <c r="CK1" s="50"/>
       <c r="CL1" s="50"/>
-      <c r="CM1" s="92"/>
+      <c r="CM1" s="86"/>
       <c r="CN1" s="50"/>
       <c r="CO1" s="50"/>
       <c r="CP1" s="50"/>
@@ -1915,155 +1950,155 @@
       <c r="EH1" s="55"/>
     </row>
     <row r="2" spans="1:138">
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="111" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" s="125"/>
-      <c r="G2" s="121" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="126" t="s">
+      <c r="F2" s="112"/>
+      <c r="G2" s="108" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="127"/>
-      <c r="AA2" s="127"/>
-      <c r="AB2" s="127"/>
-      <c r="AC2" s="127"/>
-      <c r="AD2" s="127"/>
-      <c r="AE2" s="127"/>
-      <c r="AF2" s="127"/>
-      <c r="AG2" s="127"/>
-      <c r="AH2" s="127"/>
-      <c r="AI2" s="127"/>
-      <c r="AJ2" s="127"/>
-      <c r="AK2" s="127"/>
-      <c r="AL2" s="127"/>
-      <c r="AM2" s="127"/>
-      <c r="AN2" s="127"/>
-      <c r="AO2" s="127"/>
-      <c r="AP2" s="127"/>
-      <c r="AQ2" s="127"/>
-      <c r="AR2" s="127"/>
-      <c r="AS2" s="128"/>
-      <c r="AT2" s="118" t="s">
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="114"/>
+      <c r="AA2" s="114"/>
+      <c r="AB2" s="114"/>
+      <c r="AC2" s="114"/>
+      <c r="AD2" s="114"/>
+      <c r="AE2" s="114"/>
+      <c r="AF2" s="114"/>
+      <c r="AG2" s="114"/>
+      <c r="AH2" s="114"/>
+      <c r="AI2" s="114"/>
+      <c r="AJ2" s="114"/>
+      <c r="AK2" s="114"/>
+      <c r="AL2" s="114"/>
+      <c r="AM2" s="114"/>
+      <c r="AN2" s="114"/>
+      <c r="AO2" s="114"/>
+      <c r="AP2" s="114"/>
+      <c r="AQ2" s="114"/>
+      <c r="AR2" s="114"/>
+      <c r="AS2" s="115"/>
+      <c r="AT2" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="AU2" s="119"/>
-      <c r="AV2" s="119"/>
-      <c r="AW2" s="119"/>
-      <c r="AX2" s="119"/>
-      <c r="AY2" s="119"/>
-      <c r="AZ2" s="119"/>
-      <c r="BA2" s="119"/>
-      <c r="BB2" s="119"/>
-      <c r="BC2" s="119"/>
-      <c r="BD2" s="119"/>
-      <c r="BE2" s="119"/>
-      <c r="BF2" s="119"/>
-      <c r="BG2" s="119"/>
-      <c r="BH2" s="119"/>
-      <c r="BI2" s="119"/>
-      <c r="BJ2" s="119"/>
-      <c r="BK2" s="119"/>
-      <c r="BL2" s="119"/>
-      <c r="BM2" s="119"/>
-      <c r="BN2" s="119"/>
-      <c r="BO2" s="119"/>
-      <c r="BP2" s="119"/>
-      <c r="BQ2" s="119"/>
-      <c r="BR2" s="119"/>
-      <c r="BS2" s="119"/>
-      <c r="BT2" s="119"/>
-      <c r="BU2" s="119"/>
-      <c r="BV2" s="119"/>
-      <c r="BW2" s="129"/>
-      <c r="BX2" s="130" t="s">
+      <c r="AU2" s="106"/>
+      <c r="AV2" s="106"/>
+      <c r="AW2" s="106"/>
+      <c r="AX2" s="106"/>
+      <c r="AY2" s="106"/>
+      <c r="AZ2" s="106"/>
+      <c r="BA2" s="106"/>
+      <c r="BB2" s="106"/>
+      <c r="BC2" s="106"/>
+      <c r="BD2" s="106"/>
+      <c r="BE2" s="106"/>
+      <c r="BF2" s="106"/>
+      <c r="BG2" s="106"/>
+      <c r="BH2" s="106"/>
+      <c r="BI2" s="106"/>
+      <c r="BJ2" s="106"/>
+      <c r="BK2" s="106"/>
+      <c r="BL2" s="106"/>
+      <c r="BM2" s="106"/>
+      <c r="BN2" s="106"/>
+      <c r="BO2" s="106"/>
+      <c r="BP2" s="106"/>
+      <c r="BQ2" s="106"/>
+      <c r="BR2" s="106"/>
+      <c r="BS2" s="106"/>
+      <c r="BT2" s="106"/>
+      <c r="BU2" s="106"/>
+      <c r="BV2" s="106"/>
+      <c r="BW2" s="116"/>
+      <c r="BX2" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="BY2" s="131"/>
-      <c r="BZ2" s="131"/>
-      <c r="CA2" s="131"/>
-      <c r="CB2" s="131"/>
-      <c r="CC2" s="131"/>
-      <c r="CD2" s="131"/>
-      <c r="CE2" s="131"/>
-      <c r="CF2" s="131"/>
-      <c r="CG2" s="131"/>
-      <c r="CH2" s="131"/>
-      <c r="CI2" s="131"/>
-      <c r="CJ2" s="131"/>
-      <c r="CK2" s="131"/>
-      <c r="CL2" s="131"/>
-      <c r="CM2" s="131"/>
-      <c r="CN2" s="131"/>
-      <c r="CO2" s="131"/>
-      <c r="CP2" s="131"/>
-      <c r="CQ2" s="131"/>
-      <c r="CR2" s="131"/>
-      <c r="CS2" s="131"/>
-      <c r="CT2" s="131"/>
-      <c r="CU2" s="131"/>
-      <c r="CV2" s="131"/>
-      <c r="CW2" s="131"/>
-      <c r="CX2" s="131"/>
-      <c r="CY2" s="131"/>
-      <c r="CZ2" s="131"/>
-      <c r="DA2" s="131"/>
-      <c r="DB2" s="132"/>
-      <c r="DC2" s="118" t="s">
+      <c r="BY2" s="118"/>
+      <c r="BZ2" s="118"/>
+      <c r="CA2" s="118"/>
+      <c r="CB2" s="118"/>
+      <c r="CC2" s="118"/>
+      <c r="CD2" s="118"/>
+      <c r="CE2" s="118"/>
+      <c r="CF2" s="118"/>
+      <c r="CG2" s="118"/>
+      <c r="CH2" s="118"/>
+      <c r="CI2" s="118"/>
+      <c r="CJ2" s="118"/>
+      <c r="CK2" s="118"/>
+      <c r="CL2" s="118"/>
+      <c r="CM2" s="118"/>
+      <c r="CN2" s="118"/>
+      <c r="CO2" s="118"/>
+      <c r="CP2" s="118"/>
+      <c r="CQ2" s="118"/>
+      <c r="CR2" s="118"/>
+      <c r="CS2" s="118"/>
+      <c r="CT2" s="118"/>
+      <c r="CU2" s="118"/>
+      <c r="CV2" s="118"/>
+      <c r="CW2" s="118"/>
+      <c r="CX2" s="118"/>
+      <c r="CY2" s="118"/>
+      <c r="CZ2" s="118"/>
+      <c r="DA2" s="118"/>
+      <c r="DB2" s="119"/>
+      <c r="DC2" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="DD2" s="119"/>
-      <c r="DE2" s="119"/>
-      <c r="DF2" s="119"/>
-      <c r="DG2" s="119"/>
-      <c r="DH2" s="119"/>
-      <c r="DI2" s="119"/>
-      <c r="DJ2" s="119"/>
-      <c r="DK2" s="119"/>
-      <c r="DL2" s="119"/>
-      <c r="DM2" s="119"/>
-      <c r="DN2" s="119"/>
-      <c r="DO2" s="119"/>
-      <c r="DP2" s="119"/>
-      <c r="DQ2" s="119"/>
-      <c r="DR2" s="119"/>
-      <c r="DS2" s="119"/>
-      <c r="DT2" s="119"/>
-      <c r="DU2" s="119"/>
-      <c r="DV2" s="119"/>
-      <c r="DW2" s="119"/>
-      <c r="DX2" s="119"/>
-      <c r="DY2" s="119"/>
-      <c r="DZ2" s="119"/>
-      <c r="EA2" s="119"/>
-      <c r="EB2" s="119"/>
-      <c r="EC2" s="119"/>
-      <c r="ED2" s="119"/>
-      <c r="EE2" s="119"/>
-      <c r="EF2" s="119"/>
-      <c r="EG2" s="120"/>
+      <c r="DD2" s="106"/>
+      <c r="DE2" s="106"/>
+      <c r="DF2" s="106"/>
+      <c r="DG2" s="106"/>
+      <c r="DH2" s="106"/>
+      <c r="DI2" s="106"/>
+      <c r="DJ2" s="106"/>
+      <c r="DK2" s="106"/>
+      <c r="DL2" s="106"/>
+      <c r="DM2" s="106"/>
+      <c r="DN2" s="106"/>
+      <c r="DO2" s="106"/>
+      <c r="DP2" s="106"/>
+      <c r="DQ2" s="106"/>
+      <c r="DR2" s="106"/>
+      <c r="DS2" s="106"/>
+      <c r="DT2" s="106"/>
+      <c r="DU2" s="106"/>
+      <c r="DV2" s="106"/>
+      <c r="DW2" s="106"/>
+      <c r="DX2" s="106"/>
+      <c r="DY2" s="106"/>
+      <c r="DZ2" s="106"/>
+      <c r="EA2" s="106"/>
+      <c r="EB2" s="106"/>
+      <c r="EC2" s="106"/>
+      <c r="ED2" s="106"/>
+      <c r="EE2" s="106"/>
+      <c r="EF2" s="106"/>
+      <c r="EG2" s="107"/>
     </row>
     <row r="3" spans="1:138" s="31" customFormat="1" ht="16" thickBot="1">
       <c r="A3" s="30" t="s">
@@ -2073,16 +2108,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="31" t="s">
-        <v>102</v>
-      </c>
       <c r="E3" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="31" t="s">
         <v>101</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>102</v>
       </c>
       <c r="G3" s="66">
         <v>23</v>
@@ -2336,7 +2371,7 @@
       <c r="CL3" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="CM3" s="93" t="s">
+      <c r="CM3" s="87" t="s">
         <v>19</v>
       </c>
       <c r="CN3" s="35" t="s">
@@ -2570,7 +2605,7 @@
       <c r="CJ4" s="24"/>
       <c r="CK4" s="25"/>
       <c r="CL4" s="25"/>
-      <c r="CM4" s="94"/>
+      <c r="CM4" s="88"/>
       <c r="CN4" s="24"/>
       <c r="CO4" s="24"/>
       <c r="CP4" s="24"/>
@@ -2643,7 +2678,7 @@
       <c r="R5" s="19">
         <v>3</v>
       </c>
-      <c r="CM5" s="82"/>
+      <c r="CM5" s="79"/>
       <c r="CQ5" s="16"/>
     </row>
     <row r="6" spans="1:138">
@@ -2671,7 +2706,7 @@
       <c r="T6" s="67">
         <v>1</v>
       </c>
-      <c r="CM6" s="82"/>
+      <c r="CM6" s="79"/>
       <c r="CQ6" s="16"/>
     </row>
     <row r="7" spans="1:138">
@@ -2702,11 +2737,11 @@
       <c r="W7" s="19">
         <v>1</v>
       </c>
-      <c r="CM7" s="82"/>
+      <c r="CM7" s="79"/>
       <c r="CQ7" s="16"/>
     </row>
     <row r="8" spans="1:138">
-      <c r="CM8" s="82"/>
+      <c r="CM8" s="79"/>
       <c r="CQ8" s="16"/>
     </row>
     <row r="9" spans="1:138">
@@ -2734,7 +2769,7 @@
       <c r="AN9" s="20"/>
       <c r="AO9" s="20"/>
       <c r="AP9" s="20"/>
-      <c r="CM9" s="82"/>
+      <c r="CM9" s="79"/>
       <c r="CQ9" s="16"/>
     </row>
     <row r="10" spans="1:138">
@@ -2768,7 +2803,7 @@
       <c r="AN10" s="21">
         <v>2</v>
       </c>
-      <c r="CM10" s="82"/>
+      <c r="CM10" s="79"/>
       <c r="CQ10" s="16"/>
     </row>
     <row r="11" spans="1:138">
@@ -2802,7 +2837,7 @@
       <c r="AP11" s="21">
         <v>2</v>
       </c>
-      <c r="CM11" s="82"/>
+      <c r="CM11" s="79"/>
       <c r="CQ11" s="16"/>
     </row>
     <row r="12" spans="1:138">
@@ -2830,11 +2865,11 @@
       <c r="AB12" s="21">
         <v>2</v>
       </c>
-      <c r="AW12" s="82"/>
+      <c r="AW12" s="79"/>
       <c r="BB12" s="21">
         <v>1</v>
       </c>
-      <c r="CM12" s="82"/>
+      <c r="CM12" s="79"/>
       <c r="CQ12" s="16"/>
     </row>
     <row r="13" spans="1:138">
@@ -2859,14 +2894,14 @@
       <c r="AB13" s="21">
         <v>1</v>
       </c>
-      <c r="AM13" s="82"/>
+      <c r="AM13" s="79"/>
       <c r="AP13" s="21">
         <v>1</v>
       </c>
       <c r="AW13" s="21">
         <v>1</v>
       </c>
-      <c r="CM13" s="82"/>
+      <c r="CM13" s="79"/>
       <c r="CQ13" s="16"/>
     </row>
     <row r="14" spans="1:138">
@@ -2897,11 +2932,11 @@
       <c r="AW14" s="21">
         <v>1</v>
       </c>
-      <c r="BA14" s="82"/>
+      <c r="BA14" s="79"/>
       <c r="BB14" s="21">
         <v>2</v>
       </c>
-      <c r="CM14" s="82"/>
+      <c r="CM14" s="79"/>
       <c r="CQ14" s="16"/>
     </row>
     <row r="15" spans="1:138">
@@ -2909,7 +2944,7 @@
         <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -2923,18 +2958,18 @@
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="AB15" s="82"/>
+      <c r="AB15" s="79"/>
       <c r="AH15" s="21">
         <v>2</v>
       </c>
-      <c r="AI15" s="82"/>
+      <c r="AI15" s="79"/>
       <c r="AO15" s="21">
         <v>2</v>
       </c>
-      <c r="AW15" s="82"/>
-      <c r="AZ15" s="82"/>
-      <c r="BA15" s="82"/>
-      <c r="CM15" s="82"/>
+      <c r="AW15" s="79"/>
+      <c r="AZ15" s="79"/>
+      <c r="BA15" s="79"/>
+      <c r="CM15" s="79"/>
       <c r="CQ15" s="16"/>
     </row>
     <row r="16" spans="1:138">
@@ -2968,7 +3003,7 @@
       <c r="AP16" s="21">
         <v>1</v>
       </c>
-      <c r="CM16" s="82"/>
+      <c r="CM16" s="79"/>
       <c r="CQ16" s="16"/>
     </row>
     <row r="17" spans="1:95">
@@ -3008,8 +3043,8 @@
       <c r="AZ17" s="21">
         <v>1</v>
       </c>
-      <c r="BA17" s="82"/>
-      <c r="CM17" s="82"/>
+      <c r="BA17" s="79"/>
+      <c r="CM17" s="79"/>
       <c r="CQ17" s="16"/>
     </row>
     <row r="18" spans="1:95">
@@ -3025,10 +3060,10 @@
       <c r="D18">
         <v>3</v>
       </c>
-      <c r="E18" s="81">
+      <c r="E18" s="78">
         <v>0</v>
       </c>
-      <c r="F18" s="81">
+      <c r="F18" s="78">
         <v>0</v>
       </c>
       <c r="AM18" s="21">
@@ -3037,7 +3072,7 @@
       <c r="AO18" s="21">
         <v>1</v>
       </c>
-      <c r="CM18" s="82"/>
+      <c r="CM18" s="79"/>
       <c r="CQ18" s="16"/>
     </row>
     <row r="19" spans="1:95">
@@ -3074,7 +3109,7 @@
       <c r="AM19" s="21">
         <v>1</v>
       </c>
-      <c r="CM19" s="82"/>
+      <c r="CM19" s="79"/>
       <c r="CQ19" s="16"/>
     </row>
     <row r="20" spans="1:95">
@@ -3117,9 +3152,9 @@
       <c r="AN20" s="21">
         <v>1</v>
       </c>
-      <c r="AZ20" s="82"/>
-      <c r="BC20" s="105"/>
-      <c r="CM20" s="82"/>
+      <c r="AZ20" s="79"/>
+      <c r="BC20" s="99"/>
+      <c r="CM20" s="79"/>
       <c r="CQ20" s="16"/>
     </row>
     <row r="21" spans="1:95">
@@ -3162,7 +3197,7 @@
       <c r="BC21" s="21">
         <v>1</v>
       </c>
-      <c r="CM21" s="82"/>
+      <c r="CM21" s="79"/>
       <c r="CQ21" s="16"/>
     </row>
     <row r="22" spans="1:95">
@@ -3184,22 +3219,22 @@
       <c r="F22">
         <v>1</v>
       </c>
-      <c r="AF22" s="82"/>
-      <c r="AI22" s="82"/>
-      <c r="AL22" s="82"/>
-      <c r="AM22" s="82"/>
+      <c r="AF22" s="79"/>
+      <c r="AI22" s="79"/>
+      <c r="AL22" s="79"/>
+      <c r="AM22" s="79"/>
       <c r="BA22" s="21">
         <v>3</v>
       </c>
-      <c r="BD22" s="133">
+      <c r="BD22" s="104">
         <v>3</v>
       </c>
-      <c r="CM22" s="82"/>
+      <c r="CM22" s="79"/>
       <c r="CQ22" s="16"/>
     </row>
     <row r="23" spans="1:95">
       <c r="A23" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s">
         <v>81</v>
@@ -3217,20 +3252,20 @@
         <v>1</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM23" s="82"/>
+        <v>119</v>
+      </c>
+      <c r="AM23" s="79"/>
       <c r="AP23" s="21">
         <v>1</v>
       </c>
       <c r="AW23" s="21">
         <v>1</v>
       </c>
-      <c r="CM23" s="82"/>
+      <c r="CM23" s="79"/>
       <c r="CQ23" s="16"/>
     </row>
     <row r="24" spans="1:95">
-      <c r="CM24" s="82"/>
+      <c r="CM24" s="79"/>
       <c r="CQ24" s="16"/>
     </row>
     <row r="25" spans="1:95">
@@ -3264,7 +3299,12 @@
       <c r="BM25" s="22"/>
       <c r="BN25" s="22"/>
       <c r="BO25" s="22"/>
-      <c r="CM25" s="82"/>
+      <c r="BP25" s="22"/>
+      <c r="BQ25" s="22"/>
+      <c r="CF25" s="22"/>
+      <c r="CH25" s="22"/>
+      <c r="CI25" s="22"/>
+      <c r="CM25" s="79"/>
       <c r="CQ25" s="16"/>
     </row>
     <row r="26" spans="1:95">
@@ -3272,7 +3312,7 @@
         <v>83</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C26">
         <v>8</v>
@@ -3280,24 +3320,36 @@
       <c r="E26">
         <v>8</v>
       </c>
-      <c r="AQ26" s="82"/>
-      <c r="AT26" s="91"/>
-      <c r="AU26" s="90"/>
-      <c r="AV26" s="90"/>
-      <c r="AW26" s="82"/>
-      <c r="CM26" s="82"/>
+      <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="AQ26" s="79"/>
+      <c r="AT26" s="85"/>
+      <c r="AU26" s="84"/>
+      <c r="AV26" s="84"/>
+      <c r="AW26" s="79"/>
+      <c r="CM26" s="79"/>
       <c r="CQ26" s="16"/>
     </row>
     <row r="27" spans="1:95">
       <c r="B27" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ27" s="82"/>
-      <c r="AT27" s="88"/>
-      <c r="AU27" s="87"/>
-      <c r="AV27" s="87"/>
-      <c r="AW27" s="87"/>
-      <c r="CM27" s="82"/>
+        <v>124</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="AQ27" s="79"/>
+      <c r="AT27" s="65"/>
+      <c r="AU27" s="22"/>
+      <c r="AV27" s="22"/>
+      <c r="AW27" s="22"/>
+      <c r="BD27" s="120">
+        <v>2</v>
+      </c>
+      <c r="BK27" s="83">
+        <v>2</v>
+      </c>
+      <c r="CM27" s="79"/>
       <c r="CQ27" s="16"/>
     </row>
     <row r="28" spans="1:95">
@@ -3305,7 +3357,7 @@
         <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C28">
         <v>8</v>
@@ -3313,11 +3365,11 @@
       <c r="E28">
         <v>8</v>
       </c>
-      <c r="AV28" s="87"/>
-      <c r="AW28" s="87"/>
-      <c r="AX28" s="87"/>
-      <c r="BA28" s="87"/>
-      <c r="CM28" s="82"/>
+      <c r="AV28" s="22"/>
+      <c r="AW28" s="22"/>
+      <c r="AX28" s="22"/>
+      <c r="BA28" s="22"/>
+      <c r="CM28" s="79"/>
       <c r="CQ28" s="16"/>
     </row>
     <row r="29" spans="1:95">
@@ -3325,7 +3377,7 @@
         <v>85</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -3333,11 +3385,14 @@
       <c r="E29">
         <v>8</v>
       </c>
-      <c r="BA29" s="87"/>
-      <c r="BB29" s="87"/>
-      <c r="BC29" s="87"/>
-      <c r="BD29" s="89"/>
-      <c r="CM29" s="82"/>
+      <c r="F29">
+        <v>14</v>
+      </c>
+      <c r="BA29" s="22"/>
+      <c r="BB29" s="22"/>
+      <c r="BC29" s="22"/>
+      <c r="BD29" s="23"/>
+      <c r="CM29" s="79"/>
       <c r="CQ29" s="16"/>
     </row>
     <row r="30" spans="1:95">
@@ -3345,7 +3400,7 @@
         <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C30">
         <v>8</v>
@@ -3353,20 +3408,24 @@
       <c r="E30">
         <v>8</v>
       </c>
-      <c r="BD30" s="89"/>
-      <c r="BG30" s="82"/>
-      <c r="BH30" s="87"/>
-      <c r="BI30" s="87"/>
-      <c r="BJ30" s="87"/>
-      <c r="CM30" s="82"/>
+      <c r="F30">
+        <v>14</v>
+      </c>
+      <c r="BA30" s="79"/>
+      <c r="BD30" s="23"/>
+      <c r="BG30" s="79"/>
+      <c r="BH30" s="22"/>
+      <c r="BI30" s="22"/>
+      <c r="BJ30" s="22"/>
+      <c r="CM30" s="79"/>
       <c r="CQ30" s="16"/>
     </row>
     <row r="31" spans="1:95">
       <c r="A31" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C31">
         <v>8</v>
@@ -3374,11 +3433,14 @@
       <c r="E31">
         <v>8</v>
       </c>
-      <c r="BI31" s="87"/>
-      <c r="BJ31" s="87"/>
-      <c r="BK31" s="87"/>
-      <c r="BO31" s="87"/>
-      <c r="CM31" s="82"/>
+      <c r="F31">
+        <v>14</v>
+      </c>
+      <c r="BI31" s="22"/>
+      <c r="BJ31" s="22"/>
+      <c r="BK31" s="22"/>
+      <c r="BO31" s="22"/>
+      <c r="CM31" s="79"/>
       <c r="CQ31" s="16"/>
     </row>
     <row r="32" spans="1:95">
@@ -3394,14 +3456,15 @@
       <c r="E32">
         <v>3</v>
       </c>
-      <c r="BO32" s="87"/>
-      <c r="BP32" s="87"/>
-      <c r="CM32" s="82"/>
+      <c r="BO32" s="22"/>
+      <c r="BP32" s="22"/>
+      <c r="CF32" s="79"/>
+      <c r="CM32" s="79"/>
       <c r="CQ32" s="16"/>
     </row>
     <row r="33" spans="1:95">
-      <c r="AT33" s="91"/>
-      <c r="CM33" s="82"/>
+      <c r="AT33" s="85"/>
+      <c r="CM33" s="79"/>
       <c r="CQ33" s="16"/>
     </row>
     <row r="34" spans="1:95">
@@ -3409,7 +3472,7 @@
         <v>88</v>
       </c>
       <c r="B34" s="57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AR34" s="68"/>
       <c r="AS34" s="69"/>
@@ -3435,7 +3498,9 @@
       <c r="BM34" s="68"/>
       <c r="BN34" s="68"/>
       <c r="BO34" s="68"/>
-      <c r="CM34" s="82"/>
+      <c r="BP34" s="68"/>
+      <c r="BQ34" s="68"/>
+      <c r="CM34" s="79"/>
       <c r="CQ34" s="16"/>
     </row>
     <row r="35" spans="1:95">
@@ -3446,59 +3511,79 @@
         <v>72</v>
       </c>
       <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="AT35" s="91"/>
-      <c r="AU35" s="105"/>
-      <c r="BD35" s="117">
-        <v>2</v>
-      </c>
-      <c r="CM35" s="82"/>
+        <v>6</v>
+      </c>
+      <c r="AT35" s="70"/>
+      <c r="AU35" s="71"/>
+      <c r="AV35" s="68"/>
+      <c r="BD35" s="121"/>
+      <c r="CM35" s="79"/>
       <c r="CQ35" s="16"/>
     </row>
     <row r="36" spans="1:95">
       <c r="B36" t="s">
-        <v>135</v>
-      </c>
-      <c r="AT36" s="91"/>
-      <c r="AU36" s="105"/>
-      <c r="CM36" s="82"/>
+        <v>133</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="AT36" s="85"/>
+      <c r="AU36" s="99"/>
+      <c r="BB36" s="138">
+        <v>3</v>
+      </c>
+      <c r="BC36" s="138">
+        <v>3</v>
+      </c>
+      <c r="CM36" s="79"/>
       <c r="CQ36" s="16"/>
     </row>
     <row r="37" spans="1:95">
       <c r="B37" t="s">
-        <v>136</v>
-      </c>
-      <c r="AT37" s="91"/>
-      <c r="AU37" s="105"/>
-      <c r="CM37" s="82"/>
+        <v>134</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="AT37" s="85"/>
+      <c r="AU37" s="99"/>
+      <c r="BH37" s="137">
+        <v>2</v>
+      </c>
+      <c r="BI37" s="137">
+        <v>2</v>
+      </c>
+      <c r="CM37" s="79"/>
       <c r="CQ37" s="16"/>
     </row>
     <row r="38" spans="1:95">
       <c r="A38" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B38" t="s">
-        <v>138</v>
-      </c>
-      <c r="AT38" s="91"/>
-      <c r="AU38" s="105"/>
-      <c r="CM38" s="82"/>
+        <v>136</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="AT38" s="85"/>
+      <c r="AU38" s="99"/>
+      <c r="CM38" s="79"/>
       <c r="CQ38" s="16"/>
     </row>
     <row r="39" spans="1:95">
       <c r="B39" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT39" s="91"/>
-      <c r="AU39" s="105"/>
-      <c r="CM39" s="82"/>
+        <v>135</v>
+      </c>
+      <c r="AT39" s="85"/>
+      <c r="AU39" s="99"/>
+      <c r="CM39" s="79"/>
       <c r="CQ39" s="16"/>
     </row>
     <row r="40" spans="1:95">
@@ -3506,73 +3591,109 @@
         <v>91</v>
       </c>
       <c r="B40" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C40">
         <v>5</v>
       </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
       <c r="E40">
         <v>5</v>
       </c>
-      <c r="AW40" s="82"/>
-      <c r="CM40" s="82"/>
+      <c r="AW40" s="79"/>
+      <c r="BK40" s="141">
+        <v>2</v>
+      </c>
+      <c r="CM40" s="79"/>
       <c r="CQ40" s="16"/>
     </row>
     <row r="41" spans="1:95">
       <c r="A41" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41">
-        <v>4</v>
-      </c>
-      <c r="E41">
-        <v>4</v>
-      </c>
-      <c r="AW41" s="82"/>
-      <c r="CM41" s="82"/>
+        <v>103</v>
+      </c>
+      <c r="AV41" s="68"/>
+      <c r="AW41" s="68"/>
+      <c r="CM41" s="79"/>
       <c r="CQ41" s="16"/>
     </row>
     <row r="42" spans="1:95">
       <c r="B42" t="s">
-        <v>148</v>
-      </c>
-      <c r="AW42" s="82"/>
-      <c r="CM42" s="82"/>
+        <v>146</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="AW42" s="79"/>
+      <c r="BK42" s="138">
+        <v>3</v>
+      </c>
+      <c r="BR42" s="138">
+        <v>1</v>
+      </c>
+      <c r="CM42" s="79"/>
       <c r="CQ42" s="16"/>
     </row>
     <row r="43" spans="1:95">
       <c r="B43" t="s">
-        <v>149</v>
-      </c>
-      <c r="AW43" s="82"/>
-      <c r="CM43" s="82"/>
+        <v>147</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="AW43" s="79"/>
+      <c r="BK43" s="79"/>
+      <c r="BN43" s="79"/>
+      <c r="BO43" s="79"/>
+      <c r="BU43" s="79"/>
+      <c r="BV43" s="138">
+        <v>3</v>
+      </c>
+      <c r="CM43" s="79"/>
       <c r="CQ43" s="16"/>
     </row>
     <row r="44" spans="1:95">
       <c r="B44" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW44" s="82"/>
-      <c r="CM44" s="82"/>
+        <v>148</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="AW44" s="79"/>
+      <c r="BW44" s="140">
+        <v>2</v>
+      </c>
+      <c r="BX44" s="139">
+        <v>2</v>
+      </c>
+      <c r="CM44" s="79"/>
       <c r="CQ44" s="16"/>
     </row>
     <row r="45" spans="1:95">
       <c r="B45" t="s">
-        <v>151</v>
-      </c>
-      <c r="AW45" s="82"/>
-      <c r="CM45" s="82"/>
+        <v>149</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="AW45" s="79"/>
+      <c r="BK45" s="136"/>
+      <c r="BY45" s="138">
+        <v>2</v>
+      </c>
+      <c r="CM45" s="79"/>
       <c r="CQ45" s="16"/>
     </row>
     <row r="46" spans="1:95">
       <c r="A46" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -3580,116 +3701,169 @@
       <c r="E46">
         <v>4</v>
       </c>
-      <c r="BA46" s="82"/>
-      <c r="CM46" s="82"/>
+      <c r="BA46" s="68"/>
+      <c r="BB46" s="68"/>
+      <c r="BC46" s="68"/>
+      <c r="CM46" s="79"/>
       <c r="CQ46" s="16"/>
     </row>
     <row r="47" spans="1:95">
       <c r="B47" t="s">
-        <v>152</v>
-      </c>
-      <c r="BA47" s="82"/>
-      <c r="CM47" s="82"/>
+        <v>150</v>
+      </c>
+      <c r="BA47" s="79"/>
+      <c r="BY47" s="138"/>
+      <c r="CM47" s="79"/>
       <c r="CQ47" s="16"/>
     </row>
     <row r="48" spans="1:95">
       <c r="B48" t="s">
-        <v>143</v>
-      </c>
-      <c r="BA48" s="82"/>
-      <c r="CM48" s="82"/>
+        <v>141</v>
+      </c>
+      <c r="D48">
+        <v>6</v>
+      </c>
+      <c r="BA48" s="79"/>
+      <c r="BO48" s="79"/>
+      <c r="BY48" s="79"/>
+      <c r="CC48" s="138">
+        <v>3</v>
+      </c>
+      <c r="CD48" s="138">
+        <v>3</v>
+      </c>
+      <c r="CM48" s="79"/>
       <c r="CQ48" s="16"/>
     </row>
-    <row r="49" spans="1:109">
+    <row r="49" spans="1:125">
       <c r="B49" t="s">
-        <v>141</v>
-      </c>
-      <c r="BA49" s="82"/>
-      <c r="CM49" s="82"/>
+        <v>139</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="BA49" s="79"/>
+      <c r="CC49" s="137">
+        <v>3</v>
+      </c>
+      <c r="CD49" s="137">
+        <v>2</v>
+      </c>
+      <c r="CM49" s="79"/>
       <c r="CQ49" s="16"/>
     </row>
-    <row r="50" spans="1:109">
+    <row r="50" spans="1:125">
       <c r="B50" t="s">
-        <v>142</v>
-      </c>
-      <c r="BA50" s="82"/>
-      <c r="CM50" s="82"/>
+        <v>140</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="BA50" s="79"/>
+      <c r="BQ50" s="136"/>
+      <c r="CM50" s="79"/>
       <c r="CQ50" s="16"/>
     </row>
-    <row r="51" spans="1:109">
+    <row r="51" spans="1:125">
       <c r="A51" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B51" t="s">
-        <v>146</v>
-      </c>
-      <c r="BA51" s="82"/>
-      <c r="CM51" s="82"/>
+        <v>144</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="BA51" s="79"/>
+      <c r="CF51" s="68"/>
+      <c r="CM51" s="79"/>
       <c r="CQ51" s="16"/>
     </row>
-    <row r="52" spans="1:109">
+    <row r="52" spans="1:125">
       <c r="B52" t="s">
-        <v>145</v>
-      </c>
-      <c r="BA52" s="82"/>
-      <c r="CM52" s="82"/>
+        <v>143</v>
+      </c>
+      <c r="BA52" s="79"/>
+      <c r="CM52" s="79"/>
       <c r="CQ52" s="16"/>
     </row>
-    <row r="53" spans="1:109">
+    <row r="53" spans="1:125">
       <c r="B53" t="s">
-        <v>144</v>
-      </c>
-      <c r="BA53" s="82"/>
-      <c r="CM53" s="82"/>
+        <v>142</v>
+      </c>
+      <c r="BA53" s="79"/>
+      <c r="CM53" s="79"/>
       <c r="CQ53" s="16"/>
     </row>
-    <row r="54" spans="1:109">
+    <row r="54" spans="1:125">
       <c r="A54" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
-      </c>
-      <c r="BA54" s="82"/>
-      <c r="CM54" s="82"/>
+        <v>152</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="BA54" s="79"/>
+      <c r="BD54" s="71"/>
+      <c r="CI54" s="68"/>
+      <c r="CJ54" s="123"/>
+      <c r="CM54" s="79"/>
       <c r="CQ54" s="16"/>
     </row>
-    <row r="55" spans="1:109">
+    <row r="55" spans="1:125">
       <c r="A55" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C55">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E55">
-        <v>5</v>
-      </c>
-      <c r="BH55" s="82"/>
-      <c r="CM55" s="82"/>
+        <v>8</v>
+      </c>
+      <c r="BH55" s="79"/>
+      <c r="BK55" s="68"/>
+      <c r="BO55" s="68"/>
+      <c r="CJ55" s="68"/>
+      <c r="CK55" s="68"/>
+      <c r="CM55" s="79"/>
       <c r="CQ55" s="16"/>
     </row>
-    <row r="56" spans="1:109">
-      <c r="BH56" s="82"/>
-      <c r="CM56" s="82"/>
+    <row r="56" spans="1:125">
+      <c r="BH56" s="79"/>
+      <c r="CM56" s="79"/>
       <c r="CQ56" s="16"/>
     </row>
-    <row r="57" spans="1:109">
+    <row r="57" spans="1:125">
       <c r="B57" t="s">
-        <v>158</v>
-      </c>
-      <c r="BH57" s="82"/>
-      <c r="CM57" s="82"/>
+        <v>156</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="BH57" s="79"/>
+      <c r="CM57" s="79"/>
       <c r="CQ57" s="16"/>
     </row>
-    <row r="58" spans="1:109">
+    <row r="58" spans="1:125">
       <c r="A58" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C58">
         <v>8</v>
@@ -3697,64 +3871,70 @@
       <c r="E58">
         <v>8</v>
       </c>
-      <c r="BH58" s="82"/>
-      <c r="BK58" s="82"/>
-      <c r="BO58" s="82"/>
-      <c r="CM58" s="82"/>
+      <c r="BH58" s="79"/>
+      <c r="BK58" s="79"/>
+      <c r="BO58" s="68"/>
+      <c r="BP58" s="68"/>
+      <c r="CJ58" s="68"/>
+      <c r="CK58" s="68"/>
+      <c r="CM58" s="79"/>
       <c r="CQ58" s="16"/>
     </row>
-    <row r="59" spans="1:109">
-      <c r="BH59" s="82"/>
-      <c r="BK59" s="82"/>
-      <c r="BO59" s="82"/>
-      <c r="CM59" s="82"/>
+    <row r="59" spans="1:125">
+      <c r="BH59" s="79"/>
+      <c r="BK59" s="79"/>
+      <c r="BO59" s="79"/>
+      <c r="CM59" s="79"/>
       <c r="CQ59" s="16"/>
     </row>
-    <row r="60" spans="1:109">
+    <row r="60" spans="1:125">
       <c r="A60" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B60" t="s">
         <v>87</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E60">
-        <v>3</v>
-      </c>
-      <c r="BO60" s="82"/>
-      <c r="CM60" s="82"/>
+        <v>5</v>
+      </c>
+      <c r="BO60" s="79"/>
+      <c r="BP60" s="68"/>
+      <c r="BQ60" s="68"/>
+      <c r="CM60" s="79"/>
       <c r="CQ60" s="16"/>
     </row>
-    <row r="61" spans="1:109">
+    <row r="61" spans="1:125">
       <c r="A61" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E61">
-        <v>2</v>
-      </c>
-      <c r="CM61" s="82"/>
+        <v>8</v>
+      </c>
+      <c r="CL61" s="68"/>
+      <c r="CM61" s="79"/>
       <c r="CQ61" s="16"/>
     </row>
-    <row r="62" spans="1:109">
+    <row r="62" spans="1:125">
       <c r="B62" t="s">
-        <v>153</v>
-      </c>
-      <c r="CM62" s="82"/>
+        <v>151</v>
+      </c>
+      <c r="CM62" s="79"/>
       <c r="CQ62" s="16"/>
     </row>
-    <row r="63" spans="1:109">
-      <c r="CM63" s="82"/>
+    <row r="63" spans="1:125">
+      <c r="CM63" s="79"/>
       <c r="CQ63" s="16"/>
     </row>
-    <row r="64" spans="1:109">
+    <row r="64" spans="1:125">
       <c r="A64" s="8" t="s">
         <v>88</v>
       </c>
@@ -3767,97 +3947,103 @@
       <c r="E64">
         <v>95</v>
       </c>
-      <c r="BM64" s="82"/>
-      <c r="BN64" s="82"/>
-      <c r="BO64" s="72"/>
-      <c r="BP64" s="72"/>
-      <c r="BQ64" s="72"/>
-      <c r="BR64" s="72"/>
-      <c r="BS64" s="72"/>
-      <c r="BT64" s="72"/>
-      <c r="BU64" s="72"/>
-      <c r="BV64" s="72"/>
-      <c r="BW64" s="73"/>
-      <c r="BX64" s="74"/>
-      <c r="BY64" s="72"/>
-      <c r="BZ64" s="72"/>
-      <c r="CA64" s="72"/>
-      <c r="CB64" s="72"/>
-      <c r="CC64" s="72"/>
-      <c r="CD64" s="72"/>
-      <c r="CE64" s="72"/>
-      <c r="CF64" s="72"/>
-      <c r="CG64" s="72"/>
-      <c r="CH64" s="72"/>
-      <c r="CI64" s="72"/>
-      <c r="CJ64" s="72"/>
-      <c r="CK64" s="72"/>
-      <c r="CL64" s="72"/>
-      <c r="CM64" s="72"/>
-      <c r="CN64" s="72"/>
-      <c r="CO64" s="72"/>
-      <c r="CP64" s="72"/>
-      <c r="CQ64" s="72"/>
-      <c r="CR64" s="98"/>
-      <c r="CS64" s="98"/>
-      <c r="CT64" s="98"/>
-      <c r="CU64" s="98"/>
-      <c r="CV64" s="98"/>
-      <c r="CW64" s="98"/>
-      <c r="CX64" s="98"/>
-      <c r="CY64" s="98"/>
-      <c r="CZ64" s="98"/>
-      <c r="DA64" s="98"/>
-      <c r="DB64" s="99"/>
-      <c r="DC64" s="100"/>
-      <c r="DD64" s="98"/>
-      <c r="DE64" s="98"/>
+      <c r="BM64" s="79"/>
+      <c r="BN64" s="79"/>
+      <c r="BO64" s="124"/>
+      <c r="BP64" s="124"/>
+      <c r="BQ64" s="124"/>
+      <c r="BR64" s="124"/>
+      <c r="BS64" s="124"/>
+      <c r="BT64" s="124"/>
+      <c r="BU64" s="124"/>
+      <c r="BV64" s="124"/>
+      <c r="BW64" s="126"/>
+      <c r="BX64" s="127"/>
+      <c r="BY64" s="124"/>
+      <c r="BZ64" s="124"/>
+      <c r="CA64" s="124"/>
+      <c r="CB64" s="124"/>
+      <c r="CC64" s="124"/>
+      <c r="CD64" s="124"/>
+      <c r="CE64" s="124"/>
+      <c r="CF64" s="124"/>
+      <c r="CG64" s="124"/>
+      <c r="CH64" s="124"/>
+      <c r="CI64" s="124"/>
+      <c r="CJ64" s="124"/>
+      <c r="CK64" s="124"/>
+      <c r="CL64" s="124"/>
+      <c r="CM64" s="124"/>
+      <c r="CN64" s="124"/>
+      <c r="CO64" s="124"/>
+      <c r="CP64" s="124"/>
+      <c r="CQ64" s="124"/>
+      <c r="CR64" s="92"/>
+      <c r="CS64" s="92"/>
+      <c r="CT64" s="92"/>
+      <c r="CU64" s="92"/>
+      <c r="CV64" s="92"/>
+      <c r="CW64" s="92"/>
+      <c r="CX64" s="92"/>
+      <c r="CY64" s="92"/>
+      <c r="CZ64" s="92"/>
+      <c r="DA64" s="92"/>
+      <c r="DB64" s="93"/>
+      <c r="DC64" s="94"/>
+      <c r="DD64" s="92"/>
+      <c r="DE64" s="92"/>
+      <c r="DP64" s="124"/>
+      <c r="DQ64" s="124"/>
+      <c r="DR64" s="124"/>
+      <c r="DS64" s="124"/>
+      <c r="DT64" s="124"/>
+      <c r="DU64" s="124"/>
     </row>
     <row r="65" spans="1:133">
       <c r="A65" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BO65" s="95"/>
-      <c r="BP65" s="95"/>
-      <c r="BQ65" s="95"/>
-      <c r="BR65" s="95"/>
-      <c r="BS65" s="82"/>
-      <c r="CM65" s="82"/>
+      <c r="BO65" s="89"/>
+      <c r="BP65" s="89"/>
+      <c r="BQ65" s="89"/>
+      <c r="BR65" s="89"/>
+      <c r="BS65" s="79"/>
+      <c r="CM65" s="79"/>
       <c r="CQ65" s="16"/>
     </row>
     <row r="66" spans="1:133">
       <c r="A66" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="BU66" s="95"/>
-      <c r="BV66" s="95"/>
-      <c r="BW66" s="96"/>
-      <c r="BX66" s="97"/>
-      <c r="BY66" s="95"/>
-      <c r="CM66" s="82"/>
+      <c r="BU66" s="89"/>
+      <c r="BV66" s="89"/>
+      <c r="BW66" s="90"/>
+      <c r="BX66" s="91"/>
+      <c r="BY66" s="89"/>
+      <c r="CM66" s="79"/>
       <c r="CQ66" s="16"/>
     </row>
     <row r="67" spans="1:133">
       <c r="A67" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="CB67" s="95"/>
-      <c r="CC67" s="95"/>
-      <c r="CD67" s="95"/>
-      <c r="CE67" s="95"/>
-      <c r="CF67" s="95"/>
-      <c r="CM67" s="82"/>
+      <c r="CB67" s="89"/>
+      <c r="CC67" s="89"/>
+      <c r="CD67" s="89"/>
+      <c r="CE67" s="89"/>
+      <c r="CF67" s="89"/>
+      <c r="CM67" s="79"/>
       <c r="CQ67" s="16"/>
     </row>
     <row r="68" spans="1:133">
       <c r="A68" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="CI68" s="95"/>
-      <c r="CJ68" s="95"/>
-      <c r="CK68" s="95"/>
-      <c r="CL68" s="95"/>
-      <c r="CM68" s="95"/>
+      <c r="CI68" s="89"/>
+      <c r="CJ68" s="89"/>
+      <c r="CK68" s="89"/>
+      <c r="CL68" s="89"/>
+      <c r="CM68" s="89"/>
       <c r="CQ68" s="16"/>
     </row>
     <row r="69" spans="1:133">
@@ -3873,15 +4059,15 @@
       <c r="E69">
         <v>30</v>
       </c>
-      <c r="CM69" s="82"/>
+      <c r="CM69" s="79"/>
       <c r="CQ69" s="16"/>
     </row>
     <row r="70" spans="1:133">
-      <c r="CM70" s="95"/>
-      <c r="CN70" s="95"/>
-      <c r="CO70" s="95"/>
-      <c r="CP70" s="95"/>
-      <c r="CQ70" s="95"/>
+      <c r="CM70" s="89"/>
+      <c r="CN70" s="89"/>
+      <c r="CO70" s="89"/>
+      <c r="CP70" s="89"/>
+      <c r="CQ70" s="89"/>
     </row>
     <row r="71" spans="1:133">
       <c r="A71" s="10" t="s">
@@ -3890,87 +4076,87 @@
       <c r="B71" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AR71" s="75"/>
-      <c r="AS71" s="76"/>
-      <c r="AT71" s="77"/>
-      <c r="AU71" s="75"/>
-      <c r="AV71" s="75"/>
-      <c r="AW71" s="75"/>
-      <c r="AX71" s="75"/>
-      <c r="AY71" s="75"/>
-      <c r="AZ71" s="75"/>
-      <c r="BA71" s="75"/>
-      <c r="BB71" s="75"/>
-      <c r="BC71" s="75"/>
-      <c r="BD71" s="78"/>
-      <c r="BE71" s="75"/>
-      <c r="BF71" s="75"/>
-      <c r="BG71" s="75"/>
-      <c r="BH71" s="75"/>
-      <c r="BI71" s="75"/>
-      <c r="BJ71" s="75"/>
-      <c r="BK71" s="75"/>
-      <c r="BL71" s="75"/>
-      <c r="BM71" s="75"/>
-      <c r="BN71" s="75"/>
-      <c r="BO71" s="75"/>
-      <c r="BP71" s="75"/>
-      <c r="BQ71" s="75"/>
-      <c r="BR71" s="75"/>
-      <c r="BS71" s="75"/>
-      <c r="BT71" s="75"/>
-      <c r="BU71" s="75"/>
-      <c r="BV71" s="75"/>
-      <c r="BW71" s="76"/>
-      <c r="BX71" s="77"/>
-      <c r="BY71" s="75"/>
-      <c r="BZ71" s="75"/>
-      <c r="CA71" s="75"/>
-      <c r="CB71" s="75"/>
-      <c r="CC71" s="75"/>
-      <c r="CD71" s="75"/>
-      <c r="CE71" s="75"/>
-      <c r="CF71" s="75"/>
-      <c r="CG71" s="75"/>
-      <c r="CH71" s="75"/>
-      <c r="CI71" s="75"/>
-      <c r="CJ71" s="75"/>
-      <c r="CK71" s="75"/>
-      <c r="CL71" s="75"/>
-      <c r="CM71" s="75"/>
-      <c r="CN71" s="75"/>
-      <c r="CO71" s="75"/>
-      <c r="CP71" s="75"/>
-      <c r="CQ71" s="75"/>
-      <c r="CR71" s="75"/>
-      <c r="CS71" s="75"/>
-      <c r="CT71" s="75"/>
-      <c r="CU71" s="75"/>
-      <c r="CV71" s="75"/>
-      <c r="CW71" s="75"/>
-      <c r="CX71" s="75"/>
-      <c r="CY71" s="75"/>
-      <c r="CZ71" s="75"/>
-      <c r="DA71" s="75"/>
-      <c r="DB71" s="76"/>
-      <c r="DC71" s="77"/>
-      <c r="DD71" s="75"/>
-      <c r="DE71" s="75"/>
-      <c r="DF71" s="75"/>
-      <c r="DG71" s="75"/>
-      <c r="DH71" s="75"/>
-      <c r="DI71" s="75"/>
-      <c r="DJ71" s="75"/>
-      <c r="DK71" s="75"/>
-      <c r="DL71" s="75"/>
-      <c r="DM71" s="75"/>
-      <c r="DN71" s="75"/>
-      <c r="DO71" s="75"/>
+      <c r="AR71" s="72"/>
+      <c r="AS71" s="73"/>
+      <c r="AT71" s="74"/>
+      <c r="AU71" s="72"/>
+      <c r="AV71" s="72"/>
+      <c r="AW71" s="72"/>
+      <c r="AX71" s="72"/>
+      <c r="AY71" s="72"/>
+      <c r="AZ71" s="72"/>
+      <c r="BA71" s="72"/>
+      <c r="BB71" s="72"/>
+      <c r="BC71" s="72"/>
+      <c r="BD71" s="75"/>
+      <c r="BE71" s="72"/>
+      <c r="BF71" s="72"/>
+      <c r="BG71" s="72"/>
+      <c r="BH71" s="72"/>
+      <c r="BI71" s="72"/>
+      <c r="BJ71" s="72"/>
+      <c r="BK71" s="72"/>
+      <c r="BL71" s="72"/>
+      <c r="BM71" s="72"/>
+      <c r="BN71" s="72"/>
+      <c r="BO71" s="72"/>
+      <c r="BP71" s="72"/>
+      <c r="BQ71" s="72"/>
+      <c r="BR71" s="72"/>
+      <c r="BS71" s="72"/>
+      <c r="BT71" s="72"/>
+      <c r="BU71" s="72"/>
+      <c r="BV71" s="72"/>
+      <c r="BW71" s="73"/>
+      <c r="BX71" s="74"/>
+      <c r="BY71" s="72"/>
+      <c r="BZ71" s="72"/>
+      <c r="CA71" s="72"/>
+      <c r="CB71" s="72"/>
+      <c r="CC71" s="72"/>
+      <c r="CD71" s="72"/>
+      <c r="CE71" s="72"/>
+      <c r="CF71" s="72"/>
+      <c r="CG71" s="72"/>
+      <c r="CH71" s="72"/>
+      <c r="CI71" s="72"/>
+      <c r="CJ71" s="72"/>
+      <c r="CK71" s="72"/>
+      <c r="CL71" s="72"/>
+      <c r="CM71" s="72"/>
+      <c r="CN71" s="72"/>
+      <c r="CO71" s="72"/>
+      <c r="CP71" s="72"/>
+      <c r="CQ71" s="72"/>
+      <c r="CR71" s="72"/>
+      <c r="CS71" s="72"/>
+      <c r="CT71" s="72"/>
+      <c r="CU71" s="72"/>
+      <c r="CV71" s="72"/>
+      <c r="CW71" s="72"/>
+      <c r="CX71" s="72"/>
+      <c r="CY71" s="72"/>
+      <c r="CZ71" s="72"/>
+      <c r="DA71" s="72"/>
+      <c r="DB71" s="73"/>
+      <c r="DC71" s="74"/>
+      <c r="DD71" s="72"/>
+      <c r="DE71" s="72"/>
+      <c r="DF71" s="72"/>
+      <c r="DG71" s="72"/>
+      <c r="DH71" s="72"/>
+      <c r="DI71" s="72"/>
+      <c r="DJ71" s="72"/>
+      <c r="DK71" s="72"/>
+      <c r="DL71" s="72"/>
+      <c r="DM71" s="72"/>
+      <c r="DN71" s="72"/>
+      <c r="DO71" s="72"/>
     </row>
     <row r="72" spans="1:133">
-      <c r="A72" s="106"/>
-      <c r="B72" s="101" t="s">
-        <v>127</v>
+      <c r="A72" s="100"/>
+      <c r="B72" s="95" t="s">
+        <v>125</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3984,169 +4170,194 @@
       <c r="F72">
         <v>0</v>
       </c>
-      <c r="AR72" s="82"/>
-      <c r="AS72" s="102"/>
-      <c r="AT72" s="91"/>
-      <c r="AW72" s="83">
-        <v>1</v>
-      </c>
-      <c r="AX72" s="82"/>
-      <c r="AY72" s="82"/>
-      <c r="AZ72" s="82"/>
-      <c r="BA72" s="83">
-        <v>1</v>
-      </c>
-      <c r="BD72" s="103"/>
-      <c r="BE72" s="82"/>
-      <c r="BF72" s="82"/>
-      <c r="BG72" s="82"/>
-      <c r="BH72" s="82"/>
-      <c r="BK72" s="82"/>
-      <c r="BL72" s="82"/>
-      <c r="BM72" s="82"/>
-      <c r="BN72" s="82"/>
-      <c r="BO72" s="82"/>
-      <c r="BS72" s="82"/>
-      <c r="BT72" s="82"/>
-      <c r="BU72" s="82"/>
-      <c r="BV72" s="82"/>
-      <c r="BY72" s="82"/>
-      <c r="BZ72" s="82"/>
-      <c r="CA72" s="82"/>
-      <c r="CB72" s="82"/>
-      <c r="CC72" s="82"/>
-      <c r="CF72" s="82"/>
-      <c r="CG72" s="82"/>
-      <c r="CH72" s="82"/>
-      <c r="CI72" s="82"/>
-      <c r="CJ72" s="82"/>
-      <c r="CM72" s="82"/>
-      <c r="CN72" s="82"/>
-      <c r="CO72" s="82"/>
-      <c r="CP72" s="82"/>
+      <c r="AR72" s="79"/>
+      <c r="AS72" s="96"/>
+      <c r="AT72" s="85"/>
+      <c r="AW72" s="80">
+        <v>1</v>
+      </c>
+      <c r="AX72" s="79"/>
+      <c r="AY72" s="79"/>
+      <c r="AZ72" s="79"/>
+      <c r="BA72" s="80">
+        <v>1</v>
+      </c>
+      <c r="BD72" s="97"/>
+      <c r="BE72" s="79"/>
+      <c r="BF72" s="79"/>
+      <c r="BG72" s="79"/>
+      <c r="BH72" s="79"/>
+      <c r="BK72" s="79"/>
+      <c r="BL72" s="79"/>
+      <c r="BM72" s="79"/>
+      <c r="BN72" s="79"/>
+      <c r="BO72" s="79"/>
+      <c r="BS72" s="79"/>
+      <c r="BT72" s="79"/>
+      <c r="BU72" s="79"/>
+      <c r="BV72" s="79"/>
+      <c r="BY72" s="79"/>
+      <c r="BZ72" s="79"/>
+      <c r="CA72" s="79"/>
+      <c r="CB72" s="79"/>
+      <c r="CC72" s="79"/>
+      <c r="CF72" s="79"/>
+      <c r="CG72" s="79"/>
+      <c r="CH72" s="79"/>
+      <c r="CI72" s="79"/>
+      <c r="CJ72" s="79"/>
+      <c r="CM72" s="79"/>
+      <c r="CN72" s="79"/>
+      <c r="CO72" s="79"/>
+      <c r="CP72" s="79"/>
       <c r="CQ72" s="16"/>
-      <c r="CT72" s="82"/>
-      <c r="CU72" s="82"/>
-      <c r="CV72" s="82"/>
-      <c r="CW72" s="82"/>
-      <c r="CX72" s="82"/>
-      <c r="DA72" s="82"/>
-      <c r="DB72" s="102"/>
-      <c r="DC72" s="91"/>
-      <c r="DD72" s="82"/>
-      <c r="DE72" s="82"/>
-      <c r="DH72" s="82"/>
-      <c r="DI72" s="82"/>
-      <c r="DJ72" s="82"/>
-      <c r="DK72" s="82"/>
-      <c r="DL72" s="82"/>
+      <c r="CT72" s="79"/>
+      <c r="CU72" s="79"/>
+      <c r="CV72" s="79"/>
+      <c r="CW72" s="79"/>
+      <c r="CX72" s="79"/>
+      <c r="DA72" s="79"/>
+      <c r="DB72" s="96"/>
+      <c r="DC72" s="85"/>
+      <c r="DD72" s="79"/>
+      <c r="DE72" s="79"/>
+      <c r="DH72" s="79"/>
+      <c r="DI72" s="79"/>
+      <c r="DJ72" s="79"/>
+      <c r="DK72" s="79"/>
+      <c r="DL72" s="79"/>
     </row>
     <row r="73" spans="1:133">
       <c r="A73" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B73" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C73">
-        <v>45</v>
+        <v>20</v>
+      </c>
+      <c r="D73">
+        <v>6</v>
       </c>
       <c r="E73">
-        <v>45</v>
-      </c>
-      <c r="BD73" s="84"/>
-      <c r="BH73" s="83"/>
-      <c r="BI73" s="83"/>
-      <c r="BJ73" s="83"/>
-      <c r="BK73" s="83"/>
-      <c r="BO73" s="83"/>
-      <c r="BP73" s="83"/>
-      <c r="BQ73" s="83"/>
-      <c r="BR73" s="83"/>
-      <c r="BS73" s="83"/>
-      <c r="BV73" s="83"/>
-      <c r="BW73" s="85"/>
-      <c r="BX73" s="86"/>
-      <c r="BY73" s="83"/>
-      <c r="CC73" s="83"/>
-      <c r="CD73" s="83"/>
-      <c r="CE73" s="83"/>
-      <c r="CF73" s="83"/>
-      <c r="CJ73" s="83"/>
-      <c r="CK73" s="83"/>
-      <c r="CL73" s="83"/>
-      <c r="CM73" s="83"/>
-      <c r="CP73" s="83"/>
-      <c r="CQ73" s="83"/>
-      <c r="CR73" s="83"/>
-      <c r="CS73" s="83"/>
-      <c r="CT73" s="83"/>
-      <c r="CW73" s="83"/>
-      <c r="CX73" s="83"/>
+        <v>20</v>
+      </c>
+      <c r="BD73" s="135"/>
+      <c r="BH73" s="80"/>
+      <c r="BI73" s="80">
+        <v>2</v>
+      </c>
+      <c r="BJ73" s="80"/>
+      <c r="BK73" s="80"/>
+      <c r="BO73" s="80"/>
+      <c r="BP73" s="80">
+        <v>1</v>
+      </c>
+      <c r="BQ73" s="80"/>
+      <c r="BR73" s="80"/>
+      <c r="BS73" s="80"/>
+      <c r="BV73" s="80"/>
+      <c r="BW73" s="81"/>
+      <c r="BX73" s="82"/>
+      <c r="BY73" s="80"/>
+      <c r="CC73" s="80"/>
+      <c r="CD73" s="80">
+        <v>2</v>
+      </c>
+      <c r="CE73" s="80">
+        <v>1</v>
+      </c>
+      <c r="CF73" s="80"/>
+      <c r="CJ73" s="80"/>
+      <c r="CK73" s="80"/>
+      <c r="CL73" s="80"/>
+      <c r="CM73" s="80"/>
+      <c r="CP73" s="80"/>
+      <c r="CQ73" s="80"/>
+      <c r="CR73" s="80"/>
+      <c r="CS73" s="80"/>
+      <c r="CT73" s="80"/>
+      <c r="CW73" s="80"/>
+      <c r="CX73" s="80"/>
+      <c r="CY73" s="80"/>
+      <c r="CZ73" s="80"/>
+      <c r="DA73" s="80"/>
+      <c r="DD73" s="80"/>
+      <c r="DE73" s="80"/>
+      <c r="DF73" s="80"/>
+      <c r="DG73" s="80"/>
+      <c r="DH73" s="80"/>
+      <c r="DK73" s="80"/>
+      <c r="DL73" s="80"/>
     </row>
     <row r="74" spans="1:133">
       <c r="A74" s="1" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="B74" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="C74">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E74">
-        <v>10</v>
-      </c>
-      <c r="CM74" s="82"/>
+        <v>6</v>
+      </c>
+      <c r="CM74" s="79"/>
       <c r="CQ74" s="16"/>
-      <c r="DA74" s="83"/>
-      <c r="DD74" s="83"/>
-      <c r="DE74" s="83"/>
-      <c r="DF74" s="83"/>
-      <c r="DG74" s="83"/>
-      <c r="DH74" s="83"/>
-      <c r="DK74" s="83"/>
-      <c r="DL74" s="83"/>
+      <c r="DA74" s="79"/>
+      <c r="DD74" s="79"/>
+      <c r="DE74" s="79"/>
+      <c r="DH74" s="79"/>
+      <c r="DK74" s="79"/>
+      <c r="DL74" s="79"/>
+      <c r="DW74" s="125"/>
+      <c r="DX74" s="125"/>
+      <c r="DY74" s="125"/>
+      <c r="DZ74" s="125"/>
+      <c r="EA74" s="125"/>
+      <c r="EB74" s="125"/>
     </row>
     <row r="75" spans="1:133">
-      <c r="CM75" s="82"/>
+      <c r="CM75" s="79"/>
       <c r="CQ75" s="16"/>
     </row>
     <row r="76" spans="1:133">
       <c r="A76" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="BA76" s="79"/>
-      <c r="BB76" s="79"/>
-      <c r="BC76" s="79"/>
-      <c r="BD76" s="80"/>
-      <c r="CM76" s="82"/>
+      <c r="BA76" s="76"/>
+      <c r="BB76" s="76"/>
+      <c r="BC76" s="76"/>
+      <c r="BD76" s="77"/>
+      <c r="CM76" s="79"/>
       <c r="CQ76" s="16"/>
-      <c r="DO76" s="79"/>
-      <c r="DP76" s="79"/>
-      <c r="DQ76" s="79"/>
-      <c r="DR76" s="79"/>
-      <c r="DS76" s="79"/>
-      <c r="DT76" s="79"/>
-      <c r="DU76" s="79"/>
-      <c r="DV76" s="79"/>
-      <c r="DW76" s="79"/>
-      <c r="DX76" s="79"/>
-      <c r="DY76" s="79"/>
-      <c r="DZ76" s="79"/>
-      <c r="EA76" s="79"/>
-      <c r="EB76" s="79"/>
-      <c r="EC76" s="79"/>
+      <c r="DO76" s="76"/>
+      <c r="DP76" s="76"/>
+      <c r="DQ76" s="76"/>
+      <c r="DR76" s="76"/>
+      <c r="DS76" s="76"/>
+      <c r="DT76" s="76"/>
+      <c r="DU76" s="76"/>
+      <c r="DV76" s="76"/>
+      <c r="DW76" s="76"/>
+      <c r="DX76" s="76"/>
+      <c r="DY76" s="76"/>
+      <c r="DZ76" s="76"/>
+      <c r="EA76" s="76"/>
+      <c r="EB76" s="76"/>
+      <c r="EC76" s="76"/>
     </row>
     <row r="77" spans="1:133">
       <c r="A77" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B77" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4160,652 +4371,671 @@
       <c r="F77">
         <v>2</v>
       </c>
-      <c r="AW77" s="82"/>
-      <c r="BA77" s="82"/>
-      <c r="CM77" s="82"/>
+      <c r="AW77" s="79"/>
+      <c r="BA77" s="79"/>
+      <c r="CM77" s="79"/>
       <c r="CQ77" s="16"/>
     </row>
     <row r="78" spans="1:133">
       <c r="A78" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B78" t="s">
         <v>40</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="AW78" s="104">
-        <v>2</v>
-      </c>
-      <c r="AZ78" s="82"/>
-      <c r="CM78" s="82"/>
+        <v>2</v>
+      </c>
+      <c r="AW78" s="98">
+        <v>2</v>
+      </c>
+      <c r="AZ78" s="79"/>
+      <c r="CM78" s="79"/>
       <c r="CQ78" s="16"/>
-      <c r="DS78" s="82"/>
+      <c r="DS78" s="79"/>
     </row>
     <row r="79" spans="1:133">
       <c r="A79" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B79" t="s">
         <v>41</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="CM79" s="82"/>
+        <v>3</v>
+      </c>
+      <c r="CM79" s="79"/>
       <c r="CQ79" s="16"/>
-      <c r="DO79" s="114"/>
-      <c r="DZ79" s="82"/>
+      <c r="DO79" s="134"/>
+      <c r="DZ79" s="79"/>
     </row>
     <row r="80" spans="1:133">
-      <c r="CM80" s="82"/>
+      <c r="CM80" s="79"/>
       <c r="CQ80" s="16"/>
-      <c r="DV80" s="114"/>
+      <c r="DV80" s="134"/>
     </row>
     <row r="81" spans="1:116">
-      <c r="CM81" s="82"/>
+      <c r="CM81" s="79"/>
       <c r="CQ81" s="16"/>
     </row>
     <row r="82" spans="1:116">
-      <c r="A82" s="107" t="s">
-        <v>128</v>
-      </c>
-      <c r="B82" s="108" t="s">
-        <v>129</v>
-      </c>
-      <c r="AR82" s="109"/>
-      <c r="AS82" s="110"/>
-      <c r="AT82" s="111"/>
-      <c r="AU82" s="109"/>
-      <c r="AV82" s="109"/>
-      <c r="AW82" s="109"/>
-      <c r="AX82" s="109"/>
-      <c r="AY82" s="109"/>
-      <c r="AZ82" s="109"/>
-      <c r="BA82" s="109"/>
-      <c r="BB82" s="109"/>
-      <c r="BC82" s="109"/>
-      <c r="BD82" s="112"/>
-      <c r="BE82" s="109"/>
-      <c r="BF82" s="109"/>
-      <c r="BG82" s="109"/>
-      <c r="BH82" s="109"/>
-      <c r="BI82" s="109"/>
-      <c r="BJ82" s="109"/>
-      <c r="BK82" s="109"/>
-      <c r="BL82" s="109"/>
-      <c r="BM82" s="109"/>
-      <c r="BN82" s="109"/>
-      <c r="BO82" s="109"/>
-      <c r="BP82" s="109"/>
-      <c r="BQ82" s="109"/>
-      <c r="BR82" s="109"/>
-      <c r="BS82" s="109"/>
-      <c r="BT82" s="109"/>
-      <c r="BU82" s="109"/>
-      <c r="BV82" s="109"/>
-      <c r="BW82" s="110"/>
-      <c r="BX82" s="111"/>
-      <c r="BY82" s="109"/>
-      <c r="BZ82" s="109"/>
-      <c r="CA82" s="109"/>
-      <c r="CB82" s="109"/>
-      <c r="CC82" s="109"/>
-      <c r="CD82" s="109"/>
-      <c r="CE82" s="109"/>
-      <c r="CF82" s="109"/>
-      <c r="CG82" s="109"/>
-      <c r="CH82" s="109"/>
-      <c r="CI82" s="109"/>
-      <c r="CJ82" s="109"/>
-      <c r="CK82" s="109"/>
-      <c r="CL82" s="109"/>
-      <c r="CM82" s="109"/>
-      <c r="CN82" s="109"/>
-      <c r="CO82" s="109"/>
-      <c r="CP82" s="109"/>
-      <c r="CQ82" s="109"/>
-      <c r="CR82" s="109"/>
-      <c r="CS82" s="109"/>
-      <c r="CT82" s="109"/>
-      <c r="CU82" s="109"/>
-      <c r="CV82" s="109"/>
-      <c r="CW82" s="109"/>
-      <c r="CX82" s="109"/>
-      <c r="CY82" s="109"/>
-      <c r="CZ82" s="109"/>
-      <c r="DA82" s="109"/>
-      <c r="DB82" s="110"/>
-      <c r="DC82" s="111"/>
-      <c r="DD82" s="109"/>
-      <c r="DE82" s="109"/>
-      <c r="DF82" s="109"/>
-      <c r="DG82" s="109"/>
-      <c r="DH82" s="109"/>
-      <c r="DI82" s="109"/>
-      <c r="DJ82" s="109"/>
-      <c r="DK82" s="109"/>
-      <c r="DL82" s="109"/>
+      <c r="A82" s="132" t="s">
+        <v>126</v>
+      </c>
+      <c r="B82" s="133" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR82" s="128"/>
+      <c r="AS82" s="129"/>
+      <c r="AT82" s="130"/>
+      <c r="AU82" s="128"/>
+      <c r="AV82" s="128"/>
+      <c r="AW82" s="128"/>
+      <c r="AX82" s="128"/>
+      <c r="AY82" s="128"/>
+      <c r="AZ82" s="128"/>
+      <c r="BA82" s="128"/>
+      <c r="BB82" s="128"/>
+      <c r="BC82" s="128"/>
+      <c r="BD82" s="131"/>
+      <c r="BE82" s="128"/>
+      <c r="BF82" s="128"/>
+      <c r="BG82" s="128"/>
+      <c r="BH82" s="128"/>
+      <c r="BI82" s="128"/>
+      <c r="BJ82" s="128"/>
+      <c r="BK82" s="128"/>
+      <c r="BL82" s="128"/>
+      <c r="BM82" s="128"/>
+      <c r="BN82" s="128"/>
+      <c r="BO82" s="128"/>
+      <c r="BP82" s="128"/>
+      <c r="BQ82" s="128"/>
+      <c r="BR82" s="128"/>
+      <c r="BS82" s="128"/>
+      <c r="BT82" s="128"/>
+      <c r="BU82" s="128"/>
+      <c r="BV82" s="128"/>
+      <c r="BW82" s="129"/>
+      <c r="BX82" s="130"/>
+      <c r="BY82" s="128"/>
+      <c r="BZ82" s="128"/>
+      <c r="CA82" s="128"/>
+      <c r="CB82" s="128"/>
+      <c r="CC82" s="128"/>
+      <c r="CD82" s="128"/>
+      <c r="CE82" s="128"/>
+      <c r="CF82" s="128"/>
+      <c r="CG82" s="128"/>
+      <c r="CH82" s="128"/>
+      <c r="CI82" s="128"/>
+      <c r="CJ82" s="128"/>
+      <c r="CK82" s="128"/>
+      <c r="CL82" s="128"/>
+      <c r="CM82" s="128"/>
+      <c r="CN82" s="128"/>
+      <c r="CO82" s="128"/>
+      <c r="CP82" s="128"/>
+      <c r="CQ82" s="128"/>
+      <c r="CR82" s="128"/>
+      <c r="CS82" s="128"/>
+      <c r="CT82" s="128"/>
+      <c r="CU82" s="128"/>
+      <c r="CV82" s="128"/>
+      <c r="CW82" s="128"/>
+      <c r="CX82" s="128"/>
+      <c r="CY82" s="128"/>
+      <c r="CZ82" s="128"/>
+      <c r="DA82" s="79"/>
+      <c r="DB82" s="96"/>
+      <c r="DC82" s="85"/>
+      <c r="DD82" s="79"/>
+      <c r="DE82" s="79"/>
+      <c r="DH82" s="79"/>
+      <c r="DI82" s="79"/>
+      <c r="DJ82" s="79"/>
+      <c r="DK82" s="79"/>
+      <c r="DL82" s="79"/>
     </row>
     <row r="83" spans="1:116">
       <c r="A83" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B83" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D83">
-        <v>5</v>
-      </c>
-      <c r="AT83" s="116">
-        <v>1</v>
-      </c>
-      <c r="AU83" s="115"/>
-      <c r="BB83" s="113">
-        <v>1</v>
-      </c>
-      <c r="BI83" s="113">
-        <v>1</v>
-      </c>
-      <c r="BS83" s="113">
-        <v>1</v>
-      </c>
-      <c r="CB83" s="113">
-        <v>1</v>
-      </c>
-      <c r="CM83" s="82"/>
+        <v>2</v>
+      </c>
+      <c r="AT83" s="103">
+        <v>1</v>
+      </c>
+      <c r="AU83" s="102"/>
+      <c r="BS83" s="79"/>
+      <c r="CB83" s="101">
+        <v>1</v>
+      </c>
+      <c r="CF83" s="101"/>
+      <c r="CM83" s="79"/>
       <c r="CQ83" s="16"/>
     </row>
     <row r="84" spans="1:116">
-      <c r="A84" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="B84" t="s">
-        <v>132</v>
-      </c>
-      <c r="CM84" s="82"/>
+        <v>160</v>
+      </c>
+      <c r="D84">
+        <v>15</v>
+      </c>
+      <c r="AT84" s="85"/>
+      <c r="AU84" s="102"/>
+      <c r="BH84" s="101">
+        <v>3</v>
+      </c>
+      <c r="BI84" s="101">
+        <v>3</v>
+      </c>
+      <c r="BS84" s="122">
+        <v>3</v>
+      </c>
+      <c r="BV84" s="101">
+        <v>3</v>
+      </c>
+      <c r="CB84" s="101">
+        <v>3</v>
+      </c>
+      <c r="CF84" s="101"/>
+      <c r="CM84" s="79"/>
       <c r="CQ84" s="16"/>
     </row>
     <row r="85" spans="1:116">
       <c r="A85" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B85" t="s">
-        <v>134</v>
-      </c>
-      <c r="CM85" s="82"/>
+        <v>130</v>
+      </c>
+      <c r="CM85" s="79"/>
       <c r="CQ85" s="16"/>
     </row>
     <row r="86" spans="1:116">
-      <c r="CM86" s="82"/>
+      <c r="A86" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B86" t="s">
+        <v>132</v>
+      </c>
+      <c r="CM86" s="79"/>
       <c r="CQ86" s="16"/>
     </row>
     <row r="87" spans="1:116">
-      <c r="C87">
-        <f>SUM(C4:C86)</f>
-        <v>300</v>
-      </c>
-      <c r="D87">
-        <f>SUM(D4:D86)</f>
-        <v>67</v>
-      </c>
-      <c r="E87" s="81">
-        <f>SUM(E4:E86)</f>
-        <v>300</v>
-      </c>
-      <c r="F87">
-        <f>SUM(F4:F86)</f>
-        <v>49</v>
-      </c>
-      <c r="CM87" s="82"/>
+      <c r="CM87" s="79"/>
       <c r="CQ87" s="16"/>
     </row>
     <row r="88" spans="1:116">
-      <c r="C88" t="s">
+      <c r="C88">
+        <f>SUM(C4:C87)</f>
+        <v>299</v>
+      </c>
+      <c r="D88">
+        <f>SUM(D4:D87)</f>
+        <v>122</v>
+      </c>
+      <c r="E88" s="78">
+        <f>SUM(E4:E87)</f>
+        <v>299</v>
+      </c>
+      <c r="F88">
+        <f>SUM(F4:F87)</f>
+        <v>99</v>
+      </c>
+      <c r="CM88" s="79"/>
+      <c r="CQ88" s="16"/>
+    </row>
+    <row r="89" spans="1:116">
+      <c r="C89" t="s">
+        <v>100</v>
+      </c>
+      <c r="D89" t="s">
         <v>101</v>
       </c>
-      <c r="D88" t="s">
-        <v>102</v>
-      </c>
-      <c r="E88" t="s">
-        <v>123</v>
-      </c>
-      <c r="F88" t="s">
+      <c r="E89" t="s">
         <v>122</v>
       </c>
-      <c r="CM88" s="82"/>
-      <c r="CQ88" s="16"/>
-    </row>
-    <row r="89" spans="1:116">
-      <c r="CM89" s="82"/>
+      <c r="F89" t="s">
+        <v>121</v>
+      </c>
+      <c r="CM89" s="79"/>
       <c r="CQ89" s="16"/>
     </row>
     <row r="90" spans="1:116">
-      <c r="CM90" s="82"/>
+      <c r="CM90" s="79"/>
       <c r="CQ90" s="16"/>
     </row>
     <row r="91" spans="1:116">
-      <c r="CM91" s="82"/>
+      <c r="CM91" s="79"/>
       <c r="CQ91" s="16"/>
     </row>
     <row r="92" spans="1:116">
-      <c r="CM92" s="82"/>
+      <c r="CM92" s="79"/>
       <c r="CQ92" s="16"/>
     </row>
     <row r="93" spans="1:116">
-      <c r="CM93" s="82"/>
+      <c r="CM93" s="79"/>
       <c r="CQ93" s="16"/>
     </row>
     <row r="94" spans="1:116">
-      <c r="CM94" s="82"/>
+      <c r="CM94" s="79"/>
       <c r="CQ94" s="16"/>
     </row>
     <row r="95" spans="1:116">
-      <c r="CM95" s="82"/>
+      <c r="CM95" s="79"/>
       <c r="CQ95" s="16"/>
     </row>
     <row r="96" spans="1:116">
-      <c r="CM96" s="82"/>
+      <c r="CM96" s="79"/>
+      <c r="CQ96" s="16"/>
     </row>
     <row r="97" spans="91:91">
-      <c r="CM97" s="82"/>
+      <c r="CM97" s="79"/>
     </row>
     <row r="98" spans="91:91">
-      <c r="CM98" s="82"/>
+      <c r="CM98" s="79"/>
     </row>
     <row r="99" spans="91:91">
-      <c r="CM99" s="82"/>
+      <c r="CM99" s="79"/>
     </row>
     <row r="100" spans="91:91">
-      <c r="CM100" s="82"/>
+      <c r="CM100" s="79"/>
     </row>
     <row r="101" spans="91:91">
-      <c r="CM101" s="82"/>
+      <c r="CM101" s="79"/>
     </row>
     <row r="102" spans="91:91">
-      <c r="CM102" s="82"/>
+      <c r="CM102" s="79"/>
     </row>
     <row r="103" spans="91:91">
-      <c r="CM103" s="82"/>
+      <c r="CM103" s="79"/>
     </row>
     <row r="104" spans="91:91">
-      <c r="CM104" s="82"/>
+      <c r="CM104" s="79"/>
     </row>
     <row r="105" spans="91:91">
-      <c r="CM105" s="82"/>
+      <c r="CM105" s="79"/>
     </row>
     <row r="106" spans="91:91">
-      <c r="CM106" s="82"/>
+      <c r="CM106" s="79"/>
     </row>
     <row r="107" spans="91:91">
-      <c r="CM107" s="82"/>
+      <c r="CM107" s="79"/>
     </row>
     <row r="108" spans="91:91">
-      <c r="CM108" s="82"/>
+      <c r="CM108" s="79"/>
     </row>
     <row r="109" spans="91:91">
-      <c r="CM109" s="82"/>
+      <c r="CM109" s="79"/>
     </row>
     <row r="110" spans="91:91">
-      <c r="CM110" s="82"/>
+      <c r="CM110" s="79"/>
     </row>
     <row r="111" spans="91:91">
-      <c r="CM111" s="82"/>
+      <c r="CM111" s="79"/>
     </row>
     <row r="112" spans="91:91">
-      <c r="CM112" s="82"/>
+      <c r="CM112" s="79"/>
     </row>
     <row r="113" spans="91:91">
-      <c r="CM113" s="82"/>
+      <c r="CM113" s="79"/>
     </row>
     <row r="114" spans="91:91">
-      <c r="CM114" s="82"/>
+      <c r="CM114" s="79"/>
     </row>
     <row r="115" spans="91:91">
-      <c r="CM115" s="82"/>
+      <c r="CM115" s="79"/>
     </row>
     <row r="116" spans="91:91">
-      <c r="CM116" s="82"/>
+      <c r="CM116" s="79"/>
     </row>
     <row r="117" spans="91:91">
-      <c r="CM117" s="82"/>
+      <c r="CM117" s="79"/>
     </row>
     <row r="118" spans="91:91">
-      <c r="CM118" s="82"/>
+      <c r="CM118" s="79"/>
     </row>
     <row r="119" spans="91:91">
-      <c r="CM119" s="82"/>
+      <c r="CM119" s="79"/>
     </row>
     <row r="120" spans="91:91">
-      <c r="CM120" s="82"/>
+      <c r="CM120" s="79"/>
     </row>
     <row r="121" spans="91:91">
-      <c r="CM121" s="82"/>
+      <c r="CM121" s="79"/>
     </row>
     <row r="122" spans="91:91">
-      <c r="CM122" s="82"/>
+      <c r="CM122" s="79"/>
     </row>
     <row r="123" spans="91:91">
-      <c r="CM123" s="82"/>
+      <c r="CM123" s="79"/>
     </row>
     <row r="124" spans="91:91">
-      <c r="CM124" s="82"/>
+      <c r="CM124" s="79"/>
     </row>
     <row r="125" spans="91:91">
-      <c r="CM125" s="82"/>
+      <c r="CM125" s="79"/>
     </row>
     <row r="126" spans="91:91">
-      <c r="CM126" s="82"/>
+      <c r="CM126" s="79"/>
     </row>
     <row r="127" spans="91:91">
-      <c r="CM127" s="82"/>
+      <c r="CM127" s="79"/>
     </row>
     <row r="128" spans="91:91">
-      <c r="CM128" s="82"/>
+      <c r="CM128" s="79"/>
     </row>
     <row r="129" spans="91:91">
-      <c r="CM129" s="82"/>
+      <c r="CM129" s="79"/>
     </row>
     <row r="130" spans="91:91">
-      <c r="CM130" s="82"/>
+      <c r="CM130" s="79"/>
     </row>
     <row r="131" spans="91:91">
-      <c r="CM131" s="82"/>
+      <c r="CM131" s="79"/>
     </row>
     <row r="132" spans="91:91">
-      <c r="CM132" s="82"/>
+      <c r="CM132" s="79"/>
     </row>
     <row r="133" spans="91:91">
-      <c r="CM133" s="82"/>
+      <c r="CM133" s="79"/>
     </row>
     <row r="134" spans="91:91">
-      <c r="CM134" s="82"/>
+      <c r="CM134" s="79"/>
     </row>
     <row r="135" spans="91:91">
-      <c r="CM135" s="82"/>
+      <c r="CM135" s="79"/>
     </row>
     <row r="136" spans="91:91">
-      <c r="CM136" s="82"/>
+      <c r="CM136" s="79"/>
     </row>
     <row r="137" spans="91:91">
-      <c r="CM137" s="82"/>
+      <c r="CM137" s="79"/>
     </row>
     <row r="138" spans="91:91">
-      <c r="CM138" s="82"/>
+      <c r="CM138" s="79"/>
     </row>
     <row r="139" spans="91:91">
-      <c r="CM139" s="82"/>
+      <c r="CM139" s="79"/>
     </row>
     <row r="140" spans="91:91">
-      <c r="CM140" s="82"/>
+      <c r="CM140" s="79"/>
     </row>
     <row r="141" spans="91:91">
-      <c r="CM141" s="82"/>
+      <c r="CM141" s="79"/>
     </row>
     <row r="142" spans="91:91">
-      <c r="CM142" s="82"/>
+      <c r="CM142" s="79"/>
     </row>
     <row r="143" spans="91:91">
-      <c r="CM143" s="82"/>
+      <c r="CM143" s="79"/>
     </row>
     <row r="144" spans="91:91">
-      <c r="CM144" s="82"/>
+      <c r="CM144" s="79"/>
     </row>
     <row r="145" spans="91:91">
-      <c r="CM145" s="82"/>
+      <c r="CM145" s="79"/>
     </row>
     <row r="146" spans="91:91">
-      <c r="CM146" s="82"/>
+      <c r="CM146" s="79"/>
     </row>
     <row r="147" spans="91:91">
-      <c r="CM147" s="82"/>
+      <c r="CM147" s="79"/>
     </row>
     <row r="148" spans="91:91">
-      <c r="CM148" s="82"/>
+      <c r="CM148" s="79"/>
     </row>
     <row r="149" spans="91:91">
-      <c r="CM149" s="82"/>
+      <c r="CM149" s="79"/>
     </row>
     <row r="150" spans="91:91">
-      <c r="CM150" s="82"/>
+      <c r="CM150" s="79"/>
     </row>
     <row r="151" spans="91:91">
-      <c r="CM151" s="82"/>
+      <c r="CM151" s="79"/>
     </row>
     <row r="152" spans="91:91">
-      <c r="CM152" s="82"/>
+      <c r="CM152" s="79"/>
     </row>
     <row r="153" spans="91:91">
-      <c r="CM153" s="82"/>
+      <c r="CM153" s="79"/>
     </row>
     <row r="154" spans="91:91">
-      <c r="CM154" s="82"/>
+      <c r="CM154" s="79"/>
     </row>
     <row r="155" spans="91:91">
-      <c r="CM155" s="82"/>
+      <c r="CM155" s="79"/>
     </row>
     <row r="156" spans="91:91">
-      <c r="CM156" s="82"/>
+      <c r="CM156" s="79"/>
     </row>
     <row r="157" spans="91:91">
-      <c r="CM157" s="82"/>
+      <c r="CM157" s="79"/>
     </row>
     <row r="158" spans="91:91">
-      <c r="CM158" s="82"/>
+      <c r="CM158" s="79"/>
     </row>
     <row r="159" spans="91:91">
-      <c r="CM159" s="82"/>
+      <c r="CM159" s="79"/>
     </row>
     <row r="160" spans="91:91">
-      <c r="CM160" s="82"/>
+      <c r="CM160" s="79"/>
     </row>
     <row r="161" spans="91:91">
-      <c r="CM161" s="82"/>
+      <c r="CM161" s="79"/>
     </row>
     <row r="162" spans="91:91">
-      <c r="CM162" s="82"/>
+      <c r="CM162" s="79"/>
     </row>
     <row r="163" spans="91:91">
-      <c r="CM163" s="82"/>
+      <c r="CM163" s="79"/>
     </row>
     <row r="164" spans="91:91">
-      <c r="CM164" s="82"/>
+      <c r="CM164" s="79"/>
     </row>
     <row r="165" spans="91:91">
-      <c r="CM165" s="82"/>
+      <c r="CM165" s="79"/>
     </row>
     <row r="166" spans="91:91">
-      <c r="CM166" s="82"/>
+      <c r="CM166" s="79"/>
     </row>
     <row r="167" spans="91:91">
-      <c r="CM167" s="82"/>
+      <c r="CM167" s="79"/>
     </row>
     <row r="168" spans="91:91">
-      <c r="CM168" s="82"/>
+      <c r="CM168" s="79"/>
     </row>
     <row r="169" spans="91:91">
-      <c r="CM169" s="82"/>
+      <c r="CM169" s="79"/>
     </row>
     <row r="170" spans="91:91">
-      <c r="CM170" s="82"/>
+      <c r="CM170" s="79"/>
     </row>
     <row r="171" spans="91:91">
-      <c r="CM171" s="82"/>
+      <c r="CM171" s="79"/>
     </row>
     <row r="172" spans="91:91">
-      <c r="CM172" s="82"/>
+      <c r="CM172" s="79"/>
     </row>
     <row r="173" spans="91:91">
-      <c r="CM173" s="82"/>
+      <c r="CM173" s="79"/>
     </row>
     <row r="174" spans="91:91">
-      <c r="CM174" s="82"/>
+      <c r="CM174" s="79"/>
     </row>
     <row r="175" spans="91:91">
-      <c r="CM175" s="82"/>
+      <c r="CM175" s="79"/>
     </row>
     <row r="176" spans="91:91">
-      <c r="CM176" s="82"/>
+      <c r="CM176" s="79"/>
     </row>
     <row r="177" spans="91:91">
-      <c r="CM177" s="82"/>
+      <c r="CM177" s="79"/>
     </row>
     <row r="178" spans="91:91">
-      <c r="CM178" s="82"/>
+      <c r="CM178" s="79"/>
     </row>
     <row r="179" spans="91:91">
-      <c r="CM179" s="82"/>
+      <c r="CM179" s="79"/>
     </row>
     <row r="180" spans="91:91">
-      <c r="CM180" s="82"/>
+      <c r="CM180" s="79"/>
     </row>
     <row r="181" spans="91:91">
-      <c r="CM181" s="82"/>
+      <c r="CM181" s="79"/>
     </row>
     <row r="182" spans="91:91">
-      <c r="CM182" s="82"/>
+      <c r="CM182" s="79"/>
     </row>
     <row r="183" spans="91:91">
-      <c r="CM183" s="82"/>
+      <c r="CM183" s="79"/>
     </row>
     <row r="184" spans="91:91">
-      <c r="CM184" s="82"/>
+      <c r="CM184" s="79"/>
     </row>
     <row r="185" spans="91:91">
-      <c r="CM185" s="82"/>
+      <c r="CM185" s="79"/>
     </row>
     <row r="186" spans="91:91">
-      <c r="CM186" s="82"/>
+      <c r="CM186" s="79"/>
     </row>
     <row r="187" spans="91:91">
-      <c r="CM187" s="82"/>
+      <c r="CM187" s="79"/>
     </row>
     <row r="188" spans="91:91">
-      <c r="CM188" s="82"/>
+      <c r="CM188" s="79"/>
     </row>
     <row r="189" spans="91:91">
-      <c r="CM189" s="82"/>
+      <c r="CM189" s="79"/>
     </row>
     <row r="190" spans="91:91">
-      <c r="CM190" s="82"/>
+      <c r="CM190" s="79"/>
     </row>
     <row r="191" spans="91:91">
-      <c r="CM191" s="82"/>
+      <c r="CM191" s="79"/>
     </row>
     <row r="192" spans="91:91">
-      <c r="CM192" s="82"/>
+      <c r="CM192" s="79"/>
     </row>
     <row r="193" spans="91:91">
-      <c r="CM193" s="82"/>
+      <c r="CM193" s="79"/>
     </row>
     <row r="194" spans="91:91">
-      <c r="CM194" s="82"/>
+      <c r="CM194" s="79"/>
     </row>
     <row r="195" spans="91:91">
-      <c r="CM195" s="82"/>
+      <c r="CM195" s="79"/>
     </row>
     <row r="196" spans="91:91">
-      <c r="CM196" s="82"/>
+      <c r="CM196" s="79"/>
     </row>
     <row r="197" spans="91:91">
-      <c r="CM197" s="82"/>
+      <c r="CM197" s="79"/>
     </row>
     <row r="198" spans="91:91">
-      <c r="CM198" s="82"/>
+      <c r="CM198" s="79"/>
     </row>
     <row r="199" spans="91:91">
-      <c r="CM199" s="82"/>
+      <c r="CM199" s="79"/>
     </row>
     <row r="200" spans="91:91">
-      <c r="CM200" s="82"/>
+      <c r="CM200" s="79"/>
     </row>
     <row r="201" spans="91:91">
-      <c r="CM201" s="82"/>
+      <c r="CM201" s="79"/>
     </row>
     <row r="202" spans="91:91">
-      <c r="CM202" s="82"/>
+      <c r="CM202" s="79"/>
     </row>
     <row r="203" spans="91:91">
-      <c r="CM203" s="82"/>
+      <c r="CM203" s="79"/>
     </row>
     <row r="204" spans="91:91">
-      <c r="CM204" s="82"/>
+      <c r="CM204" s="79"/>
     </row>
     <row r="205" spans="91:91">
-      <c r="CM205" s="82"/>
+      <c r="CM205" s="79"/>
     </row>
     <row r="206" spans="91:91">
-      <c r="CM206" s="82"/>
+      <c r="CM206" s="79"/>
     </row>
     <row r="207" spans="91:91">
-      <c r="CM207" s="82"/>
+      <c r="CM207" s="79"/>
     </row>
     <row r="208" spans="91:91">
-      <c r="CM208" s="82"/>
+      <c r="CM208" s="79"/>
     </row>
     <row r="209" spans="91:91">
-      <c r="CM209" s="82"/>
+      <c r="CM209" s="79"/>
     </row>
     <row r="210" spans="91:91">
-      <c r="CM210" s="82"/>
+      <c r="CM210" s="79"/>
     </row>
     <row r="211" spans="91:91">
-      <c r="CM211" s="82"/>
+      <c r="CM211" s="79"/>
     </row>
     <row r="212" spans="91:91">
-      <c r="CM212" s="82"/>
+      <c r="CM212" s="79"/>
     </row>
     <row r="213" spans="91:91">
-      <c r="CM213" s="82"/>
+      <c r="CM213" s="79"/>
     </row>
     <row r="214" spans="91:91">
-      <c r="CM214" s="82"/>
+      <c r="CM214" s="79"/>
     </row>
     <row r="215" spans="91:91">
-      <c r="CM215" s="82"/>
+      <c r="CM215" s="79"/>
     </row>
     <row r="216" spans="91:91">
-      <c r="CM216" s="82"/>
+      <c r="CM216" s="79"/>
     </row>
     <row r="217" spans="91:91">
-      <c r="CM217" s="82"/>
+      <c r="CM217" s="79"/>
     </row>
     <row r="218" spans="91:91">
-      <c r="CM218" s="82"/>
+      <c r="CM218" s="79"/>
     </row>
     <row r="219" spans="91:91">
-      <c r="CM219" s="82"/>
+      <c r="CM219" s="79"/>
     </row>
     <row r="220" spans="91:91">
-      <c r="CM220" s="82"/>
+      <c r="CM220" s="79"/>
     </row>
     <row r="221" spans="91:91">
-      <c r="CM221" s="82"/>
+      <c r="CM221" s="79"/>
     </row>
     <row r="222" spans="91:91">
-      <c r="CM222" s="82"/>
+      <c r="CM222" s="79"/>
     </row>
     <row r="223" spans="91:91">
-      <c r="CM223" s="82"/>
+      <c r="CM223" s="79"/>
     </row>
     <row r="224" spans="91:91">
-      <c r="CM224" s="82"/>
+      <c r="CM224" s="79"/>
     </row>
     <row r="225" spans="91:91">
-      <c r="CM225" s="82"/>
+      <c r="CM225" s="79"/>
     </row>
     <row r="226" spans="91:91">
-      <c r="CM226" s="82"/>
+      <c r="CM226" s="79"/>
     </row>
     <row r="227" spans="91:91">
-      <c r="CM227" s="82"/>
+      <c r="CM227" s="79"/>
+    </row>
+    <row r="228" spans="91:91">
+      <c r="CM228" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/konzept/projektplan.xlsx
+++ b/konzept/projektplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="1200" windowWidth="37900" windowHeight="19900" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="37320" windowHeight="21160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -585,7 +585,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -751,6 +751,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFEFFB9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEFFA1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,6 +1277,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1316,30 +1344,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -1724,8 +1730,8 @@
   </sheetPr>
   <dimension ref="A1:EH228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="BI37" sqref="BI37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="BV48" sqref="BV48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1950,155 +1956,155 @@
       <c r="EH1" s="55"/>
     </row>
     <row r="2" spans="1:138">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="131" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111" t="s">
+      <c r="D2" s="131"/>
+      <c r="E2" s="131" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="112"/>
-      <c r="G2" s="108" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="113" t="s">
+      <c r="F2" s="132"/>
+      <c r="G2" s="128" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="114"/>
-      <c r="AA2" s="114"/>
-      <c r="AB2" s="114"/>
-      <c r="AC2" s="114"/>
-      <c r="AD2" s="114"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="114"/>
-      <c r="AG2" s="114"/>
-      <c r="AH2" s="114"/>
-      <c r="AI2" s="114"/>
-      <c r="AJ2" s="114"/>
-      <c r="AK2" s="114"/>
-      <c r="AL2" s="114"/>
-      <c r="AM2" s="114"/>
-      <c r="AN2" s="114"/>
-      <c r="AO2" s="114"/>
-      <c r="AP2" s="114"/>
-      <c r="AQ2" s="114"/>
-      <c r="AR2" s="114"/>
-      <c r="AS2" s="115"/>
-      <c r="AT2" s="105" t="s">
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="134"/>
+      <c r="X2" s="134"/>
+      <c r="Y2" s="134"/>
+      <c r="Z2" s="134"/>
+      <c r="AA2" s="134"/>
+      <c r="AB2" s="134"/>
+      <c r="AC2" s="134"/>
+      <c r="AD2" s="134"/>
+      <c r="AE2" s="134"/>
+      <c r="AF2" s="134"/>
+      <c r="AG2" s="134"/>
+      <c r="AH2" s="134"/>
+      <c r="AI2" s="134"/>
+      <c r="AJ2" s="134"/>
+      <c r="AK2" s="134"/>
+      <c r="AL2" s="134"/>
+      <c r="AM2" s="134"/>
+      <c r="AN2" s="134"/>
+      <c r="AO2" s="134"/>
+      <c r="AP2" s="134"/>
+      <c r="AQ2" s="134"/>
+      <c r="AR2" s="134"/>
+      <c r="AS2" s="135"/>
+      <c r="AT2" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="AU2" s="106"/>
-      <c r="AV2" s="106"/>
-      <c r="AW2" s="106"/>
-      <c r="AX2" s="106"/>
-      <c r="AY2" s="106"/>
-      <c r="AZ2" s="106"/>
-      <c r="BA2" s="106"/>
-      <c r="BB2" s="106"/>
-      <c r="BC2" s="106"/>
-      <c r="BD2" s="106"/>
-      <c r="BE2" s="106"/>
-      <c r="BF2" s="106"/>
-      <c r="BG2" s="106"/>
-      <c r="BH2" s="106"/>
-      <c r="BI2" s="106"/>
-      <c r="BJ2" s="106"/>
-      <c r="BK2" s="106"/>
-      <c r="BL2" s="106"/>
-      <c r="BM2" s="106"/>
-      <c r="BN2" s="106"/>
-      <c r="BO2" s="106"/>
-      <c r="BP2" s="106"/>
-      <c r="BQ2" s="106"/>
-      <c r="BR2" s="106"/>
-      <c r="BS2" s="106"/>
-      <c r="BT2" s="106"/>
-      <c r="BU2" s="106"/>
-      <c r="BV2" s="106"/>
-      <c r="BW2" s="116"/>
-      <c r="BX2" s="117" t="s">
+      <c r="AU2" s="126"/>
+      <c r="AV2" s="126"/>
+      <c r="AW2" s="126"/>
+      <c r="AX2" s="126"/>
+      <c r="AY2" s="126"/>
+      <c r="AZ2" s="126"/>
+      <c r="BA2" s="126"/>
+      <c r="BB2" s="126"/>
+      <c r="BC2" s="126"/>
+      <c r="BD2" s="126"/>
+      <c r="BE2" s="126"/>
+      <c r="BF2" s="126"/>
+      <c r="BG2" s="126"/>
+      <c r="BH2" s="126"/>
+      <c r="BI2" s="126"/>
+      <c r="BJ2" s="126"/>
+      <c r="BK2" s="126"/>
+      <c r="BL2" s="126"/>
+      <c r="BM2" s="126"/>
+      <c r="BN2" s="126"/>
+      <c r="BO2" s="126"/>
+      <c r="BP2" s="126"/>
+      <c r="BQ2" s="126"/>
+      <c r="BR2" s="126"/>
+      <c r="BS2" s="126"/>
+      <c r="BT2" s="126"/>
+      <c r="BU2" s="126"/>
+      <c r="BV2" s="126"/>
+      <c r="BW2" s="136"/>
+      <c r="BX2" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="BY2" s="118"/>
-      <c r="BZ2" s="118"/>
-      <c r="CA2" s="118"/>
-      <c r="CB2" s="118"/>
-      <c r="CC2" s="118"/>
-      <c r="CD2" s="118"/>
-      <c r="CE2" s="118"/>
-      <c r="CF2" s="118"/>
-      <c r="CG2" s="118"/>
-      <c r="CH2" s="118"/>
-      <c r="CI2" s="118"/>
-      <c r="CJ2" s="118"/>
-      <c r="CK2" s="118"/>
-      <c r="CL2" s="118"/>
-      <c r="CM2" s="118"/>
-      <c r="CN2" s="118"/>
-      <c r="CO2" s="118"/>
-      <c r="CP2" s="118"/>
-      <c r="CQ2" s="118"/>
-      <c r="CR2" s="118"/>
-      <c r="CS2" s="118"/>
-      <c r="CT2" s="118"/>
-      <c r="CU2" s="118"/>
-      <c r="CV2" s="118"/>
-      <c r="CW2" s="118"/>
-      <c r="CX2" s="118"/>
-      <c r="CY2" s="118"/>
-      <c r="CZ2" s="118"/>
-      <c r="DA2" s="118"/>
-      <c r="DB2" s="119"/>
-      <c r="DC2" s="105" t="s">
+      <c r="BY2" s="138"/>
+      <c r="BZ2" s="138"/>
+      <c r="CA2" s="138"/>
+      <c r="CB2" s="138"/>
+      <c r="CC2" s="138"/>
+      <c r="CD2" s="138"/>
+      <c r="CE2" s="138"/>
+      <c r="CF2" s="138"/>
+      <c r="CG2" s="138"/>
+      <c r="CH2" s="138"/>
+      <c r="CI2" s="138"/>
+      <c r="CJ2" s="138"/>
+      <c r="CK2" s="138"/>
+      <c r="CL2" s="138"/>
+      <c r="CM2" s="138"/>
+      <c r="CN2" s="138"/>
+      <c r="CO2" s="138"/>
+      <c r="CP2" s="138"/>
+      <c r="CQ2" s="138"/>
+      <c r="CR2" s="138"/>
+      <c r="CS2" s="138"/>
+      <c r="CT2" s="138"/>
+      <c r="CU2" s="138"/>
+      <c r="CV2" s="138"/>
+      <c r="CW2" s="138"/>
+      <c r="CX2" s="138"/>
+      <c r="CY2" s="138"/>
+      <c r="CZ2" s="138"/>
+      <c r="DA2" s="138"/>
+      <c r="DB2" s="139"/>
+      <c r="DC2" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="DD2" s="106"/>
-      <c r="DE2" s="106"/>
-      <c r="DF2" s="106"/>
-      <c r="DG2" s="106"/>
-      <c r="DH2" s="106"/>
-      <c r="DI2" s="106"/>
-      <c r="DJ2" s="106"/>
-      <c r="DK2" s="106"/>
-      <c r="DL2" s="106"/>
-      <c r="DM2" s="106"/>
-      <c r="DN2" s="106"/>
-      <c r="DO2" s="106"/>
-      <c r="DP2" s="106"/>
-      <c r="DQ2" s="106"/>
-      <c r="DR2" s="106"/>
-      <c r="DS2" s="106"/>
-      <c r="DT2" s="106"/>
-      <c r="DU2" s="106"/>
-      <c r="DV2" s="106"/>
-      <c r="DW2" s="106"/>
-      <c r="DX2" s="106"/>
-      <c r="DY2" s="106"/>
-      <c r="DZ2" s="106"/>
-      <c r="EA2" s="106"/>
-      <c r="EB2" s="106"/>
-      <c r="EC2" s="106"/>
-      <c r="ED2" s="106"/>
-      <c r="EE2" s="106"/>
-      <c r="EF2" s="106"/>
-      <c r="EG2" s="107"/>
+      <c r="DD2" s="126"/>
+      <c r="DE2" s="126"/>
+      <c r="DF2" s="126"/>
+      <c r="DG2" s="126"/>
+      <c r="DH2" s="126"/>
+      <c r="DI2" s="126"/>
+      <c r="DJ2" s="126"/>
+      <c r="DK2" s="126"/>
+      <c r="DL2" s="126"/>
+      <c r="DM2" s="126"/>
+      <c r="DN2" s="126"/>
+      <c r="DO2" s="126"/>
+      <c r="DP2" s="126"/>
+      <c r="DQ2" s="126"/>
+      <c r="DR2" s="126"/>
+      <c r="DS2" s="126"/>
+      <c r="DT2" s="126"/>
+      <c r="DU2" s="126"/>
+      <c r="DV2" s="126"/>
+      <c r="DW2" s="126"/>
+      <c r="DX2" s="126"/>
+      <c r="DY2" s="126"/>
+      <c r="DZ2" s="126"/>
+      <c r="EA2" s="126"/>
+      <c r="EB2" s="126"/>
+      <c r="EC2" s="126"/>
+      <c r="ED2" s="126"/>
+      <c r="EE2" s="126"/>
+      <c r="EF2" s="126"/>
+      <c r="EG2" s="127"/>
     </row>
     <row r="3" spans="1:138" s="31" customFormat="1" ht="16" thickBot="1">
       <c r="A3" s="30" t="s">
@@ -3343,7 +3349,7 @@
       <c r="AU27" s="22"/>
       <c r="AV27" s="22"/>
       <c r="AW27" s="22"/>
-      <c r="BD27" s="120">
+      <c r="BD27" s="105">
         <v>2</v>
       </c>
       <c r="BK27" s="83">
@@ -3519,7 +3525,7 @@
       <c r="AT35" s="70"/>
       <c r="AU35" s="71"/>
       <c r="AV35" s="68"/>
-      <c r="BD35" s="121"/>
+      <c r="BD35" s="106"/>
       <c r="CM35" s="79"/>
       <c r="CQ35" s="16"/>
     </row>
@@ -3532,10 +3538,10 @@
       </c>
       <c r="AT36" s="85"/>
       <c r="AU36" s="99"/>
-      <c r="BB36" s="138">
-        <v>3</v>
-      </c>
-      <c r="BC36" s="138">
+      <c r="BB36" s="123">
+        <v>3</v>
+      </c>
+      <c r="BC36" s="123">
         <v>3</v>
       </c>
       <c r="CM36" s="79"/>
@@ -3550,10 +3556,10 @@
       </c>
       <c r="AT37" s="85"/>
       <c r="AU37" s="99"/>
-      <c r="BH37" s="137">
-        <v>2</v>
-      </c>
-      <c r="BI37" s="137">
+      <c r="BH37" s="122">
+        <v>2</v>
+      </c>
+      <c r="BI37" s="122">
         <v>2</v>
       </c>
       <c r="CM37" s="79"/>
@@ -3603,7 +3609,7 @@
         <v>5</v>
       </c>
       <c r="AW40" s="79"/>
-      <c r="BK40" s="141">
+      <c r="BK40" s="124">
         <v>2</v>
       </c>
       <c r="CM40" s="79"/>
@@ -3629,10 +3635,10 @@
         <v>3</v>
       </c>
       <c r="AW42" s="79"/>
-      <c r="BK42" s="138">
-        <v>3</v>
-      </c>
-      <c r="BR42" s="138">
+      <c r="BK42" s="123">
+        <v>3</v>
+      </c>
+      <c r="BR42" s="123">
         <v>1</v>
       </c>
       <c r="CM42" s="79"/>
@@ -3650,7 +3656,8 @@
       <c r="BN43" s="79"/>
       <c r="BO43" s="79"/>
       <c r="BU43" s="79"/>
-      <c r="BV43" s="138">
+      <c r="BV43" s="79"/>
+      <c r="CC43" s="124">
         <v>3</v>
       </c>
       <c r="CM43" s="79"/>
@@ -3664,10 +3671,10 @@
         <v>4</v>
       </c>
       <c r="AW44" s="79"/>
-      <c r="BW44" s="140">
-        <v>2</v>
-      </c>
-      <c r="BX44" s="139">
+      <c r="CD44" s="124">
+        <v>3</v>
+      </c>
+      <c r="CE44" s="124">
         <v>2</v>
       </c>
       <c r="CM44" s="79"/>
@@ -3681,8 +3688,9 @@
         <v>2</v>
       </c>
       <c r="AW45" s="79"/>
-      <c r="BK45" s="136"/>
-      <c r="BY45" s="138">
+      <c r="BK45" s="121"/>
+      <c r="BY45" s="79"/>
+      <c r="CE45" s="124">
         <v>2</v>
       </c>
       <c r="CM45" s="79"/>
@@ -3704,6 +3712,7 @@
       <c r="BA46" s="68"/>
       <c r="BB46" s="68"/>
       <c r="BC46" s="68"/>
+      <c r="BY46" s="79"/>
       <c r="CM46" s="79"/>
       <c r="CQ46" s="16"/>
     </row>
@@ -3712,7 +3721,7 @@
         <v>150</v>
       </c>
       <c r="BA47" s="79"/>
-      <c r="BY47" s="138"/>
+      <c r="BY47" s="79"/>
       <c r="CM47" s="79"/>
       <c r="CQ47" s="16"/>
     </row>
@@ -3725,13 +3734,14 @@
       </c>
       <c r="BA48" s="79"/>
       <c r="BO48" s="79"/>
+      <c r="BV48" s="124">
+        <v>3</v>
+      </c>
+      <c r="BW48" s="140">
+        <v>3</v>
+      </c>
       <c r="BY48" s="79"/>
-      <c r="CC48" s="138">
-        <v>3</v>
-      </c>
-      <c r="CD48" s="138">
-        <v>3</v>
-      </c>
+      <c r="CC48" s="79"/>
       <c r="CM48" s="79"/>
       <c r="CQ48" s="16"/>
     </row>
@@ -3743,12 +3753,14 @@
         <v>5</v>
       </c>
       <c r="BA49" s="79"/>
-      <c r="CC49" s="137">
-        <v>3</v>
-      </c>
-      <c r="CD49" s="137">
-        <v>2</v>
-      </c>
+      <c r="BV49" s="124">
+        <v>3</v>
+      </c>
+      <c r="BW49" s="140">
+        <v>2</v>
+      </c>
+      <c r="CC49" s="108"/>
+      <c r="CD49" s="102"/>
       <c r="CM49" s="79"/>
       <c r="CQ49" s="16"/>
     </row>
@@ -3760,7 +3772,9 @@
         <v>2</v>
       </c>
       <c r="BA50" s="79"/>
-      <c r="BQ50" s="136"/>
+      <c r="BX50" s="141">
+        <v>2</v>
+      </c>
       <c r="CM50" s="79"/>
       <c r="CQ50" s="16"/>
     </row>
@@ -3814,7 +3828,7 @@
       <c r="BA54" s="79"/>
       <c r="BD54" s="71"/>
       <c r="CI54" s="68"/>
-      <c r="CJ54" s="123"/>
+      <c r="CJ54" s="108"/>
       <c r="CM54" s="79"/>
       <c r="CQ54" s="16"/>
     </row>
@@ -3949,35 +3963,35 @@
       </c>
       <c r="BM64" s="79"/>
       <c r="BN64" s="79"/>
-      <c r="BO64" s="124"/>
-      <c r="BP64" s="124"/>
-      <c r="BQ64" s="124"/>
-      <c r="BR64" s="124"/>
-      <c r="BS64" s="124"/>
-      <c r="BT64" s="124"/>
-      <c r="BU64" s="124"/>
-      <c r="BV64" s="124"/>
-      <c r="BW64" s="126"/>
-      <c r="BX64" s="127"/>
-      <c r="BY64" s="124"/>
-      <c r="BZ64" s="124"/>
-      <c r="CA64" s="124"/>
-      <c r="CB64" s="124"/>
-      <c r="CC64" s="124"/>
-      <c r="CD64" s="124"/>
-      <c r="CE64" s="124"/>
-      <c r="CF64" s="124"/>
-      <c r="CG64" s="124"/>
-      <c r="CH64" s="124"/>
-      <c r="CI64" s="124"/>
-      <c r="CJ64" s="124"/>
-      <c r="CK64" s="124"/>
-      <c r="CL64" s="124"/>
-      <c r="CM64" s="124"/>
-      <c r="CN64" s="124"/>
-      <c r="CO64" s="124"/>
-      <c r="CP64" s="124"/>
-      <c r="CQ64" s="124"/>
+      <c r="BO64" s="109"/>
+      <c r="BP64" s="109"/>
+      <c r="BQ64" s="109"/>
+      <c r="BR64" s="109"/>
+      <c r="BS64" s="109"/>
+      <c r="BT64" s="109"/>
+      <c r="BU64" s="109"/>
+      <c r="BV64" s="109"/>
+      <c r="BW64" s="111"/>
+      <c r="BX64" s="112"/>
+      <c r="BY64" s="109"/>
+      <c r="BZ64" s="109"/>
+      <c r="CA64" s="109"/>
+      <c r="CB64" s="109"/>
+      <c r="CC64" s="109"/>
+      <c r="CD64" s="109"/>
+      <c r="CE64" s="109"/>
+      <c r="CF64" s="109"/>
+      <c r="CG64" s="109"/>
+      <c r="CH64" s="109"/>
+      <c r="CI64" s="109"/>
+      <c r="CJ64" s="109"/>
+      <c r="CK64" s="109"/>
+      <c r="CL64" s="109"/>
+      <c r="CM64" s="109"/>
+      <c r="CN64" s="109"/>
+      <c r="CO64" s="109"/>
+      <c r="CP64" s="109"/>
+      <c r="CQ64" s="109"/>
       <c r="CR64" s="92"/>
       <c r="CS64" s="92"/>
       <c r="CT64" s="92"/>
@@ -3992,12 +4006,12 @@
       <c r="DC64" s="94"/>
       <c r="DD64" s="92"/>
       <c r="DE64" s="92"/>
-      <c r="DP64" s="124"/>
-      <c r="DQ64" s="124"/>
-      <c r="DR64" s="124"/>
-      <c r="DS64" s="124"/>
-      <c r="DT64" s="124"/>
-      <c r="DU64" s="124"/>
+      <c r="DP64" s="109"/>
+      <c r="DQ64" s="109"/>
+      <c r="DR64" s="109"/>
+      <c r="DS64" s="109"/>
+      <c r="DT64" s="109"/>
+      <c r="DU64" s="109"/>
     </row>
     <row r="65" spans="1:133">
       <c r="A65" s="1" t="s">
@@ -4243,13 +4257,15 @@
       <c r="E73">
         <v>20</v>
       </c>
-      <c r="BD73" s="135"/>
+      <c r="BD73" s="120">
+        <v>1</v>
+      </c>
       <c r="BH73" s="80"/>
-      <c r="BI73" s="80">
-        <v>2</v>
-      </c>
+      <c r="BI73" s="80"/>
       <c r="BJ73" s="80"/>
-      <c r="BK73" s="80"/>
+      <c r="BK73" s="80">
+        <v>2</v>
+      </c>
       <c r="BO73" s="80"/>
       <c r="BP73" s="80">
         <v>1</v>
@@ -4260,14 +4276,12 @@
       <c r="BV73" s="80"/>
       <c r="BW73" s="81"/>
       <c r="BX73" s="82"/>
-      <c r="BY73" s="80"/>
+      <c r="BY73" s="80">
+        <v>2</v>
+      </c>
       <c r="CC73" s="80"/>
-      <c r="CD73" s="80">
-        <v>2</v>
-      </c>
-      <c r="CE73" s="80">
-        <v>1</v>
-      </c>
+      <c r="CD73" s="80"/>
+      <c r="CE73" s="80"/>
       <c r="CF73" s="80"/>
       <c r="CJ73" s="80"/>
       <c r="CK73" s="80"/>
@@ -4312,12 +4326,12 @@
       <c r="DH74" s="79"/>
       <c r="DK74" s="79"/>
       <c r="DL74" s="79"/>
-      <c r="DW74" s="125"/>
-      <c r="DX74" s="125"/>
-      <c r="DY74" s="125"/>
-      <c r="DZ74" s="125"/>
-      <c r="EA74" s="125"/>
-      <c r="EB74" s="125"/>
+      <c r="DW74" s="110"/>
+      <c r="DX74" s="110"/>
+      <c r="DY74" s="110"/>
+      <c r="DZ74" s="110"/>
+      <c r="EA74" s="110"/>
+      <c r="EB74" s="110"/>
     </row>
     <row r="75" spans="1:133">
       <c r="CM75" s="79"/>
@@ -4412,86 +4426,86 @@
       </c>
       <c r="CM79" s="79"/>
       <c r="CQ79" s="16"/>
-      <c r="DO79" s="134"/>
+      <c r="DO79" s="119"/>
       <c r="DZ79" s="79"/>
     </row>
     <row r="80" spans="1:133">
       <c r="CM80" s="79"/>
       <c r="CQ80" s="16"/>
-      <c r="DV80" s="134"/>
+      <c r="DV80" s="119"/>
     </row>
     <row r="81" spans="1:116">
       <c r="CM81" s="79"/>
       <c r="CQ81" s="16"/>
     </row>
     <row r="82" spans="1:116">
-      <c r="A82" s="132" t="s">
+      <c r="A82" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="B82" s="133" t="s">
+      <c r="B82" s="118" t="s">
         <v>127</v>
       </c>
-      <c r="AR82" s="128"/>
-      <c r="AS82" s="129"/>
-      <c r="AT82" s="130"/>
-      <c r="AU82" s="128"/>
-      <c r="AV82" s="128"/>
-      <c r="AW82" s="128"/>
-      <c r="AX82" s="128"/>
-      <c r="AY82" s="128"/>
-      <c r="AZ82" s="128"/>
-      <c r="BA82" s="128"/>
-      <c r="BB82" s="128"/>
-      <c r="BC82" s="128"/>
-      <c r="BD82" s="131"/>
-      <c r="BE82" s="128"/>
-      <c r="BF82" s="128"/>
-      <c r="BG82" s="128"/>
-      <c r="BH82" s="128"/>
-      <c r="BI82" s="128"/>
-      <c r="BJ82" s="128"/>
-      <c r="BK82" s="128"/>
-      <c r="BL82" s="128"/>
-      <c r="BM82" s="128"/>
-      <c r="BN82" s="128"/>
-      <c r="BO82" s="128"/>
-      <c r="BP82" s="128"/>
-      <c r="BQ82" s="128"/>
-      <c r="BR82" s="128"/>
-      <c r="BS82" s="128"/>
-      <c r="BT82" s="128"/>
-      <c r="BU82" s="128"/>
-      <c r="BV82" s="128"/>
-      <c r="BW82" s="129"/>
-      <c r="BX82" s="130"/>
-      <c r="BY82" s="128"/>
-      <c r="BZ82" s="128"/>
-      <c r="CA82" s="128"/>
-      <c r="CB82" s="128"/>
-      <c r="CC82" s="128"/>
-      <c r="CD82" s="128"/>
-      <c r="CE82" s="128"/>
-      <c r="CF82" s="128"/>
-      <c r="CG82" s="128"/>
-      <c r="CH82" s="128"/>
-      <c r="CI82" s="128"/>
-      <c r="CJ82" s="128"/>
-      <c r="CK82" s="128"/>
-      <c r="CL82" s="128"/>
-      <c r="CM82" s="128"/>
-      <c r="CN82" s="128"/>
-      <c r="CO82" s="128"/>
-      <c r="CP82" s="128"/>
-      <c r="CQ82" s="128"/>
-      <c r="CR82" s="128"/>
-      <c r="CS82" s="128"/>
-      <c r="CT82" s="128"/>
-      <c r="CU82" s="128"/>
-      <c r="CV82" s="128"/>
-      <c r="CW82" s="128"/>
-      <c r="CX82" s="128"/>
-      <c r="CY82" s="128"/>
-      <c r="CZ82" s="128"/>
+      <c r="AR82" s="113"/>
+      <c r="AS82" s="114"/>
+      <c r="AT82" s="115"/>
+      <c r="AU82" s="113"/>
+      <c r="AV82" s="113"/>
+      <c r="AW82" s="113"/>
+      <c r="AX82" s="113"/>
+      <c r="AY82" s="113"/>
+      <c r="AZ82" s="113"/>
+      <c r="BA82" s="113"/>
+      <c r="BB82" s="113"/>
+      <c r="BC82" s="113"/>
+      <c r="BD82" s="116"/>
+      <c r="BE82" s="113"/>
+      <c r="BF82" s="113"/>
+      <c r="BG82" s="113"/>
+      <c r="BH82" s="113"/>
+      <c r="BI82" s="113"/>
+      <c r="BJ82" s="113"/>
+      <c r="BK82" s="113"/>
+      <c r="BL82" s="113"/>
+      <c r="BM82" s="113"/>
+      <c r="BN82" s="113"/>
+      <c r="BO82" s="113"/>
+      <c r="BP82" s="113"/>
+      <c r="BQ82" s="113"/>
+      <c r="BR82" s="113"/>
+      <c r="BS82" s="113"/>
+      <c r="BT82" s="113"/>
+      <c r="BU82" s="113"/>
+      <c r="BV82" s="113"/>
+      <c r="BW82" s="114"/>
+      <c r="BX82" s="115"/>
+      <c r="BY82" s="113"/>
+      <c r="BZ82" s="113"/>
+      <c r="CA82" s="113"/>
+      <c r="CB82" s="113"/>
+      <c r="CC82" s="113"/>
+      <c r="CD82" s="113"/>
+      <c r="CE82" s="113"/>
+      <c r="CF82" s="113"/>
+      <c r="CG82" s="113"/>
+      <c r="CH82" s="113"/>
+      <c r="CI82" s="113"/>
+      <c r="CJ82" s="113"/>
+      <c r="CK82" s="113"/>
+      <c r="CL82" s="113"/>
+      <c r="CM82" s="113"/>
+      <c r="CN82" s="113"/>
+      <c r="CO82" s="113"/>
+      <c r="CP82" s="113"/>
+      <c r="CQ82" s="113"/>
+      <c r="CR82" s="113"/>
+      <c r="CS82" s="113"/>
+      <c r="CT82" s="113"/>
+      <c r="CU82" s="113"/>
+      <c r="CV82" s="113"/>
+      <c r="CW82" s="113"/>
+      <c r="CX82" s="113"/>
+      <c r="CY82" s="113"/>
+      <c r="CZ82" s="113"/>
       <c r="DA82" s="79"/>
       <c r="DB82" s="96"/>
       <c r="DC82" s="85"/>
@@ -4540,7 +4554,7 @@
       <c r="BI84" s="101">
         <v>3</v>
       </c>
-      <c r="BS84" s="122">
+      <c r="BS84" s="107">
         <v>3</v>
       </c>
       <c r="BV84" s="101">

--- a/konzept/projektplan.xlsx
+++ b/konzept/projektplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="210">
   <si>
     <t>#</t>
   </si>
@@ -391,21 +391,6 @@
     <t>7.3</t>
   </si>
   <si>
-    <t>User Profiles</t>
-  </si>
-  <si>
-    <t>Personae</t>
-  </si>
-  <si>
-    <t>Essentiell Use Cases</t>
-  </si>
-  <si>
-    <t>Use Case Map</t>
-  </si>
-  <si>
-    <t>Concrete Use Cases</t>
-  </si>
-  <si>
     <t>2.14</t>
   </si>
   <si>
@@ -511,66 +496,30 @@
     <t>19*0</t>
   </si>
   <si>
-    <t>User Roles</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.3 </t>
   </si>
   <si>
-    <t>Anforderungsanalyse überarbeiten</t>
-  </si>
-  <si>
-    <t>Interface Context</t>
-  </si>
-  <si>
-    <t>Context Navigation Map</t>
-  </si>
-  <si>
     <t>Abstract Prototype 1</t>
   </si>
   <si>
     <t>Abstract Prototype 2</t>
   </si>
   <si>
-    <t>Evaluation des AP1</t>
-  </si>
-  <si>
-    <t>Evaluation des AP2</t>
-  </si>
-  <si>
     <t>Prototypabwägung</t>
   </si>
   <si>
-    <t>Paperbased Prototype 1</t>
-  </si>
-  <si>
-    <t>Evaluation des PP1</t>
-  </si>
-  <si>
-    <t>Role Map</t>
-  </si>
-  <si>
     <t>Concrete Scenarios aus UC entwickeln</t>
   </si>
   <si>
     <t>Auswertung der Evaluation zu PP1</t>
   </si>
   <si>
-    <t>Paperbased Prototype 2</t>
-  </si>
-  <si>
-    <t>Gestaltungsgesetze</t>
-  </si>
-  <si>
     <t>Nutzungskontext überarbeiten</t>
   </si>
   <si>
     <t>3.6</t>
   </si>
   <si>
-    <t>Metaphern+ Paradigmen der Domäne</t>
-  </si>
-  <si>
     <t>Evaluation PP 2</t>
   </si>
   <si>
@@ -596,6 +545,111 @@
   </si>
   <si>
     <t>3 Iterationsphase</t>
+  </si>
+  <si>
+    <t>User Profiles entwickeln</t>
+  </si>
+  <si>
+    <t>Personae entwickeln</t>
+  </si>
+  <si>
+    <t>User Roles herausarbeiten</t>
+  </si>
+  <si>
+    <t>Role Map erarbeiten</t>
+  </si>
+  <si>
+    <t>Essentiell Use Cases erarbeiten</t>
+  </si>
+  <si>
+    <t>Essentiell Use Cases anhand des CM überarbeiten</t>
+  </si>
+  <si>
+    <t>Use Case Map erstellen</t>
+  </si>
+  <si>
+    <t>Use Case Map überarbeiten</t>
+  </si>
+  <si>
+    <t>Concrete Use Cases erarbeiten</t>
+  </si>
+  <si>
+    <t>Concrete Use Cases nach CM überarbeiten</t>
+  </si>
+  <si>
+    <t>Anforderungsanalyse (funk., qual) anhand Ergebnisse überarbeiten</t>
+  </si>
+  <si>
+    <t>Anforderungsanalyse (qua., org.) überarbeiten</t>
+  </si>
+  <si>
+    <t>Metaphern der Domäne</t>
+  </si>
+  <si>
+    <t>Paradigmen der Domäne</t>
+  </si>
+  <si>
+    <t>Interface Context entwickeln</t>
+  </si>
+  <si>
+    <t>Context Navigation Map konzipiieren und modellieren</t>
+  </si>
+  <si>
+    <t>Evaluation des AP1 über Mockup Entwürfe</t>
+  </si>
+  <si>
+    <t>Context Navigation Map konzipieren und modellieren</t>
+  </si>
+  <si>
+    <t>Evaluation des AP2 mit Ansatz des cognitiv walkthrough</t>
+  </si>
+  <si>
+    <t>Paperbased Prototype 1 erstellen</t>
+  </si>
+  <si>
+    <t>Paperbased Prototype 1 Besprechung</t>
+  </si>
+  <si>
+    <t>Paperbased Prototype 1 skizzierung mit alternativen Abwägung</t>
+  </si>
+  <si>
+    <t>Methode zur Evaluation des PP1 erarbeiten + Protokoll entwickeln</t>
+  </si>
+  <si>
+    <t>Evaluation des PP1 durchführen</t>
+  </si>
+  <si>
+    <t>Auseinandersetzung mit Gestaltungsgesetze</t>
+  </si>
+  <si>
+    <t>Paperbased Prototype 2 Besprechung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paperbased Prototype 2 skizzierung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paperbased Prototype 2 Entwicklung Version 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paperbased Prototype 2 überarbeitung </t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>Zusatzkapitel</t>
+  </si>
+  <si>
+    <t>Einführung + Konzeptüberarbeitung</t>
+  </si>
+  <si>
+    <t>MCI Aussicht</t>
+  </si>
+  <si>
+    <t>Systemaussicht</t>
+  </si>
+  <si>
+    <t>Projektreflektion</t>
   </si>
 </sst>
 </file>
@@ -705,7 +759,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -856,8 +910,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2DCDB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="45">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1437,8 +1521,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1490,8 +1585,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1606,51 +1727,6 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1770,8 +1846,68 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="77">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -1797,6 +1933,19 @@
     <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -1822,6 +1971,19 @@
     <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2154,10 +2316,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EH264"/>
+  <dimension ref="A1:EH282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="BN47" sqref="BN47"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="BT121" sqref="BT121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2313,7 +2475,7 @@
       <c r="CA1" s="40"/>
       <c r="CB1" s="40"/>
       <c r="CC1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="CD1" s="40"/>
       <c r="CE1" s="40"/>
@@ -2382,155 +2544,155 @@
       <c r="EH1" s="45"/>
     </row>
     <row r="2" spans="1:138">
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="195" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98" t="s">
+      <c r="D2" s="195"/>
+      <c r="E2" s="195" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="99"/>
-      <c r="G2" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="100" t="s">
+      <c r="F2" s="196"/>
+      <c r="G2" s="192" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="101"/>
-      <c r="AG2" s="101"/>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="101"/>
-      <c r="AJ2" s="101"/>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="101"/>
-      <c r="AN2" s="101"/>
-      <c r="AO2" s="101"/>
-      <c r="AP2" s="101"/>
-      <c r="AQ2" s="101"/>
-      <c r="AR2" s="101"/>
-      <c r="AS2" s="102"/>
-      <c r="AT2" s="92" t="s">
+      <c r="P2" s="198"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="198"/>
+      <c r="S2" s="198"/>
+      <c r="T2" s="198"/>
+      <c r="U2" s="198"/>
+      <c r="V2" s="198"/>
+      <c r="W2" s="198"/>
+      <c r="X2" s="198"/>
+      <c r="Y2" s="198"/>
+      <c r="Z2" s="198"/>
+      <c r="AA2" s="198"/>
+      <c r="AB2" s="198"/>
+      <c r="AC2" s="198"/>
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="198"/>
+      <c r="AF2" s="198"/>
+      <c r="AG2" s="198"/>
+      <c r="AH2" s="198"/>
+      <c r="AI2" s="198"/>
+      <c r="AJ2" s="198"/>
+      <c r="AK2" s="198"/>
+      <c r="AL2" s="198"/>
+      <c r="AM2" s="198"/>
+      <c r="AN2" s="198"/>
+      <c r="AO2" s="198"/>
+      <c r="AP2" s="198"/>
+      <c r="AQ2" s="198"/>
+      <c r="AR2" s="198"/>
+      <c r="AS2" s="199"/>
+      <c r="AT2" s="189" t="s">
         <v>34</v>
       </c>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
-      <c r="AW2" s="93"/>
-      <c r="AX2" s="93"/>
-      <c r="AY2" s="93"/>
-      <c r="AZ2" s="93"/>
-      <c r="BA2" s="93"/>
-      <c r="BB2" s="93"/>
-      <c r="BC2" s="93"/>
-      <c r="BD2" s="93"/>
-      <c r="BE2" s="93"/>
-      <c r="BF2" s="93"/>
-      <c r="BG2" s="93"/>
-      <c r="BH2" s="93"/>
-      <c r="BI2" s="93"/>
-      <c r="BJ2" s="93"/>
-      <c r="BK2" s="93"/>
-      <c r="BL2" s="93"/>
-      <c r="BM2" s="93"/>
-      <c r="BN2" s="93"/>
-      <c r="BO2" s="93"/>
-      <c r="BP2" s="93"/>
-      <c r="BQ2" s="93"/>
-      <c r="BR2" s="93"/>
-      <c r="BS2" s="93"/>
-      <c r="BT2" s="93"/>
-      <c r="BU2" s="93"/>
-      <c r="BV2" s="93"/>
-      <c r="BW2" s="103"/>
-      <c r="BX2" s="104" t="s">
+      <c r="AU2" s="190"/>
+      <c r="AV2" s="190"/>
+      <c r="AW2" s="190"/>
+      <c r="AX2" s="190"/>
+      <c r="AY2" s="190"/>
+      <c r="AZ2" s="190"/>
+      <c r="BA2" s="190"/>
+      <c r="BB2" s="190"/>
+      <c r="BC2" s="190"/>
+      <c r="BD2" s="190"/>
+      <c r="BE2" s="190"/>
+      <c r="BF2" s="190"/>
+      <c r="BG2" s="190"/>
+      <c r="BH2" s="190"/>
+      <c r="BI2" s="190"/>
+      <c r="BJ2" s="190"/>
+      <c r="BK2" s="190"/>
+      <c r="BL2" s="190"/>
+      <c r="BM2" s="190"/>
+      <c r="BN2" s="190"/>
+      <c r="BO2" s="190"/>
+      <c r="BP2" s="190"/>
+      <c r="BQ2" s="190"/>
+      <c r="BR2" s="190"/>
+      <c r="BS2" s="190"/>
+      <c r="BT2" s="190"/>
+      <c r="BU2" s="190"/>
+      <c r="BV2" s="190"/>
+      <c r="BW2" s="200"/>
+      <c r="BX2" s="201" t="s">
         <v>35</v>
       </c>
-      <c r="BY2" s="105"/>
-      <c r="BZ2" s="105"/>
-      <c r="CA2" s="105"/>
-      <c r="CB2" s="105"/>
-      <c r="CC2" s="105"/>
-      <c r="CD2" s="105"/>
-      <c r="CE2" s="105"/>
-      <c r="CF2" s="105"/>
-      <c r="CG2" s="105"/>
-      <c r="CH2" s="105"/>
-      <c r="CI2" s="105"/>
-      <c r="CJ2" s="105"/>
-      <c r="CK2" s="105"/>
-      <c r="CL2" s="105"/>
-      <c r="CM2" s="105"/>
-      <c r="CN2" s="105"/>
-      <c r="CO2" s="105"/>
-      <c r="CP2" s="105"/>
-      <c r="CQ2" s="105"/>
-      <c r="CR2" s="105"/>
-      <c r="CS2" s="105"/>
-      <c r="CT2" s="105"/>
-      <c r="CU2" s="105"/>
-      <c r="CV2" s="105"/>
-      <c r="CW2" s="105"/>
-      <c r="CX2" s="105"/>
-      <c r="CY2" s="105"/>
-      <c r="CZ2" s="105"/>
-      <c r="DA2" s="105"/>
-      <c r="DB2" s="106"/>
-      <c r="DC2" s="92" t="s">
+      <c r="BY2" s="202"/>
+      <c r="BZ2" s="202"/>
+      <c r="CA2" s="202"/>
+      <c r="CB2" s="202"/>
+      <c r="CC2" s="202"/>
+      <c r="CD2" s="202"/>
+      <c r="CE2" s="202"/>
+      <c r="CF2" s="202"/>
+      <c r="CG2" s="202"/>
+      <c r="CH2" s="202"/>
+      <c r="CI2" s="202"/>
+      <c r="CJ2" s="202"/>
+      <c r="CK2" s="202"/>
+      <c r="CL2" s="202"/>
+      <c r="CM2" s="202"/>
+      <c r="CN2" s="202"/>
+      <c r="CO2" s="202"/>
+      <c r="CP2" s="202"/>
+      <c r="CQ2" s="202"/>
+      <c r="CR2" s="202"/>
+      <c r="CS2" s="202"/>
+      <c r="CT2" s="202"/>
+      <c r="CU2" s="202"/>
+      <c r="CV2" s="202"/>
+      <c r="CW2" s="202"/>
+      <c r="CX2" s="202"/>
+      <c r="CY2" s="202"/>
+      <c r="CZ2" s="202"/>
+      <c r="DA2" s="202"/>
+      <c r="DB2" s="203"/>
+      <c r="DC2" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="DD2" s="93"/>
-      <c r="DE2" s="93"/>
-      <c r="DF2" s="93"/>
-      <c r="DG2" s="93"/>
-      <c r="DH2" s="93"/>
-      <c r="DI2" s="93"/>
-      <c r="DJ2" s="93"/>
-      <c r="DK2" s="93"/>
-      <c r="DL2" s="93"/>
-      <c r="DM2" s="93"/>
-      <c r="DN2" s="93"/>
-      <c r="DO2" s="93"/>
-      <c r="DP2" s="93"/>
-      <c r="DQ2" s="93"/>
-      <c r="DR2" s="93"/>
-      <c r="DS2" s="93"/>
-      <c r="DT2" s="93"/>
-      <c r="DU2" s="93"/>
-      <c r="DV2" s="93"/>
-      <c r="DW2" s="93"/>
-      <c r="DX2" s="93"/>
-      <c r="DY2" s="93"/>
-      <c r="DZ2" s="93"/>
-      <c r="EA2" s="93"/>
-      <c r="EB2" s="93"/>
-      <c r="EC2" s="93"/>
-      <c r="ED2" s="93"/>
-      <c r="EE2" s="93"/>
-      <c r="EF2" s="93"/>
-      <c r="EG2" s="94"/>
+      <c r="DD2" s="190"/>
+      <c r="DE2" s="190"/>
+      <c r="DF2" s="190"/>
+      <c r="DG2" s="190"/>
+      <c r="DH2" s="190"/>
+      <c r="DI2" s="190"/>
+      <c r="DJ2" s="190"/>
+      <c r="DK2" s="190"/>
+      <c r="DL2" s="190"/>
+      <c r="DM2" s="190"/>
+      <c r="DN2" s="190"/>
+      <c r="DO2" s="190"/>
+      <c r="DP2" s="190"/>
+      <c r="DQ2" s="190"/>
+      <c r="DR2" s="190"/>
+      <c r="DS2" s="190"/>
+      <c r="DT2" s="190"/>
+      <c r="DU2" s="190"/>
+      <c r="DV2" s="190"/>
+      <c r="DW2" s="190"/>
+      <c r="DX2" s="190"/>
+      <c r="DY2" s="190"/>
+      <c r="DZ2" s="190"/>
+      <c r="EA2" s="190"/>
+      <c r="EB2" s="190"/>
+      <c r="EC2" s="190"/>
+      <c r="ED2" s="190"/>
+      <c r="EE2" s="190"/>
+      <c r="EF2" s="190"/>
+      <c r="EG2" s="191"/>
     </row>
     <row r="3" spans="1:138" s="21" customFormat="1" ht="16" thickBot="1">
       <c r="A3" s="20" t="s">
@@ -2947,23 +3109,23 @@
       <c r="EH3" s="37"/>
     </row>
     <row r="4" spans="1:138" ht="16" thickTop="1">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="108" t="s">
         <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G4" s="49"/>
       <c r="H4" s="14"/>
@@ -3201,16 +3363,16 @@
         <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E10" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F10" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
@@ -3394,7 +3556,7 @@
         <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -3670,7 +3832,7 @@
     </row>
     <row r="24" spans="1:95">
       <c r="A24" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B24" t="s">
         <v>81</v>
@@ -3704,41 +3866,41 @@
       <c r="CQ25" s="6"/>
     </row>
     <row r="26" spans="1:95" ht="16" thickBot="1">
-      <c r="AW26" s="149"/>
-      <c r="AX26" s="149"/>
+      <c r="AW26" s="134"/>
+      <c r="AX26" s="134"/>
       <c r="CM26" s="67"/>
       <c r="CQ26" s="6"/>
     </row>
     <row r="27" spans="1:95" ht="16" thickBot="1">
       <c r="A27" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B27" s="124" t="s">
-        <v>139</v>
+        <v>133</v>
+      </c>
+      <c r="B27" s="109" t="s">
+        <v>134</v>
       </c>
       <c r="C27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" t="s">
         <v>157</v>
       </c>
-      <c r="D27" t="s">
-        <v>162</v>
-      </c>
       <c r="E27" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F27" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AM27" s="67"/>
       <c r="AV27" s="35"/>
-      <c r="AW27" s="185"/>
-      <c r="AX27" s="188"/>
-      <c r="AY27" s="145"/>
+      <c r="AW27" s="170"/>
+      <c r="AX27" s="173"/>
+      <c r="AY27" s="130"/>
       <c r="CM27" s="67"/>
       <c r="CQ27" s="6"/>
     </row>
     <row r="28" spans="1:95">
       <c r="A28" s="78"/>
-      <c r="B28" s="125" t="s">
+      <c r="B28" s="110" t="s">
         <v>61</v>
       </c>
       <c r="C28">
@@ -3755,8 +3917,8 @@
       </c>
       <c r="AM28" s="67"/>
       <c r="AV28" s="35"/>
-      <c r="AW28" s="186"/>
-      <c r="AX28" s="184"/>
+      <c r="AW28" s="171"/>
+      <c r="AX28" s="169"/>
       <c r="BB28" s="11">
         <v>1</v>
       </c>
@@ -3765,8 +3927,8 @@
     </row>
     <row r="29" spans="1:95">
       <c r="A29" s="78"/>
-      <c r="B29" s="125" t="s">
-        <v>140</v>
+      <c r="B29" s="110" t="s">
+        <v>135</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3782,11 +3944,11 @@
       </c>
       <c r="AM29" s="67"/>
       <c r="AV29" s="35"/>
-      <c r="AW29" s="186"/>
-      <c r="AX29" s="181">
-        <v>1</v>
-      </c>
-      <c r="BS29" s="127">
+      <c r="AW29" s="171"/>
+      <c r="AX29" s="166">
+        <v>1</v>
+      </c>
+      <c r="BS29" s="112">
         <v>1</v>
       </c>
       <c r="CM29" s="67"/>
@@ -3794,7 +3956,7 @@
     </row>
     <row r="30" spans="1:95">
       <c r="A30" s="78"/>
-      <c r="B30" s="125" t="s">
+      <c r="B30" s="110" t="s">
         <v>65</v>
       </c>
       <c r="C30">
@@ -3811,10 +3973,10 @@
       </c>
       <c r="AM30" s="67"/>
       <c r="AV30" s="35"/>
-      <c r="AW30" s="186">
-        <v>1</v>
-      </c>
-      <c r="AX30" s="145"/>
+      <c r="AW30" s="171">
+        <v>1</v>
+      </c>
+      <c r="AX30" s="130"/>
       <c r="BB30" s="11">
         <v>2</v>
       </c>
@@ -3823,8 +3985,8 @@
     </row>
     <row r="31" spans="1:95">
       <c r="A31" s="78"/>
-      <c r="B31" s="125" t="s">
-        <v>129</v>
+      <c r="B31" s="110" t="s">
+        <v>124</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3840,8 +4002,8 @@
       </c>
       <c r="AM31" s="67"/>
       <c r="AV31" s="35"/>
-      <c r="AW31" s="186"/>
-      <c r="AX31" s="145"/>
+      <c r="AW31" s="171"/>
+      <c r="AX31" s="130"/>
       <c r="BB31" s="5">
         <v>1</v>
       </c>
@@ -3850,8 +4012,8 @@
     </row>
     <row r="32" spans="1:95">
       <c r="A32" s="78"/>
-      <c r="B32" s="125" t="s">
-        <v>141</v>
+      <c r="B32" s="110" t="s">
+        <v>136</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3867,8 +4029,8 @@
       </c>
       <c r="AM32" s="67"/>
       <c r="AV32" s="35"/>
-      <c r="AW32" s="186"/>
-      <c r="AX32" s="182">
+      <c r="AW32" s="171"/>
+      <c r="AX32" s="167">
         <v>1</v>
       </c>
       <c r="CM32" s="67"/>
@@ -3876,7 +4038,7 @@
     </row>
     <row r="33" spans="1:116" ht="16" thickBot="1">
       <c r="A33" s="78"/>
-      <c r="B33" s="125" t="s">
+      <c r="B33" s="110" t="s">
         <v>73</v>
       </c>
       <c r="C33">
@@ -3893,10 +4055,10 @@
       </c>
       <c r="AM33" s="67"/>
       <c r="AV33" s="35"/>
-      <c r="AW33" s="187">
-        <v>1</v>
-      </c>
-      <c r="AX33" s="183"/>
+      <c r="AW33" s="172">
+        <v>1</v>
+      </c>
+      <c r="AX33" s="168"/>
       <c r="AZ33" s="11">
         <v>1</v>
       </c>
@@ -3908,7 +4070,7 @@
     </row>
     <row r="34" spans="1:116">
       <c r="A34" s="78"/>
-      <c r="B34" s="125" t="s">
+      <c r="B34" s="110" t="s">
         <v>69</v>
       </c>
       <c r="C34">
@@ -3924,15 +4086,15 @@
         <v>0</v>
       </c>
       <c r="AM34" s="67"/>
-      <c r="AW34" s="160"/>
-      <c r="AX34" s="185"/>
-      <c r="AY34" s="145"/>
+      <c r="AW34" s="145"/>
+      <c r="AX34" s="170"/>
+      <c r="AY34" s="130"/>
       <c r="CM34" s="67"/>
       <c r="CQ34" s="6"/>
     </row>
     <row r="35" spans="1:116">
       <c r="A35" s="78"/>
-      <c r="B35" s="125" t="s">
+      <c r="B35" s="110" t="s">
         <v>71</v>
       </c>
       <c r="C35">
@@ -3949,8 +4111,8 @@
       </c>
       <c r="AM35" s="67"/>
       <c r="AW35" s="75"/>
-      <c r="AX35" s="186"/>
-      <c r="AY35" s="145"/>
+      <c r="AX35" s="171"/>
+      <c r="AY35" s="130"/>
       <c r="BA35" s="11">
         <v>3</v>
       </c>
@@ -3962,8 +4124,8 @@
     </row>
     <row r="36" spans="1:116" ht="16" thickBot="1">
       <c r="A36" s="78"/>
-      <c r="B36" s="125" t="s">
-        <v>142</v>
+      <c r="B36" s="110" t="s">
+        <v>137</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -3978,11 +4140,11 @@
         <v>2</v>
       </c>
       <c r="AM36" s="67"/>
-      <c r="AW36" s="180">
-        <v>1</v>
-      </c>
-      <c r="AX36" s="187"/>
-      <c r="AY36" s="145"/>
+      <c r="AW36" s="165">
+        <v>1</v>
+      </c>
+      <c r="AX36" s="172"/>
+      <c r="AY36" s="130"/>
       <c r="CM36" s="67"/>
       <c r="CQ36" s="6"/>
     </row>
@@ -4000,7 +4162,7 @@
       <c r="A39" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="126" t="s">
+      <c r="B39" s="111" t="s">
         <v>101</v>
       </c>
       <c r="AR39" s="67"/>
@@ -4080,70 +4242,70 @@
     <row r="40" spans="1:116">
       <c r="A40" s="78"/>
       <c r="B40" t="s">
-        <v>189</v>
-      </c>
-      <c r="AR40" s="132"/>
-      <c r="AS40" s="133"/>
-      <c r="AT40" s="134"/>
-      <c r="AU40" s="135"/>
-      <c r="AV40" s="135"/>
-      <c r="AW40" s="137"/>
-      <c r="AX40" s="137"/>
-      <c r="AY40" s="137"/>
-      <c r="AZ40" s="137"/>
-      <c r="BA40" s="137"/>
-      <c r="BB40" s="137"/>
-      <c r="BC40" s="137"/>
-      <c r="BD40" s="137"/>
-      <c r="BE40" s="137"/>
-      <c r="BF40" s="137"/>
-      <c r="BG40" s="137"/>
-      <c r="BH40" s="137"/>
-      <c r="BI40" s="137"/>
-      <c r="BJ40" s="137"/>
-      <c r="BK40" s="137"/>
-      <c r="BL40" s="137"/>
-      <c r="BM40" s="137"/>
-      <c r="BN40" s="137"/>
-      <c r="BO40" s="137"/>
-      <c r="BP40" s="137"/>
-      <c r="BQ40" s="137"/>
-      <c r="BR40" s="137"/>
+        <v>172</v>
+      </c>
+      <c r="AR40" s="117"/>
+      <c r="AS40" s="118"/>
+      <c r="AT40" s="119"/>
+      <c r="AU40" s="120"/>
+      <c r="AV40" s="120"/>
+      <c r="AW40" s="122"/>
+      <c r="AX40" s="122"/>
+      <c r="AY40" s="122"/>
+      <c r="AZ40" s="122"/>
+      <c r="BA40" s="122"/>
+      <c r="BB40" s="122"/>
+      <c r="BC40" s="122"/>
+      <c r="BD40" s="122"/>
+      <c r="BE40" s="122"/>
+      <c r="BF40" s="122"/>
+      <c r="BG40" s="122"/>
+      <c r="BH40" s="122"/>
+      <c r="BI40" s="122"/>
+      <c r="BJ40" s="122"/>
+      <c r="BK40" s="122"/>
+      <c r="BL40" s="122"/>
+      <c r="BM40" s="122"/>
+      <c r="BN40" s="122"/>
+      <c r="BO40" s="122"/>
+      <c r="BP40" s="122"/>
+      <c r="BQ40" s="122"/>
+      <c r="BR40" s="122"/>
       <c r="CM40" s="67"/>
       <c r="CQ40" s="6"/>
     </row>
     <row r="41" spans="1:116">
       <c r="A41" s="78"/>
       <c r="B41" t="s">
-        <v>190</v>
-      </c>
-      <c r="AR41" s="132"/>
-      <c r="AS41" s="133"/>
-      <c r="AT41" s="134"/>
-      <c r="AU41" s="135"/>
-      <c r="AV41" s="135"/>
-      <c r="AW41" s="132"/>
-      <c r="AX41" s="132"/>
-      <c r="AY41" s="132"/>
-      <c r="AZ41" s="132"/>
-      <c r="BA41" s="132"/>
-      <c r="BB41" s="135"/>
-      <c r="BC41" s="135"/>
-      <c r="BD41" s="136"/>
-      <c r="BE41" s="132"/>
-      <c r="BF41" s="132"/>
-      <c r="BG41" s="132"/>
-      <c r="BH41" s="132"/>
-      <c r="BI41" s="135"/>
-      <c r="BJ41" s="135"/>
-      <c r="BK41" s="132"/>
-      <c r="BL41" s="132"/>
-      <c r="BM41" s="132"/>
-      <c r="BN41" s="132"/>
-      <c r="BO41" s="132"/>
-      <c r="BP41" s="135"/>
-      <c r="BQ41" s="135"/>
-      <c r="BR41" s="136"/>
+        <v>173</v>
+      </c>
+      <c r="AR41" s="117"/>
+      <c r="AS41" s="118"/>
+      <c r="AT41" s="119"/>
+      <c r="AU41" s="120"/>
+      <c r="AV41" s="120"/>
+      <c r="AW41" s="117"/>
+      <c r="AX41" s="117"/>
+      <c r="AY41" s="117"/>
+      <c r="AZ41" s="117"/>
+      <c r="BA41" s="117"/>
+      <c r="BB41" s="120"/>
+      <c r="BC41" s="120"/>
+      <c r="BD41" s="121"/>
+      <c r="BE41" s="117"/>
+      <c r="BF41" s="117"/>
+      <c r="BG41" s="117"/>
+      <c r="BH41" s="117"/>
+      <c r="BI41" s="120"/>
+      <c r="BJ41" s="120"/>
+      <c r="BK41" s="117"/>
+      <c r="BL41" s="117"/>
+      <c r="BM41" s="117"/>
+      <c r="BN41" s="117"/>
+      <c r="BO41" s="117"/>
+      <c r="BP41" s="120"/>
+      <c r="BQ41" s="120"/>
+      <c r="BR41" s="121"/>
       <c r="BV41" s="57"/>
       <c r="BW41" s="58"/>
       <c r="BX41" s="59"/>
@@ -4170,35 +4332,35 @@
     <row r="42" spans="1:116">
       <c r="A42" s="78"/>
       <c r="B42" t="s">
-        <v>191</v>
-      </c>
-      <c r="AR42" s="132"/>
-      <c r="AS42" s="133"/>
-      <c r="AT42" s="134"/>
-      <c r="AU42" s="135"/>
-      <c r="AV42" s="135"/>
-      <c r="AW42" s="132"/>
-      <c r="AX42" s="132"/>
-      <c r="AY42" s="132"/>
-      <c r="AZ42" s="132"/>
-      <c r="BA42" s="132"/>
-      <c r="BB42" s="135"/>
-      <c r="BC42" s="135"/>
-      <c r="BD42" s="136"/>
-      <c r="BE42" s="132"/>
-      <c r="BF42" s="132"/>
-      <c r="BG42" s="132"/>
-      <c r="BH42" s="132"/>
-      <c r="BI42" s="135"/>
-      <c r="BJ42" s="135"/>
-      <c r="BK42" s="132"/>
-      <c r="BL42" s="132"/>
-      <c r="BM42" s="132"/>
-      <c r="BN42" s="132"/>
-      <c r="BO42" s="132"/>
-      <c r="BP42" s="135"/>
-      <c r="BQ42" s="135"/>
-      <c r="BR42" s="136"/>
+        <v>174</v>
+      </c>
+      <c r="AR42" s="117"/>
+      <c r="AS42" s="118"/>
+      <c r="AT42" s="119"/>
+      <c r="AU42" s="120"/>
+      <c r="AV42" s="120"/>
+      <c r="AW42" s="117"/>
+      <c r="AX42" s="117"/>
+      <c r="AY42" s="117"/>
+      <c r="AZ42" s="117"/>
+      <c r="BA42" s="117"/>
+      <c r="BB42" s="120"/>
+      <c r="BC42" s="120"/>
+      <c r="BD42" s="121"/>
+      <c r="BE42" s="117"/>
+      <c r="BF42" s="117"/>
+      <c r="BG42" s="117"/>
+      <c r="BH42" s="117"/>
+      <c r="BI42" s="120"/>
+      <c r="BJ42" s="120"/>
+      <c r="BK42" s="117"/>
+      <c r="BL42" s="117"/>
+      <c r="BM42" s="117"/>
+      <c r="BN42" s="117"/>
+      <c r="BO42" s="117"/>
+      <c r="BP42" s="120"/>
+      <c r="BQ42" s="120"/>
+      <c r="BR42" s="121"/>
       <c r="CM42" s="67"/>
       <c r="CQ42" s="6"/>
       <c r="CT42" s="57"/>
@@ -4218,7 +4380,7 @@
     </row>
     <row r="43" spans="1:116">
       <c r="A43" s="78"/>
-      <c r="B43" s="128"/>
+      <c r="B43" s="113"/>
       <c r="AR43" s="67"/>
       <c r="AS43" s="75"/>
       <c r="AT43" s="70"/>
@@ -4243,21 +4405,21 @@
       <c r="A44" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="107" t="s">
+      <c r="B44" s="92" t="s">
         <v>72</v>
       </c>
       <c r="AT44" s="70"/>
       <c r="AU44" s="77"/>
       <c r="AW44" s="67"/>
       <c r="AX44" s="67"/>
-      <c r="BA44" s="149"/>
+      <c r="BA44" s="134"/>
       <c r="BD44" s="83"/>
       <c r="CM44" s="67"/>
       <c r="CQ44" s="6"/>
     </row>
     <row r="45" spans="1:116" ht="16" thickBot="1">
       <c r="B45" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -4274,12 +4436,12 @@
       <c r="AS45" s="75"/>
       <c r="AT45" s="70"/>
       <c r="AZ45" s="31"/>
-      <c r="BA45" s="161"/>
-      <c r="BB45" s="150"/>
-      <c r="BH45" s="201">
+      <c r="BA45" s="146"/>
+      <c r="BB45" s="135"/>
+      <c r="BH45" s="186">
         <v>3</v>
       </c>
-      <c r="BI45" s="193">
+      <c r="BI45" s="178">
         <v>3</v>
       </c>
       <c r="CM45" s="67"/>
@@ -4287,7 +4449,7 @@
     </row>
     <row r="46" spans="1:116" ht="16" thickBot="1">
       <c r="B46" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -4305,22 +4467,22 @@
       <c r="AT46" s="70"/>
       <c r="AU46" s="77"/>
       <c r="BA46" s="30"/>
-      <c r="BB46" s="161"/>
-      <c r="BC46" s="143"/>
+      <c r="BB46" s="146"/>
+      <c r="BC46" s="128"/>
       <c r="BH46" s="84"/>
-      <c r="BI46" s="201">
-        <v>2</v>
-      </c>
-      <c r="BJ46" s="193">
+      <c r="BI46" s="186">
+        <v>2</v>
+      </c>
+      <c r="BJ46" s="178">
         <v>3</v>
       </c>
-      <c r="BV46" s="149"/>
+      <c r="BV46" s="134"/>
       <c r="CM46" s="67"/>
       <c r="CQ46" s="6"/>
     </row>
     <row r="47" spans="1:116">
       <c r="B47" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AT47" s="70"/>
       <c r="AU47" s="77"/>
@@ -4330,14 +4492,14 @@
       <c r="AZ47" s="67"/>
       <c r="BB47" s="15"/>
       <c r="BU47" s="31"/>
-      <c r="BV47" s="163"/>
-      <c r="BW47" s="147"/>
+      <c r="BV47" s="148"/>
+      <c r="BW47" s="132"/>
       <c r="CM47" s="67"/>
       <c r="CQ47" s="6"/>
     </row>
     <row r="48" spans="1:116" ht="16" thickBot="1">
       <c r="B48" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -4358,19 +4520,19 @@
       <c r="AX48" s="67"/>
       <c r="AY48" s="67"/>
       <c r="AZ48" s="67"/>
-      <c r="BK48" s="138">
+      <c r="BK48" s="123">
         <v>4</v>
       </c>
       <c r="BU48" s="31"/>
-      <c r="BV48" s="164"/>
-      <c r="BW48" s="155"/>
-      <c r="BX48" s="154"/>
+      <c r="BV48" s="149"/>
+      <c r="BW48" s="140"/>
+      <c r="BX48" s="139"/>
       <c r="CM48" s="67"/>
       <c r="CQ48" s="6"/>
     </row>
-    <row r="49" spans="1:105" ht="18" customHeight="1" thickBot="1">
+    <row r="49" spans="1:104" ht="18" customHeight="1" thickBot="1">
       <c r="B49" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4390,61 +4552,61 @@
       <c r="AX49" s="67"/>
       <c r="AY49" s="67"/>
       <c r="AZ49" s="67"/>
-      <c r="BK49" s="138">
+      <c r="BK49" s="123">
         <v>2</v>
       </c>
       <c r="BV49" s="30"/>
-      <c r="BW49" s="161"/>
-      <c r="BX49" s="139"/>
-      <c r="BY49" s="145"/>
+      <c r="BW49" s="146"/>
+      <c r="BX49" s="124"/>
+      <c r="BY49" s="130"/>
       <c r="CM49" s="67"/>
       <c r="CQ49" s="6"/>
     </row>
-    <row r="50" spans="1:105" ht="18" customHeight="1">
+    <row r="50" spans="1:104" ht="18" customHeight="1">
       <c r="AT50" s="70"/>
       <c r="AU50" s="77"/>
       <c r="AW50" s="67"/>
       <c r="AX50" s="67"/>
       <c r="AY50" s="67"/>
       <c r="AZ50" s="67"/>
-      <c r="BD50" s="109"/>
+      <c r="BD50" s="94"/>
       <c r="BW50" s="34"/>
       <c r="BX50" s="52"/>
       <c r="CM50" s="67"/>
       <c r="CQ50" s="6"/>
     </row>
-    <row r="51" spans="1:105" ht="18" customHeight="1" thickBot="1">
+    <row r="51" spans="1:104" ht="18" customHeight="1" thickBot="1">
       <c r="A51" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="AW51" s="67"/>
       <c r="AX51" s="67"/>
       <c r="AY51" s="67"/>
       <c r="AZ51" s="67"/>
       <c r="BA51" s="67"/>
-      <c r="BC51" s="151"/>
-      <c r="BD51" s="109"/>
+      <c r="BC51" s="136"/>
+      <c r="BD51" s="94"/>
       <c r="BK51" s="67"/>
       <c r="BS51" s="67"/>
       <c r="BT51" s="67"/>
       <c r="BU51" s="67"/>
       <c r="BV51" s="67"/>
-      <c r="BX51" s="154"/>
+      <c r="BX51" s="139"/>
       <c r="CM51" s="67"/>
       <c r="CQ51" s="6"/>
     </row>
-    <row r="52" spans="1:105" ht="16" thickBot="1">
+    <row r="52" spans="1:104" ht="16" thickBot="1">
       <c r="B52" t="s">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
         <v>4</v>
-      </c>
-      <c r="D52">
-        <v>8</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -4457,21 +4619,19 @@
       <c r="AY52" s="67"/>
       <c r="AZ52" s="67"/>
       <c r="BB52" s="35"/>
-      <c r="BC52" s="161"/>
-      <c r="BD52" s="144"/>
+      <c r="BC52" s="146"/>
+      <c r="BD52" s="129"/>
       <c r="BK52" s="67"/>
       <c r="BO52" s="67"/>
-      <c r="BP52" s="197">
+      <c r="BP52" s="182">
         <v>4</v>
       </c>
       <c r="BS52" s="67"/>
       <c r="BT52" s="67"/>
       <c r="BU52" s="67"/>
       <c r="BV52" s="67"/>
-      <c r="BX52" s="163"/>
-      <c r="BY52" s="148">
-        <v>4</v>
-      </c>
+      <c r="BX52" s="148"/>
+      <c r="BY52" s="125"/>
       <c r="CF52" s="67"/>
       <c r="CG52" s="67"/>
       <c r="CH52" s="67"/>
@@ -4480,9 +4640,9 @@
       <c r="CM52" s="67"/>
       <c r="CQ52" s="6"/>
     </row>
-    <row r="53" spans="1:105" ht="16" thickBot="1">
-      <c r="B53" t="s">
-        <v>126</v>
+    <row r="53" spans="1:104" ht="31" thickBot="1">
+      <c r="B53" s="92" t="s">
+        <v>180</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -4494,29 +4654,24 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW53" s="67"/>
       <c r="AX53" s="67"/>
       <c r="AY53" s="67"/>
       <c r="AZ53" s="67"/>
-      <c r="BC53" s="158"/>
-      <c r="BD53" s="109"/>
+      <c r="BB53" s="35"/>
+      <c r="BC53" s="146"/>
+      <c r="BD53" s="129"/>
       <c r="BK53" s="67"/>
       <c r="BO53" s="67"/>
-      <c r="BP53" s="197">
-        <v>2</v>
-      </c>
-      <c r="BR53" s="109">
-        <v>1</v>
-      </c>
       <c r="BS53" s="67"/>
       <c r="BT53" s="67"/>
       <c r="BU53" s="67"/>
       <c r="BV53" s="67"/>
-      <c r="BX53" s="164"/>
-      <c r="BY53" s="156">
-        <v>2</v>
+      <c r="BX53" s="148"/>
+      <c r="BY53" s="133">
+        <v>4</v>
       </c>
       <c r="CF53" s="67"/>
       <c r="CG53" s="67"/>
@@ -4526,44 +4681,23 @@
       <c r="CM53" s="67"/>
       <c r="CQ53" s="6"/>
     </row>
-    <row r="54" spans="1:105" ht="16" thickBot="1">
-      <c r="B54" t="s">
-        <v>127</v>
-      </c>
-      <c r="C54">
-        <v>4</v>
-      </c>
-      <c r="D54">
-        <v>8</v>
-      </c>
-      <c r="E54">
-        <v>2</v>
-      </c>
-      <c r="F54">
-        <v>2</v>
-      </c>
+    <row r="54" spans="1:104">
       <c r="AW54" s="67"/>
       <c r="AX54" s="67"/>
       <c r="AY54" s="67"/>
       <c r="AZ54" s="67"/>
       <c r="BB54" s="35"/>
-      <c r="BC54" s="161"/>
-      <c r="BD54" s="152"/>
+      <c r="BC54" s="204"/>
+      <c r="BD54" s="129"/>
       <c r="BK54" s="67"/>
-      <c r="BN54" s="67"/>
       <c r="BO54" s="67"/>
-      <c r="BQ54" s="193">
-        <v>4</v>
-      </c>
+      <c r="BP54" s="182"/>
       <c r="BS54" s="67"/>
       <c r="BT54" s="67"/>
       <c r="BU54" s="67"/>
       <c r="BV54" s="67"/>
-      <c r="BX54" s="202">
-        <v>4</v>
-      </c>
-      <c r="BY54" s="163"/>
-      <c r="BZ54" s="145"/>
+      <c r="BX54" s="205"/>
+      <c r="BY54" s="138"/>
       <c r="CF54" s="67"/>
       <c r="CG54" s="67"/>
       <c r="CH54" s="67"/>
@@ -4572,41 +4706,42 @@
       <c r="CM54" s="67"/>
       <c r="CQ54" s="6"/>
     </row>
-    <row r="55" spans="1:105" ht="16" thickBot="1">
+    <row r="55" spans="1:104" ht="16" thickBot="1">
       <c r="B55" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <v>2</v>
       </c>
       <c r="AW55" s="67"/>
-      <c r="BC55" s="34"/>
-      <c r="BD55" s="162"/>
-      <c r="BE55" s="145"/>
+      <c r="AX55" s="67"/>
+      <c r="AY55" s="67"/>
+      <c r="AZ55" s="67"/>
+      <c r="BC55" s="143"/>
+      <c r="BD55" s="94"/>
       <c r="BK55" s="67"/>
-      <c r="BL55" s="67"/>
-      <c r="BM55" s="67"/>
-      <c r="BN55" s="67"/>
       <c r="BO55" s="67"/>
+      <c r="BP55" s="182">
+        <v>2</v>
+      </c>
+      <c r="BR55" s="94">
+        <v>1</v>
+      </c>
       <c r="BS55" s="67"/>
       <c r="BT55" s="67"/>
       <c r="BU55" s="67"/>
       <c r="BV55" s="67"/>
-      <c r="BX55" s="142"/>
-      <c r="BY55" s="164"/>
-      <c r="BZ55" s="145"/>
-      <c r="CC55" s="193">
-        <v>5</v>
-      </c>
+      <c r="BX55" s="149"/>
+      <c r="BY55" s="138"/>
       <c r="CF55" s="67"/>
       <c r="CG55" s="67"/>
       <c r="CH55" s="67"/>
@@ -4615,21 +4750,41 @@
       <c r="CM55" s="67"/>
       <c r="CQ55" s="6"/>
     </row>
-    <row r="56" spans="1:105" ht="16" thickBot="1">
+    <row r="56" spans="1:104" ht="16" thickBot="1">
+      <c r="B56" t="s">
+        <v>182</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
       <c r="AW56" s="67"/>
-      <c r="BD56" s="159"/>
-      <c r="BH56" s="149"/>
+      <c r="AX56" s="67"/>
+      <c r="AY56" s="67"/>
+      <c r="AZ56" s="67"/>
+      <c r="BC56" s="143"/>
+      <c r="BD56" s="94"/>
       <c r="BK56" s="67"/>
-      <c r="BL56" s="67"/>
-      <c r="BM56" s="67"/>
-      <c r="BN56" s="67"/>
       <c r="BO56" s="67"/>
+      <c r="BR56" s="94">
+        <v>1</v>
+      </c>
       <c r="BS56" s="67"/>
       <c r="BT56" s="67"/>
       <c r="BU56" s="67"/>
       <c r="BV56" s="67"/>
-      <c r="BY56" s="14"/>
-      <c r="CC56" s="149"/>
+      <c r="BX56" s="149"/>
+      <c r="BY56" s="141">
+        <v>2</v>
+      </c>
       <c r="CF56" s="67"/>
       <c r="CG56" s="67"/>
       <c r="CH56" s="67"/>
@@ -4637,78 +4792,86 @@
       <c r="CJ56" s="67"/>
       <c r="CM56" s="67"/>
       <c r="CQ56" s="6"/>
-      <c r="CR56" s="151"/>
-    </row>
-    <row r="57" spans="1:105" ht="16" thickBot="1">
-      <c r="A57" s="1" t="s">
-        <v>164</v>
-      </c>
+    </row>
+    <row r="57" spans="1:104" ht="16" thickBot="1">
       <c r="B57" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="C57">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW57" s="67"/>
-      <c r="BA57" s="67"/>
-      <c r="BD57" s="109"/>
-      <c r="BG57" s="31"/>
-      <c r="BH57" s="161"/>
-      <c r="BI57" s="143"/>
+      <c r="AX57" s="67"/>
+      <c r="AY57" s="67"/>
+      <c r="AZ57" s="67"/>
+      <c r="BB57" s="35"/>
+      <c r="BC57" s="146"/>
+      <c r="BD57" s="137"/>
       <c r="BK57" s="67"/>
-      <c r="BL57" s="67"/>
-      <c r="BM57" s="67"/>
       <c r="BN57" s="67"/>
       <c r="BO57" s="67"/>
+      <c r="BQ57" s="178">
+        <v>4</v>
+      </c>
       <c r="BS57" s="67"/>
       <c r="BT57" s="67"/>
       <c r="BU57" s="67"/>
       <c r="BV57" s="67"/>
-      <c r="BY57" s="67"/>
-      <c r="CB57" s="31"/>
-      <c r="CC57" s="161"/>
-      <c r="CD57" s="143"/>
+      <c r="BX57" s="206"/>
+      <c r="BY57" s="148"/>
+      <c r="BZ57" s="130"/>
       <c r="CF57" s="67"/>
       <c r="CG57" s="67"/>
       <c r="CH57" s="67"/>
       <c r="CI57" s="67"/>
       <c r="CJ57" s="67"/>
       <c r="CM57" s="67"/>
-      <c r="CQ57" s="7"/>
-      <c r="CR57" s="161">
-        <v>3</v>
-      </c>
-      <c r="CS57" s="143"/>
-      <c r="CY57" s="193">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:105" ht="16" thickBot="1">
+      <c r="CQ57" s="6"/>
+    </row>
+    <row r="58" spans="1:104" ht="16" thickBot="1">
+      <c r="B58" t="s">
+        <v>184</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
       <c r="AW58" s="67"/>
-      <c r="BD58" s="109"/>
-      <c r="BH58" s="14"/>
-      <c r="BI58" s="151"/>
+      <c r="AX58" s="67"/>
+      <c r="AY58" s="67"/>
+      <c r="AZ58" s="67"/>
+      <c r="BB58" s="35"/>
+      <c r="BC58" s="146"/>
+      <c r="BD58" s="137"/>
       <c r="BK58" s="67"/>
-      <c r="BL58" s="67"/>
-      <c r="BM58" s="67"/>
       <c r="BN58" s="67"/>
       <c r="BO58" s="67"/>
       <c r="BS58" s="67"/>
       <c r="BT58" s="67"/>
       <c r="BU58" s="67"/>
       <c r="BV58" s="67"/>
-      <c r="BY58" s="67"/>
-      <c r="CC58" s="14"/>
-      <c r="CD58" s="151"/>
+      <c r="BX58" s="187">
+        <v>4</v>
+      </c>
+      <c r="BY58" s="148"/>
+      <c r="BZ58" s="130"/>
       <c r="CF58" s="67"/>
       <c r="CG58" s="67"/>
       <c r="CH58" s="67"/>
@@ -4716,33 +4879,27 @@
       <c r="CJ58" s="67"/>
       <c r="CM58" s="67"/>
       <c r="CQ58" s="6"/>
-      <c r="CR58" s="15"/>
-    </row>
-    <row r="59" spans="1:105" ht="16" thickBot="1">
-      <c r="A59" s="1" t="s">
-        <v>86</v>
-      </c>
+    </row>
+    <row r="59" spans="1:104" ht="16" thickBot="1">
       <c r="B59" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW59" s="67"/>
-      <c r="BA59" s="67"/>
-      <c r="BD59" s="109"/>
-      <c r="BH59" s="31"/>
-      <c r="BI59" s="161"/>
-      <c r="BJ59" s="143"/>
+      <c r="BC59" s="34"/>
+      <c r="BD59" s="147"/>
+      <c r="BE59" s="130"/>
       <c r="BK59" s="67"/>
       <c r="BL59" s="67"/>
       <c r="BM59" s="67"/>
@@ -4752,10 +4909,12 @@
       <c r="BT59" s="67"/>
       <c r="BU59" s="67"/>
       <c r="BV59" s="67"/>
-      <c r="BY59" s="67"/>
-      <c r="CC59" s="31"/>
-      <c r="CD59" s="161"/>
-      <c r="CE59" s="143"/>
+      <c r="BX59" s="127"/>
+      <c r="BY59" s="149"/>
+      <c r="BZ59" s="130"/>
+      <c r="CC59" s="178">
+        <v>5</v>
+      </c>
       <c r="CF59" s="67"/>
       <c r="CG59" s="67"/>
       <c r="CH59" s="67"/>
@@ -4763,34 +4922,11 @@
       <c r="CJ59" s="67"/>
       <c r="CM59" s="67"/>
       <c r="CQ59" s="6"/>
-      <c r="CR59" s="197">
-        <v>2</v>
-      </c>
-      <c r="CS59" s="151"/>
-      <c r="CT59" s="149"/>
-      <c r="CY59" s="203">
-        <v>1</v>
-      </c>
-      <c r="CZ59" s="151"/>
-    </row>
-    <row r="60" spans="1:105" ht="16" thickBot="1">
-      <c r="B60" t="s">
-        <v>182</v>
-      </c>
-      <c r="C60">
-        <v>4</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="60" spans="1:104" ht="16" thickBot="1">
       <c r="AW60" s="67"/>
-      <c r="BI60" s="15"/>
+      <c r="BD60" s="144"/>
+      <c r="BH60" s="134"/>
       <c r="BK60" s="67"/>
       <c r="BL60" s="67"/>
       <c r="BM60" s="67"/>
@@ -4800,8 +4936,8 @@
       <c r="BT60" s="67"/>
       <c r="BU60" s="67"/>
       <c r="BV60" s="67"/>
-      <c r="BY60" s="67"/>
-      <c r="CD60" s="15"/>
+      <c r="BY60" s="14"/>
+      <c r="CC60" s="134"/>
       <c r="CF60" s="67"/>
       <c r="CG60" s="67"/>
       <c r="CH60" s="67"/>
@@ -4809,17 +4945,33 @@
       <c r="CJ60" s="67"/>
       <c r="CM60" s="67"/>
       <c r="CQ60" s="6"/>
-      <c r="CR60" s="35"/>
-      <c r="CS60" s="196"/>
-      <c r="CT60" s="198"/>
-      <c r="CU60" s="145"/>
-      <c r="CX60" s="31"/>
-      <c r="CY60" s="161"/>
-      <c r="CZ60" s="161"/>
-      <c r="DA60" s="145"/>
-    </row>
-    <row r="61" spans="1:105">
+      <c r="CR60" s="136"/>
+    </row>
+    <row r="61" spans="1:104" ht="31" thickBot="1">
+      <c r="A61" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B61" s="92" t="s">
+        <v>185</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="AW61" s="67"/>
       <c r="BA61" s="67"/>
+      <c r="BD61" s="94"/>
+      <c r="BG61" s="31"/>
+      <c r="BH61" s="146"/>
+      <c r="BI61" s="128"/>
       <c r="BK61" s="67"/>
       <c r="BL61" s="67"/>
       <c r="BM61" s="67"/>
@@ -4830,28 +4982,43 @@
       <c r="BU61" s="67"/>
       <c r="BV61" s="67"/>
       <c r="BY61" s="67"/>
+      <c r="CB61" s="31"/>
+      <c r="CC61" s="146"/>
+      <c r="CD61" s="128"/>
       <c r="CF61" s="67"/>
       <c r="CG61" s="67"/>
       <c r="CH61" s="67"/>
       <c r="CI61" s="67"/>
       <c r="CJ61" s="67"/>
       <c r="CM61" s="67"/>
-      <c r="CQ61" s="6"/>
-      <c r="CS61" s="15"/>
-      <c r="CT61" s="14"/>
-      <c r="CY61" s="15"/>
-      <c r="CZ61" s="15"/>
-    </row>
-    <row r="62" spans="1:105">
-      <c r="A62" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="CQ61" s="7"/>
+      <c r="CR61" s="146">
+        <v>3</v>
+      </c>
+      <c r="CS61" s="128"/>
+    </row>
+    <row r="62" spans="1:104" ht="16" thickBot="1">
       <c r="B62" t="s">
-        <v>153</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="AW62" s="67"/>
       <c r="BA62" s="67"/>
-      <c r="BH62" s="67"/>
-      <c r="BJ62" s="151"/>
+      <c r="BD62" s="94"/>
+      <c r="BG62" s="31"/>
+      <c r="BH62" s="146"/>
+      <c r="BI62" s="128"/>
       <c r="BK62" s="67"/>
       <c r="BL62" s="67"/>
       <c r="BM62" s="67"/>
@@ -4862,22 +5029,28 @@
       <c r="BU62" s="67"/>
       <c r="BV62" s="67"/>
       <c r="BY62" s="67"/>
+      <c r="CB62" s="31"/>
+      <c r="CC62" s="146"/>
+      <c r="CD62" s="128"/>
       <c r="CF62" s="67"/>
       <c r="CG62" s="67"/>
       <c r="CH62" s="67"/>
       <c r="CI62" s="67"/>
       <c r="CJ62" s="67"/>
       <c r="CM62" s="67"/>
-      <c r="CQ62" s="6"/>
-    </row>
-    <row r="63" spans="1:105" ht="16" thickBot="1">
-      <c r="B63" t="s">
-        <v>168</v>
-      </c>
-      <c r="BA63" s="67"/>
-      <c r="BI63" s="35"/>
-      <c r="BJ63" s="200"/>
-      <c r="BK63" s="140"/>
+      <c r="CQ62" s="7"/>
+      <c r="CR62" s="207"/>
+      <c r="CS62" s="128"/>
+      <c r="CY62" s="178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:104" ht="16" thickBot="1">
+      <c r="AW63" s="67"/>
+      <c r="BD63" s="94"/>
+      <c r="BH63" s="14"/>
+      <c r="BI63" s="136"/>
+      <c r="BK63" s="67"/>
       <c r="BL63" s="67"/>
       <c r="BM63" s="67"/>
       <c r="BN63" s="67"/>
@@ -4887,6 +5060,8 @@
       <c r="BU63" s="67"/>
       <c r="BV63" s="67"/>
       <c r="BY63" s="67"/>
+      <c r="CC63" s="14"/>
+      <c r="CD63" s="136"/>
       <c r="CF63" s="67"/>
       <c r="CG63" s="67"/>
       <c r="CH63" s="67"/>
@@ -4894,38 +5069,46 @@
       <c r="CJ63" s="67"/>
       <c r="CM63" s="67"/>
       <c r="CQ63" s="6"/>
-    </row>
-    <row r="64" spans="1:105" ht="16" thickBot="1">
+      <c r="CR63" s="15"/>
+    </row>
+    <row r="64" spans="1:104" ht="16" thickBot="1">
+      <c r="A64" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="B64" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AW64" s="67"/>
       <c r="BA64" s="67"/>
-      <c r="BI64" s="35"/>
-      <c r="BJ64" s="161"/>
-      <c r="BK64" s="140"/>
+      <c r="BD64" s="94"/>
+      <c r="BH64" s="31"/>
+      <c r="BI64" s="146"/>
+      <c r="BJ64" s="128"/>
+      <c r="BK64" s="67"/>
       <c r="BL64" s="67"/>
       <c r="BM64" s="67"/>
       <c r="BN64" s="67"/>
       <c r="BO64" s="67"/>
-      <c r="BR64" s="197">
-        <v>5</v>
-      </c>
       <c r="BS64" s="67"/>
       <c r="BT64" s="67"/>
       <c r="BU64" s="67"/>
       <c r="BV64" s="67"/>
+      <c r="BY64" s="67"/>
+      <c r="CC64" s="31"/>
+      <c r="CD64" s="146"/>
+      <c r="CE64" s="128"/>
       <c r="CF64" s="67"/>
       <c r="CG64" s="67"/>
       <c r="CH64" s="67"/>
@@ -4933,37 +5116,45 @@
       <c r="CJ64" s="67"/>
       <c r="CM64" s="67"/>
       <c r="CQ64" s="6"/>
+      <c r="CR64" s="182">
+        <v>2</v>
+      </c>
+      <c r="CS64" s="136"/>
+      <c r="CT64" s="134"/>
+      <c r="CY64" s="188">
+        <v>1</v>
+      </c>
+      <c r="CZ64" s="136"/>
     </row>
     <row r="65" spans="1:108" ht="16" thickBot="1">
       <c r="B65" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="BA65" s="67"/>
-      <c r="BI65" s="35"/>
-      <c r="BJ65" s="189"/>
-      <c r="BK65" s="153"/>
-      <c r="BL65" s="141"/>
+        <v>0</v>
+      </c>
+      <c r="AW65" s="67"/>
+      <c r="BI65" s="15"/>
+      <c r="BK65" s="67"/>
+      <c r="BL65" s="67"/>
       <c r="BM65" s="67"/>
       <c r="BN65" s="67"/>
       <c r="BO65" s="67"/>
-      <c r="BS65" s="193">
-        <v>3</v>
-      </c>
+      <c r="BS65" s="67"/>
       <c r="BT65" s="67"/>
       <c r="BU65" s="67"/>
       <c r="BV65" s="67"/>
+      <c r="BY65" s="67"/>
+      <c r="CD65" s="15"/>
       <c r="CF65" s="67"/>
       <c r="CG65" s="67"/>
       <c r="CH65" s="67"/>
@@ -4971,36 +5162,44 @@
       <c r="CJ65" s="67"/>
       <c r="CM65" s="67"/>
       <c r="CQ65" s="6"/>
+      <c r="CR65" s="35"/>
+      <c r="CS65" s="181"/>
+      <c r="CT65" s="183"/>
+      <c r="CU65" s="130"/>
+      <c r="CX65" s="31"/>
+      <c r="CY65" s="146"/>
+      <c r="CZ65" s="146"/>
+      <c r="DA65" s="130"/>
     </row>
     <row r="66" spans="1:108" ht="16" thickBot="1">
       <c r="B66" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="C66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>4</v>
-      </c>
-      <c r="BA66" s="67"/>
-      <c r="BJ66" s="34"/>
-      <c r="BK66" s="161"/>
-      <c r="BL66" s="191"/>
-      <c r="BM66" s="140"/>
+        <v>0</v>
+      </c>
+      <c r="AW66" s="67"/>
+      <c r="BI66" s="15"/>
+      <c r="BK66" s="67"/>
+      <c r="BL66" s="67"/>
+      <c r="BM66" s="67"/>
       <c r="BN66" s="67"/>
       <c r="BO66" s="67"/>
       <c r="BS66" s="67"/>
       <c r="BT66" s="67"/>
       <c r="BU66" s="67"/>
-      <c r="BV66" s="197">
-        <v>4</v>
-      </c>
+      <c r="BV66" s="67"/>
+      <c r="BY66" s="67"/>
+      <c r="CD66" s="15"/>
       <c r="CF66" s="67"/>
       <c r="CG66" s="67"/>
       <c r="CH66" s="67"/>
@@ -5008,20 +5207,27 @@
       <c r="CJ66" s="67"/>
       <c r="CM66" s="67"/>
       <c r="CQ66" s="6"/>
+      <c r="CR66" s="35"/>
+      <c r="CS66" s="181"/>
+      <c r="CT66" s="183"/>
+      <c r="CU66" s="130"/>
+      <c r="CX66" s="31"/>
+      <c r="CY66" s="146"/>
+      <c r="CZ66" s="146"/>
+      <c r="DA66" s="130"/>
     </row>
     <row r="67" spans="1:108">
       <c r="BA67" s="67"/>
-      <c r="BJ67" s="35"/>
-      <c r="BK67" s="192"/>
-      <c r="BL67" s="190"/>
-      <c r="BM67" s="140"/>
+      <c r="BK67" s="67"/>
+      <c r="BL67" s="67"/>
+      <c r="BM67" s="67"/>
       <c r="BN67" s="67"/>
       <c r="BO67" s="67"/>
       <c r="BS67" s="67"/>
       <c r="BT67" s="67"/>
       <c r="BU67" s="67"/>
       <c r="BV67" s="67"/>
-      <c r="CD67" s="151"/>
+      <c r="BY67" s="67"/>
       <c r="CF67" s="67"/>
       <c r="CG67" s="67"/>
       <c r="CH67" s="67"/>
@@ -5029,14 +5235,23 @@
       <c r="CJ67" s="67"/>
       <c r="CM67" s="67"/>
       <c r="CQ67" s="6"/>
-    </row>
-    <row r="68" spans="1:108" ht="16" thickBot="1">
+      <c r="CS67" s="15"/>
+      <c r="CT67" s="14"/>
+      <c r="CY67" s="15"/>
+      <c r="CZ67" s="15"/>
+    </row>
+    <row r="68" spans="1:108">
+      <c r="A68" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="B68" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="BA68" s="67"/>
-      <c r="BK68" s="73"/>
-      <c r="BL68" s="73"/>
+      <c r="BH68" s="67"/>
+      <c r="BJ68" s="136"/>
+      <c r="BK68" s="67"/>
+      <c r="BL68" s="67"/>
       <c r="BM68" s="67"/>
       <c r="BN68" s="67"/>
       <c r="BO68" s="67"/>
@@ -5044,9 +5259,7 @@
       <c r="BT68" s="67"/>
       <c r="BU68" s="67"/>
       <c r="BV68" s="67"/>
-      <c r="CC68" s="75"/>
-      <c r="CD68" s="195"/>
-      <c r="CE68" s="143"/>
+      <c r="BY68" s="67"/>
       <c r="CF68" s="67"/>
       <c r="CG68" s="67"/>
       <c r="CH68" s="67"/>
@@ -5057,22 +5270,12 @@
     </row>
     <row r="69" spans="1:108" ht="16" thickBot="1">
       <c r="B69" t="s">
-        <v>166</v>
-      </c>
-      <c r="C69">
-        <v>4</v>
-      </c>
-      <c r="D69">
-        <v>5</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="BA69" s="67"/>
-      <c r="BK69" s="67"/>
+      <c r="BI69" s="35"/>
+      <c r="BJ69" s="185"/>
+      <c r="BK69" s="125"/>
       <c r="BL69" s="67"/>
       <c r="BM69" s="67"/>
       <c r="BN69" s="67"/>
@@ -5081,13 +5284,7 @@
       <c r="BT69" s="67"/>
       <c r="BU69" s="67"/>
       <c r="BV69" s="67"/>
-      <c r="CC69" s="199">
-        <v>3</v>
-      </c>
-      <c r="CD69" s="161">
-        <v>2</v>
-      </c>
-      <c r="CE69" s="143"/>
+      <c r="BY69" s="67"/>
       <c r="CF69" s="67"/>
       <c r="CG69" s="67"/>
       <c r="CH69" s="67"/>
@@ -5098,31 +5295,35 @@
     </row>
     <row r="70" spans="1:108" ht="16" thickBot="1">
       <c r="B70" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA70" s="67"/>
-      <c r="BK70" s="67"/>
+      <c r="BI70" s="35"/>
+      <c r="BJ70" s="146"/>
+      <c r="BK70" s="125"/>
       <c r="BL70" s="67"/>
       <c r="BM70" s="67"/>
       <c r="BN70" s="67"/>
       <c r="BO70" s="67"/>
-      <c r="CC70" s="75"/>
-      <c r="CD70" s="161">
-        <v>3</v>
-      </c>
-      <c r="CE70" s="150"/>
+      <c r="BR70" s="182">
+        <v>5</v>
+      </c>
+      <c r="BS70" s="67"/>
+      <c r="BT70" s="67"/>
+      <c r="BU70" s="67"/>
+      <c r="BV70" s="67"/>
       <c r="CF70" s="67"/>
       <c r="CG70" s="67"/>
       <c r="CH70" s="67"/>
@@ -5131,35 +5332,37 @@
       <c r="CM70" s="67"/>
       <c r="CQ70" s="6"/>
     </row>
-    <row r="71" spans="1:108" ht="16" thickBot="1">
-      <c r="B71" t="s">
-        <v>171</v>
+    <row r="71" spans="1:108" ht="31" thickBot="1">
+      <c r="B71" s="92" t="s">
+        <v>190</v>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71">
         <v>3</v>
       </c>
       <c r="E71">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BA71" s="67"/>
-      <c r="BK71" s="67"/>
-      <c r="BL71" s="67"/>
+      <c r="BI71" s="35"/>
+      <c r="BJ71" s="174"/>
+      <c r="BK71" s="138"/>
+      <c r="BL71" s="126"/>
       <c r="BM71" s="67"/>
       <c r="BN71" s="67"/>
       <c r="BO71" s="67"/>
-      <c r="BY71" s="67"/>
-      <c r="CC71" s="31"/>
-      <c r="CD71" s="189"/>
-      <c r="CE71" s="161">
+      <c r="BS71" s="178">
         <v>3</v>
       </c>
-      <c r="CF71" s="140"/>
+      <c r="BT71" s="67"/>
+      <c r="BU71" s="67"/>
+      <c r="BV71" s="67"/>
+      <c r="CF71" s="67"/>
       <c r="CG71" s="67"/>
       <c r="CH71" s="67"/>
       <c r="CI71" s="67"/>
@@ -5168,15 +5371,34 @@
       <c r="CQ71" s="6"/>
     </row>
     <row r="72" spans="1:108" ht="16" thickBot="1">
+      <c r="B72" t="s">
+        <v>191</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="F72">
+        <v>4</v>
+      </c>
       <c r="BA72" s="67"/>
-      <c r="BD72" s="109"/>
-      <c r="BK72" s="67"/>
-      <c r="BL72" s="67"/>
-      <c r="BM72" s="67"/>
+      <c r="BJ72" s="34"/>
+      <c r="BK72" s="146"/>
+      <c r="BL72" s="176"/>
+      <c r="BM72" s="125"/>
       <c r="BN72" s="67"/>
       <c r="BO72" s="67"/>
-      <c r="CD72" s="15"/>
-      <c r="CE72" s="15"/>
+      <c r="BS72" s="67"/>
+      <c r="BT72" s="67"/>
+      <c r="BU72" s="67"/>
+      <c r="BV72" s="182">
+        <v>4</v>
+      </c>
       <c r="CF72" s="67"/>
       <c r="CG72" s="67"/>
       <c r="CH72" s="67"/>
@@ -5184,33 +5406,20 @@
       <c r="CJ72" s="67"/>
       <c r="CM72" s="67"/>
       <c r="CQ72" s="6"/>
-      <c r="CX72" s="149"/>
-      <c r="CY72" s="151"/>
-      <c r="CZ72" s="151"/>
-      <c r="DA72" s="149"/>
-    </row>
-    <row r="73" spans="1:108" ht="16" thickBot="1">
-      <c r="B73" t="s">
-        <v>186</v>
-      </c>
-      <c r="C73">
-        <v>4</v>
-      </c>
-      <c r="D73">
-        <v>3</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="BH73" s="67"/>
-      <c r="BK73" s="67"/>
-      <c r="BL73" s="67"/>
-      <c r="BM73" s="67"/>
+    </row>
+    <row r="73" spans="1:108">
+      <c r="BA73" s="67"/>
+      <c r="BJ73" s="35"/>
+      <c r="BK73" s="177"/>
+      <c r="BL73" s="175"/>
+      <c r="BM73" s="125"/>
       <c r="BN73" s="67"/>
       <c r="BO73" s="67"/>
+      <c r="BS73" s="67"/>
+      <c r="BT73" s="67"/>
+      <c r="BU73" s="67"/>
+      <c r="BV73" s="67"/>
+      <c r="CD73" s="136"/>
       <c r="CF73" s="67"/>
       <c r="CG73" s="67"/>
       <c r="CH73" s="67"/>
@@ -5218,17 +5427,24 @@
       <c r="CJ73" s="67"/>
       <c r="CM73" s="67"/>
       <c r="CQ73" s="6"/>
-      <c r="CW73" s="31"/>
-      <c r="CX73" s="190"/>
-      <c r="CY73" s="195"/>
-      <c r="CZ73" s="161"/>
-      <c r="DA73" s="161"/>
-      <c r="DB73" s="194"/>
-      <c r="DD73" s="197">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:108">
+    </row>
+    <row r="74" spans="1:108" ht="16" thickBot="1">
+      <c r="B74" t="s">
+        <v>160</v>
+      </c>
+      <c r="BA74" s="67"/>
+      <c r="BK74" s="73"/>
+      <c r="BL74" s="73"/>
+      <c r="BM74" s="67"/>
+      <c r="BN74" s="67"/>
+      <c r="BO74" s="67"/>
+      <c r="BS74" s="67"/>
+      <c r="BT74" s="67"/>
+      <c r="BU74" s="67"/>
+      <c r="BV74" s="67"/>
+      <c r="CC74" s="75"/>
+      <c r="CD74" s="180"/>
+      <c r="CE74" s="128"/>
       <c r="CF74" s="67"/>
       <c r="CG74" s="67"/>
       <c r="CH74" s="67"/>
@@ -5236,25 +5452,40 @@
       <c r="CJ74" s="67"/>
       <c r="CM74" s="67"/>
       <c r="CQ74" s="6"/>
-      <c r="CX74" s="14"/>
-      <c r="CY74" s="15"/>
-      <c r="CZ74" s="15"/>
-      <c r="DA74" s="14"/>
     </row>
     <row r="75" spans="1:108" ht="16" thickBot="1">
-      <c r="A75" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="B75" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH75" s="67"/>
+        <v>189</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="BA75" s="67"/>
       <c r="BK75" s="67"/>
       <c r="BL75" s="67"/>
       <c r="BM75" s="67"/>
       <c r="BN75" s="67"/>
-      <c r="BO75" s="141"/>
-      <c r="BR75" s="109"/>
+      <c r="BO75" s="67"/>
+      <c r="BS75" s="67"/>
+      <c r="BT75" s="67"/>
+      <c r="BU75" s="67"/>
+      <c r="BV75" s="67"/>
+      <c r="CC75" s="184">
+        <v>3</v>
+      </c>
+      <c r="CD75" s="146">
+        <v>2</v>
+      </c>
+      <c r="CE75" s="128"/>
       <c r="CF75" s="67"/>
       <c r="CG75" s="67"/>
       <c r="CH75" s="67"/>
@@ -5263,33 +5494,34 @@
       <c r="CM75" s="67"/>
       <c r="CQ75" s="6"/>
     </row>
-    <row r="76" spans="1:108" ht="16" thickBot="1">
-      <c r="B76" t="s">
-        <v>172</v>
+    <row r="76" spans="1:108" ht="31" thickBot="1">
+      <c r="B76" s="92" t="s">
+        <v>192</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="BH76" s="67"/>
+        <v>1</v>
+      </c>
+      <c r="BA76" s="67"/>
       <c r="BK76" s="67"/>
       <c r="BL76" s="67"/>
       <c r="BM76" s="67"/>
-      <c r="BN76" s="75"/>
-      <c r="BO76" s="161"/>
-      <c r="BP76" s="150"/>
-      <c r="CC76" s="67"/>
-      <c r="CF76" s="193">
-        <v>2</v>
-      </c>
+      <c r="BN76" s="67"/>
+      <c r="BO76" s="67"/>
+      <c r="CC76" s="75"/>
+      <c r="CD76" s="146">
+        <v>3</v>
+      </c>
+      <c r="CE76" s="135"/>
+      <c r="CF76" s="67"/>
       <c r="CG76" s="67"/>
       <c r="CH76" s="67"/>
       <c r="CI76" s="67"/>
@@ -5297,91 +5529,79 @@
       <c r="CM76" s="67"/>
       <c r="CQ76" s="6"/>
     </row>
-    <row r="77" spans="1:108">
-      <c r="B77" t="s">
-        <v>173</v>
+    <row r="77" spans="1:108" ht="31" thickBot="1">
+      <c r="B77" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77">
         <v>3</v>
       </c>
-      <c r="D77">
-        <v>5</v>
-      </c>
       <c r="E77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F77">
         <v>3</v>
       </c>
-      <c r="BH77" s="67"/>
+      <c r="BA77" s="67"/>
       <c r="BK77" s="67"/>
       <c r="BL77" s="67"/>
       <c r="BM77" s="67"/>
       <c r="BN77" s="67"/>
-      <c r="BO77" s="160"/>
-      <c r="BP77" s="163"/>
-      <c r="BQ77" s="143"/>
-      <c r="CC77" s="67"/>
-      <c r="CF77" s="67"/>
+      <c r="BO77" s="67"/>
+      <c r="BY77" s="67"/>
+      <c r="CC77" s="31"/>
+      <c r="CD77" s="174"/>
+      <c r="CE77" s="146">
+        <v>3</v>
+      </c>
+      <c r="CF77" s="125"/>
       <c r="CG77" s="67"/>
       <c r="CH77" s="67"/>
       <c r="CI77" s="67"/>
-      <c r="CJ77" s="193">
-        <v>5</v>
-      </c>
+      <c r="CJ77" s="67"/>
       <c r="CM77" s="67"/>
       <c r="CQ77" s="6"/>
     </row>
     <row r="78" spans="1:108" ht="16" thickBot="1">
-      <c r="B78" t="s">
-        <v>174</v>
-      </c>
-      <c r="C78">
-        <v>3</v>
-      </c>
-      <c r="D78">
-        <v>3</v>
-      </c>
-      <c r="E78">
-        <v>3</v>
-      </c>
-      <c r="F78">
-        <v>3</v>
-      </c>
-      <c r="BH78" s="67"/>
+      <c r="BA78" s="67"/>
+      <c r="BD78" s="94"/>
       <c r="BK78" s="67"/>
       <c r="BL78" s="67"/>
       <c r="BM78" s="67"/>
       <c r="BN78" s="67"/>
-      <c r="BO78" s="75"/>
-      <c r="BP78" s="164"/>
-      <c r="BQ78" s="150"/>
+      <c r="BO78" s="67"/>
+      <c r="CD78" s="15"/>
+      <c r="CE78" s="15"/>
       <c r="CF78" s="67"/>
       <c r="CG78" s="67"/>
       <c r="CH78" s="67"/>
       <c r="CI78" s="67"/>
       <c r="CJ78" s="67"/>
-      <c r="CK78" s="193">
-        <v>3</v>
-      </c>
       <c r="CM78" s="67"/>
       <c r="CQ78" s="6"/>
+      <c r="CX78" s="134"/>
+      <c r="CY78" s="136"/>
+      <c r="CZ78" s="136"/>
+      <c r="DA78" s="134"/>
     </row>
     <row r="79" spans="1:108" ht="16" thickBot="1">
       <c r="B79" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BH79" s="67"/>
       <c r="BK79" s="67"/>
@@ -5389,28 +5609,24 @@
       <c r="BM79" s="67"/>
       <c r="BN79" s="67"/>
       <c r="BO79" s="67"/>
-      <c r="BP79" s="34"/>
-      <c r="BQ79" s="161"/>
-      <c r="BR79" s="146"/>
       <c r="CF79" s="67"/>
       <c r="CG79" s="67"/>
       <c r="CH79" s="67"/>
       <c r="CI79" s="67"/>
       <c r="CJ79" s="67"/>
-      <c r="CK79" s="193">
-        <v>2</v>
-      </c>
       <c r="CM79" s="67"/>
       <c r="CQ79" s="6"/>
+      <c r="CW79" s="31"/>
+      <c r="CX79" s="175"/>
+      <c r="CY79" s="180"/>
+      <c r="CZ79" s="146"/>
+      <c r="DA79" s="146"/>
+      <c r="DB79" s="179"/>
+      <c r="DD79" s="182">
+        <v>3</v>
+      </c>
     </row>
     <row r="80" spans="1:108">
-      <c r="BH80" s="67"/>
-      <c r="BK80" s="67"/>
-      <c r="BL80" s="67"/>
-      <c r="BM80" s="67"/>
-      <c r="BN80" s="67"/>
-      <c r="BO80" s="67"/>
-      <c r="BQ80" s="15"/>
       <c r="CF80" s="67"/>
       <c r="CG80" s="67"/>
       <c r="CH80" s="67"/>
@@ -5418,30 +5634,42 @@
       <c r="CJ80" s="67"/>
       <c r="CM80" s="67"/>
       <c r="CQ80" s="6"/>
-    </row>
-    <row r="81" spans="1:112" ht="16" thickBot="1">
+      <c r="CX80" s="14"/>
+      <c r="CY80" s="15"/>
+      <c r="CZ80" s="15"/>
+      <c r="DA80" s="14"/>
+    </row>
+    <row r="81" spans="1:111" ht="16" thickBot="1">
+      <c r="A81" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="B81" t="s">
-        <v>188</v>
-      </c>
-      <c r="BO81" s="67"/>
+        <v>102</v>
+      </c>
+      <c r="BH81" s="67"/>
+      <c r="BK81" s="67"/>
+      <c r="BL81" s="67"/>
+      <c r="BM81" s="67"/>
+      <c r="BN81" s="67"/>
+      <c r="BO81" s="126"/>
+      <c r="BR81" s="94"/>
       <c r="CF81" s="67"/>
       <c r="CG81" s="67"/>
       <c r="CH81" s="67"/>
       <c r="CI81" s="67"/>
-      <c r="CJ81" s="141"/>
-      <c r="CK81" s="151"/>
+      <c r="CJ81" s="67"/>
       <c r="CM81" s="67"/>
       <c r="CQ81" s="6"/>
     </row>
-    <row r="82" spans="1:112" ht="16" thickBot="1">
+    <row r="82" spans="1:111" ht="16" thickBot="1">
       <c r="B82" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
       <c r="D82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -5449,1446 +5677,2469 @@
       <c r="F82">
         <v>0</v>
       </c>
-      <c r="CF82" s="67"/>
+      <c r="BH82" s="67"/>
+      <c r="BK82" s="67"/>
+      <c r="BL82" s="67"/>
+      <c r="BM82" s="67"/>
+      <c r="BN82" s="75"/>
+      <c r="BO82" s="146"/>
+      <c r="BP82" s="135"/>
+      <c r="CC82" s="67"/>
+      <c r="CF82" s="178">
+        <v>2</v>
+      </c>
       <c r="CG82" s="67"/>
       <c r="CH82" s="67"/>
-      <c r="CI82" s="75"/>
-      <c r="CJ82" s="161"/>
-      <c r="CK82" s="161"/>
-      <c r="CL82" s="150"/>
+      <c r="CI82" s="67"/>
+      <c r="CJ82" s="67"/>
       <c r="CM82" s="67"/>
       <c r="CQ82" s="6"/>
-      <c r="DE82" s="193">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:112" ht="16" thickBot="1">
+    </row>
+    <row r="83" spans="1:111" ht="16" thickBot="1">
       <c r="B83" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>2</v>
-      </c>
-      <c r="CJ83" s="14"/>
-      <c r="CK83" s="34"/>
-      <c r="CL83" s="161"/>
-      <c r="CM83" s="140"/>
-      <c r="CQ83" s="157"/>
-      <c r="DF83" s="193">
-        <v>4</v>
-      </c>
-      <c r="DG83" s="193">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:112" ht="16" thickBot="1">
-      <c r="B84" t="s">
-        <v>183</v>
+        <v>1</v>
+      </c>
+      <c r="BH83" s="67"/>
+      <c r="BK83" s="67"/>
+      <c r="BL83" s="67"/>
+      <c r="BM83" s="67"/>
+      <c r="BN83" s="67"/>
+      <c r="BO83" s="145"/>
+      <c r="BP83" s="148"/>
+      <c r="BQ83" s="128"/>
+      <c r="CC83" s="67"/>
+      <c r="CF83" s="67"/>
+      <c r="CG83" s="67"/>
+      <c r="CH83" s="67"/>
+      <c r="CI83" s="67"/>
+      <c r="CJ83" s="178">
+        <v>1</v>
+      </c>
+      <c r="CM83" s="67"/>
+      <c r="CQ83" s="6"/>
+    </row>
+    <row r="84" spans="1:111" ht="31" thickBot="1">
+      <c r="B84" s="92" t="s">
+        <v>196</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="BH84" s="67"/>
+      <c r="BK84" s="67"/>
+      <c r="BL84" s="67"/>
+      <c r="BM84" s="67"/>
+      <c r="BN84" s="67"/>
+      <c r="BO84" s="145"/>
+      <c r="BP84" s="148"/>
+      <c r="BQ84" s="128"/>
+      <c r="CC84" s="67"/>
+      <c r="CF84" s="67"/>
+      <c r="CG84" s="67"/>
+      <c r="CH84" s="67"/>
+      <c r="CI84" s="67"/>
+      <c r="CJ84" s="178">
+        <v>2</v>
+      </c>
+      <c r="CM84" s="67"/>
+      <c r="CQ84" s="6"/>
+    </row>
+    <row r="85" spans="1:111">
+      <c r="B85" t="s">
+        <v>194</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85">
         <v>0</v>
-      </c>
-      <c r="E84">
-        <v>3</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="CL84" s="15"/>
-      <c r="CM84" s="67"/>
-      <c r="CP84" s="31"/>
-      <c r="CQ84" s="161"/>
-      <c r="CR84" s="143"/>
-    </row>
-    <row r="85" spans="1:112" ht="16" thickBot="1">
-      <c r="B85" t="s">
-        <v>184</v>
-      </c>
-      <c r="C85">
-        <v>3</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>3</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
+      <c r="BH85" s="67"/>
+      <c r="BK85" s="67"/>
+      <c r="BL85" s="67"/>
+      <c r="BM85" s="67"/>
+      <c r="BN85" s="67"/>
+      <c r="BO85" s="145"/>
+      <c r="BP85" s="148"/>
+      <c r="BQ85" s="128"/>
+      <c r="CC85" s="67"/>
+      <c r="CF85" s="67"/>
+      <c r="CG85" s="67"/>
+      <c r="CH85" s="67"/>
+      <c r="CI85" s="67"/>
+      <c r="CJ85" s="178">
+        <v>2</v>
+      </c>
       <c r="CM85" s="67"/>
-      <c r="CP85" s="31"/>
-      <c r="CQ85" s="161"/>
-      <c r="CR85" s="143"/>
-    </row>
-    <row r="86" spans="1:112" ht="16" thickBot="1">
+      <c r="CQ85" s="6"/>
+    </row>
+    <row r="86" spans="1:111" ht="31" thickBot="1">
+      <c r="B86" s="92" t="s">
+        <v>197</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="BH86" s="67"/>
+      <c r="BK86" s="67"/>
+      <c r="BL86" s="67"/>
+      <c r="BM86" s="67"/>
+      <c r="BN86" s="67"/>
+      <c r="BO86" s="75"/>
+      <c r="BP86" s="149"/>
+      <c r="BQ86" s="135"/>
+      <c r="CF86" s="67"/>
+      <c r="CG86" s="67"/>
+      <c r="CH86" s="67"/>
+      <c r="CI86" s="67"/>
+      <c r="CJ86" s="67"/>
+      <c r="CK86" s="178">
+        <v>1</v>
+      </c>
       <c r="CM86" s="67"/>
-      <c r="CQ86" s="18"/>
-      <c r="CZ86" s="151"/>
-      <c r="DE86" s="149"/>
-    </row>
-    <row r="87" spans="1:112" ht="31" thickBot="1">
-      <c r="B87" s="107" t="s">
-        <v>185</v>
+      <c r="CQ86" s="6"/>
+    </row>
+    <row r="87" spans="1:111" ht="16" thickBot="1">
+      <c r="B87" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="BH87" s="67"/>
+      <c r="BK87" s="67"/>
+      <c r="BL87" s="67"/>
+      <c r="BM87" s="67"/>
+      <c r="BN87" s="67"/>
+      <c r="BO87" s="75"/>
+      <c r="BP87" s="149"/>
+      <c r="BQ87" s="135"/>
+      <c r="CF87" s="67"/>
+      <c r="CG87" s="67"/>
+      <c r="CH87" s="67"/>
+      <c r="CI87" s="67"/>
+      <c r="CJ87" s="67"/>
+      <c r="CK87" s="178">
+        <v>2</v>
       </c>
       <c r="CM87" s="67"/>
       <c r="CQ87" s="6"/>
-      <c r="CY87" s="35"/>
-      <c r="CZ87" s="195"/>
-      <c r="DA87" s="145"/>
-      <c r="DD87" s="31"/>
-      <c r="DE87" s="161"/>
-      <c r="DF87" s="150"/>
-      <c r="DG87" s="151"/>
-    </row>
-    <row r="88" spans="1:112" ht="16" thickBot="1">
-      <c r="B88" s="107" t="s">
-        <v>187</v>
+    </row>
+    <row r="88" spans="1:111" ht="16" thickBot="1">
+      <c r="B88" t="s">
+        <v>163</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+      <c r="BH88" s="67"/>
+      <c r="BK88" s="67"/>
+      <c r="BL88" s="67"/>
+      <c r="BM88" s="67"/>
+      <c r="BN88" s="67"/>
+      <c r="BO88" s="67"/>
+      <c r="BP88" s="34"/>
+      <c r="BQ88" s="146"/>
+      <c r="BR88" s="131"/>
+      <c r="CF88" s="67"/>
+      <c r="CG88" s="67"/>
+      <c r="CH88" s="67"/>
+      <c r="CI88" s="67"/>
+      <c r="CJ88" s="67"/>
+      <c r="CK88" s="178">
+        <v>2</v>
       </c>
       <c r="CM88" s="67"/>
       <c r="CQ88" s="6"/>
-      <c r="CZ88" s="15"/>
-      <c r="DD88" s="31"/>
-      <c r="DE88" s="189"/>
-      <c r="DF88" s="161"/>
-      <c r="DG88" s="161"/>
-      <c r="DH88" s="145"/>
-    </row>
-    <row r="89" spans="1:112">
+    </row>
+    <row r="89" spans="1:111">
+      <c r="BH89" s="67"/>
+      <c r="BK89" s="67"/>
+      <c r="BL89" s="67"/>
+      <c r="BM89" s="67"/>
+      <c r="BN89" s="67"/>
+      <c r="BO89" s="67"/>
+      <c r="BQ89" s="15"/>
+      <c r="CF89" s="67"/>
+      <c r="CG89" s="67"/>
+      <c r="CH89" s="67"/>
+      <c r="CI89" s="67"/>
+      <c r="CJ89" s="67"/>
       <c r="CM89" s="67"/>
       <c r="CQ89" s="6"/>
-      <c r="DE89" s="14"/>
-      <c r="DF89" s="15"/>
-      <c r="DG89" s="15"/>
-    </row>
-    <row r="90" spans="1:112">
+    </row>
+    <row r="90" spans="1:111" ht="16" thickBot="1">
+      <c r="B90" t="s">
+        <v>171</v>
+      </c>
+      <c r="BO90" s="67"/>
+      <c r="CF90" s="67"/>
+      <c r="CG90" s="67"/>
+      <c r="CH90" s="67"/>
+      <c r="CI90" s="67"/>
+      <c r="CJ90" s="126"/>
+      <c r="CK90" s="136"/>
       <c r="CM90" s="67"/>
       <c r="CQ90" s="6"/>
     </row>
-    <row r="91" spans="1:112">
-      <c r="A91" s="120" t="s">
-        <v>88</v>
-      </c>
-      <c r="B91" s="121" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR91" s="12"/>
-      <c r="AS91" s="32"/>
-      <c r="AT91" s="54"/>
-      <c r="AU91" s="12"/>
-      <c r="AV91" s="12"/>
-      <c r="AW91" s="12"/>
-      <c r="AX91" s="12"/>
-      <c r="AY91" s="12"/>
-      <c r="AZ91" s="12"/>
-      <c r="BA91" s="12"/>
-      <c r="BB91" s="12"/>
-      <c r="BC91" s="12"/>
-      <c r="BD91" s="13"/>
-      <c r="BE91" s="12"/>
-      <c r="BF91" s="12"/>
-      <c r="BG91" s="12"/>
-      <c r="BH91" s="12"/>
-      <c r="BI91" s="12"/>
-      <c r="BJ91" s="12"/>
-      <c r="BK91" s="12"/>
-      <c r="BL91" s="12"/>
-      <c r="BM91" s="12"/>
-      <c r="BN91" s="12"/>
-      <c r="BO91" s="12"/>
-      <c r="BP91" s="12"/>
-      <c r="BQ91" s="12"/>
+    <row r="91" spans="1:111" ht="16" thickBot="1">
+      <c r="B91" t="s">
+        <v>199</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="CF91" s="67"/>
+      <c r="CG91" s="67"/>
+      <c r="CH91" s="67"/>
+      <c r="CI91" s="75"/>
+      <c r="CJ91" s="146"/>
+      <c r="CK91" s="146"/>
+      <c r="CL91" s="135"/>
       <c r="CM91" s="67"/>
       <c r="CQ91" s="6"/>
-    </row>
-    <row r="92" spans="1:112">
-      <c r="A92" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B92" t="s">
-        <v>103</v>
-      </c>
-      <c r="C92">
-        <v>8</v>
-      </c>
-      <c r="E92">
-        <v>8</v>
-      </c>
-      <c r="F92">
-        <v>8</v>
-      </c>
-      <c r="AQ92" s="67"/>
-      <c r="AT92" s="70"/>
-      <c r="AU92" s="69"/>
-      <c r="AV92" s="69"/>
-      <c r="AW92" s="67"/>
-      <c r="CM92" s="67"/>
-      <c r="CQ92" s="6"/>
-    </row>
-    <row r="93" spans="1:112">
+      <c r="DE91" s="178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:111" ht="16" thickBot="1">
+      <c r="CF92" s="67"/>
+      <c r="CG92" s="67"/>
+      <c r="CH92" s="67"/>
+      <c r="CI92" s="75"/>
+      <c r="CJ92" s="204"/>
+      <c r="CK92" s="204"/>
+      <c r="CL92" s="180"/>
+      <c r="CM92" s="125"/>
+      <c r="CQ92" s="142"/>
+      <c r="DE92" s="178"/>
+    </row>
+    <row r="93" spans="1:111" ht="16" thickBot="1">
       <c r="B93" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ93" s="67"/>
-      <c r="AT93" s="54"/>
-      <c r="AU93" s="12"/>
-      <c r="AV93" s="12"/>
-      <c r="AW93" s="12"/>
-      <c r="BD93" s="83"/>
-      <c r="BK93" s="67"/>
-      <c r="CM93" s="67"/>
-      <c r="CQ93" s="6"/>
-    </row>
-    <row r="94" spans="1:112">
-      <c r="A94" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="CJ93" s="14"/>
+      <c r="CK93" s="34"/>
+      <c r="CL93" s="146"/>
+      <c r="CM93" s="125"/>
+      <c r="CQ93" s="142"/>
+      <c r="DF93" s="178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:111" ht="16" thickBot="1">
       <c r="B94" t="s">
-        <v>104</v>
+        <v>201</v>
       </c>
       <c r="C94">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
       </c>
       <c r="E94">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>14</v>
-      </c>
-      <c r="AV94" s="12"/>
-      <c r="AW94" s="12"/>
-      <c r="AX94" s="12"/>
-      <c r="BA94" s="12"/>
-      <c r="CM94" s="67"/>
-      <c r="CQ94" s="6"/>
-    </row>
-    <row r="95" spans="1:112">
-      <c r="A95" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="CJ94" s="14"/>
+      <c r="CK94" s="34"/>
+      <c r="CL94" s="146"/>
+      <c r="CM94" s="125"/>
+      <c r="CQ94" s="142"/>
+      <c r="DF94" s="178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:111" ht="16" thickBot="1">
       <c r="B95" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="C95">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
       </c>
       <c r="E95">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>14</v>
-      </c>
-      <c r="BA95" s="12"/>
-      <c r="BB95" s="12"/>
-      <c r="BC95" s="12"/>
-      <c r="BD95" s="13"/>
-      <c r="CM95" s="67"/>
-      <c r="CQ95" s="6"/>
-    </row>
-    <row r="96" spans="1:112">
-      <c r="A96" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="CJ95" s="14"/>
+      <c r="CK95" s="34"/>
+      <c r="CL95" s="146"/>
+      <c r="CM95" s="125"/>
+      <c r="CQ95" s="142"/>
+      <c r="DF95" s="178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:111" ht="16" thickBot="1">
       <c r="B96" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="C96">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
       </c>
       <c r="E96">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>14</v>
-      </c>
-      <c r="BA96" s="67"/>
-      <c r="BD96" s="13"/>
-      <c r="BG96" s="67"/>
-      <c r="BH96" s="12"/>
-      <c r="BI96" s="12"/>
-      <c r="BJ96" s="12"/>
-      <c r="CM96" s="67"/>
-      <c r="CQ96" s="6"/>
-    </row>
-    <row r="97" spans="1:125">
-      <c r="A97" s="1" t="s">
-        <v>106</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="CJ96" s="14"/>
+      <c r="CK96" s="34"/>
+      <c r="CL96" s="146"/>
+      <c r="CM96" s="125"/>
+      <c r="CQ96" s="142"/>
+      <c r="DG96" s="178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:112" ht="16" thickBot="1">
       <c r="B97" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="C97">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F97">
-        <v>14</v>
-      </c>
-      <c r="BI97" s="12"/>
-      <c r="BJ97" s="12"/>
-      <c r="BK97" s="12"/>
-      <c r="BO97" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="CL97" s="15"/>
       <c r="CM97" s="67"/>
-      <c r="CQ97" s="6"/>
-    </row>
-    <row r="98" spans="1:125">
-      <c r="A98" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B98" t="s">
-        <v>87</v>
-      </c>
-      <c r="C98">
+      <c r="CP97" s="31"/>
+      <c r="CQ97" s="146"/>
+      <c r="CR97" s="128"/>
+    </row>
+    <row r="98" spans="1:112" ht="16" thickBot="1">
+      <c r="CL98" s="15"/>
+      <c r="CM98" s="67"/>
+      <c r="CP98" s="31"/>
+      <c r="CQ98" s="146"/>
+      <c r="CR98" s="128"/>
+    </row>
+    <row r="99" spans="1:112" ht="16" thickBot="1">
+      <c r="B99" t="s">
+        <v>167</v>
+      </c>
+      <c r="C99">
         <v>3</v>
       </c>
-      <c r="E98">
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
         <v>3</v>
       </c>
-      <c r="BO98" s="12"/>
-      <c r="BP98" s="12"/>
-      <c r="CM98" s="67"/>
-      <c r="CQ98" s="6"/>
-    </row>
-    <row r="99" spans="1:125">
-      <c r="AT99" s="70"/>
+      <c r="F99">
+        <v>0</v>
+      </c>
       <c r="CM99" s="67"/>
-      <c r="CQ99" s="6"/>
-      <c r="DM99" s="85"/>
-      <c r="DN99" s="85"/>
-      <c r="DO99" s="85"/>
-      <c r="DP99" s="85"/>
-      <c r="DQ99" s="85"/>
-      <c r="DR99" s="85"/>
-      <c r="DS99" s="85"/>
-      <c r="DT99" s="85"/>
-      <c r="DU99" s="85"/>
-    </row>
-    <row r="100" spans="1:125">
+      <c r="CP99" s="31"/>
+      <c r="CQ99" s="146"/>
+      <c r="CR99" s="128"/>
+    </row>
+    <row r="100" spans="1:112" ht="16" thickBot="1">
       <c r="CM100" s="67"/>
-      <c r="CQ100" s="6"/>
-    </row>
-    <row r="101" spans="1:125">
-      <c r="A101" s="116" t="s">
-        <v>90</v>
-      </c>
-      <c r="B101" s="117" t="s">
-        <v>40</v>
-      </c>
-      <c r="C101">
-        <v>60</v>
-      </c>
-      <c r="E101">
-        <v>110</v>
-      </c>
-      <c r="BM101" s="67"/>
-      <c r="BN101" s="67"/>
-      <c r="BO101" s="85"/>
-      <c r="BP101" s="85"/>
-      <c r="BQ101" s="85"/>
-      <c r="BR101" s="85"/>
-      <c r="BS101" s="85"/>
-      <c r="BT101" s="85"/>
-      <c r="BU101" s="85"/>
-      <c r="BV101" s="85"/>
-      <c r="BW101" s="86"/>
-      <c r="BX101" s="87"/>
-      <c r="BY101" s="85"/>
-      <c r="BZ101" s="85"/>
-      <c r="CA101" s="85"/>
-      <c r="CB101" s="85"/>
-      <c r="CC101" s="85"/>
-      <c r="CD101" s="85"/>
-      <c r="CE101" s="85"/>
-      <c r="CF101" s="85"/>
-      <c r="CG101" s="85"/>
-      <c r="CH101" s="85"/>
-      <c r="CI101" s="85"/>
-      <c r="CJ101" s="85"/>
-      <c r="CK101" s="85"/>
-      <c r="CL101" s="85"/>
-      <c r="CM101" s="85"/>
-      <c r="CN101" s="85"/>
-      <c r="CO101" s="85"/>
-      <c r="CP101" s="85"/>
-      <c r="CQ101" s="85"/>
-      <c r="CR101" s="85"/>
-      <c r="CS101" s="85"/>
-      <c r="CT101" s="85"/>
-      <c r="CU101" s="85"/>
-      <c r="CV101" s="85"/>
-      <c r="CW101" s="85"/>
-      <c r="CX101" s="85"/>
-      <c r="CY101" s="85"/>
-      <c r="CZ101" s="85"/>
-      <c r="DA101" s="85"/>
-      <c r="DB101" s="86"/>
-      <c r="DC101" s="87"/>
-      <c r="DD101" s="85"/>
-      <c r="DE101" s="85"/>
-      <c r="DF101" s="85"/>
-      <c r="DG101" s="85"/>
-      <c r="DH101" s="85"/>
-      <c r="DI101" s="85"/>
-      <c r="DJ101" s="85"/>
-      <c r="DK101" s="85"/>
-      <c r="DL101" s="85"/>
-    </row>
-    <row r="102" spans="1:125">
-      <c r="A102" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BO102" s="85"/>
-      <c r="BP102" s="85"/>
-      <c r="BQ102" s="85"/>
-      <c r="BR102" s="85"/>
-      <c r="BS102" s="67"/>
+      <c r="CQ100" s="18"/>
+      <c r="CZ100" s="136"/>
+      <c r="DE100" s="134"/>
+    </row>
+    <row r="101" spans="1:112" ht="31" thickBot="1">
+      <c r="B101" s="92" t="s">
+        <v>168</v>
+      </c>
+      <c r="CM101" s="67"/>
+      <c r="CQ101" s="6"/>
+      <c r="CY101" s="35"/>
+      <c r="CZ101" s="180"/>
+      <c r="DA101" s="130"/>
+      <c r="DD101" s="31"/>
+      <c r="DE101" s="146"/>
+      <c r="DF101" s="135"/>
+      <c r="DG101" s="136"/>
+    </row>
+    <row r="102" spans="1:112" ht="16" thickBot="1">
+      <c r="B102" s="92" t="s">
+        <v>170</v>
+      </c>
       <c r="CM102" s="67"/>
       <c r="CQ102" s="6"/>
-    </row>
-    <row r="103" spans="1:125">
-      <c r="A103" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BU103" s="85"/>
-      <c r="BV103" s="85"/>
-      <c r="BW103" s="86"/>
-      <c r="BX103" s="87"/>
-      <c r="BY103" s="85"/>
+      <c r="CZ102" s="15"/>
+      <c r="DD102" s="31"/>
+      <c r="DE102" s="174"/>
+      <c r="DF102" s="146"/>
+      <c r="DG102" s="146"/>
+      <c r="DH102" s="130"/>
+    </row>
+    <row r="103" spans="1:112">
       <c r="CM103" s="67"/>
       <c r="CQ103" s="6"/>
-    </row>
-    <row r="104" spans="1:125">
-      <c r="A104" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CB104" s="85"/>
-      <c r="CC104" s="85"/>
-      <c r="CD104" s="85"/>
-      <c r="CE104" s="85"/>
-      <c r="CF104" s="85"/>
+      <c r="DE103" s="14"/>
+      <c r="DF103" s="15"/>
+      <c r="DG103" s="15"/>
+    </row>
+    <row r="104" spans="1:112">
       <c r="CM104" s="67"/>
       <c r="CQ104" s="6"/>
     </row>
-    <row r="105" spans="1:125" ht="36" customHeight="1">
-      <c r="A105" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CI105" s="85"/>
-      <c r="CJ105" s="85"/>
-      <c r="CK105" s="85"/>
-      <c r="CL105" s="85"/>
-      <c r="CM105" s="85"/>
+    <row r="105" spans="1:112">
+      <c r="A105" s="105" t="s">
+        <v>88</v>
+      </c>
+      <c r="B105" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR105" s="12"/>
+      <c r="AS105" s="32"/>
+      <c r="AT105" s="54"/>
+      <c r="AU105" s="12"/>
+      <c r="AV105" s="12"/>
+      <c r="AW105" s="12"/>
+      <c r="AX105" s="12"/>
+      <c r="AY105" s="12"/>
+      <c r="AZ105" s="12"/>
+      <c r="BA105" s="12"/>
+      <c r="BB105" s="12"/>
+      <c r="BC105" s="12"/>
+      <c r="BD105" s="13"/>
+      <c r="BE105" s="12"/>
+      <c r="BF105" s="12"/>
+      <c r="BG105" s="12"/>
+      <c r="BH105" s="12"/>
+      <c r="BI105" s="12"/>
+      <c r="BJ105" s="12"/>
+      <c r="BK105" s="12"/>
+      <c r="BL105" s="12"/>
+      <c r="BM105" s="12"/>
+      <c r="BN105" s="12"/>
+      <c r="BO105" s="12"/>
+      <c r="BP105" s="12"/>
+      <c r="BQ105" s="12"/>
+      <c r="CM105" s="67"/>
       <c r="CQ105" s="6"/>
     </row>
-    <row r="106" spans="1:125" ht="36" customHeight="1">
+    <row r="106" spans="1:112">
       <c r="A106" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B106" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C106">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E106">
-        <v>30</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F106">
+        <v>8</v>
+      </c>
+      <c r="AQ106" s="67"/>
+      <c r="AT106" s="70"/>
+      <c r="AU106" s="69"/>
+      <c r="AV106" s="69"/>
+      <c r="AW106" s="67"/>
       <c r="CM106" s="67"/>
       <c r="CQ106" s="6"/>
     </row>
-    <row r="107" spans="1:125">
+    <row r="107" spans="1:112">
+      <c r="B107" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ107" s="67"/>
+      <c r="AT107" s="54"/>
+      <c r="AU107" s="12"/>
+      <c r="AV107" s="12"/>
+      <c r="AW107" s="12"/>
+      <c r="BD107" s="83"/>
+      <c r="BK107" s="67"/>
       <c r="CM107" s="67"/>
-      <c r="CQ107" s="109"/>
-    </row>
-    <row r="108" spans="1:125" ht="34" customHeight="1">
+      <c r="CQ107" s="6"/>
+    </row>
+    <row r="108" spans="1:112">
+      <c r="A108" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B108" t="s">
+        <v>104</v>
+      </c>
+      <c r="C108">
+        <v>6</v>
+      </c>
+      <c r="E108">
+        <v>10</v>
+      </c>
+      <c r="F108">
+        <v>14</v>
+      </c>
+      <c r="AV108" s="12"/>
+      <c r="AW108" s="12"/>
+      <c r="AX108" s="12"/>
+      <c r="BA108" s="12"/>
       <c r="CM108" s="67"/>
       <c r="CQ108" s="6"/>
     </row>
-    <row r="109" spans="1:125" ht="21" customHeight="1" thickBot="1">
-      <c r="A109" s="118" t="s">
-        <v>96</v>
-      </c>
-      <c r="B109" s="119" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ109" s="67"/>
-      <c r="AR109" s="67"/>
-      <c r="AS109" s="75"/>
-      <c r="AT109" s="70"/>
-      <c r="AW109" s="167"/>
-      <c r="AX109" s="61"/>
-      <c r="AY109" s="61"/>
-      <c r="AZ109" s="61"/>
-      <c r="BA109" s="61"/>
-      <c r="BB109" s="61"/>
-      <c r="BC109" s="151"/>
-      <c r="BD109" s="64"/>
-      <c r="BE109" s="61"/>
-      <c r="BF109" s="61"/>
-      <c r="BG109" s="61"/>
-      <c r="BH109" s="61"/>
-      <c r="BI109" s="61"/>
-      <c r="BJ109" s="61"/>
-      <c r="BK109" s="61"/>
-      <c r="BL109" s="61"/>
-      <c r="BM109" s="61"/>
-      <c r="BN109" s="61"/>
-      <c r="BO109" s="61"/>
-      <c r="BP109" s="61"/>
-      <c r="BQ109" s="61"/>
-      <c r="BR109" s="61"/>
-      <c r="BS109" s="61"/>
-      <c r="BT109" s="61"/>
-      <c r="BU109" s="61"/>
-      <c r="BV109" s="61"/>
-      <c r="BW109" s="62"/>
-      <c r="BX109" s="63"/>
-      <c r="BY109" s="61"/>
-      <c r="BZ109" s="61"/>
-      <c r="CA109" s="61"/>
-      <c r="CB109" s="61"/>
-      <c r="CC109" s="61"/>
-      <c r="CD109" s="61"/>
-      <c r="CE109" s="61"/>
-      <c r="CF109" s="61"/>
-      <c r="CG109" s="61"/>
-      <c r="CH109" s="61"/>
-      <c r="CI109" s="61"/>
-      <c r="CJ109" s="61"/>
-      <c r="CK109" s="61"/>
-      <c r="CL109" s="61"/>
-      <c r="CM109" s="61"/>
-      <c r="CN109" s="61"/>
-      <c r="CO109" s="61"/>
-      <c r="CP109" s="61"/>
-      <c r="CQ109" s="61"/>
-      <c r="CR109" s="61"/>
-      <c r="CS109" s="61"/>
-      <c r="CT109" s="61"/>
-      <c r="CU109" s="61"/>
-      <c r="CV109" s="61"/>
-      <c r="CW109" s="61"/>
-      <c r="CX109" s="61"/>
-      <c r="CY109" s="61"/>
-      <c r="CZ109" s="61"/>
-      <c r="DA109" s="61"/>
-      <c r="DB109" s="62"/>
-      <c r="DC109" s="63"/>
-      <c r="DD109" s="61"/>
-      <c r="DE109" s="61"/>
-      <c r="DF109" s="61"/>
-      <c r="DG109" s="61"/>
-      <c r="DH109" s="61"/>
-      <c r="DI109" s="61"/>
-      <c r="DJ109" s="61"/>
-      <c r="DK109" s="61"/>
-      <c r="DL109" s="61"/>
-    </row>
-    <row r="110" spans="1:125" ht="21" customHeight="1" thickBot="1">
-      <c r="A110" s="131" t="s">
-        <v>97</v>
-      </c>
-      <c r="B110" s="74" t="s">
-        <v>117</v>
+    <row r="109" spans="1:112">
+      <c r="A109" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B109" t="s">
+        <v>105</v>
+      </c>
+      <c r="C109">
+        <v>6</v>
+      </c>
+      <c r="E109">
+        <v>10</v>
+      </c>
+      <c r="F109">
+        <v>14</v>
+      </c>
+      <c r="BA109" s="12"/>
+      <c r="BB109" s="12"/>
+      <c r="BC109" s="12"/>
+      <c r="BD109" s="13"/>
+      <c r="CM109" s="67"/>
+      <c r="CQ109" s="6"/>
+    </row>
+    <row r="110" spans="1:112">
+      <c r="A110" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B110" t="s">
+        <v>107</v>
       </c>
       <c r="C110">
-        <v>2</v>
-      </c>
-      <c r="D110">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="AR110" s="67"/>
-      <c r="AS110" s="75"/>
-      <c r="AT110" s="70"/>
-      <c r="AV110" s="35"/>
-      <c r="AW110" s="176">
-        <v>2</v>
-      </c>
-      <c r="AX110" s="140"/>
-      <c r="AY110" s="67"/>
-      <c r="AZ110" s="67"/>
-      <c r="BA110" s="68">
-        <v>2</v>
-      </c>
-      <c r="BB110" s="35"/>
-      <c r="BC110" s="176"/>
-      <c r="BD110" s="152"/>
-      <c r="BE110" s="67"/>
-      <c r="BF110" s="67"/>
+        <v>14</v>
+      </c>
+      <c r="BA110" s="67"/>
+      <c r="BD110" s="13"/>
       <c r="BG110" s="67"/>
-      <c r="BH110" s="67"/>
-      <c r="BK110" s="141"/>
-      <c r="BL110" s="67"/>
-      <c r="BM110" s="67"/>
-      <c r="BN110" s="67"/>
-      <c r="BO110" s="67"/>
-      <c r="BR110" s="157"/>
-      <c r="BS110" s="67"/>
-      <c r="BT110" s="67"/>
-      <c r="BU110" s="67"/>
-      <c r="BV110" s="67"/>
-      <c r="BY110" s="141"/>
-      <c r="BZ110" s="67"/>
-      <c r="CA110" s="67"/>
-      <c r="CB110" s="67"/>
-      <c r="CC110" s="67"/>
-      <c r="CF110" s="141"/>
-      <c r="CG110" s="67"/>
-      <c r="CH110" s="67"/>
-      <c r="CI110" s="67"/>
-      <c r="CJ110" s="67"/>
-      <c r="CM110" s="141"/>
-      <c r="CN110" s="67"/>
-      <c r="CO110" s="67"/>
-      <c r="CP110" s="67"/>
+      <c r="BH110" s="12"/>
+      <c r="BI110" s="12"/>
+      <c r="BJ110" s="12"/>
+      <c r="CM110" s="67"/>
       <c r="CQ110" s="6"/>
-      <c r="CT110" s="67"/>
-      <c r="CU110" s="67"/>
-      <c r="CV110" s="67"/>
-      <c r="CW110" s="67"/>
-      <c r="CX110" s="67"/>
-      <c r="CY110" s="151"/>
-      <c r="DA110" s="67"/>
-      <c r="DB110" s="75"/>
-      <c r="DC110" s="70"/>
-      <c r="DD110" s="67"/>
-      <c r="DE110" s="67"/>
-      <c r="DH110" s="141"/>
-      <c r="DI110" s="67"/>
-      <c r="DJ110" s="67"/>
-      <c r="DK110" s="67"/>
-      <c r="DL110" s="141"/>
-    </row>
-    <row r="111" spans="1:125" ht="16" thickBot="1">
+    </row>
+    <row r="111" spans="1:112">
       <c r="A111" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B111" s="107" t="s">
-        <v>137</v>
+        <v>106</v>
+      </c>
+      <c r="B111" t="s">
+        <v>108</v>
       </c>
       <c r="C111">
-        <v>10</v>
-      </c>
-      <c r="D111">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E111">
         <v>10</v>
       </c>
-      <c r="AW111" s="14"/>
-      <c r="BC111" s="34"/>
-      <c r="BD111" s="177">
-        <v>1</v>
-      </c>
-      <c r="BE111" s="145"/>
-      <c r="BH111" s="67"/>
-      <c r="BJ111" s="35"/>
-      <c r="BK111" s="176">
-        <v>2</v>
-      </c>
-      <c r="BL111" s="145"/>
-      <c r="BO111" s="67"/>
-      <c r="BP111" s="68">
-        <v>1</v>
-      </c>
-      <c r="BQ111" s="35"/>
-      <c r="BR111" s="176"/>
-      <c r="BS111" s="140"/>
-      <c r="BV111" s="67"/>
-      <c r="BX111" s="142"/>
-      <c r="BY111" s="176">
-        <v>2</v>
-      </c>
-      <c r="BZ111" s="145"/>
-      <c r="CC111" s="67"/>
-      <c r="CE111" s="35"/>
-      <c r="CF111" s="176">
-        <v>1</v>
-      </c>
-      <c r="CG111" s="145"/>
-      <c r="CJ111" s="67"/>
-      <c r="CL111" s="35"/>
-      <c r="CM111" s="176">
-        <v>1</v>
-      </c>
-      <c r="CN111" s="145"/>
-      <c r="CP111" s="67"/>
+      <c r="F111">
+        <v>14</v>
+      </c>
+      <c r="BI111" s="12"/>
+      <c r="BJ111" s="12"/>
+      <c r="BK111" s="12"/>
+      <c r="BO111" s="12"/>
+      <c r="CM111" s="67"/>
       <c r="CQ111" s="6"/>
-      <c r="CT111" s="67"/>
-      <c r="CU111" s="67"/>
-      <c r="CV111" s="67"/>
-      <c r="CW111" s="67"/>
-      <c r="CX111" s="75"/>
-      <c r="CY111" s="176"/>
-      <c r="CZ111" s="143"/>
-      <c r="DA111" s="67"/>
-      <c r="DD111" s="67"/>
-      <c r="DE111" s="67"/>
-      <c r="DG111" s="35"/>
-      <c r="DH111" s="176">
-        <v>1</v>
-      </c>
-      <c r="DI111" s="140"/>
-      <c r="DJ111" s="67"/>
-      <c r="DK111" s="75"/>
-      <c r="DL111" s="176"/>
-      <c r="DM111" s="143"/>
-    </row>
-    <row r="112" spans="1:125">
-      <c r="B112" s="107" t="s">
-        <v>146</v>
+    </row>
+    <row r="112" spans="1:112">
+      <c r="A112" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B112" t="s">
+        <v>87</v>
       </c>
       <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+      <c r="BO112" s="12"/>
+      <c r="BP112" s="12"/>
+      <c r="CM112" s="67"/>
+      <c r="CQ112" s="6"/>
+    </row>
+    <row r="113" spans="1:138">
+      <c r="AT113" s="70"/>
+      <c r="CM113" s="67"/>
+      <c r="CQ113" s="6"/>
+    </row>
+    <row r="114" spans="1:138">
+      <c r="CM114" s="67"/>
+      <c r="CQ114" s="6"/>
+    </row>
+    <row r="115" spans="1:138">
+      <c r="A115" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="B115" s="102" t="s">
+        <v>40</v>
+      </c>
+      <c r="C115">
+        <v>60</v>
+      </c>
+      <c r="E115">
+        <v>110</v>
+      </c>
+      <c r="BM115" s="67"/>
+      <c r="BN115" s="67"/>
+      <c r="BO115" s="85"/>
+      <c r="BP115" s="85"/>
+      <c r="BQ115" s="85"/>
+      <c r="BR115" s="85"/>
+      <c r="BS115" s="85"/>
+      <c r="BT115" s="85"/>
+      <c r="BU115" s="85"/>
+      <c r="BV115" s="85"/>
+      <c r="BW115" s="86"/>
+      <c r="BX115" s="87"/>
+      <c r="BY115" s="85"/>
+      <c r="BZ115" s="85"/>
+      <c r="CA115" s="85"/>
+      <c r="CB115" s="85"/>
+      <c r="CC115" s="85"/>
+      <c r="CD115" s="85"/>
+      <c r="CE115" s="85"/>
+      <c r="CF115" s="85"/>
+      <c r="CG115" s="85"/>
+      <c r="CH115" s="85"/>
+      <c r="CI115" s="85"/>
+      <c r="CJ115" s="85"/>
+      <c r="CK115" s="85"/>
+      <c r="CL115" s="85"/>
+      <c r="CM115" s="85"/>
+      <c r="CN115" s="85"/>
+      <c r="CO115" s="85"/>
+      <c r="CP115" s="85"/>
+      <c r="CQ115" s="85"/>
+      <c r="CR115" s="85"/>
+      <c r="CS115" s="85"/>
+      <c r="CT115" s="85"/>
+      <c r="CU115" s="85"/>
+      <c r="CV115" s="85"/>
+      <c r="CW115" s="85"/>
+      <c r="CX115" s="85"/>
+      <c r="CY115" s="85"/>
+      <c r="CZ115" s="85"/>
+      <c r="DA115" s="85"/>
+      <c r="DB115" s="86"/>
+      <c r="DC115" s="87"/>
+      <c r="DD115" s="85"/>
+      <c r="DE115" s="85"/>
+      <c r="DF115" s="85"/>
+      <c r="DG115" s="85"/>
+      <c r="DH115" s="85"/>
+      <c r="DI115" s="85"/>
+      <c r="DJ115" s="85"/>
+      <c r="DK115" s="85"/>
+      <c r="DL115" s="85"/>
+      <c r="DM115" s="85"/>
+      <c r="DN115" s="85"/>
+      <c r="DO115" s="85"/>
+      <c r="DP115" s="85"/>
+      <c r="DQ115" s="85"/>
+      <c r="DR115" s="85"/>
+      <c r="DS115" s="85"/>
+      <c r="DT115" s="85"/>
+      <c r="DU115" s="85"/>
+    </row>
+    <row r="116" spans="1:138">
+      <c r="A116" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BO116" s="85"/>
+      <c r="BP116" s="85"/>
+      <c r="BQ116" s="85"/>
+      <c r="BR116" s="85"/>
+      <c r="BS116" s="67"/>
+      <c r="CM116" s="67"/>
+      <c r="CQ116" s="6"/>
+    </row>
+    <row r="117" spans="1:138">
+      <c r="A117" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BU117" s="85"/>
+      <c r="BV117" s="85"/>
+      <c r="BW117" s="86"/>
+      <c r="BX117" s="87"/>
+      <c r="BY117" s="85"/>
+      <c r="CM117" s="67"/>
+      <c r="CQ117" s="6"/>
+    </row>
+    <row r="118" spans="1:138">
+      <c r="A118" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CB118" s="85"/>
+      <c r="CC118" s="85"/>
+      <c r="CD118" s="85"/>
+      <c r="CE118" s="85"/>
+      <c r="CF118" s="85"/>
+      <c r="CM118" s="67"/>
+      <c r="CQ118" s="6"/>
+    </row>
+    <row r="119" spans="1:138" ht="36" customHeight="1">
+      <c r="A119" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CI119" s="85"/>
+      <c r="CJ119" s="85"/>
+      <c r="CK119" s="85"/>
+      <c r="CL119" s="85"/>
+      <c r="CM119" s="85"/>
+      <c r="CQ119" s="6"/>
+    </row>
+    <row r="120" spans="1:138" ht="36" customHeight="1">
+      <c r="A120" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B120" t="s">
+        <v>95</v>
+      </c>
+      <c r="C120">
+        <v>30</v>
+      </c>
+      <c r="E120">
+        <v>30</v>
+      </c>
+      <c r="CM120" s="67"/>
+      <c r="CQ120" s="6"/>
+    </row>
+    <row r="121" spans="1:138">
+      <c r="CM121" s="67"/>
+      <c r="CQ121" s="94"/>
+    </row>
+    <row r="122" spans="1:138" ht="34" customHeight="1">
+      <c r="CM122" s="67"/>
+      <c r="CQ122" s="6"/>
+    </row>
+    <row r="123" spans="1:138" ht="21" customHeight="1" thickBot="1">
+      <c r="A123" s="103" t="s">
+        <v>96</v>
+      </c>
+      <c r="B123" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ123" s="67"/>
+      <c r="AR123" s="67"/>
+      <c r="AS123" s="75"/>
+      <c r="AT123" s="70"/>
+      <c r="AW123" s="152"/>
+      <c r="AX123" s="61"/>
+      <c r="AY123" s="61"/>
+      <c r="AZ123" s="61"/>
+      <c r="BA123" s="61"/>
+      <c r="BB123" s="61"/>
+      <c r="BC123" s="136"/>
+      <c r="BD123" s="64"/>
+      <c r="BE123" s="61"/>
+      <c r="BF123" s="61"/>
+      <c r="BG123" s="61"/>
+      <c r="BH123" s="61"/>
+      <c r="BI123" s="61"/>
+      <c r="BJ123" s="61"/>
+      <c r="BK123" s="61"/>
+      <c r="BL123" s="61"/>
+      <c r="BM123" s="61"/>
+      <c r="BN123" s="61"/>
+      <c r="BO123" s="61"/>
+      <c r="BP123" s="61"/>
+      <c r="BQ123" s="61"/>
+      <c r="BR123" s="61"/>
+      <c r="BS123" s="61"/>
+      <c r="BT123" s="61"/>
+      <c r="BU123" s="61"/>
+      <c r="BV123" s="61"/>
+      <c r="BW123" s="62"/>
+      <c r="BX123" s="63"/>
+      <c r="BY123" s="61"/>
+      <c r="BZ123" s="61"/>
+      <c r="CA123" s="61"/>
+      <c r="CB123" s="61"/>
+      <c r="CC123" s="61"/>
+      <c r="CD123" s="61"/>
+      <c r="CE123" s="61"/>
+      <c r="CF123" s="61"/>
+      <c r="CG123" s="61"/>
+      <c r="CH123" s="61"/>
+      <c r="CI123" s="61"/>
+      <c r="CJ123" s="61"/>
+      <c r="CK123" s="61"/>
+      <c r="CL123" s="61"/>
+      <c r="CM123" s="61"/>
+      <c r="CN123" s="61"/>
+      <c r="CO123" s="61"/>
+      <c r="CP123" s="61"/>
+      <c r="CQ123" s="61"/>
+      <c r="CR123" s="61"/>
+      <c r="CS123" s="61"/>
+      <c r="CT123" s="61"/>
+      <c r="CU123" s="61"/>
+      <c r="CV123" s="61"/>
+      <c r="CW123" s="61"/>
+      <c r="CX123" s="61"/>
+      <c r="CY123" s="61"/>
+      <c r="CZ123" s="61"/>
+      <c r="DA123" s="61"/>
+      <c r="DB123" s="62"/>
+      <c r="DC123" s="63"/>
+      <c r="DD123" s="61"/>
+      <c r="DE123" s="61"/>
+      <c r="DF123" s="61"/>
+      <c r="DG123" s="61"/>
+      <c r="DH123" s="61"/>
+      <c r="DI123" s="61"/>
+      <c r="DJ123" s="61"/>
+      <c r="DK123" s="61"/>
+      <c r="DL123" s="61"/>
+    </row>
+    <row r="124" spans="1:138" ht="21" customHeight="1" thickBot="1">
+      <c r="A124" s="116" t="s">
+        <v>97</v>
+      </c>
+      <c r="B124" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124">
+        <v>4</v>
+      </c>
+      <c r="E124">
         <v>0</v>
       </c>
-      <c r="D112">
-        <v>2</v>
-      </c>
-      <c r="E112">
+      <c r="F124">
         <v>0</v>
       </c>
-      <c r="BD112" s="170"/>
-      <c r="BH112" s="67"/>
-      <c r="BK112" s="171"/>
-      <c r="BO112" s="67"/>
-      <c r="BR112" s="18"/>
-      <c r="BS112" s="67"/>
-      <c r="BV112" s="67"/>
-      <c r="BY112" s="171"/>
-      <c r="CC112" s="67"/>
-      <c r="CF112" s="171"/>
-      <c r="CJ112" s="67"/>
-      <c r="CM112" s="171"/>
-      <c r="CP112" s="67"/>
-      <c r="CQ112" s="6"/>
-      <c r="CT112" s="67"/>
-      <c r="CU112" s="67"/>
-      <c r="CV112" s="67"/>
-      <c r="CW112" s="67"/>
-      <c r="CX112" s="67"/>
-      <c r="CY112" s="15"/>
-      <c r="DA112" s="67"/>
-      <c r="DD112" s="67"/>
-      <c r="DE112" s="67"/>
-      <c r="DH112" s="172">
-        <v>2</v>
-      </c>
-      <c r="DI112" s="67"/>
-      <c r="DJ112" s="67"/>
-      <c r="DK112" s="67"/>
-      <c r="DL112" s="171"/>
-    </row>
-    <row r="113" spans="1:132">
-      <c r="CM113" s="67"/>
-      <c r="CQ113" s="109"/>
-      <c r="DW113" s="65"/>
-      <c r="DX113" s="65"/>
-      <c r="DY113" s="65"/>
-      <c r="DZ113" s="65"/>
-    </row>
-    <row r="114" spans="1:132" ht="39" customHeight="1">
-      <c r="CM114" s="67"/>
-      <c r="CQ114" s="109"/>
-      <c r="DU114" s="65"/>
-      <c r="DV114" s="65"/>
-    </row>
-    <row r="115" spans="1:132">
-      <c r="CM115" s="67"/>
-      <c r="CQ115" s="109"/>
-    </row>
-    <row r="116" spans="1:132">
-      <c r="A116" s="114" t="s">
+      <c r="AR124" s="67"/>
+      <c r="AS124" s="75"/>
+      <c r="AT124" s="70"/>
+      <c r="AV124" s="35"/>
+      <c r="AW124" s="161">
+        <v>2</v>
+      </c>
+      <c r="AX124" s="125"/>
+      <c r="AY124" s="67"/>
+      <c r="AZ124" s="67"/>
+      <c r="BA124" s="68">
+        <v>2</v>
+      </c>
+      <c r="BB124" s="35"/>
+      <c r="BC124" s="161"/>
+      <c r="BD124" s="137"/>
+      <c r="BE124" s="67"/>
+      <c r="BF124" s="67"/>
+      <c r="BG124" s="67"/>
+      <c r="BH124" s="67"/>
+      <c r="BK124" s="126"/>
+      <c r="BL124" s="67"/>
+      <c r="BM124" s="67"/>
+      <c r="BN124" s="67"/>
+      <c r="BO124" s="67"/>
+      <c r="BR124" s="142"/>
+      <c r="BS124" s="67"/>
+      <c r="BT124" s="67"/>
+      <c r="BU124" s="67"/>
+      <c r="BV124" s="67"/>
+      <c r="BY124" s="126"/>
+      <c r="BZ124" s="67"/>
+      <c r="CA124" s="67"/>
+      <c r="CB124" s="67"/>
+      <c r="CC124" s="67"/>
+      <c r="CF124" s="126"/>
+      <c r="CG124" s="67"/>
+      <c r="CH124" s="67"/>
+      <c r="CI124" s="67"/>
+      <c r="CJ124" s="67"/>
+      <c r="CM124" s="126"/>
+      <c r="CN124" s="67"/>
+      <c r="CO124" s="67"/>
+      <c r="CP124" s="67"/>
+      <c r="CQ124" s="6"/>
+      <c r="CT124" s="67"/>
+      <c r="CU124" s="67"/>
+      <c r="CV124" s="67"/>
+      <c r="CW124" s="67"/>
+      <c r="CX124" s="67"/>
+      <c r="CY124" s="136"/>
+      <c r="DA124" s="67"/>
+      <c r="DB124" s="75"/>
+      <c r="DC124" s="70"/>
+      <c r="DD124" s="67"/>
+      <c r="DE124" s="67"/>
+      <c r="DH124" s="126"/>
+      <c r="DI124" s="67"/>
+      <c r="DJ124" s="67"/>
+      <c r="DK124" s="67"/>
+      <c r="DL124" s="126"/>
+    </row>
+    <row r="125" spans="1:138" ht="16" thickBot="1">
+      <c r="A125" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B125" s="92" t="s">
+        <v>132</v>
+      </c>
+      <c r="C125">
+        <v>10</v>
+      </c>
+      <c r="D125">
+        <v>9</v>
+      </c>
+      <c r="E125">
+        <v>10</v>
+      </c>
+      <c r="AW125" s="14"/>
+      <c r="BC125" s="34"/>
+      <c r="BD125" s="162">
+        <v>1</v>
+      </c>
+      <c r="BE125" s="130"/>
+      <c r="BH125" s="67"/>
+      <c r="BJ125" s="35"/>
+      <c r="BK125" s="161">
+        <v>2</v>
+      </c>
+      <c r="BL125" s="130"/>
+      <c r="BO125" s="67"/>
+      <c r="BP125" s="68">
+        <v>1</v>
+      </c>
+      <c r="BQ125" s="35"/>
+      <c r="BR125" s="161"/>
+      <c r="BS125" s="125"/>
+      <c r="BV125" s="67"/>
+      <c r="BX125" s="127"/>
+      <c r="BY125" s="161">
+        <v>2</v>
+      </c>
+      <c r="BZ125" s="130"/>
+      <c r="CC125" s="67"/>
+      <c r="CE125" s="35"/>
+      <c r="CF125" s="161">
+        <v>1</v>
+      </c>
+      <c r="CG125" s="130"/>
+      <c r="CJ125" s="67"/>
+      <c r="CL125" s="35"/>
+      <c r="CM125" s="161">
+        <v>1</v>
+      </c>
+      <c r="CN125" s="130"/>
+      <c r="CP125" s="67"/>
+      <c r="CQ125" s="6"/>
+      <c r="CT125" s="67"/>
+      <c r="CU125" s="67"/>
+      <c r="CV125" s="67"/>
+      <c r="CW125" s="67"/>
+      <c r="CX125" s="75"/>
+      <c r="CY125" s="161"/>
+      <c r="CZ125" s="128"/>
+      <c r="DA125" s="67"/>
+      <c r="DD125" s="67"/>
+      <c r="DE125" s="67"/>
+      <c r="DG125" s="35"/>
+      <c r="DH125" s="161">
+        <v>1</v>
+      </c>
+      <c r="DI125" s="125"/>
+      <c r="DJ125" s="67"/>
+      <c r="DK125" s="75"/>
+      <c r="DL125" s="161"/>
+      <c r="DM125" s="128"/>
+    </row>
+    <row r="126" spans="1:138">
+      <c r="B126" s="92" t="s">
+        <v>141</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="BD126" s="155"/>
+      <c r="BH126" s="67"/>
+      <c r="BK126" s="156"/>
+      <c r="BO126" s="67"/>
+      <c r="BR126" s="18"/>
+      <c r="BS126" s="67"/>
+      <c r="BV126" s="67"/>
+      <c r="BY126" s="156"/>
+      <c r="CC126" s="67"/>
+      <c r="CF126" s="156"/>
+      <c r="CJ126" s="67"/>
+      <c r="CM126" s="156"/>
+      <c r="CP126" s="67"/>
+      <c r="CQ126" s="6"/>
+      <c r="CT126" s="67"/>
+      <c r="CU126" s="67"/>
+      <c r="CV126" s="67"/>
+      <c r="CW126" s="67"/>
+      <c r="CX126" s="67"/>
+      <c r="CY126" s="15"/>
+      <c r="DA126" s="67"/>
+      <c r="DD126" s="67"/>
+      <c r="DE126" s="67"/>
+      <c r="DH126" s="157">
+        <v>2</v>
+      </c>
+      <c r="DI126" s="67"/>
+      <c r="DJ126" s="67"/>
+      <c r="DK126" s="67"/>
+      <c r="DL126" s="156"/>
+    </row>
+    <row r="127" spans="1:138">
+      <c r="A127" s="209" t="s">
+        <v>204</v>
+      </c>
+      <c r="B127" s="208" t="s">
+        <v>205</v>
+      </c>
+      <c r="C127" s="208"/>
+      <c r="D127" s="208"/>
+      <c r="E127" s="208"/>
+      <c r="F127" s="208"/>
+      <c r="G127" s="210"/>
+      <c r="H127" s="210"/>
+      <c r="I127" s="210"/>
+      <c r="J127" s="210"/>
+      <c r="K127" s="210"/>
+      <c r="L127" s="211"/>
+      <c r="M127" s="211"/>
+      <c r="N127" s="212"/>
+      <c r="O127" s="210"/>
+      <c r="P127" s="210"/>
+      <c r="Q127" s="210"/>
+      <c r="R127" s="210"/>
+      <c r="S127" s="211"/>
+      <c r="T127" s="211"/>
+      <c r="U127" s="212"/>
+      <c r="V127" s="210"/>
+      <c r="W127" s="210"/>
+      <c r="X127" s="210"/>
+      <c r="Y127" s="210"/>
+      <c r="Z127" s="211"/>
+      <c r="AA127" s="211"/>
+      <c r="AB127" s="210"/>
+      <c r="AC127" s="210"/>
+      <c r="AD127" s="210"/>
+      <c r="AE127" s="210"/>
+      <c r="AF127" s="210"/>
+      <c r="AG127" s="211"/>
+      <c r="AH127" s="211"/>
+      <c r="AI127" s="210"/>
+      <c r="AJ127" s="210"/>
+      <c r="AK127" s="210"/>
+      <c r="AL127" s="210"/>
+      <c r="AM127" s="210"/>
+      <c r="AN127" s="211"/>
+      <c r="AO127" s="211"/>
+      <c r="AP127" s="212"/>
+      <c r="AQ127" s="210"/>
+      <c r="AR127" s="210"/>
+      <c r="AS127" s="210"/>
+      <c r="AT127" s="210"/>
+      <c r="AU127" s="211"/>
+      <c r="AV127" s="211"/>
+      <c r="AW127" s="210"/>
+      <c r="AX127" s="210"/>
+      <c r="AY127" s="210"/>
+      <c r="AZ127" s="210"/>
+      <c r="BA127" s="210"/>
+      <c r="BB127" s="211"/>
+      <c r="BC127" s="211"/>
+      <c r="BD127" s="213"/>
+      <c r="BE127" s="210"/>
+      <c r="BF127" s="210"/>
+      <c r="BG127" s="210"/>
+      <c r="BH127" s="210"/>
+      <c r="BI127" s="211"/>
+      <c r="BJ127" s="211"/>
+      <c r="BK127" s="210"/>
+      <c r="BL127" s="210"/>
+      <c r="BM127" s="210"/>
+      <c r="BN127" s="210"/>
+      <c r="BO127" s="210"/>
+      <c r="BP127" s="211"/>
+      <c r="BQ127" s="211"/>
+      <c r="BR127" s="212"/>
+      <c r="BS127" s="210"/>
+      <c r="BT127" s="210"/>
+      <c r="BU127" s="210"/>
+      <c r="BV127" s="210"/>
+      <c r="BW127" s="211"/>
+      <c r="BX127" s="211"/>
+      <c r="BY127" s="210"/>
+      <c r="BZ127" s="210"/>
+      <c r="CA127" s="210"/>
+      <c r="CB127" s="210"/>
+      <c r="CC127" s="210"/>
+      <c r="CD127" s="211"/>
+      <c r="CE127" s="211"/>
+      <c r="CF127" s="210"/>
+      <c r="CG127" s="210"/>
+      <c r="CH127" s="210"/>
+      <c r="CI127" s="210"/>
+      <c r="CJ127" s="210"/>
+      <c r="CK127" s="211"/>
+      <c r="CL127" s="216"/>
+      <c r="CM127" s="214"/>
+      <c r="CN127" s="210"/>
+      <c r="CO127" s="210"/>
+      <c r="CP127" s="210"/>
+      <c r="CQ127" s="212"/>
+      <c r="CR127" s="211"/>
+      <c r="CS127" s="211"/>
+      <c r="CT127" s="210"/>
+      <c r="CU127" s="210"/>
+      <c r="CV127" s="210"/>
+      <c r="CW127" s="210"/>
+      <c r="CX127" s="210"/>
+      <c r="CY127" s="211"/>
+      <c r="CZ127" s="211"/>
+      <c r="DA127" s="210"/>
+      <c r="DB127" s="210"/>
+      <c r="DC127" s="210"/>
+      <c r="DD127" s="210"/>
+      <c r="DE127" s="210"/>
+      <c r="DF127" s="216"/>
+      <c r="DG127" s="216"/>
+      <c r="DH127" s="210"/>
+      <c r="DI127" s="210"/>
+      <c r="DJ127" s="210"/>
+      <c r="DK127" s="210"/>
+      <c r="DL127" s="210"/>
+      <c r="DM127" s="211"/>
+      <c r="DN127" s="211"/>
+      <c r="DO127" s="212"/>
+      <c r="DP127" s="210"/>
+      <c r="DQ127" s="210"/>
+      <c r="DR127" s="210"/>
+      <c r="DS127" s="210"/>
+      <c r="DT127" s="211"/>
+      <c r="DU127" s="211"/>
+      <c r="DV127" s="212"/>
+      <c r="DW127" s="210"/>
+      <c r="DX127" s="210"/>
+      <c r="DY127" s="210"/>
+      <c r="DZ127" s="210"/>
+      <c r="EA127" s="211"/>
+      <c r="EB127" s="211"/>
+      <c r="EC127" s="212"/>
+      <c r="ED127" s="210"/>
+      <c r="EE127" s="210"/>
+      <c r="EF127" s="210"/>
+      <c r="EG127" s="210"/>
+      <c r="EH127" s="210"/>
+    </row>
+    <row r="128" spans="1:138">
+      <c r="A128" s="209"/>
+      <c r="B128" s="208" t="s">
+        <v>206</v>
+      </c>
+      <c r="C128" s="208"/>
+      <c r="D128" s="208">
+        <v>2</v>
+      </c>
+      <c r="E128" s="208"/>
+      <c r="F128" s="208"/>
+      <c r="G128" s="210"/>
+      <c r="H128" s="210"/>
+      <c r="I128" s="210"/>
+      <c r="J128" s="210"/>
+      <c r="K128" s="210"/>
+      <c r="L128" s="211"/>
+      <c r="M128" s="211"/>
+      <c r="N128" s="212"/>
+      <c r="O128" s="210"/>
+      <c r="P128" s="210"/>
+      <c r="Q128" s="210"/>
+      <c r="R128" s="210"/>
+      <c r="S128" s="211"/>
+      <c r="T128" s="211"/>
+      <c r="U128" s="212"/>
+      <c r="V128" s="210"/>
+      <c r="W128" s="210"/>
+      <c r="X128" s="210"/>
+      <c r="Y128" s="210"/>
+      <c r="Z128" s="211"/>
+      <c r="AA128" s="211"/>
+      <c r="AB128" s="210"/>
+      <c r="AC128" s="210"/>
+      <c r="AD128" s="210"/>
+      <c r="AE128" s="210"/>
+      <c r="AF128" s="210"/>
+      <c r="AG128" s="211"/>
+      <c r="AH128" s="211"/>
+      <c r="AI128" s="210"/>
+      <c r="AJ128" s="210"/>
+      <c r="AK128" s="210"/>
+      <c r="AL128" s="210"/>
+      <c r="AM128" s="210"/>
+      <c r="AN128" s="211"/>
+      <c r="AO128" s="211"/>
+      <c r="AP128" s="212"/>
+      <c r="AQ128" s="210"/>
+      <c r="AR128" s="210"/>
+      <c r="AS128" s="210"/>
+      <c r="AT128" s="210"/>
+      <c r="AU128" s="211"/>
+      <c r="AV128" s="211"/>
+      <c r="AW128" s="210"/>
+      <c r="AX128" s="210"/>
+      <c r="AY128" s="210"/>
+      <c r="AZ128" s="210"/>
+      <c r="BA128" s="210"/>
+      <c r="BB128" s="211"/>
+      <c r="BC128" s="211"/>
+      <c r="BD128" s="215">
+        <v>2</v>
+      </c>
+      <c r="BE128" s="210"/>
+      <c r="BF128" s="210"/>
+      <c r="BG128" s="210"/>
+      <c r="BH128" s="210"/>
+      <c r="BI128" s="211"/>
+      <c r="BJ128" s="211"/>
+      <c r="BK128" s="210"/>
+      <c r="BL128" s="210"/>
+      <c r="BM128" s="210"/>
+      <c r="BN128" s="210"/>
+      <c r="BO128" s="210"/>
+      <c r="BP128" s="211"/>
+      <c r="BQ128" s="211"/>
+      <c r="BR128" s="212"/>
+      <c r="BS128" s="210"/>
+      <c r="BT128" s="210"/>
+      <c r="BU128" s="210"/>
+      <c r="BV128" s="210"/>
+      <c r="BW128" s="211"/>
+      <c r="BX128" s="211"/>
+      <c r="BY128" s="210"/>
+      <c r="BZ128" s="210"/>
+      <c r="CA128" s="210"/>
+      <c r="CB128" s="210"/>
+      <c r="CC128" s="210"/>
+      <c r="CD128" s="211"/>
+      <c r="CE128" s="211"/>
+      <c r="CF128" s="210"/>
+      <c r="CG128" s="210"/>
+      <c r="CH128" s="210"/>
+      <c r="CI128" s="210"/>
+      <c r="CJ128" s="210"/>
+      <c r="CK128" s="211"/>
+      <c r="CL128" s="216"/>
+      <c r="CM128" s="214"/>
+      <c r="CN128" s="210"/>
+      <c r="CO128" s="210"/>
+      <c r="CP128" s="210"/>
+      <c r="CQ128" s="212"/>
+      <c r="CR128" s="211"/>
+      <c r="CS128" s="211"/>
+      <c r="CT128" s="210"/>
+      <c r="CU128" s="210"/>
+      <c r="CV128" s="210"/>
+      <c r="CW128" s="210"/>
+      <c r="CX128" s="210"/>
+      <c r="CY128" s="211"/>
+      <c r="CZ128" s="211"/>
+      <c r="DA128" s="210"/>
+      <c r="DB128" s="210"/>
+      <c r="DC128" s="210"/>
+      <c r="DD128" s="210"/>
+      <c r="DE128" s="210"/>
+      <c r="DF128" s="216"/>
+      <c r="DG128" s="216"/>
+      <c r="DH128" s="210"/>
+      <c r="DI128" s="210"/>
+      <c r="DJ128" s="210"/>
+      <c r="DK128" s="210"/>
+      <c r="DL128" s="210"/>
+      <c r="DM128" s="211"/>
+      <c r="DN128" s="211"/>
+      <c r="DO128" s="212"/>
+      <c r="DP128" s="210"/>
+      <c r="DQ128" s="210"/>
+      <c r="DR128" s="210"/>
+      <c r="DS128" s="210"/>
+      <c r="DT128" s="211"/>
+      <c r="DU128" s="211"/>
+      <c r="DV128" s="212"/>
+      <c r="DW128" s="210"/>
+      <c r="DX128" s="210"/>
+      <c r="DY128" s="210"/>
+      <c r="DZ128" s="210"/>
+      <c r="EA128" s="211"/>
+      <c r="EB128" s="211"/>
+      <c r="EC128" s="212"/>
+      <c r="ED128" s="210"/>
+      <c r="EE128" s="210"/>
+      <c r="EF128" s="210"/>
+      <c r="EG128" s="210"/>
+      <c r="EH128" s="210"/>
+    </row>
+    <row r="129" spans="1:138">
+      <c r="A129" s="209"/>
+      <c r="B129" s="208" t="s">
+        <v>207</v>
+      </c>
+      <c r="C129" s="208"/>
+      <c r="D129" s="208"/>
+      <c r="E129" s="208"/>
+      <c r="F129" s="208"/>
+      <c r="G129" s="210"/>
+      <c r="H129" s="210"/>
+      <c r="I129" s="210"/>
+      <c r="J129" s="210"/>
+      <c r="K129" s="210"/>
+      <c r="L129" s="211"/>
+      <c r="M129" s="211"/>
+      <c r="N129" s="212"/>
+      <c r="O129" s="210"/>
+      <c r="P129" s="210"/>
+      <c r="Q129" s="210"/>
+      <c r="R129" s="210"/>
+      <c r="S129" s="211"/>
+      <c r="T129" s="211"/>
+      <c r="U129" s="212"/>
+      <c r="V129" s="210"/>
+      <c r="W129" s="210"/>
+      <c r="X129" s="210"/>
+      <c r="Y129" s="210"/>
+      <c r="Z129" s="211"/>
+      <c r="AA129" s="211"/>
+      <c r="AB129" s="210"/>
+      <c r="AC129" s="210"/>
+      <c r="AD129" s="210"/>
+      <c r="AE129" s="210"/>
+      <c r="AF129" s="210"/>
+      <c r="AG129" s="211"/>
+      <c r="AH129" s="211"/>
+      <c r="AI129" s="210"/>
+      <c r="AJ129" s="210"/>
+      <c r="AK129" s="210"/>
+      <c r="AL129" s="210"/>
+      <c r="AM129" s="210"/>
+      <c r="AN129" s="211"/>
+      <c r="AO129" s="211"/>
+      <c r="AP129" s="212"/>
+      <c r="AQ129" s="210"/>
+      <c r="AR129" s="210"/>
+      <c r="AS129" s="210"/>
+      <c r="AT129" s="210"/>
+      <c r="AU129" s="211"/>
+      <c r="AV129" s="211"/>
+      <c r="AW129" s="210"/>
+      <c r="AX129" s="210"/>
+      <c r="AY129" s="210"/>
+      <c r="AZ129" s="210"/>
+      <c r="BA129" s="210"/>
+      <c r="BB129" s="211"/>
+      <c r="BC129" s="211"/>
+      <c r="BD129" s="213"/>
+      <c r="BE129" s="210"/>
+      <c r="BF129" s="210"/>
+      <c r="BG129" s="210"/>
+      <c r="BH129" s="210"/>
+      <c r="BI129" s="211"/>
+      <c r="BJ129" s="211"/>
+      <c r="BK129" s="210"/>
+      <c r="BL129" s="210"/>
+      <c r="BM129" s="210"/>
+      <c r="BN129" s="210"/>
+      <c r="BO129" s="210"/>
+      <c r="BP129" s="211"/>
+      <c r="BQ129" s="211"/>
+      <c r="BR129" s="212"/>
+      <c r="BS129" s="210"/>
+      <c r="BT129" s="210"/>
+      <c r="BU129" s="210"/>
+      <c r="BV129" s="210"/>
+      <c r="BW129" s="211"/>
+      <c r="BX129" s="211"/>
+      <c r="BY129" s="210"/>
+      <c r="BZ129" s="210"/>
+      <c r="CA129" s="210"/>
+      <c r="CB129" s="210"/>
+      <c r="CC129" s="210"/>
+      <c r="CD129" s="211"/>
+      <c r="CE129" s="211"/>
+      <c r="CF129" s="210"/>
+      <c r="CG129" s="210"/>
+      <c r="CH129" s="210"/>
+      <c r="CI129" s="210"/>
+      <c r="CJ129" s="210"/>
+      <c r="CK129" s="211"/>
+      <c r="CL129" s="216"/>
+      <c r="CM129" s="214"/>
+      <c r="CN129" s="210"/>
+      <c r="CO129" s="210"/>
+      <c r="CP129" s="210"/>
+      <c r="CQ129" s="212"/>
+      <c r="CR129" s="211"/>
+      <c r="CS129" s="211"/>
+      <c r="CT129" s="210"/>
+      <c r="CU129" s="210"/>
+      <c r="CV129" s="210"/>
+      <c r="CW129" s="210"/>
+      <c r="CX129" s="210"/>
+      <c r="CY129" s="211"/>
+      <c r="CZ129" s="211"/>
+      <c r="DA129" s="210"/>
+      <c r="DB129" s="210"/>
+      <c r="DC129" s="210"/>
+      <c r="DD129" s="210"/>
+      <c r="DE129" s="210"/>
+      <c r="DF129" s="216"/>
+      <c r="DG129" s="216"/>
+      <c r="DH129" s="210"/>
+      <c r="DI129" s="210"/>
+      <c r="DJ129" s="210"/>
+      <c r="DK129" s="210"/>
+      <c r="DL129" s="210"/>
+      <c r="DM129" s="211"/>
+      <c r="DN129" s="211"/>
+      <c r="DO129" s="212"/>
+      <c r="DP129" s="210"/>
+      <c r="DQ129" s="210"/>
+      <c r="DR129" s="210"/>
+      <c r="DS129" s="210"/>
+      <c r="DT129" s="211"/>
+      <c r="DU129" s="211"/>
+      <c r="DV129" s="212"/>
+      <c r="DW129" s="210"/>
+      <c r="DX129" s="210"/>
+      <c r="DY129" s="210"/>
+      <c r="DZ129" s="210"/>
+      <c r="EA129" s="211"/>
+      <c r="EB129" s="211"/>
+      <c r="EC129" s="212"/>
+      <c r="ED129" s="210"/>
+      <c r="EE129" s="210"/>
+      <c r="EF129" s="210"/>
+      <c r="EG129" s="210"/>
+      <c r="EH129" s="210"/>
+    </row>
+    <row r="130" spans="1:138">
+      <c r="A130" s="209"/>
+      <c r="B130" s="208" t="s">
+        <v>208</v>
+      </c>
+      <c r="C130" s="208"/>
+      <c r="D130" s="208"/>
+      <c r="E130" s="208"/>
+      <c r="F130" s="208"/>
+      <c r="G130" s="210"/>
+      <c r="H130" s="210"/>
+      <c r="I130" s="210"/>
+      <c r="J130" s="210"/>
+      <c r="K130" s="210"/>
+      <c r="L130" s="211"/>
+      <c r="M130" s="211"/>
+      <c r="N130" s="212"/>
+      <c r="O130" s="210"/>
+      <c r="P130" s="210"/>
+      <c r="Q130" s="210"/>
+      <c r="R130" s="210"/>
+      <c r="S130" s="211"/>
+      <c r="T130" s="211"/>
+      <c r="U130" s="212"/>
+      <c r="V130" s="210"/>
+      <c r="W130" s="210"/>
+      <c r="X130" s="210"/>
+      <c r="Y130" s="210"/>
+      <c r="Z130" s="211"/>
+      <c r="AA130" s="211"/>
+      <c r="AB130" s="210"/>
+      <c r="AC130" s="210"/>
+      <c r="AD130" s="210"/>
+      <c r="AE130" s="210"/>
+      <c r="AF130" s="210"/>
+      <c r="AG130" s="211"/>
+      <c r="AH130" s="211"/>
+      <c r="AI130" s="210"/>
+      <c r="AJ130" s="210"/>
+      <c r="AK130" s="210"/>
+      <c r="AL130" s="210"/>
+      <c r="AM130" s="210"/>
+      <c r="AN130" s="211"/>
+      <c r="AO130" s="211"/>
+      <c r="AP130" s="212"/>
+      <c r="AQ130" s="210"/>
+      <c r="AR130" s="210"/>
+      <c r="AS130" s="210"/>
+      <c r="AT130" s="210"/>
+      <c r="AU130" s="211"/>
+      <c r="AV130" s="211"/>
+      <c r="AW130" s="210"/>
+      <c r="AX130" s="210"/>
+      <c r="AY130" s="210"/>
+      <c r="AZ130" s="210"/>
+      <c r="BA130" s="210"/>
+      <c r="BB130" s="211"/>
+      <c r="BC130" s="211"/>
+      <c r="BD130" s="213"/>
+      <c r="BE130" s="210"/>
+      <c r="BF130" s="210"/>
+      <c r="BG130" s="210"/>
+      <c r="BH130" s="210"/>
+      <c r="BI130" s="211"/>
+      <c r="BJ130" s="211"/>
+      <c r="BK130" s="210"/>
+      <c r="BL130" s="210"/>
+      <c r="BM130" s="210"/>
+      <c r="BN130" s="210"/>
+      <c r="BO130" s="210"/>
+      <c r="BP130" s="211"/>
+      <c r="BQ130" s="211"/>
+      <c r="BR130" s="212"/>
+      <c r="BS130" s="210"/>
+      <c r="BT130" s="210"/>
+      <c r="BU130" s="210"/>
+      <c r="BV130" s="210"/>
+      <c r="BW130" s="211"/>
+      <c r="BX130" s="211"/>
+      <c r="BY130" s="210"/>
+      <c r="BZ130" s="210"/>
+      <c r="CA130" s="210"/>
+      <c r="CB130" s="210"/>
+      <c r="CC130" s="210"/>
+      <c r="CD130" s="211"/>
+      <c r="CE130" s="211"/>
+      <c r="CF130" s="210"/>
+      <c r="CG130" s="210"/>
+      <c r="CH130" s="210"/>
+      <c r="CI130" s="210"/>
+      <c r="CJ130" s="210"/>
+      <c r="CK130" s="211"/>
+      <c r="CL130" s="216"/>
+      <c r="CM130" s="214"/>
+      <c r="CN130" s="210"/>
+      <c r="CO130" s="210"/>
+      <c r="CP130" s="210"/>
+      <c r="CQ130" s="212"/>
+      <c r="CR130" s="211"/>
+      <c r="CS130" s="211"/>
+      <c r="CT130" s="210"/>
+      <c r="CU130" s="210"/>
+      <c r="CV130" s="210"/>
+      <c r="CW130" s="210"/>
+      <c r="CX130" s="210"/>
+      <c r="CY130" s="211"/>
+      <c r="CZ130" s="211"/>
+      <c r="DA130" s="210"/>
+      <c r="DB130" s="210"/>
+      <c r="DC130" s="210"/>
+      <c r="DD130" s="210"/>
+      <c r="DE130" s="210"/>
+      <c r="DF130" s="216"/>
+      <c r="DG130" s="216"/>
+      <c r="DH130" s="210"/>
+      <c r="DI130" s="210"/>
+      <c r="DJ130" s="210"/>
+      <c r="DK130" s="210"/>
+      <c r="DL130" s="210"/>
+      <c r="DM130" s="211"/>
+      <c r="DN130" s="211"/>
+      <c r="DO130" s="212"/>
+      <c r="DP130" s="210"/>
+      <c r="DQ130" s="210"/>
+      <c r="DR130" s="210"/>
+      <c r="DS130" s="210"/>
+      <c r="DT130" s="211"/>
+      <c r="DU130" s="211"/>
+      <c r="DV130" s="212"/>
+      <c r="DW130" s="210"/>
+      <c r="DX130" s="210"/>
+      <c r="DY130" s="210"/>
+      <c r="DZ130" s="210"/>
+      <c r="EA130" s="211"/>
+      <c r="EB130" s="211"/>
+      <c r="EC130" s="212"/>
+      <c r="ED130" s="210"/>
+      <c r="EE130" s="210"/>
+      <c r="EF130" s="210"/>
+      <c r="EG130" s="210"/>
+      <c r="EH130" s="210"/>
+    </row>
+    <row r="131" spans="1:138">
+      <c r="A131" s="209"/>
+      <c r="B131" s="208" t="s">
+        <v>209</v>
+      </c>
+      <c r="C131" s="208"/>
+      <c r="D131" s="208"/>
+      <c r="E131" s="208"/>
+      <c r="F131" s="208"/>
+      <c r="G131" s="210"/>
+      <c r="H131" s="210"/>
+      <c r="I131" s="210"/>
+      <c r="J131" s="210"/>
+      <c r="K131" s="210"/>
+      <c r="L131" s="211"/>
+      <c r="M131" s="211"/>
+      <c r="N131" s="212"/>
+      <c r="O131" s="210"/>
+      <c r="P131" s="210"/>
+      <c r="Q131" s="210"/>
+      <c r="R131" s="210"/>
+      <c r="S131" s="211"/>
+      <c r="T131" s="211"/>
+      <c r="U131" s="212"/>
+      <c r="V131" s="210"/>
+      <c r="W131" s="210"/>
+      <c r="X131" s="210"/>
+      <c r="Y131" s="210"/>
+      <c r="Z131" s="211"/>
+      <c r="AA131" s="211"/>
+      <c r="AB131" s="210"/>
+      <c r="AC131" s="210"/>
+      <c r="AD131" s="210"/>
+      <c r="AE131" s="210"/>
+      <c r="AF131" s="210"/>
+      <c r="AG131" s="211"/>
+      <c r="AH131" s="211"/>
+      <c r="AI131" s="210"/>
+      <c r="AJ131" s="210"/>
+      <c r="AK131" s="210"/>
+      <c r="AL131" s="210"/>
+      <c r="AM131" s="210"/>
+      <c r="AN131" s="211"/>
+      <c r="AO131" s="211"/>
+      <c r="AP131" s="212"/>
+      <c r="AQ131" s="210"/>
+      <c r="AR131" s="210"/>
+      <c r="AS131" s="210"/>
+      <c r="AT131" s="210"/>
+      <c r="AU131" s="211"/>
+      <c r="AV131" s="211"/>
+      <c r="AW131" s="210"/>
+      <c r="AX131" s="210"/>
+      <c r="AY131" s="210"/>
+      <c r="AZ131" s="210"/>
+      <c r="BA131" s="210"/>
+      <c r="BB131" s="211"/>
+      <c r="BC131" s="211"/>
+      <c r="BD131" s="213"/>
+      <c r="BE131" s="210"/>
+      <c r="BF131" s="210"/>
+      <c r="BG131" s="210"/>
+      <c r="BH131" s="210"/>
+      <c r="BI131" s="211"/>
+      <c r="BJ131" s="211"/>
+      <c r="BK131" s="210"/>
+      <c r="BL131" s="210"/>
+      <c r="BM131" s="210"/>
+      <c r="BN131" s="210"/>
+      <c r="BO131" s="210"/>
+      <c r="BP131" s="211"/>
+      <c r="BQ131" s="211"/>
+      <c r="BR131" s="212"/>
+      <c r="BS131" s="210"/>
+      <c r="BT131" s="210"/>
+      <c r="BU131" s="210"/>
+      <c r="BV131" s="210"/>
+      <c r="BW131" s="211"/>
+      <c r="BX131" s="211"/>
+      <c r="BY131" s="210"/>
+      <c r="BZ131" s="210"/>
+      <c r="CA131" s="210"/>
+      <c r="CB131" s="210"/>
+      <c r="CC131" s="210"/>
+      <c r="CD131" s="211"/>
+      <c r="CE131" s="211"/>
+      <c r="CF131" s="210"/>
+      <c r="CG131" s="210"/>
+      <c r="CH131" s="210"/>
+      <c r="CI131" s="210"/>
+      <c r="CJ131" s="210"/>
+      <c r="CK131" s="211"/>
+      <c r="CL131" s="216"/>
+      <c r="CM131" s="214"/>
+      <c r="CN131" s="210"/>
+      <c r="CO131" s="210"/>
+      <c r="CP131" s="210"/>
+      <c r="CQ131" s="212"/>
+      <c r="CR131" s="211"/>
+      <c r="CS131" s="211"/>
+      <c r="CT131" s="210"/>
+      <c r="CU131" s="210"/>
+      <c r="CV131" s="210"/>
+      <c r="CW131" s="210"/>
+      <c r="CX131" s="210"/>
+      <c r="CY131" s="211"/>
+      <c r="CZ131" s="211"/>
+      <c r="DA131" s="210"/>
+      <c r="DB131" s="210"/>
+      <c r="DC131" s="210"/>
+      <c r="DD131" s="210"/>
+      <c r="DE131" s="210"/>
+      <c r="DF131" s="216"/>
+      <c r="DG131" s="216"/>
+      <c r="DH131" s="210"/>
+      <c r="DI131" s="210"/>
+      <c r="DJ131" s="210"/>
+      <c r="DK131" s="210"/>
+      <c r="DL131" s="210"/>
+      <c r="DM131" s="211"/>
+      <c r="DN131" s="211"/>
+      <c r="DO131" s="212"/>
+      <c r="DP131" s="210"/>
+      <c r="DQ131" s="210"/>
+      <c r="DR131" s="210"/>
+      <c r="DS131" s="210"/>
+      <c r="DT131" s="211"/>
+      <c r="DU131" s="211"/>
+      <c r="DV131" s="212"/>
+      <c r="DW131" s="210"/>
+      <c r="DX131" s="210"/>
+      <c r="DY131" s="210"/>
+      <c r="DZ131" s="210"/>
+      <c r="EA131" s="211"/>
+      <c r="EB131" s="211"/>
+      <c r="EC131" s="212"/>
+      <c r="ED131" s="210"/>
+      <c r="EE131" s="210"/>
+      <c r="EF131" s="210"/>
+      <c r="EG131" s="210"/>
+      <c r="EH131" s="210"/>
+    </row>
+    <row r="132" spans="1:138" ht="39" customHeight="1">
+      <c r="CM132" s="67"/>
+      <c r="CQ132" s="94"/>
+      <c r="DU132" s="65"/>
+      <c r="DV132" s="65"/>
+    </row>
+    <row r="133" spans="1:138">
+      <c r="CM133" s="67"/>
+      <c r="CQ133" s="94"/>
+    </row>
+    <row r="134" spans="1:138">
+      <c r="A134" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="B116" s="113" t="s">
+      <c r="B134" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="C116" t="s">
-        <v>154</v>
-      </c>
-      <c r="E116" t="s">
-        <v>154</v>
-      </c>
-      <c r="AW116" s="65"/>
-      <c r="AX116" s="65"/>
-      <c r="AY116" s="65"/>
-      <c r="AZ116" s="65"/>
-      <c r="BA116" s="65"/>
-      <c r="BB116" s="65"/>
-      <c r="BD116" s="110"/>
-      <c r="BE116" s="65"/>
-      <c r="BF116" s="65"/>
-      <c r="BG116" s="65"/>
-      <c r="BH116" s="65"/>
-      <c r="BI116" s="65"/>
-      <c r="BJ116" s="65"/>
-      <c r="BK116" s="65"/>
-      <c r="BL116" s="65"/>
-      <c r="BM116" s="65"/>
-      <c r="BN116" s="65"/>
-      <c r="BO116" s="65"/>
-      <c r="BP116" s="65"/>
-      <c r="BQ116" s="65"/>
-      <c r="BR116" s="65"/>
-      <c r="BS116" s="65"/>
-      <c r="BT116" s="65"/>
-      <c r="BU116" s="65"/>
-      <c r="BV116" s="65"/>
-      <c r="BW116" s="111"/>
-      <c r="BX116" s="112"/>
-      <c r="BY116" s="65"/>
-      <c r="BZ116" s="65"/>
-      <c r="CA116" s="65"/>
-      <c r="CB116" s="65"/>
-      <c r="CC116" s="65"/>
-      <c r="CD116" s="65"/>
-      <c r="CE116" s="65"/>
-      <c r="CF116" s="65"/>
-      <c r="CG116" s="65"/>
-      <c r="CH116" s="65"/>
-      <c r="CI116" s="65"/>
-      <c r="CJ116" s="65"/>
-      <c r="CK116" s="65"/>
-      <c r="CL116" s="65"/>
-      <c r="CM116" s="65"/>
-      <c r="CN116" s="65"/>
-      <c r="CO116" s="65"/>
-      <c r="CP116" s="65"/>
-      <c r="CQ116" s="110"/>
-      <c r="CR116" s="65"/>
-      <c r="CS116" s="65"/>
-      <c r="CT116" s="65"/>
-      <c r="CU116" s="65"/>
-      <c r="CV116" s="65"/>
-      <c r="CW116" s="65"/>
-      <c r="CX116" s="65"/>
-      <c r="CY116" s="65"/>
-      <c r="CZ116" s="65"/>
-      <c r="DA116" s="65"/>
-      <c r="DB116" s="111"/>
-      <c r="DC116" s="112"/>
-      <c r="DD116" s="65"/>
-      <c r="DE116" s="65"/>
-      <c r="DF116" s="65"/>
-      <c r="DG116" s="65"/>
-      <c r="DH116" s="65"/>
-      <c r="DI116" s="65"/>
-      <c r="DJ116" s="65"/>
-      <c r="DK116" s="65"/>
-      <c r="DL116" s="65"/>
-      <c r="DZ116" s="67"/>
-    </row>
-    <row r="117" spans="1:132">
-      <c r="A117" s="1" t="s">
+      <c r="C134" t="s">
+        <v>149</v>
+      </c>
+      <c r="E134" t="s">
+        <v>149</v>
+      </c>
+      <c r="AW134" s="65"/>
+      <c r="AX134" s="65"/>
+      <c r="AY134" s="65"/>
+      <c r="AZ134" s="65"/>
+      <c r="BA134" s="65"/>
+      <c r="BB134" s="65"/>
+      <c r="BD134" s="95"/>
+      <c r="BE134" s="65"/>
+      <c r="BF134" s="65"/>
+      <c r="BG134" s="65"/>
+      <c r="BH134" s="65"/>
+      <c r="BI134" s="65"/>
+      <c r="BJ134" s="65"/>
+      <c r="BK134" s="65"/>
+      <c r="BL134" s="65"/>
+      <c r="BM134" s="65"/>
+      <c r="BN134" s="65"/>
+      <c r="BO134" s="65"/>
+      <c r="BP134" s="65"/>
+      <c r="BQ134" s="65"/>
+      <c r="BR134" s="65"/>
+      <c r="BS134" s="65"/>
+      <c r="BT134" s="65"/>
+      <c r="BU134" s="65"/>
+      <c r="BV134" s="65"/>
+      <c r="BW134" s="96"/>
+      <c r="BX134" s="97"/>
+      <c r="BY134" s="65"/>
+      <c r="BZ134" s="65"/>
+      <c r="CA134" s="65"/>
+      <c r="CB134" s="65"/>
+      <c r="CC134" s="65"/>
+      <c r="CD134" s="65"/>
+      <c r="CE134" s="65"/>
+      <c r="CF134" s="65"/>
+      <c r="CG134" s="65"/>
+      <c r="CH134" s="65"/>
+      <c r="CI134" s="65"/>
+      <c r="CJ134" s="65"/>
+      <c r="CK134" s="65"/>
+      <c r="CL134" s="65"/>
+      <c r="CM134" s="65"/>
+      <c r="CN134" s="65"/>
+      <c r="CO134" s="65"/>
+      <c r="CP134" s="65"/>
+      <c r="CQ134" s="95"/>
+      <c r="CR134" s="65"/>
+      <c r="CS134" s="65"/>
+      <c r="CT134" s="65"/>
+      <c r="CU134" s="65"/>
+      <c r="CV134" s="65"/>
+      <c r="CW134" s="65"/>
+      <c r="CX134" s="65"/>
+      <c r="CY134" s="65"/>
+      <c r="CZ134" s="65"/>
+      <c r="DA134" s="65"/>
+      <c r="DB134" s="96"/>
+      <c r="DC134" s="97"/>
+      <c r="DD134" s="65"/>
+      <c r="DE134" s="65"/>
+      <c r="DF134" s="65"/>
+      <c r="DG134" s="65"/>
+      <c r="DH134" s="65"/>
+      <c r="DI134" s="65"/>
+      <c r="DJ134" s="65"/>
+      <c r="DK134" s="65"/>
+      <c r="DL134" s="65"/>
+      <c r="DZ134" s="67"/>
+    </row>
+    <row r="135" spans="1:138">
+      <c r="A135" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B135" t="s">
         <v>111</v>
       </c>
-      <c r="C117">
-        <v>2</v>
-      </c>
-      <c r="D117">
+      <c r="C135">
+        <v>2</v>
+      </c>
+      <c r="D135">
         <v>3</v>
       </c>
-      <c r="E117">
-        <v>2</v>
-      </c>
-      <c r="F117">
+      <c r="E135">
+        <v>2</v>
+      </c>
+      <c r="F135">
         <v>3</v>
       </c>
-      <c r="AW117" s="76">
-        <v>2</v>
-      </c>
-      <c r="BA117" s="65"/>
-      <c r="BC117" s="65"/>
-      <c r="CM117" s="67"/>
-      <c r="CQ117" s="109"/>
-      <c r="DW117" s="67"/>
-      <c r="DX117" s="67"/>
-      <c r="DY117" s="67"/>
-      <c r="DZ117" s="67"/>
-      <c r="EA117" s="108"/>
-      <c r="EB117" s="108"/>
-    </row>
-    <row r="118" spans="1:132">
-      <c r="A118" s="1" t="s">
+      <c r="AW135" s="76">
+        <v>2</v>
+      </c>
+      <c r="BA135" s="65"/>
+      <c r="BC135" s="65"/>
+      <c r="CM135" s="67"/>
+      <c r="CQ135" s="94"/>
+      <c r="DW135" s="67"/>
+      <c r="DX135" s="67"/>
+      <c r="DY135" s="67"/>
+      <c r="DZ135" s="67"/>
+      <c r="EA135" s="93"/>
+      <c r="EB135" s="93"/>
+    </row>
+    <row r="136" spans="1:138">
+      <c r="A136" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B118" s="107" t="s">
-        <v>135</v>
-      </c>
-      <c r="C118">
+      <c r="B136" s="92" t="s">
+        <v>130</v>
+      </c>
+      <c r="C136">
         <v>3</v>
       </c>
-      <c r="E118">
+      <c r="E136">
         <v>3</v>
       </c>
-      <c r="AZ118" s="67"/>
-      <c r="CM118" s="67"/>
-      <c r="CQ118" s="109"/>
-      <c r="DW118" s="67"/>
-      <c r="DX118" s="67"/>
-      <c r="DY118" s="67"/>
-      <c r="DZ118" s="67"/>
-      <c r="EA118" s="108"/>
-      <c r="EB118" s="108"/>
-    </row>
-    <row r="119" spans="1:132">
-      <c r="A119" s="1" t="s">
+      <c r="AZ136" s="67"/>
+      <c r="CM136" s="67"/>
+      <c r="CQ136" s="94"/>
+      <c r="DW136" s="67"/>
+      <c r="DX136" s="67"/>
+      <c r="DY136" s="67"/>
+      <c r="DZ136" s="67"/>
+      <c r="EA136" s="93"/>
+      <c r="EB136" s="93"/>
+    </row>
+    <row r="137" spans="1:138">
+      <c r="A137" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B119" s="107" t="s">
-        <v>136</v>
-      </c>
-      <c r="C119">
+      <c r="B137" s="92" t="s">
+        <v>131</v>
+      </c>
+      <c r="C137">
         <v>3</v>
       </c>
-      <c r="E119">
+      <c r="E137">
         <v>3</v>
       </c>
-      <c r="CM119" s="67"/>
-      <c r="CQ119" s="109"/>
-      <c r="DW119" s="65"/>
-      <c r="DX119" s="67"/>
-      <c r="DY119" s="67"/>
-      <c r="DZ119" s="67"/>
-      <c r="EA119" s="108"/>
-      <c r="EB119" s="108"/>
-    </row>
-    <row r="120" spans="1:132">
-      <c r="A120" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B120" t="s">
-        <v>131</v>
-      </c>
-      <c r="CM120" s="67"/>
-      <c r="CQ120" s="109"/>
-      <c r="DA120" s="67"/>
-      <c r="DD120" s="67"/>
-      <c r="DE120" s="67"/>
-      <c r="DH120" s="67"/>
-      <c r="DK120" s="67"/>
-      <c r="DL120" s="67"/>
-      <c r="DU120" s="65"/>
-      <c r="DV120" s="65"/>
-      <c r="DW120" s="67"/>
-      <c r="DX120" s="65"/>
-      <c r="DY120" s="65"/>
-      <c r="DZ120" s="67"/>
-      <c r="EA120" s="108"/>
-      <c r="EB120" s="108"/>
-    </row>
-    <row r="121" spans="1:132">
-      <c r="B121" s="107" t="s">
-        <v>132</v>
-      </c>
-      <c r="C121">
+      <c r="CM137" s="67"/>
+      <c r="CQ137" s="94"/>
+      <c r="DW137" s="65"/>
+      <c r="DX137" s="67"/>
+      <c r="DY137" s="67"/>
+      <c r="DZ137" s="67"/>
+      <c r="EA137" s="93"/>
+      <c r="EB137" s="93"/>
+    </row>
+    <row r="138" spans="1:138">
+      <c r="A138" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B138" t="s">
+        <v>126</v>
+      </c>
+      <c r="CM138" s="67"/>
+      <c r="CQ138" s="94"/>
+      <c r="DA138" s="67"/>
+      <c r="DD138" s="67"/>
+      <c r="DE138" s="67"/>
+      <c r="DH138" s="67"/>
+      <c r="DK138" s="67"/>
+      <c r="DL138" s="67"/>
+      <c r="DU138" s="65"/>
+      <c r="DV138" s="65"/>
+      <c r="DW138" s="67"/>
+      <c r="DX138" s="65"/>
+      <c r="DY138" s="65"/>
+      <c r="DZ138" s="67"/>
+      <c r="EA138" s="93"/>
+      <c r="EB138" s="93"/>
+    </row>
+    <row r="139" spans="1:138">
+      <c r="B139" s="92" t="s">
+        <v>127</v>
+      </c>
+      <c r="C139">
         <v>3</v>
       </c>
-      <c r="E121">
+      <c r="E139">
         <v>3</v>
       </c>
-      <c r="CM121" s="67"/>
-      <c r="CQ121" s="109"/>
-      <c r="DA121" s="67"/>
-      <c r="DD121" s="67"/>
-      <c r="DE121" s="67"/>
-      <c r="DH121" s="67"/>
-      <c r="DK121" s="67"/>
-      <c r="DL121" s="67"/>
-    </row>
-    <row r="122" spans="1:132">
-      <c r="B122" s="107" t="s">
-        <v>133</v>
-      </c>
-      <c r="C122">
+      <c r="CM139" s="67"/>
+      <c r="CQ139" s="94"/>
+      <c r="DA139" s="67"/>
+      <c r="DD139" s="67"/>
+      <c r="DE139" s="67"/>
+      <c r="DH139" s="67"/>
+      <c r="DK139" s="67"/>
+      <c r="DL139" s="67"/>
+    </row>
+    <row r="140" spans="1:138">
+      <c r="B140" s="92" t="s">
+        <v>128</v>
+      </c>
+      <c r="C140">
         <v>14</v>
       </c>
-      <c r="E122">
+      <c r="E140">
         <v>4</v>
       </c>
-      <c r="CM122" s="67"/>
-      <c r="CQ122" s="109"/>
-      <c r="DA122" s="67"/>
-      <c r="DD122" s="67"/>
-      <c r="DE122" s="67"/>
-      <c r="DH122" s="67"/>
-      <c r="DK122" s="67"/>
-      <c r="DL122" s="67"/>
-    </row>
-    <row r="123" spans="1:132">
-      <c r="B123" s="107" t="s">
-        <v>134</v>
-      </c>
-      <c r="C123">
+      <c r="CM140" s="67"/>
+      <c r="CQ140" s="94"/>
+      <c r="DA140" s="67"/>
+      <c r="DD140" s="67"/>
+      <c r="DE140" s="67"/>
+      <c r="DH140" s="67"/>
+      <c r="DK140" s="67"/>
+      <c r="DL140" s="67"/>
+    </row>
+    <row r="141" spans="1:138">
+      <c r="B141" s="92" t="s">
+        <v>129</v>
+      </c>
+      <c r="C141">
         <v>3</v>
       </c>
-      <c r="E123">
+      <c r="E141">
         <v>0</v>
       </c>
-      <c r="CM123" s="67"/>
-      <c r="CQ123" s="109"/>
-      <c r="DA123" s="67"/>
-      <c r="DD123" s="67"/>
-      <c r="DE123" s="67"/>
-      <c r="DH123" s="67"/>
-      <c r="DK123" s="67"/>
-      <c r="DL123" s="67"/>
-    </row>
-    <row r="124" spans="1:132">
-      <c r="CM124" s="67"/>
-      <c r="CQ124" s="109"/>
-    </row>
-    <row r="125" spans="1:132">
-      <c r="CM125" s="67"/>
-      <c r="CQ125" s="109"/>
-    </row>
-    <row r="126" spans="1:132">
-      <c r="CM126" s="67"/>
-      <c r="CQ126" s="6"/>
-    </row>
-    <row r="127" spans="1:132" ht="31" thickBot="1">
-      <c r="A127" s="115" t="s">
-        <v>148</v>
-      </c>
-      <c r="B127" s="129" t="s">
-        <v>143</v>
-      </c>
-      <c r="C127" t="s">
-        <v>155</v>
-      </c>
-      <c r="E127" t="s">
-        <v>155</v>
-      </c>
-      <c r="AR127" s="88"/>
-      <c r="AS127" s="89"/>
-      <c r="AT127" s="168"/>
-      <c r="AU127" s="88"/>
-      <c r="AV127" s="88"/>
-      <c r="AW127" s="88"/>
-      <c r="AX127" s="88"/>
-      <c r="AY127" s="88"/>
-      <c r="AZ127" s="88"/>
-      <c r="BA127" s="88"/>
-      <c r="BB127" s="88"/>
-      <c r="BC127" s="151"/>
-      <c r="BD127" s="91"/>
-      <c r="BE127" s="88"/>
-      <c r="BF127" s="88"/>
-      <c r="BG127" s="88"/>
-      <c r="BH127" s="169"/>
-      <c r="BI127" s="88"/>
-      <c r="BJ127" s="88"/>
-      <c r="BK127" s="88"/>
-      <c r="BL127" s="88"/>
-      <c r="BM127" s="88"/>
-      <c r="BN127" s="88"/>
-      <c r="BO127" s="88"/>
-      <c r="BP127" s="88"/>
-      <c r="BQ127" s="88"/>
-      <c r="BR127" s="88"/>
-      <c r="BS127" s="88"/>
-      <c r="BT127" s="88"/>
-      <c r="BU127" s="88"/>
-      <c r="BV127" s="169"/>
-      <c r="BW127" s="89"/>
-      <c r="BX127" s="90"/>
-      <c r="BY127" s="88"/>
-      <c r="BZ127" s="88"/>
-      <c r="CA127" s="88"/>
-      <c r="CB127" s="88"/>
-      <c r="CC127" s="88"/>
-      <c r="CD127" s="88"/>
-      <c r="CE127" s="88"/>
-      <c r="CF127" s="88"/>
-      <c r="CG127" s="88"/>
-      <c r="CH127" s="88"/>
-      <c r="CI127" s="88"/>
-      <c r="CJ127" s="169"/>
-      <c r="CK127" s="88"/>
-      <c r="CL127" s="88"/>
-      <c r="CM127" s="88"/>
-      <c r="CN127" s="88"/>
-      <c r="CO127" s="88"/>
-      <c r="CP127" s="88"/>
-      <c r="CQ127" s="88"/>
-      <c r="CR127" s="88"/>
-      <c r="CS127" s="88"/>
-      <c r="CT127" s="88"/>
-      <c r="CU127" s="88"/>
-      <c r="CV127" s="88"/>
-      <c r="CW127" s="88"/>
-      <c r="CX127" s="169"/>
-      <c r="CY127" s="88"/>
-      <c r="CZ127" s="88"/>
-      <c r="DA127" s="67"/>
-      <c r="DB127" s="75"/>
-      <c r="DC127" s="70"/>
-      <c r="DD127" s="67"/>
-      <c r="DE127" s="67"/>
-      <c r="DH127" s="67"/>
-      <c r="DI127" s="67"/>
-      <c r="DJ127" s="67"/>
-      <c r="DK127" s="67"/>
-      <c r="DL127" s="67"/>
-    </row>
-    <row r="128" spans="1:132" ht="16" thickBot="1">
-      <c r="A128" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B128" t="s">
-        <v>115</v>
-      </c>
-      <c r="C128">
-        <v>4</v>
-      </c>
-      <c r="D128">
-        <v>5</v>
-      </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-      <c r="AT128" s="178">
-        <v>1</v>
-      </c>
-      <c r="AU128" s="165"/>
-      <c r="BB128" s="35"/>
-      <c r="BC128" s="179"/>
-      <c r="BD128" s="166"/>
-      <c r="BG128" s="31"/>
-      <c r="BH128" s="178">
-        <v>1</v>
-      </c>
-      <c r="BI128" s="143"/>
-      <c r="BS128" s="67"/>
-      <c r="BU128" s="31"/>
-      <c r="BV128" s="179"/>
-      <c r="BW128" s="147"/>
-      <c r="CB128" s="79">
-        <v>1</v>
-      </c>
-      <c r="CC128" s="67"/>
-      <c r="CF128" s="67"/>
-      <c r="CI128" s="31"/>
-      <c r="CJ128" s="178">
-        <v>1</v>
-      </c>
-      <c r="CK128" s="143"/>
-      <c r="CM128" s="67"/>
-      <c r="CQ128" s="6"/>
-      <c r="CW128" s="31"/>
-      <c r="CX128" s="178">
-        <v>1</v>
-      </c>
-      <c r="CY128" s="143"/>
-    </row>
-    <row r="129" spans="1:109" ht="31" thickBot="1">
-      <c r="B129" s="107" t="s">
-        <v>144</v>
-      </c>
-      <c r="D129" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT129" s="173"/>
-      <c r="AU129" s="80"/>
-      <c r="BC129" s="15"/>
-      <c r="BG129" s="79">
-        <v>3</v>
-      </c>
-      <c r="BH129" s="174"/>
-      <c r="BM129" s="79">
-        <v>3</v>
-      </c>
-      <c r="BS129" s="130">
-        <v>3</v>
-      </c>
-      <c r="BU129" s="79">
-        <v>2</v>
-      </c>
-      <c r="BV129" s="174">
-        <v>3</v>
-      </c>
-      <c r="CA129" s="79">
-        <v>2</v>
-      </c>
-      <c r="CB129" s="130">
-        <v>3</v>
-      </c>
-      <c r="CF129" s="67"/>
-      <c r="CH129" s="79">
-        <v>2</v>
-      </c>
-      <c r="CJ129" s="175"/>
-      <c r="CM129" s="67"/>
-      <c r="CO129" s="79">
-        <v>2</v>
-      </c>
-      <c r="CQ129" s="6"/>
-      <c r="CV129" s="79">
-        <v>2</v>
-      </c>
-      <c r="CX129" s="175"/>
-      <c r="DC129" s="81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:109" ht="16" thickBot="1">
-      <c r="A130" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B130" t="s">
-        <v>121</v>
-      </c>
-      <c r="C130">
-        <v>0</v>
-      </c>
-      <c r="E130">
-        <v>4</v>
-      </c>
-      <c r="AT130" s="178">
-        <v>1</v>
-      </c>
-      <c r="AU130" s="143"/>
-      <c r="BG130" s="31"/>
-      <c r="BH130" s="178">
-        <v>1</v>
-      </c>
-      <c r="BI130" s="143"/>
-      <c r="BU130" s="31"/>
-      <c r="BV130" s="178">
-        <v>1</v>
-      </c>
-      <c r="BW130" s="147"/>
-      <c r="CI130" s="31"/>
-      <c r="CJ130" s="178">
-        <v>1</v>
-      </c>
-      <c r="CK130" s="143"/>
-      <c r="CM130" s="67"/>
-      <c r="CQ130" s="6"/>
-      <c r="CW130" s="31"/>
-      <c r="CX130" s="178">
-        <v>1</v>
-      </c>
-      <c r="CY130" s="143"/>
-      <c r="DE130" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:109">
-      <c r="AT131" s="49"/>
-      <c r="BH131" s="14"/>
-      <c r="BV131" s="14"/>
-      <c r="CJ131" s="73"/>
-      <c r="CM131" s="67"/>
-      <c r="CQ131" s="6"/>
-      <c r="CX131" s="14"/>
-    </row>
-    <row r="132" spans="1:109">
-      <c r="CM132" s="67"/>
-      <c r="CQ132" s="6"/>
-    </row>
-    <row r="133" spans="1:109">
-      <c r="C133">
-        <f>SUM(C4:C132)</f>
-        <v>297</v>
-      </c>
-      <c r="D133">
-        <f>SUM(D4:D132)</f>
-        <v>183</v>
-      </c>
-      <c r="E133" s="66">
-        <f>SUM(E4:E132)</f>
-        <v>298</v>
-      </c>
-      <c r="F133">
-        <f>SUM(F4:F132)</f>
-        <v>156</v>
-      </c>
-      <c r="CM133" s="67"/>
-      <c r="CQ133" s="6"/>
-    </row>
-    <row r="134" spans="1:109">
-      <c r="C134" t="s">
-        <v>99</v>
-      </c>
-      <c r="D134" t="s">
-        <v>100</v>
-      </c>
-      <c r="E134" t="s">
-        <v>114</v>
-      </c>
-      <c r="F134" t="s">
-        <v>113</v>
-      </c>
-      <c r="CM134" s="67"/>
-      <c r="CQ134" s="6"/>
-    </row>
-    <row r="135" spans="1:109">
-      <c r="CM135" s="67"/>
-      <c r="CQ135" s="6"/>
-    </row>
-    <row r="137" spans="1:109">
-      <c r="CF137" s="67"/>
-      <c r="CG137" s="67"/>
-      <c r="CH137" s="67"/>
-      <c r="CI137" s="67"/>
-      <c r="CJ137" s="67"/>
-      <c r="CM137" s="67"/>
-      <c r="CQ137" s="6"/>
-    </row>
-    <row r="138" spans="1:109">
-      <c r="CF138" s="67"/>
-      <c r="CG138" s="67"/>
-      <c r="CH138" s="67"/>
-      <c r="CI138" s="67"/>
-      <c r="CJ138" s="67"/>
-      <c r="CM138" s="67"/>
-      <c r="CQ138" s="6"/>
-    </row>
-    <row r="139" spans="1:109">
-      <c r="CF139" s="67"/>
-      <c r="CG139" s="67"/>
-      <c r="CH139" s="67"/>
-      <c r="CI139" s="67"/>
-      <c r="CJ139" s="67"/>
-      <c r="CM139" s="67"/>
-      <c r="CQ139" s="6"/>
-    </row>
-    <row r="140" spans="1:109">
-      <c r="CF140" s="67"/>
-      <c r="CG140" s="67"/>
-      <c r="CH140" s="67"/>
-      <c r="CI140" s="67"/>
-      <c r="CJ140" s="67"/>
-      <c r="CM140" s="67"/>
-      <c r="CQ140" s="6"/>
-    </row>
-    <row r="141" spans="1:109">
       <c r="CM141" s="67"/>
-      <c r="CQ141" s="6"/>
-    </row>
-    <row r="142" spans="1:109">
+      <c r="CQ141" s="94"/>
+      <c r="DA141" s="67"/>
+      <c r="DD141" s="67"/>
+      <c r="DE141" s="67"/>
+      <c r="DH141" s="67"/>
+      <c r="DK141" s="67"/>
+      <c r="DL141" s="67"/>
+    </row>
+    <row r="142" spans="1:138">
       <c r="CM142" s="67"/>
-      <c r="CQ142" s="6"/>
-    </row>
-    <row r="143" spans="1:109">
+      <c r="CQ142" s="94"/>
+    </row>
+    <row r="143" spans="1:138">
       <c r="CM143" s="67"/>
-      <c r="CQ143" s="6"/>
-    </row>
-    <row r="144" spans="1:109">
+      <c r="CQ143" s="94"/>
+    </row>
+    <row r="144" spans="1:138">
       <c r="CM144" s="67"/>
       <c r="CQ144" s="6"/>
     </row>
-    <row r="145" spans="91:95">
-      <c r="CM145" s="67"/>
-      <c r="CQ145" s="6"/>
-    </row>
-    <row r="181" spans="91:95">
-      <c r="CM181" s="67"/>
-      <c r="CQ181" s="6"/>
-    </row>
-    <row r="182" spans="91:95">
-      <c r="CM182" s="67"/>
-    </row>
-    <row r="183" spans="91:95">
-      <c r="CM183" s="67"/>
-    </row>
-    <row r="184" spans="91:95">
-      <c r="CM184" s="67"/>
-    </row>
-    <row r="185" spans="91:95">
-      <c r="CM185" s="67"/>
-    </row>
-    <row r="186" spans="91:95">
-      <c r="CM186" s="67"/>
-    </row>
-    <row r="187" spans="91:95">
-      <c r="CM187" s="67"/>
-    </row>
-    <row r="188" spans="91:95">
-      <c r="CM188" s="67"/>
-    </row>
-    <row r="189" spans="91:95">
-      <c r="CM189" s="67"/>
-    </row>
-    <row r="190" spans="91:95">
-      <c r="CM190" s="67"/>
-    </row>
-    <row r="191" spans="91:95">
-      <c r="CM191" s="67"/>
-    </row>
-    <row r="192" spans="91:95">
-      <c r="CM192" s="67"/>
-    </row>
-    <row r="193" spans="91:91">
-      <c r="CM193" s="67"/>
-    </row>
-    <row r="194" spans="91:91">
-      <c r="CM194" s="67"/>
-    </row>
-    <row r="195" spans="91:91">
-      <c r="CM195" s="67"/>
-    </row>
-    <row r="196" spans="91:91">
-      <c r="CM196" s="67"/>
-    </row>
-    <row r="197" spans="91:91">
-      <c r="CM197" s="67"/>
-    </row>
-    <row r="198" spans="91:91">
-      <c r="CM198" s="67"/>
-    </row>
-    <row r="199" spans="91:91">
+    <row r="145" spans="1:116" ht="31" thickBot="1">
+      <c r="A145" s="100" t="s">
+        <v>143</v>
+      </c>
+      <c r="B145" s="114" t="s">
+        <v>138</v>
+      </c>
+      <c r="C145" t="s">
+        <v>150</v>
+      </c>
+      <c r="E145" t="s">
+        <v>150</v>
+      </c>
+      <c r="AR145" s="88"/>
+      <c r="AS145" s="89"/>
+      <c r="AT145" s="153"/>
+      <c r="AU145" s="88"/>
+      <c r="AV145" s="88"/>
+      <c r="AW145" s="88"/>
+      <c r="AX145" s="88"/>
+      <c r="AY145" s="88"/>
+      <c r="AZ145" s="88"/>
+      <c r="BA145" s="88"/>
+      <c r="BB145" s="88"/>
+      <c r="BC145" s="136"/>
+      <c r="BD145" s="91"/>
+      <c r="BE145" s="88"/>
+      <c r="BF145" s="88"/>
+      <c r="BG145" s="88"/>
+      <c r="BH145" s="154"/>
+      <c r="BI145" s="88"/>
+      <c r="BJ145" s="88"/>
+      <c r="BK145" s="88"/>
+      <c r="BL145" s="88"/>
+      <c r="BM145" s="88"/>
+      <c r="BN145" s="88"/>
+      <c r="BO145" s="88"/>
+      <c r="BP145" s="88"/>
+      <c r="BQ145" s="88"/>
+      <c r="BR145" s="88"/>
+      <c r="BS145" s="88"/>
+      <c r="BT145" s="88"/>
+      <c r="BU145" s="88"/>
+      <c r="BV145" s="154"/>
+      <c r="BW145" s="89"/>
+      <c r="BX145" s="90"/>
+      <c r="BY145" s="88"/>
+      <c r="BZ145" s="88"/>
+      <c r="CA145" s="88"/>
+      <c r="CB145" s="88"/>
+      <c r="CC145" s="88"/>
+      <c r="CD145" s="88"/>
+      <c r="CE145" s="88"/>
+      <c r="CF145" s="88"/>
+      <c r="CG145" s="88"/>
+      <c r="CH145" s="88"/>
+      <c r="CI145" s="88"/>
+      <c r="CJ145" s="154"/>
+      <c r="CK145" s="88"/>
+      <c r="CL145" s="88"/>
+      <c r="CM145" s="88"/>
+      <c r="CN145" s="88"/>
+      <c r="CO145" s="88"/>
+      <c r="CP145" s="88"/>
+      <c r="CQ145" s="88"/>
+      <c r="CR145" s="88"/>
+      <c r="CS145" s="88"/>
+      <c r="CT145" s="88"/>
+      <c r="CU145" s="88"/>
+      <c r="CV145" s="88"/>
+      <c r="CW145" s="88"/>
+      <c r="CX145" s="154"/>
+      <c r="CY145" s="88"/>
+      <c r="CZ145" s="88"/>
+      <c r="DA145" s="67"/>
+      <c r="DB145" s="75"/>
+      <c r="DC145" s="70"/>
+      <c r="DD145" s="67"/>
+      <c r="DE145" s="67"/>
+      <c r="DH145" s="67"/>
+      <c r="DI145" s="67"/>
+      <c r="DJ145" s="67"/>
+      <c r="DK145" s="67"/>
+      <c r="DL145" s="67"/>
+    </row>
+    <row r="146" spans="1:116" ht="16" thickBot="1">
+      <c r="A146" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>115</v>
+      </c>
+      <c r="C146">
+        <v>4</v>
+      </c>
+      <c r="D146">
+        <v>5</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="AT146" s="163">
+        <v>1</v>
+      </c>
+      <c r="AU146" s="150"/>
+      <c r="BB146" s="35"/>
+      <c r="BC146" s="164"/>
+      <c r="BD146" s="151"/>
+      <c r="BG146" s="31"/>
+      <c r="BH146" s="163">
+        <v>1</v>
+      </c>
+      <c r="BI146" s="128"/>
+      <c r="BS146" s="67"/>
+      <c r="BU146" s="31"/>
+      <c r="BV146" s="164"/>
+      <c r="BW146" s="132"/>
+      <c r="CB146" s="79">
+        <v>1</v>
+      </c>
+      <c r="CC146" s="67"/>
+      <c r="CF146" s="67"/>
+      <c r="CI146" s="31"/>
+      <c r="CJ146" s="163">
+        <v>1</v>
+      </c>
+      <c r="CK146" s="128"/>
+      <c r="CM146" s="67"/>
+      <c r="CQ146" s="6"/>
+      <c r="CW146" s="31"/>
+      <c r="CX146" s="163">
+        <v>1</v>
+      </c>
+      <c r="CY146" s="128"/>
+    </row>
+    <row r="147" spans="1:116" ht="31" thickBot="1">
+      <c r="B147" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="D147" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT147" s="158"/>
+      <c r="AU147" s="80"/>
+      <c r="BC147" s="15"/>
+      <c r="BG147" s="79">
+        <v>3</v>
+      </c>
+      <c r="BH147" s="159"/>
+      <c r="BM147" s="79">
+        <v>3</v>
+      </c>
+      <c r="BS147" s="115">
+        <v>3</v>
+      </c>
+      <c r="BU147" s="79">
+        <v>2</v>
+      </c>
+      <c r="BV147" s="159">
+        <v>3</v>
+      </c>
+      <c r="CA147" s="79">
+        <v>2</v>
+      </c>
+      <c r="CB147" s="115">
+        <v>3</v>
+      </c>
+      <c r="CF147" s="67"/>
+      <c r="CH147" s="79">
+        <v>2</v>
+      </c>
+      <c r="CJ147" s="160"/>
+      <c r="CM147" s="67"/>
+      <c r="CO147" s="79">
+        <v>2</v>
+      </c>
+      <c r="CQ147" s="6"/>
+      <c r="CV147" s="79">
+        <v>2</v>
+      </c>
+      <c r="CX147" s="160"/>
+      <c r="DC147" s="81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:116" ht="16" thickBot="1">
+      <c r="A148" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B148" t="s">
+        <v>121</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>4</v>
+      </c>
+      <c r="AT148" s="163">
+        <v>1</v>
+      </c>
+      <c r="AU148" s="128"/>
+      <c r="BG148" s="31"/>
+      <c r="BH148" s="163">
+        <v>1</v>
+      </c>
+      <c r="BI148" s="128"/>
+      <c r="BU148" s="31"/>
+      <c r="BV148" s="163">
+        <v>1</v>
+      </c>
+      <c r="BW148" s="132"/>
+      <c r="CI148" s="31"/>
+      <c r="CJ148" s="163">
+        <v>1</v>
+      </c>
+      <c r="CK148" s="128"/>
+      <c r="CM148" s="67"/>
+      <c r="CQ148" s="6"/>
+      <c r="CW148" s="31"/>
+      <c r="CX148" s="163">
+        <v>1</v>
+      </c>
+      <c r="CY148" s="128"/>
+      <c r="DE148" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:116">
+      <c r="AT149" s="49"/>
+      <c r="BH149" s="14"/>
+      <c r="BV149" s="14"/>
+      <c r="CJ149" s="73"/>
+      <c r="CM149" s="67"/>
+      <c r="CQ149" s="6"/>
+      <c r="CX149" s="14"/>
+    </row>
+    <row r="150" spans="1:116">
+      <c r="CM150" s="67"/>
+      <c r="CQ150" s="6"/>
+    </row>
+    <row r="151" spans="1:116">
+      <c r="C151">
+        <f>SUM(C4:C150)</f>
+        <v>301</v>
+      </c>
+      <c r="D151">
+        <f>SUM(D4:D150)</f>
+        <v>185</v>
+      </c>
+      <c r="E151" s="66">
+        <f>SUM(E4:E150)</f>
+        <v>296</v>
+      </c>
+      <c r="F151">
+        <f>SUM(F4:F150)</f>
+        <v>155</v>
+      </c>
+      <c r="CM151" s="67"/>
+      <c r="CQ151" s="6"/>
+    </row>
+    <row r="152" spans="1:116">
+      <c r="C152" t="s">
+        <v>99</v>
+      </c>
+      <c r="D152" t="s">
+        <v>100</v>
+      </c>
+      <c r="E152" t="s">
+        <v>114</v>
+      </c>
+      <c r="F152" t="s">
+        <v>113</v>
+      </c>
+      <c r="CM152" s="67"/>
+      <c r="CQ152" s="6"/>
+    </row>
+    <row r="153" spans="1:116">
+      <c r="CM153" s="67"/>
+      <c r="CQ153" s="6"/>
+    </row>
+    <row r="154" spans="1:116">
+      <c r="CQ154" s="6"/>
+    </row>
+    <row r="155" spans="1:116">
+      <c r="CF155" s="67"/>
+      <c r="CG155" s="67"/>
+      <c r="CH155" s="67"/>
+      <c r="CI155" s="67"/>
+      <c r="CJ155" s="67"/>
+      <c r="CM155" s="67"/>
+      <c r="CQ155" s="6"/>
+    </row>
+    <row r="156" spans="1:116">
+      <c r="CF156" s="67"/>
+      <c r="CG156" s="67"/>
+      <c r="CH156" s="67"/>
+      <c r="CI156" s="67"/>
+      <c r="CJ156" s="67"/>
+      <c r="CM156" s="67"/>
+      <c r="CQ156" s="6"/>
+    </row>
+    <row r="157" spans="1:116">
+      <c r="CF157" s="67"/>
+      <c r="CG157" s="67"/>
+      <c r="CH157" s="67"/>
+      <c r="CI157" s="67"/>
+      <c r="CJ157" s="67"/>
+      <c r="CM157" s="67"/>
+      <c r="CQ157" s="6"/>
+    </row>
+    <row r="158" spans="1:116">
+      <c r="CF158" s="67"/>
+      <c r="CG158" s="67"/>
+      <c r="CH158" s="67"/>
+      <c r="CI158" s="67"/>
+      <c r="CJ158" s="67"/>
+      <c r="CM158" s="67"/>
+      <c r="CQ158" s="6"/>
+    </row>
+    <row r="159" spans="1:116">
+      <c r="CM159" s="67"/>
+      <c r="CQ159" s="6"/>
+    </row>
+    <row r="160" spans="1:116">
+      <c r="CM160" s="67"/>
+      <c r="CQ160" s="6"/>
+    </row>
+    <row r="161" spans="91:95">
+      <c r="CM161" s="67"/>
+      <c r="CQ161" s="6"/>
+    </row>
+    <row r="162" spans="91:95">
+      <c r="CM162" s="67"/>
+      <c r="CQ162" s="6"/>
+    </row>
+    <row r="163" spans="91:95">
+      <c r="CM163" s="67"/>
+      <c r="CQ163" s="6"/>
+    </row>
+    <row r="199" spans="91:95">
       <c r="CM199" s="67"/>
-    </row>
-    <row r="200" spans="91:91">
+      <c r="CQ199" s="6"/>
+    </row>
+    <row r="200" spans="91:95">
       <c r="CM200" s="67"/>
     </row>
-    <row r="201" spans="91:91">
+    <row r="201" spans="91:95">
       <c r="CM201" s="67"/>
     </row>
-    <row r="202" spans="91:91">
+    <row r="202" spans="91:95">
       <c r="CM202" s="67"/>
     </row>
-    <row r="203" spans="91:91">
+    <row r="203" spans="91:95">
       <c r="CM203" s="67"/>
     </row>
-    <row r="204" spans="91:91">
+    <row r="204" spans="91:95">
       <c r="CM204" s="67"/>
     </row>
-    <row r="205" spans="91:91">
+    <row r="205" spans="91:95">
       <c r="CM205" s="67"/>
     </row>
-    <row r="206" spans="91:91">
+    <row r="206" spans="91:95">
       <c r="CM206" s="67"/>
     </row>
-    <row r="207" spans="91:91">
+    <row r="207" spans="91:95">
       <c r="CM207" s="67"/>
     </row>
-    <row r="208" spans="91:91">
+    <row r="208" spans="91:95">
       <c r="CM208" s="67"/>
     </row>
     <row r="209" spans="91:91">
@@ -7058,6 +8309,60 @@
     </row>
     <row r="264" spans="91:91">
       <c r="CM264" s="67"/>
+    </row>
+    <row r="265" spans="91:91">
+      <c r="CM265" s="67"/>
+    </row>
+    <row r="266" spans="91:91">
+      <c r="CM266" s="67"/>
+    </row>
+    <row r="267" spans="91:91">
+      <c r="CM267" s="67"/>
+    </row>
+    <row r="268" spans="91:91">
+      <c r="CM268" s="67"/>
+    </row>
+    <row r="269" spans="91:91">
+      <c r="CM269" s="67"/>
+    </row>
+    <row r="270" spans="91:91">
+      <c r="CM270" s="67"/>
+    </row>
+    <row r="271" spans="91:91">
+      <c r="CM271" s="67"/>
+    </row>
+    <row r="272" spans="91:91">
+      <c r="CM272" s="67"/>
+    </row>
+    <row r="273" spans="91:91">
+      <c r="CM273" s="67"/>
+    </row>
+    <row r="274" spans="91:91">
+      <c r="CM274" s="67"/>
+    </row>
+    <row r="275" spans="91:91">
+      <c r="CM275" s="67"/>
+    </row>
+    <row r="276" spans="91:91">
+      <c r="CM276" s="67"/>
+    </row>
+    <row r="277" spans="91:91">
+      <c r="CM277" s="67"/>
+    </row>
+    <row r="278" spans="91:91">
+      <c r="CM278" s="67"/>
+    </row>
+    <row r="279" spans="91:91">
+      <c r="CM279" s="67"/>
+    </row>
+    <row r="280" spans="91:91">
+      <c r="CM280" s="67"/>
+    </row>
+    <row r="281" spans="91:91">
+      <c r="CM281" s="67"/>
+    </row>
+    <row r="282" spans="91:91">
+      <c r="CM282" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/konzept/projektplan.xlsx
+++ b/konzept/projektplan.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-440" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="239">
   <si>
     <t>#</t>
   </si>
@@ -277,9 +277,6 @@
     <t>3.2</t>
   </si>
   <si>
-    <t>3.3</t>
-  </si>
-  <si>
     <t>3.4</t>
   </si>
   <si>
@@ -307,9 +304,6 @@
     <t>4.5</t>
   </si>
   <si>
-    <t>Userinterface</t>
-  </si>
-  <si>
     <t>6.</t>
   </si>
   <si>
@@ -370,9 +364,6 @@
     <t>MCI</t>
   </si>
   <si>
-    <t>Einarbeitung Android</t>
-  </si>
-  <si>
     <t>Einrichtung Latex</t>
   </si>
   <si>
@@ -469,9 +460,6 @@
     <t>Content Modeling</t>
   </si>
   <si>
-    <t>12*0</t>
-  </si>
-  <si>
     <t>4*0</t>
   </si>
   <si>
@@ -650,6 +638,105 @@
   </si>
   <si>
     <t>Projektreflektion</t>
+  </si>
+  <si>
+    <t>Einarbeitung in Entwicklungsumgebung</t>
+  </si>
+  <si>
+    <t>Einrichtung der Entwicklungsumgebung</t>
+  </si>
+  <si>
+    <t>Einarbeitung in  Programmiersprache Android</t>
+  </si>
+  <si>
+    <t>Realisierung einer „Hello World“ App</t>
+  </si>
+  <si>
+    <t>Einarbeitung in GCM</t>
+  </si>
+  <si>
+    <t>Realisierung eines Prototypen</t>
+  </si>
+  <si>
+    <t>Einarbeitung in GCM CCS</t>
+  </si>
+  <si>
+    <t>Einarbeitung in Datenbanksysteme</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>Finale Evaluation</t>
+  </si>
+  <si>
+    <t>Einarbeitung in Hintergrundprozesse</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>Serveranwendung</t>
+  </si>
+  <si>
+    <t>Android Client - Funktionalität</t>
+  </si>
+  <si>
+    <t>Android Client - Userinterface</t>
+  </si>
+  <si>
+    <t>Anmeldung/Registrierung</t>
+  </si>
+  <si>
+    <t>Autocomplete für Städtenamen</t>
+  </si>
+  <si>
+    <t>GCM: Messagebroker</t>
+  </si>
+  <si>
+    <t>GCM: Controller</t>
+  </si>
+  <si>
+    <t>Controller für Registierung/Anmeldung</t>
+  </si>
+  <si>
+    <t>Model für User, Mietobjekt, Nachricht</t>
+  </si>
+  <si>
+    <t>GCM: Model für Request, Response</t>
+  </si>
+  <si>
+    <t>Controller für Einstellungen</t>
+  </si>
+  <si>
+    <t>DB: Anlegen der Tabellen</t>
+  </si>
+  <si>
+    <t>DB: Helper-Klassen für Zugriff</t>
+  </si>
+  <si>
+    <t>Gestaltungslösungen implementieren</t>
+  </si>
+  <si>
+    <t>Dialoggestaltung</t>
+  </si>
+  <si>
+    <t>Funktionen mit Basis UI-Elementen realisieren</t>
+  </si>
+  <si>
+    <t>DB: Implementierung MySQL Treiber</t>
+  </si>
+  <si>
+    <t>DB: Aufsetzen einer MySQL Instanz</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -662,6 +749,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1533,8 +1621,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1846,6 +1956,21 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1891,100 +2016,107 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="77">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="99">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2316,16 +2448,16 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EH282"/>
+  <dimension ref="A1:EH318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="BT121" sqref="BT121"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
@@ -2475,7 +2607,7 @@
       <c r="CA1" s="40"/>
       <c r="CB1" s="40"/>
       <c r="CC1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="CD1" s="40"/>
       <c r="CE1" s="40"/>
@@ -2544,155 +2676,155 @@
       <c r="EH1" s="45"/>
     </row>
     <row r="2" spans="1:138">
-      <c r="C2" s="195" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="196"/>
-      <c r="G2" s="192" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="194"/>
-      <c r="O2" s="197" t="s">
+      <c r="C2" s="208" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="209"/>
+      <c r="G2" s="205" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="207"/>
+      <c r="O2" s="210" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="198"/>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="198"/>
-      <c r="S2" s="198"/>
-      <c r="T2" s="198"/>
-      <c r="U2" s="198"/>
-      <c r="V2" s="198"/>
-      <c r="W2" s="198"/>
-      <c r="X2" s="198"/>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="198"/>
-      <c r="AA2" s="198"/>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="198"/>
-      <c r="AD2" s="198"/>
-      <c r="AE2" s="198"/>
-      <c r="AF2" s="198"/>
-      <c r="AG2" s="198"/>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="198"/>
-      <c r="AJ2" s="198"/>
-      <c r="AK2" s="198"/>
-      <c r="AL2" s="198"/>
-      <c r="AM2" s="198"/>
-      <c r="AN2" s="198"/>
-      <c r="AO2" s="198"/>
-      <c r="AP2" s="198"/>
-      <c r="AQ2" s="198"/>
-      <c r="AR2" s="198"/>
-      <c r="AS2" s="199"/>
-      <c r="AT2" s="189" t="s">
+      <c r="P2" s="211"/>
+      <c r="Q2" s="211"/>
+      <c r="R2" s="211"/>
+      <c r="S2" s="211"/>
+      <c r="T2" s="211"/>
+      <c r="U2" s="211"/>
+      <c r="V2" s="211"/>
+      <c r="W2" s="211"/>
+      <c r="X2" s="211"/>
+      <c r="Y2" s="211"/>
+      <c r="Z2" s="211"/>
+      <c r="AA2" s="211"/>
+      <c r="AB2" s="211"/>
+      <c r="AC2" s="211"/>
+      <c r="AD2" s="211"/>
+      <c r="AE2" s="211"/>
+      <c r="AF2" s="211"/>
+      <c r="AG2" s="211"/>
+      <c r="AH2" s="211"/>
+      <c r="AI2" s="211"/>
+      <c r="AJ2" s="211"/>
+      <c r="AK2" s="211"/>
+      <c r="AL2" s="211"/>
+      <c r="AM2" s="211"/>
+      <c r="AN2" s="211"/>
+      <c r="AO2" s="211"/>
+      <c r="AP2" s="211"/>
+      <c r="AQ2" s="211"/>
+      <c r="AR2" s="211"/>
+      <c r="AS2" s="212"/>
+      <c r="AT2" s="202" t="s">
         <v>34</v>
       </c>
-      <c r="AU2" s="190"/>
-      <c r="AV2" s="190"/>
-      <c r="AW2" s="190"/>
-      <c r="AX2" s="190"/>
-      <c r="AY2" s="190"/>
-      <c r="AZ2" s="190"/>
-      <c r="BA2" s="190"/>
-      <c r="BB2" s="190"/>
-      <c r="BC2" s="190"/>
-      <c r="BD2" s="190"/>
-      <c r="BE2" s="190"/>
-      <c r="BF2" s="190"/>
-      <c r="BG2" s="190"/>
-      <c r="BH2" s="190"/>
-      <c r="BI2" s="190"/>
-      <c r="BJ2" s="190"/>
-      <c r="BK2" s="190"/>
-      <c r="BL2" s="190"/>
-      <c r="BM2" s="190"/>
-      <c r="BN2" s="190"/>
-      <c r="BO2" s="190"/>
-      <c r="BP2" s="190"/>
-      <c r="BQ2" s="190"/>
-      <c r="BR2" s="190"/>
-      <c r="BS2" s="190"/>
-      <c r="BT2" s="190"/>
-      <c r="BU2" s="190"/>
-      <c r="BV2" s="190"/>
-      <c r="BW2" s="200"/>
-      <c r="BX2" s="201" t="s">
+      <c r="AU2" s="203"/>
+      <c r="AV2" s="203"/>
+      <c r="AW2" s="203"/>
+      <c r="AX2" s="203"/>
+      <c r="AY2" s="203"/>
+      <c r="AZ2" s="203"/>
+      <c r="BA2" s="203"/>
+      <c r="BB2" s="203"/>
+      <c r="BC2" s="203"/>
+      <c r="BD2" s="203"/>
+      <c r="BE2" s="203"/>
+      <c r="BF2" s="203"/>
+      <c r="BG2" s="203"/>
+      <c r="BH2" s="203"/>
+      <c r="BI2" s="203"/>
+      <c r="BJ2" s="203"/>
+      <c r="BK2" s="203"/>
+      <c r="BL2" s="203"/>
+      <c r="BM2" s="203"/>
+      <c r="BN2" s="203"/>
+      <c r="BO2" s="203"/>
+      <c r="BP2" s="203"/>
+      <c r="BQ2" s="203"/>
+      <c r="BR2" s="203"/>
+      <c r="BS2" s="203"/>
+      <c r="BT2" s="203"/>
+      <c r="BU2" s="203"/>
+      <c r="BV2" s="203"/>
+      <c r="BW2" s="213"/>
+      <c r="BX2" s="214" t="s">
         <v>35</v>
       </c>
-      <c r="BY2" s="202"/>
-      <c r="BZ2" s="202"/>
-      <c r="CA2" s="202"/>
-      <c r="CB2" s="202"/>
-      <c r="CC2" s="202"/>
-      <c r="CD2" s="202"/>
-      <c r="CE2" s="202"/>
-      <c r="CF2" s="202"/>
-      <c r="CG2" s="202"/>
-      <c r="CH2" s="202"/>
-      <c r="CI2" s="202"/>
-      <c r="CJ2" s="202"/>
-      <c r="CK2" s="202"/>
-      <c r="CL2" s="202"/>
-      <c r="CM2" s="202"/>
-      <c r="CN2" s="202"/>
-      <c r="CO2" s="202"/>
-      <c r="CP2" s="202"/>
-      <c r="CQ2" s="202"/>
-      <c r="CR2" s="202"/>
-      <c r="CS2" s="202"/>
-      <c r="CT2" s="202"/>
-      <c r="CU2" s="202"/>
-      <c r="CV2" s="202"/>
-      <c r="CW2" s="202"/>
-      <c r="CX2" s="202"/>
-      <c r="CY2" s="202"/>
-      <c r="CZ2" s="202"/>
-      <c r="DA2" s="202"/>
-      <c r="DB2" s="203"/>
-      <c r="DC2" s="189" t="s">
+      <c r="BY2" s="215"/>
+      <c r="BZ2" s="215"/>
+      <c r="CA2" s="215"/>
+      <c r="CB2" s="215"/>
+      <c r="CC2" s="215"/>
+      <c r="CD2" s="215"/>
+      <c r="CE2" s="215"/>
+      <c r="CF2" s="215"/>
+      <c r="CG2" s="215"/>
+      <c r="CH2" s="215"/>
+      <c r="CI2" s="215"/>
+      <c r="CJ2" s="215"/>
+      <c r="CK2" s="215"/>
+      <c r="CL2" s="215"/>
+      <c r="CM2" s="215"/>
+      <c r="CN2" s="215"/>
+      <c r="CO2" s="215"/>
+      <c r="CP2" s="215"/>
+      <c r="CQ2" s="215"/>
+      <c r="CR2" s="215"/>
+      <c r="CS2" s="215"/>
+      <c r="CT2" s="215"/>
+      <c r="CU2" s="215"/>
+      <c r="CV2" s="215"/>
+      <c r="CW2" s="215"/>
+      <c r="CX2" s="215"/>
+      <c r="CY2" s="215"/>
+      <c r="CZ2" s="215"/>
+      <c r="DA2" s="215"/>
+      <c r="DB2" s="216"/>
+      <c r="DC2" s="202" t="s">
         <v>36</v>
       </c>
-      <c r="DD2" s="190"/>
-      <c r="DE2" s="190"/>
-      <c r="DF2" s="190"/>
-      <c r="DG2" s="190"/>
-      <c r="DH2" s="190"/>
-      <c r="DI2" s="190"/>
-      <c r="DJ2" s="190"/>
-      <c r="DK2" s="190"/>
-      <c r="DL2" s="190"/>
-      <c r="DM2" s="190"/>
-      <c r="DN2" s="190"/>
-      <c r="DO2" s="190"/>
-      <c r="DP2" s="190"/>
-      <c r="DQ2" s="190"/>
-      <c r="DR2" s="190"/>
-      <c r="DS2" s="190"/>
-      <c r="DT2" s="190"/>
-      <c r="DU2" s="190"/>
-      <c r="DV2" s="190"/>
-      <c r="DW2" s="190"/>
-      <c r="DX2" s="190"/>
-      <c r="DY2" s="190"/>
-      <c r="DZ2" s="190"/>
-      <c r="EA2" s="190"/>
-      <c r="EB2" s="190"/>
-      <c r="EC2" s="190"/>
-      <c r="ED2" s="190"/>
-      <c r="EE2" s="190"/>
-      <c r="EF2" s="190"/>
-      <c r="EG2" s="191"/>
+      <c r="DD2" s="203"/>
+      <c r="DE2" s="203"/>
+      <c r="DF2" s="203"/>
+      <c r="DG2" s="203"/>
+      <c r="DH2" s="203"/>
+      <c r="DI2" s="203"/>
+      <c r="DJ2" s="203"/>
+      <c r="DK2" s="203"/>
+      <c r="DL2" s="203"/>
+      <c r="DM2" s="203"/>
+      <c r="DN2" s="203"/>
+      <c r="DO2" s="203"/>
+      <c r="DP2" s="203"/>
+      <c r="DQ2" s="203"/>
+      <c r="DR2" s="203"/>
+      <c r="DS2" s="203"/>
+      <c r="DT2" s="203"/>
+      <c r="DU2" s="203"/>
+      <c r="DV2" s="203"/>
+      <c r="DW2" s="203"/>
+      <c r="DX2" s="203"/>
+      <c r="DY2" s="203"/>
+      <c r="DZ2" s="203"/>
+      <c r="EA2" s="203"/>
+      <c r="EB2" s="203"/>
+      <c r="EC2" s="203"/>
+      <c r="ED2" s="203"/>
+      <c r="EE2" s="203"/>
+      <c r="EF2" s="203"/>
+      <c r="EG2" s="204"/>
     </row>
     <row r="3" spans="1:138" s="21" customFormat="1" ht="16" thickBot="1">
       <c r="A3" s="20" t="s">
@@ -2702,16 +2834,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G3" s="55">
         <v>23</v>
@@ -3116,16 +3248,16 @@
         <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G4" s="49"/>
       <c r="H4" s="14"/>
@@ -3363,16 +3495,16 @@
         <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
@@ -3556,7 +3688,7 @@
         <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -3832,7 +3964,7 @@
     </row>
     <row r="24" spans="1:95">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
         <v>81</v>
@@ -3850,7 +3982,7 @@
         <v>1</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AM24" s="67"/>
       <c r="AP24" s="11">
@@ -3873,22 +4005,22 @@
     </row>
     <row r="27" spans="1:95" ht="16" thickBot="1">
       <c r="A27" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B27" s="109" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C27" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D27" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E27" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F27" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AM27" s="67"/>
       <c r="AV27" s="35"/>
@@ -3928,7 +4060,7 @@
     <row r="29" spans="1:95">
       <c r="A29" s="78"/>
       <c r="B29" s="110" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3986,7 +4118,7 @@
     <row r="31" spans="1:95">
       <c r="A31" s="78"/>
       <c r="B31" s="110" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -4013,7 +4145,7 @@
     <row r="32" spans="1:95">
       <c r="A32" s="78"/>
       <c r="B32" s="110" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -4125,7 +4257,7 @@
     <row r="36" spans="1:116" ht="16" thickBot="1">
       <c r="A36" s="78"/>
       <c r="B36" s="110" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -4163,7 +4295,7 @@
         <v>82</v>
       </c>
       <c r="B39" s="111" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AR39" s="67"/>
       <c r="AS39" s="75"/>
@@ -4242,7 +4374,7 @@
     <row r="40" spans="1:116">
       <c r="A40" s="78"/>
       <c r="B40" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AR40" s="117"/>
       <c r="AS40" s="118"/>
@@ -4277,7 +4409,7 @@
     <row r="41" spans="1:116">
       <c r="A41" s="78"/>
       <c r="B41" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AR41" s="117"/>
       <c r="AS41" s="118"/>
@@ -4332,7 +4464,7 @@
     <row r="42" spans="1:116">
       <c r="A42" s="78"/>
       <c r="B42" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="AR42" s="117"/>
       <c r="AS42" s="118"/>
@@ -4419,7 +4551,7 @@
     </row>
     <row r="45" spans="1:116" ht="16" thickBot="1">
       <c r="B45" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -4449,7 +4581,7 @@
     </row>
     <row r="46" spans="1:116" ht="16" thickBot="1">
       <c r="B46" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -4482,7 +4614,7 @@
     </row>
     <row r="47" spans="1:116">
       <c r="B47" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AT47" s="70"/>
       <c r="AU47" s="77"/>
@@ -4499,7 +4631,7 @@
     </row>
     <row r="48" spans="1:116" ht="16" thickBot="1">
       <c r="B48" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -4532,7 +4664,7 @@
     </row>
     <row r="49" spans="1:104" ht="18" customHeight="1" thickBot="1">
       <c r="B49" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4580,7 +4712,7 @@
         <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AW51" s="67"/>
       <c r="AX51" s="67"/>
@@ -4600,7 +4732,7 @@
     </row>
     <row r="52" spans="1:104" ht="16" thickBot="1">
       <c r="B52" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -4642,7 +4774,7 @@
     </row>
     <row r="53" spans="1:104" ht="31" thickBot="1">
       <c r="B53" s="92" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -4687,7 +4819,7 @@
       <c r="AY54" s="67"/>
       <c r="AZ54" s="67"/>
       <c r="BB54" s="35"/>
-      <c r="BC54" s="204"/>
+      <c r="BC54" s="189"/>
       <c r="BD54" s="129"/>
       <c r="BK54" s="67"/>
       <c r="BO54" s="67"/>
@@ -4696,7 +4828,7 @@
       <c r="BT54" s="67"/>
       <c r="BU54" s="67"/>
       <c r="BV54" s="67"/>
-      <c r="BX54" s="205"/>
+      <c r="BX54" s="190"/>
       <c r="BY54" s="138"/>
       <c r="CF54" s="67"/>
       <c r="CG54" s="67"/>
@@ -4708,7 +4840,7 @@
     </row>
     <row r="55" spans="1:104" ht="16" thickBot="1">
       <c r="B55" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4752,7 +4884,7 @@
     </row>
     <row r="56" spans="1:104" ht="16" thickBot="1">
       <c r="B56" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4795,7 +4927,7 @@
     </row>
     <row r="57" spans="1:104" ht="16" thickBot="1">
       <c r="B57" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -4826,7 +4958,7 @@
       <c r="BT57" s="67"/>
       <c r="BU57" s="67"/>
       <c r="BV57" s="67"/>
-      <c r="BX57" s="206"/>
+      <c r="BX57" s="191"/>
       <c r="BY57" s="148"/>
       <c r="BZ57" s="130"/>
       <c r="CF57" s="67"/>
@@ -4839,7 +4971,7 @@
     </row>
     <row r="58" spans="1:104" ht="16" thickBot="1">
       <c r="B58" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -4882,7 +5014,7 @@
     </row>
     <row r="59" spans="1:104" ht="16" thickBot="1">
       <c r="B59" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -4949,10 +5081,10 @@
     </row>
     <row r="61" spans="1:104" ht="31" thickBot="1">
       <c r="A61" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B61" s="92" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -4999,7 +5131,7 @@
     </row>
     <row r="62" spans="1:104" ht="16" thickBot="1">
       <c r="B62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -5039,7 +5171,7 @@
       <c r="CJ62" s="67"/>
       <c r="CM62" s="67"/>
       <c r="CQ62" s="7"/>
-      <c r="CR62" s="207"/>
+      <c r="CR62" s="192"/>
       <c r="CS62" s="128"/>
       <c r="CY62" s="178">
         <v>2</v>
@@ -5073,10 +5205,10 @@
     </row>
     <row r="64" spans="1:104" ht="16" thickBot="1">
       <c r="A64" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B64" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -5128,7 +5260,7 @@
     </row>
     <row r="65" spans="1:108" ht="16" thickBot="1">
       <c r="B65" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -5173,7 +5305,7 @@
     </row>
     <row r="66" spans="1:108" ht="16" thickBot="1">
       <c r="B66" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -5242,10 +5374,10 @@
     </row>
     <row r="68" spans="1:108">
       <c r="A68" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B68" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="BA68" s="67"/>
       <c r="BH68" s="67"/>
@@ -5270,7 +5402,7 @@
     </row>
     <row r="69" spans="1:108" ht="16" thickBot="1">
       <c r="B69" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="BA69" s="67"/>
       <c r="BI69" s="35"/>
@@ -5295,7 +5427,7 @@
     </row>
     <row r="70" spans="1:108" ht="16" thickBot="1">
       <c r="B70" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -5334,7 +5466,7 @@
     </row>
     <row r="71" spans="1:108" ht="31" thickBot="1">
       <c r="B71" s="92" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -5372,7 +5504,7 @@
     </row>
     <row r="72" spans="1:108" ht="16" thickBot="1">
       <c r="B72" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -5430,7 +5562,7 @@
     </row>
     <row r="74" spans="1:108" ht="16" thickBot="1">
       <c r="B74" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="BA74" s="67"/>
       <c r="BK74" s="73"/>
@@ -5455,7 +5587,7 @@
     </row>
     <row r="75" spans="1:108" ht="16" thickBot="1">
       <c r="B75" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -5496,7 +5628,7 @@
     </row>
     <row r="76" spans="1:108" ht="31" thickBot="1">
       <c r="B76" s="92" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -5531,7 +5663,7 @@
     </row>
     <row r="77" spans="1:108" ht="31" thickBot="1">
       <c r="B77" s="92" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -5589,7 +5721,7 @@
     </row>
     <row r="79" spans="1:108" ht="16" thickBot="1">
       <c r="B79" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -5641,10 +5773,10 @@
     </row>
     <row r="81" spans="1:111" ht="16" thickBot="1">
       <c r="A81" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B81" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BH81" s="67"/>
       <c r="BK81" s="67"/>
@@ -5663,7 +5795,7 @@
     </row>
     <row r="82" spans="1:111" ht="16" thickBot="1">
       <c r="B82" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -5697,7 +5829,7 @@
     </row>
     <row r="83" spans="1:111" ht="16" thickBot="1">
       <c r="B83" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -5732,7 +5864,7 @@
     </row>
     <row r="84" spans="1:111" ht="31" thickBot="1">
       <c r="B84" s="92" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -5767,7 +5899,7 @@
     </row>
     <row r="85" spans="1:111">
       <c r="B85" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -5802,7 +5934,7 @@
     </row>
     <row r="86" spans="1:111" ht="31" thickBot="1">
       <c r="B86" s="92" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -5837,7 +5969,7 @@
     </row>
     <row r="87" spans="1:111" ht="16" thickBot="1">
       <c r="B87" s="92" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -5872,7 +6004,7 @@
     </row>
     <row r="88" spans="1:111" ht="16" thickBot="1">
       <c r="B88" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -5924,7 +6056,7 @@
     </row>
     <row r="90" spans="1:111" ht="16" thickBot="1">
       <c r="B90" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="BO90" s="67"/>
       <c r="CF90" s="67"/>
@@ -5938,7 +6070,7 @@
     </row>
     <row r="91" spans="1:111" ht="16" thickBot="1">
       <c r="B91" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -5970,8 +6102,8 @@
       <c r="CG92" s="67"/>
       <c r="CH92" s="67"/>
       <c r="CI92" s="75"/>
-      <c r="CJ92" s="204"/>
-      <c r="CK92" s="204"/>
+      <c r="CJ92" s="189"/>
+      <c r="CK92" s="189"/>
       <c r="CL92" s="180"/>
       <c r="CM92" s="125"/>
       <c r="CQ92" s="142"/>
@@ -5979,7 +6111,7 @@
     </row>
     <row r="93" spans="1:111" ht="16" thickBot="1">
       <c r="B93" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -6004,7 +6136,7 @@
     </row>
     <row r="94" spans="1:111" ht="16" thickBot="1">
       <c r="B94" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -6029,7 +6161,7 @@
     </row>
     <row r="95" spans="1:111" ht="16" thickBot="1">
       <c r="B95" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -6054,7 +6186,7 @@
     </row>
     <row r="96" spans="1:111" ht="16" thickBot="1">
       <c r="B96" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -6079,7 +6211,7 @@
     </row>
     <row r="97" spans="1:112" ht="16" thickBot="1">
       <c r="B97" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C97">
         <v>3</v>
@@ -6108,7 +6240,7 @@
     </row>
     <row r="99" spans="1:112" ht="16" thickBot="1">
       <c r="B99" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -6135,7 +6267,7 @@
     </row>
     <row r="101" spans="1:112" ht="31" thickBot="1">
       <c r="B101" s="92" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="CM101" s="67"/>
       <c r="CQ101" s="6"/>
@@ -6149,7 +6281,7 @@
     </row>
     <row r="102" spans="1:112" ht="16" thickBot="1">
       <c r="B102" s="92" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="CM102" s="67"/>
       <c r="CQ102" s="6"/>
@@ -6173,7 +6305,7 @@
     </row>
     <row r="105" spans="1:112">
       <c r="A105" s="105" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B105" s="106" t="s">
         <v>81</v>
@@ -6209,19 +6341,10 @@
     </row>
     <row r="106" spans="1:112">
       <c r="A106" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B106" t="s">
-        <v>103</v>
-      </c>
-      <c r="C106">
-        <v>8</v>
-      </c>
-      <c r="E106">
-        <v>8</v>
-      </c>
-      <c r="F106">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="AQ106" s="67"/>
       <c r="AT106" s="70"/>
@@ -6233,2009 +6356,2713 @@
     </row>
     <row r="107" spans="1:112">
       <c r="B107" t="s">
-        <v>116</v>
+        <v>206</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107">
+        <v>4</v>
+      </c>
+      <c r="F107">
+        <v>5</v>
       </c>
       <c r="AQ107" s="67"/>
-      <c r="AT107" s="54"/>
-      <c r="AU107" s="12"/>
-      <c r="AV107" s="12"/>
-      <c r="AW107" s="12"/>
-      <c r="BD107" s="83"/>
-      <c r="BK107" s="67"/>
+      <c r="AT107" s="70"/>
+      <c r="AU107" s="69"/>
+      <c r="AV107" s="69"/>
+      <c r="AW107" s="67"/>
       <c r="CM107" s="67"/>
       <c r="CQ107" s="6"/>
     </row>
     <row r="108" spans="1:112">
-      <c r="A108" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="B108" t="s">
-        <v>104</v>
+        <v>207</v>
       </c>
       <c r="C108">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
       </c>
       <c r="E108">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F108">
-        <v>14</v>
-      </c>
-      <c r="AV108" s="12"/>
-      <c r="AW108" s="12"/>
-      <c r="AX108" s="12"/>
-      <c r="BA108" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="AQ108" s="67"/>
+      <c r="AT108" s="70"/>
+      <c r="AU108" s="69"/>
+      <c r="AV108" s="69"/>
+      <c r="AW108" s="67"/>
       <c r="CM108" s="67"/>
       <c r="CQ108" s="6"/>
     </row>
     <row r="109" spans="1:112">
-      <c r="A109" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="B109" t="s">
-        <v>105</v>
+        <v>208</v>
       </c>
       <c r="C109">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D109">
+        <v>10</v>
       </c>
       <c r="E109">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F109">
-        <v>14</v>
-      </c>
-      <c r="BA109" s="12"/>
-      <c r="BB109" s="12"/>
-      <c r="BC109" s="12"/>
-      <c r="BD109" s="13"/>
+        <v>12</v>
+      </c>
+      <c r="AQ109" s="67"/>
+      <c r="AT109" s="70"/>
+      <c r="AU109" s="69"/>
+      <c r="AV109" s="69"/>
+      <c r="AW109" s="67"/>
       <c r="CM109" s="67"/>
       <c r="CQ109" s="6"/>
     </row>
     <row r="110" spans="1:112">
-      <c r="A110" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="B110" t="s">
-        <v>107</v>
+        <v>209</v>
       </c>
       <c r="C110">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
       </c>
       <c r="E110">
         <v>10</v>
       </c>
       <c r="F110">
-        <v>14</v>
-      </c>
-      <c r="BA110" s="67"/>
-      <c r="BD110" s="13"/>
-      <c r="BG110" s="67"/>
-      <c r="BH110" s="12"/>
-      <c r="BI110" s="12"/>
-      <c r="BJ110" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="AQ110" s="67"/>
+      <c r="AT110" s="54"/>
+      <c r="AU110" s="12"/>
+      <c r="AV110" s="12"/>
+      <c r="AW110" s="12"/>
+      <c r="BD110" s="83"/>
+      <c r="BK110" s="67"/>
       <c r="CM110" s="67"/>
       <c r="CQ110" s="6"/>
     </row>
     <row r="111" spans="1:112">
-      <c r="A111" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="B111" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C111">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
       </c>
       <c r="E111">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F111">
-        <v>14</v>
-      </c>
-      <c r="BI111" s="12"/>
-      <c r="BJ111" s="12"/>
-      <c r="BK111" s="12"/>
-      <c r="BO111" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="AQ111" s="67"/>
+      <c r="AT111" s="54"/>
+      <c r="AU111" s="12"/>
+      <c r="AV111" s="12"/>
+      <c r="AW111" s="12"/>
+      <c r="BD111" s="83"/>
+      <c r="BK111" s="67"/>
       <c r="CM111" s="67"/>
       <c r="CQ111" s="6"/>
     </row>
     <row r="112" spans="1:112">
       <c r="A112" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B112" t="s">
-        <v>87</v>
-      </c>
-      <c r="C112">
-        <v>3</v>
-      </c>
-      <c r="E112">
-        <v>3</v>
-      </c>
-      <c r="BO112" s="12"/>
-      <c r="BP112" s="12"/>
+        <v>102</v>
+      </c>
+      <c r="AV112" s="12"/>
+      <c r="AW112" s="12"/>
+      <c r="AX112" s="12"/>
+      <c r="BA112" s="12"/>
       <c r="CM112" s="67"/>
       <c r="CQ112" s="6"/>
     </row>
-    <row r="113" spans="1:138">
+    <row r="113" spans="1:95">
+      <c r="B113" t="s">
+        <v>210</v>
+      </c>
+      <c r="C113">
+        <v>5</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <v>5</v>
+      </c>
+      <c r="F113">
+        <v>3</v>
+      </c>
+      <c r="AQ113" s="67"/>
       <c r="AT113" s="70"/>
+      <c r="AU113" s="69"/>
+      <c r="AV113" s="69"/>
+      <c r="AW113" s="67"/>
       <c r="CM113" s="67"/>
       <c r="CQ113" s="6"/>
     </row>
-    <row r="114" spans="1:138">
+    <row r="114" spans="1:95">
+      <c r="B114" t="s">
+        <v>211</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>10</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="AQ114" s="67"/>
+      <c r="AT114" s="54"/>
+      <c r="AU114" s="12"/>
+      <c r="AV114" s="12"/>
+      <c r="AW114" s="12"/>
+      <c r="BD114" s="83"/>
+      <c r="BK114" s="67"/>
       <c r="CM114" s="67"/>
       <c r="CQ114" s="6"/>
     </row>
-    <row r="115" spans="1:138">
-      <c r="A115" s="101" t="s">
-        <v>90</v>
-      </c>
-      <c r="B115" s="102" t="s">
-        <v>40</v>
+    <row r="115" spans="1:95">
+      <c r="B115" t="s">
+        <v>86</v>
       </c>
       <c r="C115">
-        <v>60</v>
+        <v>3</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
       </c>
       <c r="E115">
-        <v>110</v>
-      </c>
-      <c r="BM115" s="67"/>
-      <c r="BN115" s="67"/>
-      <c r="BO115" s="85"/>
-      <c r="BP115" s="85"/>
-      <c r="BQ115" s="85"/>
-      <c r="BR115" s="85"/>
-      <c r="BS115" s="85"/>
-      <c r="BT115" s="85"/>
-      <c r="BU115" s="85"/>
-      <c r="BV115" s="85"/>
-      <c r="BW115" s="86"/>
-      <c r="BX115" s="87"/>
-      <c r="BY115" s="85"/>
-      <c r="BZ115" s="85"/>
-      <c r="CA115" s="85"/>
-      <c r="CB115" s="85"/>
-      <c r="CC115" s="85"/>
-      <c r="CD115" s="85"/>
-      <c r="CE115" s="85"/>
-      <c r="CF115" s="85"/>
-      <c r="CG115" s="85"/>
-      <c r="CH115" s="85"/>
-      <c r="CI115" s="85"/>
-      <c r="CJ115" s="85"/>
-      <c r="CK115" s="85"/>
-      <c r="CL115" s="85"/>
-      <c r="CM115" s="85"/>
-      <c r="CN115" s="85"/>
-      <c r="CO115" s="85"/>
-      <c r="CP115" s="85"/>
-      <c r="CQ115" s="85"/>
-      <c r="CR115" s="85"/>
-      <c r="CS115" s="85"/>
-      <c r="CT115" s="85"/>
-      <c r="CU115" s="85"/>
-      <c r="CV115" s="85"/>
-      <c r="CW115" s="85"/>
-      <c r="CX115" s="85"/>
-      <c r="CY115" s="85"/>
-      <c r="CZ115" s="85"/>
-      <c r="DA115" s="85"/>
-      <c r="DB115" s="86"/>
-      <c r="DC115" s="87"/>
-      <c r="DD115" s="85"/>
-      <c r="DE115" s="85"/>
-      <c r="DF115" s="85"/>
-      <c r="DG115" s="85"/>
-      <c r="DH115" s="85"/>
-      <c r="DI115" s="85"/>
-      <c r="DJ115" s="85"/>
-      <c r="DK115" s="85"/>
-      <c r="DL115" s="85"/>
-      <c r="DM115" s="85"/>
-      <c r="DN115" s="85"/>
-      <c r="DO115" s="85"/>
-      <c r="DP115" s="85"/>
-      <c r="DQ115" s="85"/>
-      <c r="DR115" s="85"/>
-      <c r="DS115" s="85"/>
-      <c r="DT115" s="85"/>
-      <c r="DU115" s="85"/>
-    </row>
-    <row r="116" spans="1:138">
+        <v>3</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="AQ115" s="67"/>
+      <c r="AT115" s="54"/>
+      <c r="AU115" s="12"/>
+      <c r="AV115" s="12"/>
+      <c r="AW115" s="12"/>
+      <c r="BD115" s="83"/>
+      <c r="BK115" s="67"/>
+      <c r="CM115" s="67"/>
+      <c r="CQ115" s="6"/>
+    </row>
+    <row r="116" spans="1:95">
       <c r="A116" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BO116" s="85"/>
-      <c r="BP116" s="85"/>
-      <c r="BQ116" s="85"/>
-      <c r="BR116" s="85"/>
-      <c r="BS116" s="67"/>
+        <v>91</v>
+      </c>
+      <c r="B116" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA116" s="12"/>
+      <c r="BB116" s="12"/>
+      <c r="BC116" s="12"/>
+      <c r="BD116" s="13"/>
       <c r="CM116" s="67"/>
       <c r="CQ116" s="6"/>
     </row>
-    <row r="117" spans="1:138">
-      <c r="A117" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BU117" s="85"/>
-      <c r="BV117" s="85"/>
-      <c r="BW117" s="86"/>
-      <c r="BX117" s="87"/>
-      <c r="BY117" s="85"/>
+    <row r="117" spans="1:95">
+      <c r="B117" t="s">
+        <v>212</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117">
+        <v>5</v>
+      </c>
+      <c r="F117">
+        <v>4</v>
+      </c>
+      <c r="AQ117" s="67"/>
+      <c r="AT117" s="70"/>
+      <c r="AU117" s="69"/>
+      <c r="AV117" s="69"/>
+      <c r="AW117" s="67"/>
       <c r="CM117" s="67"/>
       <c r="CQ117" s="6"/>
     </row>
-    <row r="118" spans="1:138">
-      <c r="A118" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CB118" s="85"/>
-      <c r="CC118" s="85"/>
-      <c r="CD118" s="85"/>
-      <c r="CE118" s="85"/>
-      <c r="CF118" s="85"/>
+    <row r="118" spans="1:95">
+      <c r="B118" t="s">
+        <v>211</v>
+      </c>
+      <c r="C118">
+        <v>3</v>
+      </c>
+      <c r="D118">
+        <v>4</v>
+      </c>
+      <c r="E118">
+        <v>10</v>
+      </c>
+      <c r="F118">
+        <v>12</v>
+      </c>
+      <c r="AQ118" s="67"/>
+      <c r="AT118" s="54"/>
+      <c r="AU118" s="12"/>
+      <c r="AV118" s="12"/>
+      <c r="AW118" s="12"/>
+      <c r="BD118" s="83"/>
+      <c r="BK118" s="67"/>
       <c r="CM118" s="67"/>
       <c r="CQ118" s="6"/>
     </row>
-    <row r="119" spans="1:138" ht="36" customHeight="1">
-      <c r="A119" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CI119" s="85"/>
-      <c r="CJ119" s="85"/>
-      <c r="CK119" s="85"/>
-      <c r="CL119" s="85"/>
-      <c r="CM119" s="85"/>
+    <row r="119" spans="1:95">
+      <c r="B119" t="s">
+        <v>86</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="E119">
+        <v>3</v>
+      </c>
+      <c r="F119">
+        <v>2</v>
+      </c>
+      <c r="AQ119" s="67"/>
+      <c r="AT119" s="54"/>
+      <c r="AU119" s="12"/>
+      <c r="AV119" s="12"/>
+      <c r="AW119" s="12"/>
+      <c r="BD119" s="83"/>
+      <c r="BK119" s="67"/>
+      <c r="CM119" s="67"/>
       <c r="CQ119" s="6"/>
     </row>
-    <row r="120" spans="1:138" ht="36" customHeight="1">
+    <row r="120" spans="1:95">
       <c r="A120" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B120" t="s">
-        <v>95</v>
-      </c>
-      <c r="C120">
-        <v>30</v>
-      </c>
-      <c r="E120">
-        <v>30</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="BA120" s="67"/>
+      <c r="BD120" s="13"/>
+      <c r="BG120" s="67"/>
+      <c r="BH120" s="12"/>
+      <c r="BI120" s="12"/>
+      <c r="BJ120" s="12"/>
       <c r="CM120" s="67"/>
       <c r="CQ120" s="6"/>
     </row>
-    <row r="121" spans="1:138">
+    <row r="121" spans="1:95">
+      <c r="B121" t="s">
+        <v>213</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+      <c r="F121">
+        <v>2</v>
+      </c>
+      <c r="AQ121" s="67"/>
+      <c r="AT121" s="70"/>
+      <c r="AU121" s="69"/>
+      <c r="AV121" s="69"/>
+      <c r="AW121" s="67"/>
       <c r="CM121" s="67"/>
-      <c r="CQ121" s="94"/>
-    </row>
-    <row r="122" spans="1:138" ht="34" customHeight="1">
+      <c r="CQ121" s="6"/>
+    </row>
+    <row r="122" spans="1:95">
+      <c r="B122" t="s">
+        <v>211</v>
+      </c>
+      <c r="C122">
+        <v>10</v>
+      </c>
+      <c r="D122">
+        <v>8</v>
+      </c>
+      <c r="E122">
+        <v>5</v>
+      </c>
+      <c r="F122">
+        <v>5</v>
+      </c>
+      <c r="AQ122" s="67"/>
+      <c r="AT122" s="54"/>
+      <c r="AU122" s="12"/>
+      <c r="AV122" s="12"/>
+      <c r="AW122" s="12"/>
+      <c r="BD122" s="83"/>
+      <c r="BK122" s="67"/>
       <c r="CM122" s="67"/>
       <c r="CQ122" s="6"/>
     </row>
-    <row r="123" spans="1:138" ht="21" customHeight="1" thickBot="1">
-      <c r="A123" s="103" t="s">
-        <v>96</v>
-      </c>
-      <c r="B123" s="104" t="s">
-        <v>39</v>
+    <row r="123" spans="1:95">
+      <c r="B123" t="s">
+        <v>86</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
       </c>
       <c r="AQ123" s="67"/>
-      <c r="AR123" s="67"/>
-      <c r="AS123" s="75"/>
-      <c r="AT123" s="70"/>
-      <c r="AW123" s="152"/>
-      <c r="AX123" s="61"/>
-      <c r="AY123" s="61"/>
-      <c r="AZ123" s="61"/>
-      <c r="BA123" s="61"/>
-      <c r="BB123" s="61"/>
-      <c r="BC123" s="136"/>
-      <c r="BD123" s="64"/>
-      <c r="BE123" s="61"/>
-      <c r="BF123" s="61"/>
-      <c r="BG123" s="61"/>
-      <c r="BH123" s="61"/>
-      <c r="BI123" s="61"/>
-      <c r="BJ123" s="61"/>
-      <c r="BK123" s="61"/>
-      <c r="BL123" s="61"/>
-      <c r="BM123" s="61"/>
-      <c r="BN123" s="61"/>
-      <c r="BO123" s="61"/>
-      <c r="BP123" s="61"/>
-      <c r="BQ123" s="61"/>
-      <c r="BR123" s="61"/>
-      <c r="BS123" s="61"/>
-      <c r="BT123" s="61"/>
-      <c r="BU123" s="61"/>
-      <c r="BV123" s="61"/>
-      <c r="BW123" s="62"/>
-      <c r="BX123" s="63"/>
-      <c r="BY123" s="61"/>
-      <c r="BZ123" s="61"/>
-      <c r="CA123" s="61"/>
-      <c r="CB123" s="61"/>
-      <c r="CC123" s="61"/>
-      <c r="CD123" s="61"/>
-      <c r="CE123" s="61"/>
-      <c r="CF123" s="61"/>
-      <c r="CG123" s="61"/>
-      <c r="CH123" s="61"/>
-      <c r="CI123" s="61"/>
-      <c r="CJ123" s="61"/>
-      <c r="CK123" s="61"/>
-      <c r="CL123" s="61"/>
-      <c r="CM123" s="61"/>
-      <c r="CN123" s="61"/>
-      <c r="CO123" s="61"/>
-      <c r="CP123" s="61"/>
-      <c r="CQ123" s="61"/>
-      <c r="CR123" s="61"/>
-      <c r="CS123" s="61"/>
-      <c r="CT123" s="61"/>
-      <c r="CU123" s="61"/>
-      <c r="CV123" s="61"/>
-      <c r="CW123" s="61"/>
-      <c r="CX123" s="61"/>
-      <c r="CY123" s="61"/>
-      <c r="CZ123" s="61"/>
-      <c r="DA123" s="61"/>
-      <c r="DB123" s="62"/>
-      <c r="DC123" s="63"/>
-      <c r="DD123" s="61"/>
-      <c r="DE123" s="61"/>
-      <c r="DF123" s="61"/>
-      <c r="DG123" s="61"/>
-      <c r="DH123" s="61"/>
-      <c r="DI123" s="61"/>
-      <c r="DJ123" s="61"/>
-      <c r="DK123" s="61"/>
-      <c r="DL123" s="61"/>
-    </row>
-    <row r="124" spans="1:138" ht="21" customHeight="1" thickBot="1">
-      <c r="A124" s="116" t="s">
-        <v>97</v>
-      </c>
-      <c r="B124" s="74" t="s">
-        <v>117</v>
-      </c>
-      <c r="C124">
-        <v>2</v>
-      </c>
-      <c r="D124">
+      <c r="AT123" s="54"/>
+      <c r="AU123" s="12"/>
+      <c r="AV123" s="12"/>
+      <c r="AW123" s="12"/>
+      <c r="BD123" s="83"/>
+      <c r="BK123" s="67"/>
+      <c r="CM123" s="67"/>
+      <c r="CQ123" s="6"/>
+    </row>
+    <row r="124" spans="1:95">
+      <c r="A124" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B124" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI124" s="12"/>
+      <c r="BJ124" s="12"/>
+      <c r="BK124" s="12"/>
+      <c r="BO124" s="12"/>
+      <c r="CM124" s="67"/>
+      <c r="CQ124" s="6"/>
+    </row>
+    <row r="125" spans="1:95">
+      <c r="B125" t="s">
+        <v>216</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+      <c r="F125">
         <v>4</v>
       </c>
-      <c r="E124">
+      <c r="AQ125" s="67"/>
+      <c r="AT125" s="70"/>
+      <c r="AU125" s="69"/>
+      <c r="AV125" s="69"/>
+      <c r="AW125" s="67"/>
+      <c r="CM125" s="67"/>
+      <c r="CQ125" s="6"/>
+    </row>
+    <row r="126" spans="1:95">
+      <c r="B126" t="s">
+        <v>211</v>
+      </c>
+      <c r="C126">
+        <v>3</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>10</v>
+      </c>
+      <c r="F126">
+        <v>6</v>
+      </c>
+      <c r="AQ126" s="67"/>
+      <c r="AT126" s="54"/>
+      <c r="AU126" s="12"/>
+      <c r="AV126" s="12"/>
+      <c r="AW126" s="12"/>
+      <c r="BD126" s="83"/>
+      <c r="BK126" s="67"/>
+      <c r="CM126" s="67"/>
+      <c r="CQ126" s="6"/>
+    </row>
+    <row r="127" spans="1:95">
+      <c r="B127" t="s">
+        <v>86</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>2</v>
+      </c>
+      <c r="F127">
+        <v>2</v>
+      </c>
+      <c r="AQ127" s="67"/>
+      <c r="AT127" s="54"/>
+      <c r="AU127" s="12"/>
+      <c r="AV127" s="12"/>
+      <c r="AW127" s="12"/>
+      <c r="BD127" s="83"/>
+      <c r="BK127" s="67"/>
+      <c r="CM127" s="67"/>
+      <c r="CQ127" s="6"/>
+    </row>
+    <row r="128" spans="1:95">
+      <c r="A128" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B128" t="s">
+        <v>215</v>
+      </c>
+      <c r="C128">
+        <v>3</v>
+      </c>
+      <c r="D128">
+        <v>3</v>
+      </c>
+      <c r="E128">
+        <v>3</v>
+      </c>
+      <c r="F128">
+        <v>3</v>
+      </c>
+      <c r="BO128" s="12"/>
+      <c r="BP128" s="12"/>
+      <c r="CM128" s="67"/>
+      <c r="CQ128" s="6"/>
+    </row>
+    <row r="129" spans="1:125">
+      <c r="AT129" s="70"/>
+      <c r="CM129" s="67"/>
+      <c r="CQ129" s="6"/>
+    </row>
+    <row r="130" spans="1:125">
+      <c r="CM130" s="67"/>
+      <c r="CQ130" s="6"/>
+    </row>
+    <row r="131" spans="1:125">
+      <c r="A131" s="101" t="s">
+        <v>89</v>
+      </c>
+      <c r="B131" s="102" t="s">
+        <v>40</v>
+      </c>
+      <c r="BM131" s="67"/>
+      <c r="BN131" s="67"/>
+      <c r="BO131" s="85"/>
+      <c r="BP131" s="85"/>
+      <c r="BQ131" s="85"/>
+      <c r="BR131" s="85"/>
+      <c r="BS131" s="85"/>
+      <c r="BT131" s="85"/>
+      <c r="BU131" s="85"/>
+      <c r="BV131" s="85"/>
+      <c r="BW131" s="86"/>
+      <c r="BX131" s="87"/>
+      <c r="BY131" s="85"/>
+      <c r="BZ131" s="85"/>
+      <c r="CA131" s="85"/>
+      <c r="CB131" s="85"/>
+      <c r="CC131" s="85"/>
+      <c r="CD131" s="85"/>
+      <c r="CE131" s="85"/>
+      <c r="CF131" s="85"/>
+      <c r="CG131" s="85"/>
+      <c r="CH131" s="85"/>
+      <c r="CI131" s="85"/>
+      <c r="CJ131" s="85"/>
+      <c r="CK131" s="85"/>
+      <c r="CL131" s="85"/>
+      <c r="CM131" s="85"/>
+      <c r="CN131" s="85"/>
+      <c r="CO131" s="85"/>
+      <c r="CP131" s="85"/>
+      <c r="CQ131" s="85"/>
+      <c r="CR131" s="85"/>
+      <c r="CS131" s="85"/>
+      <c r="CT131" s="85"/>
+      <c r="CU131" s="85"/>
+      <c r="CV131" s="85"/>
+      <c r="CW131" s="85"/>
+      <c r="CX131" s="85"/>
+      <c r="CY131" s="85"/>
+      <c r="CZ131" s="85"/>
+      <c r="DA131" s="85"/>
+      <c r="DB131" s="86"/>
+      <c r="DC131" s="87"/>
+      <c r="DD131" s="85"/>
+      <c r="DE131" s="85"/>
+      <c r="DF131" s="85"/>
+      <c r="DG131" s="85"/>
+      <c r="DH131" s="85"/>
+      <c r="DI131" s="85"/>
+      <c r="DJ131" s="85"/>
+      <c r="DK131" s="85"/>
+      <c r="DL131" s="85"/>
+      <c r="DM131" s="85"/>
+      <c r="DN131" s="85"/>
+      <c r="DO131" s="85"/>
+      <c r="DP131" s="85"/>
+      <c r="DQ131" s="85"/>
+      <c r="DR131" s="85"/>
+      <c r="DS131" s="85"/>
+      <c r="DT131" s="85"/>
+      <c r="DU131" s="85"/>
+    </row>
+    <row r="132" spans="1:125">
+      <c r="A132" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B132" t="s">
+        <v>221</v>
+      </c>
+      <c r="BO132" s="85"/>
+      <c r="BP132" s="85"/>
+      <c r="BQ132" s="85"/>
+      <c r="BR132" s="85"/>
+      <c r="BS132" s="67"/>
+      <c r="CM132" s="67"/>
+      <c r="CQ132" s="6"/>
+    </row>
+    <row r="133" spans="1:125">
+      <c r="B133" t="s">
+        <v>231</v>
+      </c>
+      <c r="C133">
         <v>0</v>
       </c>
-      <c r="F124">
+      <c r="D133">
         <v>0</v>
       </c>
-      <c r="AR124" s="67"/>
-      <c r="AS124" s="75"/>
-      <c r="AT124" s="70"/>
-      <c r="AV124" s="35"/>
-      <c r="AW124" s="161">
-        <v>2</v>
-      </c>
-      <c r="AX124" s="125"/>
-      <c r="AY124" s="67"/>
-      <c r="AZ124" s="67"/>
-      <c r="BA124" s="68">
-        <v>2</v>
-      </c>
-      <c r="BB124" s="35"/>
-      <c r="BC124" s="161"/>
-      <c r="BD124" s="137"/>
-      <c r="BE124" s="67"/>
-      <c r="BF124" s="67"/>
-      <c r="BG124" s="67"/>
-      <c r="BH124" s="67"/>
-      <c r="BK124" s="126"/>
-      <c r="BL124" s="67"/>
-      <c r="BM124" s="67"/>
-      <c r="BN124" s="67"/>
-      <c r="BO124" s="67"/>
-      <c r="BR124" s="142"/>
-      <c r="BS124" s="67"/>
-      <c r="BT124" s="67"/>
-      <c r="BU124" s="67"/>
-      <c r="BV124" s="67"/>
-      <c r="BY124" s="126"/>
-      <c r="BZ124" s="67"/>
-      <c r="CA124" s="67"/>
-      <c r="CB124" s="67"/>
-      <c r="CC124" s="67"/>
-      <c r="CF124" s="126"/>
-      <c r="CG124" s="67"/>
-      <c r="CH124" s="67"/>
-      <c r="CI124" s="67"/>
-      <c r="CJ124" s="67"/>
-      <c r="CM124" s="126"/>
-      <c r="CN124" s="67"/>
-      <c r="CO124" s="67"/>
-      <c r="CP124" s="67"/>
-      <c r="CQ124" s="6"/>
-      <c r="CT124" s="67"/>
-      <c r="CU124" s="67"/>
-      <c r="CV124" s="67"/>
-      <c r="CW124" s="67"/>
-      <c r="CX124" s="67"/>
-      <c r="CY124" s="136"/>
-      <c r="DA124" s="67"/>
-      <c r="DB124" s="75"/>
-      <c r="DC124" s="70"/>
-      <c r="DD124" s="67"/>
-      <c r="DE124" s="67"/>
-      <c r="DH124" s="126"/>
-      <c r="DI124" s="67"/>
-      <c r="DJ124" s="67"/>
-      <c r="DK124" s="67"/>
-      <c r="DL124" s="126"/>
-    </row>
-    <row r="125" spans="1:138" ht="16" thickBot="1">
-      <c r="A125" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B125" s="92" t="s">
-        <v>132</v>
-      </c>
-      <c r="C125">
+      <c r="E133">
+        <v>5</v>
+      </c>
+      <c r="F133">
+        <v>5</v>
+      </c>
+      <c r="BO133" s="85"/>
+      <c r="BP133" s="85"/>
+      <c r="BQ133" s="85"/>
+      <c r="BR133" s="85"/>
+      <c r="BS133" s="67"/>
+      <c r="CM133" s="67"/>
+      <c r="CQ133" s="6"/>
+    </row>
+    <row r="134" spans="1:125">
+      <c r="B134" t="s">
+        <v>232</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+      <c r="E134">
         <v>10</v>
       </c>
-      <c r="D125">
-        <v>9</v>
-      </c>
-      <c r="E125">
+      <c r="F134">
+        <v>12</v>
+      </c>
+      <c r="BO134" s="85"/>
+      <c r="BP134" s="85"/>
+      <c r="BQ134" s="85"/>
+      <c r="BR134" s="85"/>
+      <c r="BS134" s="67"/>
+      <c r="CM134" s="67"/>
+      <c r="CQ134" s="6"/>
+    </row>
+    <row r="135" spans="1:125">
+      <c r="B135" t="s">
+        <v>223</v>
+      </c>
+      <c r="C135">
+        <v>5</v>
+      </c>
+      <c r="D135">
+        <v>4</v>
+      </c>
+      <c r="E135">
         <v>10</v>
       </c>
-      <c r="AW125" s="14"/>
-      <c r="BC125" s="34"/>
-      <c r="BD125" s="162">
-        <v>1</v>
-      </c>
-      <c r="BE125" s="130"/>
-      <c r="BH125" s="67"/>
-      <c r="BJ125" s="35"/>
-      <c r="BK125" s="161">
-        <v>2</v>
-      </c>
-      <c r="BL125" s="130"/>
-      <c r="BO125" s="67"/>
-      <c r="BP125" s="68">
-        <v>1</v>
-      </c>
-      <c r="BQ125" s="35"/>
-      <c r="BR125" s="161"/>
-      <c r="BS125" s="125"/>
-      <c r="BV125" s="67"/>
-      <c r="BX125" s="127"/>
-      <c r="BY125" s="161">
-        <v>2</v>
-      </c>
-      <c r="BZ125" s="130"/>
-      <c r="CC125" s="67"/>
-      <c r="CE125" s="35"/>
-      <c r="CF125" s="161">
-        <v>1</v>
-      </c>
-      <c r="CG125" s="130"/>
-      <c r="CJ125" s="67"/>
-      <c r="CL125" s="35"/>
-      <c r="CM125" s="161">
-        <v>1</v>
-      </c>
-      <c r="CN125" s="130"/>
-      <c r="CP125" s="67"/>
-      <c r="CQ125" s="6"/>
-      <c r="CT125" s="67"/>
-      <c r="CU125" s="67"/>
-      <c r="CV125" s="67"/>
-      <c r="CW125" s="67"/>
-      <c r="CX125" s="75"/>
-      <c r="CY125" s="161"/>
-      <c r="CZ125" s="128"/>
-      <c r="DA125" s="67"/>
-      <c r="DD125" s="67"/>
-      <c r="DE125" s="67"/>
-      <c r="DG125" s="35"/>
-      <c r="DH125" s="161">
-        <v>1</v>
-      </c>
-      <c r="DI125" s="125"/>
-      <c r="DJ125" s="67"/>
-      <c r="DK125" s="75"/>
-      <c r="DL125" s="161"/>
-      <c r="DM125" s="128"/>
-    </row>
-    <row r="126" spans="1:138">
-      <c r="B126" s="92" t="s">
-        <v>141</v>
-      </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
-      <c r="D126">
-        <v>2</v>
-      </c>
-      <c r="E126">
-        <v>0</v>
-      </c>
-      <c r="BD126" s="155"/>
-      <c r="BH126" s="67"/>
-      <c r="BK126" s="156"/>
-      <c r="BO126" s="67"/>
-      <c r="BR126" s="18"/>
-      <c r="BS126" s="67"/>
-      <c r="BV126" s="67"/>
-      <c r="BY126" s="156"/>
-      <c r="CC126" s="67"/>
-      <c r="CF126" s="156"/>
-      <c r="CJ126" s="67"/>
-      <c r="CM126" s="156"/>
-      <c r="CP126" s="67"/>
-      <c r="CQ126" s="6"/>
-      <c r="CT126" s="67"/>
-      <c r="CU126" s="67"/>
-      <c r="CV126" s="67"/>
-      <c r="CW126" s="67"/>
-      <c r="CX126" s="67"/>
-      <c r="CY126" s="15"/>
-      <c r="DA126" s="67"/>
-      <c r="DD126" s="67"/>
-      <c r="DE126" s="67"/>
-      <c r="DH126" s="157">
-        <v>2</v>
-      </c>
-      <c r="DI126" s="67"/>
-      <c r="DJ126" s="67"/>
-      <c r="DK126" s="67"/>
-      <c r="DL126" s="156"/>
-    </row>
-    <row r="127" spans="1:138">
-      <c r="A127" s="209" t="s">
-        <v>204</v>
-      </c>
-      <c r="B127" s="208" t="s">
-        <v>205</v>
-      </c>
-      <c r="C127" s="208"/>
-      <c r="D127" s="208"/>
-      <c r="E127" s="208"/>
-      <c r="F127" s="208"/>
-      <c r="G127" s="210"/>
-      <c r="H127" s="210"/>
-      <c r="I127" s="210"/>
-      <c r="J127" s="210"/>
-      <c r="K127" s="210"/>
-      <c r="L127" s="211"/>
-      <c r="M127" s="211"/>
-      <c r="N127" s="212"/>
-      <c r="O127" s="210"/>
-      <c r="P127" s="210"/>
-      <c r="Q127" s="210"/>
-      <c r="R127" s="210"/>
-      <c r="S127" s="211"/>
-      <c r="T127" s="211"/>
-      <c r="U127" s="212"/>
-      <c r="V127" s="210"/>
-      <c r="W127" s="210"/>
-      <c r="X127" s="210"/>
-      <c r="Y127" s="210"/>
-      <c r="Z127" s="211"/>
-      <c r="AA127" s="211"/>
-      <c r="AB127" s="210"/>
-      <c r="AC127" s="210"/>
-      <c r="AD127" s="210"/>
-      <c r="AE127" s="210"/>
-      <c r="AF127" s="210"/>
-      <c r="AG127" s="211"/>
-      <c r="AH127" s="211"/>
-      <c r="AI127" s="210"/>
-      <c r="AJ127" s="210"/>
-      <c r="AK127" s="210"/>
-      <c r="AL127" s="210"/>
-      <c r="AM127" s="210"/>
-      <c r="AN127" s="211"/>
-      <c r="AO127" s="211"/>
-      <c r="AP127" s="212"/>
-      <c r="AQ127" s="210"/>
-      <c r="AR127" s="210"/>
-      <c r="AS127" s="210"/>
-      <c r="AT127" s="210"/>
-      <c r="AU127" s="211"/>
-      <c r="AV127" s="211"/>
-      <c r="AW127" s="210"/>
-      <c r="AX127" s="210"/>
-      <c r="AY127" s="210"/>
-      <c r="AZ127" s="210"/>
-      <c r="BA127" s="210"/>
-      <c r="BB127" s="211"/>
-      <c r="BC127" s="211"/>
-      <c r="BD127" s="213"/>
-      <c r="BE127" s="210"/>
-      <c r="BF127" s="210"/>
-      <c r="BG127" s="210"/>
-      <c r="BH127" s="210"/>
-      <c r="BI127" s="211"/>
-      <c r="BJ127" s="211"/>
-      <c r="BK127" s="210"/>
-      <c r="BL127" s="210"/>
-      <c r="BM127" s="210"/>
-      <c r="BN127" s="210"/>
-      <c r="BO127" s="210"/>
-      <c r="BP127" s="211"/>
-      <c r="BQ127" s="211"/>
-      <c r="BR127" s="212"/>
-      <c r="BS127" s="210"/>
-      <c r="BT127" s="210"/>
-      <c r="BU127" s="210"/>
-      <c r="BV127" s="210"/>
-      <c r="BW127" s="211"/>
-      <c r="BX127" s="211"/>
-      <c r="BY127" s="210"/>
-      <c r="BZ127" s="210"/>
-      <c r="CA127" s="210"/>
-      <c r="CB127" s="210"/>
-      <c r="CC127" s="210"/>
-      <c r="CD127" s="211"/>
-      <c r="CE127" s="211"/>
-      <c r="CF127" s="210"/>
-      <c r="CG127" s="210"/>
-      <c r="CH127" s="210"/>
-      <c r="CI127" s="210"/>
-      <c r="CJ127" s="210"/>
-      <c r="CK127" s="211"/>
-      <c r="CL127" s="216"/>
-      <c r="CM127" s="214"/>
-      <c r="CN127" s="210"/>
-      <c r="CO127" s="210"/>
-      <c r="CP127" s="210"/>
-      <c r="CQ127" s="212"/>
-      <c r="CR127" s="211"/>
-      <c r="CS127" s="211"/>
-      <c r="CT127" s="210"/>
-      <c r="CU127" s="210"/>
-      <c r="CV127" s="210"/>
-      <c r="CW127" s="210"/>
-      <c r="CX127" s="210"/>
-      <c r="CY127" s="211"/>
-      <c r="CZ127" s="211"/>
-      <c r="DA127" s="210"/>
-      <c r="DB127" s="210"/>
-      <c r="DC127" s="210"/>
-      <c r="DD127" s="210"/>
-      <c r="DE127" s="210"/>
-      <c r="DF127" s="216"/>
-      <c r="DG127" s="216"/>
-      <c r="DH127" s="210"/>
-      <c r="DI127" s="210"/>
-      <c r="DJ127" s="210"/>
-      <c r="DK127" s="210"/>
-      <c r="DL127" s="210"/>
-      <c r="DM127" s="211"/>
-      <c r="DN127" s="211"/>
-      <c r="DO127" s="212"/>
-      <c r="DP127" s="210"/>
-      <c r="DQ127" s="210"/>
-      <c r="DR127" s="210"/>
-      <c r="DS127" s="210"/>
-      <c r="DT127" s="211"/>
-      <c r="DU127" s="211"/>
-      <c r="DV127" s="212"/>
-      <c r="DW127" s="210"/>
-      <c r="DX127" s="210"/>
-      <c r="DY127" s="210"/>
-      <c r="DZ127" s="210"/>
-      <c r="EA127" s="211"/>
-      <c r="EB127" s="211"/>
-      <c r="EC127" s="212"/>
-      <c r="ED127" s="210"/>
-      <c r="EE127" s="210"/>
-      <c r="EF127" s="210"/>
-      <c r="EG127" s="210"/>
-      <c r="EH127" s="210"/>
-    </row>
-    <row r="128" spans="1:138">
-      <c r="A128" s="209"/>
-      <c r="B128" s="208" t="s">
-        <v>206</v>
-      </c>
-      <c r="C128" s="208"/>
-      <c r="D128" s="208">
-        <v>2</v>
-      </c>
-      <c r="E128" s="208"/>
-      <c r="F128" s="208"/>
-      <c r="G128" s="210"/>
-      <c r="H128" s="210"/>
-      <c r="I128" s="210"/>
-      <c r="J128" s="210"/>
-      <c r="K128" s="210"/>
-      <c r="L128" s="211"/>
-      <c r="M128" s="211"/>
-      <c r="N128" s="212"/>
-      <c r="O128" s="210"/>
-      <c r="P128" s="210"/>
-      <c r="Q128" s="210"/>
-      <c r="R128" s="210"/>
-      <c r="S128" s="211"/>
-      <c r="T128" s="211"/>
-      <c r="U128" s="212"/>
-      <c r="V128" s="210"/>
-      <c r="W128" s="210"/>
-      <c r="X128" s="210"/>
-      <c r="Y128" s="210"/>
-      <c r="Z128" s="211"/>
-      <c r="AA128" s="211"/>
-      <c r="AB128" s="210"/>
-      <c r="AC128" s="210"/>
-      <c r="AD128" s="210"/>
-      <c r="AE128" s="210"/>
-      <c r="AF128" s="210"/>
-      <c r="AG128" s="211"/>
-      <c r="AH128" s="211"/>
-      <c r="AI128" s="210"/>
-      <c r="AJ128" s="210"/>
-      <c r="AK128" s="210"/>
-      <c r="AL128" s="210"/>
-      <c r="AM128" s="210"/>
-      <c r="AN128" s="211"/>
-      <c r="AO128" s="211"/>
-      <c r="AP128" s="212"/>
-      <c r="AQ128" s="210"/>
-      <c r="AR128" s="210"/>
-      <c r="AS128" s="210"/>
-      <c r="AT128" s="210"/>
-      <c r="AU128" s="211"/>
-      <c r="AV128" s="211"/>
-      <c r="AW128" s="210"/>
-      <c r="AX128" s="210"/>
-      <c r="AY128" s="210"/>
-      <c r="AZ128" s="210"/>
-      <c r="BA128" s="210"/>
-      <c r="BB128" s="211"/>
-      <c r="BC128" s="211"/>
-      <c r="BD128" s="215">
-        <v>2</v>
-      </c>
-      <c r="BE128" s="210"/>
-      <c r="BF128" s="210"/>
-      <c r="BG128" s="210"/>
-      <c r="BH128" s="210"/>
-      <c r="BI128" s="211"/>
-      <c r="BJ128" s="211"/>
-      <c r="BK128" s="210"/>
-      <c r="BL128" s="210"/>
-      <c r="BM128" s="210"/>
-      <c r="BN128" s="210"/>
-      <c r="BO128" s="210"/>
-      <c r="BP128" s="211"/>
-      <c r="BQ128" s="211"/>
-      <c r="BR128" s="212"/>
-      <c r="BS128" s="210"/>
-      <c r="BT128" s="210"/>
-      <c r="BU128" s="210"/>
-      <c r="BV128" s="210"/>
-      <c r="BW128" s="211"/>
-      <c r="BX128" s="211"/>
-      <c r="BY128" s="210"/>
-      <c r="BZ128" s="210"/>
-      <c r="CA128" s="210"/>
-      <c r="CB128" s="210"/>
-      <c r="CC128" s="210"/>
-      <c r="CD128" s="211"/>
-      <c r="CE128" s="211"/>
-      <c r="CF128" s="210"/>
-      <c r="CG128" s="210"/>
-      <c r="CH128" s="210"/>
-      <c r="CI128" s="210"/>
-      <c r="CJ128" s="210"/>
-      <c r="CK128" s="211"/>
-      <c r="CL128" s="216"/>
-      <c r="CM128" s="214"/>
-      <c r="CN128" s="210"/>
-      <c r="CO128" s="210"/>
-      <c r="CP128" s="210"/>
-      <c r="CQ128" s="212"/>
-      <c r="CR128" s="211"/>
-      <c r="CS128" s="211"/>
-      <c r="CT128" s="210"/>
-      <c r="CU128" s="210"/>
-      <c r="CV128" s="210"/>
-      <c r="CW128" s="210"/>
-      <c r="CX128" s="210"/>
-      <c r="CY128" s="211"/>
-      <c r="CZ128" s="211"/>
-      <c r="DA128" s="210"/>
-      <c r="DB128" s="210"/>
-      <c r="DC128" s="210"/>
-      <c r="DD128" s="210"/>
-      <c r="DE128" s="210"/>
-      <c r="DF128" s="216"/>
-      <c r="DG128" s="216"/>
-      <c r="DH128" s="210"/>
-      <c r="DI128" s="210"/>
-      <c r="DJ128" s="210"/>
-      <c r="DK128" s="210"/>
-      <c r="DL128" s="210"/>
-      <c r="DM128" s="211"/>
-      <c r="DN128" s="211"/>
-      <c r="DO128" s="212"/>
-      <c r="DP128" s="210"/>
-      <c r="DQ128" s="210"/>
-      <c r="DR128" s="210"/>
-      <c r="DS128" s="210"/>
-      <c r="DT128" s="211"/>
-      <c r="DU128" s="211"/>
-      <c r="DV128" s="212"/>
-      <c r="DW128" s="210"/>
-      <c r="DX128" s="210"/>
-      <c r="DY128" s="210"/>
-      <c r="DZ128" s="210"/>
-      <c r="EA128" s="211"/>
-      <c r="EB128" s="211"/>
-      <c r="EC128" s="212"/>
-      <c r="ED128" s="210"/>
-      <c r="EE128" s="210"/>
-      <c r="EF128" s="210"/>
-      <c r="EG128" s="210"/>
-      <c r="EH128" s="210"/>
-    </row>
-    <row r="129" spans="1:138">
-      <c r="A129" s="209"/>
-      <c r="B129" s="208" t="s">
-        <v>207</v>
-      </c>
-      <c r="C129" s="208"/>
-      <c r="D129" s="208"/>
-      <c r="E129" s="208"/>
-      <c r="F129" s="208"/>
-      <c r="G129" s="210"/>
-      <c r="H129" s="210"/>
-      <c r="I129" s="210"/>
-      <c r="J129" s="210"/>
-      <c r="K129" s="210"/>
-      <c r="L129" s="211"/>
-      <c r="M129" s="211"/>
-      <c r="N129" s="212"/>
-      <c r="O129" s="210"/>
-      <c r="P129" s="210"/>
-      <c r="Q129" s="210"/>
-      <c r="R129" s="210"/>
-      <c r="S129" s="211"/>
-      <c r="T129" s="211"/>
-      <c r="U129" s="212"/>
-      <c r="V129" s="210"/>
-      <c r="W129" s="210"/>
-      <c r="X129" s="210"/>
-      <c r="Y129" s="210"/>
-      <c r="Z129" s="211"/>
-      <c r="AA129" s="211"/>
-      <c r="AB129" s="210"/>
-      <c r="AC129" s="210"/>
-      <c r="AD129" s="210"/>
-      <c r="AE129" s="210"/>
-      <c r="AF129" s="210"/>
-      <c r="AG129" s="211"/>
-      <c r="AH129" s="211"/>
-      <c r="AI129" s="210"/>
-      <c r="AJ129" s="210"/>
-      <c r="AK129" s="210"/>
-      <c r="AL129" s="210"/>
-      <c r="AM129" s="210"/>
-      <c r="AN129" s="211"/>
-      <c r="AO129" s="211"/>
-      <c r="AP129" s="212"/>
-      <c r="AQ129" s="210"/>
-      <c r="AR129" s="210"/>
-      <c r="AS129" s="210"/>
-      <c r="AT129" s="210"/>
-      <c r="AU129" s="211"/>
-      <c r="AV129" s="211"/>
-      <c r="AW129" s="210"/>
-      <c r="AX129" s="210"/>
-      <c r="AY129" s="210"/>
-      <c r="AZ129" s="210"/>
-      <c r="BA129" s="210"/>
-      <c r="BB129" s="211"/>
-      <c r="BC129" s="211"/>
-      <c r="BD129" s="213"/>
-      <c r="BE129" s="210"/>
-      <c r="BF129" s="210"/>
-      <c r="BG129" s="210"/>
-      <c r="BH129" s="210"/>
-      <c r="BI129" s="211"/>
-      <c r="BJ129" s="211"/>
-      <c r="BK129" s="210"/>
-      <c r="BL129" s="210"/>
-      <c r="BM129" s="210"/>
-      <c r="BN129" s="210"/>
-      <c r="BO129" s="210"/>
-      <c r="BP129" s="211"/>
-      <c r="BQ129" s="211"/>
-      <c r="BR129" s="212"/>
-      <c r="BS129" s="210"/>
-      <c r="BT129" s="210"/>
-      <c r="BU129" s="210"/>
-      <c r="BV129" s="210"/>
-      <c r="BW129" s="211"/>
-      <c r="BX129" s="211"/>
-      <c r="BY129" s="210"/>
-      <c r="BZ129" s="210"/>
-      <c r="CA129" s="210"/>
-      <c r="CB129" s="210"/>
-      <c r="CC129" s="210"/>
-      <c r="CD129" s="211"/>
-      <c r="CE129" s="211"/>
-      <c r="CF129" s="210"/>
-      <c r="CG129" s="210"/>
-      <c r="CH129" s="210"/>
-      <c r="CI129" s="210"/>
-      <c r="CJ129" s="210"/>
-      <c r="CK129" s="211"/>
-      <c r="CL129" s="216"/>
-      <c r="CM129" s="214"/>
-      <c r="CN129" s="210"/>
-      <c r="CO129" s="210"/>
-      <c r="CP129" s="210"/>
-      <c r="CQ129" s="212"/>
-      <c r="CR129" s="211"/>
-      <c r="CS129" s="211"/>
-      <c r="CT129" s="210"/>
-      <c r="CU129" s="210"/>
-      <c r="CV129" s="210"/>
-      <c r="CW129" s="210"/>
-      <c r="CX129" s="210"/>
-      <c r="CY129" s="211"/>
-      <c r="CZ129" s="211"/>
-      <c r="DA129" s="210"/>
-      <c r="DB129" s="210"/>
-      <c r="DC129" s="210"/>
-      <c r="DD129" s="210"/>
-      <c r="DE129" s="210"/>
-      <c r="DF129" s="216"/>
-      <c r="DG129" s="216"/>
-      <c r="DH129" s="210"/>
-      <c r="DI129" s="210"/>
-      <c r="DJ129" s="210"/>
-      <c r="DK129" s="210"/>
-      <c r="DL129" s="210"/>
-      <c r="DM129" s="211"/>
-      <c r="DN129" s="211"/>
-      <c r="DO129" s="212"/>
-      <c r="DP129" s="210"/>
-      <c r="DQ129" s="210"/>
-      <c r="DR129" s="210"/>
-      <c r="DS129" s="210"/>
-      <c r="DT129" s="211"/>
-      <c r="DU129" s="211"/>
-      <c r="DV129" s="212"/>
-      <c r="DW129" s="210"/>
-      <c r="DX129" s="210"/>
-      <c r="DY129" s="210"/>
-      <c r="DZ129" s="210"/>
-      <c r="EA129" s="211"/>
-      <c r="EB129" s="211"/>
-      <c r="EC129" s="212"/>
-      <c r="ED129" s="210"/>
-      <c r="EE129" s="210"/>
-      <c r="EF129" s="210"/>
-      <c r="EG129" s="210"/>
-      <c r="EH129" s="210"/>
-    </row>
-    <row r="130" spans="1:138">
-      <c r="A130" s="209"/>
-      <c r="B130" s="208" t="s">
-        <v>208</v>
-      </c>
-      <c r="C130" s="208"/>
-      <c r="D130" s="208"/>
-      <c r="E130" s="208"/>
-      <c r="F130" s="208"/>
-      <c r="G130" s="210"/>
-      <c r="H130" s="210"/>
-      <c r="I130" s="210"/>
-      <c r="J130" s="210"/>
-      <c r="K130" s="210"/>
-      <c r="L130" s="211"/>
-      <c r="M130" s="211"/>
-      <c r="N130" s="212"/>
-      <c r="O130" s="210"/>
-      <c r="P130" s="210"/>
-      <c r="Q130" s="210"/>
-      <c r="R130" s="210"/>
-      <c r="S130" s="211"/>
-      <c r="T130" s="211"/>
-      <c r="U130" s="212"/>
-      <c r="V130" s="210"/>
-      <c r="W130" s="210"/>
-      <c r="X130" s="210"/>
-      <c r="Y130" s="210"/>
-      <c r="Z130" s="211"/>
-      <c r="AA130" s="211"/>
-      <c r="AB130" s="210"/>
-      <c r="AC130" s="210"/>
-      <c r="AD130" s="210"/>
-      <c r="AE130" s="210"/>
-      <c r="AF130" s="210"/>
-      <c r="AG130" s="211"/>
-      <c r="AH130" s="211"/>
-      <c r="AI130" s="210"/>
-      <c r="AJ130" s="210"/>
-      <c r="AK130" s="210"/>
-      <c r="AL130" s="210"/>
-      <c r="AM130" s="210"/>
-      <c r="AN130" s="211"/>
-      <c r="AO130" s="211"/>
-      <c r="AP130" s="212"/>
-      <c r="AQ130" s="210"/>
-      <c r="AR130" s="210"/>
-      <c r="AS130" s="210"/>
-      <c r="AT130" s="210"/>
-      <c r="AU130" s="211"/>
-      <c r="AV130" s="211"/>
-      <c r="AW130" s="210"/>
-      <c r="AX130" s="210"/>
-      <c r="AY130" s="210"/>
-      <c r="AZ130" s="210"/>
-      <c r="BA130" s="210"/>
-      <c r="BB130" s="211"/>
-      <c r="BC130" s="211"/>
-      <c r="BD130" s="213"/>
-      <c r="BE130" s="210"/>
-      <c r="BF130" s="210"/>
-      <c r="BG130" s="210"/>
-      <c r="BH130" s="210"/>
-      <c r="BI130" s="211"/>
-      <c r="BJ130" s="211"/>
-      <c r="BK130" s="210"/>
-      <c r="BL130" s="210"/>
-      <c r="BM130" s="210"/>
-      <c r="BN130" s="210"/>
-      <c r="BO130" s="210"/>
-      <c r="BP130" s="211"/>
-      <c r="BQ130" s="211"/>
-      <c r="BR130" s="212"/>
-      <c r="BS130" s="210"/>
-      <c r="BT130" s="210"/>
-      <c r="BU130" s="210"/>
-      <c r="BV130" s="210"/>
-      <c r="BW130" s="211"/>
-      <c r="BX130" s="211"/>
-      <c r="BY130" s="210"/>
-      <c r="BZ130" s="210"/>
-      <c r="CA130" s="210"/>
-      <c r="CB130" s="210"/>
-      <c r="CC130" s="210"/>
-      <c r="CD130" s="211"/>
-      <c r="CE130" s="211"/>
-      <c r="CF130" s="210"/>
-      <c r="CG130" s="210"/>
-      <c r="CH130" s="210"/>
-      <c r="CI130" s="210"/>
-      <c r="CJ130" s="210"/>
-      <c r="CK130" s="211"/>
-      <c r="CL130" s="216"/>
-      <c r="CM130" s="214"/>
-      <c r="CN130" s="210"/>
-      <c r="CO130" s="210"/>
-      <c r="CP130" s="210"/>
-      <c r="CQ130" s="212"/>
-      <c r="CR130" s="211"/>
-      <c r="CS130" s="211"/>
-      <c r="CT130" s="210"/>
-      <c r="CU130" s="210"/>
-      <c r="CV130" s="210"/>
-      <c r="CW130" s="210"/>
-      <c r="CX130" s="210"/>
-      <c r="CY130" s="211"/>
-      <c r="CZ130" s="211"/>
-      <c r="DA130" s="210"/>
-      <c r="DB130" s="210"/>
-      <c r="DC130" s="210"/>
-      <c r="DD130" s="210"/>
-      <c r="DE130" s="210"/>
-      <c r="DF130" s="216"/>
-      <c r="DG130" s="216"/>
-      <c r="DH130" s="210"/>
-      <c r="DI130" s="210"/>
-      <c r="DJ130" s="210"/>
-      <c r="DK130" s="210"/>
-      <c r="DL130" s="210"/>
-      <c r="DM130" s="211"/>
-      <c r="DN130" s="211"/>
-      <c r="DO130" s="212"/>
-      <c r="DP130" s="210"/>
-      <c r="DQ130" s="210"/>
-      <c r="DR130" s="210"/>
-      <c r="DS130" s="210"/>
-      <c r="DT130" s="211"/>
-      <c r="DU130" s="211"/>
-      <c r="DV130" s="212"/>
-      <c r="DW130" s="210"/>
-      <c r="DX130" s="210"/>
-      <c r="DY130" s="210"/>
-      <c r="DZ130" s="210"/>
-      <c r="EA130" s="211"/>
-      <c r="EB130" s="211"/>
-      <c r="EC130" s="212"/>
-      <c r="ED130" s="210"/>
-      <c r="EE130" s="210"/>
-      <c r="EF130" s="210"/>
-      <c r="EG130" s="210"/>
-      <c r="EH130" s="210"/>
-    </row>
-    <row r="131" spans="1:138">
-      <c r="A131" s="209"/>
-      <c r="B131" s="208" t="s">
-        <v>209</v>
-      </c>
-      <c r="C131" s="208"/>
-      <c r="D131" s="208"/>
-      <c r="E131" s="208"/>
-      <c r="F131" s="208"/>
-      <c r="G131" s="210"/>
-      <c r="H131" s="210"/>
-      <c r="I131" s="210"/>
-      <c r="J131" s="210"/>
-      <c r="K131" s="210"/>
-      <c r="L131" s="211"/>
-      <c r="M131" s="211"/>
-      <c r="N131" s="212"/>
-      <c r="O131" s="210"/>
-      <c r="P131" s="210"/>
-      <c r="Q131" s="210"/>
-      <c r="R131" s="210"/>
-      <c r="S131" s="211"/>
-      <c r="T131" s="211"/>
-      <c r="U131" s="212"/>
-      <c r="V131" s="210"/>
-      <c r="W131" s="210"/>
-      <c r="X131" s="210"/>
-      <c r="Y131" s="210"/>
-      <c r="Z131" s="211"/>
-      <c r="AA131" s="211"/>
-      <c r="AB131" s="210"/>
-      <c r="AC131" s="210"/>
-      <c r="AD131" s="210"/>
-      <c r="AE131" s="210"/>
-      <c r="AF131" s="210"/>
-      <c r="AG131" s="211"/>
-      <c r="AH131" s="211"/>
-      <c r="AI131" s="210"/>
-      <c r="AJ131" s="210"/>
-      <c r="AK131" s="210"/>
-      <c r="AL131" s="210"/>
-      <c r="AM131" s="210"/>
-      <c r="AN131" s="211"/>
-      <c r="AO131" s="211"/>
-      <c r="AP131" s="212"/>
-      <c r="AQ131" s="210"/>
-      <c r="AR131" s="210"/>
-      <c r="AS131" s="210"/>
-      <c r="AT131" s="210"/>
-      <c r="AU131" s="211"/>
-      <c r="AV131" s="211"/>
-      <c r="AW131" s="210"/>
-      <c r="AX131" s="210"/>
-      <c r="AY131" s="210"/>
-      <c r="AZ131" s="210"/>
-      <c r="BA131" s="210"/>
-      <c r="BB131" s="211"/>
-      <c r="BC131" s="211"/>
-      <c r="BD131" s="213"/>
-      <c r="BE131" s="210"/>
-      <c r="BF131" s="210"/>
-      <c r="BG131" s="210"/>
-      <c r="BH131" s="210"/>
-      <c r="BI131" s="211"/>
-      <c r="BJ131" s="211"/>
-      <c r="BK131" s="210"/>
-      <c r="BL131" s="210"/>
-      <c r="BM131" s="210"/>
-      <c r="BN131" s="210"/>
-      <c r="BO131" s="210"/>
-      <c r="BP131" s="211"/>
-      <c r="BQ131" s="211"/>
-      <c r="BR131" s="212"/>
-      <c r="BS131" s="210"/>
-      <c r="BT131" s="210"/>
-      <c r="BU131" s="210"/>
-      <c r="BV131" s="210"/>
-      <c r="BW131" s="211"/>
-      <c r="BX131" s="211"/>
-      <c r="BY131" s="210"/>
-      <c r="BZ131" s="210"/>
-      <c r="CA131" s="210"/>
-      <c r="CB131" s="210"/>
-      <c r="CC131" s="210"/>
-      <c r="CD131" s="211"/>
-      <c r="CE131" s="211"/>
-      <c r="CF131" s="210"/>
-      <c r="CG131" s="210"/>
-      <c r="CH131" s="210"/>
-      <c r="CI131" s="210"/>
-      <c r="CJ131" s="210"/>
-      <c r="CK131" s="211"/>
-      <c r="CL131" s="216"/>
-      <c r="CM131" s="214"/>
-      <c r="CN131" s="210"/>
-      <c r="CO131" s="210"/>
-      <c r="CP131" s="210"/>
-      <c r="CQ131" s="212"/>
-      <c r="CR131" s="211"/>
-      <c r="CS131" s="211"/>
-      <c r="CT131" s="210"/>
-      <c r="CU131" s="210"/>
-      <c r="CV131" s="210"/>
-      <c r="CW131" s="210"/>
-      <c r="CX131" s="210"/>
-      <c r="CY131" s="211"/>
-      <c r="CZ131" s="211"/>
-      <c r="DA131" s="210"/>
-      <c r="DB131" s="210"/>
-      <c r="DC131" s="210"/>
-      <c r="DD131" s="210"/>
-      <c r="DE131" s="210"/>
-      <c r="DF131" s="216"/>
-      <c r="DG131" s="216"/>
-      <c r="DH131" s="210"/>
-      <c r="DI131" s="210"/>
-      <c r="DJ131" s="210"/>
-      <c r="DK131" s="210"/>
-      <c r="DL131" s="210"/>
-      <c r="DM131" s="211"/>
-      <c r="DN131" s="211"/>
-      <c r="DO131" s="212"/>
-      <c r="DP131" s="210"/>
-      <c r="DQ131" s="210"/>
-      <c r="DR131" s="210"/>
-      <c r="DS131" s="210"/>
-      <c r="DT131" s="211"/>
-      <c r="DU131" s="211"/>
-      <c r="DV131" s="212"/>
-      <c r="DW131" s="210"/>
-      <c r="DX131" s="210"/>
-      <c r="DY131" s="210"/>
-      <c r="DZ131" s="210"/>
-      <c r="EA131" s="211"/>
-      <c r="EB131" s="211"/>
-      <c r="EC131" s="212"/>
-      <c r="ED131" s="210"/>
-      <c r="EE131" s="210"/>
-      <c r="EF131" s="210"/>
-      <c r="EG131" s="210"/>
-      <c r="EH131" s="210"/>
-    </row>
-    <row r="132" spans="1:138" ht="39" customHeight="1">
-      <c r="CM132" s="67"/>
-      <c r="CQ132" s="94"/>
-      <c r="DU132" s="65"/>
-      <c r="DV132" s="65"/>
-    </row>
-    <row r="133" spans="1:138">
-      <c r="CM133" s="67"/>
-      <c r="CQ133" s="94"/>
-    </row>
-    <row r="134" spans="1:138">
-      <c r="A134" s="99" t="s">
-        <v>118</v>
-      </c>
-      <c r="B134" s="98" t="s">
-        <v>41</v>
-      </c>
-      <c r="C134" t="s">
-        <v>149</v>
-      </c>
-      <c r="E134" t="s">
-        <v>149</v>
-      </c>
-      <c r="AW134" s="65"/>
-      <c r="AX134" s="65"/>
-      <c r="AY134" s="65"/>
-      <c r="AZ134" s="65"/>
-      <c r="BA134" s="65"/>
-      <c r="BB134" s="65"/>
-      <c r="BD134" s="95"/>
-      <c r="BE134" s="65"/>
-      <c r="BF134" s="65"/>
-      <c r="BG134" s="65"/>
-      <c r="BH134" s="65"/>
-      <c r="BI134" s="65"/>
-      <c r="BJ134" s="65"/>
-      <c r="BK134" s="65"/>
-      <c r="BL134" s="65"/>
-      <c r="BM134" s="65"/>
-      <c r="BN134" s="65"/>
-      <c r="BO134" s="65"/>
-      <c r="BP134" s="65"/>
-      <c r="BQ134" s="65"/>
-      <c r="BR134" s="65"/>
-      <c r="BS134" s="65"/>
-      <c r="BT134" s="65"/>
-      <c r="BU134" s="65"/>
-      <c r="BV134" s="65"/>
-      <c r="BW134" s="96"/>
-      <c r="BX134" s="97"/>
-      <c r="BY134" s="65"/>
-      <c r="BZ134" s="65"/>
-      <c r="CA134" s="65"/>
-      <c r="CB134" s="65"/>
-      <c r="CC134" s="65"/>
-      <c r="CD134" s="65"/>
-      <c r="CE134" s="65"/>
-      <c r="CF134" s="65"/>
-      <c r="CG134" s="65"/>
-      <c r="CH134" s="65"/>
-      <c r="CI134" s="65"/>
-      <c r="CJ134" s="65"/>
-      <c r="CK134" s="65"/>
-      <c r="CL134" s="65"/>
-      <c r="CM134" s="65"/>
-      <c r="CN134" s="65"/>
-      <c r="CO134" s="65"/>
-      <c r="CP134" s="65"/>
-      <c r="CQ134" s="95"/>
-      <c r="CR134" s="65"/>
-      <c r="CS134" s="65"/>
-      <c r="CT134" s="65"/>
-      <c r="CU134" s="65"/>
-      <c r="CV134" s="65"/>
-      <c r="CW134" s="65"/>
-      <c r="CX134" s="65"/>
-      <c r="CY134" s="65"/>
-      <c r="CZ134" s="65"/>
-      <c r="DA134" s="65"/>
-      <c r="DB134" s="96"/>
-      <c r="DC134" s="97"/>
-      <c r="DD134" s="65"/>
-      <c r="DE134" s="65"/>
-      <c r="DF134" s="65"/>
-      <c r="DG134" s="65"/>
-      <c r="DH134" s="65"/>
-      <c r="DI134" s="65"/>
-      <c r="DJ134" s="65"/>
-      <c r="DK134" s="65"/>
-      <c r="DL134" s="65"/>
-      <c r="DZ134" s="67"/>
-    </row>
-    <row r="135" spans="1:138">
-      <c r="A135" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B135" t="s">
-        <v>111</v>
-      </c>
-      <c r="C135">
-        <v>2</v>
-      </c>
-      <c r="D135">
-        <v>3</v>
-      </c>
-      <c r="E135">
-        <v>2</v>
-      </c>
       <c r="F135">
-        <v>3</v>
-      </c>
-      <c r="AW135" s="76">
-        <v>2</v>
-      </c>
-      <c r="BA135" s="65"/>
-      <c r="BC135" s="65"/>
+        <v>8</v>
+      </c>
+      <c r="BO135" s="85"/>
+      <c r="BP135" s="85"/>
+      <c r="BQ135" s="85"/>
+      <c r="BR135" s="85"/>
+      <c r="BS135" s="67"/>
       <c r="CM135" s="67"/>
-      <c r="CQ135" s="94"/>
-      <c r="DW135" s="67"/>
-      <c r="DX135" s="67"/>
-      <c r="DY135" s="67"/>
-      <c r="DZ135" s="67"/>
-      <c r="EA135" s="93"/>
-      <c r="EB135" s="93"/>
-    </row>
-    <row r="136" spans="1:138">
-      <c r="A136" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B136" s="92" t="s">
-        <v>130</v>
+      <c r="CQ135" s="6"/>
+    </row>
+    <row r="136" spans="1:125">
+      <c r="B136" t="s">
+        <v>226</v>
       </c>
       <c r="C136">
+        <v>4</v>
+      </c>
+      <c r="D136">
         <v>3</v>
       </c>
       <c r="E136">
-        <v>3</v>
-      </c>
-      <c r="AZ136" s="67"/>
+        <v>10</v>
+      </c>
+      <c r="F136">
+        <v>10</v>
+      </c>
+      <c r="BO136" s="85"/>
+      <c r="BP136" s="85"/>
+      <c r="BQ136" s="85"/>
+      <c r="BR136" s="85"/>
+      <c r="BS136" s="67"/>
       <c r="CM136" s="67"/>
-      <c r="CQ136" s="94"/>
-      <c r="DW136" s="67"/>
-      <c r="DX136" s="67"/>
-      <c r="DY136" s="67"/>
-      <c r="DZ136" s="67"/>
-      <c r="EA136" s="93"/>
-      <c r="EB136" s="93"/>
-    </row>
-    <row r="137" spans="1:138">
-      <c r="A137" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B137" s="92" t="s">
-        <v>131</v>
+      <c r="CQ136" s="6"/>
+    </row>
+    <row r="137" spans="1:125">
+      <c r="B137" t="s">
+        <v>224</v>
       </c>
       <c r="C137">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D137">
+        <v>4</v>
       </c>
       <c r="E137">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="BO137" s="85"/>
+      <c r="BP137" s="85"/>
+      <c r="BQ137" s="85"/>
+      <c r="BR137" s="85"/>
+      <c r="BS137" s="67"/>
       <c r="CM137" s="67"/>
-      <c r="CQ137" s="94"/>
-      <c r="DW137" s="65"/>
-      <c r="DX137" s="67"/>
-      <c r="DY137" s="67"/>
-      <c r="DZ137" s="67"/>
-      <c r="EA137" s="93"/>
-      <c r="EB137" s="93"/>
-    </row>
-    <row r="138" spans="1:138">
-      <c r="A138" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="CQ137" s="6"/>
+    </row>
+    <row r="138" spans="1:125">
       <c r="B138" t="s">
-        <v>126</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>10</v>
+      </c>
+      <c r="F138">
+        <v>10</v>
+      </c>
+      <c r="BO138" s="85"/>
+      <c r="BP138" s="85"/>
+      <c r="BQ138" s="85"/>
+      <c r="BR138" s="85"/>
+      <c r="BS138" s="67"/>
       <c r="CM138" s="67"/>
-      <c r="CQ138" s="94"/>
-      <c r="DA138" s="67"/>
-      <c r="DD138" s="67"/>
-      <c r="DE138" s="67"/>
-      <c r="DH138" s="67"/>
-      <c r="DK138" s="67"/>
-      <c r="DL138" s="67"/>
-      <c r="DU138" s="65"/>
-      <c r="DV138" s="65"/>
-      <c r="DW138" s="67"/>
-      <c r="DX138" s="65"/>
-      <c r="DY138" s="65"/>
-      <c r="DZ138" s="67"/>
-      <c r="EA138" s="93"/>
-      <c r="EB138" s="93"/>
-    </row>
-    <row r="139" spans="1:138">
-      <c r="B139" s="92" t="s">
-        <v>127</v>
+      <c r="CQ138" s="6"/>
+    </row>
+    <row r="139" spans="1:125">
+      <c r="B139" t="s">
+        <v>228</v>
       </c>
       <c r="C139">
         <v>3</v>
       </c>
+      <c r="D139">
+        <v>3</v>
+      </c>
       <c r="E139">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F139">
+        <v>6</v>
+      </c>
+      <c r="BO139" s="85"/>
+      <c r="BP139" s="85"/>
+      <c r="BQ139" s="85"/>
+      <c r="BR139" s="85"/>
+      <c r="BS139" s="67"/>
       <c r="CM139" s="67"/>
-      <c r="CQ139" s="94"/>
-      <c r="DA139" s="67"/>
-      <c r="DD139" s="67"/>
-      <c r="DE139" s="67"/>
-      <c r="DH139" s="67"/>
-      <c r="DK139" s="67"/>
-      <c r="DL139" s="67"/>
-    </row>
-    <row r="140" spans="1:138">
-      <c r="B140" s="92" t="s">
-        <v>128</v>
+      <c r="CQ139" s="6"/>
+    </row>
+    <row r="140" spans="1:125">
+      <c r="B140" t="s">
+        <v>229</v>
       </c>
       <c r="C140">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
       </c>
       <c r="E140">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F140">
+        <v>3</v>
+      </c>
+      <c r="BO140" s="85"/>
+      <c r="BP140" s="85"/>
+      <c r="BQ140" s="85"/>
+      <c r="BR140" s="85"/>
+      <c r="BS140" s="67"/>
       <c r="CM140" s="67"/>
-      <c r="CQ140" s="94"/>
-      <c r="DA140" s="67"/>
-      <c r="DD140" s="67"/>
-      <c r="DE140" s="67"/>
-      <c r="DH140" s="67"/>
-      <c r="DK140" s="67"/>
-      <c r="DL140" s="67"/>
-    </row>
-    <row r="141" spans="1:138">
-      <c r="B141" s="92" t="s">
-        <v>129</v>
+      <c r="CQ140" s="6"/>
+    </row>
+    <row r="141" spans="1:125">
+      <c r="B141" t="s">
+        <v>230</v>
       </c>
       <c r="C141">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
       </c>
       <c r="E141">
         <v>0</v>
       </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="BO141" s="85"/>
+      <c r="BP141" s="85"/>
+      <c r="BQ141" s="85"/>
+      <c r="BR141" s="85"/>
+      <c r="BS141" s="67"/>
       <c r="CM141" s="67"/>
-      <c r="CQ141" s="94"/>
-      <c r="DA141" s="67"/>
-      <c r="DD141" s="67"/>
-      <c r="DE141" s="67"/>
-      <c r="DH141" s="67"/>
-      <c r="DK141" s="67"/>
-      <c r="DL141" s="67"/>
-    </row>
-    <row r="142" spans="1:138">
+      <c r="CQ141" s="6"/>
+    </row>
+    <row r="142" spans="1:125">
+      <c r="B142" t="s">
+        <v>238</v>
+      </c>
+      <c r="C142">
+        <v>10</v>
+      </c>
+      <c r="E142">
+        <v>10</v>
+      </c>
+      <c r="BO142" s="85"/>
+      <c r="BP142" s="85"/>
+      <c r="BQ142" s="85"/>
+      <c r="BR142" s="85"/>
+      <c r="BS142" s="67"/>
       <c r="CM142" s="67"/>
-      <c r="CQ142" s="94"/>
-    </row>
-    <row r="143" spans="1:138">
+      <c r="CQ142" s="6"/>
+    </row>
+    <row r="143" spans="1:125">
+      <c r="A143" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B143" t="s">
+        <v>222</v>
+      </c>
+      <c r="BU143" s="85"/>
+      <c r="BV143" s="85"/>
+      <c r="BW143" s="86"/>
+      <c r="BX143" s="87"/>
+      <c r="BY143" s="85"/>
       <c r="CM143" s="67"/>
-      <c r="CQ143" s="94"/>
-    </row>
-    <row r="144" spans="1:138">
+      <c r="CQ143" s="6"/>
+    </row>
+    <row r="144" spans="1:125">
+      <c r="B144" t="s">
+        <v>235</v>
+      </c>
+      <c r="C144">
+        <v>5</v>
+      </c>
+      <c r="D144">
+        <v>4</v>
+      </c>
+      <c r="E144">
+        <v>10</v>
+      </c>
+      <c r="F144">
+        <v>10</v>
+      </c>
+      <c r="BU144" s="85"/>
+      <c r="BV144" s="85"/>
+      <c r="BW144" s="86"/>
+      <c r="BX144" s="87"/>
+      <c r="BY144" s="85"/>
       <c r="CM144" s="67"/>
       <c r="CQ144" s="6"/>
     </row>
-    <row r="145" spans="1:116" ht="31" thickBot="1">
-      <c r="A145" s="100" t="s">
-        <v>143</v>
-      </c>
-      <c r="B145" s="114" t="s">
-        <v>138</v>
-      </c>
-      <c r="C145" t="s">
-        <v>150</v>
-      </c>
-      <c r="E145" t="s">
-        <v>150</v>
-      </c>
-      <c r="AR145" s="88"/>
-      <c r="AS145" s="89"/>
-      <c r="AT145" s="153"/>
-      <c r="AU145" s="88"/>
-      <c r="AV145" s="88"/>
-      <c r="AW145" s="88"/>
-      <c r="AX145" s="88"/>
-      <c r="AY145" s="88"/>
-      <c r="AZ145" s="88"/>
-      <c r="BA145" s="88"/>
-      <c r="BB145" s="88"/>
-      <c r="BC145" s="136"/>
-      <c r="BD145" s="91"/>
-      <c r="BE145" s="88"/>
-      <c r="BF145" s="88"/>
-      <c r="BG145" s="88"/>
-      <c r="BH145" s="154"/>
-      <c r="BI145" s="88"/>
-      <c r="BJ145" s="88"/>
-      <c r="BK145" s="88"/>
-      <c r="BL145" s="88"/>
-      <c r="BM145" s="88"/>
-      <c r="BN145" s="88"/>
-      <c r="BO145" s="88"/>
-      <c r="BP145" s="88"/>
-      <c r="BQ145" s="88"/>
-      <c r="BR145" s="88"/>
-      <c r="BS145" s="88"/>
-      <c r="BT145" s="88"/>
-      <c r="BU145" s="88"/>
-      <c r="BV145" s="154"/>
-      <c r="BW145" s="89"/>
-      <c r="BX145" s="90"/>
-      <c r="BY145" s="88"/>
-      <c r="BZ145" s="88"/>
-      <c r="CA145" s="88"/>
-      <c r="CB145" s="88"/>
-      <c r="CC145" s="88"/>
-      <c r="CD145" s="88"/>
-      <c r="CE145" s="88"/>
-      <c r="CF145" s="88"/>
-      <c r="CG145" s="88"/>
-      <c r="CH145" s="88"/>
-      <c r="CI145" s="88"/>
-      <c r="CJ145" s="154"/>
-      <c r="CK145" s="88"/>
-      <c r="CL145" s="88"/>
-      <c r="CM145" s="88"/>
-      <c r="CN145" s="88"/>
-      <c r="CO145" s="88"/>
-      <c r="CP145" s="88"/>
-      <c r="CQ145" s="88"/>
-      <c r="CR145" s="88"/>
-      <c r="CS145" s="88"/>
-      <c r="CT145" s="88"/>
-      <c r="CU145" s="88"/>
-      <c r="CV145" s="88"/>
-      <c r="CW145" s="88"/>
-      <c r="CX145" s="154"/>
-      <c r="CY145" s="88"/>
-      <c r="CZ145" s="88"/>
-      <c r="DA145" s="67"/>
-      <c r="DB145" s="75"/>
-      <c r="DC145" s="70"/>
-      <c r="DD145" s="67"/>
-      <c r="DE145" s="67"/>
-      <c r="DH145" s="67"/>
-      <c r="DI145" s="67"/>
-      <c r="DJ145" s="67"/>
-      <c r="DK145" s="67"/>
-      <c r="DL145" s="67"/>
-    </row>
-    <row r="146" spans="1:116" ht="16" thickBot="1">
-      <c r="A146" s="1" t="s">
-        <v>144</v>
-      </c>
+    <row r="145" spans="1:116">
+      <c r="B145" t="s">
+        <v>233</v>
+      </c>
+      <c r="BO145" s="85"/>
+      <c r="BP145" s="85"/>
+      <c r="BQ145" s="85"/>
+      <c r="BR145" s="85"/>
+      <c r="BS145" s="67"/>
+      <c r="CM145" s="67"/>
+      <c r="CQ145" s="6"/>
+    </row>
+    <row r="146" spans="1:116">
       <c r="B146" t="s">
-        <v>115</v>
-      </c>
-      <c r="C146">
-        <v>4</v>
-      </c>
-      <c r="D146">
-        <v>5</v>
-      </c>
-      <c r="E146">
-        <v>0</v>
-      </c>
-      <c r="AT146" s="163">
-        <v>1</v>
-      </c>
-      <c r="AU146" s="150"/>
-      <c r="BB146" s="35"/>
-      <c r="BC146" s="164"/>
-      <c r="BD146" s="151"/>
-      <c r="BG146" s="31"/>
-      <c r="BH146" s="163">
-        <v>1</v>
-      </c>
-      <c r="BI146" s="128"/>
+        <v>234</v>
+      </c>
+      <c r="BO146" s="85"/>
+      <c r="BP146" s="85"/>
+      <c r="BQ146" s="85"/>
+      <c r="BR146" s="85"/>
       <c r="BS146" s="67"/>
-      <c r="BU146" s="31"/>
-      <c r="BV146" s="164"/>
-      <c r="BW146" s="132"/>
-      <c r="CB146" s="79">
-        <v>1</v>
-      </c>
-      <c r="CC146" s="67"/>
-      <c r="CF146" s="67"/>
-      <c r="CI146" s="31"/>
-      <c r="CJ146" s="163">
-        <v>1</v>
-      </c>
-      <c r="CK146" s="128"/>
       <c r="CM146" s="67"/>
       <c r="CQ146" s="6"/>
-      <c r="CW146" s="31"/>
-      <c r="CX146" s="163">
-        <v>1</v>
-      </c>
-      <c r="CY146" s="128"/>
-    </row>
-    <row r="147" spans="1:116" ht="31" thickBot="1">
-      <c r="B147" s="92" t="s">
-        <v>139</v>
-      </c>
-      <c r="D147" t="s">
-        <v>140</v>
-      </c>
-      <c r="AT147" s="158"/>
-      <c r="AU147" s="80"/>
-      <c r="BC147" s="15"/>
-      <c r="BG147" s="79">
-        <v>3</v>
-      </c>
-      <c r="BH147" s="159"/>
-      <c r="BM147" s="79">
-        <v>3</v>
-      </c>
-      <c r="BS147" s="115">
-        <v>3</v>
-      </c>
-      <c r="BU147" s="79">
-        <v>2</v>
-      </c>
-      <c r="BV147" s="159">
-        <v>3</v>
-      </c>
-      <c r="CA147" s="79">
-        <v>2</v>
-      </c>
-      <c r="CB147" s="115">
-        <v>3</v>
-      </c>
-      <c r="CF147" s="67"/>
-      <c r="CH147" s="79">
-        <v>2</v>
-      </c>
-      <c r="CJ147" s="160"/>
+    </row>
+    <row r="147" spans="1:116">
+      <c r="B147" t="s">
+        <v>238</v>
+      </c>
+      <c r="C147">
+        <v>5</v>
+      </c>
+      <c r="E147">
+        <v>5</v>
+      </c>
+      <c r="BO147" s="85"/>
+      <c r="BP147" s="85"/>
+      <c r="BQ147" s="85"/>
+      <c r="BR147" s="85"/>
+      <c r="BS147" s="67"/>
       <c r="CM147" s="67"/>
-      <c r="CO147" s="79">
-        <v>2</v>
-      </c>
       <c r="CQ147" s="6"/>
-      <c r="CV147" s="79">
-        <v>2</v>
-      </c>
-      <c r="CX147" s="160"/>
-      <c r="DC147" s="81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:116" ht="16" thickBot="1">
+    </row>
+    <row r="148" spans="1:116">
       <c r="A148" s="1" t="s">
-        <v>145</v>
+        <v>219</v>
       </c>
       <c r="B148" t="s">
-        <v>121</v>
-      </c>
-      <c r="C148">
-        <v>0</v>
-      </c>
-      <c r="E148">
-        <v>4</v>
-      </c>
-      <c r="AT148" s="163">
-        <v>1</v>
-      </c>
-      <c r="AU148" s="128"/>
-      <c r="BG148" s="31"/>
-      <c r="BH148" s="163">
-        <v>1</v>
-      </c>
-      <c r="BI148" s="128"/>
-      <c r="BU148" s="31"/>
-      <c r="BV148" s="163">
-        <v>1</v>
-      </c>
-      <c r="BW148" s="132"/>
-      <c r="CI148" s="31"/>
-      <c r="CJ148" s="163">
-        <v>1</v>
-      </c>
-      <c r="CK148" s="128"/>
+        <v>220</v>
+      </c>
+      <c r="CB148" s="85"/>
+      <c r="CC148" s="85"/>
+      <c r="CD148" s="85"/>
+      <c r="CE148" s="85"/>
+      <c r="CF148" s="85"/>
       <c r="CM148" s="67"/>
       <c r="CQ148" s="6"/>
-      <c r="CW148" s="31"/>
-      <c r="CX148" s="163">
-        <v>1</v>
-      </c>
-      <c r="CY148" s="128"/>
-      <c r="DE148" s="79">
-        <v>1</v>
-      </c>
     </row>
     <row r="149" spans="1:116">
-      <c r="AT149" s="49"/>
-      <c r="BH149" s="14"/>
-      <c r="BV149" s="14"/>
-      <c r="CJ149" s="73"/>
-      <c r="CM149" s="67"/>
+      <c r="B149" t="s">
+        <v>236</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="CI149" s="85"/>
+      <c r="CJ149" s="85"/>
+      <c r="CK149" s="85"/>
+      <c r="CL149" s="85"/>
+      <c r="CM149" s="85"/>
       <c r="CQ149" s="6"/>
-      <c r="CX149" s="14"/>
     </row>
     <row r="150" spans="1:116">
-      <c r="CM150" s="67"/>
+      <c r="B150" t="s">
+        <v>237</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>2</v>
+      </c>
+      <c r="F150">
+        <v>2</v>
+      </c>
+      <c r="CI150" s="85"/>
+      <c r="CJ150" s="85"/>
+      <c r="CK150" s="85"/>
+      <c r="CL150" s="85"/>
+      <c r="CM150" s="85"/>
       <c r="CQ150" s="6"/>
     </row>
     <row r="151" spans="1:116">
+      <c r="B151" t="s">
+        <v>231</v>
+      </c>
       <c r="C151">
-        <f>SUM(C4:C150)</f>
-        <v>301</v>
+        <v>5</v>
       </c>
       <c r="D151">
-        <f>SUM(D4:D150)</f>
-        <v>185</v>
-      </c>
-      <c r="E151" s="66">
-        <f>SUM(E4:E150)</f>
-        <v>296</v>
+        <v>5</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
       </c>
       <c r="F151">
-        <f>SUM(F4:F150)</f>
-        <v>155</v>
-      </c>
-      <c r="CM151" s="67"/>
+        <v>1</v>
+      </c>
+      <c r="CI151" s="85"/>
+      <c r="CJ151" s="85"/>
+      <c r="CK151" s="85"/>
+      <c r="CL151" s="85"/>
+      <c r="CM151" s="85"/>
       <c r="CQ151" s="6"/>
     </row>
     <row r="152" spans="1:116">
-      <c r="C152" t="s">
-        <v>99</v>
-      </c>
-      <c r="D152" t="s">
-        <v>100</v>
-      </c>
-      <c r="E152" t="s">
-        <v>114</v>
-      </c>
-      <c r="F152" t="s">
-        <v>113</v>
-      </c>
-      <c r="CM152" s="67"/>
+      <c r="B152" t="s">
+        <v>232</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>8</v>
+      </c>
+      <c r="F152">
+        <v>7</v>
+      </c>
+      <c r="CI152" s="85"/>
+      <c r="CJ152" s="85"/>
+      <c r="CK152" s="85"/>
+      <c r="CL152" s="85"/>
+      <c r="CM152" s="85"/>
       <c r="CQ152" s="6"/>
     </row>
     <row r="153" spans="1:116">
-      <c r="CM153" s="67"/>
+      <c r="B153" t="s">
+        <v>226</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>5</v>
+      </c>
+      <c r="F153">
+        <v>5</v>
+      </c>
+      <c r="CI153" s="85"/>
+      <c r="CJ153" s="85"/>
+      <c r="CK153" s="85"/>
+      <c r="CL153" s="85"/>
+      <c r="CM153" s="85"/>
       <c r="CQ153" s="6"/>
     </row>
     <row r="154" spans="1:116">
+      <c r="B154" t="s">
+        <v>225</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>5</v>
+      </c>
+      <c r="F154">
+        <v>3</v>
+      </c>
+      <c r="CI154" s="85"/>
+      <c r="CJ154" s="85"/>
+      <c r="CK154" s="85"/>
+      <c r="CL154" s="85"/>
+      <c r="CM154" s="85"/>
       <c r="CQ154" s="6"/>
     </row>
     <row r="155" spans="1:116">
-      <c r="CF155" s="67"/>
-      <c r="CG155" s="67"/>
-      <c r="CH155" s="67"/>
-      <c r="CI155" s="67"/>
-      <c r="CJ155" s="67"/>
+      <c r="B155" t="s">
+        <v>227</v>
+      </c>
       <c r="CM155" s="67"/>
       <c r="CQ155" s="6"/>
     </row>
     <row r="156" spans="1:116">
-      <c r="CF156" s="67"/>
-      <c r="CG156" s="67"/>
-      <c r="CH156" s="67"/>
-      <c r="CI156" s="67"/>
-      <c r="CJ156" s="67"/>
+      <c r="B156" t="s">
+        <v>238</v>
+      </c>
+      <c r="C156">
+        <v>10</v>
+      </c>
+      <c r="D156">
+        <v>5</v>
+      </c>
+      <c r="E156">
+        <v>10</v>
+      </c>
+      <c r="F156">
+        <v>10</v>
+      </c>
       <c r="CM156" s="67"/>
       <c r="CQ156" s="6"/>
     </row>
     <row r="157" spans="1:116">
-      <c r="CF157" s="67"/>
-      <c r="CG157" s="67"/>
-      <c r="CH157" s="67"/>
-      <c r="CI157" s="67"/>
-      <c r="CJ157" s="67"/>
       <c r="CM157" s="67"/>
-      <c r="CQ157" s="6"/>
-    </row>
-    <row r="158" spans="1:116">
-      <c r="CF158" s="67"/>
-      <c r="CG158" s="67"/>
-      <c r="CH158" s="67"/>
-      <c r="CI158" s="67"/>
-      <c r="CJ158" s="67"/>
+      <c r="CQ157" s="94"/>
+    </row>
+    <row r="158" spans="1:116" ht="34" customHeight="1">
       <c r="CM158" s="67"/>
       <c r="CQ158" s="6"/>
     </row>
-    <row r="159" spans="1:116">
-      <c r="CM159" s="67"/>
-      <c r="CQ159" s="6"/>
-    </row>
-    <row r="160" spans="1:116">
-      <c r="CM160" s="67"/>
+    <row r="159" spans="1:116" ht="21" customHeight="1" thickBot="1">
+      <c r="A159" s="103" t="s">
+        <v>94</v>
+      </c>
+      <c r="B159" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ159" s="67"/>
+      <c r="AR159" s="67"/>
+      <c r="AS159" s="75"/>
+      <c r="AT159" s="70"/>
+      <c r="AW159" s="152"/>
+      <c r="AX159" s="61"/>
+      <c r="AY159" s="61"/>
+      <c r="AZ159" s="61"/>
+      <c r="BA159" s="61"/>
+      <c r="BB159" s="61"/>
+      <c r="BC159" s="136"/>
+      <c r="BD159" s="64"/>
+      <c r="BE159" s="61"/>
+      <c r="BF159" s="61"/>
+      <c r="BG159" s="61"/>
+      <c r="BH159" s="61"/>
+      <c r="BI159" s="61"/>
+      <c r="BJ159" s="61"/>
+      <c r="BK159" s="61"/>
+      <c r="BL159" s="61"/>
+      <c r="BM159" s="61"/>
+      <c r="BN159" s="61"/>
+      <c r="BO159" s="61"/>
+      <c r="BP159" s="61"/>
+      <c r="BQ159" s="61"/>
+      <c r="BR159" s="61"/>
+      <c r="BS159" s="61"/>
+      <c r="BT159" s="61"/>
+      <c r="BU159" s="61"/>
+      <c r="BV159" s="61"/>
+      <c r="BW159" s="62"/>
+      <c r="BX159" s="63"/>
+      <c r="BY159" s="61"/>
+      <c r="BZ159" s="61"/>
+      <c r="CA159" s="61"/>
+      <c r="CB159" s="61"/>
+      <c r="CC159" s="61"/>
+      <c r="CD159" s="61"/>
+      <c r="CE159" s="61"/>
+      <c r="CF159" s="61"/>
+      <c r="CG159" s="61"/>
+      <c r="CH159" s="61"/>
+      <c r="CI159" s="61"/>
+      <c r="CJ159" s="61"/>
+      <c r="CK159" s="61"/>
+      <c r="CL159" s="61"/>
+      <c r="CM159" s="61"/>
+      <c r="CN159" s="61"/>
+      <c r="CO159" s="61"/>
+      <c r="CP159" s="61"/>
+      <c r="CQ159" s="61"/>
+      <c r="CR159" s="61"/>
+      <c r="CS159" s="61"/>
+      <c r="CT159" s="61"/>
+      <c r="CU159" s="61"/>
+      <c r="CV159" s="61"/>
+      <c r="CW159" s="61"/>
+      <c r="CX159" s="61"/>
+      <c r="CY159" s="61"/>
+      <c r="CZ159" s="61"/>
+      <c r="DA159" s="61"/>
+      <c r="DB159" s="62"/>
+      <c r="DC159" s="63"/>
+      <c r="DD159" s="61"/>
+      <c r="DE159" s="61"/>
+      <c r="DF159" s="61"/>
+      <c r="DG159" s="61"/>
+      <c r="DH159" s="61"/>
+      <c r="DI159" s="61"/>
+      <c r="DJ159" s="61"/>
+      <c r="DK159" s="61"/>
+      <c r="DL159" s="61"/>
+    </row>
+    <row r="160" spans="1:116" ht="21" customHeight="1" thickBot="1">
+      <c r="A160" s="116" t="s">
+        <v>95</v>
+      </c>
+      <c r="B160" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="C160">
+        <v>2</v>
+      </c>
+      <c r="D160">
+        <v>4</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="AR160" s="67"/>
+      <c r="AS160" s="75"/>
+      <c r="AT160" s="70"/>
+      <c r="AV160" s="35"/>
+      <c r="AW160" s="161">
+        <v>2</v>
+      </c>
+      <c r="AX160" s="125"/>
+      <c r="AY160" s="67"/>
+      <c r="AZ160" s="67"/>
+      <c r="BA160" s="68">
+        <v>2</v>
+      </c>
+      <c r="BB160" s="35"/>
+      <c r="BC160" s="161"/>
+      <c r="BD160" s="137"/>
+      <c r="BE160" s="67"/>
+      <c r="BF160" s="67"/>
+      <c r="BG160" s="67"/>
+      <c r="BH160" s="67"/>
+      <c r="BK160" s="126"/>
+      <c r="BL160" s="67"/>
+      <c r="BM160" s="67"/>
+      <c r="BN160" s="67"/>
+      <c r="BO160" s="67"/>
+      <c r="BR160" s="142"/>
+      <c r="BS160" s="67"/>
+      <c r="BT160" s="67"/>
+      <c r="BU160" s="67"/>
+      <c r="BV160" s="67"/>
+      <c r="BY160" s="126"/>
+      <c r="BZ160" s="67"/>
+      <c r="CA160" s="67"/>
+      <c r="CB160" s="67"/>
+      <c r="CC160" s="67"/>
+      <c r="CF160" s="126"/>
+      <c r="CG160" s="67"/>
+      <c r="CH160" s="67"/>
+      <c r="CI160" s="67"/>
+      <c r="CJ160" s="67"/>
+      <c r="CM160" s="126"/>
+      <c r="CN160" s="67"/>
+      <c r="CO160" s="67"/>
+      <c r="CP160" s="67"/>
       <c r="CQ160" s="6"/>
-    </row>
-    <row r="161" spans="91:95">
-      <c r="CM161" s="67"/>
+      <c r="CT160" s="67"/>
+      <c r="CU160" s="67"/>
+      <c r="CV160" s="67"/>
+      <c r="CW160" s="67"/>
+      <c r="CX160" s="67"/>
+      <c r="CY160" s="136"/>
+      <c r="DA160" s="67"/>
+      <c r="DB160" s="75"/>
+      <c r="DC160" s="70"/>
+      <c r="DD160" s="67"/>
+      <c r="DE160" s="67"/>
+      <c r="DH160" s="126"/>
+      <c r="DI160" s="67"/>
+      <c r="DJ160" s="67"/>
+      <c r="DK160" s="67"/>
+      <c r="DL160" s="126"/>
+    </row>
+    <row r="161" spans="1:138" ht="16" thickBot="1">
+      <c r="A161" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B161" s="92" t="s">
+        <v>129</v>
+      </c>
+      <c r="C161">
+        <v>10</v>
+      </c>
+      <c r="D161">
+        <v>9</v>
+      </c>
+      <c r="E161">
+        <v>10</v>
+      </c>
+      <c r="AW161" s="14"/>
+      <c r="BC161" s="34"/>
+      <c r="BD161" s="162">
+        <v>1</v>
+      </c>
+      <c r="BE161" s="130"/>
+      <c r="BH161" s="67"/>
+      <c r="BJ161" s="35"/>
+      <c r="BK161" s="161">
+        <v>2</v>
+      </c>
+      <c r="BL161" s="130"/>
+      <c r="BO161" s="67"/>
+      <c r="BP161" s="68">
+        <v>1</v>
+      </c>
+      <c r="BQ161" s="35"/>
+      <c r="BR161" s="161"/>
+      <c r="BS161" s="125"/>
+      <c r="BV161" s="67"/>
+      <c r="BX161" s="127"/>
+      <c r="BY161" s="161">
+        <v>2</v>
+      </c>
+      <c r="BZ161" s="130"/>
+      <c r="CC161" s="67"/>
+      <c r="CE161" s="35"/>
+      <c r="CF161" s="161">
+        <v>1</v>
+      </c>
+      <c r="CG161" s="130"/>
+      <c r="CJ161" s="67"/>
+      <c r="CL161" s="35"/>
+      <c r="CM161" s="161">
+        <v>1</v>
+      </c>
+      <c r="CN161" s="130"/>
+      <c r="CP161" s="67"/>
       <c r="CQ161" s="6"/>
-    </row>
-    <row r="162" spans="91:95">
-      <c r="CM162" s="67"/>
+      <c r="CT161" s="67"/>
+      <c r="CU161" s="67"/>
+      <c r="CV161" s="67"/>
+      <c r="CW161" s="67"/>
+      <c r="CX161" s="75"/>
+      <c r="CY161" s="161"/>
+      <c r="CZ161" s="128"/>
+      <c r="DA161" s="67"/>
+      <c r="DD161" s="67"/>
+      <c r="DE161" s="67"/>
+      <c r="DG161" s="35"/>
+      <c r="DH161" s="161">
+        <v>1</v>
+      </c>
+      <c r="DI161" s="125"/>
+      <c r="DJ161" s="67"/>
+      <c r="DK161" s="75"/>
+      <c r="DL161" s="161"/>
+      <c r="DM161" s="128"/>
+    </row>
+    <row r="162" spans="1:138">
+      <c r="B162" s="92" t="s">
+        <v>138</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>2</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="BD162" s="155"/>
+      <c r="BH162" s="67"/>
+      <c r="BK162" s="156"/>
+      <c r="BO162" s="67"/>
+      <c r="BR162" s="18"/>
+      <c r="BS162" s="67"/>
+      <c r="BV162" s="67"/>
+      <c r="BY162" s="156"/>
+      <c r="CC162" s="67"/>
+      <c r="CF162" s="156"/>
+      <c r="CJ162" s="67"/>
+      <c r="CM162" s="156"/>
+      <c r="CP162" s="67"/>
       <c r="CQ162" s="6"/>
-    </row>
-    <row r="163" spans="91:95">
-      <c r="CM163" s="67"/>
-      <c r="CQ163" s="6"/>
-    </row>
-    <row r="199" spans="91:95">
+      <c r="CT162" s="67"/>
+      <c r="CU162" s="67"/>
+      <c r="CV162" s="67"/>
+      <c r="CW162" s="67"/>
+      <c r="CX162" s="67"/>
+      <c r="CY162" s="15"/>
+      <c r="DA162" s="67"/>
+      <c r="DD162" s="67"/>
+      <c r="DE162" s="67"/>
+      <c r="DH162" s="157">
+        <v>2</v>
+      </c>
+      <c r="DI162" s="67"/>
+      <c r="DJ162" s="67"/>
+      <c r="DK162" s="67"/>
+      <c r="DL162" s="156"/>
+    </row>
+    <row r="163" spans="1:138">
+      <c r="A163" s="194" t="s">
+        <v>200</v>
+      </c>
+      <c r="B163" s="193" t="s">
+        <v>201</v>
+      </c>
+      <c r="C163" s="193"/>
+      <c r="D163" s="193"/>
+      <c r="E163" s="193"/>
+      <c r="F163" s="193"/>
+      <c r="G163" s="195"/>
+      <c r="H163" s="195"/>
+      <c r="I163" s="195"/>
+      <c r="J163" s="195"/>
+      <c r="K163" s="195"/>
+      <c r="L163" s="196"/>
+      <c r="M163" s="196"/>
+      <c r="N163" s="197"/>
+      <c r="O163" s="195"/>
+      <c r="P163" s="195"/>
+      <c r="Q163" s="195"/>
+      <c r="R163" s="195"/>
+      <c r="S163" s="196"/>
+      <c r="T163" s="196"/>
+      <c r="U163" s="197"/>
+      <c r="V163" s="195"/>
+      <c r="W163" s="195"/>
+      <c r="X163" s="195"/>
+      <c r="Y163" s="195"/>
+      <c r="Z163" s="196"/>
+      <c r="AA163" s="196"/>
+      <c r="AB163" s="195"/>
+      <c r="AC163" s="195"/>
+      <c r="AD163" s="195"/>
+      <c r="AE163" s="195"/>
+      <c r="AF163" s="195"/>
+      <c r="AG163" s="196"/>
+      <c r="AH163" s="196"/>
+      <c r="AI163" s="195"/>
+      <c r="AJ163" s="195"/>
+      <c r="AK163" s="195"/>
+      <c r="AL163" s="195"/>
+      <c r="AM163" s="195"/>
+      <c r="AN163" s="196"/>
+      <c r="AO163" s="196"/>
+      <c r="AP163" s="197"/>
+      <c r="AQ163" s="195"/>
+      <c r="AR163" s="195"/>
+      <c r="AS163" s="195"/>
+      <c r="AT163" s="195"/>
+      <c r="AU163" s="196"/>
+      <c r="AV163" s="196"/>
+      <c r="AW163" s="195"/>
+      <c r="AX163" s="195"/>
+      <c r="AY163" s="195"/>
+      <c r="AZ163" s="195"/>
+      <c r="BA163" s="195"/>
+      <c r="BB163" s="196"/>
+      <c r="BC163" s="196"/>
+      <c r="BD163" s="198"/>
+      <c r="BE163" s="195"/>
+      <c r="BF163" s="195"/>
+      <c r="BG163" s="195"/>
+      <c r="BH163" s="195"/>
+      <c r="BI163" s="196"/>
+      <c r="BJ163" s="196"/>
+      <c r="BK163" s="195"/>
+      <c r="BL163" s="195"/>
+      <c r="BM163" s="195"/>
+      <c r="BN163" s="195"/>
+      <c r="BO163" s="195"/>
+      <c r="BP163" s="196"/>
+      <c r="BQ163" s="196"/>
+      <c r="BR163" s="197"/>
+      <c r="BS163" s="195"/>
+      <c r="BT163" s="195"/>
+      <c r="BU163" s="195"/>
+      <c r="BV163" s="195"/>
+      <c r="BW163" s="196"/>
+      <c r="BX163" s="196"/>
+      <c r="BY163" s="195"/>
+      <c r="BZ163" s="195"/>
+      <c r="CA163" s="195"/>
+      <c r="CB163" s="195"/>
+      <c r="CC163" s="195"/>
+      <c r="CD163" s="196"/>
+      <c r="CE163" s="196"/>
+      <c r="CF163" s="195"/>
+      <c r="CG163" s="195"/>
+      <c r="CH163" s="195"/>
+      <c r="CI163" s="195"/>
+      <c r="CJ163" s="195"/>
+      <c r="CK163" s="196"/>
+      <c r="CL163" s="201"/>
+      <c r="CM163" s="199"/>
+      <c r="CN163" s="195"/>
+      <c r="CO163" s="195"/>
+      <c r="CP163" s="195"/>
+      <c r="CQ163" s="197"/>
+      <c r="CR163" s="196"/>
+      <c r="CS163" s="196"/>
+      <c r="CT163" s="195"/>
+      <c r="CU163" s="195"/>
+      <c r="CV163" s="195"/>
+      <c r="CW163" s="195"/>
+      <c r="CX163" s="195"/>
+      <c r="CY163" s="196"/>
+      <c r="CZ163" s="196"/>
+      <c r="DA163" s="195"/>
+      <c r="DB163" s="195"/>
+      <c r="DC163" s="195"/>
+      <c r="DD163" s="195"/>
+      <c r="DE163" s="195"/>
+      <c r="DF163" s="201"/>
+      <c r="DG163" s="201"/>
+      <c r="DH163" s="195"/>
+      <c r="DI163" s="195"/>
+      <c r="DJ163" s="195"/>
+      <c r="DK163" s="195"/>
+      <c r="DL163" s="195"/>
+      <c r="DM163" s="196"/>
+      <c r="DN163" s="196"/>
+      <c r="DO163" s="197"/>
+      <c r="DP163" s="195"/>
+      <c r="DQ163" s="195"/>
+      <c r="DR163" s="195"/>
+      <c r="DS163" s="195"/>
+      <c r="DT163" s="196"/>
+      <c r="DU163" s="196"/>
+      <c r="DV163" s="197"/>
+      <c r="DW163" s="195"/>
+      <c r="DX163" s="195"/>
+      <c r="DY163" s="195"/>
+      <c r="DZ163" s="195"/>
+      <c r="EA163" s="196"/>
+      <c r="EB163" s="196"/>
+      <c r="EC163" s="197"/>
+      <c r="ED163" s="195"/>
+      <c r="EE163" s="195"/>
+      <c r="EF163" s="195"/>
+      <c r="EG163" s="195"/>
+      <c r="EH163" s="195"/>
+    </row>
+    <row r="164" spans="1:138">
+      <c r="A164" s="194"/>
+      <c r="B164" s="193" t="s">
+        <v>202</v>
+      </c>
+      <c r="C164" s="193"/>
+      <c r="D164" s="193">
+        <v>2</v>
+      </c>
+      <c r="E164" s="193"/>
+      <c r="F164" s="193"/>
+      <c r="G164" s="195"/>
+      <c r="H164" s="195"/>
+      <c r="I164" s="195"/>
+      <c r="J164" s="195"/>
+      <c r="K164" s="195"/>
+      <c r="L164" s="196"/>
+      <c r="M164" s="196"/>
+      <c r="N164" s="197"/>
+      <c r="O164" s="195"/>
+      <c r="P164" s="195"/>
+      <c r="Q164" s="195"/>
+      <c r="R164" s="195"/>
+      <c r="S164" s="196"/>
+      <c r="T164" s="196"/>
+      <c r="U164" s="197"/>
+      <c r="V164" s="195"/>
+      <c r="W164" s="195"/>
+      <c r="X164" s="195"/>
+      <c r="Y164" s="195"/>
+      <c r="Z164" s="196"/>
+      <c r="AA164" s="196"/>
+      <c r="AB164" s="195"/>
+      <c r="AC164" s="195"/>
+      <c r="AD164" s="195"/>
+      <c r="AE164" s="195"/>
+      <c r="AF164" s="195"/>
+      <c r="AG164" s="196"/>
+      <c r="AH164" s="196"/>
+      <c r="AI164" s="195"/>
+      <c r="AJ164" s="195"/>
+      <c r="AK164" s="195"/>
+      <c r="AL164" s="195"/>
+      <c r="AM164" s="195"/>
+      <c r="AN164" s="196"/>
+      <c r="AO164" s="196"/>
+      <c r="AP164" s="197"/>
+      <c r="AQ164" s="195"/>
+      <c r="AR164" s="195"/>
+      <c r="AS164" s="195"/>
+      <c r="AT164" s="195"/>
+      <c r="AU164" s="196"/>
+      <c r="AV164" s="196"/>
+      <c r="AW164" s="195"/>
+      <c r="AX164" s="195"/>
+      <c r="AY164" s="195"/>
+      <c r="AZ164" s="195"/>
+      <c r="BA164" s="195"/>
+      <c r="BB164" s="196"/>
+      <c r="BC164" s="196"/>
+      <c r="BD164" s="200">
+        <v>2</v>
+      </c>
+      <c r="BE164" s="195"/>
+      <c r="BF164" s="195"/>
+      <c r="BG164" s="195"/>
+      <c r="BH164" s="195"/>
+      <c r="BI164" s="196"/>
+      <c r="BJ164" s="196"/>
+      <c r="BK164" s="195"/>
+      <c r="BL164" s="195"/>
+      <c r="BM164" s="195"/>
+      <c r="BN164" s="195"/>
+      <c r="BO164" s="195"/>
+      <c r="BP164" s="196"/>
+      <c r="BQ164" s="196"/>
+      <c r="BR164" s="197"/>
+      <c r="BS164" s="195"/>
+      <c r="BT164" s="195"/>
+      <c r="BU164" s="195"/>
+      <c r="BV164" s="195"/>
+      <c r="BW164" s="196"/>
+      <c r="BX164" s="196"/>
+      <c r="BY164" s="195"/>
+      <c r="BZ164" s="195"/>
+      <c r="CA164" s="195"/>
+      <c r="CB164" s="195"/>
+      <c r="CC164" s="195"/>
+      <c r="CD164" s="196"/>
+      <c r="CE164" s="196"/>
+      <c r="CF164" s="195"/>
+      <c r="CG164" s="195"/>
+      <c r="CH164" s="195"/>
+      <c r="CI164" s="195"/>
+      <c r="CJ164" s="195"/>
+      <c r="CK164" s="196"/>
+      <c r="CL164" s="201"/>
+      <c r="CM164" s="199"/>
+      <c r="CN164" s="195"/>
+      <c r="CO164" s="195"/>
+      <c r="CP164" s="195"/>
+      <c r="CQ164" s="197"/>
+      <c r="CR164" s="196"/>
+      <c r="CS164" s="196"/>
+      <c r="CT164" s="195"/>
+      <c r="CU164" s="195"/>
+      <c r="CV164" s="195"/>
+      <c r="CW164" s="195"/>
+      <c r="CX164" s="195"/>
+      <c r="CY164" s="196"/>
+      <c r="CZ164" s="196"/>
+      <c r="DA164" s="195"/>
+      <c r="DB164" s="195"/>
+      <c r="DC164" s="195"/>
+      <c r="DD164" s="195"/>
+      <c r="DE164" s="195"/>
+      <c r="DF164" s="201"/>
+      <c r="DG164" s="201"/>
+      <c r="DH164" s="195"/>
+      <c r="DI164" s="195"/>
+      <c r="DJ164" s="195"/>
+      <c r="DK164" s="195"/>
+      <c r="DL164" s="195"/>
+      <c r="DM164" s="196"/>
+      <c r="DN164" s="196"/>
+      <c r="DO164" s="197"/>
+      <c r="DP164" s="195"/>
+      <c r="DQ164" s="195"/>
+      <c r="DR164" s="195"/>
+      <c r="DS164" s="195"/>
+      <c r="DT164" s="196"/>
+      <c r="DU164" s="196"/>
+      <c r="DV164" s="197"/>
+      <c r="DW164" s="195"/>
+      <c r="DX164" s="195"/>
+      <c r="DY164" s="195"/>
+      <c r="DZ164" s="195"/>
+      <c r="EA164" s="196"/>
+      <c r="EB164" s="196"/>
+      <c r="EC164" s="197"/>
+      <c r="ED164" s="195"/>
+      <c r="EE164" s="195"/>
+      <c r="EF164" s="195"/>
+      <c r="EG164" s="195"/>
+      <c r="EH164" s="195"/>
+    </row>
+    <row r="165" spans="1:138">
+      <c r="A165" s="194"/>
+      <c r="B165" s="193" t="s">
+        <v>203</v>
+      </c>
+      <c r="C165" s="193"/>
+      <c r="D165" s="193"/>
+      <c r="E165" s="193"/>
+      <c r="F165" s="193"/>
+      <c r="G165" s="195"/>
+      <c r="H165" s="195"/>
+      <c r="I165" s="195"/>
+      <c r="J165" s="195"/>
+      <c r="K165" s="195"/>
+      <c r="L165" s="196"/>
+      <c r="M165" s="196"/>
+      <c r="N165" s="197"/>
+      <c r="O165" s="195"/>
+      <c r="P165" s="195"/>
+      <c r="Q165" s="195"/>
+      <c r="R165" s="195"/>
+      <c r="S165" s="196"/>
+      <c r="T165" s="196"/>
+      <c r="U165" s="197"/>
+      <c r="V165" s="195"/>
+      <c r="W165" s="195"/>
+      <c r="X165" s="195"/>
+      <c r="Y165" s="195"/>
+      <c r="Z165" s="196"/>
+      <c r="AA165" s="196"/>
+      <c r="AB165" s="195"/>
+      <c r="AC165" s="195"/>
+      <c r="AD165" s="195"/>
+      <c r="AE165" s="195"/>
+      <c r="AF165" s="195"/>
+      <c r="AG165" s="196"/>
+      <c r="AH165" s="196"/>
+      <c r="AI165" s="195"/>
+      <c r="AJ165" s="195"/>
+      <c r="AK165" s="195"/>
+      <c r="AL165" s="195"/>
+      <c r="AM165" s="195"/>
+      <c r="AN165" s="196"/>
+      <c r="AO165" s="196"/>
+      <c r="AP165" s="197"/>
+      <c r="AQ165" s="195"/>
+      <c r="AR165" s="195"/>
+      <c r="AS165" s="195"/>
+      <c r="AT165" s="195"/>
+      <c r="AU165" s="196"/>
+      <c r="AV165" s="196"/>
+      <c r="AW165" s="195"/>
+      <c r="AX165" s="195"/>
+      <c r="AY165" s="195"/>
+      <c r="AZ165" s="195"/>
+      <c r="BA165" s="195"/>
+      <c r="BB165" s="196"/>
+      <c r="BC165" s="196"/>
+      <c r="BD165" s="198"/>
+      <c r="BE165" s="195"/>
+      <c r="BF165" s="195"/>
+      <c r="BG165" s="195"/>
+      <c r="BH165" s="195"/>
+      <c r="BI165" s="196"/>
+      <c r="BJ165" s="196"/>
+      <c r="BK165" s="195"/>
+      <c r="BL165" s="195"/>
+      <c r="BM165" s="195"/>
+      <c r="BN165" s="195"/>
+      <c r="BO165" s="195"/>
+      <c r="BP165" s="196"/>
+      <c r="BQ165" s="196"/>
+      <c r="BR165" s="197"/>
+      <c r="BS165" s="195"/>
+      <c r="BT165" s="195"/>
+      <c r="BU165" s="195"/>
+      <c r="BV165" s="195"/>
+      <c r="BW165" s="196"/>
+      <c r="BX165" s="196"/>
+      <c r="BY165" s="195"/>
+      <c r="BZ165" s="195"/>
+      <c r="CA165" s="195"/>
+      <c r="CB165" s="195"/>
+      <c r="CC165" s="195"/>
+      <c r="CD165" s="196"/>
+      <c r="CE165" s="196"/>
+      <c r="CF165" s="195"/>
+      <c r="CG165" s="195"/>
+      <c r="CH165" s="195"/>
+      <c r="CI165" s="195"/>
+      <c r="CJ165" s="195"/>
+      <c r="CK165" s="196"/>
+      <c r="CL165" s="201"/>
+      <c r="CM165" s="199"/>
+      <c r="CN165" s="195"/>
+      <c r="CO165" s="195"/>
+      <c r="CP165" s="195"/>
+      <c r="CQ165" s="197"/>
+      <c r="CR165" s="196"/>
+      <c r="CS165" s="196"/>
+      <c r="CT165" s="195"/>
+      <c r="CU165" s="195"/>
+      <c r="CV165" s="195"/>
+      <c r="CW165" s="195"/>
+      <c r="CX165" s="195"/>
+      <c r="CY165" s="196"/>
+      <c r="CZ165" s="196"/>
+      <c r="DA165" s="195"/>
+      <c r="DB165" s="195"/>
+      <c r="DC165" s="195"/>
+      <c r="DD165" s="195"/>
+      <c r="DE165" s="195"/>
+      <c r="DF165" s="201"/>
+      <c r="DG165" s="201"/>
+      <c r="DH165" s="195"/>
+      <c r="DI165" s="195"/>
+      <c r="DJ165" s="195"/>
+      <c r="DK165" s="195"/>
+      <c r="DL165" s="195"/>
+      <c r="DM165" s="196"/>
+      <c r="DN165" s="196"/>
+      <c r="DO165" s="197"/>
+      <c r="DP165" s="195"/>
+      <c r="DQ165" s="195"/>
+      <c r="DR165" s="195"/>
+      <c r="DS165" s="195"/>
+      <c r="DT165" s="196"/>
+      <c r="DU165" s="196"/>
+      <c r="DV165" s="197"/>
+      <c r="DW165" s="195"/>
+      <c r="DX165" s="195"/>
+      <c r="DY165" s="195"/>
+      <c r="DZ165" s="195"/>
+      <c r="EA165" s="196"/>
+      <c r="EB165" s="196"/>
+      <c r="EC165" s="197"/>
+      <c r="ED165" s="195"/>
+      <c r="EE165" s="195"/>
+      <c r="EF165" s="195"/>
+      <c r="EG165" s="195"/>
+      <c r="EH165" s="195"/>
+    </row>
+    <row r="166" spans="1:138">
+      <c r="A166" s="194"/>
+      <c r="B166" s="193" t="s">
+        <v>204</v>
+      </c>
+      <c r="C166" s="193"/>
+      <c r="D166" s="193"/>
+      <c r="E166" s="193"/>
+      <c r="F166" s="193"/>
+      <c r="G166" s="195"/>
+      <c r="H166" s="195"/>
+      <c r="I166" s="195"/>
+      <c r="J166" s="195"/>
+      <c r="K166" s="195"/>
+      <c r="L166" s="196"/>
+      <c r="M166" s="196"/>
+      <c r="N166" s="197"/>
+      <c r="O166" s="195"/>
+      <c r="P166" s="195"/>
+      <c r="Q166" s="195"/>
+      <c r="R166" s="195"/>
+      <c r="S166" s="196"/>
+      <c r="T166" s="196"/>
+      <c r="U166" s="197"/>
+      <c r="V166" s="195"/>
+      <c r="W166" s="195"/>
+      <c r="X166" s="195"/>
+      <c r="Y166" s="195"/>
+      <c r="Z166" s="196"/>
+      <c r="AA166" s="196"/>
+      <c r="AB166" s="195"/>
+      <c r="AC166" s="195"/>
+      <c r="AD166" s="195"/>
+      <c r="AE166" s="195"/>
+      <c r="AF166" s="195"/>
+      <c r="AG166" s="196"/>
+      <c r="AH166" s="196"/>
+      <c r="AI166" s="195"/>
+      <c r="AJ166" s="195"/>
+      <c r="AK166" s="195"/>
+      <c r="AL166" s="195"/>
+      <c r="AM166" s="195"/>
+      <c r="AN166" s="196"/>
+      <c r="AO166" s="196"/>
+      <c r="AP166" s="197"/>
+      <c r="AQ166" s="195"/>
+      <c r="AR166" s="195"/>
+      <c r="AS166" s="195"/>
+      <c r="AT166" s="195"/>
+      <c r="AU166" s="196"/>
+      <c r="AV166" s="196"/>
+      <c r="AW166" s="195"/>
+      <c r="AX166" s="195"/>
+      <c r="AY166" s="195"/>
+      <c r="AZ166" s="195"/>
+      <c r="BA166" s="195"/>
+      <c r="BB166" s="196"/>
+      <c r="BC166" s="196"/>
+      <c r="BD166" s="198"/>
+      <c r="BE166" s="195"/>
+      <c r="BF166" s="195"/>
+      <c r="BG166" s="195"/>
+      <c r="BH166" s="195"/>
+      <c r="BI166" s="196"/>
+      <c r="BJ166" s="196"/>
+      <c r="BK166" s="195"/>
+      <c r="BL166" s="195"/>
+      <c r="BM166" s="195"/>
+      <c r="BN166" s="195"/>
+      <c r="BO166" s="195"/>
+      <c r="BP166" s="196"/>
+      <c r="BQ166" s="196"/>
+      <c r="BR166" s="197"/>
+      <c r="BS166" s="195"/>
+      <c r="BT166" s="195"/>
+      <c r="BU166" s="195"/>
+      <c r="BV166" s="195"/>
+      <c r="BW166" s="196"/>
+      <c r="BX166" s="196"/>
+      <c r="BY166" s="195"/>
+      <c r="BZ166" s="195"/>
+      <c r="CA166" s="195"/>
+      <c r="CB166" s="195"/>
+      <c r="CC166" s="195"/>
+      <c r="CD166" s="196"/>
+      <c r="CE166" s="196"/>
+      <c r="CF166" s="195"/>
+      <c r="CG166" s="195"/>
+      <c r="CH166" s="195"/>
+      <c r="CI166" s="195"/>
+      <c r="CJ166" s="195"/>
+      <c r="CK166" s="196"/>
+      <c r="CL166" s="201"/>
+      <c r="CM166" s="199"/>
+      <c r="CN166" s="195"/>
+      <c r="CO166" s="195"/>
+      <c r="CP166" s="195"/>
+      <c r="CQ166" s="197"/>
+      <c r="CR166" s="196"/>
+      <c r="CS166" s="196"/>
+      <c r="CT166" s="195"/>
+      <c r="CU166" s="195"/>
+      <c r="CV166" s="195"/>
+      <c r="CW166" s="195"/>
+      <c r="CX166" s="195"/>
+      <c r="CY166" s="196"/>
+      <c r="CZ166" s="196"/>
+      <c r="DA166" s="195"/>
+      <c r="DB166" s="195"/>
+      <c r="DC166" s="195"/>
+      <c r="DD166" s="195"/>
+      <c r="DE166" s="195"/>
+      <c r="DF166" s="201"/>
+      <c r="DG166" s="201"/>
+      <c r="DH166" s="195"/>
+      <c r="DI166" s="195"/>
+      <c r="DJ166" s="195"/>
+      <c r="DK166" s="195"/>
+      <c r="DL166" s="195"/>
+      <c r="DM166" s="196"/>
+      <c r="DN166" s="196"/>
+      <c r="DO166" s="197"/>
+      <c r="DP166" s="195"/>
+      <c r="DQ166" s="195"/>
+      <c r="DR166" s="195"/>
+      <c r="DS166" s="195"/>
+      <c r="DT166" s="196"/>
+      <c r="DU166" s="196"/>
+      <c r="DV166" s="197"/>
+      <c r="DW166" s="195"/>
+      <c r="DX166" s="195"/>
+      <c r="DY166" s="195"/>
+      <c r="DZ166" s="195"/>
+      <c r="EA166" s="196"/>
+      <c r="EB166" s="196"/>
+      <c r="EC166" s="197"/>
+      <c r="ED166" s="195"/>
+      <c r="EE166" s="195"/>
+      <c r="EF166" s="195"/>
+      <c r="EG166" s="195"/>
+      <c r="EH166" s="195"/>
+    </row>
+    <row r="167" spans="1:138">
+      <c r="A167" s="194"/>
+      <c r="B167" s="193" t="s">
+        <v>205</v>
+      </c>
+      <c r="C167" s="193"/>
+      <c r="D167" s="193"/>
+      <c r="E167" s="193"/>
+      <c r="F167" s="193"/>
+      <c r="G167" s="195"/>
+      <c r="H167" s="195"/>
+      <c r="I167" s="195"/>
+      <c r="J167" s="195"/>
+      <c r="K167" s="195"/>
+      <c r="L167" s="196"/>
+      <c r="M167" s="196"/>
+      <c r="N167" s="197"/>
+      <c r="O167" s="195"/>
+      <c r="P167" s="195"/>
+      <c r="Q167" s="195"/>
+      <c r="R167" s="195"/>
+      <c r="S167" s="196"/>
+      <c r="T167" s="196"/>
+      <c r="U167" s="197"/>
+      <c r="V167" s="195"/>
+      <c r="W167" s="195"/>
+      <c r="X167" s="195"/>
+      <c r="Y167" s="195"/>
+      <c r="Z167" s="196"/>
+      <c r="AA167" s="196"/>
+      <c r="AB167" s="195"/>
+      <c r="AC167" s="195"/>
+      <c r="AD167" s="195"/>
+      <c r="AE167" s="195"/>
+      <c r="AF167" s="195"/>
+      <c r="AG167" s="196"/>
+      <c r="AH167" s="196"/>
+      <c r="AI167" s="195"/>
+      <c r="AJ167" s="195"/>
+      <c r="AK167" s="195"/>
+      <c r="AL167" s="195"/>
+      <c r="AM167" s="195"/>
+      <c r="AN167" s="196"/>
+      <c r="AO167" s="196"/>
+      <c r="AP167" s="197"/>
+      <c r="AQ167" s="195"/>
+      <c r="AR167" s="195"/>
+      <c r="AS167" s="195"/>
+      <c r="AT167" s="195"/>
+      <c r="AU167" s="196"/>
+      <c r="AV167" s="196"/>
+      <c r="AW167" s="195"/>
+      <c r="AX167" s="195"/>
+      <c r="AY167" s="195"/>
+      <c r="AZ167" s="195"/>
+      <c r="BA167" s="195"/>
+      <c r="BB167" s="196"/>
+      <c r="BC167" s="196"/>
+      <c r="BD167" s="198"/>
+      <c r="BE167" s="195"/>
+      <c r="BF167" s="195"/>
+      <c r="BG167" s="195"/>
+      <c r="BH167" s="195"/>
+      <c r="BI167" s="196"/>
+      <c r="BJ167" s="196"/>
+      <c r="BK167" s="195"/>
+      <c r="BL167" s="195"/>
+      <c r="BM167" s="195"/>
+      <c r="BN167" s="195"/>
+      <c r="BO167" s="195"/>
+      <c r="BP167" s="196"/>
+      <c r="BQ167" s="196"/>
+      <c r="BR167" s="197"/>
+      <c r="BS167" s="195"/>
+      <c r="BT167" s="195"/>
+      <c r="BU167" s="195"/>
+      <c r="BV167" s="195"/>
+      <c r="BW167" s="196"/>
+      <c r="BX167" s="196"/>
+      <c r="BY167" s="195"/>
+      <c r="BZ167" s="195"/>
+      <c r="CA167" s="195"/>
+      <c r="CB167" s="195"/>
+      <c r="CC167" s="195"/>
+      <c r="CD167" s="196"/>
+      <c r="CE167" s="196"/>
+      <c r="CF167" s="195"/>
+      <c r="CG167" s="195"/>
+      <c r="CH167" s="195"/>
+      <c r="CI167" s="195"/>
+      <c r="CJ167" s="195"/>
+      <c r="CK167" s="196"/>
+      <c r="CL167" s="201"/>
+      <c r="CM167" s="199"/>
+      <c r="CN167" s="195"/>
+      <c r="CO167" s="195"/>
+      <c r="CP167" s="195"/>
+      <c r="CQ167" s="197"/>
+      <c r="CR167" s="196"/>
+      <c r="CS167" s="196"/>
+      <c r="CT167" s="195"/>
+      <c r="CU167" s="195"/>
+      <c r="CV167" s="195"/>
+      <c r="CW167" s="195"/>
+      <c r="CX167" s="195"/>
+      <c r="CY167" s="196"/>
+      <c r="CZ167" s="196"/>
+      <c r="DA167" s="195"/>
+      <c r="DB167" s="195"/>
+      <c r="DC167" s="195"/>
+      <c r="DD167" s="195"/>
+      <c r="DE167" s="195"/>
+      <c r="DF167" s="201"/>
+      <c r="DG167" s="201"/>
+      <c r="DH167" s="195"/>
+      <c r="DI167" s="195"/>
+      <c r="DJ167" s="195"/>
+      <c r="DK167" s="195"/>
+      <c r="DL167" s="195"/>
+      <c r="DM167" s="196"/>
+      <c r="DN167" s="196"/>
+      <c r="DO167" s="197"/>
+      <c r="DP167" s="195"/>
+      <c r="DQ167" s="195"/>
+      <c r="DR167" s="195"/>
+      <c r="DS167" s="195"/>
+      <c r="DT167" s="196"/>
+      <c r="DU167" s="196"/>
+      <c r="DV167" s="197"/>
+      <c r="DW167" s="195"/>
+      <c r="DX167" s="195"/>
+      <c r="DY167" s="195"/>
+      <c r="DZ167" s="195"/>
+      <c r="EA167" s="196"/>
+      <c r="EB167" s="196"/>
+      <c r="EC167" s="197"/>
+      <c r="ED167" s="195"/>
+      <c r="EE167" s="195"/>
+      <c r="EF167" s="195"/>
+      <c r="EG167" s="195"/>
+      <c r="EH167" s="195"/>
+    </row>
+    <row r="168" spans="1:138" ht="39" customHeight="1">
+      <c r="CM168" s="67"/>
+      <c r="CQ168" s="94"/>
+      <c r="DU168" s="65"/>
+      <c r="DV168" s="65"/>
+    </row>
+    <row r="169" spans="1:138">
+      <c r="CM169" s="67"/>
+      <c r="CQ169" s="94"/>
+    </row>
+    <row r="170" spans="1:138">
+      <c r="A170" s="99" t="s">
+        <v>115</v>
+      </c>
+      <c r="B170" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="AW170" s="65"/>
+      <c r="AX170" s="65"/>
+      <c r="AY170" s="65"/>
+      <c r="AZ170" s="65"/>
+      <c r="BA170" s="65"/>
+      <c r="BB170" s="65"/>
+      <c r="BD170" s="95"/>
+      <c r="BE170" s="65"/>
+      <c r="BF170" s="65"/>
+      <c r="BG170" s="65"/>
+      <c r="BH170" s="65"/>
+      <c r="BI170" s="65"/>
+      <c r="BJ170" s="65"/>
+      <c r="BK170" s="65"/>
+      <c r="BL170" s="65"/>
+      <c r="BM170" s="65"/>
+      <c r="BN170" s="65"/>
+      <c r="BO170" s="65"/>
+      <c r="BP170" s="65"/>
+      <c r="BQ170" s="65"/>
+      <c r="BR170" s="65"/>
+      <c r="BS170" s="65"/>
+      <c r="BT170" s="65"/>
+      <c r="BU170" s="65"/>
+      <c r="BV170" s="65"/>
+      <c r="BW170" s="96"/>
+      <c r="BX170" s="97"/>
+      <c r="BY170" s="65"/>
+      <c r="BZ170" s="65"/>
+      <c r="CA170" s="65"/>
+      <c r="CB170" s="65"/>
+      <c r="CC170" s="65"/>
+      <c r="CD170" s="65"/>
+      <c r="CE170" s="65"/>
+      <c r="CF170" s="65"/>
+      <c r="CG170" s="65"/>
+      <c r="CH170" s="65"/>
+      <c r="CI170" s="65"/>
+      <c r="CJ170" s="65"/>
+      <c r="CK170" s="65"/>
+      <c r="CL170" s="65"/>
+      <c r="CM170" s="65"/>
+      <c r="CN170" s="65"/>
+      <c r="CO170" s="65"/>
+      <c r="CP170" s="65"/>
+      <c r="CQ170" s="95"/>
+      <c r="CR170" s="65"/>
+      <c r="CS170" s="65"/>
+      <c r="CT170" s="65"/>
+      <c r="CU170" s="65"/>
+      <c r="CV170" s="65"/>
+      <c r="CW170" s="65"/>
+      <c r="CX170" s="65"/>
+      <c r="CY170" s="65"/>
+      <c r="CZ170" s="65"/>
+      <c r="DA170" s="65"/>
+      <c r="DB170" s="96"/>
+      <c r="DC170" s="97"/>
+      <c r="DD170" s="65"/>
+      <c r="DE170" s="65"/>
+      <c r="DF170" s="65"/>
+      <c r="DG170" s="65"/>
+      <c r="DH170" s="65"/>
+      <c r="DI170" s="65"/>
+      <c r="DJ170" s="65"/>
+      <c r="DK170" s="65"/>
+      <c r="DL170" s="65"/>
+      <c r="DZ170" s="67"/>
+    </row>
+    <row r="171" spans="1:138">
+      <c r="A171" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B171" t="s">
+        <v>109</v>
+      </c>
+      <c r="C171">
+        <v>2</v>
+      </c>
+      <c r="D171">
+        <v>3</v>
+      </c>
+      <c r="E171">
+        <v>2</v>
+      </c>
+      <c r="F171">
+        <v>3</v>
+      </c>
+      <c r="AW171" s="76">
+        <v>2</v>
+      </c>
+      <c r="BA171" s="65"/>
+      <c r="BC171" s="65"/>
+      <c r="CM171" s="67"/>
+      <c r="CQ171" s="94"/>
+      <c r="DW171" s="67"/>
+      <c r="DX171" s="67"/>
+      <c r="DY171" s="67"/>
+      <c r="DZ171" s="67"/>
+      <c r="EA171" s="93"/>
+      <c r="EB171" s="93"/>
+    </row>
+    <row r="172" spans="1:138">
+      <c r="A172" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B172" s="92" t="s">
+        <v>127</v>
+      </c>
+      <c r="C172">
+        <v>3</v>
+      </c>
+      <c r="E172">
+        <v>3</v>
+      </c>
+      <c r="AZ172" s="67"/>
+      <c r="CM172" s="67"/>
+      <c r="CQ172" s="94"/>
+      <c r="DW172" s="67"/>
+      <c r="DX172" s="67"/>
+      <c r="DY172" s="67"/>
+      <c r="DZ172" s="67"/>
+      <c r="EA172" s="93"/>
+      <c r="EB172" s="93"/>
+    </row>
+    <row r="173" spans="1:138">
+      <c r="A173" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B173" s="92" t="s">
+        <v>128</v>
+      </c>
+      <c r="C173">
+        <v>3</v>
+      </c>
+      <c r="E173">
+        <v>3</v>
+      </c>
+      <c r="CM173" s="67"/>
+      <c r="CQ173" s="94"/>
+      <c r="DW173" s="65"/>
+      <c r="DX173" s="67"/>
+      <c r="DY173" s="67"/>
+      <c r="DZ173" s="67"/>
+      <c r="EA173" s="93"/>
+      <c r="EB173" s="93"/>
+    </row>
+    <row r="174" spans="1:138">
+      <c r="A174" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B174" t="s">
+        <v>123</v>
+      </c>
+      <c r="CM174" s="67"/>
+      <c r="CQ174" s="94"/>
+      <c r="DA174" s="67"/>
+      <c r="DD174" s="67"/>
+      <c r="DE174" s="67"/>
+      <c r="DH174" s="67"/>
+      <c r="DK174" s="67"/>
+      <c r="DL174" s="67"/>
+      <c r="DU174" s="65"/>
+      <c r="DV174" s="65"/>
+      <c r="DW174" s="67"/>
+      <c r="DX174" s="65"/>
+      <c r="DY174" s="65"/>
+      <c r="DZ174" s="67"/>
+      <c r="EA174" s="93"/>
+      <c r="EB174" s="93"/>
+    </row>
+    <row r="175" spans="1:138">
+      <c r="B175" s="92" t="s">
+        <v>124</v>
+      </c>
+      <c r="C175">
+        <v>3</v>
+      </c>
+      <c r="E175">
+        <v>3</v>
+      </c>
+      <c r="CM175" s="67"/>
+      <c r="CQ175" s="94"/>
+      <c r="DA175" s="67"/>
+      <c r="DD175" s="67"/>
+      <c r="DE175" s="67"/>
+      <c r="DH175" s="67"/>
+      <c r="DK175" s="67"/>
+      <c r="DL175" s="67"/>
+    </row>
+    <row r="176" spans="1:138">
+      <c r="B176" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="C176">
+        <v>14</v>
+      </c>
+      <c r="E176">
+        <v>4</v>
+      </c>
+      <c r="CM176" s="67"/>
+      <c r="CQ176" s="94"/>
+      <c r="DA176" s="67"/>
+      <c r="DD176" s="67"/>
+      <c r="DE176" s="67"/>
+      <c r="DH176" s="67"/>
+      <c r="DK176" s="67"/>
+      <c r="DL176" s="67"/>
+    </row>
+    <row r="177" spans="1:116">
+      <c r="B177" s="92" t="s">
+        <v>126</v>
+      </c>
+      <c r="C177">
+        <v>3</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="CM177" s="67"/>
+      <c r="CQ177" s="94"/>
+      <c r="DA177" s="67"/>
+      <c r="DD177" s="67"/>
+      <c r="DE177" s="67"/>
+      <c r="DH177" s="67"/>
+      <c r="DK177" s="67"/>
+      <c r="DL177" s="67"/>
+    </row>
+    <row r="178" spans="1:116">
+      <c r="CM178" s="67"/>
+      <c r="CQ178" s="94"/>
+    </row>
+    <row r="179" spans="1:116">
+      <c r="CM179" s="67"/>
+      <c r="CQ179" s="94"/>
+    </row>
+    <row r="180" spans="1:116">
+      <c r="CM180" s="67"/>
+      <c r="CQ180" s="6"/>
+    </row>
+    <row r="181" spans="1:116" ht="16" thickBot="1">
+      <c r="A181" s="100" t="s">
+        <v>140</v>
+      </c>
+      <c r="B181" s="114" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR181" s="88"/>
+      <c r="AS181" s="89"/>
+      <c r="AT181" s="153"/>
+      <c r="AU181" s="88"/>
+      <c r="AV181" s="88"/>
+      <c r="AW181" s="88"/>
+      <c r="AX181" s="88"/>
+      <c r="AY181" s="88"/>
+      <c r="AZ181" s="88"/>
+      <c r="BA181" s="88"/>
+      <c r="BB181" s="88"/>
+      <c r="BC181" s="136"/>
+      <c r="BD181" s="91"/>
+      <c r="BE181" s="88"/>
+      <c r="BF181" s="88"/>
+      <c r="BG181" s="88"/>
+      <c r="BH181" s="154"/>
+      <c r="BI181" s="88"/>
+      <c r="BJ181" s="88"/>
+      <c r="BK181" s="88"/>
+      <c r="BL181" s="88"/>
+      <c r="BM181" s="88"/>
+      <c r="BN181" s="88"/>
+      <c r="BO181" s="88"/>
+      <c r="BP181" s="88"/>
+      <c r="BQ181" s="88"/>
+      <c r="BR181" s="88"/>
+      <c r="BS181" s="88"/>
+      <c r="BT181" s="88"/>
+      <c r="BU181" s="88"/>
+      <c r="BV181" s="154"/>
+      <c r="BW181" s="89"/>
+      <c r="BX181" s="90"/>
+      <c r="BY181" s="88"/>
+      <c r="BZ181" s="88"/>
+      <c r="CA181" s="88"/>
+      <c r="CB181" s="88"/>
+      <c r="CC181" s="88"/>
+      <c r="CD181" s="88"/>
+      <c r="CE181" s="88"/>
+      <c r="CF181" s="88"/>
+      <c r="CG181" s="88"/>
+      <c r="CH181" s="88"/>
+      <c r="CI181" s="88"/>
+      <c r="CJ181" s="154"/>
+      <c r="CK181" s="88"/>
+      <c r="CL181" s="88"/>
+      <c r="CM181" s="88"/>
+      <c r="CN181" s="88"/>
+      <c r="CO181" s="88"/>
+      <c r="CP181" s="88"/>
+      <c r="CQ181" s="88"/>
+      <c r="CR181" s="88"/>
+      <c r="CS181" s="88"/>
+      <c r="CT181" s="88"/>
+      <c r="CU181" s="88"/>
+      <c r="CV181" s="88"/>
+      <c r="CW181" s="88"/>
+      <c r="CX181" s="154"/>
+      <c r="CY181" s="88"/>
+      <c r="CZ181" s="88"/>
+      <c r="DA181" s="67"/>
+      <c r="DB181" s="75"/>
+      <c r="DC181" s="70"/>
+      <c r="DD181" s="67"/>
+      <c r="DE181" s="67"/>
+      <c r="DH181" s="67"/>
+      <c r="DI181" s="67"/>
+      <c r="DJ181" s="67"/>
+      <c r="DK181" s="67"/>
+      <c r="DL181" s="67"/>
+    </row>
+    <row r="182" spans="1:116" ht="16" thickBot="1">
+      <c r="A182" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B182" t="s">
+        <v>113</v>
+      </c>
+      <c r="C182">
+        <v>4</v>
+      </c>
+      <c r="D182">
+        <v>5</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="AT182" s="163">
+        <v>1</v>
+      </c>
+      <c r="AU182" s="150"/>
+      <c r="BB182" s="35"/>
+      <c r="BC182" s="164"/>
+      <c r="BD182" s="151"/>
+      <c r="BG182" s="31"/>
+      <c r="BH182" s="163">
+        <v>1</v>
+      </c>
+      <c r="BI182" s="128"/>
+      <c r="BS182" s="67"/>
+      <c r="BU182" s="31"/>
+      <c r="BV182" s="164"/>
+      <c r="BW182" s="132"/>
+      <c r="CB182" s="79">
+        <v>1</v>
+      </c>
+      <c r="CC182" s="67"/>
+      <c r="CF182" s="67"/>
+      <c r="CI182" s="31"/>
+      <c r="CJ182" s="163">
+        <v>1</v>
+      </c>
+      <c r="CK182" s="128"/>
+      <c r="CM182" s="67"/>
+      <c r="CQ182" s="6"/>
+      <c r="CW182" s="31"/>
+      <c r="CX182" s="163">
+        <v>1</v>
+      </c>
+      <c r="CY182" s="128"/>
+    </row>
+    <row r="183" spans="1:116" ht="31" thickBot="1">
+      <c r="B183" s="92" t="s">
+        <v>136</v>
+      </c>
+      <c r="D183" t="s">
+        <v>137</v>
+      </c>
+      <c r="AT183" s="158"/>
+      <c r="AU183" s="80"/>
+      <c r="BC183" s="15"/>
+      <c r="BG183" s="79">
+        <v>3</v>
+      </c>
+      <c r="BH183" s="159"/>
+      <c r="BM183" s="79">
+        <v>3</v>
+      </c>
+      <c r="BS183" s="115">
+        <v>3</v>
+      </c>
+      <c r="BU183" s="79">
+        <v>2</v>
+      </c>
+      <c r="BV183" s="159">
+        <v>3</v>
+      </c>
+      <c r="CA183" s="79">
+        <v>2</v>
+      </c>
+      <c r="CB183" s="115">
+        <v>3</v>
+      </c>
+      <c r="CF183" s="67"/>
+      <c r="CH183" s="79">
+        <v>2</v>
+      </c>
+      <c r="CJ183" s="160"/>
+      <c r="CM183" s="67"/>
+      <c r="CO183" s="79">
+        <v>2</v>
+      </c>
+      <c r="CQ183" s="6"/>
+      <c r="CV183" s="79">
+        <v>2</v>
+      </c>
+      <c r="CX183" s="160"/>
+      <c r="DC183" s="81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:116" ht="16" thickBot="1">
+      <c r="A184" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B184" t="s">
+        <v>118</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>4</v>
+      </c>
+      <c r="AT184" s="163">
+        <v>1</v>
+      </c>
+      <c r="AU184" s="128"/>
+      <c r="BG184" s="31"/>
+      <c r="BH184" s="163">
+        <v>1</v>
+      </c>
+      <c r="BI184" s="128"/>
+      <c r="BU184" s="31"/>
+      <c r="BV184" s="163">
+        <v>1</v>
+      </c>
+      <c r="BW184" s="132"/>
+      <c r="CI184" s="31"/>
+      <c r="CJ184" s="163">
+        <v>1</v>
+      </c>
+      <c r="CK184" s="128"/>
+      <c r="CM184" s="67"/>
+      <c r="CQ184" s="6"/>
+      <c r="CW184" s="31"/>
+      <c r="CX184" s="163">
+        <v>1</v>
+      </c>
+      <c r="CY184" s="128"/>
+      <c r="DE184" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:116">
+      <c r="AT185" s="49"/>
+      <c r="BH185" s="14"/>
+      <c r="BV185" s="14"/>
+      <c r="CJ185" s="73"/>
+      <c r="CM185" s="67"/>
+      <c r="CQ185" s="6"/>
+      <c r="CX185" s="14"/>
+    </row>
+    <row r="186" spans="1:116">
+      <c r="CM186" s="67"/>
+      <c r="CQ186" s="6"/>
+    </row>
+    <row r="187" spans="1:116">
+      <c r="C187">
+        <f>SUM(C4:C186)</f>
+        <v>302</v>
+      </c>
+      <c r="D187">
+        <f>SUM(D4:D186)</f>
+        <v>272</v>
+      </c>
+      <c r="E187" s="66">
+        <f>SUM(E4:E186)</f>
+        <v>306</v>
+      </c>
+      <c r="F187">
+        <f>SUM(F4:F186)</f>
+        <v>260</v>
+      </c>
+      <c r="CM187" s="67"/>
+      <c r="CQ187" s="6"/>
+    </row>
+    <row r="188" spans="1:116">
+      <c r="C188" t="s">
+        <v>97</v>
+      </c>
+      <c r="D188" t="s">
+        <v>98</v>
+      </c>
+      <c r="E188" t="s">
+        <v>112</v>
+      </c>
+      <c r="F188" t="s">
+        <v>111</v>
+      </c>
+      <c r="CM188" s="67"/>
+      <c r="CQ188" s="6"/>
+    </row>
+    <row r="189" spans="1:116">
+      <c r="CM189" s="67"/>
+      <c r="CQ189" s="6"/>
+    </row>
+    <row r="190" spans="1:116">
+      <c r="CQ190" s="6"/>
+    </row>
+    <row r="191" spans="1:116">
+      <c r="CF191" s="67"/>
+      <c r="CG191" s="67"/>
+      <c r="CH191" s="67"/>
+      <c r="CI191" s="67"/>
+      <c r="CJ191" s="67"/>
+      <c r="CM191" s="67"/>
+      <c r="CQ191" s="6"/>
+    </row>
+    <row r="192" spans="1:116">
+      <c r="CF192" s="67"/>
+      <c r="CG192" s="67"/>
+      <c r="CH192" s="67"/>
+      <c r="CI192" s="67"/>
+      <c r="CJ192" s="67"/>
+      <c r="CM192" s="67"/>
+      <c r="CQ192" s="6"/>
+    </row>
+    <row r="193" spans="84:95">
+      <c r="CF193" s="67"/>
+      <c r="CG193" s="67"/>
+      <c r="CH193" s="67"/>
+      <c r="CI193" s="67"/>
+      <c r="CJ193" s="67"/>
+      <c r="CM193" s="67"/>
+      <c r="CQ193" s="6"/>
+    </row>
+    <row r="194" spans="84:95">
+      <c r="CF194" s="67"/>
+      <c r="CG194" s="67"/>
+      <c r="CH194" s="67"/>
+      <c r="CI194" s="67"/>
+      <c r="CJ194" s="67"/>
+      <c r="CM194" s="67"/>
+      <c r="CQ194" s="6"/>
+    </row>
+    <row r="195" spans="84:95">
+      <c r="CM195" s="67"/>
+      <c r="CQ195" s="6"/>
+    </row>
+    <row r="196" spans="84:95">
+      <c r="CM196" s="67"/>
+      <c r="CQ196" s="6"/>
+    </row>
+    <row r="197" spans="84:95">
+      <c r="CM197" s="67"/>
+      <c r="CQ197" s="6"/>
+    </row>
+    <row r="198" spans="84:95">
+      <c r="CM198" s="67"/>
+      <c r="CQ198" s="6"/>
+    </row>
+    <row r="199" spans="84:95">
       <c r="CM199" s="67"/>
       <c r="CQ199" s="6"/>
     </row>
-    <row r="200" spans="91:95">
-      <c r="CM200" s="67"/>
-    </row>
-    <row r="201" spans="91:95">
-      <c r="CM201" s="67"/>
-    </row>
-    <row r="202" spans="91:95">
-      <c r="CM202" s="67"/>
-    </row>
-    <row r="203" spans="91:95">
-      <c r="CM203" s="67"/>
-    </row>
-    <row r="204" spans="91:95">
-      <c r="CM204" s="67"/>
-    </row>
-    <row r="205" spans="91:95">
-      <c r="CM205" s="67"/>
-    </row>
-    <row r="206" spans="91:95">
-      <c r="CM206" s="67"/>
-    </row>
-    <row r="207" spans="91:95">
-      <c r="CM207" s="67"/>
-    </row>
-    <row r="208" spans="91:95">
-      <c r="CM208" s="67"/>
-    </row>
-    <row r="209" spans="91:91">
-      <c r="CM209" s="67"/>
-    </row>
-    <row r="210" spans="91:91">
-      <c r="CM210" s="67"/>
-    </row>
-    <row r="211" spans="91:91">
-      <c r="CM211" s="67"/>
-    </row>
-    <row r="212" spans="91:91">
-      <c r="CM212" s="67"/>
-    </row>
-    <row r="213" spans="91:91">
-      <c r="CM213" s="67"/>
-    </row>
-    <row r="214" spans="91:91">
-      <c r="CM214" s="67"/>
-    </row>
-    <row r="215" spans="91:91">
-      <c r="CM215" s="67"/>
-    </row>
-    <row r="216" spans="91:91">
-      <c r="CM216" s="67"/>
-    </row>
-    <row r="217" spans="91:91">
-      <c r="CM217" s="67"/>
-    </row>
-    <row r="218" spans="91:91">
-      <c r="CM218" s="67"/>
-    </row>
-    <row r="219" spans="91:91">
-      <c r="CM219" s="67"/>
-    </row>
-    <row r="220" spans="91:91">
-      <c r="CM220" s="67"/>
-    </row>
-    <row r="221" spans="91:91">
-      <c r="CM221" s="67"/>
-    </row>
-    <row r="222" spans="91:91">
-      <c r="CM222" s="67"/>
-    </row>
-    <row r="223" spans="91:91">
-      <c r="CM223" s="67"/>
-    </row>
-    <row r="224" spans="91:91">
-      <c r="CM224" s="67"/>
-    </row>
-    <row r="225" spans="91:91">
-      <c r="CM225" s="67"/>
-    </row>
-    <row r="226" spans="91:91">
-      <c r="CM226" s="67"/>
-    </row>
-    <row r="227" spans="91:91">
-      <c r="CM227" s="67"/>
-    </row>
-    <row r="228" spans="91:91">
-      <c r="CM228" s="67"/>
-    </row>
-    <row r="229" spans="91:91">
-      <c r="CM229" s="67"/>
-    </row>
-    <row r="230" spans="91:91">
-      <c r="CM230" s="67"/>
-    </row>
-    <row r="231" spans="91:91">
-      <c r="CM231" s="67"/>
-    </row>
-    <row r="232" spans="91:91">
-      <c r="CM232" s="67"/>
-    </row>
-    <row r="233" spans="91:91">
-      <c r="CM233" s="67"/>
-    </row>
-    <row r="234" spans="91:91">
-      <c r="CM234" s="67"/>
-    </row>
-    <row r="235" spans="91:91">
+    <row r="235" spans="91:95">
       <c r="CM235" s="67"/>
-    </row>
-    <row r="236" spans="91:91">
+      <c r="CQ235" s="6"/>
+    </row>
+    <row r="236" spans="91:95">
       <c r="CM236" s="67"/>
     </row>
-    <row r="237" spans="91:91">
+    <row r="237" spans="91:95">
       <c r="CM237" s="67"/>
     </row>
-    <row r="238" spans="91:91">
+    <row r="238" spans="91:95">
       <c r="CM238" s="67"/>
     </row>
-    <row r="239" spans="91:91">
+    <row r="239" spans="91:95">
       <c r="CM239" s="67"/>
     </row>
-    <row r="240" spans="91:91">
+    <row r="240" spans="91:95">
       <c r="CM240" s="67"/>
     </row>
     <row r="241" spans="91:91">
@@ -8363,6 +9190,114 @@
     </row>
     <row r="282" spans="91:91">
       <c r="CM282" s="67"/>
+    </row>
+    <row r="283" spans="91:91">
+      <c r="CM283" s="67"/>
+    </row>
+    <row r="284" spans="91:91">
+      <c r="CM284" s="67"/>
+    </row>
+    <row r="285" spans="91:91">
+      <c r="CM285" s="67"/>
+    </row>
+    <row r="286" spans="91:91">
+      <c r="CM286" s="67"/>
+    </row>
+    <row r="287" spans="91:91">
+      <c r="CM287" s="67"/>
+    </row>
+    <row r="288" spans="91:91">
+      <c r="CM288" s="67"/>
+    </row>
+    <row r="289" spans="91:91">
+      <c r="CM289" s="67"/>
+    </row>
+    <row r="290" spans="91:91">
+      <c r="CM290" s="67"/>
+    </row>
+    <row r="291" spans="91:91">
+      <c r="CM291" s="67"/>
+    </row>
+    <row r="292" spans="91:91">
+      <c r="CM292" s="67"/>
+    </row>
+    <row r="293" spans="91:91">
+      <c r="CM293" s="67"/>
+    </row>
+    <row r="294" spans="91:91">
+      <c r="CM294" s="67"/>
+    </row>
+    <row r="295" spans="91:91">
+      <c r="CM295" s="67"/>
+    </row>
+    <row r="296" spans="91:91">
+      <c r="CM296" s="67"/>
+    </row>
+    <row r="297" spans="91:91">
+      <c r="CM297" s="67"/>
+    </row>
+    <row r="298" spans="91:91">
+      <c r="CM298" s="67"/>
+    </row>
+    <row r="299" spans="91:91">
+      <c r="CM299" s="67"/>
+    </row>
+    <row r="300" spans="91:91">
+      <c r="CM300" s="67"/>
+    </row>
+    <row r="301" spans="91:91">
+      <c r="CM301" s="67"/>
+    </row>
+    <row r="302" spans="91:91">
+      <c r="CM302" s="67"/>
+    </row>
+    <row r="303" spans="91:91">
+      <c r="CM303" s="67"/>
+    </row>
+    <row r="304" spans="91:91">
+      <c r="CM304" s="67"/>
+    </row>
+    <row r="305" spans="91:91">
+      <c r="CM305" s="67"/>
+    </row>
+    <row r="306" spans="91:91">
+      <c r="CM306" s="67"/>
+    </row>
+    <row r="307" spans="91:91">
+      <c r="CM307" s="67"/>
+    </row>
+    <row r="308" spans="91:91">
+      <c r="CM308" s="67"/>
+    </row>
+    <row r="309" spans="91:91">
+      <c r="CM309" s="67"/>
+    </row>
+    <row r="310" spans="91:91">
+      <c r="CM310" s="67"/>
+    </row>
+    <row r="311" spans="91:91">
+      <c r="CM311" s="67"/>
+    </row>
+    <row r="312" spans="91:91">
+      <c r="CM312" s="67"/>
+    </row>
+    <row r="313" spans="91:91">
+      <c r="CM313" s="67"/>
+    </row>
+    <row r="314" spans="91:91">
+      <c r="CM314" s="67"/>
+    </row>
+    <row r="315" spans="91:91">
+      <c r="CM315" s="67"/>
+    </row>
+    <row r="316" spans="91:91">
+      <c r="CM316" s="67"/>
+    </row>
+    <row r="317" spans="91:91">
+      <c r="CM317" s="67"/>
+    </row>
+    <row r="318" spans="91:91">
+      <c r="CM318" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/konzept/projektplan.xlsx
+++ b/konzept/projektplan.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -589,9 +589,6 @@
     <t>Context Navigation Map konzipieren und modellieren</t>
   </si>
   <si>
-    <t>Evaluation des AP2 mit Ansatz des cognitiv walkthrough</t>
-  </si>
-  <si>
     <t>Paperbased Prototype 1 erstellen</t>
   </si>
   <si>
@@ -737,6 +734,9 @@
   </si>
   <si>
     <t>Testing</t>
+  </si>
+  <si>
+    <t>Evaluation des AP2 mit Ansatz eines einfachen cognitiv walkthrough</t>
   </si>
 </sst>
 </file>
@@ -749,7 +749,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -847,7 +846,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="31">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1026,6 +1025,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCFF72"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCFF8A"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1722,7 +1733,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2016,107 +2027,112 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="99">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2450,8 +2466,8 @@
   </sheetPr>
   <dimension ref="A1:EH318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="S159" sqref="S159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4758,6 +4774,9 @@
       <c r="BP52" s="182">
         <v>4</v>
       </c>
+      <c r="BQ52" s="218">
+        <v>2</v>
+      </c>
       <c r="BS52" s="67"/>
       <c r="BT52" s="67"/>
       <c r="BU52" s="67"/>
@@ -4786,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW53" s="67"/>
       <c r="AX53" s="67"/>
@@ -4852,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW55" s="67"/>
       <c r="AX55" s="67"/>
@@ -5002,7 +5021,9 @@
       <c r="BX58" s="187">
         <v>4</v>
       </c>
-      <c r="BY58" s="148"/>
+      <c r="BY58" s="148">
+        <v>1</v>
+      </c>
       <c r="BZ58" s="130"/>
       <c r="CF58" s="67"/>
       <c r="CG58" s="67"/>
@@ -5017,16 +5038,16 @@
         <v>158</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>2</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW59" s="67"/>
       <c r="BC59" s="34"/>
@@ -5044,9 +5065,7 @@
       <c r="BX59" s="127"/>
       <c r="BY59" s="149"/>
       <c r="BZ59" s="130"/>
-      <c r="CC59" s="178">
-        <v>5</v>
-      </c>
+      <c r="CC59" s="67"/>
       <c r="CF59" s="67"/>
       <c r="CG59" s="67"/>
       <c r="CH59" s="67"/>
@@ -5093,10 +5112,10 @@
         <v>3</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW61" s="67"/>
       <c r="BA61" s="67"/>
@@ -5127,7 +5146,9 @@
       <c r="CR61" s="146">
         <v>3</v>
       </c>
-      <c r="CS61" s="128"/>
+      <c r="CS61" s="219">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:104" ht="16" thickBot="1">
       <c r="B62" t="s">
@@ -5143,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW62" s="67"/>
       <c r="BA62" s="67"/>
@@ -5176,6 +5197,9 @@
       <c r="CY62" s="178">
         <v>2</v>
       </c>
+      <c r="CZ62" s="220">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:104" ht="16" thickBot="1">
       <c r="AW63" s="67"/>
@@ -5217,10 +5241,10 @@
         <v>3</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW64" s="67"/>
       <c r="BA64" s="67"/>
@@ -5663,7 +5687,7 @@
     </row>
     <row r="77" spans="1:108" ht="31" thickBot="1">
       <c r="B77" s="92" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -5727,13 +5751,13 @@
         <v>4</v>
       </c>
       <c r="D79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH79" s="67"/>
       <c r="BK79" s="67"/>
@@ -5755,7 +5779,7 @@
       <c r="DA79" s="146"/>
       <c r="DB79" s="179"/>
       <c r="DD79" s="182">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:108">
@@ -5829,7 +5853,7 @@
     </row>
     <row r="83" spans="1:111" ht="16" thickBot="1">
       <c r="B83" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -5864,7 +5888,7 @@
     </row>
     <row r="84" spans="1:111" ht="31" thickBot="1">
       <c r="B84" s="92" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -5899,7 +5923,7 @@
     </row>
     <row r="85" spans="1:111">
       <c r="B85" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -5934,7 +5958,7 @@
     </row>
     <row r="86" spans="1:111" ht="31" thickBot="1">
       <c r="B86" s="92" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -5969,7 +5993,7 @@
     </row>
     <row r="87" spans="1:111" ht="16" thickBot="1">
       <c r="B87" s="92" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -6070,7 +6094,7 @@
     </row>
     <row r="91" spans="1:111" ht="16" thickBot="1">
       <c r="B91" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -6111,7 +6135,7 @@
     </row>
     <row r="93" spans="1:111" ht="16" thickBot="1">
       <c r="B93" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -6136,19 +6160,19 @@
     </row>
     <row r="94" spans="1:111" ht="16" thickBot="1">
       <c r="B94" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CJ94" s="14"/>
       <c r="CK94" s="34"/>
@@ -6161,7 +6185,7 @@
     </row>
     <row r="95" spans="1:111" ht="16" thickBot="1">
       <c r="B95" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -6186,7 +6210,7 @@
     </row>
     <row r="96" spans="1:111" ht="16" thickBot="1">
       <c r="B96" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -6213,14 +6237,8 @@
       <c r="B97" t="s">
         <v>162</v>
       </c>
-      <c r="C97">
-        <v>3</v>
-      </c>
       <c r="D97">
         <v>0</v>
-      </c>
-      <c r="E97">
-        <v>3</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -6242,14 +6260,8 @@
       <c r="B99" t="s">
         <v>163</v>
       </c>
-      <c r="C99">
-        <v>3</v>
-      </c>
       <c r="D99">
         <v>0</v>
-      </c>
-      <c r="E99">
-        <v>3</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -6356,13 +6368,13 @@
     </row>
     <row r="107" spans="1:112">
       <c r="B107" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E107">
         <v>4</v>
@@ -6380,7 +6392,7 @@
     </row>
     <row r="108" spans="1:112">
       <c r="B108" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -6404,7 +6416,7 @@
     </row>
     <row r="109" spans="1:112">
       <c r="B109" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C109">
         <v>8</v>
@@ -6428,7 +6440,7 @@
     </row>
     <row r="110" spans="1:112">
       <c r="B110" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C110">
         <v>2</v>
@@ -6494,7 +6506,7 @@
     </row>
     <row r="113" spans="1:95">
       <c r="B113" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C113">
         <v>5</v>
@@ -6518,7 +6530,7 @@
     </row>
     <row r="114" spans="1:95">
       <c r="B114" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C114">
         <v>3</v>
@@ -6584,7 +6596,7 @@
     </row>
     <row r="117" spans="1:95">
       <c r="B117" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C117">
         <v>2</v>
@@ -6608,7 +6620,7 @@
     </row>
     <row r="118" spans="1:95">
       <c r="B118" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C118">
         <v>3</v>
@@ -6676,7 +6688,7 @@
     </row>
     <row r="121" spans="1:95">
       <c r="B121" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C121">
         <v>2</v>
@@ -6700,7 +6712,7 @@
     </row>
     <row r="122" spans="1:95">
       <c r="B122" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C122">
         <v>10</v>
@@ -6766,7 +6778,7 @@
     </row>
     <row r="125" spans="1:95">
       <c r="B125" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C125">
         <v>2</v>
@@ -6790,13 +6802,13 @@
     </row>
     <row r="126" spans="1:95">
       <c r="B126" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C126">
         <v>3</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E126">
         <v>10</v>
@@ -6842,10 +6854,10 @@
     </row>
     <row r="128" spans="1:95">
       <c r="A128" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B128" t="s">
         <v>214</v>
-      </c>
-      <c r="B128" t="s">
-        <v>215</v>
       </c>
       <c r="C128">
         <v>3</v>
@@ -6944,10 +6956,10 @@
     </row>
     <row r="132" spans="1:125">
       <c r="A132" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B132" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="BO132" s="85"/>
       <c r="BP132" s="85"/>
@@ -6959,7 +6971,7 @@
     </row>
     <row r="133" spans="1:125">
       <c r="B133" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -6983,7 +6995,7 @@
     </row>
     <row r="134" spans="1:125">
       <c r="B134" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C134">
         <v>2</v>
@@ -7007,7 +7019,7 @@
     </row>
     <row r="135" spans="1:125">
       <c r="B135" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C135">
         <v>5</v>
@@ -7031,7 +7043,7 @@
     </row>
     <row r="136" spans="1:125">
       <c r="B136" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C136">
         <v>4</v>
@@ -7055,7 +7067,7 @@
     </row>
     <row r="137" spans="1:125">
       <c r="B137" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C137">
         <v>4</v>
@@ -7079,7 +7091,7 @@
     </row>
     <row r="138" spans="1:125">
       <c r="B138" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -7103,7 +7115,7 @@
     </row>
     <row r="139" spans="1:125">
       <c r="B139" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C139">
         <v>3</v>
@@ -7127,7 +7139,7 @@
     </row>
     <row r="140" spans="1:125">
       <c r="B140" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C140">
         <v>3</v>
@@ -7151,7 +7163,7 @@
     </row>
     <row r="141" spans="1:125">
       <c r="B141" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C141">
         <v>2</v>
@@ -7175,7 +7187,7 @@
     </row>
     <row r="142" spans="1:125">
       <c r="B142" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C142">
         <v>10</v>
@@ -7193,10 +7205,10 @@
     </row>
     <row r="143" spans="1:125">
       <c r="A143" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B143" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BU143" s="85"/>
       <c r="BV143" s="85"/>
@@ -7208,7 +7220,7 @@
     </row>
     <row r="144" spans="1:125">
       <c r="B144" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C144">
         <v>5</v>
@@ -7232,7 +7244,7 @@
     </row>
     <row r="145" spans="1:116">
       <c r="B145" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BO145" s="85"/>
       <c r="BP145" s="85"/>
@@ -7244,7 +7256,7 @@
     </row>
     <row r="146" spans="1:116">
       <c r="B146" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="BO146" s="85"/>
       <c r="BP146" s="85"/>
@@ -7256,7 +7268,7 @@
     </row>
     <row r="147" spans="1:116">
       <c r="B147" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C147">
         <v>5</v>
@@ -7274,10 +7286,10 @@
     </row>
     <row r="148" spans="1:116">
       <c r="A148" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B148" t="s">
         <v>219</v>
-      </c>
-      <c r="B148" t="s">
-        <v>220</v>
       </c>
       <c r="CB148" s="85"/>
       <c r="CC148" s="85"/>
@@ -7289,7 +7301,7 @@
     </row>
     <row r="149" spans="1:116">
       <c r="B149" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C149">
         <v>3</v>
@@ -7312,7 +7324,7 @@
     </row>
     <row r="150" spans="1:116">
       <c r="B150" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -7335,7 +7347,7 @@
     </row>
     <row r="151" spans="1:116">
       <c r="B151" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C151">
         <v>5</v>
@@ -7358,7 +7370,7 @@
     </row>
     <row r="152" spans="1:116">
       <c r="B152" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -7381,7 +7393,7 @@
     </row>
     <row r="153" spans="1:116">
       <c r="B153" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C153">
         <v>2</v>
@@ -7404,7 +7416,7 @@
     </row>
     <row r="154" spans="1:116">
       <c r="B154" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -7427,23 +7439,23 @@
     </row>
     <row r="155" spans="1:116">
       <c r="B155" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="CM155" s="67"/>
       <c r="CQ155" s="6"/>
     </row>
     <row r="156" spans="1:116">
       <c r="B156" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C156">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D156">
         <v>5</v>
       </c>
       <c r="E156">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F156">
         <v>10</v>
@@ -7631,10 +7643,13 @@
         <v>10</v>
       </c>
       <c r="D161">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E161">
         <v>10</v>
+      </c>
+      <c r="F161">
+        <v>18</v>
       </c>
       <c r="AW161" s="14"/>
       <c r="BC161" s="34"/>
@@ -7694,6 +7709,15 @@
       <c r="DK161" s="75"/>
       <c r="DL161" s="161"/>
       <c r="DM161" s="128"/>
+      <c r="DT161" s="221">
+        <v>3</v>
+      </c>
+      <c r="DU161" s="221">
+        <v>3</v>
+      </c>
+      <c r="DV161" s="221">
+        <v>3</v>
+      </c>
     </row>
     <row r="162" spans="1:138">
       <c r="B162" s="92" t="s">
@@ -7741,10 +7765,10 @@
     </row>
     <row r="163" spans="1:138">
       <c r="A163" s="194" t="s">
+        <v>199</v>
+      </c>
+      <c r="B163" s="193" t="s">
         <v>200</v>
-      </c>
-      <c r="B163" s="193" t="s">
-        <v>201</v>
       </c>
       <c r="C163" s="193"/>
       <c r="D163" s="193"/>
@@ -7886,14 +7910,20 @@
     <row r="164" spans="1:138">
       <c r="A164" s="194"/>
       <c r="B164" s="193" t="s">
-        <v>202</v>
-      </c>
-      <c r="C164" s="193"/>
+        <v>201</v>
+      </c>
+      <c r="C164" s="193">
+        <v>2</v>
+      </c>
       <c r="D164" s="193">
         <v>2</v>
       </c>
-      <c r="E164" s="193"/>
-      <c r="F164" s="193"/>
+      <c r="E164" s="193">
+        <v>0</v>
+      </c>
+      <c r="F164" s="193">
+        <v>0</v>
+      </c>
       <c r="G164" s="195"/>
       <c r="H164" s="195"/>
       <c r="I164" s="195"/>
@@ -8032,12 +8062,20 @@
     <row r="165" spans="1:138">
       <c r="A165" s="194"/>
       <c r="B165" s="193" t="s">
-        <v>203</v>
-      </c>
-      <c r="C165" s="193"/>
-      <c r="D165" s="193"/>
-      <c r="E165" s="193"/>
-      <c r="F165" s="193"/>
+        <v>202</v>
+      </c>
+      <c r="C165" s="193">
+        <v>2</v>
+      </c>
+      <c r="D165" s="193">
+        <v>1</v>
+      </c>
+      <c r="E165" s="193">
+        <v>1</v>
+      </c>
+      <c r="F165" s="193">
+        <v>1</v>
+      </c>
       <c r="G165" s="195"/>
       <c r="H165" s="195"/>
       <c r="I165" s="195"/>
@@ -8156,7 +8194,9 @@
       <c r="DR165" s="195"/>
       <c r="DS165" s="195"/>
       <c r="DT165" s="196"/>
-      <c r="DU165" s="196"/>
+      <c r="DU165" s="217">
+        <v>1</v>
+      </c>
       <c r="DV165" s="197"/>
       <c r="DW165" s="195"/>
       <c r="DX165" s="195"/>
@@ -8174,12 +8214,20 @@
     <row r="166" spans="1:138">
       <c r="A166" s="194"/>
       <c r="B166" s="193" t="s">
-        <v>204</v>
-      </c>
-      <c r="C166" s="193"/>
-      <c r="D166" s="193"/>
-      <c r="E166" s="193"/>
-      <c r="F166" s="193"/>
+        <v>203</v>
+      </c>
+      <c r="C166" s="193">
+        <v>1</v>
+      </c>
+      <c r="D166" s="193">
+        <v>1</v>
+      </c>
+      <c r="E166" s="193">
+        <v>2</v>
+      </c>
+      <c r="F166" s="193">
+        <v>1</v>
+      </c>
       <c r="G166" s="195"/>
       <c r="H166" s="195"/>
       <c r="I166" s="195"/>
@@ -8298,7 +8346,9 @@
       <c r="DR166" s="195"/>
       <c r="DS166" s="195"/>
       <c r="DT166" s="196"/>
-      <c r="DU166" s="196"/>
+      <c r="DU166" s="217">
+        <v>1</v>
+      </c>
       <c r="DV166" s="197"/>
       <c r="DW166" s="195"/>
       <c r="DX166" s="195"/>
@@ -8316,12 +8366,20 @@
     <row r="167" spans="1:138">
       <c r="A167" s="194"/>
       <c r="B167" s="193" t="s">
-        <v>205</v>
-      </c>
-      <c r="C167" s="193"/>
-      <c r="D167" s="193"/>
-      <c r="E167" s="193"/>
-      <c r="F167" s="193"/>
+        <v>204</v>
+      </c>
+      <c r="C167" s="193">
+        <v>2</v>
+      </c>
+      <c r="D167" s="193">
+        <v>1</v>
+      </c>
+      <c r="E167" s="193">
+        <v>2</v>
+      </c>
+      <c r="F167" s="193">
+        <v>1</v>
+      </c>
       <c r="G167" s="195"/>
       <c r="H167" s="195"/>
       <c r="I167" s="195"/>
@@ -8441,7 +8499,9 @@
       <c r="DS167" s="195"/>
       <c r="DT167" s="196"/>
       <c r="DU167" s="196"/>
-      <c r="DV167" s="197"/>
+      <c r="DV167" s="217">
+        <v>1</v>
+      </c>
       <c r="DW167" s="195"/>
       <c r="DX167" s="195"/>
       <c r="DY167" s="195"/>
@@ -8605,7 +8665,7 @@
         <v>128</v>
       </c>
       <c r="C173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E173">
         <v>3</v>
@@ -8667,7 +8727,7 @@
         <v>125</v>
       </c>
       <c r="C176">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E176">
         <v>4</v>
@@ -8686,10 +8746,10 @@
         <v>126</v>
       </c>
       <c r="C177">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CM177" s="67"/>
       <c r="CQ177" s="94"/>
@@ -8807,6 +8867,9 @@
       <c r="E182">
         <v>0</v>
       </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
       <c r="AT182" s="163">
         <v>1</v>
       </c>
@@ -8899,6 +8962,9 @@
         <v>118</v>
       </c>
       <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
         <v>0</v>
       </c>
       <c r="E184">
@@ -8954,15 +9020,15 @@
       </c>
       <c r="D187">
         <f>SUM(D4:D186)</f>
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="E187" s="66">
         <f>SUM(E4:E186)</f>
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F187">
         <f>SUM(F4:F186)</f>
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="CM187" s="67"/>
       <c r="CQ187" s="6"/>

--- a/konzept/projektplan.xlsx
+++ b/konzept/projektplan.xlsx
@@ -743,7 +743,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -842,6 +842,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="0.59999389629810485"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -1925,7 +1931,6 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1982,6 +1987,11 @@
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2027,11 +2037,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="99">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -2466,8 +2472,8 @@
   </sheetPr>
   <dimension ref="A1:EH318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="S159" sqref="S159"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="BD59" sqref="BD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2692,155 +2698,155 @@
       <c r="EH1" s="45"/>
     </row>
     <row r="2" spans="1:138">
-      <c r="C2" s="208" t="s">
+      <c r="C2" s="212" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208" t="s">
+      <c r="D2" s="212"/>
+      <c r="E2" s="212" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="209"/>
-      <c r="G2" s="205" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
-      <c r="K2" s="206"/>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="207"/>
-      <c r="O2" s="210" t="s">
+      <c r="F2" s="213"/>
+      <c r="G2" s="209" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="211"/>
+      <c r="O2" s="214" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="211"/>
-      <c r="Q2" s="211"/>
-      <c r="R2" s="211"/>
-      <c r="S2" s="211"/>
-      <c r="T2" s="211"/>
-      <c r="U2" s="211"/>
-      <c r="V2" s="211"/>
-      <c r="W2" s="211"/>
-      <c r="X2" s="211"/>
-      <c r="Y2" s="211"/>
-      <c r="Z2" s="211"/>
-      <c r="AA2" s="211"/>
-      <c r="AB2" s="211"/>
-      <c r="AC2" s="211"/>
-      <c r="AD2" s="211"/>
-      <c r="AE2" s="211"/>
-      <c r="AF2" s="211"/>
-      <c r="AG2" s="211"/>
-      <c r="AH2" s="211"/>
-      <c r="AI2" s="211"/>
-      <c r="AJ2" s="211"/>
-      <c r="AK2" s="211"/>
-      <c r="AL2" s="211"/>
-      <c r="AM2" s="211"/>
-      <c r="AN2" s="211"/>
-      <c r="AO2" s="211"/>
-      <c r="AP2" s="211"/>
-      <c r="AQ2" s="211"/>
-      <c r="AR2" s="211"/>
-      <c r="AS2" s="212"/>
-      <c r="AT2" s="202" t="s">
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="215"/>
+      <c r="U2" s="215"/>
+      <c r="V2" s="215"/>
+      <c r="W2" s="215"/>
+      <c r="X2" s="215"/>
+      <c r="Y2" s="215"/>
+      <c r="Z2" s="215"/>
+      <c r="AA2" s="215"/>
+      <c r="AB2" s="215"/>
+      <c r="AC2" s="215"/>
+      <c r="AD2" s="215"/>
+      <c r="AE2" s="215"/>
+      <c r="AF2" s="215"/>
+      <c r="AG2" s="215"/>
+      <c r="AH2" s="215"/>
+      <c r="AI2" s="215"/>
+      <c r="AJ2" s="215"/>
+      <c r="AK2" s="215"/>
+      <c r="AL2" s="215"/>
+      <c r="AM2" s="215"/>
+      <c r="AN2" s="215"/>
+      <c r="AO2" s="215"/>
+      <c r="AP2" s="215"/>
+      <c r="AQ2" s="215"/>
+      <c r="AR2" s="215"/>
+      <c r="AS2" s="216"/>
+      <c r="AT2" s="206" t="s">
         <v>34</v>
       </c>
-      <c r="AU2" s="203"/>
-      <c r="AV2" s="203"/>
-      <c r="AW2" s="203"/>
-      <c r="AX2" s="203"/>
-      <c r="AY2" s="203"/>
-      <c r="AZ2" s="203"/>
-      <c r="BA2" s="203"/>
-      <c r="BB2" s="203"/>
-      <c r="BC2" s="203"/>
-      <c r="BD2" s="203"/>
-      <c r="BE2" s="203"/>
-      <c r="BF2" s="203"/>
-      <c r="BG2" s="203"/>
-      <c r="BH2" s="203"/>
-      <c r="BI2" s="203"/>
-      <c r="BJ2" s="203"/>
-      <c r="BK2" s="203"/>
-      <c r="BL2" s="203"/>
-      <c r="BM2" s="203"/>
-      <c r="BN2" s="203"/>
-      <c r="BO2" s="203"/>
-      <c r="BP2" s="203"/>
-      <c r="BQ2" s="203"/>
-      <c r="BR2" s="203"/>
-      <c r="BS2" s="203"/>
-      <c r="BT2" s="203"/>
-      <c r="BU2" s="203"/>
-      <c r="BV2" s="203"/>
-      <c r="BW2" s="213"/>
-      <c r="BX2" s="214" t="s">
+      <c r="AU2" s="207"/>
+      <c r="AV2" s="207"/>
+      <c r="AW2" s="207"/>
+      <c r="AX2" s="207"/>
+      <c r="AY2" s="207"/>
+      <c r="AZ2" s="207"/>
+      <c r="BA2" s="207"/>
+      <c r="BB2" s="207"/>
+      <c r="BC2" s="207"/>
+      <c r="BD2" s="207"/>
+      <c r="BE2" s="207"/>
+      <c r="BF2" s="207"/>
+      <c r="BG2" s="207"/>
+      <c r="BH2" s="207"/>
+      <c r="BI2" s="207"/>
+      <c r="BJ2" s="207"/>
+      <c r="BK2" s="207"/>
+      <c r="BL2" s="207"/>
+      <c r="BM2" s="207"/>
+      <c r="BN2" s="207"/>
+      <c r="BO2" s="207"/>
+      <c r="BP2" s="207"/>
+      <c r="BQ2" s="207"/>
+      <c r="BR2" s="207"/>
+      <c r="BS2" s="207"/>
+      <c r="BT2" s="207"/>
+      <c r="BU2" s="207"/>
+      <c r="BV2" s="207"/>
+      <c r="BW2" s="217"/>
+      <c r="BX2" s="218" t="s">
         <v>35</v>
       </c>
-      <c r="BY2" s="215"/>
-      <c r="BZ2" s="215"/>
-      <c r="CA2" s="215"/>
-      <c r="CB2" s="215"/>
-      <c r="CC2" s="215"/>
-      <c r="CD2" s="215"/>
-      <c r="CE2" s="215"/>
-      <c r="CF2" s="215"/>
-      <c r="CG2" s="215"/>
-      <c r="CH2" s="215"/>
-      <c r="CI2" s="215"/>
-      <c r="CJ2" s="215"/>
-      <c r="CK2" s="215"/>
-      <c r="CL2" s="215"/>
-      <c r="CM2" s="215"/>
-      <c r="CN2" s="215"/>
-      <c r="CO2" s="215"/>
-      <c r="CP2" s="215"/>
-      <c r="CQ2" s="215"/>
-      <c r="CR2" s="215"/>
-      <c r="CS2" s="215"/>
-      <c r="CT2" s="215"/>
-      <c r="CU2" s="215"/>
-      <c r="CV2" s="215"/>
-      <c r="CW2" s="215"/>
-      <c r="CX2" s="215"/>
-      <c r="CY2" s="215"/>
-      <c r="CZ2" s="215"/>
-      <c r="DA2" s="215"/>
-      <c r="DB2" s="216"/>
-      <c r="DC2" s="202" t="s">
+      <c r="BY2" s="219"/>
+      <c r="BZ2" s="219"/>
+      <c r="CA2" s="219"/>
+      <c r="CB2" s="219"/>
+      <c r="CC2" s="219"/>
+      <c r="CD2" s="219"/>
+      <c r="CE2" s="219"/>
+      <c r="CF2" s="219"/>
+      <c r="CG2" s="219"/>
+      <c r="CH2" s="219"/>
+      <c r="CI2" s="219"/>
+      <c r="CJ2" s="219"/>
+      <c r="CK2" s="219"/>
+      <c r="CL2" s="219"/>
+      <c r="CM2" s="219"/>
+      <c r="CN2" s="219"/>
+      <c r="CO2" s="219"/>
+      <c r="CP2" s="219"/>
+      <c r="CQ2" s="219"/>
+      <c r="CR2" s="219"/>
+      <c r="CS2" s="219"/>
+      <c r="CT2" s="219"/>
+      <c r="CU2" s="219"/>
+      <c r="CV2" s="219"/>
+      <c r="CW2" s="219"/>
+      <c r="CX2" s="219"/>
+      <c r="CY2" s="219"/>
+      <c r="CZ2" s="219"/>
+      <c r="DA2" s="219"/>
+      <c r="DB2" s="220"/>
+      <c r="DC2" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="DD2" s="203"/>
-      <c r="DE2" s="203"/>
-      <c r="DF2" s="203"/>
-      <c r="DG2" s="203"/>
-      <c r="DH2" s="203"/>
-      <c r="DI2" s="203"/>
-      <c r="DJ2" s="203"/>
-      <c r="DK2" s="203"/>
-      <c r="DL2" s="203"/>
-      <c r="DM2" s="203"/>
-      <c r="DN2" s="203"/>
-      <c r="DO2" s="203"/>
-      <c r="DP2" s="203"/>
-      <c r="DQ2" s="203"/>
-      <c r="DR2" s="203"/>
-      <c r="DS2" s="203"/>
-      <c r="DT2" s="203"/>
-      <c r="DU2" s="203"/>
-      <c r="DV2" s="203"/>
-      <c r="DW2" s="203"/>
-      <c r="DX2" s="203"/>
-      <c r="DY2" s="203"/>
-      <c r="DZ2" s="203"/>
-      <c r="EA2" s="203"/>
-      <c r="EB2" s="203"/>
-      <c r="EC2" s="203"/>
-      <c r="ED2" s="203"/>
-      <c r="EE2" s="203"/>
-      <c r="EF2" s="203"/>
-      <c r="EG2" s="204"/>
+      <c r="DD2" s="207"/>
+      <c r="DE2" s="207"/>
+      <c r="DF2" s="207"/>
+      <c r="DG2" s="207"/>
+      <c r="DH2" s="207"/>
+      <c r="DI2" s="207"/>
+      <c r="DJ2" s="207"/>
+      <c r="DK2" s="207"/>
+      <c r="DL2" s="207"/>
+      <c r="DM2" s="207"/>
+      <c r="DN2" s="207"/>
+      <c r="DO2" s="207"/>
+      <c r="DP2" s="207"/>
+      <c r="DQ2" s="207"/>
+      <c r="DR2" s="207"/>
+      <c r="DS2" s="207"/>
+      <c r="DT2" s="207"/>
+      <c r="DU2" s="207"/>
+      <c r="DV2" s="207"/>
+      <c r="DW2" s="207"/>
+      <c r="DX2" s="207"/>
+      <c r="DY2" s="207"/>
+      <c r="DZ2" s="207"/>
+      <c r="EA2" s="207"/>
+      <c r="EB2" s="207"/>
+      <c r="EC2" s="207"/>
+      <c r="ED2" s="207"/>
+      <c r="EE2" s="207"/>
+      <c r="EF2" s="207"/>
+      <c r="EG2" s="208"/>
     </row>
     <row r="3" spans="1:138" s="21" customFormat="1" ht="16" thickBot="1">
       <c r="A3" s="20" t="s">
@@ -4040,8 +4046,8 @@
       </c>
       <c r="AM27" s="67"/>
       <c r="AV27" s="35"/>
-      <c r="AW27" s="170"/>
-      <c r="AX27" s="173"/>
+      <c r="AW27" s="169"/>
+      <c r="AX27" s="172"/>
       <c r="AY27" s="130"/>
       <c r="CM27" s="67"/>
       <c r="CQ27" s="6"/>
@@ -4065,8 +4071,8 @@
       </c>
       <c r="AM28" s="67"/>
       <c r="AV28" s="35"/>
-      <c r="AW28" s="171"/>
-      <c r="AX28" s="169"/>
+      <c r="AW28" s="170"/>
+      <c r="AX28" s="168"/>
       <c r="BB28" s="11">
         <v>1</v>
       </c>
@@ -4092,8 +4098,8 @@
       </c>
       <c r="AM29" s="67"/>
       <c r="AV29" s="35"/>
-      <c r="AW29" s="171"/>
-      <c r="AX29" s="166">
+      <c r="AW29" s="170"/>
+      <c r="AX29" s="165">
         <v>1</v>
       </c>
       <c r="BS29" s="112">
@@ -4121,7 +4127,7 @@
       </c>
       <c r="AM30" s="67"/>
       <c r="AV30" s="35"/>
-      <c r="AW30" s="171">
+      <c r="AW30" s="170">
         <v>1</v>
       </c>
       <c r="AX30" s="130"/>
@@ -4150,7 +4156,7 @@
       </c>
       <c r="AM31" s="67"/>
       <c r="AV31" s="35"/>
-      <c r="AW31" s="171"/>
+      <c r="AW31" s="170"/>
       <c r="AX31" s="130"/>
       <c r="BB31" s="5">
         <v>1</v>
@@ -4177,8 +4183,8 @@
       </c>
       <c r="AM32" s="67"/>
       <c r="AV32" s="35"/>
-      <c r="AW32" s="171"/>
-      <c r="AX32" s="167">
+      <c r="AW32" s="170"/>
+      <c r="AX32" s="166">
         <v>1</v>
       </c>
       <c r="CM32" s="67"/>
@@ -4203,10 +4209,10 @@
       </c>
       <c r="AM33" s="67"/>
       <c r="AV33" s="35"/>
-      <c r="AW33" s="172">
-        <v>1</v>
-      </c>
-      <c r="AX33" s="168"/>
+      <c r="AW33" s="171">
+        <v>1</v>
+      </c>
+      <c r="AX33" s="167"/>
       <c r="AZ33" s="11">
         <v>1</v>
       </c>
@@ -4235,7 +4241,7 @@
       </c>
       <c r="AM34" s="67"/>
       <c r="AW34" s="145"/>
-      <c r="AX34" s="170"/>
+      <c r="AX34" s="169"/>
       <c r="AY34" s="130"/>
       <c r="CM34" s="67"/>
       <c r="CQ34" s="6"/>
@@ -4259,7 +4265,7 @@
       </c>
       <c r="AM35" s="67"/>
       <c r="AW35" s="75"/>
-      <c r="AX35" s="171"/>
+      <c r="AX35" s="170"/>
       <c r="AY35" s="130"/>
       <c r="BA35" s="11">
         <v>3</v>
@@ -4288,10 +4294,10 @@
         <v>2</v>
       </c>
       <c r="AM36" s="67"/>
-      <c r="AW36" s="165">
-        <v>1</v>
-      </c>
-      <c r="AX36" s="172"/>
+      <c r="AW36" s="164">
+        <v>1</v>
+      </c>
+      <c r="AX36" s="171"/>
       <c r="AY36" s="130"/>
       <c r="CM36" s="67"/>
       <c r="CQ36" s="6"/>
@@ -4586,10 +4592,10 @@
       <c r="AZ45" s="31"/>
       <c r="BA45" s="146"/>
       <c r="BB45" s="135"/>
-      <c r="BH45" s="186">
-        <v>3</v>
-      </c>
-      <c r="BI45" s="178">
+      <c r="BH45" s="185">
+        <v>3</v>
+      </c>
+      <c r="BI45" s="177">
         <v>3</v>
       </c>
       <c r="CM45" s="67"/>
@@ -4618,10 +4624,10 @@
       <c r="BB46" s="146"/>
       <c r="BC46" s="128"/>
       <c r="BH46" s="84"/>
-      <c r="BI46" s="186">
-        <v>2</v>
-      </c>
-      <c r="BJ46" s="178">
+      <c r="BI46" s="185">
+        <v>2</v>
+      </c>
+      <c r="BJ46" s="177">
         <v>3</v>
       </c>
       <c r="BV46" s="134"/>
@@ -4640,7 +4646,7 @@
       <c r="AZ47" s="67"/>
       <c r="BB47" s="15"/>
       <c r="BU47" s="31"/>
-      <c r="BV47" s="148"/>
+      <c r="BV47" s="147"/>
       <c r="BW47" s="132"/>
       <c r="CM47" s="67"/>
       <c r="CQ47" s="6"/>
@@ -4672,7 +4678,7 @@
         <v>4</v>
       </c>
       <c r="BU48" s="31"/>
-      <c r="BV48" s="149"/>
+      <c r="BV48" s="148"/>
       <c r="BW48" s="140"/>
       <c r="BX48" s="139"/>
       <c r="CM48" s="67"/>
@@ -4771,17 +4777,17 @@
       <c r="BD52" s="129"/>
       <c r="BK52" s="67"/>
       <c r="BO52" s="67"/>
-      <c r="BP52" s="182">
+      <c r="BP52" s="181">
         <v>4</v>
       </c>
-      <c r="BQ52" s="218">
+      <c r="BQ52" s="202">
         <v>2</v>
       </c>
       <c r="BS52" s="67"/>
       <c r="BT52" s="67"/>
       <c r="BU52" s="67"/>
       <c r="BV52" s="67"/>
-      <c r="BX52" s="148"/>
+      <c r="BX52" s="147"/>
       <c r="BY52" s="125"/>
       <c r="CF52" s="67"/>
       <c r="CG52" s="67"/>
@@ -4820,7 +4826,7 @@
       <c r="BT53" s="67"/>
       <c r="BU53" s="67"/>
       <c r="BV53" s="67"/>
-      <c r="BX53" s="148"/>
+      <c r="BX53" s="147"/>
       <c r="BY53" s="133">
         <v>4</v>
       </c>
@@ -4838,16 +4844,16 @@
       <c r="AY54" s="67"/>
       <c r="AZ54" s="67"/>
       <c r="BB54" s="35"/>
-      <c r="BC54" s="189"/>
+      <c r="BC54" s="188"/>
       <c r="BD54" s="129"/>
       <c r="BK54" s="67"/>
       <c r="BO54" s="67"/>
-      <c r="BP54" s="182"/>
+      <c r="BP54" s="181"/>
       <c r="BS54" s="67"/>
       <c r="BT54" s="67"/>
       <c r="BU54" s="67"/>
       <c r="BV54" s="67"/>
-      <c r="BX54" s="190"/>
+      <c r="BX54" s="189"/>
       <c r="BY54" s="138"/>
       <c r="CF54" s="67"/>
       <c r="CG54" s="67"/>
@@ -4881,7 +4887,7 @@
       <c r="BD55" s="94"/>
       <c r="BK55" s="67"/>
       <c r="BO55" s="67"/>
-      <c r="BP55" s="182">
+      <c r="BP55" s="181">
         <v>2</v>
       </c>
       <c r="BR55" s="94">
@@ -4891,7 +4897,7 @@
       <c r="BT55" s="67"/>
       <c r="BU55" s="67"/>
       <c r="BV55" s="67"/>
-      <c r="BX55" s="149"/>
+      <c r="BX55" s="148"/>
       <c r="BY55" s="138"/>
       <c r="CF55" s="67"/>
       <c r="CG55" s="67"/>
@@ -4932,7 +4938,7 @@
       <c r="BT56" s="67"/>
       <c r="BU56" s="67"/>
       <c r="BV56" s="67"/>
-      <c r="BX56" s="149"/>
+      <c r="BX56" s="148"/>
       <c r="BY56" s="141">
         <v>2</v>
       </c>
@@ -4970,15 +4976,15 @@
       <c r="BK57" s="67"/>
       <c r="BN57" s="67"/>
       <c r="BO57" s="67"/>
-      <c r="BQ57" s="178">
+      <c r="BQ57" s="177">
         <v>4</v>
       </c>
       <c r="BS57" s="67"/>
       <c r="BT57" s="67"/>
       <c r="BU57" s="67"/>
       <c r="BV57" s="67"/>
-      <c r="BX57" s="191"/>
-      <c r="BY57" s="148"/>
+      <c r="BX57" s="190"/>
+      <c r="BY57" s="147"/>
       <c r="BZ57" s="130"/>
       <c r="CF57" s="67"/>
       <c r="CG57" s="67"/>
@@ -5009,7 +5015,7 @@
       <c r="AY58" s="67"/>
       <c r="AZ58" s="67"/>
       <c r="BB58" s="35"/>
-      <c r="BC58" s="146"/>
+      <c r="BC58" s="191"/>
       <c r="BD58" s="137"/>
       <c r="BK58" s="67"/>
       <c r="BN58" s="67"/>
@@ -5018,10 +5024,10 @@
       <c r="BT58" s="67"/>
       <c r="BU58" s="67"/>
       <c r="BV58" s="67"/>
-      <c r="BX58" s="187">
+      <c r="BX58" s="186">
         <v>4</v>
       </c>
-      <c r="BY58" s="148">
+      <c r="BY58" s="147">
         <v>1</v>
       </c>
       <c r="BZ58" s="130"/>
@@ -5051,7 +5057,7 @@
       </c>
       <c r="AW59" s="67"/>
       <c r="BC59" s="34"/>
-      <c r="BD59" s="147"/>
+      <c r="BD59" s="221"/>
       <c r="BE59" s="130"/>
       <c r="BK59" s="67"/>
       <c r="BL59" s="67"/>
@@ -5063,7 +5069,7 @@
       <c r="BU59" s="67"/>
       <c r="BV59" s="67"/>
       <c r="BX59" s="127"/>
-      <c r="BY59" s="149"/>
+      <c r="BY59" s="148"/>
       <c r="BZ59" s="130"/>
       <c r="CC59" s="67"/>
       <c r="CF59" s="67"/>
@@ -5146,7 +5152,7 @@
       <c r="CR61" s="146">
         <v>3</v>
       </c>
-      <c r="CS61" s="219">
+      <c r="CS61" s="203">
         <v>1</v>
       </c>
     </row>
@@ -5192,12 +5198,12 @@
       <c r="CJ62" s="67"/>
       <c r="CM62" s="67"/>
       <c r="CQ62" s="7"/>
-      <c r="CR62" s="192"/>
+      <c r="CR62" s="191"/>
       <c r="CS62" s="128"/>
-      <c r="CY62" s="178">
-        <v>2</v>
-      </c>
-      <c r="CZ62" s="220">
+      <c r="CY62" s="177">
+        <v>2</v>
+      </c>
+      <c r="CZ62" s="204">
         <v>1</v>
       </c>
     </row>
@@ -5272,12 +5278,12 @@
       <c r="CJ64" s="67"/>
       <c r="CM64" s="67"/>
       <c r="CQ64" s="6"/>
-      <c r="CR64" s="182">
+      <c r="CR64" s="181">
         <v>2</v>
       </c>
       <c r="CS64" s="136"/>
       <c r="CT64" s="134"/>
-      <c r="CY64" s="188">
+      <c r="CY64" s="187">
         <v>1</v>
       </c>
       <c r="CZ64" s="136"/>
@@ -5319,8 +5325,8 @@
       <c r="CM65" s="67"/>
       <c r="CQ65" s="6"/>
       <c r="CR65" s="35"/>
-      <c r="CS65" s="181"/>
-      <c r="CT65" s="183"/>
+      <c r="CS65" s="180"/>
+      <c r="CT65" s="182"/>
       <c r="CU65" s="130"/>
       <c r="CX65" s="31"/>
       <c r="CY65" s="146"/>
@@ -5364,8 +5370,8 @@
       <c r="CM66" s="67"/>
       <c r="CQ66" s="6"/>
       <c r="CR66" s="35"/>
-      <c r="CS66" s="181"/>
-      <c r="CT66" s="183"/>
+      <c r="CS66" s="180"/>
+      <c r="CT66" s="182"/>
       <c r="CU66" s="130"/>
       <c r="CX66" s="31"/>
       <c r="CY66" s="146"/>
@@ -5430,7 +5436,7 @@
       </c>
       <c r="BA69" s="67"/>
       <c r="BI69" s="35"/>
-      <c r="BJ69" s="185"/>
+      <c r="BJ69" s="184"/>
       <c r="BK69" s="125"/>
       <c r="BL69" s="67"/>
       <c r="BM69" s="67"/>
@@ -5473,7 +5479,7 @@
       <c r="BM70" s="67"/>
       <c r="BN70" s="67"/>
       <c r="BO70" s="67"/>
-      <c r="BR70" s="182">
+      <c r="BR70" s="181">
         <v>5</v>
       </c>
       <c r="BS70" s="67"/>
@@ -5506,13 +5512,13 @@
       </c>
       <c r="BA71" s="67"/>
       <c r="BI71" s="35"/>
-      <c r="BJ71" s="174"/>
+      <c r="BJ71" s="173"/>
       <c r="BK71" s="138"/>
       <c r="BL71" s="126"/>
       <c r="BM71" s="67"/>
       <c r="BN71" s="67"/>
       <c r="BO71" s="67"/>
-      <c r="BS71" s="178">
+      <c r="BS71" s="177">
         <v>3</v>
       </c>
       <c r="BT71" s="67"/>
@@ -5545,14 +5551,14 @@
       <c r="BA72" s="67"/>
       <c r="BJ72" s="34"/>
       <c r="BK72" s="146"/>
-      <c r="BL72" s="176"/>
+      <c r="BL72" s="175"/>
       <c r="BM72" s="125"/>
       <c r="BN72" s="67"/>
       <c r="BO72" s="67"/>
       <c r="BS72" s="67"/>
       <c r="BT72" s="67"/>
       <c r="BU72" s="67"/>
-      <c r="BV72" s="182">
+      <c r="BV72" s="181">
         <v>4</v>
       </c>
       <c r="CF72" s="67"/>
@@ -5566,8 +5572,8 @@
     <row r="73" spans="1:108">
       <c r="BA73" s="67"/>
       <c r="BJ73" s="35"/>
-      <c r="BK73" s="177"/>
-      <c r="BL73" s="175"/>
+      <c r="BK73" s="176"/>
+      <c r="BL73" s="174"/>
       <c r="BM73" s="125"/>
       <c r="BN73" s="67"/>
       <c r="BO73" s="67"/>
@@ -5599,7 +5605,7 @@
       <c r="BU74" s="67"/>
       <c r="BV74" s="67"/>
       <c r="CC74" s="75"/>
-      <c r="CD74" s="180"/>
+      <c r="CD74" s="179"/>
       <c r="CE74" s="128"/>
       <c r="CF74" s="67"/>
       <c r="CG74" s="67"/>
@@ -5635,7 +5641,7 @@
       <c r="BT75" s="67"/>
       <c r="BU75" s="67"/>
       <c r="BV75" s="67"/>
-      <c r="CC75" s="184">
+      <c r="CC75" s="183">
         <v>3</v>
       </c>
       <c r="CD75" s="146">
@@ -5709,7 +5715,7 @@
       <c r="BO77" s="67"/>
       <c r="BY77" s="67"/>
       <c r="CC77" s="31"/>
-      <c r="CD77" s="174"/>
+      <c r="CD77" s="173"/>
       <c r="CE77" s="146">
         <v>3</v>
       </c>
@@ -5773,12 +5779,12 @@
       <c r="CM79" s="67"/>
       <c r="CQ79" s="6"/>
       <c r="CW79" s="31"/>
-      <c r="CX79" s="175"/>
-      <c r="CY79" s="180"/>
+      <c r="CX79" s="174"/>
+      <c r="CY79" s="179"/>
       <c r="CZ79" s="146"/>
       <c r="DA79" s="146"/>
-      <c r="DB79" s="179"/>
-      <c r="DD79" s="182">
+      <c r="DB79" s="178"/>
+      <c r="DD79" s="181">
         <v>1</v>
       </c>
     </row>
@@ -5841,7 +5847,7 @@
       <c r="BO82" s="146"/>
       <c r="BP82" s="135"/>
       <c r="CC82" s="67"/>
-      <c r="CF82" s="178">
+      <c r="CF82" s="177">
         <v>2</v>
       </c>
       <c r="CG82" s="67"/>
@@ -5873,14 +5879,14 @@
       <c r="BM83" s="67"/>
       <c r="BN83" s="67"/>
       <c r="BO83" s="145"/>
-      <c r="BP83" s="148"/>
+      <c r="BP83" s="147"/>
       <c r="BQ83" s="128"/>
       <c r="CC83" s="67"/>
       <c r="CF83" s="67"/>
       <c r="CG83" s="67"/>
       <c r="CH83" s="67"/>
       <c r="CI83" s="67"/>
-      <c r="CJ83" s="178">
+      <c r="CJ83" s="177">
         <v>1</v>
       </c>
       <c r="CM83" s="67"/>
@@ -5908,14 +5914,14 @@
       <c r="BM84" s="67"/>
       <c r="BN84" s="67"/>
       <c r="BO84" s="145"/>
-      <c r="BP84" s="148"/>
+      <c r="BP84" s="147"/>
       <c r="BQ84" s="128"/>
       <c r="CC84" s="67"/>
       <c r="CF84" s="67"/>
       <c r="CG84" s="67"/>
       <c r="CH84" s="67"/>
       <c r="CI84" s="67"/>
-      <c r="CJ84" s="178">
+      <c r="CJ84" s="177">
         <v>2</v>
       </c>
       <c r="CM84" s="67"/>
@@ -5943,14 +5949,14 @@
       <c r="BM85" s="67"/>
       <c r="BN85" s="67"/>
       <c r="BO85" s="145"/>
-      <c r="BP85" s="148"/>
+      <c r="BP85" s="147"/>
       <c r="BQ85" s="128"/>
       <c r="CC85" s="67"/>
       <c r="CF85" s="67"/>
       <c r="CG85" s="67"/>
       <c r="CH85" s="67"/>
       <c r="CI85" s="67"/>
-      <c r="CJ85" s="178">
+      <c r="CJ85" s="177">
         <v>2</v>
       </c>
       <c r="CM85" s="67"/>
@@ -5978,14 +5984,14 @@
       <c r="BM86" s="67"/>
       <c r="BN86" s="67"/>
       <c r="BO86" s="75"/>
-      <c r="BP86" s="149"/>
+      <c r="BP86" s="148"/>
       <c r="BQ86" s="135"/>
       <c r="CF86" s="67"/>
       <c r="CG86" s="67"/>
       <c r="CH86" s="67"/>
       <c r="CI86" s="67"/>
       <c r="CJ86" s="67"/>
-      <c r="CK86" s="178">
+      <c r="CK86" s="177">
         <v>1</v>
       </c>
       <c r="CM86" s="67"/>
@@ -6013,14 +6019,14 @@
       <c r="BM87" s="67"/>
       <c r="BN87" s="67"/>
       <c r="BO87" s="75"/>
-      <c r="BP87" s="149"/>
+      <c r="BP87" s="148"/>
       <c r="BQ87" s="135"/>
       <c r="CF87" s="67"/>
       <c r="CG87" s="67"/>
       <c r="CH87" s="67"/>
       <c r="CI87" s="67"/>
       <c r="CJ87" s="67"/>
-      <c r="CK87" s="178">
+      <c r="CK87" s="177">
         <v>2</v>
       </c>
       <c r="CM87" s="67"/>
@@ -6056,7 +6062,7 @@
       <c r="CH88" s="67"/>
       <c r="CI88" s="67"/>
       <c r="CJ88" s="67"/>
-      <c r="CK88" s="178">
+      <c r="CK88" s="177">
         <v>2</v>
       </c>
       <c r="CM88" s="67"/>
@@ -6117,7 +6123,7 @@
       <c r="CL91" s="135"/>
       <c r="CM91" s="67"/>
       <c r="CQ91" s="6"/>
-      <c r="DE91" s="178">
+      <c r="DE91" s="177">
         <v>3</v>
       </c>
     </row>
@@ -6126,12 +6132,12 @@
       <c r="CG92" s="67"/>
       <c r="CH92" s="67"/>
       <c r="CI92" s="75"/>
-      <c r="CJ92" s="189"/>
-      <c r="CK92" s="189"/>
-      <c r="CL92" s="180"/>
+      <c r="CJ92" s="188"/>
+      <c r="CK92" s="188"/>
+      <c r="CL92" s="179"/>
       <c r="CM92" s="125"/>
       <c r="CQ92" s="142"/>
-      <c r="DE92" s="178"/>
+      <c r="DE92" s="177"/>
     </row>
     <row r="93" spans="1:111" ht="16" thickBot="1">
       <c r="B93" t="s">
@@ -6154,7 +6160,7 @@
       <c r="CL93" s="146"/>
       <c r="CM93" s="125"/>
       <c r="CQ93" s="142"/>
-      <c r="DF93" s="178">
+      <c r="DF93" s="177">
         <v>1</v>
       </c>
     </row>
@@ -6179,7 +6185,7 @@
       <c r="CL94" s="146"/>
       <c r="CM94" s="125"/>
       <c r="CQ94" s="142"/>
-      <c r="DF94" s="178">
+      <c r="DF94" s="177">
         <v>1</v>
       </c>
     </row>
@@ -6204,7 +6210,7 @@
       <c r="CL95" s="146"/>
       <c r="CM95" s="125"/>
       <c r="CQ95" s="142"/>
-      <c r="DF95" s="178">
+      <c r="DF95" s="177">
         <v>3</v>
       </c>
     </row>
@@ -6229,7 +6235,7 @@
       <c r="CL96" s="146"/>
       <c r="CM96" s="125"/>
       <c r="CQ96" s="142"/>
-      <c r="DG96" s="178">
+      <c r="DG96" s="177">
         <v>3</v>
       </c>
     </row>
@@ -6284,7 +6290,7 @@
       <c r="CM101" s="67"/>
       <c r="CQ101" s="6"/>
       <c r="CY101" s="35"/>
-      <c r="CZ101" s="180"/>
+      <c r="CZ101" s="179"/>
       <c r="DA101" s="130"/>
       <c r="DD101" s="31"/>
       <c r="DE101" s="146"/>
@@ -6299,7 +6305,7 @@
       <c r="CQ102" s="6"/>
       <c r="CZ102" s="15"/>
       <c r="DD102" s="31"/>
-      <c r="DE102" s="174"/>
+      <c r="DE102" s="173"/>
       <c r="DF102" s="146"/>
       <c r="DG102" s="146"/>
       <c r="DH102" s="130"/>
@@ -7482,7 +7488,7 @@
       <c r="AR159" s="67"/>
       <c r="AS159" s="75"/>
       <c r="AT159" s="70"/>
-      <c r="AW159" s="152"/>
+      <c r="AW159" s="151"/>
       <c r="AX159" s="61"/>
       <c r="AY159" s="61"/>
       <c r="AZ159" s="61"/>
@@ -7574,7 +7580,7 @@
       <c r="AS160" s="75"/>
       <c r="AT160" s="70"/>
       <c r="AV160" s="35"/>
-      <c r="AW160" s="161">
+      <c r="AW160" s="160">
         <v>2</v>
       </c>
       <c r="AX160" s="125"/>
@@ -7584,7 +7590,7 @@
         <v>2</v>
       </c>
       <c r="BB160" s="35"/>
-      <c r="BC160" s="161"/>
+      <c r="BC160" s="160"/>
       <c r="BD160" s="137"/>
       <c r="BE160" s="67"/>
       <c r="BF160" s="67"/>
@@ -7653,13 +7659,13 @@
       </c>
       <c r="AW161" s="14"/>
       <c r="BC161" s="34"/>
-      <c r="BD161" s="162">
+      <c r="BD161" s="161">
         <v>1</v>
       </c>
       <c r="BE161" s="130"/>
       <c r="BH161" s="67"/>
       <c r="BJ161" s="35"/>
-      <c r="BK161" s="161">
+      <c r="BK161" s="160">
         <v>2</v>
       </c>
       <c r="BL161" s="130"/>
@@ -7668,23 +7674,23 @@
         <v>1</v>
       </c>
       <c r="BQ161" s="35"/>
-      <c r="BR161" s="161"/>
+      <c r="BR161" s="160"/>
       <c r="BS161" s="125"/>
       <c r="BV161" s="67"/>
       <c r="BX161" s="127"/>
-      <c r="BY161" s="161">
+      <c r="BY161" s="160">
         <v>2</v>
       </c>
       <c r="BZ161" s="130"/>
       <c r="CC161" s="67"/>
       <c r="CE161" s="35"/>
-      <c r="CF161" s="161">
+      <c r="CF161" s="160">
         <v>1</v>
       </c>
       <c r="CG161" s="130"/>
       <c r="CJ161" s="67"/>
       <c r="CL161" s="35"/>
-      <c r="CM161" s="161">
+      <c r="CM161" s="160">
         <v>1</v>
       </c>
       <c r="CN161" s="130"/>
@@ -7695,27 +7701,27 @@
       <c r="CV161" s="67"/>
       <c r="CW161" s="67"/>
       <c r="CX161" s="75"/>
-      <c r="CY161" s="161"/>
+      <c r="CY161" s="160"/>
       <c r="CZ161" s="128"/>
       <c r="DA161" s="67"/>
       <c r="DD161" s="67"/>
       <c r="DE161" s="67"/>
       <c r="DG161" s="35"/>
-      <c r="DH161" s="161">
+      <c r="DH161" s="160">
         <v>1</v>
       </c>
       <c r="DI161" s="125"/>
       <c r="DJ161" s="67"/>
       <c r="DK161" s="75"/>
-      <c r="DL161" s="161"/>
+      <c r="DL161" s="160"/>
       <c r="DM161" s="128"/>
-      <c r="DT161" s="221">
-        <v>3</v>
-      </c>
-      <c r="DU161" s="221">
-        <v>3</v>
-      </c>
-      <c r="DV161" s="221">
+      <c r="DT161" s="205">
+        <v>3</v>
+      </c>
+      <c r="DU161" s="205">
+        <v>3</v>
+      </c>
+      <c r="DV161" s="205">
         <v>3</v>
       </c>
     </row>
@@ -7732,18 +7738,18 @@
       <c r="E162">
         <v>0</v>
       </c>
-      <c r="BD162" s="155"/>
+      <c r="BD162" s="154"/>
       <c r="BH162" s="67"/>
-      <c r="BK162" s="156"/>
+      <c r="BK162" s="155"/>
       <c r="BO162" s="67"/>
       <c r="BR162" s="18"/>
       <c r="BS162" s="67"/>
       <c r="BV162" s="67"/>
-      <c r="BY162" s="156"/>
+      <c r="BY162" s="155"/>
       <c r="CC162" s="67"/>
-      <c r="CF162" s="156"/>
+      <c r="CF162" s="155"/>
       <c r="CJ162" s="67"/>
-      <c r="CM162" s="156"/>
+      <c r="CM162" s="155"/>
       <c r="CP162" s="67"/>
       <c r="CQ162" s="6"/>
       <c r="CT162" s="67"/>
@@ -7755,765 +7761,765 @@
       <c r="DA162" s="67"/>
       <c r="DD162" s="67"/>
       <c r="DE162" s="67"/>
-      <c r="DH162" s="157">
+      <c r="DH162" s="156">
         <v>2</v>
       </c>
       <c r="DI162" s="67"/>
       <c r="DJ162" s="67"/>
       <c r="DK162" s="67"/>
-      <c r="DL162" s="156"/>
+      <c r="DL162" s="155"/>
     </row>
     <row r="163" spans="1:138">
-      <c r="A163" s="194" t="s">
+      <c r="A163" s="193" t="s">
         <v>199</v>
       </c>
-      <c r="B163" s="193" t="s">
+      <c r="B163" s="192" t="s">
         <v>200</v>
       </c>
-      <c r="C163" s="193"/>
-      <c r="D163" s="193"/>
-      <c r="E163" s="193"/>
-      <c r="F163" s="193"/>
-      <c r="G163" s="195"/>
-      <c r="H163" s="195"/>
-      <c r="I163" s="195"/>
-      <c r="J163" s="195"/>
-      <c r="K163" s="195"/>
-      <c r="L163" s="196"/>
-      <c r="M163" s="196"/>
-      <c r="N163" s="197"/>
-      <c r="O163" s="195"/>
-      <c r="P163" s="195"/>
-      <c r="Q163" s="195"/>
-      <c r="R163" s="195"/>
-      <c r="S163" s="196"/>
-      <c r="T163" s="196"/>
-      <c r="U163" s="197"/>
-      <c r="V163" s="195"/>
-      <c r="W163" s="195"/>
-      <c r="X163" s="195"/>
-      <c r="Y163" s="195"/>
-      <c r="Z163" s="196"/>
-      <c r="AA163" s="196"/>
-      <c r="AB163" s="195"/>
-      <c r="AC163" s="195"/>
-      <c r="AD163" s="195"/>
-      <c r="AE163" s="195"/>
-      <c r="AF163" s="195"/>
-      <c r="AG163" s="196"/>
-      <c r="AH163" s="196"/>
-      <c r="AI163" s="195"/>
-      <c r="AJ163" s="195"/>
-      <c r="AK163" s="195"/>
-      <c r="AL163" s="195"/>
-      <c r="AM163" s="195"/>
-      <c r="AN163" s="196"/>
-      <c r="AO163" s="196"/>
-      <c r="AP163" s="197"/>
-      <c r="AQ163" s="195"/>
-      <c r="AR163" s="195"/>
-      <c r="AS163" s="195"/>
-      <c r="AT163" s="195"/>
-      <c r="AU163" s="196"/>
-      <c r="AV163" s="196"/>
-      <c r="AW163" s="195"/>
-      <c r="AX163" s="195"/>
-      <c r="AY163" s="195"/>
-      <c r="AZ163" s="195"/>
-      <c r="BA163" s="195"/>
-      <c r="BB163" s="196"/>
-      <c r="BC163" s="196"/>
-      <c r="BD163" s="198"/>
-      <c r="BE163" s="195"/>
-      <c r="BF163" s="195"/>
-      <c r="BG163" s="195"/>
-      <c r="BH163" s="195"/>
-      <c r="BI163" s="196"/>
-      <c r="BJ163" s="196"/>
-      <c r="BK163" s="195"/>
-      <c r="BL163" s="195"/>
-      <c r="BM163" s="195"/>
-      <c r="BN163" s="195"/>
-      <c r="BO163" s="195"/>
-      <c r="BP163" s="196"/>
-      <c r="BQ163" s="196"/>
-      <c r="BR163" s="197"/>
-      <c r="BS163" s="195"/>
-      <c r="BT163" s="195"/>
-      <c r="BU163" s="195"/>
-      <c r="BV163" s="195"/>
-      <c r="BW163" s="196"/>
-      <c r="BX163" s="196"/>
-      <c r="BY163" s="195"/>
-      <c r="BZ163" s="195"/>
-      <c r="CA163" s="195"/>
-      <c r="CB163" s="195"/>
-      <c r="CC163" s="195"/>
-      <c r="CD163" s="196"/>
-      <c r="CE163" s="196"/>
-      <c r="CF163" s="195"/>
-      <c r="CG163" s="195"/>
-      <c r="CH163" s="195"/>
-      <c r="CI163" s="195"/>
-      <c r="CJ163" s="195"/>
-      <c r="CK163" s="196"/>
-      <c r="CL163" s="201"/>
-      <c r="CM163" s="199"/>
-      <c r="CN163" s="195"/>
-      <c r="CO163" s="195"/>
-      <c r="CP163" s="195"/>
-      <c r="CQ163" s="197"/>
-      <c r="CR163" s="196"/>
-      <c r="CS163" s="196"/>
-      <c r="CT163" s="195"/>
-      <c r="CU163" s="195"/>
-      <c r="CV163" s="195"/>
-      <c r="CW163" s="195"/>
-      <c r="CX163" s="195"/>
-      <c r="CY163" s="196"/>
-      <c r="CZ163" s="196"/>
-      <c r="DA163" s="195"/>
-      <c r="DB163" s="195"/>
-      <c r="DC163" s="195"/>
-      <c r="DD163" s="195"/>
-      <c r="DE163" s="195"/>
-      <c r="DF163" s="201"/>
-      <c r="DG163" s="201"/>
-      <c r="DH163" s="195"/>
-      <c r="DI163" s="195"/>
-      <c r="DJ163" s="195"/>
-      <c r="DK163" s="195"/>
-      <c r="DL163" s="195"/>
-      <c r="DM163" s="196"/>
-      <c r="DN163" s="196"/>
-      <c r="DO163" s="197"/>
-      <c r="DP163" s="195"/>
-      <c r="DQ163" s="195"/>
-      <c r="DR163" s="195"/>
-      <c r="DS163" s="195"/>
-      <c r="DT163" s="196"/>
-      <c r="DU163" s="196"/>
-      <c r="DV163" s="197"/>
-      <c r="DW163" s="195"/>
-      <c r="DX163" s="195"/>
-      <c r="DY163" s="195"/>
-      <c r="DZ163" s="195"/>
-      <c r="EA163" s="196"/>
-      <c r="EB163" s="196"/>
-      <c r="EC163" s="197"/>
-      <c r="ED163" s="195"/>
-      <c r="EE163" s="195"/>
-      <c r="EF163" s="195"/>
-      <c r="EG163" s="195"/>
-      <c r="EH163" s="195"/>
+      <c r="C163" s="192"/>
+      <c r="D163" s="192"/>
+      <c r="E163" s="192"/>
+      <c r="F163" s="192"/>
+      <c r="G163" s="194"/>
+      <c r="H163" s="194"/>
+      <c r="I163" s="194"/>
+      <c r="J163" s="194"/>
+      <c r="K163" s="194"/>
+      <c r="L163" s="195"/>
+      <c r="M163" s="195"/>
+      <c r="N163" s="196"/>
+      <c r="O163" s="194"/>
+      <c r="P163" s="194"/>
+      <c r="Q163" s="194"/>
+      <c r="R163" s="194"/>
+      <c r="S163" s="195"/>
+      <c r="T163" s="195"/>
+      <c r="U163" s="196"/>
+      <c r="V163" s="194"/>
+      <c r="W163" s="194"/>
+      <c r="X163" s="194"/>
+      <c r="Y163" s="194"/>
+      <c r="Z163" s="195"/>
+      <c r="AA163" s="195"/>
+      <c r="AB163" s="194"/>
+      <c r="AC163" s="194"/>
+      <c r="AD163" s="194"/>
+      <c r="AE163" s="194"/>
+      <c r="AF163" s="194"/>
+      <c r="AG163" s="195"/>
+      <c r="AH163" s="195"/>
+      <c r="AI163" s="194"/>
+      <c r="AJ163" s="194"/>
+      <c r="AK163" s="194"/>
+      <c r="AL163" s="194"/>
+      <c r="AM163" s="194"/>
+      <c r="AN163" s="195"/>
+      <c r="AO163" s="195"/>
+      <c r="AP163" s="196"/>
+      <c r="AQ163" s="194"/>
+      <c r="AR163" s="194"/>
+      <c r="AS163" s="194"/>
+      <c r="AT163" s="194"/>
+      <c r="AU163" s="195"/>
+      <c r="AV163" s="195"/>
+      <c r="AW163" s="194"/>
+      <c r="AX163" s="194"/>
+      <c r="AY163" s="194"/>
+      <c r="AZ163" s="194"/>
+      <c r="BA163" s="194"/>
+      <c r="BB163" s="195"/>
+      <c r="BC163" s="195"/>
+      <c r="BD163" s="197"/>
+      <c r="BE163" s="194"/>
+      <c r="BF163" s="194"/>
+      <c r="BG163" s="194"/>
+      <c r="BH163" s="194"/>
+      <c r="BI163" s="195"/>
+      <c r="BJ163" s="195"/>
+      <c r="BK163" s="194"/>
+      <c r="BL163" s="194"/>
+      <c r="BM163" s="194"/>
+      <c r="BN163" s="194"/>
+      <c r="BO163" s="194"/>
+      <c r="BP163" s="195"/>
+      <c r="BQ163" s="195"/>
+      <c r="BR163" s="196"/>
+      <c r="BS163" s="194"/>
+      <c r="BT163" s="194"/>
+      <c r="BU163" s="194"/>
+      <c r="BV163" s="194"/>
+      <c r="BW163" s="195"/>
+      <c r="BX163" s="195"/>
+      <c r="BY163" s="194"/>
+      <c r="BZ163" s="194"/>
+      <c r="CA163" s="194"/>
+      <c r="CB163" s="194"/>
+      <c r="CC163" s="194"/>
+      <c r="CD163" s="195"/>
+      <c r="CE163" s="195"/>
+      <c r="CF163" s="194"/>
+      <c r="CG163" s="194"/>
+      <c r="CH163" s="194"/>
+      <c r="CI163" s="194"/>
+      <c r="CJ163" s="194"/>
+      <c r="CK163" s="195"/>
+      <c r="CL163" s="200"/>
+      <c r="CM163" s="198"/>
+      <c r="CN163" s="194"/>
+      <c r="CO163" s="194"/>
+      <c r="CP163" s="194"/>
+      <c r="CQ163" s="196"/>
+      <c r="CR163" s="195"/>
+      <c r="CS163" s="195"/>
+      <c r="CT163" s="194"/>
+      <c r="CU163" s="194"/>
+      <c r="CV163" s="194"/>
+      <c r="CW163" s="194"/>
+      <c r="CX163" s="194"/>
+      <c r="CY163" s="195"/>
+      <c r="CZ163" s="195"/>
+      <c r="DA163" s="194"/>
+      <c r="DB163" s="194"/>
+      <c r="DC163" s="194"/>
+      <c r="DD163" s="194"/>
+      <c r="DE163" s="194"/>
+      <c r="DF163" s="200"/>
+      <c r="DG163" s="200"/>
+      <c r="DH163" s="194"/>
+      <c r="DI163" s="194"/>
+      <c r="DJ163" s="194"/>
+      <c r="DK163" s="194"/>
+      <c r="DL163" s="194"/>
+      <c r="DM163" s="195"/>
+      <c r="DN163" s="195"/>
+      <c r="DO163" s="196"/>
+      <c r="DP163" s="194"/>
+      <c r="DQ163" s="194"/>
+      <c r="DR163" s="194"/>
+      <c r="DS163" s="194"/>
+      <c r="DT163" s="195"/>
+      <c r="DU163" s="195"/>
+      <c r="DV163" s="196"/>
+      <c r="DW163" s="194"/>
+      <c r="DX163" s="194"/>
+      <c r="DY163" s="194"/>
+      <c r="DZ163" s="194"/>
+      <c r="EA163" s="195"/>
+      <c r="EB163" s="195"/>
+      <c r="EC163" s="196"/>
+      <c r="ED163" s="194"/>
+      <c r="EE163" s="194"/>
+      <c r="EF163" s="194"/>
+      <c r="EG163" s="194"/>
+      <c r="EH163" s="194"/>
     </row>
     <row r="164" spans="1:138">
-      <c r="A164" s="194"/>
-      <c r="B164" s="193" t="s">
+      <c r="A164" s="193"/>
+      <c r="B164" s="192" t="s">
         <v>201</v>
       </c>
-      <c r="C164" s="193">
-        <v>2</v>
-      </c>
-      <c r="D164" s="193">
-        <v>2</v>
-      </c>
-      <c r="E164" s="193">
+      <c r="C164" s="192">
+        <v>2</v>
+      </c>
+      <c r="D164" s="192">
+        <v>2</v>
+      </c>
+      <c r="E164" s="192">
         <v>0</v>
       </c>
-      <c r="F164" s="193">
+      <c r="F164" s="192">
         <v>0</v>
       </c>
-      <c r="G164" s="195"/>
-      <c r="H164" s="195"/>
-      <c r="I164" s="195"/>
-      <c r="J164" s="195"/>
-      <c r="K164" s="195"/>
-      <c r="L164" s="196"/>
-      <c r="M164" s="196"/>
-      <c r="N164" s="197"/>
-      <c r="O164" s="195"/>
-      <c r="P164" s="195"/>
-      <c r="Q164" s="195"/>
-      <c r="R164" s="195"/>
-      <c r="S164" s="196"/>
-      <c r="T164" s="196"/>
-      <c r="U164" s="197"/>
-      <c r="V164" s="195"/>
-      <c r="W164" s="195"/>
-      <c r="X164" s="195"/>
-      <c r="Y164" s="195"/>
-      <c r="Z164" s="196"/>
-      <c r="AA164" s="196"/>
-      <c r="AB164" s="195"/>
-      <c r="AC164" s="195"/>
-      <c r="AD164" s="195"/>
-      <c r="AE164" s="195"/>
-      <c r="AF164" s="195"/>
-      <c r="AG164" s="196"/>
-      <c r="AH164" s="196"/>
-      <c r="AI164" s="195"/>
-      <c r="AJ164" s="195"/>
-      <c r="AK164" s="195"/>
-      <c r="AL164" s="195"/>
-      <c r="AM164" s="195"/>
-      <c r="AN164" s="196"/>
-      <c r="AO164" s="196"/>
-      <c r="AP164" s="197"/>
-      <c r="AQ164" s="195"/>
-      <c r="AR164" s="195"/>
-      <c r="AS164" s="195"/>
-      <c r="AT164" s="195"/>
-      <c r="AU164" s="196"/>
-      <c r="AV164" s="196"/>
-      <c r="AW164" s="195"/>
-      <c r="AX164" s="195"/>
-      <c r="AY164" s="195"/>
-      <c r="AZ164" s="195"/>
-      <c r="BA164" s="195"/>
-      <c r="BB164" s="196"/>
-      <c r="BC164" s="196"/>
-      <c r="BD164" s="200">
-        <v>2</v>
-      </c>
-      <c r="BE164" s="195"/>
-      <c r="BF164" s="195"/>
-      <c r="BG164" s="195"/>
-      <c r="BH164" s="195"/>
-      <c r="BI164" s="196"/>
-      <c r="BJ164" s="196"/>
-      <c r="BK164" s="195"/>
-      <c r="BL164" s="195"/>
-      <c r="BM164" s="195"/>
-      <c r="BN164" s="195"/>
-      <c r="BO164" s="195"/>
-      <c r="BP164" s="196"/>
-      <c r="BQ164" s="196"/>
-      <c r="BR164" s="197"/>
-      <c r="BS164" s="195"/>
-      <c r="BT164" s="195"/>
-      <c r="BU164" s="195"/>
-      <c r="BV164" s="195"/>
-      <c r="BW164" s="196"/>
-      <c r="BX164" s="196"/>
-      <c r="BY164" s="195"/>
-      <c r="BZ164" s="195"/>
-      <c r="CA164" s="195"/>
-      <c r="CB164" s="195"/>
-      <c r="CC164" s="195"/>
-      <c r="CD164" s="196"/>
-      <c r="CE164" s="196"/>
-      <c r="CF164" s="195"/>
-      <c r="CG164" s="195"/>
-      <c r="CH164" s="195"/>
-      <c r="CI164" s="195"/>
-      <c r="CJ164" s="195"/>
-      <c r="CK164" s="196"/>
-      <c r="CL164" s="201"/>
-      <c r="CM164" s="199"/>
-      <c r="CN164" s="195"/>
-      <c r="CO164" s="195"/>
-      <c r="CP164" s="195"/>
-      <c r="CQ164" s="197"/>
-      <c r="CR164" s="196"/>
-      <c r="CS164" s="196"/>
-      <c r="CT164" s="195"/>
-      <c r="CU164" s="195"/>
-      <c r="CV164" s="195"/>
-      <c r="CW164" s="195"/>
-      <c r="CX164" s="195"/>
-      <c r="CY164" s="196"/>
-      <c r="CZ164" s="196"/>
-      <c r="DA164" s="195"/>
-      <c r="DB164" s="195"/>
-      <c r="DC164" s="195"/>
-      <c r="DD164" s="195"/>
-      <c r="DE164" s="195"/>
-      <c r="DF164" s="201"/>
-      <c r="DG164" s="201"/>
-      <c r="DH164" s="195"/>
-      <c r="DI164" s="195"/>
-      <c r="DJ164" s="195"/>
-      <c r="DK164" s="195"/>
-      <c r="DL164" s="195"/>
-      <c r="DM164" s="196"/>
-      <c r="DN164" s="196"/>
-      <c r="DO164" s="197"/>
-      <c r="DP164" s="195"/>
-      <c r="DQ164" s="195"/>
-      <c r="DR164" s="195"/>
-      <c r="DS164" s="195"/>
-      <c r="DT164" s="196"/>
-      <c r="DU164" s="196"/>
-      <c r="DV164" s="197"/>
-      <c r="DW164" s="195"/>
-      <c r="DX164" s="195"/>
-      <c r="DY164" s="195"/>
-      <c r="DZ164" s="195"/>
-      <c r="EA164" s="196"/>
-      <c r="EB164" s="196"/>
-      <c r="EC164" s="197"/>
-      <c r="ED164" s="195"/>
-      <c r="EE164" s="195"/>
-      <c r="EF164" s="195"/>
-      <c r="EG164" s="195"/>
-      <c r="EH164" s="195"/>
+      <c r="G164" s="194"/>
+      <c r="H164" s="194"/>
+      <c r="I164" s="194"/>
+      <c r="J164" s="194"/>
+      <c r="K164" s="194"/>
+      <c r="L164" s="195"/>
+      <c r="M164" s="195"/>
+      <c r="N164" s="196"/>
+      <c r="O164" s="194"/>
+      <c r="P164" s="194"/>
+      <c r="Q164" s="194"/>
+      <c r="R164" s="194"/>
+      <c r="S164" s="195"/>
+      <c r="T164" s="195"/>
+      <c r="U164" s="196"/>
+      <c r="V164" s="194"/>
+      <c r="W164" s="194"/>
+      <c r="X164" s="194"/>
+      <c r="Y164" s="194"/>
+      <c r="Z164" s="195"/>
+      <c r="AA164" s="195"/>
+      <c r="AB164" s="194"/>
+      <c r="AC164" s="194"/>
+      <c r="AD164" s="194"/>
+      <c r="AE164" s="194"/>
+      <c r="AF164" s="194"/>
+      <c r="AG164" s="195"/>
+      <c r="AH164" s="195"/>
+      <c r="AI164" s="194"/>
+      <c r="AJ164" s="194"/>
+      <c r="AK164" s="194"/>
+      <c r="AL164" s="194"/>
+      <c r="AM164" s="194"/>
+      <c r="AN164" s="195"/>
+      <c r="AO164" s="195"/>
+      <c r="AP164" s="196"/>
+      <c r="AQ164" s="194"/>
+      <c r="AR164" s="194"/>
+      <c r="AS164" s="194"/>
+      <c r="AT164" s="194"/>
+      <c r="AU164" s="195"/>
+      <c r="AV164" s="195"/>
+      <c r="AW164" s="194"/>
+      <c r="AX164" s="194"/>
+      <c r="AY164" s="194"/>
+      <c r="AZ164" s="194"/>
+      <c r="BA164" s="194"/>
+      <c r="BB164" s="195"/>
+      <c r="BC164" s="195"/>
+      <c r="BD164" s="199">
+        <v>2</v>
+      </c>
+      <c r="BE164" s="194"/>
+      <c r="BF164" s="194"/>
+      <c r="BG164" s="194"/>
+      <c r="BH164" s="194"/>
+      <c r="BI164" s="195"/>
+      <c r="BJ164" s="195"/>
+      <c r="BK164" s="194"/>
+      <c r="BL164" s="194"/>
+      <c r="BM164" s="194"/>
+      <c r="BN164" s="194"/>
+      <c r="BO164" s="194"/>
+      <c r="BP164" s="195"/>
+      <c r="BQ164" s="195"/>
+      <c r="BR164" s="196"/>
+      <c r="BS164" s="194"/>
+      <c r="BT164" s="194"/>
+      <c r="BU164" s="194"/>
+      <c r="BV164" s="194"/>
+      <c r="BW164" s="195"/>
+      <c r="BX164" s="195"/>
+      <c r="BY164" s="194"/>
+      <c r="BZ164" s="194"/>
+      <c r="CA164" s="194"/>
+      <c r="CB164" s="194"/>
+      <c r="CC164" s="194"/>
+      <c r="CD164" s="195"/>
+      <c r="CE164" s="195"/>
+      <c r="CF164" s="194"/>
+      <c r="CG164" s="194"/>
+      <c r="CH164" s="194"/>
+      <c r="CI164" s="194"/>
+      <c r="CJ164" s="194"/>
+      <c r="CK164" s="195"/>
+      <c r="CL164" s="200"/>
+      <c r="CM164" s="198"/>
+      <c r="CN164" s="194"/>
+      <c r="CO164" s="194"/>
+      <c r="CP164" s="194"/>
+      <c r="CQ164" s="196"/>
+      <c r="CR164" s="195"/>
+      <c r="CS164" s="195"/>
+      <c r="CT164" s="194"/>
+      <c r="CU164" s="194"/>
+      <c r="CV164" s="194"/>
+      <c r="CW164" s="194"/>
+      <c r="CX164" s="194"/>
+      <c r="CY164" s="195"/>
+      <c r="CZ164" s="195"/>
+      <c r="DA164" s="194"/>
+      <c r="DB164" s="194"/>
+      <c r="DC164" s="194"/>
+      <c r="DD164" s="194"/>
+      <c r="DE164" s="194"/>
+      <c r="DF164" s="200"/>
+      <c r="DG164" s="200"/>
+      <c r="DH164" s="194"/>
+      <c r="DI164" s="194"/>
+      <c r="DJ164" s="194"/>
+      <c r="DK164" s="194"/>
+      <c r="DL164" s="194"/>
+      <c r="DM164" s="195"/>
+      <c r="DN164" s="195"/>
+      <c r="DO164" s="196"/>
+      <c r="DP164" s="194"/>
+      <c r="DQ164" s="194"/>
+      <c r="DR164" s="194"/>
+      <c r="DS164" s="194"/>
+      <c r="DT164" s="195"/>
+      <c r="DU164" s="195"/>
+      <c r="DV164" s="196"/>
+      <c r="DW164" s="194"/>
+      <c r="DX164" s="194"/>
+      <c r="DY164" s="194"/>
+      <c r="DZ164" s="194"/>
+      <c r="EA164" s="195"/>
+      <c r="EB164" s="195"/>
+      <c r="EC164" s="196"/>
+      <c r="ED164" s="194"/>
+      <c r="EE164" s="194"/>
+      <c r="EF164" s="194"/>
+      <c r="EG164" s="194"/>
+      <c r="EH164" s="194"/>
     </row>
     <row r="165" spans="1:138">
-      <c r="A165" s="194"/>
-      <c r="B165" s="193" t="s">
+      <c r="A165" s="193"/>
+      <c r="B165" s="192" t="s">
         <v>202</v>
       </c>
-      <c r="C165" s="193">
-        <v>2</v>
-      </c>
-      <c r="D165" s="193">
-        <v>1</v>
-      </c>
-      <c r="E165" s="193">
-        <v>1</v>
-      </c>
-      <c r="F165" s="193">
-        <v>1</v>
-      </c>
-      <c r="G165" s="195"/>
-      <c r="H165" s="195"/>
-      <c r="I165" s="195"/>
-      <c r="J165" s="195"/>
-      <c r="K165" s="195"/>
-      <c r="L165" s="196"/>
-      <c r="M165" s="196"/>
-      <c r="N165" s="197"/>
-      <c r="O165" s="195"/>
-      <c r="P165" s="195"/>
-      <c r="Q165" s="195"/>
-      <c r="R165" s="195"/>
-      <c r="S165" s="196"/>
-      <c r="T165" s="196"/>
-      <c r="U165" s="197"/>
-      <c r="V165" s="195"/>
-      <c r="W165" s="195"/>
-      <c r="X165" s="195"/>
-      <c r="Y165" s="195"/>
-      <c r="Z165" s="196"/>
-      <c r="AA165" s="196"/>
-      <c r="AB165" s="195"/>
-      <c r="AC165" s="195"/>
-      <c r="AD165" s="195"/>
-      <c r="AE165" s="195"/>
-      <c r="AF165" s="195"/>
-      <c r="AG165" s="196"/>
-      <c r="AH165" s="196"/>
-      <c r="AI165" s="195"/>
-      <c r="AJ165" s="195"/>
-      <c r="AK165" s="195"/>
-      <c r="AL165" s="195"/>
-      <c r="AM165" s="195"/>
-      <c r="AN165" s="196"/>
-      <c r="AO165" s="196"/>
-      <c r="AP165" s="197"/>
-      <c r="AQ165" s="195"/>
-      <c r="AR165" s="195"/>
-      <c r="AS165" s="195"/>
-      <c r="AT165" s="195"/>
-      <c r="AU165" s="196"/>
-      <c r="AV165" s="196"/>
-      <c r="AW165" s="195"/>
-      <c r="AX165" s="195"/>
-      <c r="AY165" s="195"/>
-      <c r="AZ165" s="195"/>
-      <c r="BA165" s="195"/>
-      <c r="BB165" s="196"/>
-      <c r="BC165" s="196"/>
-      <c r="BD165" s="198"/>
-      <c r="BE165" s="195"/>
-      <c r="BF165" s="195"/>
-      <c r="BG165" s="195"/>
-      <c r="BH165" s="195"/>
-      <c r="BI165" s="196"/>
-      <c r="BJ165" s="196"/>
-      <c r="BK165" s="195"/>
-      <c r="BL165" s="195"/>
-      <c r="BM165" s="195"/>
-      <c r="BN165" s="195"/>
-      <c r="BO165" s="195"/>
-      <c r="BP165" s="196"/>
-      <c r="BQ165" s="196"/>
-      <c r="BR165" s="197"/>
-      <c r="BS165" s="195"/>
-      <c r="BT165" s="195"/>
-      <c r="BU165" s="195"/>
-      <c r="BV165" s="195"/>
-      <c r="BW165" s="196"/>
-      <c r="BX165" s="196"/>
-      <c r="BY165" s="195"/>
-      <c r="BZ165" s="195"/>
-      <c r="CA165" s="195"/>
-      <c r="CB165" s="195"/>
-      <c r="CC165" s="195"/>
-      <c r="CD165" s="196"/>
-      <c r="CE165" s="196"/>
-      <c r="CF165" s="195"/>
-      <c r="CG165" s="195"/>
-      <c r="CH165" s="195"/>
-      <c r="CI165" s="195"/>
-      <c r="CJ165" s="195"/>
-      <c r="CK165" s="196"/>
-      <c r="CL165" s="201"/>
-      <c r="CM165" s="199"/>
-      <c r="CN165" s="195"/>
-      <c r="CO165" s="195"/>
-      <c r="CP165" s="195"/>
-      <c r="CQ165" s="197"/>
-      <c r="CR165" s="196"/>
-      <c r="CS165" s="196"/>
-      <c r="CT165" s="195"/>
-      <c r="CU165" s="195"/>
-      <c r="CV165" s="195"/>
-      <c r="CW165" s="195"/>
-      <c r="CX165" s="195"/>
-      <c r="CY165" s="196"/>
-      <c r="CZ165" s="196"/>
-      <c r="DA165" s="195"/>
-      <c r="DB165" s="195"/>
-      <c r="DC165" s="195"/>
-      <c r="DD165" s="195"/>
-      <c r="DE165" s="195"/>
-      <c r="DF165" s="201"/>
-      <c r="DG165" s="201"/>
-      <c r="DH165" s="195"/>
-      <c r="DI165" s="195"/>
-      <c r="DJ165" s="195"/>
-      <c r="DK165" s="195"/>
-      <c r="DL165" s="195"/>
-      <c r="DM165" s="196"/>
-      <c r="DN165" s="196"/>
-      <c r="DO165" s="197"/>
-      <c r="DP165" s="195"/>
-      <c r="DQ165" s="195"/>
-      <c r="DR165" s="195"/>
-      <c r="DS165" s="195"/>
-      <c r="DT165" s="196"/>
-      <c r="DU165" s="217">
-        <v>1</v>
-      </c>
-      <c r="DV165" s="197"/>
-      <c r="DW165" s="195"/>
-      <c r="DX165" s="195"/>
-      <c r="DY165" s="195"/>
-      <c r="DZ165" s="195"/>
-      <c r="EA165" s="196"/>
-      <c r="EB165" s="196"/>
-      <c r="EC165" s="197"/>
-      <c r="ED165" s="195"/>
-      <c r="EE165" s="195"/>
-      <c r="EF165" s="195"/>
-      <c r="EG165" s="195"/>
-      <c r="EH165" s="195"/>
+      <c r="C165" s="192">
+        <v>2</v>
+      </c>
+      <c r="D165" s="192">
+        <v>1</v>
+      </c>
+      <c r="E165" s="192">
+        <v>1</v>
+      </c>
+      <c r="F165" s="192">
+        <v>1</v>
+      </c>
+      <c r="G165" s="194"/>
+      <c r="H165" s="194"/>
+      <c r="I165" s="194"/>
+      <c r="J165" s="194"/>
+      <c r="K165" s="194"/>
+      <c r="L165" s="195"/>
+      <c r="M165" s="195"/>
+      <c r="N165" s="196"/>
+      <c r="O165" s="194"/>
+      <c r="P165" s="194"/>
+      <c r="Q165" s="194"/>
+      <c r="R165" s="194"/>
+      <c r="S165" s="195"/>
+      <c r="T165" s="195"/>
+      <c r="U165" s="196"/>
+      <c r="V165" s="194"/>
+      <c r="W165" s="194"/>
+      <c r="X165" s="194"/>
+      <c r="Y165" s="194"/>
+      <c r="Z165" s="195"/>
+      <c r="AA165" s="195"/>
+      <c r="AB165" s="194"/>
+      <c r="AC165" s="194"/>
+      <c r="AD165" s="194"/>
+      <c r="AE165" s="194"/>
+      <c r="AF165" s="194"/>
+      <c r="AG165" s="195"/>
+      <c r="AH165" s="195"/>
+      <c r="AI165" s="194"/>
+      <c r="AJ165" s="194"/>
+      <c r="AK165" s="194"/>
+      <c r="AL165" s="194"/>
+      <c r="AM165" s="194"/>
+      <c r="AN165" s="195"/>
+      <c r="AO165" s="195"/>
+      <c r="AP165" s="196"/>
+      <c r="AQ165" s="194"/>
+      <c r="AR165" s="194"/>
+      <c r="AS165" s="194"/>
+      <c r="AT165" s="194"/>
+      <c r="AU165" s="195"/>
+      <c r="AV165" s="195"/>
+      <c r="AW165" s="194"/>
+      <c r="AX165" s="194"/>
+      <c r="AY165" s="194"/>
+      <c r="AZ165" s="194"/>
+      <c r="BA165" s="194"/>
+      <c r="BB165" s="195"/>
+      <c r="BC165" s="195"/>
+      <c r="BD165" s="197"/>
+      <c r="BE165" s="194"/>
+      <c r="BF165" s="194"/>
+      <c r="BG165" s="194"/>
+      <c r="BH165" s="194"/>
+      <c r="BI165" s="195"/>
+      <c r="BJ165" s="195"/>
+      <c r="BK165" s="194"/>
+      <c r="BL165" s="194"/>
+      <c r="BM165" s="194"/>
+      <c r="BN165" s="194"/>
+      <c r="BO165" s="194"/>
+      <c r="BP165" s="195"/>
+      <c r="BQ165" s="195"/>
+      <c r="BR165" s="196"/>
+      <c r="BS165" s="194"/>
+      <c r="BT165" s="194"/>
+      <c r="BU165" s="194"/>
+      <c r="BV165" s="194"/>
+      <c r="BW165" s="195"/>
+      <c r="BX165" s="195"/>
+      <c r="BY165" s="194"/>
+      <c r="BZ165" s="194"/>
+      <c r="CA165" s="194"/>
+      <c r="CB165" s="194"/>
+      <c r="CC165" s="194"/>
+      <c r="CD165" s="195"/>
+      <c r="CE165" s="195"/>
+      <c r="CF165" s="194"/>
+      <c r="CG165" s="194"/>
+      <c r="CH165" s="194"/>
+      <c r="CI165" s="194"/>
+      <c r="CJ165" s="194"/>
+      <c r="CK165" s="195"/>
+      <c r="CL165" s="200"/>
+      <c r="CM165" s="198"/>
+      <c r="CN165" s="194"/>
+      <c r="CO165" s="194"/>
+      <c r="CP165" s="194"/>
+      <c r="CQ165" s="196"/>
+      <c r="CR165" s="195"/>
+      <c r="CS165" s="195"/>
+      <c r="CT165" s="194"/>
+      <c r="CU165" s="194"/>
+      <c r="CV165" s="194"/>
+      <c r="CW165" s="194"/>
+      <c r="CX165" s="194"/>
+      <c r="CY165" s="195"/>
+      <c r="CZ165" s="195"/>
+      <c r="DA165" s="194"/>
+      <c r="DB165" s="194"/>
+      <c r="DC165" s="194"/>
+      <c r="DD165" s="194"/>
+      <c r="DE165" s="194"/>
+      <c r="DF165" s="200"/>
+      <c r="DG165" s="200"/>
+      <c r="DH165" s="194"/>
+      <c r="DI165" s="194"/>
+      <c r="DJ165" s="194"/>
+      <c r="DK165" s="194"/>
+      <c r="DL165" s="194"/>
+      <c r="DM165" s="195"/>
+      <c r="DN165" s="195"/>
+      <c r="DO165" s="196"/>
+      <c r="DP165" s="194"/>
+      <c r="DQ165" s="194"/>
+      <c r="DR165" s="194"/>
+      <c r="DS165" s="194"/>
+      <c r="DT165" s="195"/>
+      <c r="DU165" s="201">
+        <v>1</v>
+      </c>
+      <c r="DV165" s="196"/>
+      <c r="DW165" s="194"/>
+      <c r="DX165" s="194"/>
+      <c r="DY165" s="194"/>
+      <c r="DZ165" s="194"/>
+      <c r="EA165" s="195"/>
+      <c r="EB165" s="195"/>
+      <c r="EC165" s="196"/>
+      <c r="ED165" s="194"/>
+      <c r="EE165" s="194"/>
+      <c r="EF165" s="194"/>
+      <c r="EG165" s="194"/>
+      <c r="EH165" s="194"/>
     </row>
     <row r="166" spans="1:138">
-      <c r="A166" s="194"/>
-      <c r="B166" s="193" t="s">
+      <c r="A166" s="193"/>
+      <c r="B166" s="192" t="s">
         <v>203</v>
       </c>
-      <c r="C166" s="193">
-        <v>1</v>
-      </c>
-      <c r="D166" s="193">
-        <v>1</v>
-      </c>
-      <c r="E166" s="193">
-        <v>2</v>
-      </c>
-      <c r="F166" s="193">
-        <v>1</v>
-      </c>
-      <c r="G166" s="195"/>
-      <c r="H166" s="195"/>
-      <c r="I166" s="195"/>
-      <c r="J166" s="195"/>
-      <c r="K166" s="195"/>
-      <c r="L166" s="196"/>
-      <c r="M166" s="196"/>
-      <c r="N166" s="197"/>
-      <c r="O166" s="195"/>
-      <c r="P166" s="195"/>
-      <c r="Q166" s="195"/>
-      <c r="R166" s="195"/>
-      <c r="S166" s="196"/>
-      <c r="T166" s="196"/>
-      <c r="U166" s="197"/>
-      <c r="V166" s="195"/>
-      <c r="W166" s="195"/>
-      <c r="X166" s="195"/>
-      <c r="Y166" s="195"/>
-      <c r="Z166" s="196"/>
-      <c r="AA166" s="196"/>
-      <c r="AB166" s="195"/>
-      <c r="AC166" s="195"/>
-      <c r="AD166" s="195"/>
-      <c r="AE166" s="195"/>
-      <c r="AF166" s="195"/>
-      <c r="AG166" s="196"/>
-      <c r="AH166" s="196"/>
-      <c r="AI166" s="195"/>
-      <c r="AJ166" s="195"/>
-      <c r="AK166" s="195"/>
-      <c r="AL166" s="195"/>
-      <c r="AM166" s="195"/>
-      <c r="AN166" s="196"/>
-      <c r="AO166" s="196"/>
-      <c r="AP166" s="197"/>
-      <c r="AQ166" s="195"/>
-      <c r="AR166" s="195"/>
-      <c r="AS166" s="195"/>
-      <c r="AT166" s="195"/>
-      <c r="AU166" s="196"/>
-      <c r="AV166" s="196"/>
-      <c r="AW166" s="195"/>
-      <c r="AX166" s="195"/>
-      <c r="AY166" s="195"/>
-      <c r="AZ166" s="195"/>
-      <c r="BA166" s="195"/>
-      <c r="BB166" s="196"/>
-      <c r="BC166" s="196"/>
-      <c r="BD166" s="198"/>
-      <c r="BE166" s="195"/>
-      <c r="BF166" s="195"/>
-      <c r="BG166" s="195"/>
-      <c r="BH166" s="195"/>
-      <c r="BI166" s="196"/>
-      <c r="BJ166" s="196"/>
-      <c r="BK166" s="195"/>
-      <c r="BL166" s="195"/>
-      <c r="BM166" s="195"/>
-      <c r="BN166" s="195"/>
-      <c r="BO166" s="195"/>
-      <c r="BP166" s="196"/>
-      <c r="BQ166" s="196"/>
-      <c r="BR166" s="197"/>
-      <c r="BS166" s="195"/>
-      <c r="BT166" s="195"/>
-      <c r="BU166" s="195"/>
-      <c r="BV166" s="195"/>
-      <c r="BW166" s="196"/>
-      <c r="BX166" s="196"/>
-      <c r="BY166" s="195"/>
-      <c r="BZ166" s="195"/>
-      <c r="CA166" s="195"/>
-      <c r="CB166" s="195"/>
-      <c r="CC166" s="195"/>
-      <c r="CD166" s="196"/>
-      <c r="CE166" s="196"/>
-      <c r="CF166" s="195"/>
-      <c r="CG166" s="195"/>
-      <c r="CH166" s="195"/>
-      <c r="CI166" s="195"/>
-      <c r="CJ166" s="195"/>
-      <c r="CK166" s="196"/>
-      <c r="CL166" s="201"/>
-      <c r="CM166" s="199"/>
-      <c r="CN166" s="195"/>
-      <c r="CO166" s="195"/>
-      <c r="CP166" s="195"/>
-      <c r="CQ166" s="197"/>
-      <c r="CR166" s="196"/>
-      <c r="CS166" s="196"/>
-      <c r="CT166" s="195"/>
-      <c r="CU166" s="195"/>
-      <c r="CV166" s="195"/>
-      <c r="CW166" s="195"/>
-      <c r="CX166" s="195"/>
-      <c r="CY166" s="196"/>
-      <c r="CZ166" s="196"/>
-      <c r="DA166" s="195"/>
-      <c r="DB166" s="195"/>
-      <c r="DC166" s="195"/>
-      <c r="DD166" s="195"/>
-      <c r="DE166" s="195"/>
-      <c r="DF166" s="201"/>
-      <c r="DG166" s="201"/>
-      <c r="DH166" s="195"/>
-      <c r="DI166" s="195"/>
-      <c r="DJ166" s="195"/>
-      <c r="DK166" s="195"/>
-      <c r="DL166" s="195"/>
-      <c r="DM166" s="196"/>
-      <c r="DN166" s="196"/>
-      <c r="DO166" s="197"/>
-      <c r="DP166" s="195"/>
-      <c r="DQ166" s="195"/>
-      <c r="DR166" s="195"/>
-      <c r="DS166" s="195"/>
-      <c r="DT166" s="196"/>
-      <c r="DU166" s="217">
-        <v>1</v>
-      </c>
-      <c r="DV166" s="197"/>
-      <c r="DW166" s="195"/>
-      <c r="DX166" s="195"/>
-      <c r="DY166" s="195"/>
-      <c r="DZ166" s="195"/>
-      <c r="EA166" s="196"/>
-      <c r="EB166" s="196"/>
-      <c r="EC166" s="197"/>
-      <c r="ED166" s="195"/>
-      <c r="EE166" s="195"/>
-      <c r="EF166" s="195"/>
-      <c r="EG166" s="195"/>
-      <c r="EH166" s="195"/>
+      <c r="C166" s="192">
+        <v>1</v>
+      </c>
+      <c r="D166" s="192">
+        <v>1</v>
+      </c>
+      <c r="E166" s="192">
+        <v>2</v>
+      </c>
+      <c r="F166" s="192">
+        <v>1</v>
+      </c>
+      <c r="G166" s="194"/>
+      <c r="H166" s="194"/>
+      <c r="I166" s="194"/>
+      <c r="J166" s="194"/>
+      <c r="K166" s="194"/>
+      <c r="L166" s="195"/>
+      <c r="M166" s="195"/>
+      <c r="N166" s="196"/>
+      <c r="O166" s="194"/>
+      <c r="P166" s="194"/>
+      <c r="Q166" s="194"/>
+      <c r="R166" s="194"/>
+      <c r="S166" s="195"/>
+      <c r="T166" s="195"/>
+      <c r="U166" s="196"/>
+      <c r="V166" s="194"/>
+      <c r="W166" s="194"/>
+      <c r="X166" s="194"/>
+      <c r="Y166" s="194"/>
+      <c r="Z166" s="195"/>
+      <c r="AA166" s="195"/>
+      <c r="AB166" s="194"/>
+      <c r="AC166" s="194"/>
+      <c r="AD166" s="194"/>
+      <c r="AE166" s="194"/>
+      <c r="AF166" s="194"/>
+      <c r="AG166" s="195"/>
+      <c r="AH166" s="195"/>
+      <c r="AI166" s="194"/>
+      <c r="AJ166" s="194"/>
+      <c r="AK166" s="194"/>
+      <c r="AL166" s="194"/>
+      <c r="AM166" s="194"/>
+      <c r="AN166" s="195"/>
+      <c r="AO166" s="195"/>
+      <c r="AP166" s="196"/>
+      <c r="AQ166" s="194"/>
+      <c r="AR166" s="194"/>
+      <c r="AS166" s="194"/>
+      <c r="AT166" s="194"/>
+      <c r="AU166" s="195"/>
+      <c r="AV166" s="195"/>
+      <c r="AW166" s="194"/>
+      <c r="AX166" s="194"/>
+      <c r="AY166" s="194"/>
+      <c r="AZ166" s="194"/>
+      <c r="BA166" s="194"/>
+      <c r="BB166" s="195"/>
+      <c r="BC166" s="195"/>
+      <c r="BD166" s="197"/>
+      <c r="BE166" s="194"/>
+      <c r="BF166" s="194"/>
+      <c r="BG166" s="194"/>
+      <c r="BH166" s="194"/>
+      <c r="BI166" s="195"/>
+      <c r="BJ166" s="195"/>
+      <c r="BK166" s="194"/>
+      <c r="BL166" s="194"/>
+      <c r="BM166" s="194"/>
+      <c r="BN166" s="194"/>
+      <c r="BO166" s="194"/>
+      <c r="BP166" s="195"/>
+      <c r="BQ166" s="195"/>
+      <c r="BR166" s="196"/>
+      <c r="BS166" s="194"/>
+      <c r="BT166" s="194"/>
+      <c r="BU166" s="194"/>
+      <c r="BV166" s="194"/>
+      <c r="BW166" s="195"/>
+      <c r="BX166" s="195"/>
+      <c r="BY166" s="194"/>
+      <c r="BZ166" s="194"/>
+      <c r="CA166" s="194"/>
+      <c r="CB166" s="194"/>
+      <c r="CC166" s="194"/>
+      <c r="CD166" s="195"/>
+      <c r="CE166" s="195"/>
+      <c r="CF166" s="194"/>
+      <c r="CG166" s="194"/>
+      <c r="CH166" s="194"/>
+      <c r="CI166" s="194"/>
+      <c r="CJ166" s="194"/>
+      <c r="CK166" s="195"/>
+      <c r="CL166" s="200"/>
+      <c r="CM166" s="198"/>
+      <c r="CN166" s="194"/>
+      <c r="CO166" s="194"/>
+      <c r="CP166" s="194"/>
+      <c r="CQ166" s="196"/>
+      <c r="CR166" s="195"/>
+      <c r="CS166" s="195"/>
+      <c r="CT166" s="194"/>
+      <c r="CU166" s="194"/>
+      <c r="CV166" s="194"/>
+      <c r="CW166" s="194"/>
+      <c r="CX166" s="194"/>
+      <c r="CY166" s="195"/>
+      <c r="CZ166" s="195"/>
+      <c r="DA166" s="194"/>
+      <c r="DB166" s="194"/>
+      <c r="DC166" s="194"/>
+      <c r="DD166" s="194"/>
+      <c r="DE166" s="194"/>
+      <c r="DF166" s="200"/>
+      <c r="DG166" s="200"/>
+      <c r="DH166" s="194"/>
+      <c r="DI166" s="194"/>
+      <c r="DJ166" s="194"/>
+      <c r="DK166" s="194"/>
+      <c r="DL166" s="194"/>
+      <c r="DM166" s="195"/>
+      <c r="DN166" s="195"/>
+      <c r="DO166" s="196"/>
+      <c r="DP166" s="194"/>
+      <c r="DQ166" s="194"/>
+      <c r="DR166" s="194"/>
+      <c r="DS166" s="194"/>
+      <c r="DT166" s="195"/>
+      <c r="DU166" s="201">
+        <v>1</v>
+      </c>
+      <c r="DV166" s="196"/>
+      <c r="DW166" s="194"/>
+      <c r="DX166" s="194"/>
+      <c r="DY166" s="194"/>
+      <c r="DZ166" s="194"/>
+      <c r="EA166" s="195"/>
+      <c r="EB166" s="195"/>
+      <c r="EC166" s="196"/>
+      <c r="ED166" s="194"/>
+      <c r="EE166" s="194"/>
+      <c r="EF166" s="194"/>
+      <c r="EG166" s="194"/>
+      <c r="EH166" s="194"/>
     </row>
     <row r="167" spans="1:138">
-      <c r="A167" s="194"/>
-      <c r="B167" s="193" t="s">
+      <c r="A167" s="193"/>
+      <c r="B167" s="192" t="s">
         <v>204</v>
       </c>
-      <c r="C167" s="193">
-        <v>2</v>
-      </c>
-      <c r="D167" s="193">
-        <v>1</v>
-      </c>
-      <c r="E167" s="193">
-        <v>2</v>
-      </c>
-      <c r="F167" s="193">
-        <v>1</v>
-      </c>
-      <c r="G167" s="195"/>
-      <c r="H167" s="195"/>
-      <c r="I167" s="195"/>
-      <c r="J167" s="195"/>
-      <c r="K167" s="195"/>
-      <c r="L167" s="196"/>
-      <c r="M167" s="196"/>
-      <c r="N167" s="197"/>
-      <c r="O167" s="195"/>
-      <c r="P167" s="195"/>
-      <c r="Q167" s="195"/>
-      <c r="R167" s="195"/>
-      <c r="S167" s="196"/>
-      <c r="T167" s="196"/>
-      <c r="U167" s="197"/>
-      <c r="V167" s="195"/>
-      <c r="W167" s="195"/>
-      <c r="X167" s="195"/>
-      <c r="Y167" s="195"/>
-      <c r="Z167" s="196"/>
-      <c r="AA167" s="196"/>
-      <c r="AB167" s="195"/>
-      <c r="AC167" s="195"/>
-      <c r="AD167" s="195"/>
-      <c r="AE167" s="195"/>
-      <c r="AF167" s="195"/>
-      <c r="AG167" s="196"/>
-      <c r="AH167" s="196"/>
-      <c r="AI167" s="195"/>
-      <c r="AJ167" s="195"/>
-      <c r="AK167" s="195"/>
-      <c r="AL167" s="195"/>
-      <c r="AM167" s="195"/>
-      <c r="AN167" s="196"/>
-      <c r="AO167" s="196"/>
-      <c r="AP167" s="197"/>
-      <c r="AQ167" s="195"/>
-      <c r="AR167" s="195"/>
-      <c r="AS167" s="195"/>
-      <c r="AT167" s="195"/>
-      <c r="AU167" s="196"/>
-      <c r="AV167" s="196"/>
-      <c r="AW167" s="195"/>
-      <c r="AX167" s="195"/>
-      <c r="AY167" s="195"/>
-      <c r="AZ167" s="195"/>
-      <c r="BA167" s="195"/>
-      <c r="BB167" s="196"/>
-      <c r="BC167" s="196"/>
-      <c r="BD167" s="198"/>
-      <c r="BE167" s="195"/>
-      <c r="BF167" s="195"/>
-      <c r="BG167" s="195"/>
-      <c r="BH167" s="195"/>
-      <c r="BI167" s="196"/>
-      <c r="BJ167" s="196"/>
-      <c r="BK167" s="195"/>
-      <c r="BL167" s="195"/>
-      <c r="BM167" s="195"/>
-      <c r="BN167" s="195"/>
-      <c r="BO167" s="195"/>
-      <c r="BP167" s="196"/>
-      <c r="BQ167" s="196"/>
-      <c r="BR167" s="197"/>
-      <c r="BS167" s="195"/>
-      <c r="BT167" s="195"/>
-      <c r="BU167" s="195"/>
-      <c r="BV167" s="195"/>
-      <c r="BW167" s="196"/>
-      <c r="BX167" s="196"/>
-      <c r="BY167" s="195"/>
-      <c r="BZ167" s="195"/>
-      <c r="CA167" s="195"/>
-      <c r="CB167" s="195"/>
-      <c r="CC167" s="195"/>
-      <c r="CD167" s="196"/>
-      <c r="CE167" s="196"/>
-      <c r="CF167" s="195"/>
-      <c r="CG167" s="195"/>
-      <c r="CH167" s="195"/>
-      <c r="CI167" s="195"/>
-      <c r="CJ167" s="195"/>
-      <c r="CK167" s="196"/>
-      <c r="CL167" s="201"/>
-      <c r="CM167" s="199"/>
-      <c r="CN167" s="195"/>
-      <c r="CO167" s="195"/>
-      <c r="CP167" s="195"/>
-      <c r="CQ167" s="197"/>
-      <c r="CR167" s="196"/>
-      <c r="CS167" s="196"/>
-      <c r="CT167" s="195"/>
-      <c r="CU167" s="195"/>
-      <c r="CV167" s="195"/>
-      <c r="CW167" s="195"/>
-      <c r="CX167" s="195"/>
-      <c r="CY167" s="196"/>
-      <c r="CZ167" s="196"/>
-      <c r="DA167" s="195"/>
-      <c r="DB167" s="195"/>
-      <c r="DC167" s="195"/>
-      <c r="DD167" s="195"/>
-      <c r="DE167" s="195"/>
-      <c r="DF167" s="201"/>
-      <c r="DG167" s="201"/>
-      <c r="DH167" s="195"/>
-      <c r="DI167" s="195"/>
-      <c r="DJ167" s="195"/>
-      <c r="DK167" s="195"/>
-      <c r="DL167" s="195"/>
-      <c r="DM167" s="196"/>
-      <c r="DN167" s="196"/>
-      <c r="DO167" s="197"/>
-      <c r="DP167" s="195"/>
-      <c r="DQ167" s="195"/>
-      <c r="DR167" s="195"/>
-      <c r="DS167" s="195"/>
-      <c r="DT167" s="196"/>
-      <c r="DU167" s="196"/>
-      <c r="DV167" s="217">
-        <v>1</v>
-      </c>
-      <c r="DW167" s="195"/>
-      <c r="DX167" s="195"/>
-      <c r="DY167" s="195"/>
-      <c r="DZ167" s="195"/>
-      <c r="EA167" s="196"/>
-      <c r="EB167" s="196"/>
-      <c r="EC167" s="197"/>
-      <c r="ED167" s="195"/>
-      <c r="EE167" s="195"/>
-      <c r="EF167" s="195"/>
-      <c r="EG167" s="195"/>
-      <c r="EH167" s="195"/>
+      <c r="C167" s="192">
+        <v>2</v>
+      </c>
+      <c r="D167" s="192">
+        <v>1</v>
+      </c>
+      <c r="E167" s="192">
+        <v>2</v>
+      </c>
+      <c r="F167" s="192">
+        <v>1</v>
+      </c>
+      <c r="G167" s="194"/>
+      <c r="H167" s="194"/>
+      <c r="I167" s="194"/>
+      <c r="J167" s="194"/>
+      <c r="K167" s="194"/>
+      <c r="L167" s="195"/>
+      <c r="M167" s="195"/>
+      <c r="N167" s="196"/>
+      <c r="O167" s="194"/>
+      <c r="P167" s="194"/>
+      <c r="Q167" s="194"/>
+      <c r="R167" s="194"/>
+      <c r="S167" s="195"/>
+      <c r="T167" s="195"/>
+      <c r="U167" s="196"/>
+      <c r="V167" s="194"/>
+      <c r="W167" s="194"/>
+      <c r="X167" s="194"/>
+      <c r="Y167" s="194"/>
+      <c r="Z167" s="195"/>
+      <c r="AA167" s="195"/>
+      <c r="AB167" s="194"/>
+      <c r="AC167" s="194"/>
+      <c r="AD167" s="194"/>
+      <c r="AE167" s="194"/>
+      <c r="AF167" s="194"/>
+      <c r="AG167" s="195"/>
+      <c r="AH167" s="195"/>
+      <c r="AI167" s="194"/>
+      <c r="AJ167" s="194"/>
+      <c r="AK167" s="194"/>
+      <c r="AL167" s="194"/>
+      <c r="AM167" s="194"/>
+      <c r="AN167" s="195"/>
+      <c r="AO167" s="195"/>
+      <c r="AP167" s="196"/>
+      <c r="AQ167" s="194"/>
+      <c r="AR167" s="194"/>
+      <c r="AS167" s="194"/>
+      <c r="AT167" s="194"/>
+      <c r="AU167" s="195"/>
+      <c r="AV167" s="195"/>
+      <c r="AW167" s="194"/>
+      <c r="AX167" s="194"/>
+      <c r="AY167" s="194"/>
+      <c r="AZ167" s="194"/>
+      <c r="BA167" s="194"/>
+      <c r="BB167" s="195"/>
+      <c r="BC167" s="195"/>
+      <c r="BD167" s="197"/>
+      <c r="BE167" s="194"/>
+      <c r="BF167" s="194"/>
+      <c r="BG167" s="194"/>
+      <c r="BH167" s="194"/>
+      <c r="BI167" s="195"/>
+      <c r="BJ167" s="195"/>
+      <c r="BK167" s="194"/>
+      <c r="BL167" s="194"/>
+      <c r="BM167" s="194"/>
+      <c r="BN167" s="194"/>
+      <c r="BO167" s="194"/>
+      <c r="BP167" s="195"/>
+      <c r="BQ167" s="195"/>
+      <c r="BR167" s="196"/>
+      <c r="BS167" s="194"/>
+      <c r="BT167" s="194"/>
+      <c r="BU167" s="194"/>
+      <c r="BV167" s="194"/>
+      <c r="BW167" s="195"/>
+      <c r="BX167" s="195"/>
+      <c r="BY167" s="194"/>
+      <c r="BZ167" s="194"/>
+      <c r="CA167" s="194"/>
+      <c r="CB167" s="194"/>
+      <c r="CC167" s="194"/>
+      <c r="CD167" s="195"/>
+      <c r="CE167" s="195"/>
+      <c r="CF167" s="194"/>
+      <c r="CG167" s="194"/>
+      <c r="CH167" s="194"/>
+      <c r="CI167" s="194"/>
+      <c r="CJ167" s="194"/>
+      <c r="CK167" s="195"/>
+      <c r="CL167" s="200"/>
+      <c r="CM167" s="198"/>
+      <c r="CN167" s="194"/>
+      <c r="CO167" s="194"/>
+      <c r="CP167" s="194"/>
+      <c r="CQ167" s="196"/>
+      <c r="CR167" s="195"/>
+      <c r="CS167" s="195"/>
+      <c r="CT167" s="194"/>
+      <c r="CU167" s="194"/>
+      <c r="CV167" s="194"/>
+      <c r="CW167" s="194"/>
+      <c r="CX167" s="194"/>
+      <c r="CY167" s="195"/>
+      <c r="CZ167" s="195"/>
+      <c r="DA167" s="194"/>
+      <c r="DB167" s="194"/>
+      <c r="DC167" s="194"/>
+      <c r="DD167" s="194"/>
+      <c r="DE167" s="194"/>
+      <c r="DF167" s="200"/>
+      <c r="DG167" s="200"/>
+      <c r="DH167" s="194"/>
+      <c r="DI167" s="194"/>
+      <c r="DJ167" s="194"/>
+      <c r="DK167" s="194"/>
+      <c r="DL167" s="194"/>
+      <c r="DM167" s="195"/>
+      <c r="DN167" s="195"/>
+      <c r="DO167" s="196"/>
+      <c r="DP167" s="194"/>
+      <c r="DQ167" s="194"/>
+      <c r="DR167" s="194"/>
+      <c r="DS167" s="194"/>
+      <c r="DT167" s="195"/>
+      <c r="DU167" s="195"/>
+      <c r="DV167" s="201">
+        <v>1</v>
+      </c>
+      <c r="DW167" s="194"/>
+      <c r="DX167" s="194"/>
+      <c r="DY167" s="194"/>
+      <c r="DZ167" s="194"/>
+      <c r="EA167" s="195"/>
+      <c r="EB167" s="195"/>
+      <c r="EC167" s="196"/>
+      <c r="ED167" s="194"/>
+      <c r="EE167" s="194"/>
+      <c r="EF167" s="194"/>
+      <c r="EG167" s="194"/>
+      <c r="EH167" s="194"/>
     </row>
     <row r="168" spans="1:138" ht="39" customHeight="1">
       <c r="CM168" s="67"/>
@@ -8781,7 +8787,7 @@
       </c>
       <c r="AR181" s="88"/>
       <c r="AS181" s="89"/>
-      <c r="AT181" s="153"/>
+      <c r="AT181" s="152"/>
       <c r="AU181" s="88"/>
       <c r="AV181" s="88"/>
       <c r="AW181" s="88"/>
@@ -8795,7 +8801,7 @@
       <c r="BE181" s="88"/>
       <c r="BF181" s="88"/>
       <c r="BG181" s="88"/>
-      <c r="BH181" s="154"/>
+      <c r="BH181" s="153"/>
       <c r="BI181" s="88"/>
       <c r="BJ181" s="88"/>
       <c r="BK181" s="88"/>
@@ -8809,7 +8815,7 @@
       <c r="BS181" s="88"/>
       <c r="BT181" s="88"/>
       <c r="BU181" s="88"/>
-      <c r="BV181" s="154"/>
+      <c r="BV181" s="153"/>
       <c r="BW181" s="89"/>
       <c r="BX181" s="90"/>
       <c r="BY181" s="88"/>
@@ -8823,7 +8829,7 @@
       <c r="CG181" s="88"/>
       <c r="CH181" s="88"/>
       <c r="CI181" s="88"/>
-      <c r="CJ181" s="154"/>
+      <c r="CJ181" s="153"/>
       <c r="CK181" s="88"/>
       <c r="CL181" s="88"/>
       <c r="CM181" s="88"/>
@@ -8837,7 +8843,7 @@
       <c r="CU181" s="88"/>
       <c r="CV181" s="88"/>
       <c r="CW181" s="88"/>
-      <c r="CX181" s="154"/>
+      <c r="CX181" s="153"/>
       <c r="CY181" s="88"/>
       <c r="CZ181" s="88"/>
       <c r="DA181" s="67"/>
@@ -8870,21 +8876,21 @@
       <c r="F182">
         <v>0</v>
       </c>
-      <c r="AT182" s="163">
-        <v>1</v>
-      </c>
-      <c r="AU182" s="150"/>
+      <c r="AT182" s="162">
+        <v>1</v>
+      </c>
+      <c r="AU182" s="149"/>
       <c r="BB182" s="35"/>
-      <c r="BC182" s="164"/>
-      <c r="BD182" s="151"/>
+      <c r="BC182" s="163"/>
+      <c r="BD182" s="150"/>
       <c r="BG182" s="31"/>
-      <c r="BH182" s="163">
+      <c r="BH182" s="162">
         <v>1</v>
       </c>
       <c r="BI182" s="128"/>
       <c r="BS182" s="67"/>
       <c r="BU182" s="31"/>
-      <c r="BV182" s="164"/>
+      <c r="BV182" s="163"/>
       <c r="BW182" s="132"/>
       <c r="CB182" s="79">
         <v>1</v>
@@ -8892,14 +8898,14 @@
       <c r="CC182" s="67"/>
       <c r="CF182" s="67"/>
       <c r="CI182" s="31"/>
-      <c r="CJ182" s="163">
+      <c r="CJ182" s="162">
         <v>1</v>
       </c>
       <c r="CK182" s="128"/>
       <c r="CM182" s="67"/>
       <c r="CQ182" s="6"/>
       <c r="CW182" s="31"/>
-      <c r="CX182" s="163">
+      <c r="CX182" s="162">
         <v>1</v>
       </c>
       <c r="CY182" s="128"/>
@@ -8911,13 +8917,13 @@
       <c r="D183" t="s">
         <v>137</v>
       </c>
-      <c r="AT183" s="158"/>
+      <c r="AT183" s="157"/>
       <c r="AU183" s="80"/>
       <c r="BC183" s="15"/>
       <c r="BG183" s="79">
         <v>3</v>
       </c>
-      <c r="BH183" s="159"/>
+      <c r="BH183" s="158"/>
       <c r="BM183" s="79">
         <v>3</v>
       </c>
@@ -8927,7 +8933,7 @@
       <c r="BU183" s="79">
         <v>2</v>
       </c>
-      <c r="BV183" s="159">
+      <c r="BV183" s="158">
         <v>3</v>
       </c>
       <c r="CA183" s="79">
@@ -8940,7 +8946,7 @@
       <c r="CH183" s="79">
         <v>2</v>
       </c>
-      <c r="CJ183" s="160"/>
+      <c r="CJ183" s="159"/>
       <c r="CM183" s="67"/>
       <c r="CO183" s="79">
         <v>2</v>
@@ -8949,7 +8955,7 @@
       <c r="CV183" s="79">
         <v>2</v>
       </c>
-      <c r="CX183" s="160"/>
+      <c r="CX183" s="159"/>
       <c r="DC183" s="81">
         <v>2</v>
       </c>
@@ -8970,29 +8976,29 @@
       <c r="E184">
         <v>4</v>
       </c>
-      <c r="AT184" s="163">
+      <c r="AT184" s="162">
         <v>1</v>
       </c>
       <c r="AU184" s="128"/>
       <c r="BG184" s="31"/>
-      <c r="BH184" s="163">
+      <c r="BH184" s="162">
         <v>1</v>
       </c>
       <c r="BI184" s="128"/>
       <c r="BU184" s="31"/>
-      <c r="BV184" s="163">
+      <c r="BV184" s="162">
         <v>1</v>
       </c>
       <c r="BW184" s="132"/>
       <c r="CI184" s="31"/>
-      <c r="CJ184" s="163">
+      <c r="CJ184" s="162">
         <v>1</v>
       </c>
       <c r="CK184" s="128"/>
       <c r="CM184" s="67"/>
       <c r="CQ184" s="6"/>
       <c r="CW184" s="31"/>
-      <c r="CX184" s="163">
+      <c r="CX184" s="162">
         <v>1</v>
       </c>
       <c r="CY184" s="128"/>

--- a/konzept/projektplan.xlsx
+++ b/konzept/projektplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="13080" yWindow="880" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -562,9 +562,6 @@
     <t>Concrete Use Cases erarbeiten</t>
   </si>
   <si>
-    <t>Concrete Use Cases nach CM überarbeiten</t>
-  </si>
-  <si>
     <t>Anforderungsanalyse (funk., qual) anhand Ergebnisse überarbeiten</t>
   </si>
   <si>
@@ -737,6 +734,9 @@
   </si>
   <si>
     <t>Evaluation des AP2 mit Ansatz eines einfachen cognitiv walkthrough</t>
+  </si>
+  <si>
+    <t>Concrete Use Cases  überarbeiten</t>
   </si>
 </sst>
 </file>
@@ -1739,7 +1739,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1992,6 +1992,7 @@
     <xf numFmtId="0" fontId="0" fillId="32" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2037,7 +2038,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="99">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -2472,8 +2473,8 @@
   </sheetPr>
   <dimension ref="A1:EH318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="BD59" sqref="BD59"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2698,155 +2699,155 @@
       <c r="EH1" s="45"/>
     </row>
     <row r="2" spans="1:138">
-      <c r="C2" s="212" t="s">
+      <c r="C2" s="213" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212" t="s">
+      <c r="D2" s="213"/>
+      <c r="E2" s="213" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="213"/>
-      <c r="G2" s="209" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="211"/>
-      <c r="O2" s="214" t="s">
+      <c r="F2" s="214"/>
+      <c r="G2" s="210" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="211"/>
+      <c r="N2" s="212"/>
+      <c r="O2" s="215" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="215"/>
-      <c r="Q2" s="215"/>
-      <c r="R2" s="215"/>
-      <c r="S2" s="215"/>
-      <c r="T2" s="215"/>
-      <c r="U2" s="215"/>
-      <c r="V2" s="215"/>
-      <c r="W2" s="215"/>
-      <c r="X2" s="215"/>
-      <c r="Y2" s="215"/>
-      <c r="Z2" s="215"/>
-      <c r="AA2" s="215"/>
-      <c r="AB2" s="215"/>
-      <c r="AC2" s="215"/>
-      <c r="AD2" s="215"/>
-      <c r="AE2" s="215"/>
-      <c r="AF2" s="215"/>
-      <c r="AG2" s="215"/>
-      <c r="AH2" s="215"/>
-      <c r="AI2" s="215"/>
-      <c r="AJ2" s="215"/>
-      <c r="AK2" s="215"/>
-      <c r="AL2" s="215"/>
-      <c r="AM2" s="215"/>
-      <c r="AN2" s="215"/>
-      <c r="AO2" s="215"/>
-      <c r="AP2" s="215"/>
-      <c r="AQ2" s="215"/>
-      <c r="AR2" s="215"/>
-      <c r="AS2" s="216"/>
-      <c r="AT2" s="206" t="s">
+      <c r="P2" s="216"/>
+      <c r="Q2" s="216"/>
+      <c r="R2" s="216"/>
+      <c r="S2" s="216"/>
+      <c r="T2" s="216"/>
+      <c r="U2" s="216"/>
+      <c r="V2" s="216"/>
+      <c r="W2" s="216"/>
+      <c r="X2" s="216"/>
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="216"/>
+      <c r="AA2" s="216"/>
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="216"/>
+      <c r="AD2" s="216"/>
+      <c r="AE2" s="216"/>
+      <c r="AF2" s="216"/>
+      <c r="AG2" s="216"/>
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="216"/>
+      <c r="AJ2" s="216"/>
+      <c r="AK2" s="216"/>
+      <c r="AL2" s="216"/>
+      <c r="AM2" s="216"/>
+      <c r="AN2" s="216"/>
+      <c r="AO2" s="216"/>
+      <c r="AP2" s="216"/>
+      <c r="AQ2" s="216"/>
+      <c r="AR2" s="216"/>
+      <c r="AS2" s="217"/>
+      <c r="AT2" s="207" t="s">
         <v>34</v>
       </c>
-      <c r="AU2" s="207"/>
-      <c r="AV2" s="207"/>
-      <c r="AW2" s="207"/>
-      <c r="AX2" s="207"/>
-      <c r="AY2" s="207"/>
-      <c r="AZ2" s="207"/>
-      <c r="BA2" s="207"/>
-      <c r="BB2" s="207"/>
-      <c r="BC2" s="207"/>
-      <c r="BD2" s="207"/>
-      <c r="BE2" s="207"/>
-      <c r="BF2" s="207"/>
-      <c r="BG2" s="207"/>
-      <c r="BH2" s="207"/>
-      <c r="BI2" s="207"/>
-      <c r="BJ2" s="207"/>
-      <c r="BK2" s="207"/>
-      <c r="BL2" s="207"/>
-      <c r="BM2" s="207"/>
-      <c r="BN2" s="207"/>
-      <c r="BO2" s="207"/>
-      <c r="BP2" s="207"/>
-      <c r="BQ2" s="207"/>
-      <c r="BR2" s="207"/>
-      <c r="BS2" s="207"/>
-      <c r="BT2" s="207"/>
-      <c r="BU2" s="207"/>
-      <c r="BV2" s="207"/>
-      <c r="BW2" s="217"/>
-      <c r="BX2" s="218" t="s">
+      <c r="AU2" s="208"/>
+      <c r="AV2" s="208"/>
+      <c r="AW2" s="208"/>
+      <c r="AX2" s="208"/>
+      <c r="AY2" s="208"/>
+      <c r="AZ2" s="208"/>
+      <c r="BA2" s="208"/>
+      <c r="BB2" s="208"/>
+      <c r="BC2" s="208"/>
+      <c r="BD2" s="208"/>
+      <c r="BE2" s="208"/>
+      <c r="BF2" s="208"/>
+      <c r="BG2" s="208"/>
+      <c r="BH2" s="208"/>
+      <c r="BI2" s="208"/>
+      <c r="BJ2" s="208"/>
+      <c r="BK2" s="208"/>
+      <c r="BL2" s="208"/>
+      <c r="BM2" s="208"/>
+      <c r="BN2" s="208"/>
+      <c r="BO2" s="208"/>
+      <c r="BP2" s="208"/>
+      <c r="BQ2" s="208"/>
+      <c r="BR2" s="208"/>
+      <c r="BS2" s="208"/>
+      <c r="BT2" s="208"/>
+      <c r="BU2" s="208"/>
+      <c r="BV2" s="208"/>
+      <c r="BW2" s="218"/>
+      <c r="BX2" s="219" t="s">
         <v>35</v>
       </c>
-      <c r="BY2" s="219"/>
-      <c r="BZ2" s="219"/>
-      <c r="CA2" s="219"/>
-      <c r="CB2" s="219"/>
-      <c r="CC2" s="219"/>
-      <c r="CD2" s="219"/>
-      <c r="CE2" s="219"/>
-      <c r="CF2" s="219"/>
-      <c r="CG2" s="219"/>
-      <c r="CH2" s="219"/>
-      <c r="CI2" s="219"/>
-      <c r="CJ2" s="219"/>
-      <c r="CK2" s="219"/>
-      <c r="CL2" s="219"/>
-      <c r="CM2" s="219"/>
-      <c r="CN2" s="219"/>
-      <c r="CO2" s="219"/>
-      <c r="CP2" s="219"/>
-      <c r="CQ2" s="219"/>
-      <c r="CR2" s="219"/>
-      <c r="CS2" s="219"/>
-      <c r="CT2" s="219"/>
-      <c r="CU2" s="219"/>
-      <c r="CV2" s="219"/>
-      <c r="CW2" s="219"/>
-      <c r="CX2" s="219"/>
-      <c r="CY2" s="219"/>
-      <c r="CZ2" s="219"/>
-      <c r="DA2" s="219"/>
-      <c r="DB2" s="220"/>
-      <c r="DC2" s="206" t="s">
+      <c r="BY2" s="220"/>
+      <c r="BZ2" s="220"/>
+      <c r="CA2" s="220"/>
+      <c r="CB2" s="220"/>
+      <c r="CC2" s="220"/>
+      <c r="CD2" s="220"/>
+      <c r="CE2" s="220"/>
+      <c r="CF2" s="220"/>
+      <c r="CG2" s="220"/>
+      <c r="CH2" s="220"/>
+      <c r="CI2" s="220"/>
+      <c r="CJ2" s="220"/>
+      <c r="CK2" s="220"/>
+      <c r="CL2" s="220"/>
+      <c r="CM2" s="220"/>
+      <c r="CN2" s="220"/>
+      <c r="CO2" s="220"/>
+      <c r="CP2" s="220"/>
+      <c r="CQ2" s="220"/>
+      <c r="CR2" s="220"/>
+      <c r="CS2" s="220"/>
+      <c r="CT2" s="220"/>
+      <c r="CU2" s="220"/>
+      <c r="CV2" s="220"/>
+      <c r="CW2" s="220"/>
+      <c r="CX2" s="220"/>
+      <c r="CY2" s="220"/>
+      <c r="CZ2" s="220"/>
+      <c r="DA2" s="220"/>
+      <c r="DB2" s="221"/>
+      <c r="DC2" s="207" t="s">
         <v>36</v>
       </c>
-      <c r="DD2" s="207"/>
-      <c r="DE2" s="207"/>
-      <c r="DF2" s="207"/>
-      <c r="DG2" s="207"/>
-      <c r="DH2" s="207"/>
-      <c r="DI2" s="207"/>
-      <c r="DJ2" s="207"/>
-      <c r="DK2" s="207"/>
-      <c r="DL2" s="207"/>
-      <c r="DM2" s="207"/>
-      <c r="DN2" s="207"/>
-      <c r="DO2" s="207"/>
-      <c r="DP2" s="207"/>
-      <c r="DQ2" s="207"/>
-      <c r="DR2" s="207"/>
-      <c r="DS2" s="207"/>
-      <c r="DT2" s="207"/>
-      <c r="DU2" s="207"/>
-      <c r="DV2" s="207"/>
-      <c r="DW2" s="207"/>
-      <c r="DX2" s="207"/>
-      <c r="DY2" s="207"/>
-      <c r="DZ2" s="207"/>
-      <c r="EA2" s="207"/>
-      <c r="EB2" s="207"/>
-      <c r="EC2" s="207"/>
-      <c r="ED2" s="207"/>
-      <c r="EE2" s="207"/>
-      <c r="EF2" s="207"/>
-      <c r="EG2" s="208"/>
+      <c r="DD2" s="208"/>
+      <c r="DE2" s="208"/>
+      <c r="DF2" s="208"/>
+      <c r="DG2" s="208"/>
+      <c r="DH2" s="208"/>
+      <c r="DI2" s="208"/>
+      <c r="DJ2" s="208"/>
+      <c r="DK2" s="208"/>
+      <c r="DL2" s="208"/>
+      <c r="DM2" s="208"/>
+      <c r="DN2" s="208"/>
+      <c r="DO2" s="208"/>
+      <c r="DP2" s="208"/>
+      <c r="DQ2" s="208"/>
+      <c r="DR2" s="208"/>
+      <c r="DS2" s="208"/>
+      <c r="DT2" s="208"/>
+      <c r="DU2" s="208"/>
+      <c r="DV2" s="208"/>
+      <c r="DW2" s="208"/>
+      <c r="DX2" s="208"/>
+      <c r="DY2" s="208"/>
+      <c r="DZ2" s="208"/>
+      <c r="EA2" s="208"/>
+      <c r="EB2" s="208"/>
+      <c r="EC2" s="208"/>
+      <c r="ED2" s="208"/>
+      <c r="EE2" s="208"/>
+      <c r="EF2" s="208"/>
+      <c r="EG2" s="209"/>
     </row>
     <row r="3" spans="1:138" s="21" customFormat="1" ht="16" thickBot="1">
       <c r="A3" s="20" t="s">
@@ -4976,13 +4977,13 @@
       <c r="BK57" s="67"/>
       <c r="BN57" s="67"/>
       <c r="BO57" s="67"/>
-      <c r="BQ57" s="177">
-        <v>4</v>
-      </c>
       <c r="BS57" s="67"/>
       <c r="BT57" s="67"/>
       <c r="BU57" s="67"/>
       <c r="BV57" s="67"/>
+      <c r="BW57" s="222">
+        <v>4</v>
+      </c>
       <c r="BX57" s="190"/>
       <c r="BY57" s="147"/>
       <c r="BZ57" s="130"/>
@@ -4996,7 +4997,7 @@
     </row>
     <row r="58" spans="1:104" ht="16" thickBot="1">
       <c r="B58" t="s">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -5057,7 +5058,7 @@
       </c>
       <c r="AW59" s="67"/>
       <c r="BC59" s="34"/>
-      <c r="BD59" s="221"/>
+      <c r="BD59" s="206"/>
       <c r="BE59" s="130"/>
       <c r="BK59" s="67"/>
       <c r="BL59" s="67"/>
@@ -5109,7 +5110,7 @@
         <v>154</v>
       </c>
       <c r="B61" s="92" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -5158,7 +5159,7 @@
     </row>
     <row r="62" spans="1:104" ht="16" thickBot="1">
       <c r="B62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -5290,7 +5291,7 @@
     </row>
     <row r="65" spans="1:108" ht="16" thickBot="1">
       <c r="B65" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -5335,7 +5336,7 @@
     </row>
     <row r="66" spans="1:108" ht="16" thickBot="1">
       <c r="B66" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -5457,7 +5458,7 @@
     </row>
     <row r="70" spans="1:108" ht="16" thickBot="1">
       <c r="B70" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -5496,7 +5497,7 @@
     </row>
     <row r="71" spans="1:108" ht="31" thickBot="1">
       <c r="B71" s="92" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -5534,7 +5535,7 @@
     </row>
     <row r="72" spans="1:108" ht="16" thickBot="1">
       <c r="B72" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -5617,7 +5618,7 @@
     </row>
     <row r="75" spans="1:108" ht="16" thickBot="1">
       <c r="B75" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -5658,7 +5659,7 @@
     </row>
     <row r="76" spans="1:108" ht="31" thickBot="1">
       <c r="B76" s="92" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -5693,7 +5694,7 @@
     </row>
     <row r="77" spans="1:108" ht="31" thickBot="1">
       <c r="B77" s="92" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -5859,7 +5860,7 @@
     </row>
     <row r="83" spans="1:111" ht="16" thickBot="1">
       <c r="B83" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -5894,7 +5895,7 @@
     </row>
     <row r="84" spans="1:111" ht="31" thickBot="1">
       <c r="B84" s="92" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -5929,7 +5930,7 @@
     </row>
     <row r="85" spans="1:111">
       <c r="B85" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -5964,7 +5965,7 @@
     </row>
     <row r="86" spans="1:111" ht="31" thickBot="1">
       <c r="B86" s="92" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -5999,7 +6000,7 @@
     </row>
     <row r="87" spans="1:111" ht="16" thickBot="1">
       <c r="B87" s="92" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -6100,7 +6101,7 @@
     </row>
     <row r="91" spans="1:111" ht="16" thickBot="1">
       <c r="B91" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -6141,7 +6142,7 @@
     </row>
     <row r="93" spans="1:111" ht="16" thickBot="1">
       <c r="B93" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -6166,7 +6167,7 @@
     </row>
     <row r="94" spans="1:111" ht="16" thickBot="1">
       <c r="B94" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -6191,7 +6192,7 @@
     </row>
     <row r="95" spans="1:111" ht="16" thickBot="1">
       <c r="B95" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -6216,7 +6217,7 @@
     </row>
     <row r="96" spans="1:111" ht="16" thickBot="1">
       <c r="B96" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -6374,7 +6375,7 @@
     </row>
     <row r="107" spans="1:112">
       <c r="B107" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C107">
         <v>3</v>
@@ -6398,7 +6399,7 @@
     </row>
     <row r="108" spans="1:112">
       <c r="B108" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -6422,7 +6423,7 @@
     </row>
     <row r="109" spans="1:112">
       <c r="B109" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C109">
         <v>8</v>
@@ -6446,7 +6447,7 @@
     </row>
     <row r="110" spans="1:112">
       <c r="B110" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C110">
         <v>2</v>
@@ -6512,7 +6513,7 @@
     </row>
     <row r="113" spans="1:95">
       <c r="B113" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C113">
         <v>5</v>
@@ -6536,7 +6537,7 @@
     </row>
     <row r="114" spans="1:95">
       <c r="B114" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C114">
         <v>3</v>
@@ -6602,7 +6603,7 @@
     </row>
     <row r="117" spans="1:95">
       <c r="B117" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C117">
         <v>2</v>
@@ -6626,7 +6627,7 @@
     </row>
     <row r="118" spans="1:95">
       <c r="B118" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C118">
         <v>3</v>
@@ -6694,7 +6695,7 @@
     </row>
     <row r="121" spans="1:95">
       <c r="B121" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C121">
         <v>2</v>
@@ -6718,7 +6719,7 @@
     </row>
     <row r="122" spans="1:95">
       <c r="B122" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C122">
         <v>10</v>
@@ -6784,7 +6785,7 @@
     </row>
     <row r="125" spans="1:95">
       <c r="B125" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C125">
         <v>2</v>
@@ -6808,7 +6809,7 @@
     </row>
     <row r="126" spans="1:95">
       <c r="B126" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C126">
         <v>3</v>
@@ -6860,10 +6861,10 @@
     </row>
     <row r="128" spans="1:95">
       <c r="A128" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B128" t="s">
         <v>213</v>
-      </c>
-      <c r="B128" t="s">
-        <v>214</v>
       </c>
       <c r="C128">
         <v>3</v>
@@ -6962,10 +6963,10 @@
     </row>
     <row r="132" spans="1:125">
       <c r="A132" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B132" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BO132" s="85"/>
       <c r="BP132" s="85"/>
@@ -6977,7 +6978,7 @@
     </row>
     <row r="133" spans="1:125">
       <c r="B133" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -7001,7 +7002,7 @@
     </row>
     <row r="134" spans="1:125">
       <c r="B134" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C134">
         <v>2</v>
@@ -7025,7 +7026,7 @@
     </row>
     <row r="135" spans="1:125">
       <c r="B135" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C135">
         <v>5</v>
@@ -7049,7 +7050,7 @@
     </row>
     <row r="136" spans="1:125">
       <c r="B136" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C136">
         <v>4</v>
@@ -7073,7 +7074,7 @@
     </row>
     <row r="137" spans="1:125">
       <c r="B137" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C137">
         <v>4</v>
@@ -7097,7 +7098,7 @@
     </row>
     <row r="138" spans="1:125">
       <c r="B138" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -7121,7 +7122,7 @@
     </row>
     <row r="139" spans="1:125">
       <c r="B139" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C139">
         <v>3</v>
@@ -7145,7 +7146,7 @@
     </row>
     <row r="140" spans="1:125">
       <c r="B140" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C140">
         <v>3</v>
@@ -7169,7 +7170,7 @@
     </row>
     <row r="141" spans="1:125">
       <c r="B141" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C141">
         <v>2</v>
@@ -7193,7 +7194,7 @@
     </row>
     <row r="142" spans="1:125">
       <c r="B142" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C142">
         <v>10</v>
@@ -7211,10 +7212,10 @@
     </row>
     <row r="143" spans="1:125">
       <c r="A143" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B143" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="BU143" s="85"/>
       <c r="BV143" s="85"/>
@@ -7226,7 +7227,7 @@
     </row>
     <row r="144" spans="1:125">
       <c r="B144" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C144">
         <v>5</v>
@@ -7250,7 +7251,7 @@
     </row>
     <row r="145" spans="1:116">
       <c r="B145" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BO145" s="85"/>
       <c r="BP145" s="85"/>
@@ -7262,7 +7263,7 @@
     </row>
     <row r="146" spans="1:116">
       <c r="B146" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BO146" s="85"/>
       <c r="BP146" s="85"/>
@@ -7274,7 +7275,7 @@
     </row>
     <row r="147" spans="1:116">
       <c r="B147" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C147">
         <v>5</v>
@@ -7292,10 +7293,10 @@
     </row>
     <row r="148" spans="1:116">
       <c r="A148" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B148" t="s">
         <v>218</v>
-      </c>
-      <c r="B148" t="s">
-        <v>219</v>
       </c>
       <c r="CB148" s="85"/>
       <c r="CC148" s="85"/>
@@ -7307,7 +7308,7 @@
     </row>
     <row r="149" spans="1:116">
       <c r="B149" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C149">
         <v>3</v>
@@ -7330,7 +7331,7 @@
     </row>
     <row r="150" spans="1:116">
       <c r="B150" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -7353,7 +7354,7 @@
     </row>
     <row r="151" spans="1:116">
       <c r="B151" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C151">
         <v>5</v>
@@ -7376,7 +7377,7 @@
     </row>
     <row r="152" spans="1:116">
       <c r="B152" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -7399,7 +7400,7 @@
     </row>
     <row r="153" spans="1:116">
       <c r="B153" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C153">
         <v>2</v>
@@ -7422,7 +7423,7 @@
     </row>
     <row r="154" spans="1:116">
       <c r="B154" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -7445,14 +7446,14 @@
     </row>
     <row r="155" spans="1:116">
       <c r="B155" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="CM155" s="67"/>
       <c r="CQ155" s="6"/>
     </row>
     <row r="156" spans="1:116">
       <c r="B156" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C156">
         <v>8</v>
@@ -7771,10 +7772,10 @@
     </row>
     <row r="163" spans="1:138">
       <c r="A163" s="193" t="s">
+        <v>198</v>
+      </c>
+      <c r="B163" s="192" t="s">
         <v>199</v>
-      </c>
-      <c r="B163" s="192" t="s">
-        <v>200</v>
       </c>
       <c r="C163" s="192"/>
       <c r="D163" s="192"/>
@@ -7916,7 +7917,7 @@
     <row r="164" spans="1:138">
       <c r="A164" s="193"/>
       <c r="B164" s="192" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C164" s="192">
         <v>2</v>
@@ -8068,7 +8069,7 @@
     <row r="165" spans="1:138">
       <c r="A165" s="193"/>
       <c r="B165" s="192" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C165" s="192">
         <v>2</v>
@@ -8220,7 +8221,7 @@
     <row r="166" spans="1:138">
       <c r="A166" s="193"/>
       <c r="B166" s="192" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C166" s="192">
         <v>1</v>
@@ -8372,7 +8373,7 @@
     <row r="167" spans="1:138">
       <c r="A167" s="193"/>
       <c r="B167" s="192" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C167" s="192">
         <v>2</v>

--- a/konzept/projektplan.xlsx
+++ b/konzept/projektplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13080" yWindow="880" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="4220" yWindow="500" windowWidth="34020" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1046,7 +1046,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1637,6 +1637,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1739,7 +1778,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1992,7 +2031,6 @@
     <xf numFmtId="0" fontId="0" fillId="32" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2039,6 +2077,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="99">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -2473,8 +2516,8 @@
   </sheetPr>
   <dimension ref="A1:EH318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="Z126" sqref="Z126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2699,155 +2742,155 @@
       <c r="EH1" s="45"/>
     </row>
     <row r="2" spans="1:138">
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="212" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213" t="s">
+      <c r="D2" s="212"/>
+      <c r="E2" s="212" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="214"/>
-      <c r="G2" s="210" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
-      <c r="L2" s="211"/>
-      <c r="M2" s="211"/>
-      <c r="N2" s="212"/>
-      <c r="O2" s="215" t="s">
+      <c r="F2" s="213"/>
+      <c r="G2" s="209" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="211"/>
+      <c r="O2" s="214" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="216"/>
-      <c r="Q2" s="216"/>
-      <c r="R2" s="216"/>
-      <c r="S2" s="216"/>
-      <c r="T2" s="216"/>
-      <c r="U2" s="216"/>
-      <c r="V2" s="216"/>
-      <c r="W2" s="216"/>
-      <c r="X2" s="216"/>
-      <c r="Y2" s="216"/>
-      <c r="Z2" s="216"/>
-      <c r="AA2" s="216"/>
-      <c r="AB2" s="216"/>
-      <c r="AC2" s="216"/>
-      <c r="AD2" s="216"/>
-      <c r="AE2" s="216"/>
-      <c r="AF2" s="216"/>
-      <c r="AG2" s="216"/>
-      <c r="AH2" s="216"/>
-      <c r="AI2" s="216"/>
-      <c r="AJ2" s="216"/>
-      <c r="AK2" s="216"/>
-      <c r="AL2" s="216"/>
-      <c r="AM2" s="216"/>
-      <c r="AN2" s="216"/>
-      <c r="AO2" s="216"/>
-      <c r="AP2" s="216"/>
-      <c r="AQ2" s="216"/>
-      <c r="AR2" s="216"/>
-      <c r="AS2" s="217"/>
-      <c r="AT2" s="207" t="s">
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="215"/>
+      <c r="U2" s="215"/>
+      <c r="V2" s="215"/>
+      <c r="W2" s="215"/>
+      <c r="X2" s="215"/>
+      <c r="Y2" s="215"/>
+      <c r="Z2" s="215"/>
+      <c r="AA2" s="215"/>
+      <c r="AB2" s="215"/>
+      <c r="AC2" s="215"/>
+      <c r="AD2" s="215"/>
+      <c r="AE2" s="215"/>
+      <c r="AF2" s="215"/>
+      <c r="AG2" s="215"/>
+      <c r="AH2" s="215"/>
+      <c r="AI2" s="215"/>
+      <c r="AJ2" s="215"/>
+      <c r="AK2" s="215"/>
+      <c r="AL2" s="215"/>
+      <c r="AM2" s="215"/>
+      <c r="AN2" s="215"/>
+      <c r="AO2" s="215"/>
+      <c r="AP2" s="215"/>
+      <c r="AQ2" s="215"/>
+      <c r="AR2" s="215"/>
+      <c r="AS2" s="216"/>
+      <c r="AT2" s="206" t="s">
         <v>34</v>
       </c>
-      <c r="AU2" s="208"/>
-      <c r="AV2" s="208"/>
-      <c r="AW2" s="208"/>
-      <c r="AX2" s="208"/>
-      <c r="AY2" s="208"/>
-      <c r="AZ2" s="208"/>
-      <c r="BA2" s="208"/>
-      <c r="BB2" s="208"/>
-      <c r="BC2" s="208"/>
-      <c r="BD2" s="208"/>
-      <c r="BE2" s="208"/>
-      <c r="BF2" s="208"/>
-      <c r="BG2" s="208"/>
-      <c r="BH2" s="208"/>
-      <c r="BI2" s="208"/>
-      <c r="BJ2" s="208"/>
-      <c r="BK2" s="208"/>
-      <c r="BL2" s="208"/>
-      <c r="BM2" s="208"/>
-      <c r="BN2" s="208"/>
-      <c r="BO2" s="208"/>
-      <c r="BP2" s="208"/>
-      <c r="BQ2" s="208"/>
-      <c r="BR2" s="208"/>
-      <c r="BS2" s="208"/>
-      <c r="BT2" s="208"/>
-      <c r="BU2" s="208"/>
-      <c r="BV2" s="208"/>
-      <c r="BW2" s="218"/>
-      <c r="BX2" s="219" t="s">
+      <c r="AU2" s="207"/>
+      <c r="AV2" s="207"/>
+      <c r="AW2" s="207"/>
+      <c r="AX2" s="207"/>
+      <c r="AY2" s="207"/>
+      <c r="AZ2" s="207"/>
+      <c r="BA2" s="207"/>
+      <c r="BB2" s="207"/>
+      <c r="BC2" s="207"/>
+      <c r="BD2" s="207"/>
+      <c r="BE2" s="207"/>
+      <c r="BF2" s="207"/>
+      <c r="BG2" s="207"/>
+      <c r="BH2" s="207"/>
+      <c r="BI2" s="207"/>
+      <c r="BJ2" s="207"/>
+      <c r="BK2" s="207"/>
+      <c r="BL2" s="207"/>
+      <c r="BM2" s="207"/>
+      <c r="BN2" s="207"/>
+      <c r="BO2" s="207"/>
+      <c r="BP2" s="207"/>
+      <c r="BQ2" s="207"/>
+      <c r="BR2" s="207"/>
+      <c r="BS2" s="207"/>
+      <c r="BT2" s="207"/>
+      <c r="BU2" s="207"/>
+      <c r="BV2" s="207"/>
+      <c r="BW2" s="217"/>
+      <c r="BX2" s="218" t="s">
         <v>35</v>
       </c>
-      <c r="BY2" s="220"/>
-      <c r="BZ2" s="220"/>
-      <c r="CA2" s="220"/>
-      <c r="CB2" s="220"/>
-      <c r="CC2" s="220"/>
-      <c r="CD2" s="220"/>
-      <c r="CE2" s="220"/>
-      <c r="CF2" s="220"/>
-      <c r="CG2" s="220"/>
-      <c r="CH2" s="220"/>
-      <c r="CI2" s="220"/>
-      <c r="CJ2" s="220"/>
-      <c r="CK2" s="220"/>
-      <c r="CL2" s="220"/>
-      <c r="CM2" s="220"/>
-      <c r="CN2" s="220"/>
-      <c r="CO2" s="220"/>
-      <c r="CP2" s="220"/>
-      <c r="CQ2" s="220"/>
-      <c r="CR2" s="220"/>
-      <c r="CS2" s="220"/>
-      <c r="CT2" s="220"/>
-      <c r="CU2" s="220"/>
-      <c r="CV2" s="220"/>
-      <c r="CW2" s="220"/>
-      <c r="CX2" s="220"/>
-      <c r="CY2" s="220"/>
-      <c r="CZ2" s="220"/>
-      <c r="DA2" s="220"/>
-      <c r="DB2" s="221"/>
-      <c r="DC2" s="207" t="s">
+      <c r="BY2" s="219"/>
+      <c r="BZ2" s="219"/>
+      <c r="CA2" s="219"/>
+      <c r="CB2" s="219"/>
+      <c r="CC2" s="219"/>
+      <c r="CD2" s="219"/>
+      <c r="CE2" s="219"/>
+      <c r="CF2" s="219"/>
+      <c r="CG2" s="219"/>
+      <c r="CH2" s="219"/>
+      <c r="CI2" s="219"/>
+      <c r="CJ2" s="219"/>
+      <c r="CK2" s="219"/>
+      <c r="CL2" s="219"/>
+      <c r="CM2" s="219"/>
+      <c r="CN2" s="219"/>
+      <c r="CO2" s="219"/>
+      <c r="CP2" s="219"/>
+      <c r="CQ2" s="219"/>
+      <c r="CR2" s="219"/>
+      <c r="CS2" s="219"/>
+      <c r="CT2" s="219"/>
+      <c r="CU2" s="219"/>
+      <c r="CV2" s="219"/>
+      <c r="CW2" s="219"/>
+      <c r="CX2" s="219"/>
+      <c r="CY2" s="219"/>
+      <c r="CZ2" s="219"/>
+      <c r="DA2" s="219"/>
+      <c r="DB2" s="220"/>
+      <c r="DC2" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="DD2" s="208"/>
-      <c r="DE2" s="208"/>
-      <c r="DF2" s="208"/>
-      <c r="DG2" s="208"/>
-      <c r="DH2" s="208"/>
-      <c r="DI2" s="208"/>
-      <c r="DJ2" s="208"/>
-      <c r="DK2" s="208"/>
-      <c r="DL2" s="208"/>
-      <c r="DM2" s="208"/>
-      <c r="DN2" s="208"/>
-      <c r="DO2" s="208"/>
-      <c r="DP2" s="208"/>
-      <c r="DQ2" s="208"/>
-      <c r="DR2" s="208"/>
-      <c r="DS2" s="208"/>
-      <c r="DT2" s="208"/>
-      <c r="DU2" s="208"/>
-      <c r="DV2" s="208"/>
-      <c r="DW2" s="208"/>
-      <c r="DX2" s="208"/>
-      <c r="DY2" s="208"/>
-      <c r="DZ2" s="208"/>
-      <c r="EA2" s="208"/>
-      <c r="EB2" s="208"/>
-      <c r="EC2" s="208"/>
-      <c r="ED2" s="208"/>
-      <c r="EE2" s="208"/>
-      <c r="EF2" s="208"/>
-      <c r="EG2" s="209"/>
+      <c r="DD2" s="207"/>
+      <c r="DE2" s="207"/>
+      <c r="DF2" s="207"/>
+      <c r="DG2" s="207"/>
+      <c r="DH2" s="207"/>
+      <c r="DI2" s="207"/>
+      <c r="DJ2" s="207"/>
+      <c r="DK2" s="207"/>
+      <c r="DL2" s="207"/>
+      <c r="DM2" s="207"/>
+      <c r="DN2" s="207"/>
+      <c r="DO2" s="207"/>
+      <c r="DP2" s="207"/>
+      <c r="DQ2" s="207"/>
+      <c r="DR2" s="207"/>
+      <c r="DS2" s="207"/>
+      <c r="DT2" s="207"/>
+      <c r="DU2" s="207"/>
+      <c r="DV2" s="207"/>
+      <c r="DW2" s="207"/>
+      <c r="DX2" s="207"/>
+      <c r="DY2" s="207"/>
+      <c r="DZ2" s="207"/>
+      <c r="EA2" s="207"/>
+      <c r="EB2" s="207"/>
+      <c r="EC2" s="207"/>
+      <c r="ED2" s="207"/>
+      <c r="EE2" s="207"/>
+      <c r="EF2" s="207"/>
+      <c r="EG2" s="208"/>
     </row>
     <row r="3" spans="1:138" s="21" customFormat="1" ht="16" thickBot="1">
       <c r="A3" s="20" t="s">
@@ -4971,8 +5014,8 @@
       <c r="AX57" s="67"/>
       <c r="AY57" s="67"/>
       <c r="AZ57" s="67"/>
-      <c r="BB57" s="35"/>
-      <c r="BC57" s="146"/>
+      <c r="BB57" s="224"/>
+      <c r="BC57" s="222"/>
       <c r="BD57" s="137"/>
       <c r="BK57" s="67"/>
       <c r="BN57" s="67"/>
@@ -4981,7 +5024,7 @@
       <c r="BT57" s="67"/>
       <c r="BU57" s="67"/>
       <c r="BV57" s="67"/>
-      <c r="BW57" s="222">
+      <c r="BW57" s="221">
         <v>4</v>
       </c>
       <c r="BX57" s="190"/>
@@ -4995,7 +5038,7 @@
       <c r="CM57" s="67"/>
       <c r="CQ57" s="6"/>
     </row>
-    <row r="58" spans="1:104" ht="16" thickBot="1">
+    <row r="58" spans="1:104">
       <c r="B58" t="s">
         <v>238</v>
       </c>
@@ -5015,9 +5058,10 @@
       <c r="AX58" s="67"/>
       <c r="AY58" s="67"/>
       <c r="AZ58" s="67"/>
-      <c r="BB58" s="35"/>
-      <c r="BC58" s="191"/>
-      <c r="BD58" s="137"/>
+      <c r="BB58" s="225"/>
+      <c r="BC58" s="124"/>
+      <c r="BD58" s="226"/>
+      <c r="BE58" s="130"/>
       <c r="BK58" s="67"/>
       <c r="BN58" s="67"/>
       <c r="BO58" s="67"/>
@@ -5057,8 +5101,9 @@
         <v>0</v>
       </c>
       <c r="AW59" s="67"/>
-      <c r="BC59" s="34"/>
-      <c r="BD59" s="206"/>
+      <c r="BB59" s="225"/>
+      <c r="BC59" s="124"/>
+      <c r="BD59" s="223"/>
       <c r="BE59" s="130"/>
       <c r="BK59" s="67"/>
       <c r="BL59" s="67"/>
@@ -5083,6 +5128,8 @@
     </row>
     <row r="60" spans="1:104" ht="16" thickBot="1">
       <c r="AW60" s="67"/>
+      <c r="BB60" s="15"/>
+      <c r="BC60" s="15"/>
       <c r="BD60" s="144"/>
       <c r="BH60" s="134"/>
       <c r="BK60" s="67"/>

--- a/konzept/projektplan.xlsx
+++ b/konzept/projektplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4220" yWindow="500" windowWidth="34020" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="38600" yWindow="1680" windowWidth="34020" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="238">
   <si>
     <t>#</t>
   </si>
@@ -539,9 +539,6 @@
   </si>
   <si>
     <t>Personae entwickeln</t>
-  </si>
-  <si>
-    <t>User Roles herausarbeiten</t>
   </si>
   <si>
     <t>Role Map erarbeiten</t>
@@ -1046,7 +1043,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1477,15 +1474,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </left>
@@ -1778,7 +1766,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1963,15 +1951,14 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1980,9 +1967,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1991,29 +1978,29 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2077,10 +2064,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="99">
@@ -2514,10 +2501,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EH318"/>
+  <dimension ref="A1:EH317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="Z126" sqref="Z126"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2742,155 +2729,155 @@
       <c r="EH1" s="45"/>
     </row>
     <row r="2" spans="1:138">
-      <c r="C2" s="212" t="s">
+      <c r="C2" s="211" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212" t="s">
+      <c r="D2" s="211"/>
+      <c r="E2" s="211" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="213"/>
-      <c r="G2" s="209" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="211"/>
-      <c r="O2" s="214" t="s">
+      <c r="F2" s="212"/>
+      <c r="G2" s="208" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="213" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="215"/>
-      <c r="Q2" s="215"/>
-      <c r="R2" s="215"/>
-      <c r="S2" s="215"/>
-      <c r="T2" s="215"/>
-      <c r="U2" s="215"/>
-      <c r="V2" s="215"/>
-      <c r="W2" s="215"/>
-      <c r="X2" s="215"/>
-      <c r="Y2" s="215"/>
-      <c r="Z2" s="215"/>
-      <c r="AA2" s="215"/>
-      <c r="AB2" s="215"/>
-      <c r="AC2" s="215"/>
-      <c r="AD2" s="215"/>
-      <c r="AE2" s="215"/>
-      <c r="AF2" s="215"/>
-      <c r="AG2" s="215"/>
-      <c r="AH2" s="215"/>
-      <c r="AI2" s="215"/>
-      <c r="AJ2" s="215"/>
-      <c r="AK2" s="215"/>
-      <c r="AL2" s="215"/>
-      <c r="AM2" s="215"/>
-      <c r="AN2" s="215"/>
-      <c r="AO2" s="215"/>
-      <c r="AP2" s="215"/>
-      <c r="AQ2" s="215"/>
-      <c r="AR2" s="215"/>
-      <c r="AS2" s="216"/>
-      <c r="AT2" s="206" t="s">
+      <c r="P2" s="214"/>
+      <c r="Q2" s="214"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="214"/>
+      <c r="T2" s="214"/>
+      <c r="U2" s="214"/>
+      <c r="V2" s="214"/>
+      <c r="W2" s="214"/>
+      <c r="X2" s="214"/>
+      <c r="Y2" s="214"/>
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="214"/>
+      <c r="AB2" s="214"/>
+      <c r="AC2" s="214"/>
+      <c r="AD2" s="214"/>
+      <c r="AE2" s="214"/>
+      <c r="AF2" s="214"/>
+      <c r="AG2" s="214"/>
+      <c r="AH2" s="214"/>
+      <c r="AI2" s="214"/>
+      <c r="AJ2" s="214"/>
+      <c r="AK2" s="214"/>
+      <c r="AL2" s="214"/>
+      <c r="AM2" s="214"/>
+      <c r="AN2" s="214"/>
+      <c r="AO2" s="214"/>
+      <c r="AP2" s="214"/>
+      <c r="AQ2" s="214"/>
+      <c r="AR2" s="214"/>
+      <c r="AS2" s="215"/>
+      <c r="AT2" s="205" t="s">
         <v>34</v>
       </c>
-      <c r="AU2" s="207"/>
-      <c r="AV2" s="207"/>
-      <c r="AW2" s="207"/>
-      <c r="AX2" s="207"/>
-      <c r="AY2" s="207"/>
-      <c r="AZ2" s="207"/>
-      <c r="BA2" s="207"/>
-      <c r="BB2" s="207"/>
-      <c r="BC2" s="207"/>
-      <c r="BD2" s="207"/>
-      <c r="BE2" s="207"/>
-      <c r="BF2" s="207"/>
-      <c r="BG2" s="207"/>
-      <c r="BH2" s="207"/>
-      <c r="BI2" s="207"/>
-      <c r="BJ2" s="207"/>
-      <c r="BK2" s="207"/>
-      <c r="BL2" s="207"/>
-      <c r="BM2" s="207"/>
-      <c r="BN2" s="207"/>
-      <c r="BO2" s="207"/>
-      <c r="BP2" s="207"/>
-      <c r="BQ2" s="207"/>
-      <c r="BR2" s="207"/>
-      <c r="BS2" s="207"/>
-      <c r="BT2" s="207"/>
-      <c r="BU2" s="207"/>
-      <c r="BV2" s="207"/>
-      <c r="BW2" s="217"/>
-      <c r="BX2" s="218" t="s">
+      <c r="AU2" s="206"/>
+      <c r="AV2" s="206"/>
+      <c r="AW2" s="206"/>
+      <c r="AX2" s="206"/>
+      <c r="AY2" s="206"/>
+      <c r="AZ2" s="206"/>
+      <c r="BA2" s="206"/>
+      <c r="BB2" s="206"/>
+      <c r="BC2" s="206"/>
+      <c r="BD2" s="206"/>
+      <c r="BE2" s="206"/>
+      <c r="BF2" s="206"/>
+      <c r="BG2" s="206"/>
+      <c r="BH2" s="206"/>
+      <c r="BI2" s="206"/>
+      <c r="BJ2" s="206"/>
+      <c r="BK2" s="206"/>
+      <c r="BL2" s="206"/>
+      <c r="BM2" s="206"/>
+      <c r="BN2" s="206"/>
+      <c r="BO2" s="206"/>
+      <c r="BP2" s="206"/>
+      <c r="BQ2" s="206"/>
+      <c r="BR2" s="206"/>
+      <c r="BS2" s="206"/>
+      <c r="BT2" s="206"/>
+      <c r="BU2" s="206"/>
+      <c r="BV2" s="206"/>
+      <c r="BW2" s="216"/>
+      <c r="BX2" s="217" t="s">
         <v>35</v>
       </c>
-      <c r="BY2" s="219"/>
-      <c r="BZ2" s="219"/>
-      <c r="CA2" s="219"/>
-      <c r="CB2" s="219"/>
-      <c r="CC2" s="219"/>
-      <c r="CD2" s="219"/>
-      <c r="CE2" s="219"/>
-      <c r="CF2" s="219"/>
-      <c r="CG2" s="219"/>
-      <c r="CH2" s="219"/>
-      <c r="CI2" s="219"/>
-      <c r="CJ2" s="219"/>
-      <c r="CK2" s="219"/>
-      <c r="CL2" s="219"/>
-      <c r="CM2" s="219"/>
-      <c r="CN2" s="219"/>
-      <c r="CO2" s="219"/>
-      <c r="CP2" s="219"/>
-      <c r="CQ2" s="219"/>
-      <c r="CR2" s="219"/>
-      <c r="CS2" s="219"/>
-      <c r="CT2" s="219"/>
-      <c r="CU2" s="219"/>
-      <c r="CV2" s="219"/>
-      <c r="CW2" s="219"/>
-      <c r="CX2" s="219"/>
-      <c r="CY2" s="219"/>
-      <c r="CZ2" s="219"/>
-      <c r="DA2" s="219"/>
-      <c r="DB2" s="220"/>
-      <c r="DC2" s="206" t="s">
+      <c r="BY2" s="218"/>
+      <c r="BZ2" s="218"/>
+      <c r="CA2" s="218"/>
+      <c r="CB2" s="218"/>
+      <c r="CC2" s="218"/>
+      <c r="CD2" s="218"/>
+      <c r="CE2" s="218"/>
+      <c r="CF2" s="218"/>
+      <c r="CG2" s="218"/>
+      <c r="CH2" s="218"/>
+      <c r="CI2" s="218"/>
+      <c r="CJ2" s="218"/>
+      <c r="CK2" s="218"/>
+      <c r="CL2" s="218"/>
+      <c r="CM2" s="218"/>
+      <c r="CN2" s="218"/>
+      <c r="CO2" s="218"/>
+      <c r="CP2" s="218"/>
+      <c r="CQ2" s="218"/>
+      <c r="CR2" s="218"/>
+      <c r="CS2" s="218"/>
+      <c r="CT2" s="218"/>
+      <c r="CU2" s="218"/>
+      <c r="CV2" s="218"/>
+      <c r="CW2" s="218"/>
+      <c r="CX2" s="218"/>
+      <c r="CY2" s="218"/>
+      <c r="CZ2" s="218"/>
+      <c r="DA2" s="218"/>
+      <c r="DB2" s="219"/>
+      <c r="DC2" s="205" t="s">
         <v>36</v>
       </c>
-      <c r="DD2" s="207"/>
-      <c r="DE2" s="207"/>
-      <c r="DF2" s="207"/>
-      <c r="DG2" s="207"/>
-      <c r="DH2" s="207"/>
-      <c r="DI2" s="207"/>
-      <c r="DJ2" s="207"/>
-      <c r="DK2" s="207"/>
-      <c r="DL2" s="207"/>
-      <c r="DM2" s="207"/>
-      <c r="DN2" s="207"/>
-      <c r="DO2" s="207"/>
-      <c r="DP2" s="207"/>
-      <c r="DQ2" s="207"/>
-      <c r="DR2" s="207"/>
-      <c r="DS2" s="207"/>
-      <c r="DT2" s="207"/>
-      <c r="DU2" s="207"/>
-      <c r="DV2" s="207"/>
-      <c r="DW2" s="207"/>
-      <c r="DX2" s="207"/>
-      <c r="DY2" s="207"/>
-      <c r="DZ2" s="207"/>
-      <c r="EA2" s="207"/>
-      <c r="EB2" s="207"/>
-      <c r="EC2" s="207"/>
-      <c r="ED2" s="207"/>
-      <c r="EE2" s="207"/>
-      <c r="EF2" s="207"/>
-      <c r="EG2" s="208"/>
+      <c r="DD2" s="206"/>
+      <c r="DE2" s="206"/>
+      <c r="DF2" s="206"/>
+      <c r="DG2" s="206"/>
+      <c r="DH2" s="206"/>
+      <c r="DI2" s="206"/>
+      <c r="DJ2" s="206"/>
+      <c r="DK2" s="206"/>
+      <c r="DL2" s="206"/>
+      <c r="DM2" s="206"/>
+      <c r="DN2" s="206"/>
+      <c r="DO2" s="206"/>
+      <c r="DP2" s="206"/>
+      <c r="DQ2" s="206"/>
+      <c r="DR2" s="206"/>
+      <c r="DS2" s="206"/>
+      <c r="DT2" s="206"/>
+      <c r="DU2" s="206"/>
+      <c r="DV2" s="206"/>
+      <c r="DW2" s="206"/>
+      <c r="DX2" s="206"/>
+      <c r="DY2" s="206"/>
+      <c r="DZ2" s="206"/>
+      <c r="EA2" s="206"/>
+      <c r="EB2" s="206"/>
+      <c r="EC2" s="206"/>
+      <c r="ED2" s="206"/>
+      <c r="EE2" s="206"/>
+      <c r="EF2" s="206"/>
+      <c r="EG2" s="207"/>
     </row>
     <row r="3" spans="1:138" s="21" customFormat="1" ht="16" thickBot="1">
       <c r="A3" s="20" t="s">
@@ -4090,8 +4077,8 @@
       </c>
       <c r="AM27" s="67"/>
       <c r="AV27" s="35"/>
-      <c r="AW27" s="169"/>
-      <c r="AX27" s="172"/>
+      <c r="AW27" s="168"/>
+      <c r="AX27" s="171"/>
       <c r="AY27" s="130"/>
       <c r="CM27" s="67"/>
       <c r="CQ27" s="6"/>
@@ -4115,8 +4102,8 @@
       </c>
       <c r="AM28" s="67"/>
       <c r="AV28" s="35"/>
-      <c r="AW28" s="170"/>
-      <c r="AX28" s="168"/>
+      <c r="AW28" s="169"/>
+      <c r="AX28" s="167"/>
       <c r="BB28" s="11">
         <v>1</v>
       </c>
@@ -4142,8 +4129,8 @@
       </c>
       <c r="AM29" s="67"/>
       <c r="AV29" s="35"/>
-      <c r="AW29" s="170"/>
-      <c r="AX29" s="165">
+      <c r="AW29" s="169"/>
+      <c r="AX29" s="164">
         <v>1</v>
       </c>
       <c r="BS29" s="112">
@@ -4171,7 +4158,7 @@
       </c>
       <c r="AM30" s="67"/>
       <c r="AV30" s="35"/>
-      <c r="AW30" s="170">
+      <c r="AW30" s="169">
         <v>1</v>
       </c>
       <c r="AX30" s="130"/>
@@ -4200,7 +4187,7 @@
       </c>
       <c r="AM31" s="67"/>
       <c r="AV31" s="35"/>
-      <c r="AW31" s="170"/>
+      <c r="AW31" s="169"/>
       <c r="AX31" s="130"/>
       <c r="BB31" s="5">
         <v>1</v>
@@ -4227,8 +4214,8 @@
       </c>
       <c r="AM32" s="67"/>
       <c r="AV32" s="35"/>
-      <c r="AW32" s="170"/>
-      <c r="AX32" s="166">
+      <c r="AW32" s="169"/>
+      <c r="AX32" s="165">
         <v>1</v>
       </c>
       <c r="CM32" s="67"/>
@@ -4253,10 +4240,10 @@
       </c>
       <c r="AM33" s="67"/>
       <c r="AV33" s="35"/>
-      <c r="AW33" s="171">
-        <v>1</v>
-      </c>
-      <c r="AX33" s="167"/>
+      <c r="AW33" s="170">
+        <v>1</v>
+      </c>
+      <c r="AX33" s="166"/>
       <c r="AZ33" s="11">
         <v>1</v>
       </c>
@@ -4284,8 +4271,8 @@
         <v>0</v>
       </c>
       <c r="AM34" s="67"/>
-      <c r="AW34" s="145"/>
-      <c r="AX34" s="169"/>
+      <c r="AW34" s="144"/>
+      <c r="AX34" s="168"/>
       <c r="AY34" s="130"/>
       <c r="CM34" s="67"/>
       <c r="CQ34" s="6"/>
@@ -4309,7 +4296,7 @@
       </c>
       <c r="AM35" s="67"/>
       <c r="AW35" s="75"/>
-      <c r="AX35" s="170"/>
+      <c r="AX35" s="169"/>
       <c r="AY35" s="130"/>
       <c r="BA35" s="11">
         <v>3</v>
@@ -4338,10 +4325,10 @@
         <v>2</v>
       </c>
       <c r="AM36" s="67"/>
-      <c r="AW36" s="164">
-        <v>1</v>
-      </c>
-      <c r="AX36" s="171"/>
+      <c r="AW36" s="163">
+        <v>1</v>
+      </c>
+      <c r="AX36" s="170"/>
       <c r="AY36" s="130"/>
       <c r="CM36" s="67"/>
       <c r="CQ36" s="6"/>
@@ -4634,12 +4621,12 @@
       <c r="AS45" s="75"/>
       <c r="AT45" s="70"/>
       <c r="AZ45" s="31"/>
-      <c r="BA45" s="146"/>
+      <c r="BA45" s="145"/>
       <c r="BB45" s="135"/>
-      <c r="BH45" s="185">
-        <v>3</v>
-      </c>
-      <c r="BI45" s="177">
+      <c r="BH45" s="184">
+        <v>3</v>
+      </c>
+      <c r="BI45" s="176">
         <v>3</v>
       </c>
       <c r="CM45" s="67"/>
@@ -4665,20 +4652,20 @@
       <c r="AT46" s="70"/>
       <c r="AU46" s="77"/>
       <c r="BA46" s="30"/>
-      <c r="BB46" s="146"/>
+      <c r="BB46" s="145"/>
       <c r="BC46" s="128"/>
       <c r="BH46" s="84"/>
-      <c r="BI46" s="185">
-        <v>2</v>
-      </c>
-      <c r="BJ46" s="177">
+      <c r="BI46" s="184">
+        <v>2</v>
+      </c>
+      <c r="BJ46" s="176">
         <v>3</v>
       </c>
       <c r="BV46" s="134"/>
       <c r="CM46" s="67"/>
       <c r="CQ46" s="6"/>
     </row>
-    <row r="47" spans="1:116">
+    <row r="47" spans="1:116" ht="16" thickBot="1">
       <c r="B47" t="s">
         <v>144</v>
       </c>
@@ -4690,20 +4677,20 @@
       <c r="AZ47" s="67"/>
       <c r="BB47" s="15"/>
       <c r="BU47" s="31"/>
-      <c r="BV47" s="147"/>
+      <c r="BV47" s="146"/>
       <c r="BW47" s="132"/>
       <c r="CM47" s="67"/>
       <c r="CQ47" s="6"/>
     </row>
-    <row r="48" spans="1:116" ht="16" thickBot="1">
+    <row r="48" spans="1:116" ht="18" customHeight="1" thickBot="1">
       <c r="B48" t="s">
         <v>173</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -4713,91 +4700,103 @@
       </c>
       <c r="AT48" s="70"/>
       <c r="AU48" s="77"/>
-      <c r="AV48" s="77"/>
       <c r="AW48" s="67"/>
       <c r="AX48" s="67"/>
       <c r="AY48" s="67"/>
       <c r="AZ48" s="67"/>
       <c r="BK48" s="123">
-        <v>4</v>
-      </c>
-      <c r="BU48" s="31"/>
-      <c r="BV48" s="148"/>
-      <c r="BW48" s="140"/>
-      <c r="BX48" s="139"/>
+        <v>2</v>
+      </c>
+      <c r="BV48" s="30"/>
+      <c r="BW48" s="145"/>
+      <c r="BX48" s="124"/>
+      <c r="BY48" s="130"/>
       <c r="CM48" s="67"/>
       <c r="CQ48" s="6"/>
     </row>
-    <row r="49" spans="1:104" ht="18" customHeight="1" thickBot="1">
-      <c r="B49" t="s">
-        <v>174</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
+    <row r="49" spans="1:105" ht="18" customHeight="1">
       <c r="AT49" s="70"/>
       <c r="AU49" s="77"/>
       <c r="AW49" s="67"/>
       <c r="AX49" s="67"/>
       <c r="AY49" s="67"/>
       <c r="AZ49" s="67"/>
-      <c r="BK49" s="123">
-        <v>2</v>
-      </c>
-      <c r="BV49" s="30"/>
-      <c r="BW49" s="146"/>
-      <c r="BX49" s="124"/>
-      <c r="BY49" s="130"/>
+      <c r="BD49" s="94"/>
+      <c r="BW49" s="34"/>
+      <c r="BX49" s="52"/>
       <c r="CM49" s="67"/>
       <c r="CQ49" s="6"/>
     </row>
-    <row r="50" spans="1:104" ht="18" customHeight="1">
-      <c r="AT50" s="70"/>
-      <c r="AU50" s="77"/>
+    <row r="50" spans="1:105" ht="18" customHeight="1" thickBot="1">
+      <c r="A50" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" t="s">
+        <v>143</v>
+      </c>
       <c r="AW50" s="67"/>
       <c r="AX50" s="67"/>
       <c r="AY50" s="67"/>
       <c r="AZ50" s="67"/>
+      <c r="BA50" s="67"/>
+      <c r="BC50" s="136"/>
       <c r="BD50" s="94"/>
-      <c r="BW50" s="34"/>
-      <c r="BX50" s="52"/>
+      <c r="BK50" s="67"/>
+      <c r="BS50" s="67"/>
+      <c r="BT50" s="67"/>
+      <c r="BU50" s="67"/>
+      <c r="BV50" s="67"/>
+      <c r="BX50" s="139"/>
       <c r="CM50" s="67"/>
       <c r="CQ50" s="6"/>
     </row>
-    <row r="51" spans="1:104" ht="18" customHeight="1" thickBot="1">
-      <c r="A51" s="1" t="s">
-        <v>84</v>
-      </c>
+    <row r="51" spans="1:105" ht="16" thickBot="1">
       <c r="B51" t="s">
-        <v>143</v>
+        <v>174</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
       </c>
       <c r="AW51" s="67"/>
       <c r="AX51" s="67"/>
       <c r="AY51" s="67"/>
       <c r="AZ51" s="67"/>
-      <c r="BA51" s="67"/>
-      <c r="BC51" s="136"/>
-      <c r="BD51" s="94"/>
+      <c r="BB51" s="35"/>
+      <c r="BC51" s="145"/>
+      <c r="BD51" s="129"/>
       <c r="BK51" s="67"/>
+      <c r="BO51" s="67"/>
+      <c r="BP51" s="180">
+        <v>4</v>
+      </c>
+      <c r="BQ51" s="201">
+        <v>2</v>
+      </c>
       <c r="BS51" s="67"/>
       <c r="BT51" s="67"/>
       <c r="BU51" s="67"/>
       <c r="BV51" s="67"/>
-      <c r="BX51" s="139"/>
+      <c r="BX51" s="146"/>
+      <c r="BY51" s="125"/>
+      <c r="CF51" s="67"/>
+      <c r="CG51" s="67"/>
+      <c r="CH51" s="67"/>
+      <c r="CI51" s="67"/>
+      <c r="CJ51" s="67"/>
       <c r="CM51" s="67"/>
       <c r="CQ51" s="6"/>
     </row>
-    <row r="52" spans="1:104" ht="16" thickBot="1">
-      <c r="B52" t="s">
+    <row r="52" spans="1:105" ht="31" thickBot="1">
+      <c r="B52" s="92" t="s">
         <v>175</v>
       </c>
       <c r="C52">
@@ -4810,29 +4809,25 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW52" s="67"/>
       <c r="AX52" s="67"/>
       <c r="AY52" s="67"/>
       <c r="AZ52" s="67"/>
       <c r="BB52" s="35"/>
-      <c r="BC52" s="146"/>
+      <c r="BC52" s="145"/>
       <c r="BD52" s="129"/>
       <c r="BK52" s="67"/>
       <c r="BO52" s="67"/>
-      <c r="BP52" s="181">
-        <v>4</v>
-      </c>
-      <c r="BQ52" s="202">
-        <v>2</v>
-      </c>
       <c r="BS52" s="67"/>
       <c r="BT52" s="67"/>
       <c r="BU52" s="67"/>
       <c r="BV52" s="67"/>
-      <c r="BX52" s="147"/>
-      <c r="BY52" s="125"/>
+      <c r="BX52" s="146"/>
+      <c r="BY52" s="133">
+        <v>4</v>
+      </c>
       <c r="CF52" s="67"/>
       <c r="CG52" s="67"/>
       <c r="CH52" s="67"/>
@@ -4841,39 +4836,23 @@
       <c r="CM52" s="67"/>
       <c r="CQ52" s="6"/>
     </row>
-    <row r="53" spans="1:104" ht="31" thickBot="1">
-      <c r="B53" s="92" t="s">
-        <v>176</v>
-      </c>
-      <c r="C53">
-        <v>2</v>
-      </c>
-      <c r="D53">
-        <v>4</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
+    <row r="53" spans="1:105">
       <c r="AW53" s="67"/>
       <c r="AX53" s="67"/>
       <c r="AY53" s="67"/>
       <c r="AZ53" s="67"/>
       <c r="BB53" s="35"/>
-      <c r="BC53" s="146"/>
+      <c r="BC53" s="187"/>
       <c r="BD53" s="129"/>
       <c r="BK53" s="67"/>
       <c r="BO53" s="67"/>
+      <c r="BP53" s="180"/>
       <c r="BS53" s="67"/>
       <c r="BT53" s="67"/>
       <c r="BU53" s="67"/>
       <c r="BV53" s="67"/>
-      <c r="BX53" s="147"/>
-      <c r="BY53" s="133">
-        <v>4</v>
-      </c>
+      <c r="BX53" s="188"/>
+      <c r="BY53" s="138"/>
       <c r="CF53" s="67"/>
       <c r="CG53" s="67"/>
       <c r="CH53" s="67"/>
@@ -4882,22 +4861,41 @@
       <c r="CM53" s="67"/>
       <c r="CQ53" s="6"/>
     </row>
-    <row r="54" spans="1:104">
+    <row r="54" spans="1:105" ht="16" thickBot="1">
+      <c r="B54" t="s">
+        <v>176</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
       <c r="AW54" s="67"/>
       <c r="AX54" s="67"/>
       <c r="AY54" s="67"/>
       <c r="AZ54" s="67"/>
-      <c r="BB54" s="35"/>
-      <c r="BC54" s="188"/>
-      <c r="BD54" s="129"/>
+      <c r="BC54" s="142"/>
+      <c r="BD54" s="94"/>
       <c r="BK54" s="67"/>
       <c r="BO54" s="67"/>
-      <c r="BP54" s="181"/>
+      <c r="BP54" s="180">
+        <v>2</v>
+      </c>
+      <c r="BR54" s="94">
+        <v>1</v>
+      </c>
       <c r="BS54" s="67"/>
       <c r="BT54" s="67"/>
       <c r="BU54" s="67"/>
       <c r="BV54" s="67"/>
-      <c r="BX54" s="189"/>
+      <c r="BX54" s="147"/>
       <c r="BY54" s="138"/>
       <c r="CF54" s="67"/>
       <c r="CG54" s="67"/>
@@ -4907,7 +4905,7 @@
       <c r="CM54" s="67"/>
       <c r="CQ54" s="6"/>
     </row>
-    <row r="55" spans="1:104" ht="16" thickBot="1">
+    <row r="55" spans="1:105" ht="16" thickBot="1">
       <c r="B55" t="s">
         <v>177</v>
       </c>
@@ -4921,19 +4919,16 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW55" s="67"/>
       <c r="AX55" s="67"/>
       <c r="AY55" s="67"/>
       <c r="AZ55" s="67"/>
-      <c r="BC55" s="143"/>
+      <c r="BC55" s="142"/>
       <c r="BD55" s="94"/>
       <c r="BK55" s="67"/>
       <c r="BO55" s="67"/>
-      <c r="BP55" s="181">
-        <v>2</v>
-      </c>
       <c r="BR55" s="94">
         <v>1</v>
       </c>
@@ -4941,8 +4936,10 @@
       <c r="BT55" s="67"/>
       <c r="BU55" s="67"/>
       <c r="BV55" s="67"/>
-      <c r="BX55" s="148"/>
-      <c r="BY55" s="138"/>
+      <c r="BX55" s="147"/>
+      <c r="BY55" s="140">
+        <v>2</v>
+      </c>
       <c r="CF55" s="67"/>
       <c r="CG55" s="67"/>
       <c r="CH55" s="67"/>
@@ -4951,41 +4948,42 @@
       <c r="CM55" s="67"/>
       <c r="CQ55" s="6"/>
     </row>
-    <row r="56" spans="1:104" ht="16" thickBot="1">
+    <row r="56" spans="1:105" ht="16" thickBot="1">
       <c r="B56" t="s">
         <v>178</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW56" s="67"/>
       <c r="AX56" s="67"/>
       <c r="AY56" s="67"/>
       <c r="AZ56" s="67"/>
-      <c r="BC56" s="143"/>
-      <c r="BD56" s="94"/>
+      <c r="BB56" s="223"/>
+      <c r="BC56" s="221"/>
+      <c r="BD56" s="137"/>
       <c r="BK56" s="67"/>
+      <c r="BN56" s="67"/>
       <c r="BO56" s="67"/>
-      <c r="BR56" s="94">
-        <v>1</v>
-      </c>
       <c r="BS56" s="67"/>
       <c r="BT56" s="67"/>
       <c r="BU56" s="67"/>
       <c r="BV56" s="67"/>
-      <c r="BX56" s="148"/>
-      <c r="BY56" s="141">
-        <v>2</v>
-      </c>
+      <c r="BW56" s="220">
+        <v>4</v>
+      </c>
+      <c r="BX56" s="189"/>
+      <c r="BY56" s="146"/>
+      <c r="BZ56" s="130"/>
       <c r="CF56" s="67"/>
       <c r="CG56" s="67"/>
       <c r="CH56" s="67"/>
@@ -4994,9 +4992,9 @@
       <c r="CM56" s="67"/>
       <c r="CQ56" s="6"/>
     </row>
-    <row r="57" spans="1:104" ht="16" thickBot="1">
+    <row r="57" spans="1:105">
       <c r="B57" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -5015,8 +5013,9 @@
       <c r="AY57" s="67"/>
       <c r="AZ57" s="67"/>
       <c r="BB57" s="224"/>
-      <c r="BC57" s="222"/>
-      <c r="BD57" s="137"/>
+      <c r="BC57" s="124"/>
+      <c r="BD57" s="225"/>
+      <c r="BE57" s="130"/>
       <c r="BK57" s="67"/>
       <c r="BN57" s="67"/>
       <c r="BO57" s="67"/>
@@ -5024,11 +5023,12 @@
       <c r="BT57" s="67"/>
       <c r="BU57" s="67"/>
       <c r="BV57" s="67"/>
-      <c r="BW57" s="221">
+      <c r="BX57" s="185">
         <v>4</v>
       </c>
-      <c r="BX57" s="190"/>
-      <c r="BY57" s="147"/>
+      <c r="BY57" s="146">
+        <v>1</v>
+      </c>
       <c r="BZ57" s="130"/>
       <c r="CF57" s="67"/>
       <c r="CG57" s="67"/>
@@ -5038,44 +5038,40 @@
       <c r="CM57" s="67"/>
       <c r="CQ57" s="6"/>
     </row>
-    <row r="58" spans="1:104">
+    <row r="58" spans="1:105" ht="16" thickBot="1">
       <c r="B58" t="s">
-        <v>238</v>
+        <v>158</v>
       </c>
       <c r="C58">
         <v>2</v>
       </c>
       <c r="D58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW58" s="67"/>
-      <c r="AX58" s="67"/>
-      <c r="AY58" s="67"/>
-      <c r="AZ58" s="67"/>
-      <c r="BB58" s="225"/>
+      <c r="BB58" s="224"/>
       <c r="BC58" s="124"/>
-      <c r="BD58" s="226"/>
+      <c r="BD58" s="222"/>
       <c r="BE58" s="130"/>
       <c r="BK58" s="67"/>
+      <c r="BL58" s="67"/>
+      <c r="BM58" s="67"/>
       <c r="BN58" s="67"/>
       <c r="BO58" s="67"/>
       <c r="BS58" s="67"/>
       <c r="BT58" s="67"/>
       <c r="BU58" s="67"/>
       <c r="BV58" s="67"/>
-      <c r="BX58" s="186">
-        <v>4</v>
-      </c>
-      <c r="BY58" s="147">
-        <v>1</v>
-      </c>
+      <c r="BX58" s="127"/>
+      <c r="BY58" s="147"/>
       <c r="BZ58" s="130"/>
+      <c r="CC58" s="67"/>
       <c r="CF58" s="67"/>
       <c r="CG58" s="67"/>
       <c r="CH58" s="67"/>
@@ -5084,27 +5080,12 @@
       <c r="CM58" s="67"/>
       <c r="CQ58" s="6"/>
     </row>
-    <row r="59" spans="1:104" ht="16" thickBot="1">
-      <c r="B59" t="s">
-        <v>158</v>
-      </c>
-      <c r="C59">
-        <v>2</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>2</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
+    <row r="59" spans="1:105" ht="16" thickBot="1">
       <c r="AW59" s="67"/>
-      <c r="BB59" s="225"/>
-      <c r="BC59" s="124"/>
-      <c r="BD59" s="223"/>
-      <c r="BE59" s="130"/>
+      <c r="BB59" s="15"/>
+      <c r="BC59" s="15"/>
+      <c r="BD59" s="143"/>
+      <c r="BH59" s="134"/>
       <c r="BK59" s="67"/>
       <c r="BL59" s="67"/>
       <c r="BM59" s="67"/>
@@ -5114,10 +5095,8 @@
       <c r="BT59" s="67"/>
       <c r="BU59" s="67"/>
       <c r="BV59" s="67"/>
-      <c r="BX59" s="127"/>
-      <c r="BY59" s="148"/>
-      <c r="BZ59" s="130"/>
-      <c r="CC59" s="67"/>
+      <c r="BY59" s="14"/>
+      <c r="CC59" s="134"/>
       <c r="CF59" s="67"/>
       <c r="CG59" s="67"/>
       <c r="CH59" s="67"/>
@@ -5125,13 +5104,33 @@
       <c r="CJ59" s="67"/>
       <c r="CM59" s="67"/>
       <c r="CQ59" s="6"/>
-    </row>
-    <row r="60" spans="1:104" ht="16" thickBot="1">
+      <c r="CR59" s="136"/>
+    </row>
+    <row r="60" spans="1:105" ht="31" thickBot="1">
+      <c r="A60" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B60" s="92" t="s">
+        <v>179</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
       <c r="AW60" s="67"/>
-      <c r="BB60" s="15"/>
-      <c r="BC60" s="15"/>
-      <c r="BD60" s="144"/>
-      <c r="BH60" s="134"/>
+      <c r="BA60" s="67"/>
+      <c r="BD60" s="94"/>
+      <c r="BG60" s="31"/>
+      <c r="BH60" s="145"/>
+      <c r="BI60" s="128"/>
       <c r="BK60" s="67"/>
       <c r="BL60" s="67"/>
       <c r="BM60" s="67"/>
@@ -5141,32 +5140,36 @@
       <c r="BT60" s="67"/>
       <c r="BU60" s="67"/>
       <c r="BV60" s="67"/>
-      <c r="BY60" s="14"/>
-      <c r="CC60" s="134"/>
+      <c r="BY60" s="67"/>
+      <c r="CB60" s="31"/>
+      <c r="CC60" s="145"/>
+      <c r="CD60" s="128"/>
       <c r="CF60" s="67"/>
       <c r="CG60" s="67"/>
       <c r="CH60" s="67"/>
       <c r="CI60" s="67"/>
       <c r="CJ60" s="67"/>
       <c r="CM60" s="67"/>
-      <c r="CQ60" s="6"/>
-      <c r="CR60" s="136"/>
-    </row>
-    <row r="61" spans="1:104" ht="31" thickBot="1">
-      <c r="A61" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B61" s="92" t="s">
+      <c r="CQ60" s="7"/>
+      <c r="CR60" s="145">
+        <v>3</v>
+      </c>
+      <c r="CS60" s="202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:105" ht="16" thickBot="1">
+      <c r="B61" t="s">
         <v>180</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -5175,7 +5178,7 @@
       <c r="BA61" s="67"/>
       <c r="BD61" s="94"/>
       <c r="BG61" s="31"/>
-      <c r="BH61" s="146"/>
+      <c r="BH61" s="145"/>
       <c r="BI61" s="128"/>
       <c r="BK61" s="67"/>
       <c r="BL61" s="67"/>
@@ -5188,7 +5191,7 @@
       <c r="BV61" s="67"/>
       <c r="BY61" s="67"/>
       <c r="CB61" s="31"/>
-      <c r="CC61" s="146"/>
+      <c r="CC61" s="145"/>
       <c r="CD61" s="128"/>
       <c r="CF61" s="67"/>
       <c r="CG61" s="67"/>
@@ -5197,35 +5200,20 @@
       <c r="CJ61" s="67"/>
       <c r="CM61" s="67"/>
       <c r="CQ61" s="7"/>
-      <c r="CR61" s="146">
-        <v>3</v>
-      </c>
-      <c r="CS61" s="203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:104" ht="16" thickBot="1">
-      <c r="B62" t="s">
-        <v>181</v>
-      </c>
-      <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
+      <c r="CR61" s="190"/>
+      <c r="CS61" s="128"/>
+      <c r="CY61" s="176">
+        <v>2</v>
+      </c>
+      <c r="CZ61" s="203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:105" ht="16" thickBot="1">
       <c r="AW62" s="67"/>
-      <c r="BA62" s="67"/>
       <c r="BD62" s="94"/>
-      <c r="BG62" s="31"/>
-      <c r="BH62" s="146"/>
-      <c r="BI62" s="128"/>
+      <c r="BH62" s="14"/>
+      <c r="BI62" s="136"/>
       <c r="BK62" s="67"/>
       <c r="BL62" s="67"/>
       <c r="BM62" s="67"/>
@@ -5236,30 +5224,42 @@
       <c r="BU62" s="67"/>
       <c r="BV62" s="67"/>
       <c r="BY62" s="67"/>
-      <c r="CB62" s="31"/>
-      <c r="CC62" s="146"/>
-      <c r="CD62" s="128"/>
+      <c r="CC62" s="14"/>
+      <c r="CD62" s="136"/>
       <c r="CF62" s="67"/>
       <c r="CG62" s="67"/>
       <c r="CH62" s="67"/>
       <c r="CI62" s="67"/>
       <c r="CJ62" s="67"/>
       <c r="CM62" s="67"/>
-      <c r="CQ62" s="7"/>
-      <c r="CR62" s="191"/>
-      <c r="CS62" s="128"/>
-      <c r="CY62" s="177">
-        <v>2</v>
-      </c>
-      <c r="CZ62" s="204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:104" ht="16" thickBot="1">
+      <c r="CQ62" s="6"/>
+      <c r="CR62" s="15"/>
+    </row>
+    <row r="63" spans="1:105" ht="16" thickBot="1">
+      <c r="A63" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
       <c r="AW63" s="67"/>
+      <c r="BA63" s="67"/>
       <c r="BD63" s="94"/>
-      <c r="BH63" s="14"/>
-      <c r="BI63" s="136"/>
+      <c r="BH63" s="31"/>
+      <c r="BI63" s="145"/>
+      <c r="BJ63" s="128"/>
       <c r="BK63" s="67"/>
       <c r="BL63" s="67"/>
       <c r="BM63" s="67"/>
@@ -5270,8 +5270,9 @@
       <c r="BU63" s="67"/>
       <c r="BV63" s="67"/>
       <c r="BY63" s="67"/>
-      <c r="CC63" s="14"/>
-      <c r="CD63" s="136"/>
+      <c r="CC63" s="31"/>
+      <c r="CD63" s="145"/>
+      <c r="CE63" s="128"/>
       <c r="CF63" s="67"/>
       <c r="CG63" s="67"/>
       <c r="CH63" s="67"/>
@@ -5279,33 +5280,34 @@
       <c r="CJ63" s="67"/>
       <c r="CM63" s="67"/>
       <c r="CQ63" s="6"/>
-      <c r="CR63" s="15"/>
-    </row>
-    <row r="64" spans="1:104" ht="16" thickBot="1">
-      <c r="A64" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="CR63" s="180">
+        <v>2</v>
+      </c>
+      <c r="CS63" s="136"/>
+      <c r="CT63" s="134"/>
+      <c r="CY63" s="186">
+        <v>1</v>
+      </c>
+      <c r="CZ63" s="136"/>
+    </row>
+    <row r="64" spans="1:105" ht="16" thickBot="1">
       <c r="B64" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="C64">
         <v>2</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW64" s="67"/>
-      <c r="BA64" s="67"/>
-      <c r="BD64" s="94"/>
-      <c r="BH64" s="31"/>
-      <c r="BI64" s="146"/>
-      <c r="BJ64" s="128"/>
+      <c r="BI64" s="15"/>
       <c r="BK64" s="67"/>
       <c r="BL64" s="67"/>
       <c r="BM64" s="67"/>
@@ -5316,9 +5318,7 @@
       <c r="BU64" s="67"/>
       <c r="BV64" s="67"/>
       <c r="BY64" s="67"/>
-      <c r="CC64" s="31"/>
-      <c r="CD64" s="146"/>
-      <c r="CE64" s="128"/>
+      <c r="CD64" s="15"/>
       <c r="CF64" s="67"/>
       <c r="CG64" s="67"/>
       <c r="CH64" s="67"/>
@@ -5326,15 +5326,14 @@
       <c r="CJ64" s="67"/>
       <c r="CM64" s="67"/>
       <c r="CQ64" s="6"/>
-      <c r="CR64" s="181">
-        <v>2</v>
-      </c>
-      <c r="CS64" s="136"/>
-      <c r="CT64" s="134"/>
-      <c r="CY64" s="187">
-        <v>1</v>
-      </c>
-      <c r="CZ64" s="136"/>
+      <c r="CR64" s="35"/>
+      <c r="CS64" s="179"/>
+      <c r="CT64" s="181"/>
+      <c r="CU64" s="130"/>
+      <c r="CX64" s="31"/>
+      <c r="CY64" s="145"/>
+      <c r="CZ64" s="145"/>
+      <c r="DA64" s="130"/>
     </row>
     <row r="65" spans="1:108" ht="16" thickBot="1">
       <c r="B65" t="s">
@@ -5373,32 +5372,16 @@
       <c r="CM65" s="67"/>
       <c r="CQ65" s="6"/>
       <c r="CR65" s="35"/>
-      <c r="CS65" s="180"/>
-      <c r="CT65" s="182"/>
+      <c r="CS65" s="179"/>
+      <c r="CT65" s="181"/>
       <c r="CU65" s="130"/>
       <c r="CX65" s="31"/>
-      <c r="CY65" s="146"/>
-      <c r="CZ65" s="146"/>
+      <c r="CY65" s="145"/>
+      <c r="CZ65" s="145"/>
       <c r="DA65" s="130"/>
     </row>
-    <row r="66" spans="1:108" ht="16" thickBot="1">
-      <c r="B66" t="s">
-        <v>183</v>
-      </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="AW66" s="67"/>
-      <c r="BI66" s="15"/>
+    <row r="66" spans="1:108">
+      <c r="BA66" s="67"/>
       <c r="BK66" s="67"/>
       <c r="BL66" s="67"/>
       <c r="BM66" s="67"/>
@@ -5409,7 +5392,6 @@
       <c r="BU66" s="67"/>
       <c r="BV66" s="67"/>
       <c r="BY66" s="67"/>
-      <c r="CD66" s="15"/>
       <c r="CF66" s="67"/>
       <c r="CG66" s="67"/>
       <c r="CH66" s="67"/>
@@ -5417,17 +5399,21 @@
       <c r="CJ66" s="67"/>
       <c r="CM66" s="67"/>
       <c r="CQ66" s="6"/>
-      <c r="CR66" s="35"/>
-      <c r="CS66" s="180"/>
-      <c r="CT66" s="182"/>
-      <c r="CU66" s="130"/>
-      <c r="CX66" s="31"/>
-      <c r="CY66" s="146"/>
-      <c r="CZ66" s="146"/>
-      <c r="DA66" s="130"/>
+      <c r="CS66" s="15"/>
+      <c r="CT66" s="14"/>
+      <c r="CY66" s="15"/>
+      <c r="CZ66" s="15"/>
     </row>
     <row r="67" spans="1:108">
+      <c r="A67" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B67" t="s">
+        <v>145</v>
+      </c>
       <c r="BA67" s="67"/>
+      <c r="BH67" s="67"/>
+      <c r="BJ67" s="136"/>
       <c r="BK67" s="67"/>
       <c r="BL67" s="67"/>
       <c r="BM67" s="67"/>
@@ -5445,22 +5431,15 @@
       <c r="CJ67" s="67"/>
       <c r="CM67" s="67"/>
       <c r="CQ67" s="6"/>
-      <c r="CS67" s="15"/>
-      <c r="CT67" s="14"/>
-      <c r="CY67" s="15"/>
-      <c r="CZ67" s="15"/>
-    </row>
-    <row r="68" spans="1:108">
-      <c r="A68" s="1" t="s">
-        <v>104</v>
-      </c>
+    </row>
+    <row r="68" spans="1:108" ht="16" thickBot="1">
       <c r="B68" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="BA68" s="67"/>
-      <c r="BH68" s="67"/>
-      <c r="BJ68" s="136"/>
-      <c r="BK68" s="67"/>
+      <c r="BI68" s="35"/>
+      <c r="BJ68" s="183"/>
+      <c r="BK68" s="125"/>
       <c r="BL68" s="67"/>
       <c r="BM68" s="67"/>
       <c r="BN68" s="67"/>
@@ -5480,21 +5459,35 @@
     </row>
     <row r="69" spans="1:108" ht="16" thickBot="1">
       <c r="B69" t="s">
-        <v>155</v>
+        <v>183</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
       </c>
       <c r="BA69" s="67"/>
       <c r="BI69" s="35"/>
-      <c r="BJ69" s="184"/>
+      <c r="BJ69" s="145"/>
       <c r="BK69" s="125"/>
       <c r="BL69" s="67"/>
       <c r="BM69" s="67"/>
       <c r="BN69" s="67"/>
       <c r="BO69" s="67"/>
+      <c r="BR69" s="180">
+        <v>5</v>
+      </c>
       <c r="BS69" s="67"/>
       <c r="BT69" s="67"/>
       <c r="BU69" s="67"/>
       <c r="BV69" s="67"/>
-      <c r="BY69" s="67"/>
       <c r="CF69" s="67"/>
       <c r="CG69" s="67"/>
       <c r="CH69" s="67"/>
@@ -5503,34 +5496,33 @@
       <c r="CM69" s="67"/>
       <c r="CQ69" s="6"/>
     </row>
-    <row r="70" spans="1:108" ht="16" thickBot="1">
-      <c r="B70" t="s">
+    <row r="70" spans="1:108" ht="31" thickBot="1">
+      <c r="B70" s="92" t="s">
         <v>184</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA70" s="67"/>
       <c r="BI70" s="35"/>
-      <c r="BJ70" s="146"/>
-      <c r="BK70" s="125"/>
-      <c r="BL70" s="67"/>
+      <c r="BJ70" s="172"/>
+      <c r="BK70" s="138"/>
+      <c r="BL70" s="126"/>
       <c r="BM70" s="67"/>
       <c r="BN70" s="67"/>
       <c r="BO70" s="67"/>
-      <c r="BR70" s="181">
-        <v>5</v>
-      </c>
-      <c r="BS70" s="67"/>
+      <c r="BS70" s="176">
+        <v>3</v>
+      </c>
       <c r="BT70" s="67"/>
       <c r="BU70" s="67"/>
       <c r="BV70" s="67"/>
@@ -5542,36 +5534,35 @@
       <c r="CM70" s="67"/>
       <c r="CQ70" s="6"/>
     </row>
-    <row r="71" spans="1:108" ht="31" thickBot="1">
-      <c r="B71" s="92" t="s">
+    <row r="71" spans="1:108" ht="16" thickBot="1">
+      <c r="B71" t="s">
         <v>185</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BA71" s="67"/>
-      <c r="BI71" s="35"/>
-      <c r="BJ71" s="173"/>
-      <c r="BK71" s="138"/>
-      <c r="BL71" s="126"/>
-      <c r="BM71" s="67"/>
+      <c r="BJ71" s="34"/>
+      <c r="BK71" s="145"/>
+      <c r="BL71" s="174"/>
+      <c r="BM71" s="125"/>
       <c r="BN71" s="67"/>
       <c r="BO71" s="67"/>
-      <c r="BS71" s="177">
-        <v>3</v>
-      </c>
+      <c r="BS71" s="67"/>
       <c r="BT71" s="67"/>
       <c r="BU71" s="67"/>
-      <c r="BV71" s="67"/>
+      <c r="BV71" s="180">
+        <v>4</v>
+      </c>
       <c r="CF71" s="67"/>
       <c r="CG71" s="67"/>
       <c r="CH71" s="67"/>
@@ -5580,35 +5571,19 @@
       <c r="CM71" s="67"/>
       <c r="CQ71" s="6"/>
     </row>
-    <row r="72" spans="1:108" ht="16" thickBot="1">
-      <c r="B72" t="s">
-        <v>186</v>
-      </c>
-      <c r="C72">
-        <v>4</v>
-      </c>
-      <c r="D72">
-        <v>4</v>
-      </c>
-      <c r="E72">
-        <v>4</v>
-      </c>
-      <c r="F72">
-        <v>4</v>
-      </c>
+    <row r="72" spans="1:108">
       <c r="BA72" s="67"/>
-      <c r="BJ72" s="34"/>
-      <c r="BK72" s="146"/>
-      <c r="BL72" s="175"/>
+      <c r="BJ72" s="35"/>
+      <c r="BK72" s="175"/>
+      <c r="BL72" s="173"/>
       <c r="BM72" s="125"/>
       <c r="BN72" s="67"/>
       <c r="BO72" s="67"/>
       <c r="BS72" s="67"/>
       <c r="BT72" s="67"/>
       <c r="BU72" s="67"/>
-      <c r="BV72" s="181">
-        <v>4</v>
-      </c>
+      <c r="BV72" s="67"/>
+      <c r="CD72" s="136"/>
       <c r="CF72" s="67"/>
       <c r="CG72" s="67"/>
       <c r="CH72" s="67"/>
@@ -5617,19 +5592,23 @@
       <c r="CM72" s="67"/>
       <c r="CQ72" s="6"/>
     </row>
-    <row r="73" spans="1:108">
+    <row r="73" spans="1:108" ht="16" thickBot="1">
+      <c r="B73" t="s">
+        <v>156</v>
+      </c>
       <c r="BA73" s="67"/>
-      <c r="BJ73" s="35"/>
-      <c r="BK73" s="176"/>
-      <c r="BL73" s="174"/>
-      <c r="BM73" s="125"/>
+      <c r="BK73" s="73"/>
+      <c r="BL73" s="73"/>
+      <c r="BM73" s="67"/>
       <c r="BN73" s="67"/>
       <c r="BO73" s="67"/>
       <c r="BS73" s="67"/>
       <c r="BT73" s="67"/>
       <c r="BU73" s="67"/>
       <c r="BV73" s="67"/>
-      <c r="CD73" s="136"/>
+      <c r="CC73" s="75"/>
+      <c r="CD73" s="178"/>
+      <c r="CE73" s="128"/>
       <c r="CF73" s="67"/>
       <c r="CG73" s="67"/>
       <c r="CH73" s="67"/>
@@ -5640,11 +5619,23 @@
     </row>
     <row r="74" spans="1:108" ht="16" thickBot="1">
       <c r="B74" t="s">
-        <v>156</v>
+        <v>183</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
       </c>
       <c r="BA74" s="67"/>
-      <c r="BK74" s="73"/>
-      <c r="BL74" s="73"/>
+      <c r="BK74" s="67"/>
+      <c r="BL74" s="67"/>
       <c r="BM74" s="67"/>
       <c r="BN74" s="67"/>
       <c r="BO74" s="67"/>
@@ -5652,8 +5643,12 @@
       <c r="BT74" s="67"/>
       <c r="BU74" s="67"/>
       <c r="BV74" s="67"/>
-      <c r="CC74" s="75"/>
-      <c r="CD74" s="179"/>
+      <c r="CC74" s="182">
+        <v>3</v>
+      </c>
+      <c r="CD74" s="145">
+        <v>2</v>
+      </c>
       <c r="CE74" s="128"/>
       <c r="CF74" s="67"/>
       <c r="CG74" s="67"/>
@@ -5663,21 +5658,21 @@
       <c r="CM74" s="67"/>
       <c r="CQ74" s="6"/>
     </row>
-    <row r="75" spans="1:108" ht="16" thickBot="1">
-      <c r="B75" t="s">
-        <v>184</v>
+    <row r="75" spans="1:108" ht="31" thickBot="1">
+      <c r="B75" s="92" t="s">
+        <v>186</v>
       </c>
       <c r="C75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA75" s="67"/>
       <c r="BK75" s="67"/>
@@ -5685,17 +5680,11 @@
       <c r="BM75" s="67"/>
       <c r="BN75" s="67"/>
       <c r="BO75" s="67"/>
-      <c r="BS75" s="67"/>
-      <c r="BT75" s="67"/>
-      <c r="BU75" s="67"/>
-      <c r="BV75" s="67"/>
-      <c r="CC75" s="183">
-        <v>3</v>
-      </c>
-      <c r="CD75" s="146">
-        <v>2</v>
-      </c>
-      <c r="CE75" s="128"/>
+      <c r="CC75" s="75"/>
+      <c r="CD75" s="145">
+        <v>3</v>
+      </c>
+      <c r="CE75" s="135"/>
       <c r="CF75" s="67"/>
       <c r="CG75" s="67"/>
       <c r="CH75" s="67"/>
@@ -5706,19 +5695,19 @@
     </row>
     <row r="76" spans="1:108" ht="31" thickBot="1">
       <c r="B76" s="92" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76">
         <v>3</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA76" s="67"/>
       <c r="BK76" s="67"/>
@@ -5726,12 +5715,13 @@
       <c r="BM76" s="67"/>
       <c r="BN76" s="67"/>
       <c r="BO76" s="67"/>
-      <c r="CC76" s="75"/>
-      <c r="CD76" s="146">
-        <v>3</v>
-      </c>
-      <c r="CE76" s="135"/>
-      <c r="CF76" s="67"/>
+      <c r="BY76" s="67"/>
+      <c r="CC76" s="31"/>
+      <c r="CD76" s="172"/>
+      <c r="CE76" s="145">
+        <v>3</v>
+      </c>
+      <c r="CF76" s="125"/>
       <c r="CG76" s="67"/>
       <c r="CH76" s="67"/>
       <c r="CI76" s="67"/>
@@ -5739,52 +5729,50 @@
       <c r="CM76" s="67"/>
       <c r="CQ76" s="6"/>
     </row>
-    <row r="77" spans="1:108" ht="31" thickBot="1">
-      <c r="B77" s="92" t="s">
-        <v>237</v>
-      </c>
-      <c r="C77">
-        <v>4</v>
-      </c>
-      <c r="D77">
-        <v>3</v>
-      </c>
-      <c r="E77">
-        <v>4</v>
-      </c>
-      <c r="F77">
-        <v>3</v>
-      </c>
+    <row r="77" spans="1:108" ht="16" thickBot="1">
       <c r="BA77" s="67"/>
+      <c r="BD77" s="94"/>
       <c r="BK77" s="67"/>
       <c r="BL77" s="67"/>
       <c r="BM77" s="67"/>
       <c r="BN77" s="67"/>
       <c r="BO77" s="67"/>
-      <c r="BY77" s="67"/>
-      <c r="CC77" s="31"/>
-      <c r="CD77" s="173"/>
-      <c r="CE77" s="146">
-        <v>3</v>
-      </c>
-      <c r="CF77" s="125"/>
+      <c r="CD77" s="15"/>
+      <c r="CE77" s="15"/>
+      <c r="CF77" s="67"/>
       <c r="CG77" s="67"/>
       <c r="CH77" s="67"/>
       <c r="CI77" s="67"/>
       <c r="CJ77" s="67"/>
       <c r="CM77" s="67"/>
       <c r="CQ77" s="6"/>
+      <c r="CX77" s="134"/>
+      <c r="CY77" s="136"/>
+      <c r="CZ77" s="136"/>
+      <c r="DA77" s="134"/>
     </row>
     <row r="78" spans="1:108" ht="16" thickBot="1">
-      <c r="BA78" s="67"/>
-      <c r="BD78" s="94"/>
+      <c r="B78" t="s">
+        <v>165</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="BH78" s="67"/>
       <c r="BK78" s="67"/>
       <c r="BL78" s="67"/>
       <c r="BM78" s="67"/>
       <c r="BN78" s="67"/>
       <c r="BO78" s="67"/>
-      <c r="CD78" s="15"/>
-      <c r="CE78" s="15"/>
       <c r="CF78" s="67"/>
       <c r="CG78" s="67"/>
       <c r="CH78" s="67"/>
@@ -5792,33 +5780,17 @@
       <c r="CJ78" s="67"/>
       <c r="CM78" s="67"/>
       <c r="CQ78" s="6"/>
-      <c r="CX78" s="134"/>
-      <c r="CY78" s="136"/>
-      <c r="CZ78" s="136"/>
-      <c r="DA78" s="134"/>
-    </row>
-    <row r="79" spans="1:108" ht="16" thickBot="1">
-      <c r="B79" t="s">
-        <v>165</v>
-      </c>
-      <c r="C79">
-        <v>4</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="BH79" s="67"/>
-      <c r="BK79" s="67"/>
-      <c r="BL79" s="67"/>
-      <c r="BM79" s="67"/>
-      <c r="BN79" s="67"/>
-      <c r="BO79" s="67"/>
+      <c r="CW78" s="31"/>
+      <c r="CX78" s="173"/>
+      <c r="CY78" s="178"/>
+      <c r="CZ78" s="145"/>
+      <c r="DA78" s="145"/>
+      <c r="DB78" s="177"/>
+      <c r="DD78" s="180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:108">
       <c r="CF79" s="67"/>
       <c r="CG79" s="67"/>
       <c r="CH79" s="67"/>
@@ -5826,17 +5798,25 @@
       <c r="CJ79" s="67"/>
       <c r="CM79" s="67"/>
       <c r="CQ79" s="6"/>
-      <c r="CW79" s="31"/>
-      <c r="CX79" s="174"/>
-      <c r="CY79" s="179"/>
-      <c r="CZ79" s="146"/>
-      <c r="DA79" s="146"/>
-      <c r="DB79" s="178"/>
-      <c r="DD79" s="181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:108">
+      <c r="CX79" s="14"/>
+      <c r="CY79" s="15"/>
+      <c r="CZ79" s="15"/>
+      <c r="DA79" s="14"/>
+    </row>
+    <row r="80" spans="1:108" ht="16" thickBot="1">
+      <c r="A80" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80" t="s">
+        <v>100</v>
+      </c>
+      <c r="BH80" s="67"/>
+      <c r="BK80" s="67"/>
+      <c r="BL80" s="67"/>
+      <c r="BM80" s="67"/>
+      <c r="BN80" s="67"/>
+      <c r="BO80" s="126"/>
+      <c r="BR80" s="94"/>
       <c r="CF80" s="67"/>
       <c r="CG80" s="67"/>
       <c r="CH80" s="67"/>
@@ -5844,26 +5824,34 @@
       <c r="CJ80" s="67"/>
       <c r="CM80" s="67"/>
       <c r="CQ80" s="6"/>
-      <c r="CX80" s="14"/>
-      <c r="CY80" s="15"/>
-      <c r="CZ80" s="15"/>
-      <c r="DA80" s="14"/>
-    </row>
-    <row r="81" spans="1:111" ht="16" thickBot="1">
-      <c r="A81" s="1" t="s">
-        <v>161</v>
-      </c>
+    </row>
+    <row r="81" spans="2:111" ht="16" thickBot="1">
       <c r="B81" t="s">
-        <v>100</v>
+        <v>157</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
       </c>
       <c r="BH81" s="67"/>
       <c r="BK81" s="67"/>
       <c r="BL81" s="67"/>
       <c r="BM81" s="67"/>
-      <c r="BN81" s="67"/>
-      <c r="BO81" s="126"/>
-      <c r="BR81" s="94"/>
-      <c r="CF81" s="67"/>
+      <c r="BN81" s="75"/>
+      <c r="BO81" s="145"/>
+      <c r="BP81" s="135"/>
+      <c r="CC81" s="67"/>
+      <c r="CF81" s="176">
+        <v>2</v>
+      </c>
       <c r="CG81" s="67"/>
       <c r="CH81" s="67"/>
       <c r="CI81" s="67"/>
@@ -5871,52 +5859,53 @@
       <c r="CM81" s="67"/>
       <c r="CQ81" s="6"/>
     </row>
-    <row r="82" spans="1:111" ht="16" thickBot="1">
+    <row r="82" spans="2:111" ht="16" thickBot="1">
       <c r="B82" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH82" s="67"/>
       <c r="BK82" s="67"/>
       <c r="BL82" s="67"/>
       <c r="BM82" s="67"/>
-      <c r="BN82" s="75"/>
-      <c r="BO82" s="146"/>
-      <c r="BP82" s="135"/>
+      <c r="BN82" s="67"/>
+      <c r="BO82" s="144"/>
+      <c r="BP82" s="146"/>
+      <c r="BQ82" s="128"/>
       <c r="CC82" s="67"/>
-      <c r="CF82" s="177">
-        <v>2</v>
-      </c>
+      <c r="CF82" s="67"/>
       <c r="CG82" s="67"/>
       <c r="CH82" s="67"/>
       <c r="CI82" s="67"/>
-      <c r="CJ82" s="67"/>
+      <c r="CJ82" s="176">
+        <v>1</v>
+      </c>
       <c r="CM82" s="67"/>
       <c r="CQ82" s="6"/>
     </row>
-    <row r="83" spans="1:111" ht="16" thickBot="1">
-      <c r="B83" t="s">
+    <row r="83" spans="2:111" ht="31" thickBot="1">
+      <c r="B83" s="92" t="s">
         <v>189</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -5926,23 +5915,23 @@
       <c r="BL83" s="67"/>
       <c r="BM83" s="67"/>
       <c r="BN83" s="67"/>
-      <c r="BO83" s="145"/>
-      <c r="BP83" s="147"/>
+      <c r="BO83" s="144"/>
+      <c r="BP83" s="146"/>
       <c r="BQ83" s="128"/>
       <c r="CC83" s="67"/>
       <c r="CF83" s="67"/>
       <c r="CG83" s="67"/>
       <c r="CH83" s="67"/>
       <c r="CI83" s="67"/>
-      <c r="CJ83" s="177">
-        <v>1</v>
+      <c r="CJ83" s="176">
+        <v>2</v>
       </c>
       <c r="CM83" s="67"/>
       <c r="CQ83" s="6"/>
     </row>
-    <row r="84" spans="1:111" ht="31" thickBot="1">
-      <c r="B84" s="92" t="s">
-        <v>190</v>
+    <row r="84" spans="2:111">
+      <c r="B84" t="s">
+        <v>187</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -5951,80 +5940,80 @@
         <v>2</v>
       </c>
       <c r="E84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH84" s="67"/>
       <c r="BK84" s="67"/>
       <c r="BL84" s="67"/>
       <c r="BM84" s="67"/>
       <c r="BN84" s="67"/>
-      <c r="BO84" s="145"/>
-      <c r="BP84" s="147"/>
+      <c r="BO84" s="144"/>
+      <c r="BP84" s="146"/>
       <c r="BQ84" s="128"/>
       <c r="CC84" s="67"/>
       <c r="CF84" s="67"/>
       <c r="CG84" s="67"/>
       <c r="CH84" s="67"/>
       <c r="CI84" s="67"/>
-      <c r="CJ84" s="177">
+      <c r="CJ84" s="176">
         <v>2</v>
       </c>
       <c r="CM84" s="67"/>
       <c r="CQ84" s="6"/>
     </row>
-    <row r="85" spans="1:111">
-      <c r="B85" t="s">
-        <v>188</v>
+    <row r="85" spans="2:111" ht="31" thickBot="1">
+      <c r="B85" s="92" t="s">
+        <v>190</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH85" s="67"/>
       <c r="BK85" s="67"/>
       <c r="BL85" s="67"/>
       <c r="BM85" s="67"/>
       <c r="BN85" s="67"/>
-      <c r="BO85" s="145"/>
+      <c r="BO85" s="75"/>
       <c r="BP85" s="147"/>
-      <c r="BQ85" s="128"/>
-      <c r="CC85" s="67"/>
+      <c r="BQ85" s="135"/>
       <c r="CF85" s="67"/>
       <c r="CG85" s="67"/>
       <c r="CH85" s="67"/>
       <c r="CI85" s="67"/>
-      <c r="CJ85" s="177">
-        <v>2</v>
+      <c r="CJ85" s="67"/>
+      <c r="CK85" s="176">
+        <v>1</v>
       </c>
       <c r="CM85" s="67"/>
       <c r="CQ85" s="6"/>
     </row>
-    <row r="86" spans="1:111" ht="31" thickBot="1">
+    <row r="86" spans="2:111" ht="16" thickBot="1">
       <c r="B86" s="92" t="s">
         <v>191</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH86" s="67"/>
       <c r="BK86" s="67"/>
@@ -6032,22 +6021,22 @@
       <c r="BM86" s="67"/>
       <c r="BN86" s="67"/>
       <c r="BO86" s="75"/>
-      <c r="BP86" s="148"/>
+      <c r="BP86" s="147"/>
       <c r="BQ86" s="135"/>
       <c r="CF86" s="67"/>
       <c r="CG86" s="67"/>
       <c r="CH86" s="67"/>
       <c r="CI86" s="67"/>
       <c r="CJ86" s="67"/>
-      <c r="CK86" s="177">
-        <v>1</v>
+      <c r="CK86" s="176">
+        <v>2</v>
       </c>
       <c r="CM86" s="67"/>
       <c r="CQ86" s="6"/>
     </row>
-    <row r="87" spans="1:111" ht="16" thickBot="1">
-      <c r="B87" s="92" t="s">
-        <v>192</v>
+    <row r="87" spans="2:111" ht="16" thickBot="1">
+      <c r="B87" t="s">
+        <v>159</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -6066,153 +6055,143 @@
       <c r="BL87" s="67"/>
       <c r="BM87" s="67"/>
       <c r="BN87" s="67"/>
-      <c r="BO87" s="75"/>
-      <c r="BP87" s="148"/>
-      <c r="BQ87" s="135"/>
+      <c r="BO87" s="67"/>
+      <c r="BP87" s="34"/>
+      <c r="BQ87" s="145"/>
+      <c r="BR87" s="131"/>
       <c r="CF87" s="67"/>
       <c r="CG87" s="67"/>
       <c r="CH87" s="67"/>
       <c r="CI87" s="67"/>
       <c r="CJ87" s="67"/>
-      <c r="CK87" s="177">
+      <c r="CK87" s="176">
         <v>2</v>
       </c>
       <c r="CM87" s="67"/>
       <c r="CQ87" s="6"/>
     </row>
-    <row r="88" spans="1:111" ht="16" thickBot="1">
-      <c r="B88" t="s">
-        <v>159</v>
-      </c>
-      <c r="C88">
-        <v>2</v>
-      </c>
-      <c r="D88">
-        <v>2</v>
-      </c>
-      <c r="E88">
-        <v>2</v>
-      </c>
-      <c r="F88">
-        <v>2</v>
-      </c>
+    <row r="88" spans="2:111">
       <c r="BH88" s="67"/>
       <c r="BK88" s="67"/>
       <c r="BL88" s="67"/>
       <c r="BM88" s="67"/>
       <c r="BN88" s="67"/>
       <c r="BO88" s="67"/>
-      <c r="BP88" s="34"/>
-      <c r="BQ88" s="146"/>
-      <c r="BR88" s="131"/>
+      <c r="BQ88" s="15"/>
       <c r="CF88" s="67"/>
       <c r="CG88" s="67"/>
       <c r="CH88" s="67"/>
       <c r="CI88" s="67"/>
       <c r="CJ88" s="67"/>
-      <c r="CK88" s="177">
-        <v>2</v>
-      </c>
       <c r="CM88" s="67"/>
       <c r="CQ88" s="6"/>
     </row>
-    <row r="89" spans="1:111">
-      <c r="BH89" s="67"/>
-      <c r="BK89" s="67"/>
-      <c r="BL89" s="67"/>
-      <c r="BM89" s="67"/>
-      <c r="BN89" s="67"/>
+    <row r="89" spans="2:111" ht="16" thickBot="1">
+      <c r="B89" t="s">
+        <v>167</v>
+      </c>
       <c r="BO89" s="67"/>
-      <c r="BQ89" s="15"/>
       <c r="CF89" s="67"/>
       <c r="CG89" s="67"/>
       <c r="CH89" s="67"/>
       <c r="CI89" s="67"/>
-      <c r="CJ89" s="67"/>
+      <c r="CJ89" s="126"/>
+      <c r="CK89" s="136"/>
       <c r="CM89" s="67"/>
       <c r="CQ89" s="6"/>
     </row>
-    <row r="90" spans="1:111" ht="16" thickBot="1">
+    <row r="90" spans="2:111" ht="16" thickBot="1">
       <c r="B90" t="s">
-        <v>167</v>
-      </c>
-      <c r="BO90" s="67"/>
+        <v>192</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
       <c r="CF90" s="67"/>
       <c r="CG90" s="67"/>
       <c r="CH90" s="67"/>
-      <c r="CI90" s="67"/>
-      <c r="CJ90" s="126"/>
-      <c r="CK90" s="136"/>
+      <c r="CI90" s="75"/>
+      <c r="CJ90" s="145"/>
+      <c r="CK90" s="145"/>
+      <c r="CL90" s="135"/>
       <c r="CM90" s="67"/>
       <c r="CQ90" s="6"/>
-    </row>
-    <row r="91" spans="1:111" ht="16" thickBot="1">
-      <c r="B91" t="s">
-        <v>193</v>
-      </c>
-      <c r="C91">
-        <v>2</v>
-      </c>
-      <c r="D91">
-        <v>3</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
+      <c r="DE90" s="176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="2:111" ht="16" thickBot="1">
       <c r="CF91" s="67"/>
       <c r="CG91" s="67"/>
       <c r="CH91" s="67"/>
       <c r="CI91" s="75"/>
-      <c r="CJ91" s="146"/>
-      <c r="CK91" s="146"/>
-      <c r="CL91" s="135"/>
-      <c r="CM91" s="67"/>
-      <c r="CQ91" s="6"/>
-      <c r="DE91" s="177">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:111" ht="16" thickBot="1">
-      <c r="CF92" s="67"/>
-      <c r="CG92" s="67"/>
-      <c r="CH92" s="67"/>
-      <c r="CI92" s="75"/>
-      <c r="CJ92" s="188"/>
-      <c r="CK92" s="188"/>
-      <c r="CL92" s="179"/>
+      <c r="CJ91" s="187"/>
+      <c r="CK91" s="187"/>
+      <c r="CL91" s="178"/>
+      <c r="CM91" s="125"/>
+      <c r="CQ91" s="141"/>
+      <c r="DE91" s="176"/>
+    </row>
+    <row r="92" spans="2:111" ht="16" thickBot="1">
+      <c r="B92" t="s">
+        <v>193</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="CJ92" s="14"/>
+      <c r="CK92" s="34"/>
+      <c r="CL92" s="145"/>
       <c r="CM92" s="125"/>
-      <c r="CQ92" s="142"/>
-      <c r="DE92" s="177"/>
-    </row>
-    <row r="93" spans="1:111" ht="16" thickBot="1">
+      <c r="CQ92" s="141"/>
+      <c r="DF92" s="176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:111" ht="16" thickBot="1">
       <c r="B93" t="s">
         <v>194</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CJ93" s="14"/>
       <c r="CK93" s="34"/>
-      <c r="CL93" s="146"/>
+      <c r="CL93" s="145"/>
       <c r="CM93" s="125"/>
-      <c r="CQ93" s="142"/>
-      <c r="DF93" s="177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:111" ht="16" thickBot="1">
+      <c r="CQ93" s="141"/>
+      <c r="DF93" s="176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:111" ht="16" thickBot="1">
       <c r="B94" t="s">
         <v>195</v>
       </c>
@@ -6223,21 +6202,21 @@
         <v>3</v>
       </c>
       <c r="E94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CJ94" s="14"/>
       <c r="CK94" s="34"/>
-      <c r="CL94" s="146"/>
+      <c r="CL94" s="145"/>
       <c r="CM94" s="125"/>
-      <c r="CQ94" s="142"/>
-      <c r="DF94" s="177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:111" ht="16" thickBot="1">
+      <c r="CQ94" s="141"/>
+      <c r="DF94" s="176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="2:111" ht="16" thickBot="1">
       <c r="B95" t="s">
         <v>196</v>
       </c>
@@ -6255,162 +6234,161 @@
       </c>
       <c r="CJ95" s="14"/>
       <c r="CK95" s="34"/>
-      <c r="CL95" s="146"/>
+      <c r="CL95" s="145"/>
       <c r="CM95" s="125"/>
-      <c r="CQ95" s="142"/>
-      <c r="DF95" s="177">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:111" ht="16" thickBot="1">
+      <c r="CQ95" s="141"/>
+      <c r="DG95" s="176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="2:111" ht="16" thickBot="1">
       <c r="B96" t="s">
-        <v>197</v>
-      </c>
-      <c r="C96">
-        <v>2</v>
+        <v>162</v>
       </c>
       <c r="D96">
-        <v>3</v>
-      </c>
-      <c r="E96">
         <v>0</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
-      <c r="CJ96" s="14"/>
-      <c r="CK96" s="34"/>
-      <c r="CL96" s="146"/>
-      <c r="CM96" s="125"/>
-      <c r="CQ96" s="142"/>
-      <c r="DG96" s="177">
-        <v>3</v>
-      </c>
+      <c r="CL96" s="15"/>
+      <c r="CM96" s="67"/>
+      <c r="CP96" s="31"/>
+      <c r="CQ96" s="145"/>
+      <c r="CR96" s="128"/>
     </row>
     <row r="97" spans="1:112" ht="16" thickBot="1">
-      <c r="B97" t="s">
-        <v>162</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
       <c r="CL97" s="15"/>
       <c r="CM97" s="67"/>
       <c r="CP97" s="31"/>
-      <c r="CQ97" s="146"/>
+      <c r="CQ97" s="145"/>
       <c r="CR97" s="128"/>
     </row>
     <row r="98" spans="1:112" ht="16" thickBot="1">
-      <c r="CL98" s="15"/>
+      <c r="B98" t="s">
+        <v>163</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
       <c r="CM98" s="67"/>
       <c r="CP98" s="31"/>
-      <c r="CQ98" s="146"/>
+      <c r="CQ98" s="145"/>
       <c r="CR98" s="128"/>
     </row>
     <row r="99" spans="1:112" ht="16" thickBot="1">
-      <c r="B99" t="s">
-        <v>163</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
       <c r="CM99" s="67"/>
-      <c r="CP99" s="31"/>
-      <c r="CQ99" s="146"/>
-      <c r="CR99" s="128"/>
-    </row>
-    <row r="100" spans="1:112" ht="16" thickBot="1">
+      <c r="CQ99" s="18"/>
+      <c r="CZ99" s="136"/>
+      <c r="DE99" s="134"/>
+    </row>
+    <row r="100" spans="1:112" ht="31" thickBot="1">
+      <c r="B100" s="92" t="s">
+        <v>164</v>
+      </c>
       <c r="CM100" s="67"/>
-      <c r="CQ100" s="18"/>
-      <c r="CZ100" s="136"/>
-      <c r="DE100" s="134"/>
-    </row>
-    <row r="101" spans="1:112" ht="31" thickBot="1">
+      <c r="CQ100" s="6"/>
+      <c r="CY100" s="35"/>
+      <c r="CZ100" s="178"/>
+      <c r="DA100" s="130"/>
+      <c r="DD100" s="31"/>
+      <c r="DE100" s="145"/>
+      <c r="DF100" s="135"/>
+      <c r="DG100" s="136"/>
+    </row>
+    <row r="101" spans="1:112" ht="16" thickBot="1">
       <c r="B101" s="92" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="CM101" s="67"/>
       <c r="CQ101" s="6"/>
-      <c r="CY101" s="35"/>
-      <c r="CZ101" s="179"/>
-      <c r="DA101" s="130"/>
+      <c r="CZ101" s="15"/>
       <c r="DD101" s="31"/>
-      <c r="DE101" s="146"/>
-      <c r="DF101" s="135"/>
-      <c r="DG101" s="136"/>
-    </row>
-    <row r="102" spans="1:112" ht="16" thickBot="1">
-      <c r="B102" s="92" t="s">
-        <v>166</v>
-      </c>
+      <c r="DE101" s="172"/>
+      <c r="DF101" s="145"/>
+      <c r="DG101" s="145"/>
+      <c r="DH101" s="130"/>
+    </row>
+    <row r="102" spans="1:112">
       <c r="CM102" s="67"/>
       <c r="CQ102" s="6"/>
-      <c r="CZ102" s="15"/>
-      <c r="DD102" s="31"/>
-      <c r="DE102" s="173"/>
-      <c r="DF102" s="146"/>
-      <c r="DG102" s="146"/>
-      <c r="DH102" s="130"/>
+      <c r="DE102" s="14"/>
+      <c r="DF102" s="15"/>
+      <c r="DG102" s="15"/>
     </row>
     <row r="103" spans="1:112">
       <c r="CM103" s="67"/>
       <c r="CQ103" s="6"/>
-      <c r="DE103" s="14"/>
-      <c r="DF103" s="15"/>
-      <c r="DG103" s="15"/>
     </row>
     <row r="104" spans="1:112">
+      <c r="A104" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="B104" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR104" s="12"/>
+      <c r="AS104" s="32"/>
+      <c r="AT104" s="54"/>
+      <c r="AU104" s="12"/>
+      <c r="AV104" s="12"/>
+      <c r="AW104" s="12"/>
+      <c r="AX104" s="12"/>
+      <c r="AY104" s="12"/>
+      <c r="AZ104" s="12"/>
+      <c r="BA104" s="12"/>
+      <c r="BB104" s="12"/>
+      <c r="BC104" s="12"/>
+      <c r="BD104" s="13"/>
+      <c r="BE104" s="12"/>
+      <c r="BF104" s="12"/>
+      <c r="BG104" s="12"/>
+      <c r="BH104" s="12"/>
+      <c r="BI104" s="12"/>
+      <c r="BJ104" s="12"/>
+      <c r="BK104" s="12"/>
+      <c r="BL104" s="12"/>
+      <c r="BM104" s="12"/>
+      <c r="BN104" s="12"/>
+      <c r="BO104" s="12"/>
+      <c r="BP104" s="12"/>
+      <c r="BQ104" s="12"/>
       <c r="CM104" s="67"/>
       <c r="CQ104" s="6"/>
     </row>
     <row r="105" spans="1:112">
-      <c r="A105" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="B105" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR105" s="12"/>
-      <c r="AS105" s="32"/>
-      <c r="AT105" s="54"/>
-      <c r="AU105" s="12"/>
-      <c r="AV105" s="12"/>
-      <c r="AW105" s="12"/>
-      <c r="AX105" s="12"/>
-      <c r="AY105" s="12"/>
-      <c r="AZ105" s="12"/>
-      <c r="BA105" s="12"/>
-      <c r="BB105" s="12"/>
-      <c r="BC105" s="12"/>
-      <c r="BD105" s="13"/>
-      <c r="BE105" s="12"/>
-      <c r="BF105" s="12"/>
-      <c r="BG105" s="12"/>
-      <c r="BH105" s="12"/>
-      <c r="BI105" s="12"/>
-      <c r="BJ105" s="12"/>
-      <c r="BK105" s="12"/>
-      <c r="BL105" s="12"/>
-      <c r="BM105" s="12"/>
-      <c r="BN105" s="12"/>
-      <c r="BO105" s="12"/>
-      <c r="BP105" s="12"/>
-      <c r="BQ105" s="12"/>
+      <c r="A105" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B105" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ105" s="67"/>
+      <c r="AT105" s="70"/>
+      <c r="AU105" s="69"/>
+      <c r="AV105" s="69"/>
+      <c r="AW105" s="67"/>
       <c r="CM105" s="67"/>
       <c r="CQ105" s="6"/>
     </row>
     <row r="106" spans="1:112">
-      <c r="A106" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="B106" t="s">
-        <v>101</v>
+        <v>203</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+      <c r="D106">
+        <v>3</v>
+      </c>
+      <c r="E106">
+        <v>4</v>
+      </c>
+      <c r="F106">
+        <v>5</v>
       </c>
       <c r="AQ106" s="67"/>
       <c r="AT106" s="70"/>
@@ -6425,16 +6403,16 @@
         <v>204</v>
       </c>
       <c r="C107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F107">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AQ107" s="67"/>
       <c r="AT107" s="70"/>
@@ -6449,16 +6427,16 @@
         <v>205</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E108">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F108">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AQ108" s="67"/>
       <c r="AT108" s="70"/>
@@ -6473,40 +6451,42 @@
         <v>206</v>
       </c>
       <c r="C109">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109">
         <v>10</v>
       </c>
-      <c r="E109">
-        <v>8</v>
-      </c>
       <c r="F109">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AQ109" s="67"/>
-      <c r="AT109" s="70"/>
-      <c r="AU109" s="69"/>
-      <c r="AV109" s="69"/>
-      <c r="AW109" s="67"/>
+      <c r="AT109" s="54"/>
+      <c r="AU109" s="12"/>
+      <c r="AV109" s="12"/>
+      <c r="AW109" s="12"/>
+      <c r="BD109" s="83"/>
+      <c r="BK109" s="67"/>
       <c r="CM109" s="67"/>
       <c r="CQ109" s="6"/>
     </row>
     <row r="110" spans="1:112">
       <c r="B110" t="s">
-        <v>207</v>
+        <v>86</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D110">
         <v>2</v>
       </c>
       <c r="E110">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F110">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AQ110" s="67"/>
       <c r="AT110" s="54"/>
@@ -6519,42 +6499,40 @@
       <c r="CQ110" s="6"/>
     </row>
     <row r="111" spans="1:112">
+      <c r="A111" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="B111" t="s">
-        <v>86</v>
-      </c>
-      <c r="C111">
-        <v>3</v>
-      </c>
-      <c r="D111">
-        <v>2</v>
-      </c>
-      <c r="E111">
-        <v>3</v>
-      </c>
-      <c r="F111">
-        <v>2</v>
-      </c>
-      <c r="AQ111" s="67"/>
-      <c r="AT111" s="54"/>
-      <c r="AU111" s="12"/>
+        <v>102</v>
+      </c>
       <c r="AV111" s="12"/>
       <c r="AW111" s="12"/>
-      <c r="BD111" s="83"/>
-      <c r="BK111" s="67"/>
+      <c r="AX111" s="12"/>
+      <c r="BA111" s="12"/>
       <c r="CM111" s="67"/>
       <c r="CQ111" s="6"/>
     </row>
     <row r="112" spans="1:112">
-      <c r="A112" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="B112" t="s">
-        <v>102</v>
-      </c>
-      <c r="AV112" s="12"/>
-      <c r="AW112" s="12"/>
-      <c r="AX112" s="12"/>
-      <c r="BA112" s="12"/>
+        <v>207</v>
+      </c>
+      <c r="C112">
+        <v>5</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112">
+        <v>5</v>
+      </c>
+      <c r="F112">
+        <v>3</v>
+      </c>
+      <c r="AQ112" s="67"/>
+      <c r="AT112" s="70"/>
+      <c r="AU112" s="69"/>
+      <c r="AV112" s="69"/>
+      <c r="AW112" s="67"/>
       <c r="CM112" s="67"/>
       <c r="CQ112" s="6"/>
     </row>
@@ -6563,37 +6541,39 @@
         <v>208</v>
       </c>
       <c r="C113">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E113">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AQ113" s="67"/>
-      <c r="AT113" s="70"/>
-      <c r="AU113" s="69"/>
-      <c r="AV113" s="69"/>
-      <c r="AW113" s="67"/>
+      <c r="AT113" s="54"/>
+      <c r="AU113" s="12"/>
+      <c r="AV113" s="12"/>
+      <c r="AW113" s="12"/>
+      <c r="BD113" s="83"/>
+      <c r="BK113" s="67"/>
       <c r="CM113" s="67"/>
       <c r="CQ113" s="6"/>
     </row>
     <row r="114" spans="1:95">
       <c r="B114" t="s">
-        <v>209</v>
+        <v>86</v>
       </c>
       <c r="C114">
         <v>3</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -6609,84 +6589,84 @@
       <c r="CQ114" s="6"/>
     </row>
     <row r="115" spans="1:95">
+      <c r="A115" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="B115" t="s">
-        <v>86</v>
-      </c>
-      <c r="C115">
-        <v>3</v>
-      </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
-      <c r="E115">
-        <v>3</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="AQ115" s="67"/>
-      <c r="AT115" s="54"/>
-      <c r="AU115" s="12"/>
-      <c r="AV115" s="12"/>
-      <c r="AW115" s="12"/>
-      <c r="BD115" s="83"/>
-      <c r="BK115" s="67"/>
+        <v>103</v>
+      </c>
+      <c r="BA115" s="12"/>
+      <c r="BB115" s="12"/>
+      <c r="BC115" s="12"/>
+      <c r="BD115" s="13"/>
       <c r="CM115" s="67"/>
       <c r="CQ115" s="6"/>
     </row>
     <row r="116" spans="1:95">
-      <c r="A116" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="B116" t="s">
-        <v>103</v>
-      </c>
-      <c r="BA116" s="12"/>
-      <c r="BB116" s="12"/>
-      <c r="BC116" s="12"/>
-      <c r="BD116" s="13"/>
+        <v>209</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>5</v>
+      </c>
+      <c r="F116">
+        <v>4</v>
+      </c>
+      <c r="AQ116" s="67"/>
+      <c r="AT116" s="70"/>
+      <c r="AU116" s="69"/>
+      <c r="AV116" s="69"/>
+      <c r="AW116" s="67"/>
       <c r="CM116" s="67"/>
       <c r="CQ116" s="6"/>
     </row>
     <row r="117" spans="1:95">
       <c r="B117" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E117">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F117">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AQ117" s="67"/>
-      <c r="AT117" s="70"/>
-      <c r="AU117" s="69"/>
-      <c r="AV117" s="69"/>
-      <c r="AW117" s="67"/>
+      <c r="AT117" s="54"/>
+      <c r="AU117" s="12"/>
+      <c r="AV117" s="12"/>
+      <c r="AW117" s="12"/>
+      <c r="BD117" s="83"/>
+      <c r="BK117" s="67"/>
       <c r="CM117" s="67"/>
       <c r="CQ117" s="6"/>
     </row>
     <row r="118" spans="1:95">
       <c r="B118" t="s">
-        <v>209</v>
+        <v>86</v>
       </c>
       <c r="C118">
         <v>3</v>
       </c>
       <c r="D118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E118">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F118">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AQ118" s="67"/>
       <c r="AT118" s="54"/>
@@ -6699,86 +6679,86 @@
       <c r="CQ118" s="6"/>
     </row>
     <row r="119" spans="1:95">
+      <c r="A119" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="B119" t="s">
-        <v>86</v>
-      </c>
-      <c r="C119">
-        <v>3</v>
-      </c>
-      <c r="D119">
-        <v>2</v>
-      </c>
-      <c r="E119">
-        <v>3</v>
-      </c>
-      <c r="F119">
-        <v>2</v>
-      </c>
-      <c r="AQ119" s="67"/>
-      <c r="AT119" s="54"/>
-      <c r="AU119" s="12"/>
-      <c r="AV119" s="12"/>
-      <c r="AW119" s="12"/>
-      <c r="BD119" s="83"/>
-      <c r="BK119" s="67"/>
+        <v>105</v>
+      </c>
+      <c r="BA119" s="67"/>
+      <c r="BD119" s="13"/>
+      <c r="BG119" s="67"/>
+      <c r="BH119" s="12"/>
+      <c r="BI119" s="12"/>
+      <c r="BJ119" s="12"/>
       <c r="CM119" s="67"/>
       <c r="CQ119" s="6"/>
     </row>
     <row r="120" spans="1:95">
-      <c r="A120" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="B120" t="s">
-        <v>105</v>
-      </c>
-      <c r="BA120" s="67"/>
-      <c r="BD120" s="13"/>
-      <c r="BG120" s="67"/>
-      <c r="BH120" s="12"/>
-      <c r="BI120" s="12"/>
-      <c r="BJ120" s="12"/>
+        <v>210</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>2</v>
+      </c>
+      <c r="F120">
+        <v>2</v>
+      </c>
+      <c r="AQ120" s="67"/>
+      <c r="AT120" s="70"/>
+      <c r="AU120" s="69"/>
+      <c r="AV120" s="69"/>
+      <c r="AW120" s="67"/>
       <c r="CM120" s="67"/>
       <c r="CQ120" s="6"/>
     </row>
     <row r="121" spans="1:95">
       <c r="B121" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E121">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F121">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AQ121" s="67"/>
-      <c r="AT121" s="70"/>
-      <c r="AU121" s="69"/>
-      <c r="AV121" s="69"/>
-      <c r="AW121" s="67"/>
+      <c r="AT121" s="54"/>
+      <c r="AU121" s="12"/>
+      <c r="AV121" s="12"/>
+      <c r="AW121" s="12"/>
+      <c r="BD121" s="83"/>
+      <c r="BK121" s="67"/>
       <c r="CM121" s="67"/>
       <c r="CQ121" s="6"/>
     </row>
     <row r="122" spans="1:95">
       <c r="B122" t="s">
-        <v>209</v>
+        <v>86</v>
       </c>
       <c r="C122">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D122">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E122">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F122">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AQ122" s="67"/>
       <c r="AT122" s="54"/>
@@ -6791,84 +6771,84 @@
       <c r="CQ122" s="6"/>
     </row>
     <row r="123" spans="1:95">
+      <c r="A123" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="B123" t="s">
-        <v>86</v>
-      </c>
-      <c r="C123">
-        <v>2</v>
-      </c>
-      <c r="D123">
-        <v>2</v>
-      </c>
-      <c r="E123">
-        <v>2</v>
-      </c>
-      <c r="F123">
-        <v>1</v>
-      </c>
-      <c r="AQ123" s="67"/>
-      <c r="AT123" s="54"/>
-      <c r="AU123" s="12"/>
-      <c r="AV123" s="12"/>
-      <c r="AW123" s="12"/>
-      <c r="BD123" s="83"/>
-      <c r="BK123" s="67"/>
+        <v>106</v>
+      </c>
+      <c r="BI123" s="12"/>
+      <c r="BJ123" s="12"/>
+      <c r="BK123" s="12"/>
+      <c r="BO123" s="12"/>
       <c r="CM123" s="67"/>
       <c r="CQ123" s="6"/>
     </row>
     <row r="124" spans="1:95">
-      <c r="A124" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="B124" t="s">
-        <v>106</v>
-      </c>
-      <c r="BI124" s="12"/>
-      <c r="BJ124" s="12"/>
-      <c r="BK124" s="12"/>
-      <c r="BO124" s="12"/>
+        <v>213</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+      <c r="F124">
+        <v>4</v>
+      </c>
+      <c r="AQ124" s="67"/>
+      <c r="AT124" s="70"/>
+      <c r="AU124" s="69"/>
+      <c r="AV124" s="69"/>
+      <c r="AW124" s="67"/>
       <c r="CM124" s="67"/>
       <c r="CQ124" s="6"/>
     </row>
     <row r="125" spans="1:95">
       <c r="B125" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D125">
         <v>2</v>
       </c>
       <c r="E125">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F125">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ125" s="67"/>
-      <c r="AT125" s="70"/>
-      <c r="AU125" s="69"/>
-      <c r="AV125" s="69"/>
-      <c r="AW125" s="67"/>
+      <c r="AT125" s="54"/>
+      <c r="AU125" s="12"/>
+      <c r="AV125" s="12"/>
+      <c r="AW125" s="12"/>
+      <c r="BD125" s="83"/>
+      <c r="BK125" s="67"/>
       <c r="CM125" s="67"/>
       <c r="CQ125" s="6"/>
     </row>
     <row r="126" spans="1:95">
       <c r="B126" t="s">
-        <v>209</v>
+        <v>86</v>
       </c>
       <c r="C126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E126">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F126">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AQ126" s="67"/>
       <c r="AT126" s="54"/>
@@ -6881,139 +6861,137 @@
       <c r="CQ126" s="6"/>
     </row>
     <row r="127" spans="1:95">
+      <c r="A127" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="B127" t="s">
-        <v>86</v>
+        <v>212</v>
       </c>
       <c r="C127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F127">
-        <v>2</v>
-      </c>
-      <c r="AQ127" s="67"/>
-      <c r="AT127" s="54"/>
-      <c r="AU127" s="12"/>
-      <c r="AV127" s="12"/>
-      <c r="AW127" s="12"/>
-      <c r="BD127" s="83"/>
-      <c r="BK127" s="67"/>
+        <v>3</v>
+      </c>
+      <c r="BO127" s="12"/>
+      <c r="BP127" s="12"/>
       <c r="CM127" s="67"/>
       <c r="CQ127" s="6"/>
     </row>
     <row r="128" spans="1:95">
-      <c r="A128" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B128" t="s">
-        <v>213</v>
-      </c>
-      <c r="C128">
-        <v>3</v>
-      </c>
-      <c r="D128">
-        <v>3</v>
-      </c>
-      <c r="E128">
-        <v>3</v>
-      </c>
-      <c r="F128">
-        <v>3</v>
-      </c>
-      <c r="BO128" s="12"/>
-      <c r="BP128" s="12"/>
+      <c r="AT128" s="70"/>
       <c r="CM128" s="67"/>
       <c r="CQ128" s="6"/>
     </row>
     <row r="129" spans="1:125">
-      <c r="AT129" s="70"/>
       <c r="CM129" s="67"/>
       <c r="CQ129" s="6"/>
     </row>
     <row r="130" spans="1:125">
-      <c r="CM130" s="67"/>
-      <c r="CQ130" s="6"/>
+      <c r="A130" s="101" t="s">
+        <v>89</v>
+      </c>
+      <c r="B130" s="102" t="s">
+        <v>40</v>
+      </c>
+      <c r="BM130" s="67"/>
+      <c r="BN130" s="67"/>
+      <c r="BO130" s="85"/>
+      <c r="BP130" s="85"/>
+      <c r="BQ130" s="85"/>
+      <c r="BR130" s="85"/>
+      <c r="BS130" s="85"/>
+      <c r="BT130" s="85"/>
+      <c r="BU130" s="85"/>
+      <c r="BV130" s="85"/>
+      <c r="BW130" s="86"/>
+      <c r="BX130" s="87"/>
+      <c r="BY130" s="85"/>
+      <c r="BZ130" s="85"/>
+      <c r="CA130" s="85"/>
+      <c r="CB130" s="85"/>
+      <c r="CC130" s="85"/>
+      <c r="CD130" s="85"/>
+      <c r="CE130" s="85"/>
+      <c r="CF130" s="85"/>
+      <c r="CG130" s="85"/>
+      <c r="CH130" s="85"/>
+      <c r="CI130" s="85"/>
+      <c r="CJ130" s="85"/>
+      <c r="CK130" s="85"/>
+      <c r="CL130" s="85"/>
+      <c r="CM130" s="85"/>
+      <c r="CN130" s="85"/>
+      <c r="CO130" s="85"/>
+      <c r="CP130" s="85"/>
+      <c r="CQ130" s="85"/>
+      <c r="CR130" s="85"/>
+      <c r="CS130" s="85"/>
+      <c r="CT130" s="85"/>
+      <c r="CU130" s="85"/>
+      <c r="CV130" s="85"/>
+      <c r="CW130" s="85"/>
+      <c r="CX130" s="85"/>
+      <c r="CY130" s="85"/>
+      <c r="CZ130" s="85"/>
+      <c r="DA130" s="85"/>
+      <c r="DB130" s="86"/>
+      <c r="DC130" s="87"/>
+      <c r="DD130" s="85"/>
+      <c r="DE130" s="85"/>
+      <c r="DF130" s="85"/>
+      <c r="DG130" s="85"/>
+      <c r="DH130" s="85"/>
+      <c r="DI130" s="85"/>
+      <c r="DJ130" s="85"/>
+      <c r="DK130" s="85"/>
+      <c r="DL130" s="85"/>
+      <c r="DM130" s="85"/>
+      <c r="DN130" s="85"/>
+      <c r="DO130" s="85"/>
+      <c r="DP130" s="85"/>
+      <c r="DQ130" s="85"/>
+      <c r="DR130" s="85"/>
+      <c r="DS130" s="85"/>
+      <c r="DT130" s="85"/>
+      <c r="DU130" s="85"/>
     </row>
     <row r="131" spans="1:125">
-      <c r="A131" s="101" t="s">
-        <v>89</v>
-      </c>
-      <c r="B131" s="102" t="s">
-        <v>40</v>
-      </c>
-      <c r="BM131" s="67"/>
-      <c r="BN131" s="67"/>
+      <c r="A131" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B131" t="s">
+        <v>218</v>
+      </c>
       <c r="BO131" s="85"/>
       <c r="BP131" s="85"/>
       <c r="BQ131" s="85"/>
       <c r="BR131" s="85"/>
-      <c r="BS131" s="85"/>
-      <c r="BT131" s="85"/>
-      <c r="BU131" s="85"/>
-      <c r="BV131" s="85"/>
-      <c r="BW131" s="86"/>
-      <c r="BX131" s="87"/>
-      <c r="BY131" s="85"/>
-      <c r="BZ131" s="85"/>
-      <c r="CA131" s="85"/>
-      <c r="CB131" s="85"/>
-      <c r="CC131" s="85"/>
-      <c r="CD131" s="85"/>
-      <c r="CE131" s="85"/>
-      <c r="CF131" s="85"/>
-      <c r="CG131" s="85"/>
-      <c r="CH131" s="85"/>
-      <c r="CI131" s="85"/>
-      <c r="CJ131" s="85"/>
-      <c r="CK131" s="85"/>
-      <c r="CL131" s="85"/>
-      <c r="CM131" s="85"/>
-      <c r="CN131" s="85"/>
-      <c r="CO131" s="85"/>
-      <c r="CP131" s="85"/>
-      <c r="CQ131" s="85"/>
-      <c r="CR131" s="85"/>
-      <c r="CS131" s="85"/>
-      <c r="CT131" s="85"/>
-      <c r="CU131" s="85"/>
-      <c r="CV131" s="85"/>
-      <c r="CW131" s="85"/>
-      <c r="CX131" s="85"/>
-      <c r="CY131" s="85"/>
-      <c r="CZ131" s="85"/>
-      <c r="DA131" s="85"/>
-      <c r="DB131" s="86"/>
-      <c r="DC131" s="87"/>
-      <c r="DD131" s="85"/>
-      <c r="DE131" s="85"/>
-      <c r="DF131" s="85"/>
-      <c r="DG131" s="85"/>
-      <c r="DH131" s="85"/>
-      <c r="DI131" s="85"/>
-      <c r="DJ131" s="85"/>
-      <c r="DK131" s="85"/>
-      <c r="DL131" s="85"/>
-      <c r="DM131" s="85"/>
-      <c r="DN131" s="85"/>
-      <c r="DO131" s="85"/>
-      <c r="DP131" s="85"/>
-      <c r="DQ131" s="85"/>
-      <c r="DR131" s="85"/>
-      <c r="DS131" s="85"/>
-      <c r="DT131" s="85"/>
-      <c r="DU131" s="85"/>
+      <c r="BS131" s="67"/>
+      <c r="CM131" s="67"/>
+      <c r="CQ131" s="6"/>
     </row>
     <row r="132" spans="1:125">
-      <c r="A132" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="B132" t="s">
-        <v>219</v>
+        <v>228</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>5</v>
+      </c>
+      <c r="F132">
+        <v>5</v>
       </c>
       <c r="BO132" s="85"/>
       <c r="BP132" s="85"/>
@@ -7028,16 +7006,16 @@
         <v>229</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E133">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F133">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BO133" s="85"/>
       <c r="BP133" s="85"/>
@@ -7049,19 +7027,19 @@
     </row>
     <row r="134" spans="1:125">
       <c r="B134" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E134">
         <v>10</v>
       </c>
       <c r="F134">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BO134" s="85"/>
       <c r="BP134" s="85"/>
@@ -7073,19 +7051,19 @@
     </row>
     <row r="135" spans="1:125">
       <c r="B135" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C135">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E135">
         <v>10</v>
       </c>
       <c r="F135">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BO135" s="85"/>
       <c r="BP135" s="85"/>
@@ -7097,19 +7075,19 @@
     </row>
     <row r="136" spans="1:125">
       <c r="B136" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C136">
         <v>4</v>
       </c>
       <c r="D136">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E136">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F136">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BO136" s="85"/>
       <c r="BP136" s="85"/>
@@ -7124,16 +7102,16 @@
         <v>222</v>
       </c>
       <c r="C137">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BO137" s="85"/>
       <c r="BP137" s="85"/>
@@ -7145,19 +7123,19 @@
     </row>
     <row r="138" spans="1:125">
       <c r="B138" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E138">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F138">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BO138" s="85"/>
       <c r="BP138" s="85"/>
@@ -7178,10 +7156,10 @@
         <v>3</v>
       </c>
       <c r="E139">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F139">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BO139" s="85"/>
       <c r="BP139" s="85"/>
@@ -7196,16 +7174,16 @@
         <v>227</v>
       </c>
       <c r="C140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E140">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BO140" s="85"/>
       <c r="BP140" s="85"/>
@@ -7217,19 +7195,13 @@
     </row>
     <row r="141" spans="1:125">
       <c r="B141" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C141">
-        <v>2</v>
-      </c>
-      <c r="D141">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BO141" s="85"/>
       <c r="BP141" s="85"/>
@@ -7240,29 +7212,35 @@
       <c r="CQ141" s="6"/>
     </row>
     <row r="142" spans="1:125">
+      <c r="A142" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="B142" t="s">
-        <v>236</v>
-      </c>
-      <c r="C142">
-        <v>10</v>
-      </c>
-      <c r="E142">
-        <v>10</v>
-      </c>
-      <c r="BO142" s="85"/>
-      <c r="BP142" s="85"/>
-      <c r="BQ142" s="85"/>
-      <c r="BR142" s="85"/>
-      <c r="BS142" s="67"/>
+        <v>219</v>
+      </c>
+      <c r="BU142" s="85"/>
+      <c r="BV142" s="85"/>
+      <c r="BW142" s="86"/>
+      <c r="BX142" s="87"/>
+      <c r="BY142" s="85"/>
       <c r="CM142" s="67"/>
       <c r="CQ142" s="6"/>
     </row>
     <row r="143" spans="1:125">
-      <c r="A143" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="B143" t="s">
-        <v>220</v>
+        <v>232</v>
+      </c>
+      <c r="C143">
+        <v>5</v>
+      </c>
+      <c r="D143">
+        <v>4</v>
+      </c>
+      <c r="E143">
+        <v>10</v>
+      </c>
+      <c r="F143">
+        <v>10</v>
       </c>
       <c r="BU143" s="85"/>
       <c r="BV143" s="85"/>
@@ -7274,29 +7252,17 @@
     </row>
     <row r="144" spans="1:125">
       <c r="B144" t="s">
-        <v>233</v>
-      </c>
-      <c r="C144">
-        <v>5</v>
-      </c>
-      <c r="D144">
-        <v>4</v>
-      </c>
-      <c r="E144">
-        <v>10</v>
-      </c>
-      <c r="F144">
-        <v>10</v>
-      </c>
-      <c r="BU144" s="85"/>
-      <c r="BV144" s="85"/>
-      <c r="BW144" s="86"/>
-      <c r="BX144" s="87"/>
-      <c r="BY144" s="85"/>
+        <v>230</v>
+      </c>
+      <c r="BO144" s="85"/>
+      <c r="BP144" s="85"/>
+      <c r="BQ144" s="85"/>
+      <c r="BR144" s="85"/>
+      <c r="BS144" s="67"/>
       <c r="CM144" s="67"/>
       <c r="CQ144" s="6"/>
     </row>
-    <row r="145" spans="1:116">
+    <row r="145" spans="1:126">
       <c r="B145" t="s">
         <v>231</v>
       </c>
@@ -7308,9 +7274,15 @@
       <c r="CM145" s="67"/>
       <c r="CQ145" s="6"/>
     </row>
-    <row r="146" spans="1:116">
+    <row r="146" spans="1:126">
       <c r="B146" t="s">
-        <v>232</v>
+        <v>235</v>
+      </c>
+      <c r="C146">
+        <v>5</v>
+      </c>
+      <c r="E146">
+        <v>5</v>
       </c>
       <c r="BO146" s="85"/>
       <c r="BP146" s="85"/>
@@ -7320,54 +7292,59 @@
       <c r="CM146" s="67"/>
       <c r="CQ146" s="6"/>
     </row>
-    <row r="147" spans="1:116">
+    <row r="147" spans="1:126">
+      <c r="A147" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="B147" t="s">
-        <v>236</v>
-      </c>
-      <c r="C147">
-        <v>5</v>
-      </c>
-      <c r="E147">
-        <v>5</v>
-      </c>
-      <c r="BO147" s="85"/>
-      <c r="BP147" s="85"/>
-      <c r="BQ147" s="85"/>
-      <c r="BR147" s="85"/>
-      <c r="BS147" s="67"/>
+        <v>217</v>
+      </c>
+      <c r="CB147" s="85"/>
+      <c r="CC147" s="85"/>
+      <c r="CD147" s="85"/>
+      <c r="CE147" s="85"/>
+      <c r="CF147" s="85"/>
       <c r="CM147" s="67"/>
       <c r="CQ147" s="6"/>
     </row>
-    <row r="148" spans="1:116">
-      <c r="A148" s="1" t="s">
-        <v>217</v>
-      </c>
+    <row r="148" spans="1:126">
       <c r="B148" t="s">
-        <v>218</v>
-      </c>
-      <c r="CB148" s="85"/>
-      <c r="CC148" s="85"/>
-      <c r="CD148" s="85"/>
-      <c r="CE148" s="85"/>
-      <c r="CF148" s="85"/>
-      <c r="CM148" s="67"/>
+        <v>233</v>
+      </c>
+      <c r="C148">
+        <v>3</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="CI148" s="85"/>
+      <c r="CJ148" s="85"/>
+      <c r="CK148" s="85"/>
+      <c r="CL148" s="85"/>
+      <c r="CM148" s="85"/>
       <c r="CQ148" s="6"/>
     </row>
-    <row r="149" spans="1:116">
+    <row r="149" spans="1:126">
       <c r="B149" t="s">
         <v>234</v>
       </c>
       <c r="C149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CI149" s="85"/>
       <c r="CJ149" s="85"/>
@@ -7376,21 +7353,21 @@
       <c r="CM149" s="85"/>
       <c r="CQ149" s="6"/>
     </row>
-    <row r="150" spans="1:116">
+    <row r="150" spans="1:126">
       <c r="B150" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CI150" s="85"/>
       <c r="CJ150" s="85"/>
@@ -7399,21 +7376,21 @@
       <c r="CM150" s="85"/>
       <c r="CQ150" s="6"/>
     </row>
-    <row r="151" spans="1:116">
+    <row r="151" spans="1:126">
       <c r="B151" t="s">
         <v>229</v>
       </c>
       <c r="C151">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D151">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CI151" s="85"/>
       <c r="CJ151" s="85"/>
@@ -7422,21 +7399,21 @@
       <c r="CM151" s="85"/>
       <c r="CQ151" s="6"/>
     </row>
-    <row r="152" spans="1:116">
+    <row r="152" spans="1:126">
       <c r="B152" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E152">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F152">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CI152" s="85"/>
       <c r="CJ152" s="85"/>
@@ -7445,12 +7422,12 @@
       <c r="CM152" s="85"/>
       <c r="CQ152" s="6"/>
     </row>
-    <row r="153" spans="1:116">
+    <row r="153" spans="1:126">
       <c r="B153" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -7459,7 +7436,7 @@
         <v>5</v>
       </c>
       <c r="F153">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CI153" s="85"/>
       <c r="CJ153" s="85"/>
@@ -7468,1217 +7445,1217 @@
       <c r="CM153" s="85"/>
       <c r="CQ153" s="6"/>
     </row>
-    <row r="154" spans="1:116">
+    <row r="154" spans="1:126">
       <c r="B154" t="s">
-        <v>223</v>
-      </c>
-      <c r="C154">
-        <v>0</v>
-      </c>
-      <c r="D154">
-        <v>0</v>
-      </c>
-      <c r="E154">
+        <v>224</v>
+      </c>
+      <c r="CM154" s="67"/>
+      <c r="CQ154" s="6"/>
+    </row>
+    <row r="155" spans="1:126">
+      <c r="B155" t="s">
+        <v>235</v>
+      </c>
+      <c r="C155">
+        <v>8</v>
+      </c>
+      <c r="D155">
         <v>5</v>
       </c>
-      <c r="F154">
-        <v>3</v>
-      </c>
-      <c r="CI154" s="85"/>
-      <c r="CJ154" s="85"/>
-      <c r="CK154" s="85"/>
-      <c r="CL154" s="85"/>
-      <c r="CM154" s="85"/>
-      <c r="CQ154" s="6"/>
-    </row>
-    <row r="155" spans="1:116">
-      <c r="B155" t="s">
-        <v>225</v>
+      <c r="E155">
+        <v>8</v>
+      </c>
+      <c r="F155">
+        <v>10</v>
       </c>
       <c r="CM155" s="67"/>
       <c r="CQ155" s="6"/>
     </row>
-    <row r="156" spans="1:116">
-      <c r="B156" t="s">
-        <v>236</v>
-      </c>
-      <c r="C156">
-        <v>8</v>
-      </c>
-      <c r="D156">
-        <v>5</v>
-      </c>
-      <c r="E156">
-        <v>8</v>
-      </c>
-      <c r="F156">
-        <v>10</v>
-      </c>
+    <row r="156" spans="1:126">
       <c r="CM156" s="67"/>
-      <c r="CQ156" s="6"/>
-    </row>
-    <row r="157" spans="1:116">
+      <c r="CQ156" s="94"/>
+    </row>
+    <row r="157" spans="1:126" ht="34" customHeight="1">
       <c r="CM157" s="67"/>
-      <c r="CQ157" s="94"/>
-    </row>
-    <row r="158" spans="1:116" ht="34" customHeight="1">
-      <c r="CM158" s="67"/>
-      <c r="CQ158" s="6"/>
-    </row>
-    <row r="159" spans="1:116" ht="21" customHeight="1" thickBot="1">
-      <c r="A159" s="103" t="s">
+      <c r="CQ157" s="6"/>
+    </row>
+    <row r="158" spans="1:126" ht="21" customHeight="1" thickBot="1">
+      <c r="A158" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="B159" s="104" t="s">
+      <c r="B158" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="AQ159" s="67"/>
+      <c r="AQ158" s="67"/>
+      <c r="AR158" s="67"/>
+      <c r="AS158" s="75"/>
+      <c r="AT158" s="70"/>
+      <c r="AW158" s="150"/>
+      <c r="AX158" s="61"/>
+      <c r="AY158" s="61"/>
+      <c r="AZ158" s="61"/>
+      <c r="BA158" s="61"/>
+      <c r="BB158" s="61"/>
+      <c r="BC158" s="136"/>
+      <c r="BD158" s="64"/>
+      <c r="BE158" s="61"/>
+      <c r="BF158" s="61"/>
+      <c r="BG158" s="61"/>
+      <c r="BH158" s="61"/>
+      <c r="BI158" s="61"/>
+      <c r="BJ158" s="61"/>
+      <c r="BK158" s="61"/>
+      <c r="BL158" s="61"/>
+      <c r="BM158" s="61"/>
+      <c r="BN158" s="61"/>
+      <c r="BO158" s="61"/>
+      <c r="BP158" s="61"/>
+      <c r="BQ158" s="61"/>
+      <c r="BR158" s="61"/>
+      <c r="BS158" s="61"/>
+      <c r="BT158" s="61"/>
+      <c r="BU158" s="61"/>
+      <c r="BV158" s="61"/>
+      <c r="BW158" s="62"/>
+      <c r="BX158" s="63"/>
+      <c r="BY158" s="61"/>
+      <c r="BZ158" s="61"/>
+      <c r="CA158" s="61"/>
+      <c r="CB158" s="61"/>
+      <c r="CC158" s="61"/>
+      <c r="CD158" s="61"/>
+      <c r="CE158" s="61"/>
+      <c r="CF158" s="61"/>
+      <c r="CG158" s="61"/>
+      <c r="CH158" s="61"/>
+      <c r="CI158" s="61"/>
+      <c r="CJ158" s="61"/>
+      <c r="CK158" s="61"/>
+      <c r="CL158" s="61"/>
+      <c r="CM158" s="61"/>
+      <c r="CN158" s="61"/>
+      <c r="CO158" s="61"/>
+      <c r="CP158" s="61"/>
+      <c r="CQ158" s="61"/>
+      <c r="CR158" s="61"/>
+      <c r="CS158" s="61"/>
+      <c r="CT158" s="61"/>
+      <c r="CU158" s="61"/>
+      <c r="CV158" s="61"/>
+      <c r="CW158" s="61"/>
+      <c r="CX158" s="61"/>
+      <c r="CY158" s="61"/>
+      <c r="CZ158" s="61"/>
+      <c r="DA158" s="61"/>
+      <c r="DB158" s="62"/>
+      <c r="DC158" s="63"/>
+      <c r="DD158" s="61"/>
+      <c r="DE158" s="61"/>
+      <c r="DF158" s="61"/>
+      <c r="DG158" s="61"/>
+      <c r="DH158" s="61"/>
+      <c r="DI158" s="61"/>
+      <c r="DJ158" s="61"/>
+      <c r="DK158" s="61"/>
+      <c r="DL158" s="61"/>
+    </row>
+    <row r="159" spans="1:126" ht="21" customHeight="1" thickBot="1">
+      <c r="A159" s="116" t="s">
+        <v>95</v>
+      </c>
+      <c r="B159" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="C159">
+        <v>2</v>
+      </c>
+      <c r="D159">
+        <v>4</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
       <c r="AR159" s="67"/>
       <c r="AS159" s="75"/>
       <c r="AT159" s="70"/>
-      <c r="AW159" s="151"/>
-      <c r="AX159" s="61"/>
-      <c r="AY159" s="61"/>
-      <c r="AZ159" s="61"/>
-      <c r="BA159" s="61"/>
-      <c r="BB159" s="61"/>
-      <c r="BC159" s="136"/>
-      <c r="BD159" s="64"/>
-      <c r="BE159" s="61"/>
-      <c r="BF159" s="61"/>
-      <c r="BG159" s="61"/>
-      <c r="BH159" s="61"/>
-      <c r="BI159" s="61"/>
-      <c r="BJ159" s="61"/>
-      <c r="BK159" s="61"/>
-      <c r="BL159" s="61"/>
-      <c r="BM159" s="61"/>
-      <c r="BN159" s="61"/>
-      <c r="BO159" s="61"/>
-      <c r="BP159" s="61"/>
-      <c r="BQ159" s="61"/>
-      <c r="BR159" s="61"/>
-      <c r="BS159" s="61"/>
-      <c r="BT159" s="61"/>
-      <c r="BU159" s="61"/>
-      <c r="BV159" s="61"/>
-      <c r="BW159" s="62"/>
-      <c r="BX159" s="63"/>
-      <c r="BY159" s="61"/>
-      <c r="BZ159" s="61"/>
-      <c r="CA159" s="61"/>
-      <c r="CB159" s="61"/>
-      <c r="CC159" s="61"/>
-      <c r="CD159" s="61"/>
-      <c r="CE159" s="61"/>
-      <c r="CF159" s="61"/>
-      <c r="CG159" s="61"/>
-      <c r="CH159" s="61"/>
-      <c r="CI159" s="61"/>
-      <c r="CJ159" s="61"/>
-      <c r="CK159" s="61"/>
-      <c r="CL159" s="61"/>
-      <c r="CM159" s="61"/>
-      <c r="CN159" s="61"/>
-      <c r="CO159" s="61"/>
-      <c r="CP159" s="61"/>
-      <c r="CQ159" s="61"/>
-      <c r="CR159" s="61"/>
-      <c r="CS159" s="61"/>
-      <c r="CT159" s="61"/>
-      <c r="CU159" s="61"/>
-      <c r="CV159" s="61"/>
-      <c r="CW159" s="61"/>
-      <c r="CX159" s="61"/>
-      <c r="CY159" s="61"/>
-      <c r="CZ159" s="61"/>
-      <c r="DA159" s="61"/>
-      <c r="DB159" s="62"/>
-      <c r="DC159" s="63"/>
-      <c r="DD159" s="61"/>
-      <c r="DE159" s="61"/>
-      <c r="DF159" s="61"/>
-      <c r="DG159" s="61"/>
-      <c r="DH159" s="61"/>
-      <c r="DI159" s="61"/>
-      <c r="DJ159" s="61"/>
-      <c r="DK159" s="61"/>
-      <c r="DL159" s="61"/>
-    </row>
-    <row r="160" spans="1:116" ht="21" customHeight="1" thickBot="1">
-      <c r="A160" s="116" t="s">
-        <v>95</v>
-      </c>
-      <c r="B160" s="74" t="s">
-        <v>114</v>
+      <c r="AV159" s="35"/>
+      <c r="AW159" s="159">
+        <v>2</v>
+      </c>
+      <c r="AX159" s="125"/>
+      <c r="AY159" s="67"/>
+      <c r="AZ159" s="67"/>
+      <c r="BA159" s="68">
+        <v>2</v>
+      </c>
+      <c r="BB159" s="35"/>
+      <c r="BC159" s="159"/>
+      <c r="BD159" s="137"/>
+      <c r="BE159" s="67"/>
+      <c r="BF159" s="67"/>
+      <c r="BG159" s="67"/>
+      <c r="BH159" s="67"/>
+      <c r="BK159" s="126"/>
+      <c r="BL159" s="67"/>
+      <c r="BM159" s="67"/>
+      <c r="BN159" s="67"/>
+      <c r="BO159" s="67"/>
+      <c r="BR159" s="141"/>
+      <c r="BS159" s="67"/>
+      <c r="BT159" s="67"/>
+      <c r="BU159" s="67"/>
+      <c r="BV159" s="67"/>
+      <c r="BY159" s="126"/>
+      <c r="BZ159" s="67"/>
+      <c r="CA159" s="67"/>
+      <c r="CB159" s="67"/>
+      <c r="CC159" s="67"/>
+      <c r="CF159" s="126"/>
+      <c r="CG159" s="67"/>
+      <c r="CH159" s="67"/>
+      <c r="CI159" s="67"/>
+      <c r="CJ159" s="67"/>
+      <c r="CM159" s="126"/>
+      <c r="CN159" s="67"/>
+      <c r="CO159" s="67"/>
+      <c r="CP159" s="67"/>
+      <c r="CQ159" s="6"/>
+      <c r="CT159" s="67"/>
+      <c r="CU159" s="67"/>
+      <c r="CV159" s="67"/>
+      <c r="CW159" s="67"/>
+      <c r="CX159" s="67"/>
+      <c r="CY159" s="136"/>
+      <c r="DA159" s="67"/>
+      <c r="DB159" s="75"/>
+      <c r="DC159" s="70"/>
+      <c r="DD159" s="67"/>
+      <c r="DE159" s="67"/>
+      <c r="DH159" s="126"/>
+      <c r="DI159" s="67"/>
+      <c r="DJ159" s="67"/>
+      <c r="DK159" s="67"/>
+      <c r="DL159" s="126"/>
+    </row>
+    <row r="160" spans="1:126" ht="16" thickBot="1">
+      <c r="A160" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B160" s="92" t="s">
+        <v>129</v>
       </c>
       <c r="C160">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D160">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F160">
-        <v>1</v>
-      </c>
-      <c r="AR160" s="67"/>
-      <c r="AS160" s="75"/>
-      <c r="AT160" s="70"/>
-      <c r="AV160" s="35"/>
-      <c r="AW160" s="160">
-        <v>2</v>
-      </c>
-      <c r="AX160" s="125"/>
-      <c r="AY160" s="67"/>
-      <c r="AZ160" s="67"/>
-      <c r="BA160" s="68">
-        <v>2</v>
-      </c>
-      <c r="BB160" s="35"/>
-      <c r="BC160" s="160"/>
-      <c r="BD160" s="137"/>
-      <c r="BE160" s="67"/>
-      <c r="BF160" s="67"/>
-      <c r="BG160" s="67"/>
+        <v>18</v>
+      </c>
+      <c r="AW160" s="14"/>
+      <c r="BC160" s="34"/>
+      <c r="BD160" s="160">
+        <v>1</v>
+      </c>
+      <c r="BE160" s="130"/>
       <c r="BH160" s="67"/>
-      <c r="BK160" s="126"/>
-      <c r="BL160" s="67"/>
-      <c r="BM160" s="67"/>
-      <c r="BN160" s="67"/>
+      <c r="BJ160" s="35"/>
+      <c r="BK160" s="159">
+        <v>2</v>
+      </c>
+      <c r="BL160" s="130"/>
       <c r="BO160" s="67"/>
-      <c r="BR160" s="142"/>
-      <c r="BS160" s="67"/>
-      <c r="BT160" s="67"/>
-      <c r="BU160" s="67"/>
+      <c r="BP160" s="68">
+        <v>1</v>
+      </c>
+      <c r="BQ160" s="35"/>
+      <c r="BR160" s="159"/>
+      <c r="BS160" s="125"/>
       <c r="BV160" s="67"/>
-      <c r="BY160" s="126"/>
-      <c r="BZ160" s="67"/>
-      <c r="CA160" s="67"/>
-      <c r="CB160" s="67"/>
+      <c r="BX160" s="127"/>
+      <c r="BY160" s="159">
+        <v>2</v>
+      </c>
+      <c r="BZ160" s="130"/>
       <c r="CC160" s="67"/>
-      <c r="CF160" s="126"/>
-      <c r="CG160" s="67"/>
-      <c r="CH160" s="67"/>
-      <c r="CI160" s="67"/>
+      <c r="CE160" s="35"/>
+      <c r="CF160" s="159">
+        <v>1</v>
+      </c>
+      <c r="CG160" s="130"/>
       <c r="CJ160" s="67"/>
-      <c r="CM160" s="126"/>
-      <c r="CN160" s="67"/>
-      <c r="CO160" s="67"/>
+      <c r="CL160" s="35"/>
+      <c r="CM160" s="159">
+        <v>1</v>
+      </c>
+      <c r="CN160" s="130"/>
       <c r="CP160" s="67"/>
       <c r="CQ160" s="6"/>
       <c r="CT160" s="67"/>
       <c r="CU160" s="67"/>
       <c r="CV160" s="67"/>
       <c r="CW160" s="67"/>
-      <c r="CX160" s="67"/>
-      <c r="CY160" s="136"/>
+      <c r="CX160" s="75"/>
+      <c r="CY160" s="159"/>
+      <c r="CZ160" s="128"/>
       <c r="DA160" s="67"/>
-      <c r="DB160" s="75"/>
-      <c r="DC160" s="70"/>
       <c r="DD160" s="67"/>
       <c r="DE160" s="67"/>
-      <c r="DH160" s="126"/>
-      <c r="DI160" s="67"/>
+      <c r="DG160" s="35"/>
+      <c r="DH160" s="159">
+        <v>1</v>
+      </c>
+      <c r="DI160" s="125"/>
       <c r="DJ160" s="67"/>
-      <c r="DK160" s="67"/>
-      <c r="DL160" s="126"/>
-    </row>
-    <row r="161" spans="1:138" ht="16" thickBot="1">
-      <c r="A161" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="DK160" s="75"/>
+      <c r="DL160" s="159"/>
+      <c r="DM160" s="128"/>
+      <c r="DT160" s="204">
+        <v>3</v>
+      </c>
+      <c r="DU160" s="204">
+        <v>3</v>
+      </c>
+      <c r="DV160" s="204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:138">
       <c r="B161" s="92" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C161">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D161">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E161">
-        <v>10</v>
-      </c>
-      <c r="F161">
-        <v>18</v>
-      </c>
-      <c r="AW161" s="14"/>
-      <c r="BC161" s="34"/>
-      <c r="BD161" s="161">
-        <v>1</v>
-      </c>
-      <c r="BE161" s="130"/>
+        <v>0</v>
+      </c>
+      <c r="BD161" s="153"/>
       <c r="BH161" s="67"/>
-      <c r="BJ161" s="35"/>
-      <c r="BK161" s="160">
-        <v>2</v>
-      </c>
-      <c r="BL161" s="130"/>
+      <c r="BK161" s="154"/>
       <c r="BO161" s="67"/>
-      <c r="BP161" s="68">
-        <v>1</v>
-      </c>
-      <c r="BQ161" s="35"/>
-      <c r="BR161" s="160"/>
-      <c r="BS161" s="125"/>
+      <c r="BR161" s="18"/>
+      <c r="BS161" s="67"/>
       <c r="BV161" s="67"/>
-      <c r="BX161" s="127"/>
-      <c r="BY161" s="160">
-        <v>2</v>
-      </c>
-      <c r="BZ161" s="130"/>
+      <c r="BY161" s="154"/>
       <c r="CC161" s="67"/>
-      <c r="CE161" s="35"/>
-      <c r="CF161" s="160">
-        <v>1</v>
-      </c>
-      <c r="CG161" s="130"/>
+      <c r="CF161" s="154"/>
       <c r="CJ161" s="67"/>
-      <c r="CL161" s="35"/>
-      <c r="CM161" s="160">
-        <v>1</v>
-      </c>
-      <c r="CN161" s="130"/>
+      <c r="CM161" s="154"/>
       <c r="CP161" s="67"/>
       <c r="CQ161" s="6"/>
       <c r="CT161" s="67"/>
       <c r="CU161" s="67"/>
       <c r="CV161" s="67"/>
       <c r="CW161" s="67"/>
-      <c r="CX161" s="75"/>
-      <c r="CY161" s="160"/>
-      <c r="CZ161" s="128"/>
+      <c r="CX161" s="67"/>
+      <c r="CY161" s="15"/>
       <c r="DA161" s="67"/>
       <c r="DD161" s="67"/>
       <c r="DE161" s="67"/>
-      <c r="DG161" s="35"/>
-      <c r="DH161" s="160">
-        <v>1</v>
-      </c>
-      <c r="DI161" s="125"/>
+      <c r="DH161" s="155">
+        <v>2</v>
+      </c>
+      <c r="DI161" s="67"/>
       <c r="DJ161" s="67"/>
-      <c r="DK161" s="75"/>
-      <c r="DL161" s="160"/>
-      <c r="DM161" s="128"/>
-      <c r="DT161" s="205">
-        <v>3</v>
-      </c>
-      <c r="DU161" s="205">
-        <v>3</v>
-      </c>
-      <c r="DV161" s="205">
-        <v>3</v>
-      </c>
+      <c r="DK161" s="67"/>
+      <c r="DL161" s="154"/>
     </row>
     <row r="162" spans="1:138">
-      <c r="B162" s="92" t="s">
-        <v>138</v>
-      </c>
-      <c r="C162">
+      <c r="A162" s="192" t="s">
+        <v>197</v>
+      </c>
+      <c r="B162" s="191" t="s">
+        <v>198</v>
+      </c>
+      <c r="C162" s="191"/>
+      <c r="D162" s="191"/>
+      <c r="E162" s="191"/>
+      <c r="F162" s="191"/>
+      <c r="G162" s="193"/>
+      <c r="H162" s="193"/>
+      <c r="I162" s="193"/>
+      <c r="J162" s="193"/>
+      <c r="K162" s="193"/>
+      <c r="L162" s="194"/>
+      <c r="M162" s="194"/>
+      <c r="N162" s="195"/>
+      <c r="O162" s="193"/>
+      <c r="P162" s="193"/>
+      <c r="Q162" s="193"/>
+      <c r="R162" s="193"/>
+      <c r="S162" s="194"/>
+      <c r="T162" s="194"/>
+      <c r="U162" s="195"/>
+      <c r="V162" s="193"/>
+      <c r="W162" s="193"/>
+      <c r="X162" s="193"/>
+      <c r="Y162" s="193"/>
+      <c r="Z162" s="194"/>
+      <c r="AA162" s="194"/>
+      <c r="AB162" s="193"/>
+      <c r="AC162" s="193"/>
+      <c r="AD162" s="193"/>
+      <c r="AE162" s="193"/>
+      <c r="AF162" s="193"/>
+      <c r="AG162" s="194"/>
+      <c r="AH162" s="194"/>
+      <c r="AI162" s="193"/>
+      <c r="AJ162" s="193"/>
+      <c r="AK162" s="193"/>
+      <c r="AL162" s="193"/>
+      <c r="AM162" s="193"/>
+      <c r="AN162" s="194"/>
+      <c r="AO162" s="194"/>
+      <c r="AP162" s="195"/>
+      <c r="AQ162" s="193"/>
+      <c r="AR162" s="193"/>
+      <c r="AS162" s="193"/>
+      <c r="AT162" s="193"/>
+      <c r="AU162" s="194"/>
+      <c r="AV162" s="194"/>
+      <c r="AW162" s="193"/>
+      <c r="AX162" s="193"/>
+      <c r="AY162" s="193"/>
+      <c r="AZ162" s="193"/>
+      <c r="BA162" s="193"/>
+      <c r="BB162" s="194"/>
+      <c r="BC162" s="194"/>
+      <c r="BD162" s="196"/>
+      <c r="BE162" s="193"/>
+      <c r="BF162" s="193"/>
+      <c r="BG162" s="193"/>
+      <c r="BH162" s="193"/>
+      <c r="BI162" s="194"/>
+      <c r="BJ162" s="194"/>
+      <c r="BK162" s="193"/>
+      <c r="BL162" s="193"/>
+      <c r="BM162" s="193"/>
+      <c r="BN162" s="193"/>
+      <c r="BO162" s="193"/>
+      <c r="BP162" s="194"/>
+      <c r="BQ162" s="194"/>
+      <c r="BR162" s="195"/>
+      <c r="BS162" s="193"/>
+      <c r="BT162" s="193"/>
+      <c r="BU162" s="193"/>
+      <c r="BV162" s="193"/>
+      <c r="BW162" s="194"/>
+      <c r="BX162" s="194"/>
+      <c r="BY162" s="193"/>
+      <c r="BZ162" s="193"/>
+      <c r="CA162" s="193"/>
+      <c r="CB162" s="193"/>
+      <c r="CC162" s="193"/>
+      <c r="CD162" s="194"/>
+      <c r="CE162" s="194"/>
+      <c r="CF162" s="193"/>
+      <c r="CG162" s="193"/>
+      <c r="CH162" s="193"/>
+      <c r="CI162" s="193"/>
+      <c r="CJ162" s="193"/>
+      <c r="CK162" s="194"/>
+      <c r="CL162" s="199"/>
+      <c r="CM162" s="197"/>
+      <c r="CN162" s="193"/>
+      <c r="CO162" s="193"/>
+      <c r="CP162" s="193"/>
+      <c r="CQ162" s="195"/>
+      <c r="CR162" s="194"/>
+      <c r="CS162" s="194"/>
+      <c r="CT162" s="193"/>
+      <c r="CU162" s="193"/>
+      <c r="CV162" s="193"/>
+      <c r="CW162" s="193"/>
+      <c r="CX162" s="193"/>
+      <c r="CY162" s="194"/>
+      <c r="CZ162" s="194"/>
+      <c r="DA162" s="193"/>
+      <c r="DB162" s="193"/>
+      <c r="DC162" s="193"/>
+      <c r="DD162" s="193"/>
+      <c r="DE162" s="193"/>
+      <c r="DF162" s="199"/>
+      <c r="DG162" s="199"/>
+      <c r="DH162" s="193"/>
+      <c r="DI162" s="193"/>
+      <c r="DJ162" s="193"/>
+      <c r="DK162" s="193"/>
+      <c r="DL162" s="193"/>
+      <c r="DM162" s="194"/>
+      <c r="DN162" s="194"/>
+      <c r="DO162" s="195"/>
+      <c r="DP162" s="193"/>
+      <c r="DQ162" s="193"/>
+      <c r="DR162" s="193"/>
+      <c r="DS162" s="193"/>
+      <c r="DT162" s="194"/>
+      <c r="DU162" s="194"/>
+      <c r="DV162" s="195"/>
+      <c r="DW162" s="193"/>
+      <c r="DX162" s="193"/>
+      <c r="DY162" s="193"/>
+      <c r="DZ162" s="193"/>
+      <c r="EA162" s="194"/>
+      <c r="EB162" s="194"/>
+      <c r="EC162" s="195"/>
+      <c r="ED162" s="193"/>
+      <c r="EE162" s="193"/>
+      <c r="EF162" s="193"/>
+      <c r="EG162" s="193"/>
+      <c r="EH162" s="193"/>
+    </row>
+    <row r="163" spans="1:138">
+      <c r="A163" s="192"/>
+      <c r="B163" s="191" t="s">
+        <v>199</v>
+      </c>
+      <c r="C163" s="191">
+        <v>2</v>
+      </c>
+      <c r="D163" s="191">
+        <v>2</v>
+      </c>
+      <c r="E163" s="191">
         <v>0</v>
       </c>
-      <c r="D162">
-        <v>2</v>
-      </c>
-      <c r="E162">
+      <c r="F163" s="191">
         <v>0</v>
       </c>
-      <c r="BD162" s="154"/>
-      <c r="BH162" s="67"/>
-      <c r="BK162" s="155"/>
-      <c r="BO162" s="67"/>
-      <c r="BR162" s="18"/>
-      <c r="BS162" s="67"/>
-      <c r="BV162" s="67"/>
-      <c r="BY162" s="155"/>
-      <c r="CC162" s="67"/>
-      <c r="CF162" s="155"/>
-      <c r="CJ162" s="67"/>
-      <c r="CM162" s="155"/>
-      <c r="CP162" s="67"/>
-      <c r="CQ162" s="6"/>
-      <c r="CT162" s="67"/>
-      <c r="CU162" s="67"/>
-      <c r="CV162" s="67"/>
-      <c r="CW162" s="67"/>
-      <c r="CX162" s="67"/>
-      <c r="CY162" s="15"/>
-      <c r="DA162" s="67"/>
-      <c r="DD162" s="67"/>
-      <c r="DE162" s="67"/>
-      <c r="DH162" s="156">
-        <v>2</v>
-      </c>
-      <c r="DI162" s="67"/>
-      <c r="DJ162" s="67"/>
-      <c r="DK162" s="67"/>
-      <c r="DL162" s="155"/>
-    </row>
-    <row r="163" spans="1:138">
-      <c r="A163" s="193" t="s">
-        <v>198</v>
-      </c>
-      <c r="B163" s="192" t="s">
-        <v>199</v>
-      </c>
-      <c r="C163" s="192"/>
-      <c r="D163" s="192"/>
-      <c r="E163" s="192"/>
-      <c r="F163" s="192"/>
-      <c r="G163" s="194"/>
-      <c r="H163" s="194"/>
-      <c r="I163" s="194"/>
-      <c r="J163" s="194"/>
-      <c r="K163" s="194"/>
-      <c r="L163" s="195"/>
-      <c r="M163" s="195"/>
-      <c r="N163" s="196"/>
-      <c r="O163" s="194"/>
-      <c r="P163" s="194"/>
-      <c r="Q163" s="194"/>
-      <c r="R163" s="194"/>
-      <c r="S163" s="195"/>
-      <c r="T163" s="195"/>
-      <c r="U163" s="196"/>
-      <c r="V163" s="194"/>
-      <c r="W163" s="194"/>
-      <c r="X163" s="194"/>
-      <c r="Y163" s="194"/>
-      <c r="Z163" s="195"/>
-      <c r="AA163" s="195"/>
-      <c r="AB163" s="194"/>
-      <c r="AC163" s="194"/>
-      <c r="AD163" s="194"/>
-      <c r="AE163" s="194"/>
-      <c r="AF163" s="194"/>
-      <c r="AG163" s="195"/>
-      <c r="AH163" s="195"/>
-      <c r="AI163" s="194"/>
-      <c r="AJ163" s="194"/>
-      <c r="AK163" s="194"/>
-      <c r="AL163" s="194"/>
-      <c r="AM163" s="194"/>
-      <c r="AN163" s="195"/>
-      <c r="AO163" s="195"/>
-      <c r="AP163" s="196"/>
-      <c r="AQ163" s="194"/>
-      <c r="AR163" s="194"/>
-      <c r="AS163" s="194"/>
-      <c r="AT163" s="194"/>
-      <c r="AU163" s="195"/>
-      <c r="AV163" s="195"/>
-      <c r="AW163" s="194"/>
-      <c r="AX163" s="194"/>
-      <c r="AY163" s="194"/>
-      <c r="AZ163" s="194"/>
-      <c r="BA163" s="194"/>
-      <c r="BB163" s="195"/>
-      <c r="BC163" s="195"/>
-      <c r="BD163" s="197"/>
-      <c r="BE163" s="194"/>
-      <c r="BF163" s="194"/>
-      <c r="BG163" s="194"/>
-      <c r="BH163" s="194"/>
-      <c r="BI163" s="195"/>
-      <c r="BJ163" s="195"/>
-      <c r="BK163" s="194"/>
-      <c r="BL163" s="194"/>
-      <c r="BM163" s="194"/>
-      <c r="BN163" s="194"/>
-      <c r="BO163" s="194"/>
-      <c r="BP163" s="195"/>
-      <c r="BQ163" s="195"/>
-      <c r="BR163" s="196"/>
-      <c r="BS163" s="194"/>
-      <c r="BT163" s="194"/>
-      <c r="BU163" s="194"/>
-      <c r="BV163" s="194"/>
-      <c r="BW163" s="195"/>
-      <c r="BX163" s="195"/>
-      <c r="BY163" s="194"/>
-      <c r="BZ163" s="194"/>
-      <c r="CA163" s="194"/>
-      <c r="CB163" s="194"/>
-      <c r="CC163" s="194"/>
-      <c r="CD163" s="195"/>
-      <c r="CE163" s="195"/>
-      <c r="CF163" s="194"/>
-      <c r="CG163" s="194"/>
-      <c r="CH163" s="194"/>
-      <c r="CI163" s="194"/>
-      <c r="CJ163" s="194"/>
-      <c r="CK163" s="195"/>
-      <c r="CL163" s="200"/>
-      <c r="CM163" s="198"/>
-      <c r="CN163" s="194"/>
-      <c r="CO163" s="194"/>
-      <c r="CP163" s="194"/>
-      <c r="CQ163" s="196"/>
-      <c r="CR163" s="195"/>
-      <c r="CS163" s="195"/>
-      <c r="CT163" s="194"/>
-      <c r="CU163" s="194"/>
-      <c r="CV163" s="194"/>
-      <c r="CW163" s="194"/>
-      <c r="CX163" s="194"/>
-      <c r="CY163" s="195"/>
-      <c r="CZ163" s="195"/>
-      <c r="DA163" s="194"/>
-      <c r="DB163" s="194"/>
-      <c r="DC163" s="194"/>
-      <c r="DD163" s="194"/>
-      <c r="DE163" s="194"/>
-      <c r="DF163" s="200"/>
-      <c r="DG163" s="200"/>
-      <c r="DH163" s="194"/>
-      <c r="DI163" s="194"/>
-      <c r="DJ163" s="194"/>
-      <c r="DK163" s="194"/>
-      <c r="DL163" s="194"/>
-      <c r="DM163" s="195"/>
-      <c r="DN163" s="195"/>
-      <c r="DO163" s="196"/>
-      <c r="DP163" s="194"/>
-      <c r="DQ163" s="194"/>
-      <c r="DR163" s="194"/>
-      <c r="DS163" s="194"/>
-      <c r="DT163" s="195"/>
-      <c r="DU163" s="195"/>
-      <c r="DV163" s="196"/>
-      <c r="DW163" s="194"/>
-      <c r="DX163" s="194"/>
-      <c r="DY163" s="194"/>
-      <c r="DZ163" s="194"/>
-      <c r="EA163" s="195"/>
-      <c r="EB163" s="195"/>
-      <c r="EC163" s="196"/>
-      <c r="ED163" s="194"/>
-      <c r="EE163" s="194"/>
-      <c r="EF163" s="194"/>
-      <c r="EG163" s="194"/>
-      <c r="EH163" s="194"/>
+      <c r="G163" s="193"/>
+      <c r="H163" s="193"/>
+      <c r="I163" s="193"/>
+      <c r="J163" s="193"/>
+      <c r="K163" s="193"/>
+      <c r="L163" s="194"/>
+      <c r="M163" s="194"/>
+      <c r="N163" s="195"/>
+      <c r="O163" s="193"/>
+      <c r="P163" s="193"/>
+      <c r="Q163" s="193"/>
+      <c r="R163" s="193"/>
+      <c r="S163" s="194"/>
+      <c r="T163" s="194"/>
+      <c r="U163" s="195"/>
+      <c r="V163" s="193"/>
+      <c r="W163" s="193"/>
+      <c r="X163" s="193"/>
+      <c r="Y163" s="193"/>
+      <c r="Z163" s="194"/>
+      <c r="AA163" s="194"/>
+      <c r="AB163" s="193"/>
+      <c r="AC163" s="193"/>
+      <c r="AD163" s="193"/>
+      <c r="AE163" s="193"/>
+      <c r="AF163" s="193"/>
+      <c r="AG163" s="194"/>
+      <c r="AH163" s="194"/>
+      <c r="AI163" s="193"/>
+      <c r="AJ163" s="193"/>
+      <c r="AK163" s="193"/>
+      <c r="AL163" s="193"/>
+      <c r="AM163" s="193"/>
+      <c r="AN163" s="194"/>
+      <c r="AO163" s="194"/>
+      <c r="AP163" s="195"/>
+      <c r="AQ163" s="193"/>
+      <c r="AR163" s="193"/>
+      <c r="AS163" s="193"/>
+      <c r="AT163" s="193"/>
+      <c r="AU163" s="194"/>
+      <c r="AV163" s="194"/>
+      <c r="AW163" s="193"/>
+      <c r="AX163" s="193"/>
+      <c r="AY163" s="193"/>
+      <c r="AZ163" s="193"/>
+      <c r="BA163" s="193"/>
+      <c r="BB163" s="194"/>
+      <c r="BC163" s="194"/>
+      <c r="BD163" s="198">
+        <v>2</v>
+      </c>
+      <c r="BE163" s="193"/>
+      <c r="BF163" s="193"/>
+      <c r="BG163" s="193"/>
+      <c r="BH163" s="193"/>
+      <c r="BI163" s="194"/>
+      <c r="BJ163" s="194"/>
+      <c r="BK163" s="193"/>
+      <c r="BL163" s="193"/>
+      <c r="BM163" s="193"/>
+      <c r="BN163" s="193"/>
+      <c r="BO163" s="193"/>
+      <c r="BP163" s="194"/>
+      <c r="BQ163" s="194"/>
+      <c r="BR163" s="195"/>
+      <c r="BS163" s="193"/>
+      <c r="BT163" s="193"/>
+      <c r="BU163" s="193"/>
+      <c r="BV163" s="193"/>
+      <c r="BW163" s="194"/>
+      <c r="BX163" s="194"/>
+      <c r="BY163" s="193"/>
+      <c r="BZ163" s="193"/>
+      <c r="CA163" s="193"/>
+      <c r="CB163" s="193"/>
+      <c r="CC163" s="193"/>
+      <c r="CD163" s="194"/>
+      <c r="CE163" s="194"/>
+      <c r="CF163" s="193"/>
+      <c r="CG163" s="193"/>
+      <c r="CH163" s="193"/>
+      <c r="CI163" s="193"/>
+      <c r="CJ163" s="193"/>
+      <c r="CK163" s="194"/>
+      <c r="CL163" s="199"/>
+      <c r="CM163" s="197"/>
+      <c r="CN163" s="193"/>
+      <c r="CO163" s="193"/>
+      <c r="CP163" s="193"/>
+      <c r="CQ163" s="195"/>
+      <c r="CR163" s="194"/>
+      <c r="CS163" s="194"/>
+      <c r="CT163" s="193"/>
+      <c r="CU163" s="193"/>
+      <c r="CV163" s="193"/>
+      <c r="CW163" s="193"/>
+      <c r="CX163" s="193"/>
+      <c r="CY163" s="194"/>
+      <c r="CZ163" s="194"/>
+      <c r="DA163" s="193"/>
+      <c r="DB163" s="193"/>
+      <c r="DC163" s="193"/>
+      <c r="DD163" s="193"/>
+      <c r="DE163" s="193"/>
+      <c r="DF163" s="199"/>
+      <c r="DG163" s="199"/>
+      <c r="DH163" s="193"/>
+      <c r="DI163" s="193"/>
+      <c r="DJ163" s="193"/>
+      <c r="DK163" s="193"/>
+      <c r="DL163" s="193"/>
+      <c r="DM163" s="194"/>
+      <c r="DN163" s="194"/>
+      <c r="DO163" s="195"/>
+      <c r="DP163" s="193"/>
+      <c r="DQ163" s="193"/>
+      <c r="DR163" s="193"/>
+      <c r="DS163" s="193"/>
+      <c r="DT163" s="194"/>
+      <c r="DU163" s="194"/>
+      <c r="DV163" s="195"/>
+      <c r="DW163" s="193"/>
+      <c r="DX163" s="193"/>
+      <c r="DY163" s="193"/>
+      <c r="DZ163" s="193"/>
+      <c r="EA163" s="194"/>
+      <c r="EB163" s="194"/>
+      <c r="EC163" s="195"/>
+      <c r="ED163" s="193"/>
+      <c r="EE163" s="193"/>
+      <c r="EF163" s="193"/>
+      <c r="EG163" s="193"/>
+      <c r="EH163" s="193"/>
     </row>
     <row r="164" spans="1:138">
-      <c r="A164" s="193"/>
-      <c r="B164" s="192" t="s">
+      <c r="A164" s="192"/>
+      <c r="B164" s="191" t="s">
         <v>200</v>
       </c>
-      <c r="C164" s="192">
-        <v>2</v>
-      </c>
-      <c r="D164" s="192">
-        <v>2</v>
-      </c>
-      <c r="E164" s="192">
-        <v>0</v>
-      </c>
-      <c r="F164" s="192">
-        <v>0</v>
-      </c>
-      <c r="G164" s="194"/>
-      <c r="H164" s="194"/>
-      <c r="I164" s="194"/>
-      <c r="J164" s="194"/>
-      <c r="K164" s="194"/>
-      <c r="L164" s="195"/>
-      <c r="M164" s="195"/>
-      <c r="N164" s="196"/>
-      <c r="O164" s="194"/>
-      <c r="P164" s="194"/>
-      <c r="Q164" s="194"/>
-      <c r="R164" s="194"/>
-      <c r="S164" s="195"/>
-      <c r="T164" s="195"/>
-      <c r="U164" s="196"/>
-      <c r="V164" s="194"/>
-      <c r="W164" s="194"/>
-      <c r="X164" s="194"/>
-      <c r="Y164" s="194"/>
-      <c r="Z164" s="195"/>
-      <c r="AA164" s="195"/>
-      <c r="AB164" s="194"/>
-      <c r="AC164" s="194"/>
-      <c r="AD164" s="194"/>
-      <c r="AE164" s="194"/>
-      <c r="AF164" s="194"/>
-      <c r="AG164" s="195"/>
-      <c r="AH164" s="195"/>
-      <c r="AI164" s="194"/>
-      <c r="AJ164" s="194"/>
-      <c r="AK164" s="194"/>
-      <c r="AL164" s="194"/>
-      <c r="AM164" s="194"/>
-      <c r="AN164" s="195"/>
-      <c r="AO164" s="195"/>
-      <c r="AP164" s="196"/>
-      <c r="AQ164" s="194"/>
-      <c r="AR164" s="194"/>
-      <c r="AS164" s="194"/>
-      <c r="AT164" s="194"/>
-      <c r="AU164" s="195"/>
-      <c r="AV164" s="195"/>
-      <c r="AW164" s="194"/>
-      <c r="AX164" s="194"/>
-      <c r="AY164" s="194"/>
-      <c r="AZ164" s="194"/>
-      <c r="BA164" s="194"/>
-      <c r="BB164" s="195"/>
-      <c r="BC164" s="195"/>
-      <c r="BD164" s="199">
-        <v>2</v>
-      </c>
-      <c r="BE164" s="194"/>
-      <c r="BF164" s="194"/>
-      <c r="BG164" s="194"/>
-      <c r="BH164" s="194"/>
-      <c r="BI164" s="195"/>
-      <c r="BJ164" s="195"/>
-      <c r="BK164" s="194"/>
-      <c r="BL164" s="194"/>
-      <c r="BM164" s="194"/>
-      <c r="BN164" s="194"/>
-      <c r="BO164" s="194"/>
-      <c r="BP164" s="195"/>
-      <c r="BQ164" s="195"/>
-      <c r="BR164" s="196"/>
-      <c r="BS164" s="194"/>
-      <c r="BT164" s="194"/>
-      <c r="BU164" s="194"/>
-      <c r="BV164" s="194"/>
-      <c r="BW164" s="195"/>
-      <c r="BX164" s="195"/>
-      <c r="BY164" s="194"/>
-      <c r="BZ164" s="194"/>
-      <c r="CA164" s="194"/>
-      <c r="CB164" s="194"/>
-      <c r="CC164" s="194"/>
-      <c r="CD164" s="195"/>
-      <c r="CE164" s="195"/>
-      <c r="CF164" s="194"/>
-      <c r="CG164" s="194"/>
-      <c r="CH164" s="194"/>
-      <c r="CI164" s="194"/>
-      <c r="CJ164" s="194"/>
-      <c r="CK164" s="195"/>
-      <c r="CL164" s="200"/>
-      <c r="CM164" s="198"/>
-      <c r="CN164" s="194"/>
-      <c r="CO164" s="194"/>
-      <c r="CP164" s="194"/>
-      <c r="CQ164" s="196"/>
-      <c r="CR164" s="195"/>
-      <c r="CS164" s="195"/>
-      <c r="CT164" s="194"/>
-      <c r="CU164" s="194"/>
-      <c r="CV164" s="194"/>
-      <c r="CW164" s="194"/>
-      <c r="CX164" s="194"/>
-      <c r="CY164" s="195"/>
-      <c r="CZ164" s="195"/>
-      <c r="DA164" s="194"/>
-      <c r="DB164" s="194"/>
-      <c r="DC164" s="194"/>
-      <c r="DD164" s="194"/>
-      <c r="DE164" s="194"/>
-      <c r="DF164" s="200"/>
-      <c r="DG164" s="200"/>
-      <c r="DH164" s="194"/>
-      <c r="DI164" s="194"/>
-      <c r="DJ164" s="194"/>
-      <c r="DK164" s="194"/>
-      <c r="DL164" s="194"/>
-      <c r="DM164" s="195"/>
-      <c r="DN164" s="195"/>
-      <c r="DO164" s="196"/>
-      <c r="DP164" s="194"/>
-      <c r="DQ164" s="194"/>
-      <c r="DR164" s="194"/>
-      <c r="DS164" s="194"/>
-      <c r="DT164" s="195"/>
-      <c r="DU164" s="195"/>
-      <c r="DV164" s="196"/>
-      <c r="DW164" s="194"/>
-      <c r="DX164" s="194"/>
-      <c r="DY164" s="194"/>
-      <c r="DZ164" s="194"/>
-      <c r="EA164" s="195"/>
-      <c r="EB164" s="195"/>
-      <c r="EC164" s="196"/>
-      <c r="ED164" s="194"/>
-      <c r="EE164" s="194"/>
-      <c r="EF164" s="194"/>
-      <c r="EG164" s="194"/>
-      <c r="EH164" s="194"/>
+      <c r="C164" s="191">
+        <v>2</v>
+      </c>
+      <c r="D164" s="191">
+        <v>1</v>
+      </c>
+      <c r="E164" s="191">
+        <v>1</v>
+      </c>
+      <c r="F164" s="191">
+        <v>1</v>
+      </c>
+      <c r="G164" s="193"/>
+      <c r="H164" s="193"/>
+      <c r="I164" s="193"/>
+      <c r="J164" s="193"/>
+      <c r="K164" s="193"/>
+      <c r="L164" s="194"/>
+      <c r="M164" s="194"/>
+      <c r="N164" s="195"/>
+      <c r="O164" s="193"/>
+      <c r="P164" s="193"/>
+      <c r="Q164" s="193"/>
+      <c r="R164" s="193"/>
+      <c r="S164" s="194"/>
+      <c r="T164" s="194"/>
+      <c r="U164" s="195"/>
+      <c r="V164" s="193"/>
+      <c r="W164" s="193"/>
+      <c r="X164" s="193"/>
+      <c r="Y164" s="193"/>
+      <c r="Z164" s="194"/>
+      <c r="AA164" s="194"/>
+      <c r="AB164" s="193"/>
+      <c r="AC164" s="193"/>
+      <c r="AD164" s="193"/>
+      <c r="AE164" s="193"/>
+      <c r="AF164" s="193"/>
+      <c r="AG164" s="194"/>
+      <c r="AH164" s="194"/>
+      <c r="AI164" s="193"/>
+      <c r="AJ164" s="193"/>
+      <c r="AK164" s="193"/>
+      <c r="AL164" s="193"/>
+      <c r="AM164" s="193"/>
+      <c r="AN164" s="194"/>
+      <c r="AO164" s="194"/>
+      <c r="AP164" s="195"/>
+      <c r="AQ164" s="193"/>
+      <c r="AR164" s="193"/>
+      <c r="AS164" s="193"/>
+      <c r="AT164" s="193"/>
+      <c r="AU164" s="194"/>
+      <c r="AV164" s="194"/>
+      <c r="AW164" s="193"/>
+      <c r="AX164" s="193"/>
+      <c r="AY164" s="193"/>
+      <c r="AZ164" s="193"/>
+      <c r="BA164" s="193"/>
+      <c r="BB164" s="194"/>
+      <c r="BC164" s="194"/>
+      <c r="BD164" s="196"/>
+      <c r="BE164" s="193"/>
+      <c r="BF164" s="193"/>
+      <c r="BG164" s="193"/>
+      <c r="BH164" s="193"/>
+      <c r="BI164" s="194"/>
+      <c r="BJ164" s="194"/>
+      <c r="BK164" s="193"/>
+      <c r="BL164" s="193"/>
+      <c r="BM164" s="193"/>
+      <c r="BN164" s="193"/>
+      <c r="BO164" s="193"/>
+      <c r="BP164" s="194"/>
+      <c r="BQ164" s="194"/>
+      <c r="BR164" s="195"/>
+      <c r="BS164" s="193"/>
+      <c r="BT164" s="193"/>
+      <c r="BU164" s="193"/>
+      <c r="BV164" s="193"/>
+      <c r="BW164" s="194"/>
+      <c r="BX164" s="194"/>
+      <c r="BY164" s="193"/>
+      <c r="BZ164" s="193"/>
+      <c r="CA164" s="193"/>
+      <c r="CB164" s="193"/>
+      <c r="CC164" s="193"/>
+      <c r="CD164" s="194"/>
+      <c r="CE164" s="194"/>
+      <c r="CF164" s="193"/>
+      <c r="CG164" s="193"/>
+      <c r="CH164" s="193"/>
+      <c r="CI164" s="193"/>
+      <c r="CJ164" s="193"/>
+      <c r="CK164" s="194"/>
+      <c r="CL164" s="199"/>
+      <c r="CM164" s="197"/>
+      <c r="CN164" s="193"/>
+      <c r="CO164" s="193"/>
+      <c r="CP164" s="193"/>
+      <c r="CQ164" s="195"/>
+      <c r="CR164" s="194"/>
+      <c r="CS164" s="194"/>
+      <c r="CT164" s="193"/>
+      <c r="CU164" s="193"/>
+      <c r="CV164" s="193"/>
+      <c r="CW164" s="193"/>
+      <c r="CX164" s="193"/>
+      <c r="CY164" s="194"/>
+      <c r="CZ164" s="194"/>
+      <c r="DA164" s="193"/>
+      <c r="DB164" s="193"/>
+      <c r="DC164" s="193"/>
+      <c r="DD164" s="193"/>
+      <c r="DE164" s="193"/>
+      <c r="DF164" s="199"/>
+      <c r="DG164" s="199"/>
+      <c r="DH164" s="193"/>
+      <c r="DI164" s="193"/>
+      <c r="DJ164" s="193"/>
+      <c r="DK164" s="193"/>
+      <c r="DL164" s="193"/>
+      <c r="DM164" s="194"/>
+      <c r="DN164" s="194"/>
+      <c r="DO164" s="195"/>
+      <c r="DP164" s="193"/>
+      <c r="DQ164" s="193"/>
+      <c r="DR164" s="193"/>
+      <c r="DS164" s="193"/>
+      <c r="DT164" s="194"/>
+      <c r="DU164" s="200">
+        <v>1</v>
+      </c>
+      <c r="DV164" s="195"/>
+      <c r="DW164" s="193"/>
+      <c r="DX164" s="193"/>
+      <c r="DY164" s="193"/>
+      <c r="DZ164" s="193"/>
+      <c r="EA164" s="194"/>
+      <c r="EB164" s="194"/>
+      <c r="EC164" s="195"/>
+      <c r="ED164" s="193"/>
+      <c r="EE164" s="193"/>
+      <c r="EF164" s="193"/>
+      <c r="EG164" s="193"/>
+      <c r="EH164" s="193"/>
     </row>
     <row r="165" spans="1:138">
-      <c r="A165" s="193"/>
-      <c r="B165" s="192" t="s">
+      <c r="A165" s="192"/>
+      <c r="B165" s="191" t="s">
         <v>201</v>
       </c>
-      <c r="C165" s="192">
-        <v>2</v>
-      </c>
-      <c r="D165" s="192">
-        <v>1</v>
-      </c>
-      <c r="E165" s="192">
-        <v>1</v>
-      </c>
-      <c r="F165" s="192">
-        <v>1</v>
-      </c>
-      <c r="G165" s="194"/>
-      <c r="H165" s="194"/>
-      <c r="I165" s="194"/>
-      <c r="J165" s="194"/>
-      <c r="K165" s="194"/>
-      <c r="L165" s="195"/>
-      <c r="M165" s="195"/>
-      <c r="N165" s="196"/>
-      <c r="O165" s="194"/>
-      <c r="P165" s="194"/>
-      <c r="Q165" s="194"/>
-      <c r="R165" s="194"/>
-      <c r="S165" s="195"/>
-      <c r="T165" s="195"/>
-      <c r="U165" s="196"/>
-      <c r="V165" s="194"/>
-      <c r="W165" s="194"/>
-      <c r="X165" s="194"/>
-      <c r="Y165" s="194"/>
-      <c r="Z165" s="195"/>
-      <c r="AA165" s="195"/>
-      <c r="AB165" s="194"/>
-      <c r="AC165" s="194"/>
-      <c r="AD165" s="194"/>
-      <c r="AE165" s="194"/>
-      <c r="AF165" s="194"/>
-      <c r="AG165" s="195"/>
-      <c r="AH165" s="195"/>
-      <c r="AI165" s="194"/>
-      <c r="AJ165" s="194"/>
-      <c r="AK165" s="194"/>
-      <c r="AL165" s="194"/>
-      <c r="AM165" s="194"/>
-      <c r="AN165" s="195"/>
-      <c r="AO165" s="195"/>
-      <c r="AP165" s="196"/>
-      <c r="AQ165" s="194"/>
-      <c r="AR165" s="194"/>
-      <c r="AS165" s="194"/>
-      <c r="AT165" s="194"/>
-      <c r="AU165" s="195"/>
-      <c r="AV165" s="195"/>
-      <c r="AW165" s="194"/>
-      <c r="AX165" s="194"/>
-      <c r="AY165" s="194"/>
-      <c r="AZ165" s="194"/>
-      <c r="BA165" s="194"/>
-      <c r="BB165" s="195"/>
-      <c r="BC165" s="195"/>
-      <c r="BD165" s="197"/>
-      <c r="BE165" s="194"/>
-      <c r="BF165" s="194"/>
-      <c r="BG165" s="194"/>
-      <c r="BH165" s="194"/>
-      <c r="BI165" s="195"/>
-      <c r="BJ165" s="195"/>
-      <c r="BK165" s="194"/>
-      <c r="BL165" s="194"/>
-      <c r="BM165" s="194"/>
-      <c r="BN165" s="194"/>
-      <c r="BO165" s="194"/>
-      <c r="BP165" s="195"/>
-      <c r="BQ165" s="195"/>
-      <c r="BR165" s="196"/>
-      <c r="BS165" s="194"/>
-      <c r="BT165" s="194"/>
-      <c r="BU165" s="194"/>
-      <c r="BV165" s="194"/>
-      <c r="BW165" s="195"/>
-      <c r="BX165" s="195"/>
-      <c r="BY165" s="194"/>
-      <c r="BZ165" s="194"/>
-      <c r="CA165" s="194"/>
-      <c r="CB165" s="194"/>
-      <c r="CC165" s="194"/>
-      <c r="CD165" s="195"/>
-      <c r="CE165" s="195"/>
-      <c r="CF165" s="194"/>
-      <c r="CG165" s="194"/>
-      <c r="CH165" s="194"/>
-      <c r="CI165" s="194"/>
-      <c r="CJ165" s="194"/>
-      <c r="CK165" s="195"/>
-      <c r="CL165" s="200"/>
-      <c r="CM165" s="198"/>
-      <c r="CN165" s="194"/>
-      <c r="CO165" s="194"/>
-      <c r="CP165" s="194"/>
-      <c r="CQ165" s="196"/>
-      <c r="CR165" s="195"/>
-      <c r="CS165" s="195"/>
-      <c r="CT165" s="194"/>
-      <c r="CU165" s="194"/>
-      <c r="CV165" s="194"/>
-      <c r="CW165" s="194"/>
-      <c r="CX165" s="194"/>
-      <c r="CY165" s="195"/>
-      <c r="CZ165" s="195"/>
-      <c r="DA165" s="194"/>
-      <c r="DB165" s="194"/>
-      <c r="DC165" s="194"/>
-      <c r="DD165" s="194"/>
-      <c r="DE165" s="194"/>
-      <c r="DF165" s="200"/>
-      <c r="DG165" s="200"/>
-      <c r="DH165" s="194"/>
-      <c r="DI165" s="194"/>
-      <c r="DJ165" s="194"/>
-      <c r="DK165" s="194"/>
-      <c r="DL165" s="194"/>
-      <c r="DM165" s="195"/>
-      <c r="DN165" s="195"/>
-      <c r="DO165" s="196"/>
-      <c r="DP165" s="194"/>
-      <c r="DQ165" s="194"/>
-      <c r="DR165" s="194"/>
-      <c r="DS165" s="194"/>
-      <c r="DT165" s="195"/>
-      <c r="DU165" s="201">
-        <v>1</v>
-      </c>
-      <c r="DV165" s="196"/>
-      <c r="DW165" s="194"/>
-      <c r="DX165" s="194"/>
-      <c r="DY165" s="194"/>
-      <c r="DZ165" s="194"/>
-      <c r="EA165" s="195"/>
-      <c r="EB165" s="195"/>
-      <c r="EC165" s="196"/>
-      <c r="ED165" s="194"/>
-      <c r="EE165" s="194"/>
-      <c r="EF165" s="194"/>
-      <c r="EG165" s="194"/>
-      <c r="EH165" s="194"/>
+      <c r="C165" s="191">
+        <v>1</v>
+      </c>
+      <c r="D165" s="191">
+        <v>1</v>
+      </c>
+      <c r="E165" s="191">
+        <v>2</v>
+      </c>
+      <c r="F165" s="191">
+        <v>1</v>
+      </c>
+      <c r="G165" s="193"/>
+      <c r="H165" s="193"/>
+      <c r="I165" s="193"/>
+      <c r="J165" s="193"/>
+      <c r="K165" s="193"/>
+      <c r="L165" s="194"/>
+      <c r="M165" s="194"/>
+      <c r="N165" s="195"/>
+      <c r="O165" s="193"/>
+      <c r="P165" s="193"/>
+      <c r="Q165" s="193"/>
+      <c r="R165" s="193"/>
+      <c r="S165" s="194"/>
+      <c r="T165" s="194"/>
+      <c r="U165" s="195"/>
+      <c r="V165" s="193"/>
+      <c r="W165" s="193"/>
+      <c r="X165" s="193"/>
+      <c r="Y165" s="193"/>
+      <c r="Z165" s="194"/>
+      <c r="AA165" s="194"/>
+      <c r="AB165" s="193"/>
+      <c r="AC165" s="193"/>
+      <c r="AD165" s="193"/>
+      <c r="AE165" s="193"/>
+      <c r="AF165" s="193"/>
+      <c r="AG165" s="194"/>
+      <c r="AH165" s="194"/>
+      <c r="AI165" s="193"/>
+      <c r="AJ165" s="193"/>
+      <c r="AK165" s="193"/>
+      <c r="AL165" s="193"/>
+      <c r="AM165" s="193"/>
+      <c r="AN165" s="194"/>
+      <c r="AO165" s="194"/>
+      <c r="AP165" s="195"/>
+      <c r="AQ165" s="193"/>
+      <c r="AR165" s="193"/>
+      <c r="AS165" s="193"/>
+      <c r="AT165" s="193"/>
+      <c r="AU165" s="194"/>
+      <c r="AV165" s="194"/>
+      <c r="AW165" s="193"/>
+      <c r="AX165" s="193"/>
+      <c r="AY165" s="193"/>
+      <c r="AZ165" s="193"/>
+      <c r="BA165" s="193"/>
+      <c r="BB165" s="194"/>
+      <c r="BC165" s="194"/>
+      <c r="BD165" s="196"/>
+      <c r="BE165" s="193"/>
+      <c r="BF165" s="193"/>
+      <c r="BG165" s="193"/>
+      <c r="BH165" s="193"/>
+      <c r="BI165" s="194"/>
+      <c r="BJ165" s="194"/>
+      <c r="BK165" s="193"/>
+      <c r="BL165" s="193"/>
+      <c r="BM165" s="193"/>
+      <c r="BN165" s="193"/>
+      <c r="BO165" s="193"/>
+      <c r="BP165" s="194"/>
+      <c r="BQ165" s="194"/>
+      <c r="BR165" s="195"/>
+      <c r="BS165" s="193"/>
+      <c r="BT165" s="193"/>
+      <c r="BU165" s="193"/>
+      <c r="BV165" s="193"/>
+      <c r="BW165" s="194"/>
+      <c r="BX165" s="194"/>
+      <c r="BY165" s="193"/>
+      <c r="BZ165" s="193"/>
+      <c r="CA165" s="193"/>
+      <c r="CB165" s="193"/>
+      <c r="CC165" s="193"/>
+      <c r="CD165" s="194"/>
+      <c r="CE165" s="194"/>
+      <c r="CF165" s="193"/>
+      <c r="CG165" s="193"/>
+      <c r="CH165" s="193"/>
+      <c r="CI165" s="193"/>
+      <c r="CJ165" s="193"/>
+      <c r="CK165" s="194"/>
+      <c r="CL165" s="199"/>
+      <c r="CM165" s="197"/>
+      <c r="CN165" s="193"/>
+      <c r="CO165" s="193"/>
+      <c r="CP165" s="193"/>
+      <c r="CQ165" s="195"/>
+      <c r="CR165" s="194"/>
+      <c r="CS165" s="194"/>
+      <c r="CT165" s="193"/>
+      <c r="CU165" s="193"/>
+      <c r="CV165" s="193"/>
+      <c r="CW165" s="193"/>
+      <c r="CX165" s="193"/>
+      <c r="CY165" s="194"/>
+      <c r="CZ165" s="194"/>
+      <c r="DA165" s="193"/>
+      <c r="DB165" s="193"/>
+      <c r="DC165" s="193"/>
+      <c r="DD165" s="193"/>
+      <c r="DE165" s="193"/>
+      <c r="DF165" s="199"/>
+      <c r="DG165" s="199"/>
+      <c r="DH165" s="193"/>
+      <c r="DI165" s="193"/>
+      <c r="DJ165" s="193"/>
+      <c r="DK165" s="193"/>
+      <c r="DL165" s="193"/>
+      <c r="DM165" s="194"/>
+      <c r="DN165" s="194"/>
+      <c r="DO165" s="195"/>
+      <c r="DP165" s="193"/>
+      <c r="DQ165" s="193"/>
+      <c r="DR165" s="193"/>
+      <c r="DS165" s="193"/>
+      <c r="DT165" s="194"/>
+      <c r="DU165" s="200">
+        <v>1</v>
+      </c>
+      <c r="DV165" s="195"/>
+      <c r="DW165" s="193"/>
+      <c r="DX165" s="193"/>
+      <c r="DY165" s="193"/>
+      <c r="DZ165" s="193"/>
+      <c r="EA165" s="194"/>
+      <c r="EB165" s="194"/>
+      <c r="EC165" s="195"/>
+      <c r="ED165" s="193"/>
+      <c r="EE165" s="193"/>
+      <c r="EF165" s="193"/>
+      <c r="EG165" s="193"/>
+      <c r="EH165" s="193"/>
     </row>
     <row r="166" spans="1:138">
-      <c r="A166" s="193"/>
-      <c r="B166" s="192" t="s">
+      <c r="A166" s="192"/>
+      <c r="B166" s="191" t="s">
         <v>202</v>
       </c>
-      <c r="C166" s="192">
-        <v>1</v>
-      </c>
-      <c r="D166" s="192">
-        <v>1</v>
-      </c>
-      <c r="E166" s="192">
-        <v>2</v>
-      </c>
-      <c r="F166" s="192">
-        <v>1</v>
-      </c>
-      <c r="G166" s="194"/>
-      <c r="H166" s="194"/>
-      <c r="I166" s="194"/>
-      <c r="J166" s="194"/>
-      <c r="K166" s="194"/>
-      <c r="L166" s="195"/>
-      <c r="M166" s="195"/>
-      <c r="N166" s="196"/>
-      <c r="O166" s="194"/>
-      <c r="P166" s="194"/>
-      <c r="Q166" s="194"/>
-      <c r="R166" s="194"/>
-      <c r="S166" s="195"/>
-      <c r="T166" s="195"/>
-      <c r="U166" s="196"/>
-      <c r="V166" s="194"/>
-      <c r="W166" s="194"/>
-      <c r="X166" s="194"/>
-      <c r="Y166" s="194"/>
-      <c r="Z166" s="195"/>
-      <c r="AA166" s="195"/>
-      <c r="AB166" s="194"/>
-      <c r="AC166" s="194"/>
-      <c r="AD166" s="194"/>
-      <c r="AE166" s="194"/>
-      <c r="AF166" s="194"/>
-      <c r="AG166" s="195"/>
-      <c r="AH166" s="195"/>
-      <c r="AI166" s="194"/>
-      <c r="AJ166" s="194"/>
-      <c r="AK166" s="194"/>
-      <c r="AL166" s="194"/>
-      <c r="AM166" s="194"/>
-      <c r="AN166" s="195"/>
-      <c r="AO166" s="195"/>
-      <c r="AP166" s="196"/>
-      <c r="AQ166" s="194"/>
-      <c r="AR166" s="194"/>
-      <c r="AS166" s="194"/>
-      <c r="AT166" s="194"/>
-      <c r="AU166" s="195"/>
-      <c r="AV166" s="195"/>
-      <c r="AW166" s="194"/>
-      <c r="AX166" s="194"/>
-      <c r="AY166" s="194"/>
-      <c r="AZ166" s="194"/>
-      <c r="BA166" s="194"/>
-      <c r="BB166" s="195"/>
-      <c r="BC166" s="195"/>
-      <c r="BD166" s="197"/>
-      <c r="BE166" s="194"/>
-      <c r="BF166" s="194"/>
-      <c r="BG166" s="194"/>
-      <c r="BH166" s="194"/>
-      <c r="BI166" s="195"/>
-      <c r="BJ166" s="195"/>
-      <c r="BK166" s="194"/>
-      <c r="BL166" s="194"/>
-      <c r="BM166" s="194"/>
-      <c r="BN166" s="194"/>
-      <c r="BO166" s="194"/>
-      <c r="BP166" s="195"/>
-      <c r="BQ166" s="195"/>
-      <c r="BR166" s="196"/>
-      <c r="BS166" s="194"/>
-      <c r="BT166" s="194"/>
-      <c r="BU166" s="194"/>
-      <c r="BV166" s="194"/>
-      <c r="BW166" s="195"/>
-      <c r="BX166" s="195"/>
-      <c r="BY166" s="194"/>
-      <c r="BZ166" s="194"/>
-      <c r="CA166" s="194"/>
-      <c r="CB166" s="194"/>
-      <c r="CC166" s="194"/>
-      <c r="CD166" s="195"/>
-      <c r="CE166" s="195"/>
-      <c r="CF166" s="194"/>
-      <c r="CG166" s="194"/>
-      <c r="CH166" s="194"/>
-      <c r="CI166" s="194"/>
-      <c r="CJ166" s="194"/>
-      <c r="CK166" s="195"/>
-      <c r="CL166" s="200"/>
-      <c r="CM166" s="198"/>
-      <c r="CN166" s="194"/>
-      <c r="CO166" s="194"/>
-      <c r="CP166" s="194"/>
-      <c r="CQ166" s="196"/>
-      <c r="CR166" s="195"/>
-      <c r="CS166" s="195"/>
-      <c r="CT166" s="194"/>
-      <c r="CU166" s="194"/>
-      <c r="CV166" s="194"/>
-      <c r="CW166" s="194"/>
-      <c r="CX166" s="194"/>
-      <c r="CY166" s="195"/>
-      <c r="CZ166" s="195"/>
-      <c r="DA166" s="194"/>
-      <c r="DB166" s="194"/>
-      <c r="DC166" s="194"/>
-      <c r="DD166" s="194"/>
-      <c r="DE166" s="194"/>
-      <c r="DF166" s="200"/>
-      <c r="DG166" s="200"/>
-      <c r="DH166" s="194"/>
-      <c r="DI166" s="194"/>
-      <c r="DJ166" s="194"/>
-      <c r="DK166" s="194"/>
-      <c r="DL166" s="194"/>
-      <c r="DM166" s="195"/>
-      <c r="DN166" s="195"/>
-      <c r="DO166" s="196"/>
-      <c r="DP166" s="194"/>
-      <c r="DQ166" s="194"/>
-      <c r="DR166" s="194"/>
-      <c r="DS166" s="194"/>
-      <c r="DT166" s="195"/>
-      <c r="DU166" s="201">
-        <v>1</v>
-      </c>
-      <c r="DV166" s="196"/>
-      <c r="DW166" s="194"/>
-      <c r="DX166" s="194"/>
-      <c r="DY166" s="194"/>
-      <c r="DZ166" s="194"/>
-      <c r="EA166" s="195"/>
-      <c r="EB166" s="195"/>
-      <c r="EC166" s="196"/>
-      <c r="ED166" s="194"/>
-      <c r="EE166" s="194"/>
-      <c r="EF166" s="194"/>
-      <c r="EG166" s="194"/>
-      <c r="EH166" s="194"/>
-    </row>
-    <row r="167" spans="1:138">
-      <c r="A167" s="193"/>
-      <c r="B167" s="192" t="s">
-        <v>203</v>
-      </c>
-      <c r="C167" s="192">
-        <v>2</v>
-      </c>
-      <c r="D167" s="192">
-        <v>1</v>
-      </c>
-      <c r="E167" s="192">
-        <v>2</v>
-      </c>
-      <c r="F167" s="192">
-        <v>1</v>
-      </c>
-      <c r="G167" s="194"/>
-      <c r="H167" s="194"/>
-      <c r="I167" s="194"/>
-      <c r="J167" s="194"/>
-      <c r="K167" s="194"/>
-      <c r="L167" s="195"/>
-      <c r="M167" s="195"/>
-      <c r="N167" s="196"/>
-      <c r="O167" s="194"/>
-      <c r="P167" s="194"/>
-      <c r="Q167" s="194"/>
-      <c r="R167" s="194"/>
-      <c r="S167" s="195"/>
-      <c r="T167" s="195"/>
-      <c r="U167" s="196"/>
-      <c r="V167" s="194"/>
-      <c r="W167" s="194"/>
-      <c r="X167" s="194"/>
-      <c r="Y167" s="194"/>
-      <c r="Z167" s="195"/>
-      <c r="AA167" s="195"/>
-      <c r="AB167" s="194"/>
-      <c r="AC167" s="194"/>
-      <c r="AD167" s="194"/>
-      <c r="AE167" s="194"/>
-      <c r="AF167" s="194"/>
-      <c r="AG167" s="195"/>
-      <c r="AH167" s="195"/>
-      <c r="AI167" s="194"/>
-      <c r="AJ167" s="194"/>
-      <c r="AK167" s="194"/>
-      <c r="AL167" s="194"/>
-      <c r="AM167" s="194"/>
-      <c r="AN167" s="195"/>
-      <c r="AO167" s="195"/>
-      <c r="AP167" s="196"/>
-      <c r="AQ167" s="194"/>
-      <c r="AR167" s="194"/>
-      <c r="AS167" s="194"/>
-      <c r="AT167" s="194"/>
-      <c r="AU167" s="195"/>
-      <c r="AV167" s="195"/>
-      <c r="AW167" s="194"/>
-      <c r="AX167" s="194"/>
-      <c r="AY167" s="194"/>
-      <c r="AZ167" s="194"/>
-      <c r="BA167" s="194"/>
-      <c r="BB167" s="195"/>
-      <c r="BC167" s="195"/>
-      <c r="BD167" s="197"/>
-      <c r="BE167" s="194"/>
-      <c r="BF167" s="194"/>
-      <c r="BG167" s="194"/>
-      <c r="BH167" s="194"/>
-      <c r="BI167" s="195"/>
-      <c r="BJ167" s="195"/>
-      <c r="BK167" s="194"/>
-      <c r="BL167" s="194"/>
-      <c r="BM167" s="194"/>
-      <c r="BN167" s="194"/>
-      <c r="BO167" s="194"/>
-      <c r="BP167" s="195"/>
-      <c r="BQ167" s="195"/>
-      <c r="BR167" s="196"/>
-      <c r="BS167" s="194"/>
-      <c r="BT167" s="194"/>
-      <c r="BU167" s="194"/>
-      <c r="BV167" s="194"/>
-      <c r="BW167" s="195"/>
-      <c r="BX167" s="195"/>
-      <c r="BY167" s="194"/>
-      <c r="BZ167" s="194"/>
-      <c r="CA167" s="194"/>
-      <c r="CB167" s="194"/>
-      <c r="CC167" s="194"/>
-      <c r="CD167" s="195"/>
-      <c r="CE167" s="195"/>
-      <c r="CF167" s="194"/>
-      <c r="CG167" s="194"/>
-      <c r="CH167" s="194"/>
-      <c r="CI167" s="194"/>
-      <c r="CJ167" s="194"/>
-      <c r="CK167" s="195"/>
-      <c r="CL167" s="200"/>
-      <c r="CM167" s="198"/>
-      <c r="CN167" s="194"/>
-      <c r="CO167" s="194"/>
-      <c r="CP167" s="194"/>
-      <c r="CQ167" s="196"/>
-      <c r="CR167" s="195"/>
-      <c r="CS167" s="195"/>
-      <c r="CT167" s="194"/>
-      <c r="CU167" s="194"/>
-      <c r="CV167" s="194"/>
-      <c r="CW167" s="194"/>
-      <c r="CX167" s="194"/>
-      <c r="CY167" s="195"/>
-      <c r="CZ167" s="195"/>
-      <c r="DA167" s="194"/>
-      <c r="DB167" s="194"/>
-      <c r="DC167" s="194"/>
-      <c r="DD167" s="194"/>
-      <c r="DE167" s="194"/>
-      <c r="DF167" s="200"/>
-      <c r="DG167" s="200"/>
-      <c r="DH167" s="194"/>
-      <c r="DI167" s="194"/>
-      <c r="DJ167" s="194"/>
-      <c r="DK167" s="194"/>
-      <c r="DL167" s="194"/>
-      <c r="DM167" s="195"/>
-      <c r="DN167" s="195"/>
-      <c r="DO167" s="196"/>
-      <c r="DP167" s="194"/>
-      <c r="DQ167" s="194"/>
-      <c r="DR167" s="194"/>
-      <c r="DS167" s="194"/>
-      <c r="DT167" s="195"/>
-      <c r="DU167" s="195"/>
-      <c r="DV167" s="201">
-        <v>1</v>
-      </c>
-      <c r="DW167" s="194"/>
-      <c r="DX167" s="194"/>
-      <c r="DY167" s="194"/>
-      <c r="DZ167" s="194"/>
-      <c r="EA167" s="195"/>
-      <c r="EB167" s="195"/>
-      <c r="EC167" s="196"/>
-      <c r="ED167" s="194"/>
-      <c r="EE167" s="194"/>
-      <c r="EF167" s="194"/>
-      <c r="EG167" s="194"/>
-      <c r="EH167" s="194"/>
-    </row>
-    <row r="168" spans="1:138" ht="39" customHeight="1">
+      <c r="C166" s="191">
+        <v>2</v>
+      </c>
+      <c r="D166" s="191">
+        <v>1</v>
+      </c>
+      <c r="E166" s="191">
+        <v>2</v>
+      </c>
+      <c r="F166" s="191">
+        <v>1</v>
+      </c>
+      <c r="G166" s="193"/>
+      <c r="H166" s="193"/>
+      <c r="I166" s="193"/>
+      <c r="J166" s="193"/>
+      <c r="K166" s="193"/>
+      <c r="L166" s="194"/>
+      <c r="M166" s="194"/>
+      <c r="N166" s="195"/>
+      <c r="O166" s="193"/>
+      <c r="P166" s="193"/>
+      <c r="Q166" s="193"/>
+      <c r="R166" s="193"/>
+      <c r="S166" s="194"/>
+      <c r="T166" s="194"/>
+      <c r="U166" s="195"/>
+      <c r="V166" s="193"/>
+      <c r="W166" s="193"/>
+      <c r="X166" s="193"/>
+      <c r="Y166" s="193"/>
+      <c r="Z166" s="194"/>
+      <c r="AA166" s="194"/>
+      <c r="AB166" s="193"/>
+      <c r="AC166" s="193"/>
+      <c r="AD166" s="193"/>
+      <c r="AE166" s="193"/>
+      <c r="AF166" s="193"/>
+      <c r="AG166" s="194"/>
+      <c r="AH166" s="194"/>
+      <c r="AI166" s="193"/>
+      <c r="AJ166" s="193"/>
+      <c r="AK166" s="193"/>
+      <c r="AL166" s="193"/>
+      <c r="AM166" s="193"/>
+      <c r="AN166" s="194"/>
+      <c r="AO166" s="194"/>
+      <c r="AP166" s="195"/>
+      <c r="AQ166" s="193"/>
+      <c r="AR166" s="193"/>
+      <c r="AS166" s="193"/>
+      <c r="AT166" s="193"/>
+      <c r="AU166" s="194"/>
+      <c r="AV166" s="194"/>
+      <c r="AW166" s="193"/>
+      <c r="AX166" s="193"/>
+      <c r="AY166" s="193"/>
+      <c r="AZ166" s="193"/>
+      <c r="BA166" s="193"/>
+      <c r="BB166" s="194"/>
+      <c r="BC166" s="194"/>
+      <c r="BD166" s="196"/>
+      <c r="BE166" s="193"/>
+      <c r="BF166" s="193"/>
+      <c r="BG166" s="193"/>
+      <c r="BH166" s="193"/>
+      <c r="BI166" s="194"/>
+      <c r="BJ166" s="194"/>
+      <c r="BK166" s="193"/>
+      <c r="BL166" s="193"/>
+      <c r="BM166" s="193"/>
+      <c r="BN166" s="193"/>
+      <c r="BO166" s="193"/>
+      <c r="BP166" s="194"/>
+      <c r="BQ166" s="194"/>
+      <c r="BR166" s="195"/>
+      <c r="BS166" s="193"/>
+      <c r="BT166" s="193"/>
+      <c r="BU166" s="193"/>
+      <c r="BV166" s="193"/>
+      <c r="BW166" s="194"/>
+      <c r="BX166" s="194"/>
+      <c r="BY166" s="193"/>
+      <c r="BZ166" s="193"/>
+      <c r="CA166" s="193"/>
+      <c r="CB166" s="193"/>
+      <c r="CC166" s="193"/>
+      <c r="CD166" s="194"/>
+      <c r="CE166" s="194"/>
+      <c r="CF166" s="193"/>
+      <c r="CG166" s="193"/>
+      <c r="CH166" s="193"/>
+      <c r="CI166" s="193"/>
+      <c r="CJ166" s="193"/>
+      <c r="CK166" s="194"/>
+      <c r="CL166" s="199"/>
+      <c r="CM166" s="197"/>
+      <c r="CN166" s="193"/>
+      <c r="CO166" s="193"/>
+      <c r="CP166" s="193"/>
+      <c r="CQ166" s="195"/>
+      <c r="CR166" s="194"/>
+      <c r="CS166" s="194"/>
+      <c r="CT166" s="193"/>
+      <c r="CU166" s="193"/>
+      <c r="CV166" s="193"/>
+      <c r="CW166" s="193"/>
+      <c r="CX166" s="193"/>
+      <c r="CY166" s="194"/>
+      <c r="CZ166" s="194"/>
+      <c r="DA166" s="193"/>
+      <c r="DB166" s="193"/>
+      <c r="DC166" s="193"/>
+      <c r="DD166" s="193"/>
+      <c r="DE166" s="193"/>
+      <c r="DF166" s="199"/>
+      <c r="DG166" s="199"/>
+      <c r="DH166" s="193"/>
+      <c r="DI166" s="193"/>
+      <c r="DJ166" s="193"/>
+      <c r="DK166" s="193"/>
+      <c r="DL166" s="193"/>
+      <c r="DM166" s="194"/>
+      <c r="DN166" s="194"/>
+      <c r="DO166" s="195"/>
+      <c r="DP166" s="193"/>
+      <c r="DQ166" s="193"/>
+      <c r="DR166" s="193"/>
+      <c r="DS166" s="193"/>
+      <c r="DT166" s="194"/>
+      <c r="DU166" s="194"/>
+      <c r="DV166" s="200">
+        <v>1</v>
+      </c>
+      <c r="DW166" s="193"/>
+      <c r="DX166" s="193"/>
+      <c r="DY166" s="193"/>
+      <c r="DZ166" s="193"/>
+      <c r="EA166" s="194"/>
+      <c r="EB166" s="194"/>
+      <c r="EC166" s="195"/>
+      <c r="ED166" s="193"/>
+      <c r="EE166" s="193"/>
+      <c r="EF166" s="193"/>
+      <c r="EG166" s="193"/>
+      <c r="EH166" s="193"/>
+    </row>
+    <row r="167" spans="1:138" ht="39" customHeight="1">
+      <c r="CM167" s="67"/>
+      <c r="CQ167" s="94"/>
+      <c r="DU167" s="65"/>
+      <c r="DV167" s="65"/>
+    </row>
+    <row r="168" spans="1:138">
       <c r="CM168" s="67"/>
       <c r="CQ168" s="94"/>
-      <c r="DU168" s="65"/>
-      <c r="DV168" s="65"/>
     </row>
     <row r="169" spans="1:138">
-      <c r="CM169" s="67"/>
-      <c r="CQ169" s="94"/>
+      <c r="A169" s="99" t="s">
+        <v>115</v>
+      </c>
+      <c r="B169" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="AW169" s="65"/>
+      <c r="AX169" s="65"/>
+      <c r="AY169" s="65"/>
+      <c r="AZ169" s="65"/>
+      <c r="BA169" s="65"/>
+      <c r="BB169" s="65"/>
+      <c r="BD169" s="95"/>
+      <c r="BE169" s="65"/>
+      <c r="BF169" s="65"/>
+      <c r="BG169" s="65"/>
+      <c r="BH169" s="65"/>
+      <c r="BI169" s="65"/>
+      <c r="BJ169" s="65"/>
+      <c r="BK169" s="65"/>
+      <c r="BL169" s="65"/>
+      <c r="BM169" s="65"/>
+      <c r="BN169" s="65"/>
+      <c r="BO169" s="65"/>
+      <c r="BP169" s="65"/>
+      <c r="BQ169" s="65"/>
+      <c r="BR169" s="65"/>
+      <c r="BS169" s="65"/>
+      <c r="BT169" s="65"/>
+      <c r="BU169" s="65"/>
+      <c r="BV169" s="65"/>
+      <c r="BW169" s="96"/>
+      <c r="BX169" s="97"/>
+      <c r="BY169" s="65"/>
+      <c r="BZ169" s="65"/>
+      <c r="CA169" s="65"/>
+      <c r="CB169" s="65"/>
+      <c r="CC169" s="65"/>
+      <c r="CD169" s="65"/>
+      <c r="CE169" s="65"/>
+      <c r="CF169" s="65"/>
+      <c r="CG169" s="65"/>
+      <c r="CH169" s="65"/>
+      <c r="CI169" s="65"/>
+      <c r="CJ169" s="65"/>
+      <c r="CK169" s="65"/>
+      <c r="CL169" s="65"/>
+      <c r="CM169" s="65"/>
+      <c r="CN169" s="65"/>
+      <c r="CO169" s="65"/>
+      <c r="CP169" s="65"/>
+      <c r="CQ169" s="95"/>
+      <c r="CR169" s="65"/>
+      <c r="CS169" s="65"/>
+      <c r="CT169" s="65"/>
+      <c r="CU169" s="65"/>
+      <c r="CV169" s="65"/>
+      <c r="CW169" s="65"/>
+      <c r="CX169" s="65"/>
+      <c r="CY169" s="65"/>
+      <c r="CZ169" s="65"/>
+      <c r="DA169" s="65"/>
+      <c r="DB169" s="96"/>
+      <c r="DC169" s="97"/>
+      <c r="DD169" s="65"/>
+      <c r="DE169" s="65"/>
+      <c r="DF169" s="65"/>
+      <c r="DG169" s="65"/>
+      <c r="DH169" s="65"/>
+      <c r="DI169" s="65"/>
+      <c r="DJ169" s="65"/>
+      <c r="DK169" s="65"/>
+      <c r="DL169" s="65"/>
+      <c r="DZ169" s="67"/>
     </row>
     <row r="170" spans="1:138">
-      <c r="A170" s="99" t="s">
-        <v>115</v>
-      </c>
-      <c r="B170" s="98" t="s">
-        <v>41</v>
-      </c>
-      <c r="AW170" s="65"/>
-      <c r="AX170" s="65"/>
-      <c r="AY170" s="65"/>
-      <c r="AZ170" s="65"/>
+      <c r="A170" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B170" t="s">
+        <v>109</v>
+      </c>
+      <c r="C170">
+        <v>2</v>
+      </c>
+      <c r="D170">
+        <v>3</v>
+      </c>
+      <c r="E170">
+        <v>2</v>
+      </c>
+      <c r="F170">
+        <v>3</v>
+      </c>
+      <c r="AW170" s="76">
+        <v>2</v>
+      </c>
       <c r="BA170" s="65"/>
-      <c r="BB170" s="65"/>
-      <c r="BD170" s="95"/>
-      <c r="BE170" s="65"/>
-      <c r="BF170" s="65"/>
-      <c r="BG170" s="65"/>
-      <c r="BH170" s="65"/>
-      <c r="BI170" s="65"/>
-      <c r="BJ170" s="65"/>
-      <c r="BK170" s="65"/>
-      <c r="BL170" s="65"/>
-      <c r="BM170" s="65"/>
-      <c r="BN170" s="65"/>
-      <c r="BO170" s="65"/>
-      <c r="BP170" s="65"/>
-      <c r="BQ170" s="65"/>
-      <c r="BR170" s="65"/>
-      <c r="BS170" s="65"/>
-      <c r="BT170" s="65"/>
-      <c r="BU170" s="65"/>
-      <c r="BV170" s="65"/>
-      <c r="BW170" s="96"/>
-      <c r="BX170" s="97"/>
-      <c r="BY170" s="65"/>
-      <c r="BZ170" s="65"/>
-      <c r="CA170" s="65"/>
-      <c r="CB170" s="65"/>
-      <c r="CC170" s="65"/>
-      <c r="CD170" s="65"/>
-      <c r="CE170" s="65"/>
-      <c r="CF170" s="65"/>
-      <c r="CG170" s="65"/>
-      <c r="CH170" s="65"/>
-      <c r="CI170" s="65"/>
-      <c r="CJ170" s="65"/>
-      <c r="CK170" s="65"/>
-      <c r="CL170" s="65"/>
-      <c r="CM170" s="65"/>
-      <c r="CN170" s="65"/>
-      <c r="CO170" s="65"/>
-      <c r="CP170" s="65"/>
-      <c r="CQ170" s="95"/>
-      <c r="CR170" s="65"/>
-      <c r="CS170" s="65"/>
-      <c r="CT170" s="65"/>
-      <c r="CU170" s="65"/>
-      <c r="CV170" s="65"/>
-      <c r="CW170" s="65"/>
-      <c r="CX170" s="65"/>
-      <c r="CY170" s="65"/>
-      <c r="CZ170" s="65"/>
-      <c r="DA170" s="65"/>
-      <c r="DB170" s="96"/>
-      <c r="DC170" s="97"/>
-      <c r="DD170" s="65"/>
-      <c r="DE170" s="65"/>
-      <c r="DF170" s="65"/>
-      <c r="DG170" s="65"/>
-      <c r="DH170" s="65"/>
-      <c r="DI170" s="65"/>
-      <c r="DJ170" s="65"/>
-      <c r="DK170" s="65"/>
-      <c r="DL170" s="65"/>
+      <c r="BC170" s="65"/>
+      <c r="CM170" s="67"/>
+      <c r="CQ170" s="94"/>
+      <c r="DW170" s="67"/>
+      <c r="DX170" s="67"/>
+      <c r="DY170" s="67"/>
       <c r="DZ170" s="67"/>
+      <c r="EA170" s="93"/>
+      <c r="EB170" s="93"/>
     </row>
     <row r="171" spans="1:138">
       <c r="A171" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B171" t="s">
-        <v>109</v>
+        <v>117</v>
+      </c>
+      <c r="B171" s="92" t="s">
+        <v>127</v>
       </c>
       <c r="C171">
-        <v>2</v>
-      </c>
-      <c r="D171">
         <v>3</v>
       </c>
       <c r="E171">
-        <v>2</v>
-      </c>
-      <c r="F171">
-        <v>3</v>
-      </c>
-      <c r="AW171" s="76">
-        <v>2</v>
-      </c>
-      <c r="BA171" s="65"/>
-      <c r="BC171" s="65"/>
+        <v>3</v>
+      </c>
+      <c r="AZ171" s="67"/>
       <c r="CM171" s="67"/>
       <c r="CQ171" s="94"/>
       <c r="DW171" s="67"/>
@@ -8690,21 +8667,20 @@
     </row>
     <row r="172" spans="1:138">
       <c r="A172" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B172" s="92" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C172">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E172">
         <v>3</v>
       </c>
-      <c r="AZ172" s="67"/>
       <c r="CM172" s="67"/>
       <c r="CQ172" s="94"/>
-      <c r="DW172" s="67"/>
+      <c r="DW172" s="65"/>
       <c r="DX172" s="67"/>
       <c r="DY172" s="67"/>
       <c r="DZ172" s="67"/>
@@ -8713,32 +8689,37 @@
     </row>
     <row r="173" spans="1:138">
       <c r="A173" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B173" s="92" t="s">
-        <v>128</v>
-      </c>
-      <c r="C173">
-        <v>1</v>
-      </c>
-      <c r="E173">
-        <v>3</v>
+        <v>139</v>
+      </c>
+      <c r="B173" t="s">
+        <v>123</v>
       </c>
       <c r="CM173" s="67"/>
       <c r="CQ173" s="94"/>
-      <c r="DW173" s="65"/>
-      <c r="DX173" s="67"/>
-      <c r="DY173" s="67"/>
+      <c r="DA173" s="67"/>
+      <c r="DD173" s="67"/>
+      <c r="DE173" s="67"/>
+      <c r="DH173" s="67"/>
+      <c r="DK173" s="67"/>
+      <c r="DL173" s="67"/>
+      <c r="DU173" s="65"/>
+      <c r="DV173" s="65"/>
+      <c r="DW173" s="67"/>
+      <c r="DX173" s="65"/>
+      <c r="DY173" s="65"/>
       <c r="DZ173" s="67"/>
       <c r="EA173" s="93"/>
       <c r="EB173" s="93"/>
     </row>
     <row r="174" spans="1:138">
-      <c r="A174" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B174" t="s">
-        <v>123</v>
+      <c r="B174" s="92" t="s">
+        <v>124</v>
+      </c>
+      <c r="C174">
+        <v>3</v>
+      </c>
+      <c r="E174">
+        <v>3</v>
       </c>
       <c r="CM174" s="67"/>
       <c r="CQ174" s="94"/>
@@ -8748,24 +8729,16 @@
       <c r="DH174" s="67"/>
       <c r="DK174" s="67"/>
       <c r="DL174" s="67"/>
-      <c r="DU174" s="65"/>
-      <c r="DV174" s="65"/>
-      <c r="DW174" s="67"/>
-      <c r="DX174" s="65"/>
-      <c r="DY174" s="65"/>
-      <c r="DZ174" s="67"/>
-      <c r="EA174" s="93"/>
-      <c r="EB174" s="93"/>
     </row>
     <row r="175" spans="1:138">
       <c r="B175" s="92" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C175">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E175">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CM175" s="67"/>
       <c r="CQ175" s="94"/>
@@ -8778,13 +8751,13 @@
     </row>
     <row r="176" spans="1:138">
       <c r="B176" s="92" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C176">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E176">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CM176" s="67"/>
       <c r="CQ176" s="94"/>
@@ -8796,23 +8769,8 @@
       <c r="DL176" s="67"/>
     </row>
     <row r="177" spans="1:116">
-      <c r="B177" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="C177">
-        <v>4</v>
-      </c>
-      <c r="E177">
-        <v>2</v>
-      </c>
       <c r="CM177" s="67"/>
       <c r="CQ177" s="94"/>
-      <c r="DA177" s="67"/>
-      <c r="DD177" s="67"/>
-      <c r="DE177" s="67"/>
-      <c r="DH177" s="67"/>
-      <c r="DK177" s="67"/>
-      <c r="DL177" s="67"/>
     </row>
     <row r="178" spans="1:116">
       <c r="CM178" s="67"/>
@@ -8820,294 +8778,299 @@
     </row>
     <row r="179" spans="1:116">
       <c r="CM179" s="67"/>
-      <c r="CQ179" s="94"/>
-    </row>
-    <row r="180" spans="1:116">
-      <c r="CM180" s="67"/>
-      <c r="CQ180" s="6"/>
+      <c r="CQ179" s="6"/>
+    </row>
+    <row r="180" spans="1:116" ht="16" thickBot="1">
+      <c r="A180" s="100" t="s">
+        <v>140</v>
+      </c>
+      <c r="B180" s="114" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR180" s="88"/>
+      <c r="AS180" s="89"/>
+      <c r="AT180" s="151"/>
+      <c r="AU180" s="88"/>
+      <c r="AV180" s="88"/>
+      <c r="AW180" s="88"/>
+      <c r="AX180" s="88"/>
+      <c r="AY180" s="88"/>
+      <c r="AZ180" s="88"/>
+      <c r="BA180" s="88"/>
+      <c r="BB180" s="88"/>
+      <c r="BC180" s="136"/>
+      <c r="BD180" s="91"/>
+      <c r="BE180" s="88"/>
+      <c r="BF180" s="88"/>
+      <c r="BG180" s="88"/>
+      <c r="BH180" s="152"/>
+      <c r="BI180" s="88"/>
+      <c r="BJ180" s="88"/>
+      <c r="BK180" s="88"/>
+      <c r="BL180" s="88"/>
+      <c r="BM180" s="88"/>
+      <c r="BN180" s="88"/>
+      <c r="BO180" s="88"/>
+      <c r="BP180" s="88"/>
+      <c r="BQ180" s="88"/>
+      <c r="BR180" s="88"/>
+      <c r="BS180" s="88"/>
+      <c r="BT180" s="88"/>
+      <c r="BU180" s="88"/>
+      <c r="BV180" s="152"/>
+      <c r="BW180" s="89"/>
+      <c r="BX180" s="90"/>
+      <c r="BY180" s="88"/>
+      <c r="BZ180" s="88"/>
+      <c r="CA180" s="88"/>
+      <c r="CB180" s="88"/>
+      <c r="CC180" s="88"/>
+      <c r="CD180" s="88"/>
+      <c r="CE180" s="88"/>
+      <c r="CF180" s="88"/>
+      <c r="CG180" s="88"/>
+      <c r="CH180" s="88"/>
+      <c r="CI180" s="88"/>
+      <c r="CJ180" s="152"/>
+      <c r="CK180" s="88"/>
+      <c r="CL180" s="88"/>
+      <c r="CM180" s="88"/>
+      <c r="CN180" s="88"/>
+      <c r="CO180" s="88"/>
+      <c r="CP180" s="88"/>
+      <c r="CQ180" s="88"/>
+      <c r="CR180" s="88"/>
+      <c r="CS180" s="88"/>
+      <c r="CT180" s="88"/>
+      <c r="CU180" s="88"/>
+      <c r="CV180" s="88"/>
+      <c r="CW180" s="88"/>
+      <c r="CX180" s="152"/>
+      <c r="CY180" s="88"/>
+      <c r="CZ180" s="88"/>
+      <c r="DA180" s="67"/>
+      <c r="DB180" s="75"/>
+      <c r="DC180" s="70"/>
+      <c r="DD180" s="67"/>
+      <c r="DE180" s="67"/>
+      <c r="DH180" s="67"/>
+      <c r="DI180" s="67"/>
+      <c r="DJ180" s="67"/>
+      <c r="DK180" s="67"/>
+      <c r="DL180" s="67"/>
     </row>
     <row r="181" spans="1:116" ht="16" thickBot="1">
-      <c r="A181" s="100" t="s">
-        <v>140</v>
-      </c>
-      <c r="B181" s="114" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR181" s="88"/>
-      <c r="AS181" s="89"/>
-      <c r="AT181" s="152"/>
-      <c r="AU181" s="88"/>
-      <c r="AV181" s="88"/>
-      <c r="AW181" s="88"/>
-      <c r="AX181" s="88"/>
-      <c r="AY181" s="88"/>
-      <c r="AZ181" s="88"/>
-      <c r="BA181" s="88"/>
-      <c r="BB181" s="88"/>
-      <c r="BC181" s="136"/>
-      <c r="BD181" s="91"/>
-      <c r="BE181" s="88"/>
-      <c r="BF181" s="88"/>
-      <c r="BG181" s="88"/>
-      <c r="BH181" s="153"/>
-      <c r="BI181" s="88"/>
-      <c r="BJ181" s="88"/>
-      <c r="BK181" s="88"/>
-      <c r="BL181" s="88"/>
-      <c r="BM181" s="88"/>
-      <c r="BN181" s="88"/>
-      <c r="BO181" s="88"/>
-      <c r="BP181" s="88"/>
-      <c r="BQ181" s="88"/>
-      <c r="BR181" s="88"/>
-      <c r="BS181" s="88"/>
-      <c r="BT181" s="88"/>
-      <c r="BU181" s="88"/>
-      <c r="BV181" s="153"/>
-      <c r="BW181" s="89"/>
-      <c r="BX181" s="90"/>
-      <c r="BY181" s="88"/>
-      <c r="BZ181" s="88"/>
-      <c r="CA181" s="88"/>
-      <c r="CB181" s="88"/>
-      <c r="CC181" s="88"/>
-      <c r="CD181" s="88"/>
-      <c r="CE181" s="88"/>
-      <c r="CF181" s="88"/>
-      <c r="CG181" s="88"/>
-      <c r="CH181" s="88"/>
-      <c r="CI181" s="88"/>
-      <c r="CJ181" s="153"/>
-      <c r="CK181" s="88"/>
-      <c r="CL181" s="88"/>
-      <c r="CM181" s="88"/>
-      <c r="CN181" s="88"/>
-      <c r="CO181" s="88"/>
-      <c r="CP181" s="88"/>
-      <c r="CQ181" s="88"/>
-      <c r="CR181" s="88"/>
-      <c r="CS181" s="88"/>
-      <c r="CT181" s="88"/>
-      <c r="CU181" s="88"/>
-      <c r="CV181" s="88"/>
-      <c r="CW181" s="88"/>
-      <c r="CX181" s="153"/>
-      <c r="CY181" s="88"/>
-      <c r="CZ181" s="88"/>
-      <c r="DA181" s="67"/>
-      <c r="DB181" s="75"/>
-      <c r="DC181" s="70"/>
-      <c r="DD181" s="67"/>
-      <c r="DE181" s="67"/>
-      <c r="DH181" s="67"/>
-      <c r="DI181" s="67"/>
-      <c r="DJ181" s="67"/>
-      <c r="DK181" s="67"/>
-      <c r="DL181" s="67"/>
-    </row>
-    <row r="182" spans="1:116" ht="16" thickBot="1">
-      <c r="A182" s="1" t="s">
+      <c r="A181" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B181" t="s">
         <v>113</v>
       </c>
-      <c r="C182">
+      <c r="C181">
         <v>4</v>
       </c>
-      <c r="D182">
+      <c r="D181">
         <v>5</v>
       </c>
-      <c r="E182">
+      <c r="E181">
         <v>0</v>
       </c>
-      <c r="F182">
+      <c r="F181">
         <v>0</v>
       </c>
-      <c r="AT182" s="162">
-        <v>1</v>
-      </c>
-      <c r="AU182" s="149"/>
-      <c r="BB182" s="35"/>
-      <c r="BC182" s="163"/>
-      <c r="BD182" s="150"/>
-      <c r="BG182" s="31"/>
-      <c r="BH182" s="162">
-        <v>1</v>
-      </c>
-      <c r="BI182" s="128"/>
-      <c r="BS182" s="67"/>
-      <c r="BU182" s="31"/>
-      <c r="BV182" s="163"/>
-      <c r="BW182" s="132"/>
-      <c r="CB182" s="79">
-        <v>1</v>
-      </c>
-      <c r="CC182" s="67"/>
+      <c r="AT181" s="161">
+        <v>1</v>
+      </c>
+      <c r="AU181" s="148"/>
+      <c r="BB181" s="35"/>
+      <c r="BC181" s="162"/>
+      <c r="BD181" s="149"/>
+      <c r="BG181" s="31"/>
+      <c r="BH181" s="161">
+        <v>1</v>
+      </c>
+      <c r="BI181" s="128"/>
+      <c r="BS181" s="67"/>
+      <c r="BU181" s="31"/>
+      <c r="BV181" s="162"/>
+      <c r="BW181" s="132"/>
+      <c r="CB181" s="79">
+        <v>1</v>
+      </c>
+      <c r="CC181" s="67"/>
+      <c r="CF181" s="67"/>
+      <c r="CI181" s="31"/>
+      <c r="CJ181" s="161">
+        <v>1</v>
+      </c>
+      <c r="CK181" s="128"/>
+      <c r="CM181" s="67"/>
+      <c r="CQ181" s="6"/>
+      <c r="CW181" s="31"/>
+      <c r="CX181" s="161">
+        <v>1</v>
+      </c>
+      <c r="CY181" s="128"/>
+    </row>
+    <row r="182" spans="1:116" ht="31" thickBot="1">
+      <c r="B182" s="92" t="s">
+        <v>136</v>
+      </c>
+      <c r="D182" t="s">
+        <v>137</v>
+      </c>
+      <c r="AT182" s="156"/>
+      <c r="AU182" s="80"/>
+      <c r="BC182" s="15"/>
+      <c r="BG182" s="79">
+        <v>3</v>
+      </c>
+      <c r="BH182" s="157"/>
+      <c r="BM182" s="79">
+        <v>3</v>
+      </c>
+      <c r="BS182" s="115">
+        <v>3</v>
+      </c>
+      <c r="BU182" s="79">
+        <v>2</v>
+      </c>
+      <c r="BV182" s="157">
+        <v>3</v>
+      </c>
+      <c r="CA182" s="79">
+        <v>2</v>
+      </c>
+      <c r="CB182" s="115">
+        <v>3</v>
+      </c>
       <c r="CF182" s="67"/>
-      <c r="CI182" s="31"/>
-      <c r="CJ182" s="162">
-        <v>1</v>
-      </c>
-      <c r="CK182" s="128"/>
+      <c r="CH182" s="79">
+        <v>2</v>
+      </c>
+      <c r="CJ182" s="158"/>
       <c r="CM182" s="67"/>
+      <c r="CO182" s="79">
+        <v>2</v>
+      </c>
       <c r="CQ182" s="6"/>
-      <c r="CW182" s="31"/>
-      <c r="CX182" s="162">
-        <v>1</v>
-      </c>
-      <c r="CY182" s="128"/>
-    </row>
-    <row r="183" spans="1:116" ht="31" thickBot="1">
-      <c r="B183" s="92" t="s">
-        <v>136</v>
-      </c>
-      <c r="D183" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT183" s="157"/>
-      <c r="AU183" s="80"/>
-      <c r="BC183" s="15"/>
-      <c r="BG183" s="79">
-        <v>3</v>
-      </c>
-      <c r="BH183" s="158"/>
-      <c r="BM183" s="79">
-        <v>3</v>
-      </c>
-      <c r="BS183" s="115">
-        <v>3</v>
-      </c>
-      <c r="BU183" s="79">
-        <v>2</v>
-      </c>
-      <c r="BV183" s="158">
-        <v>3</v>
-      </c>
-      <c r="CA183" s="79">
-        <v>2</v>
-      </c>
-      <c r="CB183" s="115">
-        <v>3</v>
-      </c>
-      <c r="CF183" s="67"/>
-      <c r="CH183" s="79">
-        <v>2</v>
-      </c>
-      <c r="CJ183" s="159"/>
+      <c r="CV182" s="79">
+        <v>2</v>
+      </c>
+      <c r="CX182" s="158"/>
+      <c r="DC182" s="81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:116" ht="16" thickBot="1">
+      <c r="A183" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B183" t="s">
+        <v>118</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>4</v>
+      </c>
+      <c r="AT183" s="161">
+        <v>1</v>
+      </c>
+      <c r="AU183" s="128"/>
+      <c r="BG183" s="31"/>
+      <c r="BH183" s="161">
+        <v>1</v>
+      </c>
+      <c r="BI183" s="128"/>
+      <c r="BU183" s="31"/>
+      <c r="BV183" s="161">
+        <v>1</v>
+      </c>
+      <c r="BW183" s="132"/>
+      <c r="CI183" s="31"/>
+      <c r="CJ183" s="161">
+        <v>1</v>
+      </c>
+      <c r="CK183" s="128"/>
       <c r="CM183" s="67"/>
-      <c r="CO183" s="79">
-        <v>2</v>
-      </c>
       <c r="CQ183" s="6"/>
-      <c r="CV183" s="79">
-        <v>2</v>
-      </c>
-      <c r="CX183" s="159"/>
-      <c r="DC183" s="81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:116" ht="16" thickBot="1">
-      <c r="A184" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B184" t="s">
-        <v>118</v>
-      </c>
-      <c r="C184">
-        <v>0</v>
-      </c>
-      <c r="D184">
-        <v>0</v>
-      </c>
-      <c r="E184">
-        <v>4</v>
-      </c>
-      <c r="AT184" s="162">
-        <v>1</v>
-      </c>
-      <c r="AU184" s="128"/>
-      <c r="BG184" s="31"/>
-      <c r="BH184" s="162">
-        <v>1</v>
-      </c>
-      <c r="BI184" s="128"/>
-      <c r="BU184" s="31"/>
-      <c r="BV184" s="162">
-        <v>1</v>
-      </c>
-      <c r="BW184" s="132"/>
-      <c r="CI184" s="31"/>
-      <c r="CJ184" s="162">
-        <v>1</v>
-      </c>
-      <c r="CK184" s="128"/>
+      <c r="CW183" s="31"/>
+      <c r="CX183" s="161">
+        <v>1</v>
+      </c>
+      <c r="CY183" s="128"/>
+      <c r="DE183" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:116">
+      <c r="AT184" s="49"/>
+      <c r="BH184" s="14"/>
+      <c r="BV184" s="14"/>
+      <c r="CJ184" s="73"/>
       <c r="CM184" s="67"/>
       <c r="CQ184" s="6"/>
-      <c r="CW184" s="31"/>
-      <c r="CX184" s="162">
-        <v>1</v>
-      </c>
-      <c r="CY184" s="128"/>
-      <c r="DE184" s="79">
-        <v>1</v>
-      </c>
+      <c r="CX184" s="14"/>
     </row>
     <row r="185" spans="1:116">
-      <c r="AT185" s="49"/>
-      <c r="BH185" s="14"/>
-      <c r="BV185" s="14"/>
-      <c r="CJ185" s="73"/>
       <c r="CM185" s="67"/>
       <c r="CQ185" s="6"/>
-      <c r="CX185" s="14"/>
     </row>
     <row r="186" spans="1:116">
+      <c r="C186">
+        <f>SUM(C4:C185)</f>
+        <v>300</v>
+      </c>
+      <c r="D186">
+        <f>SUM(D4:D185)</f>
+        <v>277</v>
+      </c>
+      <c r="E186" s="66">
+        <f>SUM(E4:E185)</f>
+        <v>308</v>
+      </c>
+      <c r="F186">
+        <f>SUM(F4:F185)</f>
+        <v>282</v>
+      </c>
       <c r="CM186" s="67"/>
       <c r="CQ186" s="6"/>
     </row>
     <row r="187" spans="1:116">
-      <c r="C187">
-        <f>SUM(C4:C186)</f>
-        <v>302</v>
-      </c>
-      <c r="D187">
-        <f>SUM(D4:D186)</f>
-        <v>281</v>
-      </c>
-      <c r="E187" s="66">
-        <f>SUM(E4:E186)</f>
-        <v>308</v>
-      </c>
-      <c r="F187">
-        <f>SUM(F4:F186)</f>
-        <v>283</v>
+      <c r="C187" t="s">
+        <v>97</v>
+      </c>
+      <c r="D187" t="s">
+        <v>98</v>
+      </c>
+      <c r="E187" t="s">
+        <v>112</v>
+      </c>
+      <c r="F187" t="s">
+        <v>111</v>
       </c>
       <c r="CM187" s="67"/>
       <c r="CQ187" s="6"/>
     </row>
     <row r="188" spans="1:116">
-      <c r="C188" t="s">
-        <v>97</v>
-      </c>
-      <c r="D188" t="s">
-        <v>98</v>
-      </c>
-      <c r="E188" t="s">
-        <v>112</v>
-      </c>
-      <c r="F188" t="s">
-        <v>111</v>
-      </c>
       <c r="CM188" s="67"/>
       <c r="CQ188" s="6"/>
     </row>
     <row r="189" spans="1:116">
-      <c r="CM189" s="67"/>
       <c r="CQ189" s="6"/>
     </row>
     <row r="190" spans="1:116">
+      <c r="CF190" s="67"/>
+      <c r="CG190" s="67"/>
+      <c r="CH190" s="67"/>
+      <c r="CI190" s="67"/>
+      <c r="CJ190" s="67"/>
+      <c r="CM190" s="67"/>
       <c r="CQ190" s="6"/>
     </row>
     <row r="191" spans="1:116">
@@ -9138,11 +9101,6 @@
       <c r="CQ193" s="6"/>
     </row>
     <row r="194" spans="84:95">
-      <c r="CF194" s="67"/>
-      <c r="CG194" s="67"/>
-      <c r="CH194" s="67"/>
-      <c r="CI194" s="67"/>
-      <c r="CJ194" s="67"/>
       <c r="CM194" s="67"/>
       <c r="CQ194" s="6"/>
     </row>
@@ -9162,13 +9120,12 @@
       <c r="CM198" s="67"/>
       <c r="CQ198" s="6"/>
     </row>
-    <row r="199" spans="84:95">
-      <c r="CM199" s="67"/>
-      <c r="CQ199" s="6"/>
+    <row r="234" spans="91:95">
+      <c r="CM234" s="67"/>
+      <c r="CQ234" s="6"/>
     </row>
     <row r="235" spans="91:95">
       <c r="CM235" s="67"/>
-      <c r="CQ235" s="6"/>
     </row>
     <row r="236" spans="91:95">
       <c r="CM236" s="67"/>
@@ -9415,9 +9372,6 @@
     </row>
     <row r="317" spans="91:91">
       <c r="CM317" s="67"/>
-    </row>
-    <row r="318" spans="91:91">
-      <c r="CM318" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/konzept/projektplan.xlsx
+++ b/konzept/projektplan.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="38600" yWindow="1680" windowWidth="34020" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -746,6 +746,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -849,7 +850,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1002,31 +1003,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2DCDB"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1043,7 +1026,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1602,19 +1585,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1665,7 +1635,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="99">
+  <cellStyleXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1765,8 +1735,82 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="226">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1990,16 +2034,14 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2008,16 +2050,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2063,113 +2107,181 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="99">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="173">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2503,8 +2615,8 @@
   </sheetPr>
   <dimension ref="A1:EH317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD48"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="CJ146" sqref="CJ146:CK146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4623,7 +4735,7 @@
       <c r="AZ45" s="31"/>
       <c r="BA45" s="145"/>
       <c r="BB45" s="135"/>
-      <c r="BH45" s="184">
+      <c r="BH45" s="182">
         <v>3</v>
       </c>
       <c r="BI45" s="176">
@@ -4655,7 +4767,7 @@
       <c r="BB46" s="145"/>
       <c r="BC46" s="128"/>
       <c r="BH46" s="84"/>
-      <c r="BI46" s="184">
+      <c r="BI46" s="182">
         <v>2</v>
       </c>
       <c r="BJ46" s="176">
@@ -4775,10 +4887,10 @@
       <c r="BD51" s="129"/>
       <c r="BK51" s="67"/>
       <c r="BO51" s="67"/>
-      <c r="BP51" s="180">
+      <c r="BP51" s="179">
         <v>4</v>
       </c>
-      <c r="BQ51" s="201">
+      <c r="BQ51" s="195">
         <v>2</v>
       </c>
       <c r="BS51" s="67"/>
@@ -4842,16 +4954,16 @@
       <c r="AY53" s="67"/>
       <c r="AZ53" s="67"/>
       <c r="BB53" s="35"/>
-      <c r="BC53" s="187"/>
+      <c r="BC53" s="185"/>
       <c r="BD53" s="129"/>
       <c r="BK53" s="67"/>
       <c r="BO53" s="67"/>
-      <c r="BP53" s="180"/>
+      <c r="BP53" s="179"/>
       <c r="BS53" s="67"/>
       <c r="BT53" s="67"/>
       <c r="BU53" s="67"/>
       <c r="BV53" s="67"/>
-      <c r="BX53" s="188"/>
+      <c r="BX53" s="186"/>
       <c r="BY53" s="138"/>
       <c r="CF53" s="67"/>
       <c r="CG53" s="67"/>
@@ -4885,7 +4997,7 @@
       <c r="BD54" s="94"/>
       <c r="BK54" s="67"/>
       <c r="BO54" s="67"/>
-      <c r="BP54" s="180">
+      <c r="BP54" s="179">
         <v>2</v>
       </c>
       <c r="BR54" s="94">
@@ -4968,8 +5080,8 @@
       <c r="AX56" s="67"/>
       <c r="AY56" s="67"/>
       <c r="AZ56" s="67"/>
-      <c r="BB56" s="223"/>
-      <c r="BC56" s="221"/>
+      <c r="BB56" s="202"/>
+      <c r="BC56" s="200"/>
       <c r="BD56" s="137"/>
       <c r="BK56" s="67"/>
       <c r="BN56" s="67"/>
@@ -4978,10 +5090,10 @@
       <c r="BT56" s="67"/>
       <c r="BU56" s="67"/>
       <c r="BV56" s="67"/>
-      <c r="BW56" s="220">
+      <c r="BW56" s="199">
         <v>4</v>
       </c>
-      <c r="BX56" s="189"/>
+      <c r="BX56" s="187"/>
       <c r="BY56" s="146"/>
       <c r="BZ56" s="130"/>
       <c r="CF56" s="67"/>
@@ -5012,9 +5124,9 @@
       <c r="AX57" s="67"/>
       <c r="AY57" s="67"/>
       <c r="AZ57" s="67"/>
-      <c r="BB57" s="224"/>
+      <c r="BB57" s="203"/>
       <c r="BC57" s="124"/>
-      <c r="BD57" s="225"/>
+      <c r="BD57" s="204"/>
       <c r="BE57" s="130"/>
       <c r="BK57" s="67"/>
       <c r="BN57" s="67"/>
@@ -5023,7 +5135,7 @@
       <c r="BT57" s="67"/>
       <c r="BU57" s="67"/>
       <c r="BV57" s="67"/>
-      <c r="BX57" s="185">
+      <c r="BX57" s="183">
         <v>4</v>
       </c>
       <c r="BY57" s="146">
@@ -5055,9 +5167,9 @@
         <v>0</v>
       </c>
       <c r="AW58" s="67"/>
-      <c r="BB58" s="224"/>
+      <c r="BB58" s="203"/>
       <c r="BC58" s="124"/>
-      <c r="BD58" s="222"/>
+      <c r="BD58" s="201"/>
       <c r="BE58" s="130"/>
       <c r="BK58" s="67"/>
       <c r="BL58" s="67"/>
@@ -5154,7 +5266,7 @@
       <c r="CR60" s="145">
         <v>3</v>
       </c>
-      <c r="CS60" s="202">
+      <c r="CS60" s="196">
         <v>1</v>
       </c>
     </row>
@@ -5200,12 +5312,12 @@
       <c r="CJ61" s="67"/>
       <c r="CM61" s="67"/>
       <c r="CQ61" s="7"/>
-      <c r="CR61" s="190"/>
+      <c r="CR61" s="188"/>
       <c r="CS61" s="128"/>
       <c r="CY61" s="176">
         <v>2</v>
       </c>
-      <c r="CZ61" s="203">
+      <c r="CZ61" s="197">
         <v>1</v>
       </c>
     </row>
@@ -5280,12 +5392,12 @@
       <c r="CJ63" s="67"/>
       <c r="CM63" s="67"/>
       <c r="CQ63" s="6"/>
-      <c r="CR63" s="180">
+      <c r="CR63" s="179">
         <v>2</v>
       </c>
       <c r="CS63" s="136"/>
-      <c r="CT63" s="134"/>
-      <c r="CY63" s="186">
+      <c r="CT63" s="130"/>
+      <c r="CY63" s="184">
         <v>1</v>
       </c>
       <c r="CZ63" s="136"/>
@@ -5327,8 +5439,7 @@
       <c r="CM64" s="67"/>
       <c r="CQ64" s="6"/>
       <c r="CR64" s="35"/>
-      <c r="CS64" s="179"/>
-      <c r="CT64" s="181"/>
+      <c r="CT64" s="130"/>
       <c r="CU64" s="130"/>
       <c r="CX64" s="31"/>
       <c r="CY64" s="145"/>
@@ -5372,8 +5483,7 @@
       <c r="CM65" s="67"/>
       <c r="CQ65" s="6"/>
       <c r="CR65" s="35"/>
-      <c r="CS65" s="179"/>
-      <c r="CT65" s="181"/>
+      <c r="CT65" s="130"/>
       <c r="CU65" s="130"/>
       <c r="CX65" s="31"/>
       <c r="CY65" s="145"/>
@@ -5400,7 +5510,7 @@
       <c r="CM66" s="67"/>
       <c r="CQ66" s="6"/>
       <c r="CS66" s="15"/>
-      <c r="CT66" s="14"/>
+      <c r="CT66" s="130"/>
       <c r="CY66" s="15"/>
       <c r="CZ66" s="15"/>
     </row>
@@ -5413,7 +5523,6 @@
       </c>
       <c r="BA67" s="67"/>
       <c r="BH67" s="67"/>
-      <c r="BJ67" s="136"/>
       <c r="BK67" s="67"/>
       <c r="BL67" s="67"/>
       <c r="BM67" s="67"/>
@@ -5438,7 +5547,7 @@
       </c>
       <c r="BA68" s="67"/>
       <c r="BI68" s="35"/>
-      <c r="BJ68" s="183"/>
+      <c r="BJ68" s="181"/>
       <c r="BK68" s="125"/>
       <c r="BL68" s="67"/>
       <c r="BM68" s="67"/>
@@ -5481,7 +5590,7 @@
       <c r="BM69" s="67"/>
       <c r="BN69" s="67"/>
       <c r="BO69" s="67"/>
-      <c r="BR69" s="180">
+      <c r="BR69" s="179">
         <v>5</v>
       </c>
       <c r="BS69" s="67"/>
@@ -5560,7 +5669,7 @@
       <c r="BS71" s="67"/>
       <c r="BT71" s="67"/>
       <c r="BU71" s="67"/>
-      <c r="BV71" s="180">
+      <c r="BV71" s="179">
         <v>4</v>
       </c>
       <c r="CF71" s="67"/>
@@ -5583,7 +5692,6 @@
       <c r="BT72" s="67"/>
       <c r="BU72" s="67"/>
       <c r="BV72" s="67"/>
-      <c r="CD72" s="136"/>
       <c r="CF72" s="67"/>
       <c r="CG72" s="67"/>
       <c r="CH72" s="67"/>
@@ -5643,7 +5751,7 @@
       <c r="BT74" s="67"/>
       <c r="BU74" s="67"/>
       <c r="BV74" s="67"/>
-      <c r="CC74" s="182">
+      <c r="CC74" s="180">
         <v>3</v>
       </c>
       <c r="CD74" s="145">
@@ -5786,7 +5894,7 @@
       <c r="CZ78" s="145"/>
       <c r="DA78" s="145"/>
       <c r="DB78" s="177"/>
-      <c r="DD78" s="180">
+      <c r="DD78" s="179">
         <v>1</v>
       </c>
     </row>
@@ -6122,7 +6230,6 @@
       <c r="CI90" s="75"/>
       <c r="CJ90" s="145"/>
       <c r="CK90" s="145"/>
-      <c r="CL90" s="135"/>
       <c r="CM90" s="67"/>
       <c r="CQ90" s="6"/>
       <c r="DE90" s="176">
@@ -6134,10 +6241,9 @@
       <c r="CG91" s="67"/>
       <c r="CH91" s="67"/>
       <c r="CI91" s="75"/>
-      <c r="CJ91" s="187"/>
-      <c r="CK91" s="187"/>
-      <c r="CL91" s="178"/>
-      <c r="CM91" s="125"/>
+      <c r="CJ91" s="185"/>
+      <c r="CK91" s="185"/>
+      <c r="CM91" s="130"/>
       <c r="CQ91" s="141"/>
       <c r="DE91" s="176"/>
     </row>
@@ -6282,7 +6388,6 @@
     <row r="99" spans="1:112" ht="16" thickBot="1">
       <c r="CM99" s="67"/>
       <c r="CQ99" s="18"/>
-      <c r="CZ99" s="136"/>
       <c r="DE99" s="134"/>
     </row>
     <row r="100" spans="1:112" ht="31" thickBot="1">
@@ -6292,7 +6397,6 @@
       <c r="CM100" s="67"/>
       <c r="CQ100" s="6"/>
       <c r="CY100" s="35"/>
-      <c r="CZ100" s="178"/>
       <c r="DA100" s="130"/>
       <c r="DD100" s="31"/>
       <c r="DE100" s="145"/>
@@ -6305,7 +6409,6 @@
       </c>
       <c r="CM101" s="67"/>
       <c r="CQ101" s="6"/>
-      <c r="CZ101" s="15"/>
       <c r="DD101" s="31"/>
       <c r="DE101" s="172"/>
       <c r="DF101" s="145"/>
@@ -6889,11 +6992,11 @@
       <c r="CM128" s="67"/>
       <c r="CQ128" s="6"/>
     </row>
-    <row r="129" spans="1:125">
+    <row r="129" spans="1:123">
       <c r="CM129" s="67"/>
       <c r="CQ129" s="6"/>
     </row>
-    <row r="130" spans="1:125">
+    <row r="130" spans="1:123">
       <c r="A130" s="101" t="s">
         <v>89</v>
       </c>
@@ -6959,25 +7062,19 @@
       <c r="DQ130" s="85"/>
       <c r="DR130" s="85"/>
       <c r="DS130" s="85"/>
-      <c r="DT130" s="85"/>
-      <c r="DU130" s="85"/>
-    </row>
-    <row r="131" spans="1:125">
+    </row>
+    <row r="131" spans="1:123">
       <c r="A131" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B131" t="s">
         <v>218</v>
       </c>
-      <c r="BO131" s="85"/>
-      <c r="BP131" s="85"/>
-      <c r="BQ131" s="85"/>
-      <c r="BR131" s="85"/>
       <c r="BS131" s="67"/>
       <c r="CM131" s="67"/>
       <c r="CQ131" s="6"/>
     </row>
-    <row r="132" spans="1:125">
+    <row r="132" spans="1:123">
       <c r="B132" t="s">
         <v>228</v>
       </c>
@@ -6993,15 +7090,15 @@
       <c r="F132">
         <v>5</v>
       </c>
-      <c r="BO132" s="85"/>
-      <c r="BP132" s="85"/>
-      <c r="BQ132" s="85"/>
-      <c r="BR132" s="85"/>
       <c r="BS132" s="67"/>
+      <c r="BV132" s="85"/>
+      <c r="BW132" s="85"/>
+      <c r="BX132" s="85"/>
+      <c r="CG132" s="85"/>
       <c r="CM132" s="67"/>
       <c r="CQ132" s="6"/>
     </row>
-    <row r="133" spans="1:125">
+    <row r="133" spans="1:123">
       <c r="B133" t="s">
         <v>229</v>
       </c>
@@ -7017,15 +7114,15 @@
       <c r="F133">
         <v>12</v>
       </c>
-      <c r="BO133" s="85"/>
-      <c r="BP133" s="85"/>
-      <c r="BQ133" s="85"/>
-      <c r="BR133" s="85"/>
       <c r="BS133" s="67"/>
+      <c r="BX133" s="85"/>
+      <c r="BY133" s="85"/>
+      <c r="BZ133" s="85"/>
+      <c r="CA133" s="85"/>
       <c r="CM133" s="67"/>
       <c r="CQ133" s="6"/>
     </row>
-    <row r="134" spans="1:125">
+    <row r="134" spans="1:123">
       <c r="B134" t="s">
         <v>220</v>
       </c>
@@ -7041,15 +7138,14 @@
       <c r="F134">
         <v>8</v>
       </c>
-      <c r="BO134" s="85"/>
-      <c r="BP134" s="85"/>
-      <c r="BQ134" s="85"/>
-      <c r="BR134" s="85"/>
       <c r="BS134" s="67"/>
+      <c r="CA134" s="85"/>
+      <c r="CB134" s="85"/>
+      <c r="CC134" s="85"/>
       <c r="CM134" s="67"/>
       <c r="CQ134" s="6"/>
     </row>
-    <row r="135" spans="1:125">
+    <row r="135" spans="1:123">
       <c r="B135" t="s">
         <v>223</v>
       </c>
@@ -7065,15 +7161,15 @@
       <c r="F135">
         <v>10</v>
       </c>
-      <c r="BO135" s="85"/>
-      <c r="BP135" s="85"/>
-      <c r="BQ135" s="85"/>
-      <c r="BR135" s="85"/>
       <c r="BS135" s="67"/>
+      <c r="CF135" s="85"/>
+      <c r="CG135" s="85"/>
+      <c r="CH135" s="85"/>
+      <c r="CI135" s="85"/>
       <c r="CM135" s="67"/>
       <c r="CQ135" s="6"/>
     </row>
-    <row r="136" spans="1:125">
+    <row r="136" spans="1:123">
       <c r="B136" t="s">
         <v>221</v>
       </c>
@@ -7089,15 +7185,13 @@
       <c r="F136">
         <v>1</v>
       </c>
-      <c r="BO136" s="85"/>
-      <c r="BP136" s="85"/>
-      <c r="BQ136" s="85"/>
-      <c r="BR136" s="85"/>
       <c r="BS136" s="67"/>
+      <c r="CJ136" s="85"/>
+      <c r="CL136" s="85"/>
       <c r="CM136" s="67"/>
       <c r="CQ136" s="6"/>
     </row>
-    <row r="137" spans="1:125">
+    <row r="137" spans="1:123">
       <c r="B137" t="s">
         <v>222</v>
       </c>
@@ -7113,15 +7207,15 @@
       <c r="F137">
         <v>10</v>
       </c>
-      <c r="BO137" s="85"/>
-      <c r="BP137" s="85"/>
-      <c r="BQ137" s="85"/>
-      <c r="BR137" s="85"/>
       <c r="BS137" s="67"/>
       <c r="CM137" s="67"/>
-      <c r="CQ137" s="6"/>
-    </row>
-    <row r="138" spans="1:125">
+      <c r="CN137" s="85"/>
+      <c r="CO137" s="85"/>
+      <c r="CP137" s="85"/>
+      <c r="CQ137" s="85"/>
+      <c r="CR137" s="85"/>
+    </row>
+    <row r="138" spans="1:123">
       <c r="B138" t="s">
         <v>225</v>
       </c>
@@ -7137,15 +7231,12 @@
       <c r="F138">
         <v>6</v>
       </c>
-      <c r="BO138" s="85"/>
-      <c r="BP138" s="85"/>
-      <c r="BQ138" s="85"/>
-      <c r="BR138" s="85"/>
       <c r="BS138" s="67"/>
-      <c r="CM138" s="67"/>
-      <c r="CQ138" s="6"/>
-    </row>
-    <row r="139" spans="1:125">
+      <c r="CM138" s="85"/>
+      <c r="CO138" s="85"/>
+      <c r="CQ138" s="85"/>
+    </row>
+    <row r="139" spans="1:123">
       <c r="B139" t="s">
         <v>226</v>
       </c>
@@ -7161,15 +7252,11 @@
       <c r="F139">
         <v>3</v>
       </c>
-      <c r="BO139" s="85"/>
-      <c r="BP139" s="85"/>
-      <c r="BQ139" s="85"/>
-      <c r="BR139" s="85"/>
       <c r="BS139" s="67"/>
       <c r="CM139" s="67"/>
       <c r="CQ139" s="6"/>
     </row>
-    <row r="140" spans="1:125">
+    <row r="140" spans="1:123">
       <c r="B140" t="s">
         <v>227</v>
       </c>
@@ -7185,15 +7272,12 @@
       <c r="F140">
         <v>0</v>
       </c>
-      <c r="BO140" s="85"/>
-      <c r="BP140" s="85"/>
-      <c r="BQ140" s="85"/>
-      <c r="BR140" s="85"/>
       <c r="BS140" s="67"/>
+      <c r="CH140" s="85"/>
       <c r="CM140" s="67"/>
       <c r="CQ140" s="6"/>
     </row>
-    <row r="141" spans="1:125">
+    <row r="141" spans="1:123">
       <c r="B141" t="s">
         <v>235</v>
       </c>
@@ -7203,30 +7287,28 @@
       <c r="E141">
         <v>10</v>
       </c>
-      <c r="BO141" s="85"/>
-      <c r="BP141" s="85"/>
-      <c r="BQ141" s="85"/>
-      <c r="BR141" s="85"/>
       <c r="BS141" s="67"/>
+      <c r="CA141" s="85"/>
+      <c r="CB141" s="85"/>
+      <c r="CI141" s="85"/>
       <c r="CM141" s="67"/>
+      <c r="CO141" s="85"/>
+      <c r="CP141" s="85"/>
       <c r="CQ141" s="6"/>
-    </row>
-    <row r="142" spans="1:125">
+      <c r="CV141" s="85"/>
+      <c r="CW141" s="85"/>
+    </row>
+    <row r="142" spans="1:123">
       <c r="A142" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B142" t="s">
         <v>219</v>
       </c>
-      <c r="BU142" s="85"/>
-      <c r="BV142" s="85"/>
-      <c r="BW142" s="86"/>
-      <c r="BX142" s="87"/>
-      <c r="BY142" s="85"/>
       <c r="CM142" s="67"/>
       <c r="CQ142" s="6"/>
     </row>
-    <row r="143" spans="1:125">
+    <row r="143" spans="1:123">
       <c r="B143" t="s">
         <v>232</v>
       </c>
@@ -7242,22 +7324,18 @@
       <c r="F143">
         <v>10</v>
       </c>
-      <c r="BU143" s="85"/>
-      <c r="BV143" s="85"/>
-      <c r="BW143" s="86"/>
-      <c r="BX143" s="87"/>
-      <c r="BY143" s="85"/>
+      <c r="CC143" s="85"/>
+      <c r="CG143" s="85"/>
       <c r="CM143" s="67"/>
+      <c r="CN143" s="85"/>
       <c r="CQ143" s="6"/>
-    </row>
-    <row r="144" spans="1:125">
+      <c r="CR143" s="85"/>
+      <c r="CT143" s="85"/>
+    </row>
+    <row r="144" spans="1:123">
       <c r="B144" t="s">
         <v>230</v>
       </c>
-      <c r="BO144" s="85"/>
-      <c r="BP144" s="85"/>
-      <c r="BQ144" s="85"/>
-      <c r="BR144" s="85"/>
       <c r="BS144" s="67"/>
       <c r="CM144" s="67"/>
       <c r="CQ144" s="6"/>
@@ -7266,10 +7344,6 @@
       <c r="B145" t="s">
         <v>231</v>
       </c>
-      <c r="BO145" s="85"/>
-      <c r="BP145" s="85"/>
-      <c r="BQ145" s="85"/>
-      <c r="BR145" s="85"/>
       <c r="BS145" s="67"/>
       <c r="CM145" s="67"/>
       <c r="CQ145" s="6"/>
@@ -7284,13 +7358,14 @@
       <c r="E146">
         <v>5</v>
       </c>
-      <c r="BO146" s="85"/>
-      <c r="BP146" s="85"/>
-      <c r="BQ146" s="85"/>
-      <c r="BR146" s="85"/>
       <c r="BS146" s="67"/>
+      <c r="CJ146" s="85"/>
+      <c r="CK146" s="85"/>
       <c r="CM146" s="67"/>
       <c r="CQ146" s="6"/>
+      <c r="DC146" s="85"/>
+      <c r="DD146" s="85"/>
+      <c r="DE146" s="85"/>
     </row>
     <row r="147" spans="1:126">
       <c r="A147" s="1" t="s">
@@ -7299,11 +7374,6 @@
       <c r="B147" t="s">
         <v>217</v>
       </c>
-      <c r="CB147" s="85"/>
-      <c r="CC147" s="85"/>
-      <c r="CD147" s="85"/>
-      <c r="CE147" s="85"/>
-      <c r="CF147" s="85"/>
       <c r="CM147" s="67"/>
       <c r="CQ147" s="6"/>
     </row>
@@ -7323,12 +7393,9 @@
       <c r="F148">
         <v>0</v>
       </c>
-      <c r="CI148" s="85"/>
-      <c r="CJ148" s="85"/>
-      <c r="CK148" s="85"/>
-      <c r="CL148" s="85"/>
-      <c r="CM148" s="85"/>
+      <c r="CM148" s="67"/>
       <c r="CQ148" s="6"/>
+      <c r="CT148" s="85"/>
     </row>
     <row r="149" spans="1:126">
       <c r="B149" t="s">
@@ -7346,12 +7413,10 @@
       <c r="F149">
         <v>2</v>
       </c>
-      <c r="CI149" s="85"/>
-      <c r="CJ149" s="85"/>
-      <c r="CK149" s="85"/>
-      <c r="CL149" s="85"/>
-      <c r="CM149" s="85"/>
+      <c r="CM149" s="67"/>
       <c r="CQ149" s="6"/>
+      <c r="CT149" s="85"/>
+      <c r="CU149" s="85"/>
     </row>
     <row r="150" spans="1:126">
       <c r="B150" t="s">
@@ -7369,12 +7434,10 @@
       <c r="F150">
         <v>1</v>
       </c>
-      <c r="CI150" s="85"/>
-      <c r="CJ150" s="85"/>
-      <c r="CK150" s="85"/>
-      <c r="CL150" s="85"/>
-      <c r="CM150" s="85"/>
+      <c r="CM150" s="67"/>
       <c r="CQ150" s="6"/>
+      <c r="CU150" s="85"/>
+      <c r="CV150" s="85"/>
     </row>
     <row r="151" spans="1:126">
       <c r="B151" t="s">
@@ -7392,12 +7455,11 @@
       <c r="F151">
         <v>7</v>
       </c>
-      <c r="CI151" s="85"/>
-      <c r="CJ151" s="85"/>
-      <c r="CK151" s="85"/>
-      <c r="CL151" s="85"/>
-      <c r="CM151" s="85"/>
+      <c r="CM151" s="67"/>
       <c r="CQ151" s="6"/>
+      <c r="CX151" s="85"/>
+      <c r="CY151" s="85"/>
+      <c r="CZ151" s="85"/>
     </row>
     <row r="152" spans="1:126">
       <c r="B152" t="s">
@@ -7415,12 +7477,10 @@
       <c r="F152">
         <v>5</v>
       </c>
-      <c r="CI152" s="85"/>
-      <c r="CJ152" s="85"/>
-      <c r="CK152" s="85"/>
-      <c r="CL152" s="85"/>
-      <c r="CM152" s="85"/>
+      <c r="CM152" s="67"/>
       <c r="CQ152" s="6"/>
+      <c r="CZ152" s="85"/>
+      <c r="DA152" s="85"/>
     </row>
     <row r="153" spans="1:126">
       <c r="B153" t="s">
@@ -7438,19 +7498,34 @@
       <c r="F153">
         <v>3</v>
       </c>
-      <c r="CI153" s="85"/>
-      <c r="CJ153" s="85"/>
-      <c r="CK153" s="85"/>
-      <c r="CL153" s="85"/>
-      <c r="CM153" s="85"/>
+      <c r="CM153" s="67"/>
       <c r="CQ153" s="6"/>
+      <c r="DE153" s="85"/>
+      <c r="DF153" s="85"/>
+      <c r="DH153" s="85"/>
     </row>
     <row r="154" spans="1:126">
       <c r="B154" t="s">
         <v>224</v>
       </c>
+      <c r="C154">
+        <v>2</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154">
+        <v>5</v>
+      </c>
+      <c r="F154">
+        <v>6</v>
+      </c>
       <c r="CM154" s="67"/>
       <c r="CQ154" s="6"/>
+      <c r="DI154" s="85"/>
+      <c r="DJ154" s="85"/>
+      <c r="DK154" s="85"/>
+      <c r="DL154" s="85"/>
     </row>
     <row r="155" spans="1:126">
       <c r="B155" t="s">
@@ -7470,6 +7545,13 @@
       </c>
       <c r="CM155" s="67"/>
       <c r="CQ155" s="6"/>
+      <c r="DB155" s="85"/>
+      <c r="DC155" s="85"/>
+      <c r="DD155" s="85"/>
+      <c r="DP155" s="85"/>
+      <c r="DQ155" s="85"/>
+      <c r="DR155" s="85"/>
+      <c r="DS155" s="85"/>
     </row>
     <row r="156" spans="1:126">
       <c r="CM156" s="67"/>
@@ -7717,13 +7799,13 @@
       <c r="DK160" s="75"/>
       <c r="DL160" s="159"/>
       <c r="DM160" s="128"/>
-      <c r="DT160" s="204">
-        <v>3</v>
-      </c>
-      <c r="DU160" s="204">
-        <v>3</v>
-      </c>
-      <c r="DV160" s="204">
+      <c r="DT160" s="198">
+        <v>3</v>
+      </c>
+      <c r="DU160" s="198">
+        <v>3</v>
+      </c>
+      <c r="DV160" s="198">
         <v>3</v>
       </c>
     </row>
@@ -7739,6 +7821,9 @@
       </c>
       <c r="E161">
         <v>0</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
       </c>
       <c r="BD161" s="153"/>
       <c r="BH161" s="67"/>
@@ -7772,756 +7857,158 @@
       <c r="DL161" s="154"/>
     </row>
     <row r="162" spans="1:138">
-      <c r="A162" s="192" t="s">
+      <c r="A162" s="190" t="s">
         <v>197</v>
       </c>
-      <c r="B162" s="191" t="s">
+      <c r="B162" s="189" t="s">
         <v>198</v>
       </c>
-      <c r="C162" s="191"/>
-      <c r="D162" s="191"/>
-      <c r="E162" s="191"/>
-      <c r="F162" s="191"/>
-      <c r="G162" s="193"/>
-      <c r="H162" s="193"/>
-      <c r="I162" s="193"/>
-      <c r="J162" s="193"/>
-      <c r="K162" s="193"/>
-      <c r="L162" s="194"/>
-      <c r="M162" s="194"/>
-      <c r="N162" s="195"/>
-      <c r="O162" s="193"/>
-      <c r="P162" s="193"/>
-      <c r="Q162" s="193"/>
-      <c r="R162" s="193"/>
-      <c r="S162" s="194"/>
-      <c r="T162" s="194"/>
-      <c r="U162" s="195"/>
-      <c r="V162" s="193"/>
-      <c r="W162" s="193"/>
-      <c r="X162" s="193"/>
-      <c r="Y162" s="193"/>
-      <c r="Z162" s="194"/>
-      <c r="AA162" s="194"/>
-      <c r="AB162" s="193"/>
-      <c r="AC162" s="193"/>
-      <c r="AD162" s="193"/>
-      <c r="AE162" s="193"/>
-      <c r="AF162" s="193"/>
-      <c r="AG162" s="194"/>
-      <c r="AH162" s="194"/>
-      <c r="AI162" s="193"/>
-      <c r="AJ162" s="193"/>
-      <c r="AK162" s="193"/>
-      <c r="AL162" s="193"/>
-      <c r="AM162" s="193"/>
-      <c r="AN162" s="194"/>
-      <c r="AO162" s="194"/>
-      <c r="AP162" s="195"/>
-      <c r="AQ162" s="193"/>
-      <c r="AR162" s="193"/>
-      <c r="AS162" s="193"/>
-      <c r="AT162" s="193"/>
-      <c r="AU162" s="194"/>
-      <c r="AV162" s="194"/>
-      <c r="AW162" s="193"/>
-      <c r="AX162" s="193"/>
-      <c r="AY162" s="193"/>
-      <c r="AZ162" s="193"/>
-      <c r="BA162" s="193"/>
-      <c r="BB162" s="194"/>
-      <c r="BC162" s="194"/>
-      <c r="BD162" s="196"/>
-      <c r="BE162" s="193"/>
-      <c r="BF162" s="193"/>
-      <c r="BG162" s="193"/>
-      <c r="BH162" s="193"/>
-      <c r="BI162" s="194"/>
-      <c r="BJ162" s="194"/>
-      <c r="BK162" s="193"/>
-      <c r="BL162" s="193"/>
-      <c r="BM162" s="193"/>
-      <c r="BN162" s="193"/>
-      <c r="BO162" s="193"/>
-      <c r="BP162" s="194"/>
-      <c r="BQ162" s="194"/>
-      <c r="BR162" s="195"/>
-      <c r="BS162" s="193"/>
-      <c r="BT162" s="193"/>
-      <c r="BU162" s="193"/>
-      <c r="BV162" s="193"/>
-      <c r="BW162" s="194"/>
-      <c r="BX162" s="194"/>
-      <c r="BY162" s="193"/>
-      <c r="BZ162" s="193"/>
-      <c r="CA162" s="193"/>
-      <c r="CB162" s="193"/>
-      <c r="CC162" s="193"/>
-      <c r="CD162" s="194"/>
-      <c r="CE162" s="194"/>
-      <c r="CF162" s="193"/>
-      <c r="CG162" s="193"/>
-      <c r="CH162" s="193"/>
-      <c r="CI162" s="193"/>
-      <c r="CJ162" s="193"/>
-      <c r="CK162" s="194"/>
-      <c r="CL162" s="199"/>
-      <c r="CM162" s="197"/>
-      <c r="CN162" s="193"/>
-      <c r="CO162" s="193"/>
-      <c r="CP162" s="193"/>
-      <c r="CQ162" s="195"/>
-      <c r="CR162" s="194"/>
-      <c r="CS162" s="194"/>
-      <c r="CT162" s="193"/>
-      <c r="CU162" s="193"/>
-      <c r="CV162" s="193"/>
-      <c r="CW162" s="193"/>
-      <c r="CX162" s="193"/>
-      <c r="CY162" s="194"/>
-      <c r="CZ162" s="194"/>
-      <c r="DA162" s="193"/>
-      <c r="DB162" s="193"/>
-      <c r="DC162" s="193"/>
-      <c r="DD162" s="193"/>
-      <c r="DE162" s="193"/>
-      <c r="DF162" s="199"/>
-      <c r="DG162" s="199"/>
-      <c r="DH162" s="193"/>
-      <c r="DI162" s="193"/>
-      <c r="DJ162" s="193"/>
-      <c r="DK162" s="193"/>
-      <c r="DL162" s="193"/>
-      <c r="DM162" s="194"/>
-      <c r="DN162" s="194"/>
-      <c r="DO162" s="195"/>
-      <c r="DP162" s="193"/>
-      <c r="DQ162" s="193"/>
-      <c r="DR162" s="193"/>
-      <c r="DS162" s="193"/>
-      <c r="DT162" s="194"/>
-      <c r="DU162" s="194"/>
-      <c r="DV162" s="195"/>
-      <c r="DW162" s="193"/>
-      <c r="DX162" s="193"/>
-      <c r="DY162" s="193"/>
-      <c r="DZ162" s="193"/>
-      <c r="EA162" s="194"/>
-      <c r="EB162" s="194"/>
-      <c r="EC162" s="195"/>
-      <c r="ED162" s="193"/>
-      <c r="EE162" s="193"/>
-      <c r="EF162" s="193"/>
-      <c r="EG162" s="193"/>
-      <c r="EH162" s="193"/>
+      <c r="C162" s="189"/>
+      <c r="D162" s="189"/>
+      <c r="E162" s="189"/>
+      <c r="F162" s="189"/>
+      <c r="N162" s="6"/>
+      <c r="AP162" s="192"/>
+      <c r="AS162" s="4"/>
+      <c r="BD162" s="6"/>
+      <c r="BW162" s="5"/>
+      <c r="CM162" s="4"/>
+      <c r="CQ162" s="94"/>
+      <c r="DB162" s="4"/>
+      <c r="DO162" s="94"/>
+      <c r="DV162" s="94"/>
+      <c r="EG162" s="4"/>
+      <c r="EH162" s="191"/>
     </row>
     <row r="163" spans="1:138">
-      <c r="A163" s="192"/>
-      <c r="B163" s="191" t="s">
+      <c r="A163" s="190"/>
+      <c r="B163" s="189" t="s">
         <v>199</v>
       </c>
-      <c r="C163" s="191">
-        <v>2</v>
-      </c>
-      <c r="D163" s="191">
-        <v>2</v>
-      </c>
-      <c r="E163" s="191">
+      <c r="C163" s="189">
+        <v>2</v>
+      </c>
+      <c r="D163" s="189">
+        <v>2</v>
+      </c>
+      <c r="E163" s="189">
         <v>0</v>
       </c>
-      <c r="F163" s="191">
-        <v>0</v>
-      </c>
-      <c r="G163" s="193"/>
-      <c r="H163" s="193"/>
-      <c r="I163" s="193"/>
-      <c r="J163" s="193"/>
-      <c r="K163" s="193"/>
-      <c r="L163" s="194"/>
-      <c r="M163" s="194"/>
-      <c r="N163" s="195"/>
-      <c r="O163" s="193"/>
-      <c r="P163" s="193"/>
-      <c r="Q163" s="193"/>
-      <c r="R163" s="193"/>
-      <c r="S163" s="194"/>
-      <c r="T163" s="194"/>
-      <c r="U163" s="195"/>
-      <c r="V163" s="193"/>
-      <c r="W163" s="193"/>
-      <c r="X163" s="193"/>
-      <c r="Y163" s="193"/>
-      <c r="Z163" s="194"/>
-      <c r="AA163" s="194"/>
-      <c r="AB163" s="193"/>
-      <c r="AC163" s="193"/>
-      <c r="AD163" s="193"/>
-      <c r="AE163" s="193"/>
-      <c r="AF163" s="193"/>
-      <c r="AG163" s="194"/>
-      <c r="AH163" s="194"/>
-      <c r="AI163" s="193"/>
-      <c r="AJ163" s="193"/>
-      <c r="AK163" s="193"/>
-      <c r="AL163" s="193"/>
-      <c r="AM163" s="193"/>
-      <c r="AN163" s="194"/>
-      <c r="AO163" s="194"/>
-      <c r="AP163" s="195"/>
-      <c r="AQ163" s="193"/>
-      <c r="AR163" s="193"/>
-      <c r="AS163" s="193"/>
-      <c r="AT163" s="193"/>
-      <c r="AU163" s="194"/>
-      <c r="AV163" s="194"/>
-      <c r="AW163" s="193"/>
-      <c r="AX163" s="193"/>
-      <c r="AY163" s="193"/>
-      <c r="AZ163" s="193"/>
-      <c r="BA163" s="193"/>
-      <c r="BB163" s="194"/>
-      <c r="BC163" s="194"/>
-      <c r="BD163" s="198">
-        <v>2</v>
-      </c>
-      <c r="BE163" s="193"/>
-      <c r="BF163" s="193"/>
-      <c r="BG163" s="193"/>
-      <c r="BH163" s="193"/>
-      <c r="BI163" s="194"/>
-      <c r="BJ163" s="194"/>
-      <c r="BK163" s="193"/>
-      <c r="BL163" s="193"/>
-      <c r="BM163" s="193"/>
-      <c r="BN163" s="193"/>
-      <c r="BO163" s="193"/>
-      <c r="BP163" s="194"/>
-      <c r="BQ163" s="194"/>
-      <c r="BR163" s="195"/>
-      <c r="BS163" s="193"/>
-      <c r="BT163" s="193"/>
-      <c r="BU163" s="193"/>
-      <c r="BV163" s="193"/>
-      <c r="BW163" s="194"/>
-      <c r="BX163" s="194"/>
-      <c r="BY163" s="193"/>
-      <c r="BZ163" s="193"/>
-      <c r="CA163" s="193"/>
-      <c r="CB163" s="193"/>
-      <c r="CC163" s="193"/>
-      <c r="CD163" s="194"/>
-      <c r="CE163" s="194"/>
-      <c r="CF163" s="193"/>
-      <c r="CG163" s="193"/>
-      <c r="CH163" s="193"/>
-      <c r="CI163" s="193"/>
-      <c r="CJ163" s="193"/>
-      <c r="CK163" s="194"/>
-      <c r="CL163" s="199"/>
-      <c r="CM163" s="197"/>
-      <c r="CN163" s="193"/>
-      <c r="CO163" s="193"/>
-      <c r="CP163" s="193"/>
-      <c r="CQ163" s="195"/>
-      <c r="CR163" s="194"/>
-      <c r="CS163" s="194"/>
-      <c r="CT163" s="193"/>
-      <c r="CU163" s="193"/>
-      <c r="CV163" s="193"/>
-      <c r="CW163" s="193"/>
-      <c r="CX163" s="193"/>
-      <c r="CY163" s="194"/>
-      <c r="CZ163" s="194"/>
-      <c r="DA163" s="193"/>
-      <c r="DB163" s="193"/>
-      <c r="DC163" s="193"/>
-      <c r="DD163" s="193"/>
-      <c r="DE163" s="193"/>
-      <c r="DF163" s="199"/>
-      <c r="DG163" s="199"/>
-      <c r="DH163" s="193"/>
-      <c r="DI163" s="193"/>
-      <c r="DJ163" s="193"/>
-      <c r="DK163" s="193"/>
-      <c r="DL163" s="193"/>
-      <c r="DM163" s="194"/>
-      <c r="DN163" s="194"/>
-      <c r="DO163" s="195"/>
-      <c r="DP163" s="193"/>
-      <c r="DQ163" s="193"/>
-      <c r="DR163" s="193"/>
-      <c r="DS163" s="193"/>
-      <c r="DT163" s="194"/>
-      <c r="DU163" s="194"/>
-      <c r="DV163" s="195"/>
-      <c r="DW163" s="193"/>
-      <c r="DX163" s="193"/>
-      <c r="DY163" s="193"/>
-      <c r="DZ163" s="193"/>
-      <c r="EA163" s="194"/>
-      <c r="EB163" s="194"/>
-      <c r="EC163" s="195"/>
-      <c r="ED163" s="193"/>
-      <c r="EE163" s="193"/>
-      <c r="EF163" s="193"/>
-      <c r="EG163" s="193"/>
-      <c r="EH163" s="193"/>
+      <c r="F163" s="189">
+        <v>1</v>
+      </c>
+      <c r="N163" s="6"/>
+      <c r="AP163" s="192"/>
+      <c r="AS163" s="4"/>
+      <c r="BD163" s="193">
+        <v>2</v>
+      </c>
+      <c r="BW163" s="5"/>
+      <c r="CM163" s="4"/>
+      <c r="CQ163" s="94"/>
+      <c r="DB163" s="4"/>
+      <c r="DO163" s="94"/>
+      <c r="DV163" s="94"/>
+      <c r="EG163" s="4"/>
+      <c r="EH163" s="191"/>
     </row>
     <row r="164" spans="1:138">
-      <c r="A164" s="192"/>
-      <c r="B164" s="191" t="s">
+      <c r="A164" s="190"/>
+      <c r="B164" s="189" t="s">
         <v>200</v>
       </c>
-      <c r="C164" s="191">
-        <v>2</v>
-      </c>
-      <c r="D164" s="191">
-        <v>1</v>
-      </c>
-      <c r="E164" s="191">
-        <v>1</v>
-      </c>
-      <c r="F164" s="191">
-        <v>1</v>
-      </c>
-      <c r="G164" s="193"/>
-      <c r="H164" s="193"/>
-      <c r="I164" s="193"/>
-      <c r="J164" s="193"/>
-      <c r="K164" s="193"/>
-      <c r="L164" s="194"/>
-      <c r="M164" s="194"/>
-      <c r="N164" s="195"/>
-      <c r="O164" s="193"/>
-      <c r="P164" s="193"/>
-      <c r="Q164" s="193"/>
-      <c r="R164" s="193"/>
-      <c r="S164" s="194"/>
-      <c r="T164" s="194"/>
-      <c r="U164" s="195"/>
-      <c r="V164" s="193"/>
-      <c r="W164" s="193"/>
-      <c r="X164" s="193"/>
-      <c r="Y164" s="193"/>
-      <c r="Z164" s="194"/>
-      <c r="AA164" s="194"/>
-      <c r="AB164" s="193"/>
-      <c r="AC164" s="193"/>
-      <c r="AD164" s="193"/>
-      <c r="AE164" s="193"/>
-      <c r="AF164" s="193"/>
-      <c r="AG164" s="194"/>
-      <c r="AH164" s="194"/>
-      <c r="AI164" s="193"/>
-      <c r="AJ164" s="193"/>
-      <c r="AK164" s="193"/>
-      <c r="AL164" s="193"/>
-      <c r="AM164" s="193"/>
-      <c r="AN164" s="194"/>
-      <c r="AO164" s="194"/>
-      <c r="AP164" s="195"/>
-      <c r="AQ164" s="193"/>
-      <c r="AR164" s="193"/>
-      <c r="AS164" s="193"/>
-      <c r="AT164" s="193"/>
-      <c r="AU164" s="194"/>
-      <c r="AV164" s="194"/>
-      <c r="AW164" s="193"/>
-      <c r="AX164" s="193"/>
-      <c r="AY164" s="193"/>
-      <c r="AZ164" s="193"/>
-      <c r="BA164" s="193"/>
-      <c r="BB164" s="194"/>
-      <c r="BC164" s="194"/>
-      <c r="BD164" s="196"/>
-      <c r="BE164" s="193"/>
-      <c r="BF164" s="193"/>
-      <c r="BG164" s="193"/>
-      <c r="BH164" s="193"/>
-      <c r="BI164" s="194"/>
-      <c r="BJ164" s="194"/>
-      <c r="BK164" s="193"/>
-      <c r="BL164" s="193"/>
-      <c r="BM164" s="193"/>
-      <c r="BN164" s="193"/>
-      <c r="BO164" s="193"/>
-      <c r="BP164" s="194"/>
-      <c r="BQ164" s="194"/>
-      <c r="BR164" s="195"/>
-      <c r="BS164" s="193"/>
-      <c r="BT164" s="193"/>
-      <c r="BU164" s="193"/>
-      <c r="BV164" s="193"/>
-      <c r="BW164" s="194"/>
-      <c r="BX164" s="194"/>
-      <c r="BY164" s="193"/>
-      <c r="BZ164" s="193"/>
-      <c r="CA164" s="193"/>
-      <c r="CB164" s="193"/>
-      <c r="CC164" s="193"/>
-      <c r="CD164" s="194"/>
-      <c r="CE164" s="194"/>
-      <c r="CF164" s="193"/>
-      <c r="CG164" s="193"/>
-      <c r="CH164" s="193"/>
-      <c r="CI164" s="193"/>
-      <c r="CJ164" s="193"/>
-      <c r="CK164" s="194"/>
-      <c r="CL164" s="199"/>
-      <c r="CM164" s="197"/>
-      <c r="CN164" s="193"/>
-      <c r="CO164" s="193"/>
-      <c r="CP164" s="193"/>
-      <c r="CQ164" s="195"/>
-      <c r="CR164" s="194"/>
-      <c r="CS164" s="194"/>
-      <c r="CT164" s="193"/>
-      <c r="CU164" s="193"/>
-      <c r="CV164" s="193"/>
-      <c r="CW164" s="193"/>
-      <c r="CX164" s="193"/>
-      <c r="CY164" s="194"/>
-      <c r="CZ164" s="194"/>
-      <c r="DA164" s="193"/>
-      <c r="DB164" s="193"/>
-      <c r="DC164" s="193"/>
-      <c r="DD164" s="193"/>
-      <c r="DE164" s="193"/>
-      <c r="DF164" s="199"/>
-      <c r="DG164" s="199"/>
-      <c r="DH164" s="193"/>
-      <c r="DI164" s="193"/>
-      <c r="DJ164" s="193"/>
-      <c r="DK164" s="193"/>
-      <c r="DL164" s="193"/>
-      <c r="DM164" s="194"/>
-      <c r="DN164" s="194"/>
-      <c r="DO164" s="195"/>
-      <c r="DP164" s="193"/>
-      <c r="DQ164" s="193"/>
-      <c r="DR164" s="193"/>
-      <c r="DS164" s="193"/>
-      <c r="DT164" s="194"/>
-      <c r="DU164" s="200">
-        <v>1</v>
-      </c>
-      <c r="DV164" s="195"/>
-      <c r="DW164" s="193"/>
-      <c r="DX164" s="193"/>
-      <c r="DY164" s="193"/>
-      <c r="DZ164" s="193"/>
-      <c r="EA164" s="194"/>
-      <c r="EB164" s="194"/>
-      <c r="EC164" s="195"/>
-      <c r="ED164" s="193"/>
-      <c r="EE164" s="193"/>
-      <c r="EF164" s="193"/>
-      <c r="EG164" s="193"/>
-      <c r="EH164" s="193"/>
+      <c r="C164" s="189">
+        <v>2</v>
+      </c>
+      <c r="D164" s="189">
+        <v>1</v>
+      </c>
+      <c r="E164" s="189">
+        <v>1</v>
+      </c>
+      <c r="F164" s="189">
+        <v>1</v>
+      </c>
+      <c r="N164" s="6"/>
+      <c r="AP164" s="192"/>
+      <c r="AS164" s="4"/>
+      <c r="BD164" s="6"/>
+      <c r="BW164" s="5"/>
+      <c r="CM164" s="4"/>
+      <c r="CQ164" s="94"/>
+      <c r="DB164" s="4"/>
+      <c r="DO164" s="94"/>
+      <c r="DU164" s="194">
+        <v>1</v>
+      </c>
+      <c r="DV164" s="94"/>
+      <c r="EG164" s="4"/>
+      <c r="EH164" s="191"/>
     </row>
     <row r="165" spans="1:138">
-      <c r="A165" s="192"/>
-      <c r="B165" s="191" t="s">
+      <c r="A165" s="190"/>
+      <c r="B165" s="189" t="s">
         <v>201</v>
       </c>
-      <c r="C165" s="191">
-        <v>1</v>
-      </c>
-      <c r="D165" s="191">
-        <v>1</v>
-      </c>
-      <c r="E165" s="191">
-        <v>2</v>
-      </c>
-      <c r="F165" s="191">
-        <v>1</v>
-      </c>
-      <c r="G165" s="193"/>
-      <c r="H165" s="193"/>
-      <c r="I165" s="193"/>
-      <c r="J165" s="193"/>
-      <c r="K165" s="193"/>
-      <c r="L165" s="194"/>
-      <c r="M165" s="194"/>
-      <c r="N165" s="195"/>
-      <c r="O165" s="193"/>
-      <c r="P165" s="193"/>
-      <c r="Q165" s="193"/>
-      <c r="R165" s="193"/>
-      <c r="S165" s="194"/>
-      <c r="T165" s="194"/>
-      <c r="U165" s="195"/>
-      <c r="V165" s="193"/>
-      <c r="W165" s="193"/>
-      <c r="X165" s="193"/>
-      <c r="Y165" s="193"/>
-      <c r="Z165" s="194"/>
-      <c r="AA165" s="194"/>
-      <c r="AB165" s="193"/>
-      <c r="AC165" s="193"/>
-      <c r="AD165" s="193"/>
-      <c r="AE165" s="193"/>
-      <c r="AF165" s="193"/>
-      <c r="AG165" s="194"/>
-      <c r="AH165" s="194"/>
-      <c r="AI165" s="193"/>
-      <c r="AJ165" s="193"/>
-      <c r="AK165" s="193"/>
-      <c r="AL165" s="193"/>
-      <c r="AM165" s="193"/>
-      <c r="AN165" s="194"/>
-      <c r="AO165" s="194"/>
-      <c r="AP165" s="195"/>
-      <c r="AQ165" s="193"/>
-      <c r="AR165" s="193"/>
-      <c r="AS165" s="193"/>
-      <c r="AT165" s="193"/>
-      <c r="AU165" s="194"/>
-      <c r="AV165" s="194"/>
-      <c r="AW165" s="193"/>
-      <c r="AX165" s="193"/>
-      <c r="AY165" s="193"/>
-      <c r="AZ165" s="193"/>
-      <c r="BA165" s="193"/>
-      <c r="BB165" s="194"/>
-      <c r="BC165" s="194"/>
-      <c r="BD165" s="196"/>
-      <c r="BE165" s="193"/>
-      <c r="BF165" s="193"/>
-      <c r="BG165" s="193"/>
-      <c r="BH165" s="193"/>
-      <c r="BI165" s="194"/>
-      <c r="BJ165" s="194"/>
-      <c r="BK165" s="193"/>
-      <c r="BL165" s="193"/>
-      <c r="BM165" s="193"/>
-      <c r="BN165" s="193"/>
-      <c r="BO165" s="193"/>
-      <c r="BP165" s="194"/>
-      <c r="BQ165" s="194"/>
-      <c r="BR165" s="195"/>
-      <c r="BS165" s="193"/>
-      <c r="BT165" s="193"/>
-      <c r="BU165" s="193"/>
-      <c r="BV165" s="193"/>
-      <c r="BW165" s="194"/>
-      <c r="BX165" s="194"/>
-      <c r="BY165" s="193"/>
-      <c r="BZ165" s="193"/>
-      <c r="CA165" s="193"/>
-      <c r="CB165" s="193"/>
-      <c r="CC165" s="193"/>
-      <c r="CD165" s="194"/>
-      <c r="CE165" s="194"/>
-      <c r="CF165" s="193"/>
-      <c r="CG165" s="193"/>
-      <c r="CH165" s="193"/>
-      <c r="CI165" s="193"/>
-      <c r="CJ165" s="193"/>
-      <c r="CK165" s="194"/>
-      <c r="CL165" s="199"/>
-      <c r="CM165" s="197"/>
-      <c r="CN165" s="193"/>
-      <c r="CO165" s="193"/>
-      <c r="CP165" s="193"/>
-      <c r="CQ165" s="195"/>
-      <c r="CR165" s="194"/>
-      <c r="CS165" s="194"/>
-      <c r="CT165" s="193"/>
-      <c r="CU165" s="193"/>
-      <c r="CV165" s="193"/>
-      <c r="CW165" s="193"/>
-      <c r="CX165" s="193"/>
-      <c r="CY165" s="194"/>
-      <c r="CZ165" s="194"/>
-      <c r="DA165" s="193"/>
-      <c r="DB165" s="193"/>
-      <c r="DC165" s="193"/>
-      <c r="DD165" s="193"/>
-      <c r="DE165" s="193"/>
-      <c r="DF165" s="199"/>
-      <c r="DG165" s="199"/>
-      <c r="DH165" s="193"/>
-      <c r="DI165" s="193"/>
-      <c r="DJ165" s="193"/>
-      <c r="DK165" s="193"/>
-      <c r="DL165" s="193"/>
-      <c r="DM165" s="194"/>
-      <c r="DN165" s="194"/>
-      <c r="DO165" s="195"/>
-      <c r="DP165" s="193"/>
-      <c r="DQ165" s="193"/>
-      <c r="DR165" s="193"/>
-      <c r="DS165" s="193"/>
-      <c r="DT165" s="194"/>
-      <c r="DU165" s="200">
-        <v>1</v>
-      </c>
-      <c r="DV165" s="195"/>
-      <c r="DW165" s="193"/>
-      <c r="DX165" s="193"/>
-      <c r="DY165" s="193"/>
-      <c r="DZ165" s="193"/>
-      <c r="EA165" s="194"/>
-      <c r="EB165" s="194"/>
-      <c r="EC165" s="195"/>
-      <c r="ED165" s="193"/>
-      <c r="EE165" s="193"/>
-      <c r="EF165" s="193"/>
-      <c r="EG165" s="193"/>
-      <c r="EH165" s="193"/>
+      <c r="C165" s="189">
+        <v>1</v>
+      </c>
+      <c r="D165" s="189">
+        <v>1</v>
+      </c>
+      <c r="E165" s="189">
+        <v>2</v>
+      </c>
+      <c r="F165" s="189">
+        <v>1</v>
+      </c>
+      <c r="N165" s="6"/>
+      <c r="AP165" s="192"/>
+      <c r="AS165" s="4"/>
+      <c r="BD165" s="6"/>
+      <c r="BW165" s="5"/>
+      <c r="CM165" s="4"/>
+      <c r="CQ165" s="94"/>
+      <c r="DB165" s="4"/>
+      <c r="DO165" s="94"/>
+      <c r="DU165" s="194">
+        <v>1</v>
+      </c>
+      <c r="DV165" s="94"/>
+      <c r="EG165" s="4"/>
+      <c r="EH165" s="191"/>
     </row>
     <row r="166" spans="1:138">
-      <c r="A166" s="192"/>
-      <c r="B166" s="191" t="s">
+      <c r="A166" s="190"/>
+      <c r="B166" s="189" t="s">
         <v>202</v>
       </c>
-      <c r="C166" s="191">
-        <v>2</v>
-      </c>
-      <c r="D166" s="191">
-        <v>1</v>
-      </c>
-      <c r="E166" s="191">
-        <v>2</v>
-      </c>
-      <c r="F166" s="191">
-        <v>1</v>
-      </c>
-      <c r="G166" s="193"/>
-      <c r="H166" s="193"/>
-      <c r="I166" s="193"/>
-      <c r="J166" s="193"/>
-      <c r="K166" s="193"/>
-      <c r="L166" s="194"/>
-      <c r="M166" s="194"/>
-      <c r="N166" s="195"/>
-      <c r="O166" s="193"/>
-      <c r="P166" s="193"/>
-      <c r="Q166" s="193"/>
-      <c r="R166" s="193"/>
-      <c r="S166" s="194"/>
-      <c r="T166" s="194"/>
-      <c r="U166" s="195"/>
-      <c r="V166" s="193"/>
-      <c r="W166" s="193"/>
-      <c r="X166" s="193"/>
-      <c r="Y166" s="193"/>
-      <c r="Z166" s="194"/>
-      <c r="AA166" s="194"/>
-      <c r="AB166" s="193"/>
-      <c r="AC166" s="193"/>
-      <c r="AD166" s="193"/>
-      <c r="AE166" s="193"/>
-      <c r="AF166" s="193"/>
-      <c r="AG166" s="194"/>
-      <c r="AH166" s="194"/>
-      <c r="AI166" s="193"/>
-      <c r="AJ166" s="193"/>
-      <c r="AK166" s="193"/>
-      <c r="AL166" s="193"/>
-      <c r="AM166" s="193"/>
-      <c r="AN166" s="194"/>
-      <c r="AO166" s="194"/>
-      <c r="AP166" s="195"/>
-      <c r="AQ166" s="193"/>
-      <c r="AR166" s="193"/>
-      <c r="AS166" s="193"/>
-      <c r="AT166" s="193"/>
-      <c r="AU166" s="194"/>
-      <c r="AV166" s="194"/>
-      <c r="AW166" s="193"/>
-      <c r="AX166" s="193"/>
-      <c r="AY166" s="193"/>
-      <c r="AZ166" s="193"/>
-      <c r="BA166" s="193"/>
-      <c r="BB166" s="194"/>
-      <c r="BC166" s="194"/>
-      <c r="BD166" s="196"/>
-      <c r="BE166" s="193"/>
-      <c r="BF166" s="193"/>
-      <c r="BG166" s="193"/>
-      <c r="BH166" s="193"/>
-      <c r="BI166" s="194"/>
-      <c r="BJ166" s="194"/>
-      <c r="BK166" s="193"/>
-      <c r="BL166" s="193"/>
-      <c r="BM166" s="193"/>
-      <c r="BN166" s="193"/>
-      <c r="BO166" s="193"/>
-      <c r="BP166" s="194"/>
-      <c r="BQ166" s="194"/>
-      <c r="BR166" s="195"/>
-      <c r="BS166" s="193"/>
-      <c r="BT166" s="193"/>
-      <c r="BU166" s="193"/>
-      <c r="BV166" s="193"/>
-      <c r="BW166" s="194"/>
-      <c r="BX166" s="194"/>
-      <c r="BY166" s="193"/>
-      <c r="BZ166" s="193"/>
-      <c r="CA166" s="193"/>
-      <c r="CB166" s="193"/>
-      <c r="CC166" s="193"/>
-      <c r="CD166" s="194"/>
-      <c r="CE166" s="194"/>
-      <c r="CF166" s="193"/>
-      <c r="CG166" s="193"/>
-      <c r="CH166" s="193"/>
-      <c r="CI166" s="193"/>
-      <c r="CJ166" s="193"/>
-      <c r="CK166" s="194"/>
-      <c r="CL166" s="199"/>
-      <c r="CM166" s="197"/>
-      <c r="CN166" s="193"/>
-      <c r="CO166" s="193"/>
-      <c r="CP166" s="193"/>
-      <c r="CQ166" s="195"/>
-      <c r="CR166" s="194"/>
-      <c r="CS166" s="194"/>
-      <c r="CT166" s="193"/>
-      <c r="CU166" s="193"/>
-      <c r="CV166" s="193"/>
-      <c r="CW166" s="193"/>
-      <c r="CX166" s="193"/>
-      <c r="CY166" s="194"/>
-      <c r="CZ166" s="194"/>
-      <c r="DA166" s="193"/>
-      <c r="DB166" s="193"/>
-      <c r="DC166" s="193"/>
-      <c r="DD166" s="193"/>
-      <c r="DE166" s="193"/>
-      <c r="DF166" s="199"/>
-      <c r="DG166" s="199"/>
-      <c r="DH166" s="193"/>
-      <c r="DI166" s="193"/>
-      <c r="DJ166" s="193"/>
-      <c r="DK166" s="193"/>
-      <c r="DL166" s="193"/>
-      <c r="DM166" s="194"/>
-      <c r="DN166" s="194"/>
-      <c r="DO166" s="195"/>
-      <c r="DP166" s="193"/>
-      <c r="DQ166" s="193"/>
-      <c r="DR166" s="193"/>
-      <c r="DS166" s="193"/>
-      <c r="DT166" s="194"/>
-      <c r="DU166" s="194"/>
-      <c r="DV166" s="200">
-        <v>1</v>
-      </c>
-      <c r="DW166" s="193"/>
-      <c r="DX166" s="193"/>
-      <c r="DY166" s="193"/>
-      <c r="DZ166" s="193"/>
-      <c r="EA166" s="194"/>
-      <c r="EB166" s="194"/>
-      <c r="EC166" s="195"/>
-      <c r="ED166" s="193"/>
-      <c r="EE166" s="193"/>
-      <c r="EF166" s="193"/>
-      <c r="EG166" s="193"/>
-      <c r="EH166" s="193"/>
+      <c r="C166" s="189">
+        <v>2</v>
+      </c>
+      <c r="D166" s="189">
+        <v>1</v>
+      </c>
+      <c r="E166" s="189">
+        <v>2</v>
+      </c>
+      <c r="F166" s="189">
+        <v>1</v>
+      </c>
+      <c r="N166" s="6"/>
+      <c r="AP166" s="192"/>
+      <c r="AS166" s="4"/>
+      <c r="BD166" s="6"/>
+      <c r="BW166" s="5"/>
+      <c r="CM166" s="4"/>
+      <c r="CQ166" s="94"/>
+      <c r="DB166" s="4"/>
+      <c r="DO166" s="94"/>
+      <c r="DV166" s="194">
+        <v>1</v>
+      </c>
+      <c r="EG166" s="4"/>
+      <c r="EH166" s="191"/>
     </row>
     <row r="167" spans="1:138" ht="39" customHeight="1">
       <c r="CM167" s="67"/>
@@ -8878,9 +8365,6 @@
       <c r="F181">
         <v>0</v>
       </c>
-      <c r="AT181" s="161">
-        <v>1</v>
-      </c>
       <c r="AU181" s="148"/>
       <c r="BB181" s="35"/>
       <c r="BC181" s="162"/>
@@ -9024,19 +8508,19 @@
     <row r="186" spans="1:116">
       <c r="C186">
         <f>SUM(C4:C185)</f>
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D186">
         <f>SUM(D4:D185)</f>
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E186" s="66">
         <f>SUM(E4:E185)</f>
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F186">
         <f>SUM(F4:F185)</f>
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="CM186" s="67"/>
       <c r="CQ186" s="6"/>
@@ -9385,7 +8869,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" fitToWidth="10" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="10" fitToWidth="20" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="35" max="16383" man="1"/>
   </rowBreaks>

--- a/konzept/projektplan.xlsx
+++ b/konzept/projektplan.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="240">
   <si>
     <t>#</t>
   </si>
@@ -406,9 +406,6 @@
     <t>Implementations-präsentationsfolien</t>
   </si>
   <si>
-    <t>Abschlusspräsentations-folien</t>
-  </si>
-  <si>
     <t>Überarbeitung des vorhanden Materials</t>
   </si>
   <si>
@@ -734,6 +731,15 @@
   </si>
   <si>
     <t>Concrete Use Cases  überarbeiten</t>
+  </si>
+  <si>
+    <t>Matching</t>
+  </si>
+  <si>
+    <t>LocationMatching</t>
+  </si>
+  <si>
+    <t>Abschlusspräsentationsfolien</t>
   </si>
 </sst>
 </file>
@@ -746,7 +752,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -850,7 +855,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1022,6 +1027,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCFF8A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1810,7 +1821,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2107,181 +2118,183 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="173">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2613,10 +2626,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EH317"/>
+  <dimension ref="A1:EH319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="CJ146" sqref="CJ146:CK146"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="DV148" sqref="DV148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3413,16 +3426,16 @@
         <v>47</v>
       </c>
       <c r="C4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" t="s">
         <v>147</v>
       </c>
-      <c r="D4" t="s">
-        <v>148</v>
-      </c>
       <c r="E4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" t="s">
         <v>147</v>
-      </c>
-      <c r="F4" t="s">
-        <v>148</v>
       </c>
       <c r="G4" s="49"/>
       <c r="H4" s="14"/>
@@ -3660,16 +3673,16 @@
         <v>55</v>
       </c>
       <c r="C10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" t="s">
         <v>150</v>
       </c>
-      <c r="D10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>151</v>
-      </c>
-      <c r="F10" t="s">
-        <v>152</v>
       </c>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
@@ -4170,22 +4183,22 @@
     </row>
     <row r="27" spans="1:95" ht="16" thickBot="1">
       <c r="A27" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="B27" s="109" t="s">
-        <v>131</v>
-      </c>
       <c r="C27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AM27" s="67"/>
       <c r="AV27" s="35"/>
@@ -4225,7 +4238,7 @@
     <row r="29" spans="1:95">
       <c r="A29" s="78"/>
       <c r="B29" s="110" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -4310,7 +4323,7 @@
     <row r="32" spans="1:95">
       <c r="A32" s="78"/>
       <c r="B32" s="110" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -4422,7 +4435,7 @@
     <row r="36" spans="1:116" ht="16" thickBot="1">
       <c r="A36" s="78"/>
       <c r="B36" s="110" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -4539,7 +4552,7 @@
     <row r="40" spans="1:116">
       <c r="A40" s="78"/>
       <c r="B40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AR40" s="117"/>
       <c r="AS40" s="118"/>
@@ -4574,7 +4587,7 @@
     <row r="41" spans="1:116">
       <c r="A41" s="78"/>
       <c r="B41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AR41" s="117"/>
       <c r="AS41" s="118"/>
@@ -4629,7 +4642,7 @@
     <row r="42" spans="1:116">
       <c r="A42" s="78"/>
       <c r="B42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AR42" s="117"/>
       <c r="AS42" s="118"/>
@@ -4716,7 +4729,7 @@
     </row>
     <row r="45" spans="1:116" ht="16" thickBot="1">
       <c r="B45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -4746,7 +4759,7 @@
     </row>
     <row r="46" spans="1:116" ht="16" thickBot="1">
       <c r="B46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -4779,7 +4792,7 @@
     </row>
     <row r="47" spans="1:116" ht="16" thickBot="1">
       <c r="B47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AT47" s="70"/>
       <c r="AU47" s="77"/>
@@ -4796,7 +4809,7 @@
     </row>
     <row r="48" spans="1:116" ht="18" customHeight="1" thickBot="1">
       <c r="B48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4844,7 +4857,7 @@
         <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AW50" s="67"/>
       <c r="AX50" s="67"/>
@@ -4864,7 +4877,7 @@
     </row>
     <row r="51" spans="1:105" ht="16" thickBot="1">
       <c r="B51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -4909,7 +4922,7 @@
     </row>
     <row r="52" spans="1:105" ht="31" thickBot="1">
       <c r="B52" s="92" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -4975,7 +4988,7 @@
     </row>
     <row r="54" spans="1:105" ht="16" thickBot="1">
       <c r="B54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -5019,7 +5032,7 @@
     </row>
     <row r="55" spans="1:105" ht="16" thickBot="1">
       <c r="B55" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -5062,7 +5075,7 @@
     </row>
     <row r="56" spans="1:105" ht="16" thickBot="1">
       <c r="B56" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -5106,7 +5119,7 @@
     </row>
     <row r="57" spans="1:105">
       <c r="B57" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -5152,7 +5165,7 @@
     </row>
     <row r="58" spans="1:105" ht="16" thickBot="1">
       <c r="B58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -5220,10 +5233,10 @@
     </row>
     <row r="60" spans="1:105" ht="31" thickBot="1">
       <c r="A60" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B60" s="92" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -5272,7 +5285,7 @@
     </row>
     <row r="61" spans="1:105" ht="16" thickBot="1">
       <c r="B61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -5352,7 +5365,7 @@
         <v>85</v>
       </c>
       <c r="B63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -5404,7 +5417,7 @@
     </row>
     <row r="64" spans="1:105" ht="16" thickBot="1">
       <c r="B64" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -5448,7 +5461,7 @@
     </row>
     <row r="65" spans="1:108" ht="16" thickBot="1">
       <c r="B65" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -5519,7 +5532,7 @@
         <v>104</v>
       </c>
       <c r="B67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="BA67" s="67"/>
       <c r="BH67" s="67"/>
@@ -5543,7 +5556,7 @@
     </row>
     <row r="68" spans="1:108" ht="16" thickBot="1">
       <c r="B68" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BA68" s="67"/>
       <c r="BI68" s="35"/>
@@ -5568,7 +5581,7 @@
     </row>
     <row r="69" spans="1:108" ht="16" thickBot="1">
       <c r="B69" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -5607,7 +5620,7 @@
     </row>
     <row r="70" spans="1:108" ht="31" thickBot="1">
       <c r="B70" s="92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -5645,7 +5658,7 @@
     </row>
     <row r="71" spans="1:108" ht="16" thickBot="1">
       <c r="B71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -5702,7 +5715,7 @@
     </row>
     <row r="73" spans="1:108" ht="16" thickBot="1">
       <c r="B73" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BA73" s="67"/>
       <c r="BK73" s="73"/>
@@ -5727,7 +5740,7 @@
     </row>
     <row r="74" spans="1:108" ht="16" thickBot="1">
       <c r="B74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -5768,7 +5781,7 @@
     </row>
     <row r="75" spans="1:108" ht="31" thickBot="1">
       <c r="B75" s="92" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -5803,7 +5816,7 @@
     </row>
     <row r="76" spans="1:108" ht="31" thickBot="1">
       <c r="B76" s="92" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -5861,7 +5874,7 @@
     </row>
     <row r="78" spans="1:108" ht="16" thickBot="1">
       <c r="B78" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -5913,7 +5926,7 @@
     </row>
     <row r="80" spans="1:108" ht="16" thickBot="1">
       <c r="A80" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B80" t="s">
         <v>100</v>
@@ -5935,7 +5948,7 @@
     </row>
     <row r="81" spans="2:111" ht="16" thickBot="1">
       <c r="B81" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -5969,7 +5982,7 @@
     </row>
     <row r="82" spans="2:111" ht="16" thickBot="1">
       <c r="B82" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -6004,7 +6017,7 @@
     </row>
     <row r="83" spans="2:111" ht="31" thickBot="1">
       <c r="B83" s="92" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -6039,7 +6052,7 @@
     </row>
     <row r="84" spans="2:111">
       <c r="B84" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -6074,7 +6087,7 @@
     </row>
     <row r="85" spans="2:111" ht="31" thickBot="1">
       <c r="B85" s="92" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -6109,7 +6122,7 @@
     </row>
     <row r="86" spans="2:111" ht="16" thickBot="1">
       <c r="B86" s="92" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -6144,7 +6157,7 @@
     </row>
     <row r="87" spans="2:111" ht="16" thickBot="1">
       <c r="B87" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -6196,7 +6209,7 @@
     </row>
     <row r="89" spans="2:111" ht="16" thickBot="1">
       <c r="B89" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BO89" s="67"/>
       <c r="CF89" s="67"/>
@@ -6210,7 +6223,7 @@
     </row>
     <row r="90" spans="2:111" ht="16" thickBot="1">
       <c r="B90" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -6249,7 +6262,7 @@
     </row>
     <row r="92" spans="2:111" ht="16" thickBot="1">
       <c r="B92" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -6274,7 +6287,7 @@
     </row>
     <row r="93" spans="2:111" ht="16" thickBot="1">
       <c r="B93" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -6299,7 +6312,7 @@
     </row>
     <row r="94" spans="2:111" ht="16" thickBot="1">
       <c r="B94" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -6324,7 +6337,7 @@
     </row>
     <row r="95" spans="2:111" ht="16" thickBot="1">
       <c r="B95" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -6349,7 +6362,7 @@
     </row>
     <row r="96" spans="2:111" ht="16" thickBot="1">
       <c r="B96" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -6372,7 +6385,7 @@
     </row>
     <row r="98" spans="1:112" ht="16" thickBot="1">
       <c r="B98" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -6392,7 +6405,7 @@
     </row>
     <row r="100" spans="1:112" ht="31" thickBot="1">
       <c r="B100" s="92" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CM100" s="67"/>
       <c r="CQ100" s="6"/>
@@ -6405,7 +6418,7 @@
     </row>
     <row r="101" spans="1:112" ht="16" thickBot="1">
       <c r="B101" s="92" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="CM101" s="67"/>
       <c r="CQ101" s="6"/>
@@ -6479,7 +6492,7 @@
     </row>
     <row r="106" spans="1:112">
       <c r="B106" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C106">
         <v>3</v>
@@ -6503,7 +6516,7 @@
     </row>
     <row r="107" spans="1:112">
       <c r="B107" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -6527,7 +6540,7 @@
     </row>
     <row r="108" spans="1:112">
       <c r="B108" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C108">
         <v>8</v>
@@ -6551,7 +6564,7 @@
     </row>
     <row r="109" spans="1:112">
       <c r="B109" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -6617,7 +6630,7 @@
     </row>
     <row r="112" spans="1:112">
       <c r="B112" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C112">
         <v>5</v>
@@ -6641,7 +6654,7 @@
     </row>
     <row r="113" spans="1:95">
       <c r="B113" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C113">
         <v>3</v>
@@ -6707,7 +6720,7 @@
     </row>
     <row r="116" spans="1:95">
       <c r="B116" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C116">
         <v>2</v>
@@ -6731,7 +6744,7 @@
     </row>
     <row r="117" spans="1:95">
       <c r="B117" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C117">
         <v>3</v>
@@ -6799,7 +6812,7 @@
     </row>
     <row r="120" spans="1:95">
       <c r="B120" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C120">
         <v>2</v>
@@ -6823,7 +6836,7 @@
     </row>
     <row r="121" spans="1:95">
       <c r="B121" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C121">
         <v>10</v>
@@ -6889,7 +6902,7 @@
     </row>
     <row r="124" spans="1:95">
       <c r="B124" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C124">
         <v>2</v>
@@ -6913,7 +6926,7 @@
     </row>
     <row r="125" spans="1:95">
       <c r="B125" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C125">
         <v>3</v>
@@ -6965,10 +6978,10 @@
     </row>
     <row r="127" spans="1:95">
       <c r="A127" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B127" t="s">
         <v>211</v>
-      </c>
-      <c r="B127" t="s">
-        <v>212</v>
       </c>
       <c r="C127">
         <v>3</v>
@@ -7065,10 +7078,10 @@
     </row>
     <row r="131" spans="1:123">
       <c r="A131" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B131" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BS131" s="67"/>
       <c r="CM131" s="67"/>
@@ -7076,7 +7089,7 @@
     </row>
     <row r="132" spans="1:123">
       <c r="B132" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -7100,7 +7113,7 @@
     </row>
     <row r="133" spans="1:123">
       <c r="B133" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C133">
         <v>2</v>
@@ -7124,7 +7137,7 @@
     </row>
     <row r="134" spans="1:123">
       <c r="B134" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C134">
         <v>5</v>
@@ -7147,7 +7160,7 @@
     </row>
     <row r="135" spans="1:123">
       <c r="B135" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C135">
         <v>4</v>
@@ -7171,7 +7184,7 @@
     </row>
     <row r="136" spans="1:123">
       <c r="B136" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C136">
         <v>4</v>
@@ -7193,7 +7206,7 @@
     </row>
     <row r="137" spans="1:123">
       <c r="B137" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -7217,7 +7230,7 @@
     </row>
     <row r="138" spans="1:123">
       <c r="B138" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C138">
         <v>3</v>
@@ -7238,7 +7251,7 @@
     </row>
     <row r="139" spans="1:123">
       <c r="B139" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C139">
         <v>3</v>
@@ -7258,7 +7271,7 @@
     </row>
     <row r="140" spans="1:123">
       <c r="B140" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C140">
         <v>2</v>
@@ -7279,13 +7292,19 @@
     </row>
     <row r="141" spans="1:123">
       <c r="B141" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C141">
         <v>10</v>
       </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
       <c r="E141">
         <v>10</v>
+      </c>
+      <c r="F141">
+        <v>4</v>
       </c>
       <c r="BS141" s="67"/>
       <c r="CA141" s="85"/>
@@ -7297,197 +7316,194 @@
       <c r="CQ141" s="6"/>
       <c r="CV141" s="85"/>
       <c r="CW141" s="85"/>
+      <c r="DQ141" s="85"/>
+      <c r="DR141" s="85"/>
+      <c r="DS141" s="85"/>
     </row>
     <row r="142" spans="1:123">
-      <c r="A142" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="B142" t="s">
-        <v>219</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="BS142" s="67"/>
+      <c r="CA142" s="85"/>
+      <c r="CB142" s="85"/>
+      <c r="CI142" s="85"/>
       <c r="CM142" s="67"/>
+      <c r="CO142" s="85"/>
+      <c r="CP142" s="85"/>
       <c r="CQ142" s="6"/>
+      <c r="CV142" s="85"/>
+      <c r="CW142" s="85"/>
     </row>
     <row r="143" spans="1:123">
+      <c r="A143" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="B143" t="s">
-        <v>232</v>
-      </c>
-      <c r="C143">
-        <v>5</v>
-      </c>
-      <c r="D143">
-        <v>4</v>
-      </c>
-      <c r="E143">
-        <v>10</v>
-      </c>
-      <c r="F143">
-        <v>10</v>
-      </c>
-      <c r="CC143" s="85"/>
-      <c r="CG143" s="85"/>
+        <v>218</v>
+      </c>
       <c r="CM143" s="67"/>
-      <c r="CN143" s="85"/>
       <c r="CQ143" s="6"/>
-      <c r="CR143" s="85"/>
-      <c r="CT143" s="85"/>
     </row>
     <row r="144" spans="1:123">
       <c r="B144" t="s">
-        <v>230</v>
-      </c>
-      <c r="BS144" s="67"/>
+        <v>231</v>
+      </c>
+      <c r="C144">
+        <v>5</v>
+      </c>
+      <c r="D144">
+        <v>4</v>
+      </c>
+      <c r="E144">
+        <v>10</v>
+      </c>
+      <c r="F144">
+        <v>10</v>
+      </c>
+      <c r="CC144" s="85"/>
+      <c r="CG144" s="85"/>
       <c r="CM144" s="67"/>
+      <c r="CN144" s="85"/>
       <c r="CQ144" s="6"/>
-    </row>
-    <row r="145" spans="1:126">
+      <c r="CR144" s="85"/>
+      <c r="CT144" s="85"/>
+    </row>
+    <row r="145" spans="1:123">
       <c r="B145" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="BS145" s="67"/>
       <c r="CM145" s="67"/>
       <c r="CQ145" s="6"/>
     </row>
-    <row r="146" spans="1:126">
+    <row r="146" spans="1:123">
       <c r="B146" t="s">
-        <v>235</v>
-      </c>
-      <c r="C146">
-        <v>5</v>
-      </c>
-      <c r="E146">
-        <v>5</v>
+        <v>230</v>
       </c>
       <c r="BS146" s="67"/>
-      <c r="CJ146" s="85"/>
-      <c r="CK146" s="85"/>
       <c r="CM146" s="67"/>
       <c r="CQ146" s="6"/>
-      <c r="DC146" s="85"/>
-      <c r="DD146" s="85"/>
-      <c r="DE146" s="85"/>
-    </row>
-    <row r="147" spans="1:126">
-      <c r="A147" s="1" t="s">
-        <v>216</v>
-      </c>
+    </row>
+    <row r="147" spans="1:123">
       <c r="B147" t="s">
-        <v>217</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="C147">
+        <v>5</v>
+      </c>
+      <c r="E147">
+        <v>5</v>
+      </c>
+      <c r="BS147" s="67"/>
+      <c r="CJ147" s="85"/>
+      <c r="CK147" s="85"/>
       <c r="CM147" s="67"/>
       <c r="CQ147" s="6"/>
-    </row>
-    <row r="148" spans="1:126">
+      <c r="DC147" s="85"/>
+      <c r="DD147" s="85"/>
+      <c r="DE147" s="85"/>
+    </row>
+    <row r="148" spans="1:123">
+      <c r="A148" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="B148" t="s">
-        <v>233</v>
-      </c>
-      <c r="C148">
-        <v>3</v>
-      </c>
-      <c r="D148">
-        <v>2</v>
-      </c>
-      <c r="E148">
-        <v>0</v>
-      </c>
-      <c r="F148">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="CM148" s="67"/>
       <c r="CQ148" s="6"/>
-      <c r="CT148" s="85"/>
-    </row>
-    <row r="149" spans="1:126">
+    </row>
+    <row r="149" spans="1:123">
       <c r="B149" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CM149" s="67"/>
       <c r="CQ149" s="6"/>
       <c r="CT149" s="85"/>
-      <c r="CU149" s="85"/>
-    </row>
-    <row r="150" spans="1:126">
+    </row>
+    <row r="150" spans="1:123">
       <c r="B150" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C150">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D150">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CM150" s="67"/>
       <c r="CQ150" s="6"/>
+      <c r="CT150" s="85"/>
       <c r="CU150" s="85"/>
-      <c r="CV150" s="85"/>
-    </row>
-    <row r="151" spans="1:126">
+    </row>
+    <row r="151" spans="1:123">
       <c r="B151" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E151">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F151">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CM151" s="67"/>
       <c r="CQ151" s="6"/>
-      <c r="CX151" s="85"/>
-      <c r="CY151" s="85"/>
-      <c r="CZ151" s="85"/>
-    </row>
-    <row r="152" spans="1:126">
+      <c r="CU151" s="85"/>
+      <c r="CV151" s="85"/>
+    </row>
+    <row r="152" spans="1:123">
       <c r="B152" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E152">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F152">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CM152" s="67"/>
       <c r="CQ152" s="6"/>
+      <c r="CX152" s="85"/>
+      <c r="CY152" s="85"/>
       <c r="CZ152" s="85"/>
-      <c r="DA152" s="85"/>
-    </row>
-    <row r="153" spans="1:126">
+    </row>
+    <row r="153" spans="1:123">
       <c r="B153" t="s">
         <v>222</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -7496,347 +7512,260 @@
         <v>5</v>
       </c>
       <c r="F153">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CM153" s="67"/>
       <c r="CQ153" s="6"/>
-      <c r="DE153" s="85"/>
-      <c r="DF153" s="85"/>
-      <c r="DH153" s="85"/>
-    </row>
-    <row r="154" spans="1:126">
+      <c r="CZ153" s="85"/>
+      <c r="DA153" s="85"/>
+    </row>
+    <row r="154" spans="1:123">
       <c r="B154" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E154">
         <v>5</v>
       </c>
       <c r="F154">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="CM154" s="67"/>
       <c r="CQ154" s="6"/>
-      <c r="DI154" s="85"/>
-      <c r="DJ154" s="85"/>
-      <c r="DK154" s="85"/>
-      <c r="DL154" s="85"/>
-    </row>
-    <row r="155" spans="1:126">
+      <c r="DE154" s="85"/>
+      <c r="DF154" s="85"/>
+      <c r="DH154" s="85"/>
+    </row>
+    <row r="155" spans="1:123">
       <c r="B155" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C155">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155">
         <v>5</v>
       </c>
-      <c r="E155">
-        <v>8</v>
-      </c>
       <c r="F155">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="CM155" s="67"/>
       <c r="CQ155" s="6"/>
-      <c r="DB155" s="85"/>
-      <c r="DC155" s="85"/>
-      <c r="DD155" s="85"/>
-      <c r="DP155" s="85"/>
-      <c r="DQ155" s="85"/>
-      <c r="DR155" s="85"/>
-      <c r="DS155" s="85"/>
-    </row>
-    <row r="156" spans="1:126">
+      <c r="DI155" s="85"/>
+      <c r="DJ155" s="85"/>
+      <c r="DK155" s="85"/>
+      <c r="DL155" s="85"/>
+    </row>
+    <row r="156" spans="1:123">
+      <c r="B156" t="s">
+        <v>234</v>
+      </c>
+      <c r="C156">
+        <v>8</v>
+      </c>
+      <c r="D156">
+        <v>5</v>
+      </c>
+      <c r="E156">
+        <v>8</v>
+      </c>
+      <c r="F156">
+        <v>10</v>
+      </c>
       <c r="CM156" s="67"/>
-      <c r="CQ156" s="94"/>
-    </row>
-    <row r="157" spans="1:126" ht="34" customHeight="1">
+      <c r="CQ156" s="6"/>
+      <c r="DB156" s="85"/>
+      <c r="DC156" s="85"/>
+      <c r="DD156" s="85"/>
+      <c r="DP156" s="85"/>
+      <c r="DQ156" s="85"/>
+      <c r="DR156" s="85"/>
+      <c r="DS156" s="85"/>
+    </row>
+    <row r="157" spans="1:123">
+      <c r="B157" t="s">
+        <v>238</v>
+      </c>
+      <c r="C157">
+        <v>2</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
       <c r="CM157" s="67"/>
       <c r="CQ157" s="6"/>
-    </row>
-    <row r="158" spans="1:126" ht="21" customHeight="1" thickBot="1">
-      <c r="A158" s="103" t="s">
+      <c r="DB157" s="75"/>
+      <c r="DC157" s="125"/>
+      <c r="DD157" s="67"/>
+      <c r="DP157" s="85"/>
+      <c r="DQ157" s="67"/>
+      <c r="DR157" s="67"/>
+      <c r="DS157" s="67"/>
+    </row>
+    <row r="158" spans="1:123">
+      <c r="CM158" s="67"/>
+      <c r="CQ158" s="94"/>
+    </row>
+    <row r="159" spans="1:123" ht="34" customHeight="1">
+      <c r="CM159" s="67"/>
+      <c r="CQ159" s="6"/>
+    </row>
+    <row r="160" spans="1:123" ht="21" customHeight="1" thickBot="1">
+      <c r="A160" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="B158" s="104" t="s">
+      <c r="B160" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="AQ158" s="67"/>
-      <c r="AR158" s="67"/>
-      <c r="AS158" s="75"/>
-      <c r="AT158" s="70"/>
-      <c r="AW158" s="150"/>
-      <c r="AX158" s="61"/>
-      <c r="AY158" s="61"/>
-      <c r="AZ158" s="61"/>
-      <c r="BA158" s="61"/>
-      <c r="BB158" s="61"/>
-      <c r="BC158" s="136"/>
-      <c r="BD158" s="64"/>
-      <c r="BE158" s="61"/>
-      <c r="BF158" s="61"/>
-      <c r="BG158" s="61"/>
-      <c r="BH158" s="61"/>
-      <c r="BI158" s="61"/>
-      <c r="BJ158" s="61"/>
-      <c r="BK158" s="61"/>
-      <c r="BL158" s="61"/>
-      <c r="BM158" s="61"/>
-      <c r="BN158" s="61"/>
-      <c r="BO158" s="61"/>
-      <c r="BP158" s="61"/>
-      <c r="BQ158" s="61"/>
-      <c r="BR158" s="61"/>
-      <c r="BS158" s="61"/>
-      <c r="BT158" s="61"/>
-      <c r="BU158" s="61"/>
-      <c r="BV158" s="61"/>
-      <c r="BW158" s="62"/>
-      <c r="BX158" s="63"/>
-      <c r="BY158" s="61"/>
-      <c r="BZ158" s="61"/>
-      <c r="CA158" s="61"/>
-      <c r="CB158" s="61"/>
-      <c r="CC158" s="61"/>
-      <c r="CD158" s="61"/>
-      <c r="CE158" s="61"/>
-      <c r="CF158" s="61"/>
-      <c r="CG158" s="61"/>
-      <c r="CH158" s="61"/>
-      <c r="CI158" s="61"/>
-      <c r="CJ158" s="61"/>
-      <c r="CK158" s="61"/>
-      <c r="CL158" s="61"/>
-      <c r="CM158" s="61"/>
-      <c r="CN158" s="61"/>
-      <c r="CO158" s="61"/>
-      <c r="CP158" s="61"/>
-      <c r="CQ158" s="61"/>
-      <c r="CR158" s="61"/>
-      <c r="CS158" s="61"/>
-      <c r="CT158" s="61"/>
-      <c r="CU158" s="61"/>
-      <c r="CV158" s="61"/>
-      <c r="CW158" s="61"/>
-      <c r="CX158" s="61"/>
-      <c r="CY158" s="61"/>
-      <c r="CZ158" s="61"/>
-      <c r="DA158" s="61"/>
-      <c r="DB158" s="62"/>
-      <c r="DC158" s="63"/>
-      <c r="DD158" s="61"/>
-      <c r="DE158" s="61"/>
-      <c r="DF158" s="61"/>
-      <c r="DG158" s="61"/>
-      <c r="DH158" s="61"/>
-      <c r="DI158" s="61"/>
-      <c r="DJ158" s="61"/>
-      <c r="DK158" s="61"/>
-      <c r="DL158" s="61"/>
-    </row>
-    <row r="159" spans="1:126" ht="21" customHeight="1" thickBot="1">
-      <c r="A159" s="116" t="s">
+      <c r="AQ160" s="67"/>
+      <c r="AR160" s="67"/>
+      <c r="AS160" s="75"/>
+      <c r="AT160" s="70"/>
+      <c r="AW160" s="150"/>
+      <c r="AX160" s="61"/>
+      <c r="AY160" s="61"/>
+      <c r="AZ160" s="61"/>
+      <c r="BA160" s="61"/>
+      <c r="BB160" s="61"/>
+      <c r="BC160" s="136"/>
+      <c r="BD160" s="64"/>
+      <c r="BE160" s="61"/>
+      <c r="BF160" s="61"/>
+      <c r="BG160" s="61"/>
+      <c r="BH160" s="61"/>
+      <c r="BI160" s="61"/>
+      <c r="BJ160" s="61"/>
+      <c r="BK160" s="61"/>
+      <c r="BL160" s="61"/>
+      <c r="BM160" s="61"/>
+      <c r="BN160" s="61"/>
+      <c r="BO160" s="61"/>
+      <c r="BP160" s="61"/>
+      <c r="BQ160" s="61"/>
+      <c r="BR160" s="61"/>
+      <c r="BS160" s="61"/>
+      <c r="BT160" s="61"/>
+      <c r="BU160" s="61"/>
+      <c r="BV160" s="61"/>
+      <c r="BW160" s="62"/>
+      <c r="BX160" s="63"/>
+      <c r="BY160" s="61"/>
+      <c r="BZ160" s="61"/>
+      <c r="CA160" s="61"/>
+      <c r="CB160" s="61"/>
+      <c r="CC160" s="61"/>
+      <c r="CD160" s="61"/>
+      <c r="CE160" s="61"/>
+      <c r="CF160" s="61"/>
+      <c r="CG160" s="61"/>
+      <c r="CH160" s="61"/>
+      <c r="CI160" s="61"/>
+      <c r="CJ160" s="61"/>
+      <c r="CK160" s="61"/>
+      <c r="CL160" s="61"/>
+      <c r="CM160" s="61"/>
+      <c r="CN160" s="61"/>
+      <c r="CO160" s="61"/>
+      <c r="CP160" s="61"/>
+      <c r="CQ160" s="61"/>
+      <c r="CR160" s="61"/>
+      <c r="CS160" s="61"/>
+      <c r="CT160" s="61"/>
+      <c r="CU160" s="61"/>
+      <c r="CV160" s="61"/>
+      <c r="CW160" s="61"/>
+      <c r="CX160" s="61"/>
+      <c r="CY160" s="61"/>
+      <c r="CZ160" s="61"/>
+      <c r="DA160" s="61"/>
+      <c r="DB160" s="62"/>
+      <c r="DC160" s="63"/>
+      <c r="DD160" s="61"/>
+      <c r="DE160" s="61"/>
+      <c r="DF160" s="61"/>
+      <c r="DG160" s="61"/>
+      <c r="DH160" s="61"/>
+      <c r="DI160" s="61"/>
+      <c r="DJ160" s="61"/>
+      <c r="DK160" s="61"/>
+      <c r="DL160" s="61"/>
+    </row>
+    <row r="161" spans="1:138" ht="21" customHeight="1" thickBot="1">
+      <c r="A161" s="116" t="s">
         <v>95</v>
       </c>
-      <c r="B159" s="74" t="s">
+      <c r="B161" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="C159">
-        <v>2</v>
-      </c>
-      <c r="D159">
+      <c r="C161">
+        <v>2</v>
+      </c>
+      <c r="D161">
         <v>4</v>
       </c>
-      <c r="E159">
-        <v>1</v>
-      </c>
-      <c r="F159">
-        <v>1</v>
-      </c>
-      <c r="AR159" s="67"/>
-      <c r="AS159" s="75"/>
-      <c r="AT159" s="70"/>
-      <c r="AV159" s="35"/>
-      <c r="AW159" s="159">
-        <v>2</v>
-      </c>
-      <c r="AX159" s="125"/>
-      <c r="AY159" s="67"/>
-      <c r="AZ159" s="67"/>
-      <c r="BA159" s="68">
-        <v>2</v>
-      </c>
-      <c r="BB159" s="35"/>
-      <c r="BC159" s="159"/>
-      <c r="BD159" s="137"/>
-      <c r="BE159" s="67"/>
-      <c r="BF159" s="67"/>
-      <c r="BG159" s="67"/>
-      <c r="BH159" s="67"/>
-      <c r="BK159" s="126"/>
-      <c r="BL159" s="67"/>
-      <c r="BM159" s="67"/>
-      <c r="BN159" s="67"/>
-      <c r="BO159" s="67"/>
-      <c r="BR159" s="141"/>
-      <c r="BS159" s="67"/>
-      <c r="BT159" s="67"/>
-      <c r="BU159" s="67"/>
-      <c r="BV159" s="67"/>
-      <c r="BY159" s="126"/>
-      <c r="BZ159" s="67"/>
-      <c r="CA159" s="67"/>
-      <c r="CB159" s="67"/>
-      <c r="CC159" s="67"/>
-      <c r="CF159" s="126"/>
-      <c r="CG159" s="67"/>
-      <c r="CH159" s="67"/>
-      <c r="CI159" s="67"/>
-      <c r="CJ159" s="67"/>
-      <c r="CM159" s="126"/>
-      <c r="CN159" s="67"/>
-      <c r="CO159" s="67"/>
-      <c r="CP159" s="67"/>
-      <c r="CQ159" s="6"/>
-      <c r="CT159" s="67"/>
-      <c r="CU159" s="67"/>
-      <c r="CV159" s="67"/>
-      <c r="CW159" s="67"/>
-      <c r="CX159" s="67"/>
-      <c r="CY159" s="136"/>
-      <c r="DA159" s="67"/>
-      <c r="DB159" s="75"/>
-      <c r="DC159" s="70"/>
-      <c r="DD159" s="67"/>
-      <c r="DE159" s="67"/>
-      <c r="DH159" s="126"/>
-      <c r="DI159" s="67"/>
-      <c r="DJ159" s="67"/>
-      <c r="DK159" s="67"/>
-      <c r="DL159" s="126"/>
-    </row>
-    <row r="160" spans="1:126" ht="16" thickBot="1">
-      <c r="A160" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B160" s="92" t="s">
-        <v>129</v>
-      </c>
-      <c r="C160">
-        <v>10</v>
-      </c>
-      <c r="D160">
-        <v>18</v>
-      </c>
-      <c r="E160">
-        <v>10</v>
-      </c>
-      <c r="F160">
-        <v>18</v>
-      </c>
-      <c r="AW160" s="14"/>
-      <c r="BC160" s="34"/>
-      <c r="BD160" s="160">
-        <v>1</v>
-      </c>
-      <c r="BE160" s="130"/>
-      <c r="BH160" s="67"/>
-      <c r="BJ160" s="35"/>
-      <c r="BK160" s="159">
-        <v>2</v>
-      </c>
-      <c r="BL160" s="130"/>
-      <c r="BO160" s="67"/>
-      <c r="BP160" s="68">
-        <v>1</v>
-      </c>
-      <c r="BQ160" s="35"/>
-      <c r="BR160" s="159"/>
-      <c r="BS160" s="125"/>
-      <c r="BV160" s="67"/>
-      <c r="BX160" s="127"/>
-      <c r="BY160" s="159">
-        <v>2</v>
-      </c>
-      <c r="BZ160" s="130"/>
-      <c r="CC160" s="67"/>
-      <c r="CE160" s="35"/>
-      <c r="CF160" s="159">
-        <v>1</v>
-      </c>
-      <c r="CG160" s="130"/>
-      <c r="CJ160" s="67"/>
-      <c r="CL160" s="35"/>
-      <c r="CM160" s="159">
-        <v>1</v>
-      </c>
-      <c r="CN160" s="130"/>
-      <c r="CP160" s="67"/>
-      <c r="CQ160" s="6"/>
-      <c r="CT160" s="67"/>
-      <c r="CU160" s="67"/>
-      <c r="CV160" s="67"/>
-      <c r="CW160" s="67"/>
-      <c r="CX160" s="75"/>
-      <c r="CY160" s="159"/>
-      <c r="CZ160" s="128"/>
-      <c r="DA160" s="67"/>
-      <c r="DD160" s="67"/>
-      <c r="DE160" s="67"/>
-      <c r="DG160" s="35"/>
-      <c r="DH160" s="159">
-        <v>1</v>
-      </c>
-      <c r="DI160" s="125"/>
-      <c r="DJ160" s="67"/>
-      <c r="DK160" s="75"/>
-      <c r="DL160" s="159"/>
-      <c r="DM160" s="128"/>
-      <c r="DT160" s="198">
-        <v>3</v>
-      </c>
-      <c r="DU160" s="198">
-        <v>3</v>
-      </c>
-      <c r="DV160" s="198">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:138">
-      <c r="B161" s="92" t="s">
-        <v>138</v>
-      </c>
-      <c r="C161">
-        <v>0</v>
-      </c>
-      <c r="D161">
-        <v>2</v>
-      </c>
       <c r="E161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161">
         <v>1</v>
       </c>
-      <c r="BD161" s="153"/>
+      <c r="AR161" s="67"/>
+      <c r="AS161" s="75"/>
+      <c r="AT161" s="70"/>
+      <c r="AV161" s="35"/>
+      <c r="AW161" s="159">
+        <v>2</v>
+      </c>
+      <c r="AX161" s="125"/>
+      <c r="AY161" s="67"/>
+      <c r="AZ161" s="67"/>
+      <c r="BA161" s="68">
+        <v>2</v>
+      </c>
+      <c r="BB161" s="35"/>
+      <c r="BC161" s="159"/>
+      <c r="BD161" s="137"/>
+      <c r="BE161" s="67"/>
+      <c r="BF161" s="67"/>
+      <c r="BG161" s="67"/>
       <c r="BH161" s="67"/>
-      <c r="BK161" s="154"/>
+      <c r="BK161" s="126"/>
+      <c r="BL161" s="67"/>
+      <c r="BM161" s="67"/>
+      <c r="BN161" s="67"/>
       <c r="BO161" s="67"/>
-      <c r="BR161" s="18"/>
+      <c r="BR161" s="141"/>
       <c r="BS161" s="67"/>
+      <c r="BT161" s="67"/>
+      <c r="BU161" s="67"/>
       <c r="BV161" s="67"/>
-      <c r="BY161" s="154"/>
+      <c r="BY161" s="126"/>
+      <c r="BZ161" s="67"/>
+      <c r="CA161" s="67"/>
+      <c r="CB161" s="67"/>
       <c r="CC161" s="67"/>
-      <c r="CF161" s="154"/>
+      <c r="CF161" s="126"/>
+      <c r="CG161" s="67"/>
+      <c r="CH161" s="67"/>
+      <c r="CI161" s="67"/>
       <c r="CJ161" s="67"/>
-      <c r="CM161" s="154"/>
+      <c r="CM161" s="126"/>
+      <c r="CN161" s="67"/>
+      <c r="CO161" s="67"/>
       <c r="CP161" s="67"/>
       <c r="CQ161" s="6"/>
       <c r="CT161" s="67"/>
@@ -7844,91 +7773,163 @@
       <c r="CV161" s="67"/>
       <c r="CW161" s="67"/>
       <c r="CX161" s="67"/>
-      <c r="CY161" s="15"/>
+      <c r="CY161" s="136"/>
       <c r="DA161" s="67"/>
+      <c r="DB161" s="75"/>
+      <c r="DC161" s="70"/>
       <c r="DD161" s="67"/>
       <c r="DE161" s="67"/>
-      <c r="DH161" s="155">
-        <v>2</v>
-      </c>
+      <c r="DH161" s="126"/>
       <c r="DI161" s="67"/>
       <c r="DJ161" s="67"/>
       <c r="DK161" s="67"/>
-      <c r="DL161" s="154"/>
-    </row>
-    <row r="162" spans="1:138">
-      <c r="A162" s="190" t="s">
+      <c r="DL161" s="126"/>
+    </row>
+    <row r="162" spans="1:138" ht="16" thickBot="1">
+      <c r="A162" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B162" s="92" t="s">
+        <v>128</v>
+      </c>
+      <c r="C162">
+        <v>10</v>
+      </c>
+      <c r="D162">
+        <v>18</v>
+      </c>
+      <c r="E162">
+        <v>10</v>
+      </c>
+      <c r="F162">
+        <v>18</v>
+      </c>
+      <c r="AW162" s="14"/>
+      <c r="BC162" s="34"/>
+      <c r="BD162" s="160">
+        <v>1</v>
+      </c>
+      <c r="BE162" s="130"/>
+      <c r="BH162" s="67"/>
+      <c r="BJ162" s="35"/>
+      <c r="BK162" s="159">
+        <v>2</v>
+      </c>
+      <c r="BL162" s="130"/>
+      <c r="BO162" s="67"/>
+      <c r="BP162" s="68">
+        <v>1</v>
+      </c>
+      <c r="BQ162" s="35"/>
+      <c r="BR162" s="159"/>
+      <c r="BS162" s="125"/>
+      <c r="BV162" s="67"/>
+      <c r="BX162" s="127"/>
+      <c r="BY162" s="159">
+        <v>2</v>
+      </c>
+      <c r="BZ162" s="130"/>
+      <c r="CC162" s="67"/>
+      <c r="CE162" s="35"/>
+      <c r="CF162" s="159">
+        <v>1</v>
+      </c>
+      <c r="CG162" s="130"/>
+      <c r="CJ162" s="67"/>
+      <c r="CL162" s="35"/>
+      <c r="CM162" s="159">
+        <v>1</v>
+      </c>
+      <c r="CN162" s="130"/>
+      <c r="CP162" s="67"/>
+      <c r="CQ162" s="6"/>
+      <c r="CT162" s="67"/>
+      <c r="CU162" s="67"/>
+      <c r="CV162" s="67"/>
+      <c r="CW162" s="67"/>
+      <c r="CX162" s="75"/>
+      <c r="CY162" s="159"/>
+      <c r="CZ162" s="128"/>
+      <c r="DA162" s="67"/>
+      <c r="DD162" s="67"/>
+      <c r="DE162" s="67"/>
+      <c r="DG162" s="35"/>
+      <c r="DH162" s="159">
+        <v>1</v>
+      </c>
+      <c r="DI162" s="125"/>
+      <c r="DJ162" s="67"/>
+      <c r="DK162" s="75"/>
+      <c r="DL162" s="159"/>
+      <c r="DM162" s="128"/>
+      <c r="DT162" s="198">
+        <v>3</v>
+      </c>
+      <c r="DU162" s="198">
+        <v>3</v>
+      </c>
+      <c r="DV162" s="198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:138">
+      <c r="B163" s="92" t="s">
+        <v>137</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>2</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="BD163" s="153"/>
+      <c r="BH163" s="67"/>
+      <c r="BK163" s="154"/>
+      <c r="BO163" s="67"/>
+      <c r="BR163" s="18"/>
+      <c r="BS163" s="67"/>
+      <c r="BV163" s="67"/>
+      <c r="BY163" s="154"/>
+      <c r="CC163" s="67"/>
+      <c r="CF163" s="154"/>
+      <c r="CJ163" s="67"/>
+      <c r="CM163" s="154"/>
+      <c r="CP163" s="67"/>
+      <c r="CQ163" s="6"/>
+      <c r="CT163" s="67"/>
+      <c r="CU163" s="67"/>
+      <c r="CV163" s="67"/>
+      <c r="CW163" s="67"/>
+      <c r="CX163" s="67"/>
+      <c r="CY163" s="15"/>
+      <c r="DA163" s="67"/>
+      <c r="DD163" s="67"/>
+      <c r="DE163" s="67"/>
+      <c r="DH163" s="155">
+        <v>2</v>
+      </c>
+      <c r="DI163" s="67"/>
+      <c r="DJ163" s="67"/>
+      <c r="DK163" s="67"/>
+      <c r="DL163" s="154"/>
+    </row>
+    <row r="164" spans="1:138">
+      <c r="A164" s="190" t="s">
+        <v>196</v>
+      </c>
+      <c r="B164" s="189" t="s">
         <v>197</v>
       </c>
-      <c r="B162" s="189" t="s">
-        <v>198</v>
-      </c>
-      <c r="C162" s="189"/>
-      <c r="D162" s="189"/>
-      <c r="E162" s="189"/>
-      <c r="F162" s="189"/>
-      <c r="N162" s="6"/>
-      <c r="AP162" s="192"/>
-      <c r="AS162" s="4"/>
-      <c r="BD162" s="6"/>
-      <c r="BW162" s="5"/>
-      <c r="CM162" s="4"/>
-      <c r="CQ162" s="94"/>
-      <c r="DB162" s="4"/>
-      <c r="DO162" s="94"/>
-      <c r="DV162" s="94"/>
-      <c r="EG162" s="4"/>
-      <c r="EH162" s="191"/>
-    </row>
-    <row r="163" spans="1:138">
-      <c r="A163" s="190"/>
-      <c r="B163" s="189" t="s">
-        <v>199</v>
-      </c>
-      <c r="C163" s="189">
-        <v>2</v>
-      </c>
-      <c r="D163" s="189">
-        <v>2</v>
-      </c>
-      <c r="E163" s="189">
-        <v>0</v>
-      </c>
-      <c r="F163" s="189">
-        <v>1</v>
-      </c>
-      <c r="N163" s="6"/>
-      <c r="AP163" s="192"/>
-      <c r="AS163" s="4"/>
-      <c r="BD163" s="193">
-        <v>2</v>
-      </c>
-      <c r="BW163" s="5"/>
-      <c r="CM163" s="4"/>
-      <c r="CQ163" s="94"/>
-      <c r="DB163" s="4"/>
-      <c r="DO163" s="94"/>
-      <c r="DV163" s="94"/>
-      <c r="EG163" s="4"/>
-      <c r="EH163" s="191"/>
-    </row>
-    <row r="164" spans="1:138">
-      <c r="A164" s="190"/>
-      <c r="B164" s="189" t="s">
-        <v>200</v>
-      </c>
-      <c r="C164" s="189">
-        <v>2</v>
-      </c>
-      <c r="D164" s="189">
-        <v>1</v>
-      </c>
-      <c r="E164" s="189">
-        <v>1</v>
-      </c>
-      <c r="F164" s="189">
-        <v>1</v>
-      </c>
+      <c r="C164" s="189"/>
+      <c r="D164" s="189"/>
+      <c r="E164" s="189"/>
+      <c r="F164" s="189"/>
       <c r="N164" s="6"/>
       <c r="AP164" s="192"/>
       <c r="AS164" s="4"/>
@@ -7938,9 +7939,6 @@
       <c r="CQ164" s="94"/>
       <c r="DB164" s="4"/>
       <c r="DO164" s="94"/>
-      <c r="DU164" s="194">
-        <v>1</v>
-      </c>
       <c r="DV164" s="94"/>
       <c r="EG164" s="4"/>
       <c r="EH164" s="191"/>
@@ -7948,16 +7946,16 @@
     <row r="165" spans="1:138">
       <c r="A165" s="190"/>
       <c r="B165" s="189" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C165" s="189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D165" s="189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E165" s="189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F165" s="189">
         <v>1</v>
@@ -7965,15 +7963,14 @@
       <c r="N165" s="6"/>
       <c r="AP165" s="192"/>
       <c r="AS165" s="4"/>
-      <c r="BD165" s="6"/>
+      <c r="BD165" s="193">
+        <v>2</v>
+      </c>
       <c r="BW165" s="5"/>
       <c r="CM165" s="4"/>
       <c r="CQ165" s="94"/>
       <c r="DB165" s="4"/>
       <c r="DO165" s="94"/>
-      <c r="DU165" s="194">
-        <v>1</v>
-      </c>
       <c r="DV165" s="94"/>
       <c r="EG165" s="4"/>
       <c r="EH165" s="191"/>
@@ -7981,7 +7978,7 @@
     <row r="166" spans="1:138">
       <c r="A166" s="190"/>
       <c r="B166" s="189" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C166" s="189">
         <v>2</v>
@@ -7990,7 +7987,7 @@
         <v>1</v>
       </c>
       <c r="E166" s="189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F166" s="189">
         <v>1</v>
@@ -8004,170 +8001,191 @@
       <c r="CQ166" s="94"/>
       <c r="DB166" s="4"/>
       <c r="DO166" s="94"/>
-      <c r="DV166" s="194">
-        <v>1</v>
-      </c>
+      <c r="DU166" s="194">
+        <v>1</v>
+      </c>
+      <c r="DV166" s="94"/>
       <c r="EG166" s="4"/>
       <c r="EH166" s="191"/>
     </row>
-    <row r="167" spans="1:138" ht="39" customHeight="1">
-      <c r="CM167" s="67"/>
+    <row r="167" spans="1:138">
+      <c r="A167" s="190"/>
+      <c r="B167" s="189" t="s">
+        <v>200</v>
+      </c>
+      <c r="C167" s="189">
+        <v>1</v>
+      </c>
+      <c r="D167" s="189">
+        <v>1</v>
+      </c>
+      <c r="E167" s="189">
+        <v>2</v>
+      </c>
+      <c r="F167" s="189">
+        <v>1</v>
+      </c>
+      <c r="N167" s="6"/>
+      <c r="AP167" s="192"/>
+      <c r="AS167" s="4"/>
+      <c r="BD167" s="6"/>
+      <c r="BW167" s="5"/>
+      <c r="CM167" s="4"/>
       <c r="CQ167" s="94"/>
-      <c r="DU167" s="65"/>
-      <c r="DV167" s="65"/>
+      <c r="DB167" s="4"/>
+      <c r="DO167" s="94"/>
+      <c r="DU167" s="194">
+        <v>1</v>
+      </c>
+      <c r="DV167" s="94"/>
+      <c r="EG167" s="4"/>
+      <c r="EH167" s="191"/>
     </row>
     <row r="168" spans="1:138">
-      <c r="CM168" s="67"/>
+      <c r="A168" s="190"/>
+      <c r="B168" s="189" t="s">
+        <v>201</v>
+      </c>
+      <c r="C168" s="189">
+        <v>2</v>
+      </c>
+      <c r="D168" s="189">
+        <v>1</v>
+      </c>
+      <c r="E168" s="189">
+        <v>2</v>
+      </c>
+      <c r="F168" s="189">
+        <v>1</v>
+      </c>
+      <c r="N168" s="6"/>
+      <c r="AP168" s="192"/>
+      <c r="AS168" s="4"/>
+      <c r="BD168" s="6"/>
+      <c r="BW168" s="5"/>
+      <c r="CM168" s="4"/>
       <c r="CQ168" s="94"/>
-    </row>
-    <row r="169" spans="1:138">
-      <c r="A169" s="99" t="s">
-        <v>115</v>
-      </c>
-      <c r="B169" s="98" t="s">
-        <v>41</v>
-      </c>
-      <c r="AW169" s="65"/>
-      <c r="AX169" s="65"/>
-      <c r="AY169" s="65"/>
-      <c r="AZ169" s="65"/>
-      <c r="BA169" s="65"/>
-      <c r="BB169" s="65"/>
-      <c r="BD169" s="95"/>
-      <c r="BE169" s="65"/>
-      <c r="BF169" s="65"/>
-      <c r="BG169" s="65"/>
-      <c r="BH169" s="65"/>
-      <c r="BI169" s="65"/>
-      <c r="BJ169" s="65"/>
-      <c r="BK169" s="65"/>
-      <c r="BL169" s="65"/>
-      <c r="BM169" s="65"/>
-      <c r="BN169" s="65"/>
-      <c r="BO169" s="65"/>
-      <c r="BP169" s="65"/>
-      <c r="BQ169" s="65"/>
-      <c r="BR169" s="65"/>
-      <c r="BS169" s="65"/>
-      <c r="BT169" s="65"/>
-      <c r="BU169" s="65"/>
-      <c r="BV169" s="65"/>
-      <c r="BW169" s="96"/>
-      <c r="BX169" s="97"/>
-      <c r="BY169" s="65"/>
-      <c r="BZ169" s="65"/>
-      <c r="CA169" s="65"/>
-      <c r="CB169" s="65"/>
-      <c r="CC169" s="65"/>
-      <c r="CD169" s="65"/>
-      <c r="CE169" s="65"/>
-      <c r="CF169" s="65"/>
-      <c r="CG169" s="65"/>
-      <c r="CH169" s="65"/>
-      <c r="CI169" s="65"/>
-      <c r="CJ169" s="65"/>
-      <c r="CK169" s="65"/>
-      <c r="CL169" s="65"/>
-      <c r="CM169" s="65"/>
-      <c r="CN169" s="65"/>
-      <c r="CO169" s="65"/>
-      <c r="CP169" s="65"/>
-      <c r="CQ169" s="95"/>
-      <c r="CR169" s="65"/>
-      <c r="CS169" s="65"/>
-      <c r="CT169" s="65"/>
-      <c r="CU169" s="65"/>
-      <c r="CV169" s="65"/>
-      <c r="CW169" s="65"/>
-      <c r="CX169" s="65"/>
-      <c r="CY169" s="65"/>
-      <c r="CZ169" s="65"/>
-      <c r="DA169" s="65"/>
-      <c r="DB169" s="96"/>
-      <c r="DC169" s="97"/>
-      <c r="DD169" s="65"/>
-      <c r="DE169" s="65"/>
-      <c r="DF169" s="65"/>
-      <c r="DG169" s="65"/>
-      <c r="DH169" s="65"/>
-      <c r="DI169" s="65"/>
-      <c r="DJ169" s="65"/>
-      <c r="DK169" s="65"/>
-      <c r="DL169" s="65"/>
-      <c r="DZ169" s="67"/>
+      <c r="DB168" s="4"/>
+      <c r="DO168" s="94"/>
+      <c r="DV168" s="194">
+        <v>1</v>
+      </c>
+      <c r="EG168" s="4"/>
+      <c r="EH168" s="191"/>
+    </row>
+    <row r="169" spans="1:138" ht="39" customHeight="1">
+      <c r="CM169" s="67"/>
+      <c r="CQ169" s="94"/>
+      <c r="DU169" s="65"/>
+      <c r="DV169" s="65"/>
     </row>
     <row r="170" spans="1:138">
-      <c r="A170" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B170" t="s">
-        <v>109</v>
-      </c>
-      <c r="C170">
-        <v>2</v>
-      </c>
-      <c r="D170">
-        <v>3</v>
-      </c>
-      <c r="E170">
-        <v>2</v>
-      </c>
-      <c r="F170">
-        <v>3</v>
-      </c>
-      <c r="AW170" s="76">
-        <v>2</v>
-      </c>
-      <c r="BA170" s="65"/>
-      <c r="BC170" s="65"/>
       <c r="CM170" s="67"/>
       <c r="CQ170" s="94"/>
-      <c r="DW170" s="67"/>
-      <c r="DX170" s="67"/>
-      <c r="DY170" s="67"/>
-      <c r="DZ170" s="67"/>
-      <c r="EA170" s="93"/>
-      <c r="EB170" s="93"/>
     </row>
     <row r="171" spans="1:138">
-      <c r="A171" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B171" s="92" t="s">
-        <v>127</v>
-      </c>
-      <c r="C171">
-        <v>3</v>
-      </c>
-      <c r="E171">
-        <v>3</v>
-      </c>
-      <c r="AZ171" s="67"/>
-      <c r="CM171" s="67"/>
-      <c r="CQ171" s="94"/>
-      <c r="DW171" s="67"/>
-      <c r="DX171" s="67"/>
-      <c r="DY171" s="67"/>
+      <c r="A171" s="99" t="s">
+        <v>115</v>
+      </c>
+      <c r="B171" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="AW171" s="65"/>
+      <c r="AX171" s="65"/>
+      <c r="AY171" s="65"/>
+      <c r="AZ171" s="65"/>
+      <c r="BA171" s="65"/>
+      <c r="BB171" s="65"/>
+      <c r="BD171" s="95"/>
+      <c r="BE171" s="65"/>
+      <c r="BF171" s="65"/>
+      <c r="BG171" s="65"/>
+      <c r="BH171" s="65"/>
+      <c r="BI171" s="65"/>
+      <c r="BJ171" s="65"/>
+      <c r="BK171" s="65"/>
+      <c r="BL171" s="65"/>
+      <c r="BM171" s="65"/>
+      <c r="BN171" s="65"/>
+      <c r="BO171" s="65"/>
+      <c r="BP171" s="65"/>
+      <c r="BQ171" s="65"/>
+      <c r="BR171" s="65"/>
+      <c r="BS171" s="65"/>
+      <c r="BT171" s="65"/>
+      <c r="BU171" s="65"/>
+      <c r="BV171" s="65"/>
+      <c r="BW171" s="96"/>
+      <c r="BX171" s="97"/>
+      <c r="BY171" s="65"/>
+      <c r="BZ171" s="65"/>
+      <c r="CA171" s="65"/>
+      <c r="CB171" s="65"/>
+      <c r="CC171" s="65"/>
+      <c r="CD171" s="65"/>
+      <c r="CE171" s="65"/>
+      <c r="CF171" s="65"/>
+      <c r="CG171" s="65"/>
+      <c r="CH171" s="65"/>
+      <c r="CI171" s="65"/>
+      <c r="CJ171" s="65"/>
+      <c r="CK171" s="65"/>
+      <c r="CL171" s="65"/>
+      <c r="CM171" s="65"/>
+      <c r="CN171" s="65"/>
+      <c r="CO171" s="65"/>
+      <c r="CP171" s="65"/>
+      <c r="CQ171" s="95"/>
+      <c r="CR171" s="65"/>
+      <c r="CS171" s="65"/>
+      <c r="CT171" s="65"/>
+      <c r="CU171" s="65"/>
+      <c r="CV171" s="65"/>
+      <c r="CW171" s="65"/>
+      <c r="CX171" s="65"/>
+      <c r="CY171" s="65"/>
+      <c r="CZ171" s="65"/>
+      <c r="DA171" s="65"/>
+      <c r="DB171" s="96"/>
+      <c r="DC171" s="97"/>
+      <c r="DD171" s="65"/>
+      <c r="DE171" s="65"/>
+      <c r="DF171" s="65"/>
+      <c r="DG171" s="65"/>
+      <c r="DH171" s="65"/>
+      <c r="DI171" s="65"/>
+      <c r="DJ171" s="65"/>
+      <c r="DK171" s="65"/>
+      <c r="DL171" s="65"/>
       <c r="DZ171" s="67"/>
-      <c r="EA171" s="93"/>
-      <c r="EB171" s="93"/>
     </row>
     <row r="172" spans="1:138">
       <c r="A172" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B172" s="92" t="s">
-        <v>128</v>
+        <v>116</v>
+      </c>
+      <c r="B172" t="s">
+        <v>109</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D172">
+        <v>3</v>
       </c>
       <c r="E172">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F172">
+        <v>3</v>
+      </c>
+      <c r="AW172" s="76">
+        <v>2</v>
+      </c>
+      <c r="BA172" s="65"/>
+      <c r="BC172" s="65"/>
       <c r="CM172" s="67"/>
       <c r="CQ172" s="94"/>
-      <c r="DW172" s="65"/>
+      <c r="DW172" s="67"/>
       <c r="DX172" s="67"/>
       <c r="DY172" s="67"/>
       <c r="DZ172" s="67"/>
@@ -8176,56 +8194,70 @@
     </row>
     <row r="173" spans="1:138">
       <c r="A173" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B173" t="s">
-        <v>123</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B173" s="92" t="s">
+        <v>127</v>
+      </c>
+      <c r="C173">
+        <v>3</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <v>3</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="AZ173" s="67"/>
       <c r="CM173" s="67"/>
       <c r="CQ173" s="94"/>
-      <c r="DA173" s="67"/>
-      <c r="DD173" s="67"/>
-      <c r="DE173" s="67"/>
-      <c r="DH173" s="67"/>
-      <c r="DK173" s="67"/>
-      <c r="DL173" s="67"/>
-      <c r="DU173" s="65"/>
-      <c r="DV173" s="65"/>
       <c r="DW173" s="67"/>
-      <c r="DX173" s="65"/>
-      <c r="DY173" s="65"/>
+      <c r="DX173" s="67"/>
+      <c r="DY173" s="67"/>
       <c r="DZ173" s="67"/>
       <c r="EA173" s="93"/>
       <c r="EB173" s="93"/>
     </row>
     <row r="174" spans="1:138">
+      <c r="A174" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="B174" s="92" t="s">
-        <v>124</v>
+        <v>239</v>
       </c>
       <c r="C174">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>2</v>
       </c>
       <c r="E174">
         <v>3</v>
+      </c>
+      <c r="F174">
+        <v>2</v>
       </c>
       <c r="CM174" s="67"/>
       <c r="CQ174" s="94"/>
-      <c r="DA174" s="67"/>
-      <c r="DD174" s="67"/>
-      <c r="DE174" s="67"/>
-      <c r="DH174" s="67"/>
-      <c r="DK174" s="67"/>
-      <c r="DL174" s="67"/>
+      <c r="DS174" s="220">
+        <v>1</v>
+      </c>
+      <c r="DW174" s="65"/>
+      <c r="DX174" s="67"/>
+      <c r="DY174" s="67"/>
+      <c r="DZ174" s="67"/>
+      <c r="EA174" s="93"/>
+      <c r="EB174" s="93"/>
     </row>
     <row r="175" spans="1:138">
-      <c r="B175" s="92" t="s">
-        <v>125</v>
-      </c>
-      <c r="C175">
-        <v>16</v>
-      </c>
-      <c r="E175">
-        <v>4</v>
+      <c r="A175" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B175" t="s">
+        <v>123</v>
       </c>
       <c r="CM175" s="67"/>
       <c r="CQ175" s="94"/>
@@ -8235,16 +8267,26 @@
       <c r="DH175" s="67"/>
       <c r="DK175" s="67"/>
       <c r="DL175" s="67"/>
+      <c r="DU175" s="65"/>
+      <c r="DV175" s="221">
+        <v>2</v>
+      </c>
+      <c r="DW175" s="67"/>
+      <c r="DX175" s="65"/>
+      <c r="DY175" s="65"/>
+      <c r="DZ175" s="67"/>
+      <c r="EA175" s="93"/>
+      <c r="EB175" s="93"/>
     </row>
     <row r="176" spans="1:138">
       <c r="B176" s="92" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C176">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CM176" s="67"/>
       <c r="CQ176" s="94"/>
@@ -8256,226 +8298,171 @@
       <c r="DL176" s="67"/>
     </row>
     <row r="177" spans="1:116">
+      <c r="B177" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="C177">
+        <v>16</v>
+      </c>
+      <c r="E177">
+        <v>4</v>
+      </c>
       <c r="CM177" s="67"/>
       <c r="CQ177" s="94"/>
+      <c r="DA177" s="67"/>
+      <c r="DD177" s="67"/>
+      <c r="DE177" s="67"/>
+      <c r="DH177" s="67"/>
+      <c r="DK177" s="67"/>
+      <c r="DL177" s="67"/>
     </row>
     <row r="178" spans="1:116">
+      <c r="B178" s="92" t="s">
+        <v>126</v>
+      </c>
+      <c r="C178">
+        <v>4</v>
+      </c>
+      <c r="E178">
+        <v>2</v>
+      </c>
       <c r="CM178" s="67"/>
       <c r="CQ178" s="94"/>
+      <c r="DA178" s="67"/>
+      <c r="DD178" s="67"/>
+      <c r="DE178" s="67"/>
+      <c r="DH178" s="67"/>
+      <c r="DK178" s="67"/>
+      <c r="DL178" s="67"/>
     </row>
     <row r="179" spans="1:116">
       <c r="CM179" s="67"/>
-      <c r="CQ179" s="6"/>
-    </row>
-    <row r="180" spans="1:116" ht="16" thickBot="1">
-      <c r="A180" s="100" t="s">
-        <v>140</v>
-      </c>
-      <c r="B180" s="114" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR180" s="88"/>
-      <c r="AS180" s="89"/>
-      <c r="AT180" s="151"/>
-      <c r="AU180" s="88"/>
-      <c r="AV180" s="88"/>
-      <c r="AW180" s="88"/>
-      <c r="AX180" s="88"/>
-      <c r="AY180" s="88"/>
-      <c r="AZ180" s="88"/>
-      <c r="BA180" s="88"/>
-      <c r="BB180" s="88"/>
-      <c r="BC180" s="136"/>
-      <c r="BD180" s="91"/>
-      <c r="BE180" s="88"/>
-      <c r="BF180" s="88"/>
-      <c r="BG180" s="88"/>
-      <c r="BH180" s="152"/>
-      <c r="BI180" s="88"/>
-      <c r="BJ180" s="88"/>
-      <c r="BK180" s="88"/>
-      <c r="BL180" s="88"/>
-      <c r="BM180" s="88"/>
-      <c r="BN180" s="88"/>
-      <c r="BO180" s="88"/>
-      <c r="BP180" s="88"/>
-      <c r="BQ180" s="88"/>
-      <c r="BR180" s="88"/>
-      <c r="BS180" s="88"/>
-      <c r="BT180" s="88"/>
-      <c r="BU180" s="88"/>
-      <c r="BV180" s="152"/>
-      <c r="BW180" s="89"/>
-      <c r="BX180" s="90"/>
-      <c r="BY180" s="88"/>
-      <c r="BZ180" s="88"/>
-      <c r="CA180" s="88"/>
-      <c r="CB180" s="88"/>
-      <c r="CC180" s="88"/>
-      <c r="CD180" s="88"/>
-      <c r="CE180" s="88"/>
-      <c r="CF180" s="88"/>
-      <c r="CG180" s="88"/>
-      <c r="CH180" s="88"/>
-      <c r="CI180" s="88"/>
-      <c r="CJ180" s="152"/>
-      <c r="CK180" s="88"/>
-      <c r="CL180" s="88"/>
-      <c r="CM180" s="88"/>
-      <c r="CN180" s="88"/>
-      <c r="CO180" s="88"/>
-      <c r="CP180" s="88"/>
-      <c r="CQ180" s="88"/>
-      <c r="CR180" s="88"/>
-      <c r="CS180" s="88"/>
-      <c r="CT180" s="88"/>
-      <c r="CU180" s="88"/>
-      <c r="CV180" s="88"/>
-      <c r="CW180" s="88"/>
-      <c r="CX180" s="152"/>
-      <c r="CY180" s="88"/>
-      <c r="CZ180" s="88"/>
-      <c r="DA180" s="67"/>
-      <c r="DB180" s="75"/>
-      <c r="DC180" s="70"/>
-      <c r="DD180" s="67"/>
-      <c r="DE180" s="67"/>
-      <c r="DH180" s="67"/>
-      <c r="DI180" s="67"/>
-      <c r="DJ180" s="67"/>
-      <c r="DK180" s="67"/>
-      <c r="DL180" s="67"/>
-    </row>
-    <row r="181" spans="1:116" ht="16" thickBot="1">
-      <c r="A181" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B181" t="s">
-        <v>113</v>
-      </c>
-      <c r="C181">
-        <v>4</v>
-      </c>
-      <c r="D181">
-        <v>5</v>
-      </c>
-      <c r="E181">
-        <v>0</v>
-      </c>
-      <c r="F181">
-        <v>0</v>
-      </c>
-      <c r="AU181" s="148"/>
-      <c r="BB181" s="35"/>
-      <c r="BC181" s="162"/>
-      <c r="BD181" s="149"/>
-      <c r="BG181" s="31"/>
-      <c r="BH181" s="161">
-        <v>1</v>
-      </c>
-      <c r="BI181" s="128"/>
-      <c r="BS181" s="67"/>
-      <c r="BU181" s="31"/>
-      <c r="BV181" s="162"/>
-      <c r="BW181" s="132"/>
-      <c r="CB181" s="79">
-        <v>1</v>
-      </c>
-      <c r="CC181" s="67"/>
-      <c r="CF181" s="67"/>
-      <c r="CI181" s="31"/>
-      <c r="CJ181" s="161">
-        <v>1</v>
-      </c>
-      <c r="CK181" s="128"/>
+      <c r="CQ179" s="94"/>
+    </row>
+    <row r="180" spans="1:116">
+      <c r="CM180" s="67"/>
+      <c r="CQ180" s="94"/>
+    </row>
+    <row r="181" spans="1:116">
       <c r="CM181" s="67"/>
       <c r="CQ181" s="6"/>
-      <c r="CW181" s="31"/>
-      <c r="CX181" s="161">
-        <v>1</v>
-      </c>
-      <c r="CY181" s="128"/>
-    </row>
-    <row r="182" spans="1:116" ht="31" thickBot="1">
-      <c r="B182" s="92" t="s">
-        <v>136</v>
-      </c>
-      <c r="D182" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT182" s="156"/>
-      <c r="AU182" s="80"/>
-      <c r="BC182" s="15"/>
-      <c r="BG182" s="79">
-        <v>3</v>
-      </c>
-      <c r="BH182" s="157"/>
-      <c r="BM182" s="79">
-        <v>3</v>
-      </c>
-      <c r="BS182" s="115">
-        <v>3</v>
-      </c>
-      <c r="BU182" s="79">
-        <v>2</v>
-      </c>
-      <c r="BV182" s="157">
-        <v>3</v>
-      </c>
-      <c r="CA182" s="79">
-        <v>2</v>
-      </c>
-      <c r="CB182" s="115">
-        <v>3</v>
-      </c>
-      <c r="CF182" s="67"/>
-      <c r="CH182" s="79">
-        <v>2</v>
-      </c>
-      <c r="CJ182" s="158"/>
-      <c r="CM182" s="67"/>
-      <c r="CO182" s="79">
-        <v>2</v>
-      </c>
-      <c r="CQ182" s="6"/>
-      <c r="CV182" s="79">
-        <v>2</v>
-      </c>
-      <c r="CX182" s="158"/>
-      <c r="DC182" s="81">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="182" spans="1:116" ht="16" thickBot="1">
+      <c r="A182" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="B182" s="114" t="s">
+        <v>134</v>
+      </c>
+      <c r="AR182" s="88"/>
+      <c r="AS182" s="89"/>
+      <c r="AT182" s="151"/>
+      <c r="AU182" s="88"/>
+      <c r="AV182" s="88"/>
+      <c r="AW182" s="88"/>
+      <c r="AX182" s="88"/>
+      <c r="AY182" s="88"/>
+      <c r="AZ182" s="88"/>
+      <c r="BA182" s="88"/>
+      <c r="BB182" s="88"/>
+      <c r="BC182" s="136"/>
+      <c r="BD182" s="91"/>
+      <c r="BE182" s="88"/>
+      <c r="BF182" s="88"/>
+      <c r="BG182" s="88"/>
+      <c r="BH182" s="152"/>
+      <c r="BI182" s="88"/>
+      <c r="BJ182" s="88"/>
+      <c r="BK182" s="88"/>
+      <c r="BL182" s="88"/>
+      <c r="BM182" s="88"/>
+      <c r="BN182" s="88"/>
+      <c r="BO182" s="88"/>
+      <c r="BP182" s="88"/>
+      <c r="BQ182" s="88"/>
+      <c r="BR182" s="88"/>
+      <c r="BS182" s="88"/>
+      <c r="BT182" s="88"/>
+      <c r="BU182" s="88"/>
+      <c r="BV182" s="152"/>
+      <c r="BW182" s="89"/>
+      <c r="BX182" s="90"/>
+      <c r="BY182" s="88"/>
+      <c r="BZ182" s="88"/>
+      <c r="CA182" s="88"/>
+      <c r="CB182" s="88"/>
+      <c r="CC182" s="88"/>
+      <c r="CD182" s="88"/>
+      <c r="CE182" s="88"/>
+      <c r="CF182" s="88"/>
+      <c r="CG182" s="88"/>
+      <c r="CH182" s="88"/>
+      <c r="CI182" s="88"/>
+      <c r="CJ182" s="152"/>
+      <c r="CK182" s="88"/>
+      <c r="CL182" s="88"/>
+      <c r="CM182" s="88"/>
+      <c r="CN182" s="88"/>
+      <c r="CO182" s="88"/>
+      <c r="CP182" s="88"/>
+      <c r="CQ182" s="88"/>
+      <c r="CR182" s="88"/>
+      <c r="CS182" s="88"/>
+      <c r="CT182" s="88"/>
+      <c r="CU182" s="88"/>
+      <c r="CV182" s="88"/>
+      <c r="CW182" s="88"/>
+      <c r="CX182" s="152"/>
+      <c r="CY182" s="88"/>
+      <c r="CZ182" s="88"/>
+      <c r="DA182" s="67"/>
+      <c r="DB182" s="75"/>
+      <c r="DC182" s="70"/>
+      <c r="DD182" s="67"/>
+      <c r="DE182" s="67"/>
+      <c r="DH182" s="67"/>
+      <c r="DI182" s="67"/>
+      <c r="DJ182" s="67"/>
+      <c r="DK182" s="67"/>
+      <c r="DL182" s="67"/>
     </row>
     <row r="183" spans="1:116" ht="16" thickBot="1">
       <c r="A183" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B183" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C183">
+        <v>4</v>
+      </c>
+      <c r="D183">
+        <v>5</v>
+      </c>
+      <c r="E183">
         <v>0</v>
       </c>
-      <c r="D183">
+      <c r="F183">
         <v>0</v>
       </c>
-      <c r="E183">
-        <v>4</v>
-      </c>
-      <c r="AT183" s="161">
-        <v>1</v>
-      </c>
-      <c r="AU183" s="128"/>
+      <c r="AU183" s="148"/>
+      <c r="BB183" s="35"/>
+      <c r="BC183" s="162"/>
+      <c r="BD183" s="149"/>
       <c r="BG183" s="31"/>
       <c r="BH183" s="161">
         <v>1</v>
       </c>
       <c r="BI183" s="128"/>
+      <c r="BS183" s="67"/>
       <c r="BU183" s="31"/>
-      <c r="BV183" s="161">
-        <v>1</v>
-      </c>
+      <c r="BV183" s="162"/>
       <c r="BW183" s="132"/>
+      <c r="CB183" s="79">
+        <v>1</v>
+      </c>
+      <c r="CC183" s="67"/>
+      <c r="CF183" s="67"/>
       <c r="CI183" s="31"/>
       <c r="CJ183" s="161">
         <v>1</v>
@@ -8488,82 +8475,157 @@
         <v>1</v>
       </c>
       <c r="CY183" s="128"/>
-      <c r="DE183" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:116">
-      <c r="AT184" s="49"/>
-      <c r="BH184" s="14"/>
-      <c r="BV184" s="14"/>
-      <c r="CJ184" s="73"/>
+    </row>
+    <row r="184" spans="1:116" ht="31" thickBot="1">
+      <c r="B184" s="92" t="s">
+        <v>135</v>
+      </c>
+      <c r="D184" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT184" s="156"/>
+      <c r="AU184" s="80"/>
+      <c r="BC184" s="15"/>
+      <c r="BG184" s="79">
+        <v>3</v>
+      </c>
+      <c r="BH184" s="157"/>
+      <c r="BM184" s="79">
+        <v>3</v>
+      </c>
+      <c r="BS184" s="115">
+        <v>3</v>
+      </c>
+      <c r="BU184" s="79">
+        <v>2</v>
+      </c>
+      <c r="BV184" s="157">
+        <v>3</v>
+      </c>
+      <c r="CA184" s="79">
+        <v>2</v>
+      </c>
+      <c r="CB184" s="115">
+        <v>3</v>
+      </c>
+      <c r="CF184" s="67"/>
+      <c r="CH184" s="79">
+        <v>2</v>
+      </c>
+      <c r="CJ184" s="158"/>
       <c r="CM184" s="67"/>
+      <c r="CO184" s="79">
+        <v>2</v>
+      </c>
       <c r="CQ184" s="6"/>
-      <c r="CX184" s="14"/>
-    </row>
-    <row r="185" spans="1:116">
+      <c r="CV184" s="79">
+        <v>2</v>
+      </c>
+      <c r="CX184" s="158"/>
+      <c r="DC184" s="81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:116" ht="16" thickBot="1">
+      <c r="A185" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B185" t="s">
+        <v>118</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>4</v>
+      </c>
+      <c r="AT185" s="161">
+        <v>1</v>
+      </c>
+      <c r="AU185" s="128"/>
+      <c r="BG185" s="31"/>
+      <c r="BH185" s="161">
+        <v>1</v>
+      </c>
+      <c r="BI185" s="128"/>
+      <c r="BU185" s="31"/>
+      <c r="BV185" s="161">
+        <v>1</v>
+      </c>
+      <c r="BW185" s="132"/>
+      <c r="CI185" s="31"/>
+      <c r="CJ185" s="161">
+        <v>1</v>
+      </c>
+      <c r="CK185" s="128"/>
       <c r="CM185" s="67"/>
       <c r="CQ185" s="6"/>
+      <c r="CW185" s="31"/>
+      <c r="CX185" s="161">
+        <v>1</v>
+      </c>
+      <c r="CY185" s="128"/>
+      <c r="DE185" s="79">
+        <v>1</v>
+      </c>
     </row>
     <row r="186" spans="1:116">
-      <c r="C186">
-        <f>SUM(C4:C185)</f>
-        <v>302</v>
-      </c>
-      <c r="D186">
-        <f>SUM(D4:D185)</f>
-        <v>278</v>
-      </c>
-      <c r="E186" s="66">
-        <f>SUM(E4:E185)</f>
-        <v>313</v>
-      </c>
-      <c r="F186">
-        <f>SUM(F4:F185)</f>
-        <v>290</v>
-      </c>
+      <c r="AT186" s="49"/>
+      <c r="BH186" s="14"/>
+      <c r="BV186" s="14"/>
+      <c r="CJ186" s="73"/>
       <c r="CM186" s="67"/>
       <c r="CQ186" s="6"/>
+      <c r="CX186" s="14"/>
     </row>
     <row r="187" spans="1:116">
-      <c r="C187" t="s">
-        <v>97</v>
-      </c>
-      <c r="D187" t="s">
-        <v>98</v>
-      </c>
-      <c r="E187" t="s">
-        <v>112</v>
-      </c>
-      <c r="F187" t="s">
-        <v>111</v>
-      </c>
       <c r="CM187" s="67"/>
       <c r="CQ187" s="6"/>
     </row>
     <row r="188" spans="1:116">
+      <c r="C188">
+        <f>SUM(C4:C187)</f>
+        <v>304</v>
+      </c>
+      <c r="D188">
+        <f>SUM(D4:D187)</f>
+        <v>284</v>
+      </c>
+      <c r="E188" s="66">
+        <f>SUM(E4:E187)</f>
+        <v>314</v>
+      </c>
+      <c r="F188">
+        <f>SUM(F4:F187)</f>
+        <v>297</v>
+      </c>
       <c r="CM188" s="67"/>
       <c r="CQ188" s="6"/>
     </row>
     <row r="189" spans="1:116">
+      <c r="C189" t="s">
+        <v>97</v>
+      </c>
+      <c r="D189" t="s">
+        <v>98</v>
+      </c>
+      <c r="E189" t="s">
+        <v>112</v>
+      </c>
+      <c r="F189" t="s">
+        <v>111</v>
+      </c>
+      <c r="CM189" s="67"/>
       <c r="CQ189" s="6"/>
     </row>
     <row r="190" spans="1:116">
-      <c r="CF190" s="67"/>
-      <c r="CG190" s="67"/>
-      <c r="CH190" s="67"/>
-      <c r="CI190" s="67"/>
-      <c r="CJ190" s="67"/>
       <c r="CM190" s="67"/>
       <c r="CQ190" s="6"/>
     </row>
     <row r="191" spans="1:116">
-      <c r="CF191" s="67"/>
-      <c r="CG191" s="67"/>
-      <c r="CH191" s="67"/>
-      <c r="CI191" s="67"/>
-      <c r="CJ191" s="67"/>
-      <c r="CM191" s="67"/>
       <c r="CQ191" s="6"/>
     </row>
     <row r="192" spans="1:116">
@@ -8585,10 +8647,20 @@
       <c r="CQ193" s="6"/>
     </row>
     <row r="194" spans="84:95">
+      <c r="CF194" s="67"/>
+      <c r="CG194" s="67"/>
+      <c r="CH194" s="67"/>
+      <c r="CI194" s="67"/>
+      <c r="CJ194" s="67"/>
       <c r="CM194" s="67"/>
       <c r="CQ194" s="6"/>
     </row>
     <row r="195" spans="84:95">
+      <c r="CF195" s="67"/>
+      <c r="CG195" s="67"/>
+      <c r="CH195" s="67"/>
+      <c r="CI195" s="67"/>
+      <c r="CJ195" s="67"/>
       <c r="CM195" s="67"/>
       <c r="CQ195" s="6"/>
     </row>
@@ -8604,15 +8676,17 @@
       <c r="CM198" s="67"/>
       <c r="CQ198" s="6"/>
     </row>
-    <row r="234" spans="91:95">
-      <c r="CM234" s="67"/>
-      <c r="CQ234" s="6"/>
-    </row>
-    <row r="235" spans="91:95">
-      <c r="CM235" s="67"/>
+    <row r="199" spans="84:95">
+      <c r="CM199" s="67"/>
+      <c r="CQ199" s="6"/>
+    </row>
+    <row r="200" spans="84:95">
+      <c r="CM200" s="67"/>
+      <c r="CQ200" s="6"/>
     </row>
     <row r="236" spans="91:95">
       <c r="CM236" s="67"/>
+      <c r="CQ236" s="6"/>
     </row>
     <row r="237" spans="91:95">
       <c r="CM237" s="67"/>
@@ -8856,6 +8930,12 @@
     </row>
     <row r="317" spans="91:91">
       <c r="CM317" s="67"/>
+    </row>
+    <row r="318" spans="91:91">
+      <c r="CM318" s="67"/>
+    </row>
+    <row r="319" spans="91:91">
+      <c r="CM319" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/konzept/projektplan.xlsx
+++ b/konzept/projektplan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="242">
   <si>
     <t>#</t>
   </si>
@@ -740,6 +740,12 @@
   </si>
   <si>
     <t>Abschlusspräsentationsfolien</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>Prototyp für Live-Demo fortführen</t>
   </si>
 </sst>
 </file>
@@ -2073,6 +2079,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2118,183 +2126,181 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="173">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2628,8 +2634,8 @@
   </sheetPr>
   <dimension ref="A1:EH319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="DV148" sqref="DV148"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="E179" sqref="E179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2854,155 +2860,155 @@
       <c r="EH1" s="45"/>
     </row>
     <row r="2" spans="1:138">
-      <c r="C2" s="211" t="s">
+      <c r="C2" s="213" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211" t="s">
+      <c r="D2" s="213"/>
+      <c r="E2" s="213" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="212"/>
-      <c r="G2" s="208" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="213" t="s">
+      <c r="F2" s="214"/>
+      <c r="G2" s="210" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="211"/>
+      <c r="N2" s="212"/>
+      <c r="O2" s="215" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="214"/>
-      <c r="Q2" s="214"/>
-      <c r="R2" s="214"/>
-      <c r="S2" s="214"/>
-      <c r="T2" s="214"/>
-      <c r="U2" s="214"/>
-      <c r="V2" s="214"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="214"/>
-      <c r="Y2" s="214"/>
-      <c r="Z2" s="214"/>
-      <c r="AA2" s="214"/>
-      <c r="AB2" s="214"/>
-      <c r="AC2" s="214"/>
-      <c r="AD2" s="214"/>
-      <c r="AE2" s="214"/>
-      <c r="AF2" s="214"/>
-      <c r="AG2" s="214"/>
-      <c r="AH2" s="214"/>
-      <c r="AI2" s="214"/>
-      <c r="AJ2" s="214"/>
-      <c r="AK2" s="214"/>
-      <c r="AL2" s="214"/>
-      <c r="AM2" s="214"/>
-      <c r="AN2" s="214"/>
-      <c r="AO2" s="214"/>
-      <c r="AP2" s="214"/>
-      <c r="AQ2" s="214"/>
-      <c r="AR2" s="214"/>
-      <c r="AS2" s="215"/>
-      <c r="AT2" s="205" t="s">
+      <c r="P2" s="216"/>
+      <c r="Q2" s="216"/>
+      <c r="R2" s="216"/>
+      <c r="S2" s="216"/>
+      <c r="T2" s="216"/>
+      <c r="U2" s="216"/>
+      <c r="V2" s="216"/>
+      <c r="W2" s="216"/>
+      <c r="X2" s="216"/>
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="216"/>
+      <c r="AA2" s="216"/>
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="216"/>
+      <c r="AD2" s="216"/>
+      <c r="AE2" s="216"/>
+      <c r="AF2" s="216"/>
+      <c r="AG2" s="216"/>
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="216"/>
+      <c r="AJ2" s="216"/>
+      <c r="AK2" s="216"/>
+      <c r="AL2" s="216"/>
+      <c r="AM2" s="216"/>
+      <c r="AN2" s="216"/>
+      <c r="AO2" s="216"/>
+      <c r="AP2" s="216"/>
+      <c r="AQ2" s="216"/>
+      <c r="AR2" s="216"/>
+      <c r="AS2" s="217"/>
+      <c r="AT2" s="207" t="s">
         <v>34</v>
       </c>
-      <c r="AU2" s="206"/>
-      <c r="AV2" s="206"/>
-      <c r="AW2" s="206"/>
-      <c r="AX2" s="206"/>
-      <c r="AY2" s="206"/>
-      <c r="AZ2" s="206"/>
-      <c r="BA2" s="206"/>
-      <c r="BB2" s="206"/>
-      <c r="BC2" s="206"/>
-      <c r="BD2" s="206"/>
-      <c r="BE2" s="206"/>
-      <c r="BF2" s="206"/>
-      <c r="BG2" s="206"/>
-      <c r="BH2" s="206"/>
-      <c r="BI2" s="206"/>
-      <c r="BJ2" s="206"/>
-      <c r="BK2" s="206"/>
-      <c r="BL2" s="206"/>
-      <c r="BM2" s="206"/>
-      <c r="BN2" s="206"/>
-      <c r="BO2" s="206"/>
-      <c r="BP2" s="206"/>
-      <c r="BQ2" s="206"/>
-      <c r="BR2" s="206"/>
-      <c r="BS2" s="206"/>
-      <c r="BT2" s="206"/>
-      <c r="BU2" s="206"/>
-      <c r="BV2" s="206"/>
-      <c r="BW2" s="216"/>
-      <c r="BX2" s="217" t="s">
+      <c r="AU2" s="208"/>
+      <c r="AV2" s="208"/>
+      <c r="AW2" s="208"/>
+      <c r="AX2" s="208"/>
+      <c r="AY2" s="208"/>
+      <c r="AZ2" s="208"/>
+      <c r="BA2" s="208"/>
+      <c r="BB2" s="208"/>
+      <c r="BC2" s="208"/>
+      <c r="BD2" s="208"/>
+      <c r="BE2" s="208"/>
+      <c r="BF2" s="208"/>
+      <c r="BG2" s="208"/>
+      <c r="BH2" s="208"/>
+      <c r="BI2" s="208"/>
+      <c r="BJ2" s="208"/>
+      <c r="BK2" s="208"/>
+      <c r="BL2" s="208"/>
+      <c r="BM2" s="208"/>
+      <c r="BN2" s="208"/>
+      <c r="BO2" s="208"/>
+      <c r="BP2" s="208"/>
+      <c r="BQ2" s="208"/>
+      <c r="BR2" s="208"/>
+      <c r="BS2" s="208"/>
+      <c r="BT2" s="208"/>
+      <c r="BU2" s="208"/>
+      <c r="BV2" s="208"/>
+      <c r="BW2" s="218"/>
+      <c r="BX2" s="219" t="s">
         <v>35</v>
       </c>
-      <c r="BY2" s="218"/>
-      <c r="BZ2" s="218"/>
-      <c r="CA2" s="218"/>
-      <c r="CB2" s="218"/>
-      <c r="CC2" s="218"/>
-      <c r="CD2" s="218"/>
-      <c r="CE2" s="218"/>
-      <c r="CF2" s="218"/>
-      <c r="CG2" s="218"/>
-      <c r="CH2" s="218"/>
-      <c r="CI2" s="218"/>
-      <c r="CJ2" s="218"/>
-      <c r="CK2" s="218"/>
-      <c r="CL2" s="218"/>
-      <c r="CM2" s="218"/>
-      <c r="CN2" s="218"/>
-      <c r="CO2" s="218"/>
-      <c r="CP2" s="218"/>
-      <c r="CQ2" s="218"/>
-      <c r="CR2" s="218"/>
-      <c r="CS2" s="218"/>
-      <c r="CT2" s="218"/>
-      <c r="CU2" s="218"/>
-      <c r="CV2" s="218"/>
-      <c r="CW2" s="218"/>
-      <c r="CX2" s="218"/>
-      <c r="CY2" s="218"/>
-      <c r="CZ2" s="218"/>
-      <c r="DA2" s="218"/>
-      <c r="DB2" s="219"/>
-      <c r="DC2" s="205" t="s">
+      <c r="BY2" s="220"/>
+      <c r="BZ2" s="220"/>
+      <c r="CA2" s="220"/>
+      <c r="CB2" s="220"/>
+      <c r="CC2" s="220"/>
+      <c r="CD2" s="220"/>
+      <c r="CE2" s="220"/>
+      <c r="CF2" s="220"/>
+      <c r="CG2" s="220"/>
+      <c r="CH2" s="220"/>
+      <c r="CI2" s="220"/>
+      <c r="CJ2" s="220"/>
+      <c r="CK2" s="220"/>
+      <c r="CL2" s="220"/>
+      <c r="CM2" s="220"/>
+      <c r="CN2" s="220"/>
+      <c r="CO2" s="220"/>
+      <c r="CP2" s="220"/>
+      <c r="CQ2" s="220"/>
+      <c r="CR2" s="220"/>
+      <c r="CS2" s="220"/>
+      <c r="CT2" s="220"/>
+      <c r="CU2" s="220"/>
+      <c r="CV2" s="220"/>
+      <c r="CW2" s="220"/>
+      <c r="CX2" s="220"/>
+      <c r="CY2" s="220"/>
+      <c r="CZ2" s="220"/>
+      <c r="DA2" s="220"/>
+      <c r="DB2" s="221"/>
+      <c r="DC2" s="207" t="s">
         <v>36</v>
       </c>
-      <c r="DD2" s="206"/>
-      <c r="DE2" s="206"/>
-      <c r="DF2" s="206"/>
-      <c r="DG2" s="206"/>
-      <c r="DH2" s="206"/>
-      <c r="DI2" s="206"/>
-      <c r="DJ2" s="206"/>
-      <c r="DK2" s="206"/>
-      <c r="DL2" s="206"/>
-      <c r="DM2" s="206"/>
-      <c r="DN2" s="206"/>
-      <c r="DO2" s="206"/>
-      <c r="DP2" s="206"/>
-      <c r="DQ2" s="206"/>
-      <c r="DR2" s="206"/>
-      <c r="DS2" s="206"/>
-      <c r="DT2" s="206"/>
-      <c r="DU2" s="206"/>
-      <c r="DV2" s="206"/>
-      <c r="DW2" s="206"/>
-      <c r="DX2" s="206"/>
-      <c r="DY2" s="206"/>
-      <c r="DZ2" s="206"/>
-      <c r="EA2" s="206"/>
-      <c r="EB2" s="206"/>
-      <c r="EC2" s="206"/>
-      <c r="ED2" s="206"/>
-      <c r="EE2" s="206"/>
-      <c r="EF2" s="206"/>
-      <c r="EG2" s="207"/>
+      <c r="DD2" s="208"/>
+      <c r="DE2" s="208"/>
+      <c r="DF2" s="208"/>
+      <c r="DG2" s="208"/>
+      <c r="DH2" s="208"/>
+      <c r="DI2" s="208"/>
+      <c r="DJ2" s="208"/>
+      <c r="DK2" s="208"/>
+      <c r="DL2" s="208"/>
+      <c r="DM2" s="208"/>
+      <c r="DN2" s="208"/>
+      <c r="DO2" s="208"/>
+      <c r="DP2" s="208"/>
+      <c r="DQ2" s="208"/>
+      <c r="DR2" s="208"/>
+      <c r="DS2" s="208"/>
+      <c r="DT2" s="208"/>
+      <c r="DU2" s="208"/>
+      <c r="DV2" s="208"/>
+      <c r="DW2" s="208"/>
+      <c r="DX2" s="208"/>
+      <c r="DY2" s="208"/>
+      <c r="DZ2" s="208"/>
+      <c r="EA2" s="208"/>
+      <c r="EB2" s="208"/>
+      <c r="EC2" s="208"/>
+      <c r="ED2" s="208"/>
+      <c r="EE2" s="208"/>
+      <c r="EF2" s="208"/>
+      <c r="EG2" s="209"/>
     </row>
     <row r="3" spans="1:138" s="21" customFormat="1" ht="16" thickBot="1">
       <c r="A3" s="20" t="s">
@@ -7324,6 +7330,12 @@
       <c r="B142" t="s">
         <v>237</v>
       </c>
+      <c r="C142">
+        <v>4</v>
+      </c>
+      <c r="E142">
+        <v>3</v>
+      </c>
       <c r="BS142" s="67"/>
       <c r="CA142" s="85"/>
       <c r="CB142" s="85"/>
@@ -8242,7 +8254,7 @@
       </c>
       <c r="CM174" s="67"/>
       <c r="CQ174" s="94"/>
-      <c r="DS174" s="220">
+      <c r="DS174" s="205">
         <v>1</v>
       </c>
       <c r="DW174" s="65"/>
@@ -8268,7 +8280,7 @@
       <c r="DK175" s="67"/>
       <c r="DL175" s="67"/>
       <c r="DU175" s="65"/>
-      <c r="DV175" s="221">
+      <c r="DV175" s="206">
         <v>2</v>
       </c>
       <c r="DW175" s="67"/>
@@ -8285,7 +8297,13 @@
       <c r="C176">
         <v>3</v>
       </c>
+      <c r="D176">
+        <v>3</v>
+      </c>
       <c r="E176">
+        <v>3</v>
+      </c>
+      <c r="F176">
         <v>3</v>
       </c>
       <c r="CM176" s="67"/>
@@ -8302,10 +8320,10 @@
         <v>125</v>
       </c>
       <c r="C177">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E177">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CM177" s="67"/>
       <c r="CQ177" s="94"/>
@@ -8336,6 +8354,24 @@
       <c r="DL178" s="67"/>
     </row>
     <row r="179" spans="1:116">
+      <c r="A179" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B179" s="92" t="s">
+        <v>241</v>
+      </c>
+      <c r="C179">
+        <v>3</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+      <c r="E179">
+        <v>7</v>
+      </c>
+      <c r="F179">
+        <v>3</v>
+      </c>
       <c r="CM179" s="67"/>
       <c r="CQ179" s="94"/>
     </row>
@@ -8440,10 +8476,10 @@
         <v>5</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU183" s="148"/>
       <c r="BB183" s="35"/>
@@ -8541,6 +8577,9 @@
       </c>
       <c r="E185">
         <v>4</v>
+      </c>
+      <c r="F185">
+        <v>3</v>
       </c>
       <c r="AT185" s="161">
         <v>1</v>
@@ -8588,19 +8627,19 @@
     <row r="188" spans="1:116">
       <c r="C188">
         <f>SUM(C4:C187)</f>
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D188">
         <f>SUM(D4:D187)</f>
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E188" s="66">
         <f>SUM(E4:E187)</f>
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="F188">
         <f>SUM(F4:F187)</f>
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="CM188" s="67"/>
       <c r="CQ188" s="6"/>

--- a/konzept/projektplan.xlsx
+++ b/konzept/projektplan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="244">
   <si>
     <t>#</t>
   </si>
@@ -400,9 +400,6 @@
     <t>Bildmaterial erarbeiten</t>
   </si>
   <si>
-    <t>Postproduktion</t>
-  </si>
-  <si>
     <t>Implementations-präsentationsfolien</t>
   </si>
   <si>
@@ -746,6 +743,15 @@
   </si>
   <si>
     <t>Prototyp für Live-Demo fortführen</t>
+  </si>
+  <si>
+    <t>Live Demo vorbereiten</t>
+  </si>
+  <si>
+    <t>Text erarbeiten</t>
+  </si>
+  <si>
+    <t>Ton und Schnitt</t>
   </si>
 </sst>
 </file>
@@ -861,7 +867,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="31">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1040,6 +1046,18 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1827,7 +1845,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2068,7 +2086,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2126,181 +2143,185 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="173">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2632,10 +2653,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EH319"/>
+  <dimension ref="A1:EH320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="E179" sqref="E179"/>
+    <sheetView tabSelected="1" topLeftCell="BQ156" workbookViewId="0">
+      <selection activeCell="DY156" sqref="DY156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2860,155 +2881,155 @@
       <c r="EH1" s="45"/>
     </row>
     <row r="2" spans="1:138">
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="212" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213" t="s">
+      <c r="D2" s="212"/>
+      <c r="E2" s="212" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="214"/>
-      <c r="G2" s="210" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
-      <c r="L2" s="211"/>
-      <c r="M2" s="211"/>
-      <c r="N2" s="212"/>
-      <c r="O2" s="215" t="s">
+      <c r="F2" s="213"/>
+      <c r="G2" s="209" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="211"/>
+      <c r="O2" s="214" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="216"/>
-      <c r="Q2" s="216"/>
-      <c r="R2" s="216"/>
-      <c r="S2" s="216"/>
-      <c r="T2" s="216"/>
-      <c r="U2" s="216"/>
-      <c r="V2" s="216"/>
-      <c r="W2" s="216"/>
-      <c r="X2" s="216"/>
-      <c r="Y2" s="216"/>
-      <c r="Z2" s="216"/>
-      <c r="AA2" s="216"/>
-      <c r="AB2" s="216"/>
-      <c r="AC2" s="216"/>
-      <c r="AD2" s="216"/>
-      <c r="AE2" s="216"/>
-      <c r="AF2" s="216"/>
-      <c r="AG2" s="216"/>
-      <c r="AH2" s="216"/>
-      <c r="AI2" s="216"/>
-      <c r="AJ2" s="216"/>
-      <c r="AK2" s="216"/>
-      <c r="AL2" s="216"/>
-      <c r="AM2" s="216"/>
-      <c r="AN2" s="216"/>
-      <c r="AO2" s="216"/>
-      <c r="AP2" s="216"/>
-      <c r="AQ2" s="216"/>
-      <c r="AR2" s="216"/>
-      <c r="AS2" s="217"/>
-      <c r="AT2" s="207" t="s">
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="215"/>
+      <c r="U2" s="215"/>
+      <c r="V2" s="215"/>
+      <c r="W2" s="215"/>
+      <c r="X2" s="215"/>
+      <c r="Y2" s="215"/>
+      <c r="Z2" s="215"/>
+      <c r="AA2" s="215"/>
+      <c r="AB2" s="215"/>
+      <c r="AC2" s="215"/>
+      <c r="AD2" s="215"/>
+      <c r="AE2" s="215"/>
+      <c r="AF2" s="215"/>
+      <c r="AG2" s="215"/>
+      <c r="AH2" s="215"/>
+      <c r="AI2" s="215"/>
+      <c r="AJ2" s="215"/>
+      <c r="AK2" s="215"/>
+      <c r="AL2" s="215"/>
+      <c r="AM2" s="215"/>
+      <c r="AN2" s="215"/>
+      <c r="AO2" s="215"/>
+      <c r="AP2" s="215"/>
+      <c r="AQ2" s="215"/>
+      <c r="AR2" s="215"/>
+      <c r="AS2" s="216"/>
+      <c r="AT2" s="206" t="s">
         <v>34</v>
       </c>
-      <c r="AU2" s="208"/>
-      <c r="AV2" s="208"/>
-      <c r="AW2" s="208"/>
-      <c r="AX2" s="208"/>
-      <c r="AY2" s="208"/>
-      <c r="AZ2" s="208"/>
-      <c r="BA2" s="208"/>
-      <c r="BB2" s="208"/>
-      <c r="BC2" s="208"/>
-      <c r="BD2" s="208"/>
-      <c r="BE2" s="208"/>
-      <c r="BF2" s="208"/>
-      <c r="BG2" s="208"/>
-      <c r="BH2" s="208"/>
-      <c r="BI2" s="208"/>
-      <c r="BJ2" s="208"/>
-      <c r="BK2" s="208"/>
-      <c r="BL2" s="208"/>
-      <c r="BM2" s="208"/>
-      <c r="BN2" s="208"/>
-      <c r="BO2" s="208"/>
-      <c r="BP2" s="208"/>
-      <c r="BQ2" s="208"/>
-      <c r="BR2" s="208"/>
-      <c r="BS2" s="208"/>
-      <c r="BT2" s="208"/>
-      <c r="BU2" s="208"/>
-      <c r="BV2" s="208"/>
-      <c r="BW2" s="218"/>
-      <c r="BX2" s="219" t="s">
+      <c r="AU2" s="207"/>
+      <c r="AV2" s="207"/>
+      <c r="AW2" s="207"/>
+      <c r="AX2" s="207"/>
+      <c r="AY2" s="207"/>
+      <c r="AZ2" s="207"/>
+      <c r="BA2" s="207"/>
+      <c r="BB2" s="207"/>
+      <c r="BC2" s="207"/>
+      <c r="BD2" s="207"/>
+      <c r="BE2" s="207"/>
+      <c r="BF2" s="207"/>
+      <c r="BG2" s="207"/>
+      <c r="BH2" s="207"/>
+      <c r="BI2" s="207"/>
+      <c r="BJ2" s="207"/>
+      <c r="BK2" s="207"/>
+      <c r="BL2" s="207"/>
+      <c r="BM2" s="207"/>
+      <c r="BN2" s="207"/>
+      <c r="BO2" s="207"/>
+      <c r="BP2" s="207"/>
+      <c r="BQ2" s="207"/>
+      <c r="BR2" s="207"/>
+      <c r="BS2" s="207"/>
+      <c r="BT2" s="207"/>
+      <c r="BU2" s="207"/>
+      <c r="BV2" s="207"/>
+      <c r="BW2" s="217"/>
+      <c r="BX2" s="218" t="s">
         <v>35</v>
       </c>
-      <c r="BY2" s="220"/>
-      <c r="BZ2" s="220"/>
-      <c r="CA2" s="220"/>
-      <c r="CB2" s="220"/>
-      <c r="CC2" s="220"/>
-      <c r="CD2" s="220"/>
-      <c r="CE2" s="220"/>
-      <c r="CF2" s="220"/>
-      <c r="CG2" s="220"/>
-      <c r="CH2" s="220"/>
-      <c r="CI2" s="220"/>
-      <c r="CJ2" s="220"/>
-      <c r="CK2" s="220"/>
-      <c r="CL2" s="220"/>
-      <c r="CM2" s="220"/>
-      <c r="CN2" s="220"/>
-      <c r="CO2" s="220"/>
-      <c r="CP2" s="220"/>
-      <c r="CQ2" s="220"/>
-      <c r="CR2" s="220"/>
-      <c r="CS2" s="220"/>
-      <c r="CT2" s="220"/>
-      <c r="CU2" s="220"/>
-      <c r="CV2" s="220"/>
-      <c r="CW2" s="220"/>
-      <c r="CX2" s="220"/>
-      <c r="CY2" s="220"/>
-      <c r="CZ2" s="220"/>
-      <c r="DA2" s="220"/>
-      <c r="DB2" s="221"/>
-      <c r="DC2" s="207" t="s">
+      <c r="BY2" s="219"/>
+      <c r="BZ2" s="219"/>
+      <c r="CA2" s="219"/>
+      <c r="CB2" s="219"/>
+      <c r="CC2" s="219"/>
+      <c r="CD2" s="219"/>
+      <c r="CE2" s="219"/>
+      <c r="CF2" s="219"/>
+      <c r="CG2" s="219"/>
+      <c r="CH2" s="219"/>
+      <c r="CI2" s="219"/>
+      <c r="CJ2" s="219"/>
+      <c r="CK2" s="219"/>
+      <c r="CL2" s="219"/>
+      <c r="CM2" s="219"/>
+      <c r="CN2" s="219"/>
+      <c r="CO2" s="219"/>
+      <c r="CP2" s="219"/>
+      <c r="CQ2" s="219"/>
+      <c r="CR2" s="219"/>
+      <c r="CS2" s="219"/>
+      <c r="CT2" s="219"/>
+      <c r="CU2" s="219"/>
+      <c r="CV2" s="219"/>
+      <c r="CW2" s="219"/>
+      <c r="CX2" s="219"/>
+      <c r="CY2" s="219"/>
+      <c r="CZ2" s="219"/>
+      <c r="DA2" s="219"/>
+      <c r="DB2" s="220"/>
+      <c r="DC2" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="DD2" s="208"/>
-      <c r="DE2" s="208"/>
-      <c r="DF2" s="208"/>
-      <c r="DG2" s="208"/>
-      <c r="DH2" s="208"/>
-      <c r="DI2" s="208"/>
-      <c r="DJ2" s="208"/>
-      <c r="DK2" s="208"/>
-      <c r="DL2" s="208"/>
-      <c r="DM2" s="208"/>
-      <c r="DN2" s="208"/>
-      <c r="DO2" s="208"/>
-      <c r="DP2" s="208"/>
-      <c r="DQ2" s="208"/>
-      <c r="DR2" s="208"/>
-      <c r="DS2" s="208"/>
-      <c r="DT2" s="208"/>
-      <c r="DU2" s="208"/>
-      <c r="DV2" s="208"/>
-      <c r="DW2" s="208"/>
-      <c r="DX2" s="208"/>
-      <c r="DY2" s="208"/>
-      <c r="DZ2" s="208"/>
-      <c r="EA2" s="208"/>
-      <c r="EB2" s="208"/>
-      <c r="EC2" s="208"/>
-      <c r="ED2" s="208"/>
-      <c r="EE2" s="208"/>
-      <c r="EF2" s="208"/>
-      <c r="EG2" s="209"/>
+      <c r="DD2" s="207"/>
+      <c r="DE2" s="207"/>
+      <c r="DF2" s="207"/>
+      <c r="DG2" s="207"/>
+      <c r="DH2" s="207"/>
+      <c r="DI2" s="207"/>
+      <c r="DJ2" s="207"/>
+      <c r="DK2" s="207"/>
+      <c r="DL2" s="207"/>
+      <c r="DM2" s="207"/>
+      <c r="DN2" s="207"/>
+      <c r="DO2" s="207"/>
+      <c r="DP2" s="207"/>
+      <c r="DQ2" s="207"/>
+      <c r="DR2" s="207"/>
+      <c r="DS2" s="207"/>
+      <c r="DT2" s="207"/>
+      <c r="DU2" s="207"/>
+      <c r="DV2" s="207"/>
+      <c r="DW2" s="207"/>
+      <c r="DX2" s="207"/>
+      <c r="DY2" s="207"/>
+      <c r="DZ2" s="207"/>
+      <c r="EA2" s="207"/>
+      <c r="EB2" s="207"/>
+      <c r="EC2" s="207"/>
+      <c r="ED2" s="207"/>
+      <c r="EE2" s="207"/>
+      <c r="EF2" s="207"/>
+      <c r="EG2" s="208"/>
     </row>
     <row r="3" spans="1:138" s="21" customFormat="1" ht="16" thickBot="1">
       <c r="A3" s="20" t="s">
@@ -3432,16 +3453,16 @@
         <v>47</v>
       </c>
       <c r="C4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" t="s">
         <v>146</v>
       </c>
-      <c r="D4" t="s">
-        <v>147</v>
-      </c>
       <c r="E4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" t="s">
         <v>146</v>
-      </c>
-      <c r="F4" t="s">
-        <v>147</v>
       </c>
       <c r="G4" s="49"/>
       <c r="H4" s="14"/>
@@ -3679,16 +3700,16 @@
         <v>55</v>
       </c>
       <c r="C10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" t="s">
         <v>149</v>
       </c>
-      <c r="D10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>150</v>
-      </c>
-      <c r="F10" t="s">
-        <v>151</v>
       </c>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
@@ -4189,22 +4210,22 @@
     </row>
     <row r="27" spans="1:95" ht="16" thickBot="1">
       <c r="A27" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="109" t="s">
         <v>129</v>
       </c>
-      <c r="B27" s="109" t="s">
-        <v>130</v>
-      </c>
       <c r="C27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AM27" s="67"/>
       <c r="AV27" s="35"/>
@@ -4244,7 +4265,7 @@
     <row r="29" spans="1:95">
       <c r="A29" s="78"/>
       <c r="B29" s="110" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -4329,7 +4350,7 @@
     <row r="32" spans="1:95">
       <c r="A32" s="78"/>
       <c r="B32" s="110" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -4441,7 +4462,7 @@
     <row r="36" spans="1:116" ht="16" thickBot="1">
       <c r="A36" s="78"/>
       <c r="B36" s="110" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -4558,7 +4579,7 @@
     <row r="40" spans="1:116">
       <c r="A40" s="78"/>
       <c r="B40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AR40" s="117"/>
       <c r="AS40" s="118"/>
@@ -4593,7 +4614,7 @@
     <row r="41" spans="1:116">
       <c r="A41" s="78"/>
       <c r="B41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AR41" s="117"/>
       <c r="AS41" s="118"/>
@@ -4648,7 +4669,7 @@
     <row r="42" spans="1:116">
       <c r="A42" s="78"/>
       <c r="B42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AR42" s="117"/>
       <c r="AS42" s="118"/>
@@ -4735,7 +4756,7 @@
     </row>
     <row r="45" spans="1:116" ht="16" thickBot="1">
       <c r="B45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -4765,7 +4786,7 @@
     </row>
     <row r="46" spans="1:116" ht="16" thickBot="1">
       <c r="B46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -4798,7 +4819,7 @@
     </row>
     <row r="47" spans="1:116" ht="16" thickBot="1">
       <c r="B47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AT47" s="70"/>
       <c r="AU47" s="77"/>
@@ -4815,7 +4836,7 @@
     </row>
     <row r="48" spans="1:116" ht="18" customHeight="1" thickBot="1">
       <c r="B48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4863,7 +4884,7 @@
         <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AW50" s="67"/>
       <c r="AX50" s="67"/>
@@ -4883,7 +4904,7 @@
     </row>
     <row r="51" spans="1:105" ht="16" thickBot="1">
       <c r="B51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -4909,7 +4930,7 @@
       <c r="BP51" s="179">
         <v>4</v>
       </c>
-      <c r="BQ51" s="195">
+      <c r="BQ51" s="194">
         <v>2</v>
       </c>
       <c r="BS51" s="67"/>
@@ -4928,7 +4949,7 @@
     </row>
     <row r="52" spans="1:105" ht="31" thickBot="1">
       <c r="B52" s="92" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -4994,7 +5015,7 @@
     </row>
     <row r="54" spans="1:105" ht="16" thickBot="1">
       <c r="B54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -5038,7 +5059,7 @@
     </row>
     <row r="55" spans="1:105" ht="16" thickBot="1">
       <c r="B55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -5081,7 +5102,7 @@
     </row>
     <row r="56" spans="1:105" ht="16" thickBot="1">
       <c r="B56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -5099,8 +5120,8 @@
       <c r="AX56" s="67"/>
       <c r="AY56" s="67"/>
       <c r="AZ56" s="67"/>
-      <c r="BB56" s="202"/>
-      <c r="BC56" s="200"/>
+      <c r="BB56" s="201"/>
+      <c r="BC56" s="199"/>
       <c r="BD56" s="137"/>
       <c r="BK56" s="67"/>
       <c r="BN56" s="67"/>
@@ -5109,7 +5130,7 @@
       <c r="BT56" s="67"/>
       <c r="BU56" s="67"/>
       <c r="BV56" s="67"/>
-      <c r="BW56" s="199">
+      <c r="BW56" s="198">
         <v>4</v>
       </c>
       <c r="BX56" s="187"/>
@@ -5125,7 +5146,7 @@
     </row>
     <row r="57" spans="1:105">
       <c r="B57" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -5143,9 +5164,9 @@
       <c r="AX57" s="67"/>
       <c r="AY57" s="67"/>
       <c r="AZ57" s="67"/>
-      <c r="BB57" s="203"/>
+      <c r="BB57" s="202"/>
       <c r="BC57" s="124"/>
-      <c r="BD57" s="204"/>
+      <c r="BD57" s="203"/>
       <c r="BE57" s="130"/>
       <c r="BK57" s="67"/>
       <c r="BN57" s="67"/>
@@ -5171,7 +5192,7 @@
     </row>
     <row r="58" spans="1:105" ht="16" thickBot="1">
       <c r="B58" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -5186,9 +5207,9 @@
         <v>0</v>
       </c>
       <c r="AW58" s="67"/>
-      <c r="BB58" s="203"/>
+      <c r="BB58" s="202"/>
       <c r="BC58" s="124"/>
-      <c r="BD58" s="201"/>
+      <c r="BD58" s="200"/>
       <c r="BE58" s="130"/>
       <c r="BK58" s="67"/>
       <c r="BL58" s="67"/>
@@ -5239,10 +5260,10 @@
     </row>
     <row r="60" spans="1:105" ht="31" thickBot="1">
       <c r="A60" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B60" s="92" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -5285,13 +5306,13 @@
       <c r="CR60" s="145">
         <v>3</v>
       </c>
-      <c r="CS60" s="196">
+      <c r="CS60" s="195">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:105" ht="16" thickBot="1">
       <c r="B61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -5336,7 +5357,7 @@
       <c r="CY61" s="176">
         <v>2</v>
       </c>
-      <c r="CZ61" s="197">
+      <c r="CZ61" s="196">
         <v>1</v>
       </c>
     </row>
@@ -5371,7 +5392,7 @@
         <v>85</v>
       </c>
       <c r="B63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -5423,7 +5444,7 @@
     </row>
     <row r="64" spans="1:105" ht="16" thickBot="1">
       <c r="B64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -5467,7 +5488,7 @@
     </row>
     <row r="65" spans="1:108" ht="16" thickBot="1">
       <c r="B65" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -5538,7 +5559,7 @@
         <v>104</v>
       </c>
       <c r="B67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BA67" s="67"/>
       <c r="BH67" s="67"/>
@@ -5562,7 +5583,7 @@
     </row>
     <row r="68" spans="1:108" ht="16" thickBot="1">
       <c r="B68" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BA68" s="67"/>
       <c r="BI68" s="35"/>
@@ -5587,7 +5608,7 @@
     </row>
     <row r="69" spans="1:108" ht="16" thickBot="1">
       <c r="B69" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -5626,7 +5647,7 @@
     </row>
     <row r="70" spans="1:108" ht="31" thickBot="1">
       <c r="B70" s="92" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -5664,7 +5685,7 @@
     </row>
     <row r="71" spans="1:108" ht="16" thickBot="1">
       <c r="B71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -5721,7 +5742,7 @@
     </row>
     <row r="73" spans="1:108" ht="16" thickBot="1">
       <c r="B73" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BA73" s="67"/>
       <c r="BK73" s="73"/>
@@ -5746,7 +5767,7 @@
     </row>
     <row r="74" spans="1:108" ht="16" thickBot="1">
       <c r="B74" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -5787,7 +5808,7 @@
     </row>
     <row r="75" spans="1:108" ht="31" thickBot="1">
       <c r="B75" s="92" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -5822,7 +5843,7 @@
     </row>
     <row r="76" spans="1:108" ht="31" thickBot="1">
       <c r="B76" s="92" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -5880,7 +5901,7 @@
     </row>
     <row r="78" spans="1:108" ht="16" thickBot="1">
       <c r="B78" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -5932,7 +5953,7 @@
     </row>
     <row r="80" spans="1:108" ht="16" thickBot="1">
       <c r="A80" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B80" t="s">
         <v>100</v>
@@ -5954,7 +5975,7 @@
     </row>
     <row r="81" spans="2:111" ht="16" thickBot="1">
       <c r="B81" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -5988,7 +6009,7 @@
     </row>
     <row r="82" spans="2:111" ht="16" thickBot="1">
       <c r="B82" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -6023,7 +6044,7 @@
     </row>
     <row r="83" spans="2:111" ht="31" thickBot="1">
       <c r="B83" s="92" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -6058,7 +6079,7 @@
     </row>
     <row r="84" spans="2:111">
       <c r="B84" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -6093,7 +6114,7 @@
     </row>
     <row r="85" spans="2:111" ht="31" thickBot="1">
       <c r="B85" s="92" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -6128,7 +6149,7 @@
     </row>
     <row r="86" spans="2:111" ht="16" thickBot="1">
       <c r="B86" s="92" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -6163,7 +6184,7 @@
     </row>
     <row r="87" spans="2:111" ht="16" thickBot="1">
       <c r="B87" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -6215,7 +6236,7 @@
     </row>
     <row r="89" spans="2:111" ht="16" thickBot="1">
       <c r="B89" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BO89" s="67"/>
       <c r="CF89" s="67"/>
@@ -6229,7 +6250,7 @@
     </row>
     <row r="90" spans="2:111" ht="16" thickBot="1">
       <c r="B90" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -6268,7 +6289,7 @@
     </row>
     <row r="92" spans="2:111" ht="16" thickBot="1">
       <c r="B92" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -6293,7 +6314,7 @@
     </row>
     <row r="93" spans="2:111" ht="16" thickBot="1">
       <c r="B93" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -6318,7 +6339,7 @@
     </row>
     <row r="94" spans="2:111" ht="16" thickBot="1">
       <c r="B94" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -6343,7 +6364,7 @@
     </row>
     <row r="95" spans="2:111" ht="16" thickBot="1">
       <c r="B95" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -6368,7 +6389,7 @@
     </row>
     <row r="96" spans="2:111" ht="16" thickBot="1">
       <c r="B96" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -6391,7 +6412,7 @@
     </row>
     <row r="98" spans="1:112" ht="16" thickBot="1">
       <c r="B98" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -6411,7 +6432,7 @@
     </row>
     <row r="100" spans="1:112" ht="31" thickBot="1">
       <c r="B100" s="92" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="CM100" s="67"/>
       <c r="CQ100" s="6"/>
@@ -6424,7 +6445,7 @@
     </row>
     <row r="101" spans="1:112" ht="16" thickBot="1">
       <c r="B101" s="92" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="CM101" s="67"/>
       <c r="CQ101" s="6"/>
@@ -6498,7 +6519,7 @@
     </row>
     <row r="106" spans="1:112">
       <c r="B106" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C106">
         <v>3</v>
@@ -6522,7 +6543,7 @@
     </row>
     <row r="107" spans="1:112">
       <c r="B107" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -6546,7 +6567,7 @@
     </row>
     <row r="108" spans="1:112">
       <c r="B108" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C108">
         <v>8</v>
@@ -6570,7 +6591,7 @@
     </row>
     <row r="109" spans="1:112">
       <c r="B109" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -6636,7 +6657,7 @@
     </row>
     <row r="112" spans="1:112">
       <c r="B112" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C112">
         <v>5</v>
@@ -6660,7 +6681,7 @@
     </row>
     <row r="113" spans="1:95">
       <c r="B113" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C113">
         <v>3</v>
@@ -6726,7 +6747,7 @@
     </row>
     <row r="116" spans="1:95">
       <c r="B116" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C116">
         <v>2</v>
@@ -6750,7 +6771,7 @@
     </row>
     <row r="117" spans="1:95">
       <c r="B117" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C117">
         <v>3</v>
@@ -6818,7 +6839,7 @@
     </row>
     <row r="120" spans="1:95">
       <c r="B120" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C120">
         <v>2</v>
@@ -6842,7 +6863,7 @@
     </row>
     <row r="121" spans="1:95">
       <c r="B121" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C121">
         <v>10</v>
@@ -6908,7 +6929,7 @@
     </row>
     <row r="124" spans="1:95">
       <c r="B124" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C124">
         <v>2</v>
@@ -6932,7 +6953,7 @@
     </row>
     <row r="125" spans="1:95">
       <c r="B125" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C125">
         <v>3</v>
@@ -6984,10 +7005,10 @@
     </row>
     <row r="127" spans="1:95">
       <c r="A127" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B127" t="s">
         <v>210</v>
-      </c>
-      <c r="B127" t="s">
-        <v>211</v>
       </c>
       <c r="C127">
         <v>3</v>
@@ -7084,10 +7105,10 @@
     </row>
     <row r="131" spans="1:123">
       <c r="A131" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B131" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BS131" s="67"/>
       <c r="CM131" s="67"/>
@@ -7095,7 +7116,7 @@
     </row>
     <row r="132" spans="1:123">
       <c r="B132" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -7119,7 +7140,7 @@
     </row>
     <row r="133" spans="1:123">
       <c r="B133" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C133">
         <v>2</v>
@@ -7143,7 +7164,7 @@
     </row>
     <row r="134" spans="1:123">
       <c r="B134" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C134">
         <v>5</v>
@@ -7166,7 +7187,7 @@
     </row>
     <row r="135" spans="1:123">
       <c r="B135" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C135">
         <v>4</v>
@@ -7190,7 +7211,7 @@
     </row>
     <row r="136" spans="1:123">
       <c r="B136" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C136">
         <v>4</v>
@@ -7212,7 +7233,7 @@
     </row>
     <row r="137" spans="1:123">
       <c r="B137" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -7236,7 +7257,7 @@
     </row>
     <row r="138" spans="1:123">
       <c r="B138" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C138">
         <v>3</v>
@@ -7257,7 +7278,7 @@
     </row>
     <row r="139" spans="1:123">
       <c r="B139" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C139">
         <v>3</v>
@@ -7277,7 +7298,7 @@
     </row>
     <row r="140" spans="1:123">
       <c r="B140" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C140">
         <v>2</v>
@@ -7298,7 +7319,7 @@
     </row>
     <row r="141" spans="1:123">
       <c r="B141" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C141">
         <v>10</v>
@@ -7328,7 +7349,7 @@
     </row>
     <row r="142" spans="1:123">
       <c r="B142" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C142">
         <v>4</v>
@@ -7349,17 +7370,17 @@
     </row>
     <row r="143" spans="1:123">
       <c r="A143" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B143" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="CM143" s="67"/>
       <c r="CQ143" s="6"/>
     </row>
     <row r="144" spans="1:123">
       <c r="B144" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C144">
         <v>5</v>
@@ -7383,7 +7404,7 @@
     </row>
     <row r="145" spans="1:123">
       <c r="B145" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="BS145" s="67"/>
       <c r="CM145" s="67"/>
@@ -7391,7 +7412,7 @@
     </row>
     <row r="146" spans="1:123">
       <c r="B146" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="BS146" s="67"/>
       <c r="CM146" s="67"/>
@@ -7399,7 +7420,7 @@
     </row>
     <row r="147" spans="1:123">
       <c r="B147" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C147">
         <v>5</v>
@@ -7418,17 +7439,17 @@
     </row>
     <row r="148" spans="1:123">
       <c r="A148" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B148" t="s">
         <v>215</v>
-      </c>
-      <c r="B148" t="s">
-        <v>216</v>
       </c>
       <c r="CM148" s="67"/>
       <c r="CQ148" s="6"/>
     </row>
     <row r="149" spans="1:123">
       <c r="B149" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C149">
         <v>3</v>
@@ -7448,7 +7469,7 @@
     </row>
     <row r="150" spans="1:123">
       <c r="B150" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -7469,7 +7490,7 @@
     </row>
     <row r="151" spans="1:123">
       <c r="B151" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C151">
         <v>5</v>
@@ -7490,7 +7511,7 @@
     </row>
     <row r="152" spans="1:123">
       <c r="B152" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -7512,7 +7533,7 @@
     </row>
     <row r="153" spans="1:123">
       <c r="B153" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C153">
         <v>2</v>
@@ -7533,7 +7554,7 @@
     </row>
     <row r="154" spans="1:123">
       <c r="B154" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -7555,7 +7576,7 @@
     </row>
     <row r="155" spans="1:123">
       <c r="B155" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C155">
         <v>2</v>
@@ -7578,7 +7599,7 @@
     </row>
     <row r="156" spans="1:123">
       <c r="B156" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C156">
         <v>8</v>
@@ -7604,7 +7625,7 @@
     </row>
     <row r="157" spans="1:123">
       <c r="B157" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C157">
         <v>2</v>
@@ -7802,7 +7823,7 @@
         <v>96</v>
       </c>
       <c r="B162" s="92" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C162">
         <v>10</v>
@@ -7873,20 +7894,19 @@
       <c r="DJ162" s="67"/>
       <c r="DK162" s="75"/>
       <c r="DL162" s="159"/>
-      <c r="DM162" s="128"/>
-      <c r="DT162" s="198">
-        <v>3</v>
-      </c>
-      <c r="DU162" s="198">
-        <v>3</v>
-      </c>
-      <c r="DV162" s="198">
+      <c r="DM162" s="221">
+        <v>3</v>
+      </c>
+      <c r="DN162" s="197">
+        <v>3</v>
+      </c>
+      <c r="DO162" s="197">
         <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:138">
       <c r="B163" s="92" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -7933,10 +7953,10 @@
     </row>
     <row r="164" spans="1:138">
       <c r="A164" s="190" t="s">
+        <v>195</v>
+      </c>
+      <c r="B164" s="189" t="s">
         <v>196</v>
-      </c>
-      <c r="B164" s="189" t="s">
-        <v>197</v>
       </c>
       <c r="C164" s="189"/>
       <c r="D164" s="189"/>
@@ -7958,7 +7978,7 @@
     <row r="165" spans="1:138">
       <c r="A165" s="190"/>
       <c r="B165" s="189" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C165" s="189">
         <v>2</v>
@@ -7990,7 +8010,7 @@
     <row r="166" spans="1:138">
       <c r="A166" s="190"/>
       <c r="B166" s="189" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C166" s="189">
         <v>2</v>
@@ -8012,10 +8032,11 @@
       <c r="CM166" s="4"/>
       <c r="CQ166" s="94"/>
       <c r="DB166" s="4"/>
+      <c r="DN166" s="197">
+        <v>1</v>
+      </c>
       <c r="DO166" s="94"/>
-      <c r="DU166" s="194">
-        <v>1</v>
-      </c>
+      <c r="DU166" s="223"/>
       <c r="DV166" s="94"/>
       <c r="EG166" s="4"/>
       <c r="EH166" s="191"/>
@@ -8023,7 +8044,7 @@
     <row r="167" spans="1:138">
       <c r="A167" s="190"/>
       <c r="B167" s="189" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C167" s="189">
         <v>1</v>
@@ -8045,10 +8066,11 @@
       <c r="CM167" s="4"/>
       <c r="CQ167" s="94"/>
       <c r="DB167" s="4"/>
+      <c r="DN167" s="197">
+        <v>1</v>
+      </c>
       <c r="DO167" s="94"/>
-      <c r="DU167" s="194">
-        <v>1</v>
-      </c>
+      <c r="DU167" s="223"/>
       <c r="DV167" s="94"/>
       <c r="EG167" s="4"/>
       <c r="EH167" s="191"/>
@@ -8056,7 +8078,7 @@
     <row r="168" spans="1:138">
       <c r="A168" s="190"/>
       <c r="B168" s="189" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C168" s="189">
         <v>2</v>
@@ -8078,10 +8100,10 @@
       <c r="CM168" s="4"/>
       <c r="CQ168" s="94"/>
       <c r="DB168" s="4"/>
-      <c r="DO168" s="94"/>
-      <c r="DV168" s="194">
-        <v>1</v>
-      </c>
+      <c r="DO168" s="222">
+        <v>1</v>
+      </c>
+      <c r="DV168" s="224"/>
       <c r="EG168" s="4"/>
       <c r="EH168" s="191"/>
     </row>
@@ -8209,7 +8231,7 @@
         <v>117</v>
       </c>
       <c r="B173" s="92" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C173">
         <v>3</v>
@@ -8238,7 +8260,7 @@
         <v>119</v>
       </c>
       <c r="B174" s="92" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -8254,7 +8276,7 @@
       </c>
       <c r="CM174" s="67"/>
       <c r="CQ174" s="94"/>
-      <c r="DS174" s="205">
+      <c r="DS174" s="204">
         <v>1</v>
       </c>
       <c r="DW174" s="65"/>
@@ -8266,7 +8288,7 @@
     </row>
     <row r="175" spans="1:138">
       <c r="A175" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B175" t="s">
         <v>123</v>
@@ -8280,9 +8302,7 @@
       <c r="DK175" s="67"/>
       <c r="DL175" s="67"/>
       <c r="DU175" s="65"/>
-      <c r="DV175" s="206">
-        <v>2</v>
-      </c>
+      <c r="DV175" s="205"/>
       <c r="DW175" s="67"/>
       <c r="DX175" s="65"/>
       <c r="DY175" s="65"/>
@@ -8314,16 +8334,25 @@
       <c r="DH176" s="67"/>
       <c r="DK176" s="67"/>
       <c r="DL176" s="67"/>
-    </row>
-    <row r="177" spans="1:116">
+      <c r="DV176" s="204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:132">
       <c r="B177" s="92" t="s">
         <v>125</v>
       </c>
       <c r="C177">
         <v>7</v>
       </c>
+      <c r="D177">
+        <v>12</v>
+      </c>
       <c r="E177">
         <v>1</v>
+      </c>
+      <c r="F177">
+        <v>8</v>
       </c>
       <c r="CM177" s="67"/>
       <c r="CQ177" s="94"/>
@@ -8333,15 +8362,30 @@
       <c r="DH177" s="67"/>
       <c r="DK177" s="67"/>
       <c r="DL177" s="67"/>
-    </row>
-    <row r="178" spans="1:116">
+      <c r="DW177" s="204">
+        <v>1</v>
+      </c>
+      <c r="DY177" s="204">
+        <v>7</v>
+      </c>
+      <c r="DZ177" s="204">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:132">
       <c r="B178" s="92" t="s">
-        <v>126</v>
+        <v>242</v>
       </c>
       <c r="C178">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="D178">
+        <v>2</v>
       </c>
       <c r="E178">
+        <v>2</v>
+      </c>
+      <c r="F178">
         <v>2</v>
       </c>
       <c r="CM178" s="67"/>
@@ -8352,328 +8396,376 @@
       <c r="DH178" s="67"/>
       <c r="DK178" s="67"/>
       <c r="DL178" s="67"/>
-    </row>
-    <row r="179" spans="1:116">
-      <c r="A179" s="1" t="s">
-        <v>240</v>
-      </c>
+      <c r="DW178" s="204">
+        <v>2</v>
+      </c>
+      <c r="DZ178" s="204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:132">
       <c r="B179" s="92" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C179">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D179">
         <v>1</v>
       </c>
       <c r="E179">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F179">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CM179" s="67"/>
       <c r="CQ179" s="94"/>
-    </row>
-    <row r="180" spans="1:116">
+      <c r="DA179" s="67"/>
+      <c r="DD179" s="67"/>
+      <c r="DE179" s="67"/>
+      <c r="DH179" s="67"/>
+      <c r="DK179" s="67"/>
+      <c r="DL179" s="67"/>
+      <c r="DY179" s="204">
+        <v>1</v>
+      </c>
+      <c r="DZ179" s="204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:132">
+      <c r="A180" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B180" s="92" t="s">
+        <v>240</v>
+      </c>
+      <c r="C180">
+        <v>3</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+      <c r="E180">
+        <v>7</v>
+      </c>
+      <c r="F180">
+        <v>3</v>
+      </c>
       <c r="CM180" s="67"/>
       <c r="CQ180" s="94"/>
     </row>
-    <row r="181" spans="1:116">
+    <row r="181" spans="1:132">
+      <c r="B181" s="92" t="s">
+        <v>241</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
       <c r="CM181" s="67"/>
-      <c r="CQ181" s="6"/>
-    </row>
-    <row r="182" spans="1:116" ht="16" thickBot="1">
-      <c r="A182" s="100" t="s">
+      <c r="CQ181" s="94"/>
+      <c r="DV181" s="204"/>
+      <c r="DX181" s="204">
+        <v>1</v>
+      </c>
+      <c r="EB181" s="204"/>
+    </row>
+    <row r="182" spans="1:132">
+      <c r="CM182" s="67"/>
+      <c r="CQ182" s="6"/>
+    </row>
+    <row r="183" spans="1:132" ht="16" thickBot="1">
+      <c r="A183" s="100" t="s">
+        <v>138</v>
+      </c>
+      <c r="B183" s="114" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR183" s="88"/>
+      <c r="AS183" s="89"/>
+      <c r="AT183" s="151"/>
+      <c r="AU183" s="88"/>
+      <c r="AV183" s="88"/>
+      <c r="AW183" s="88"/>
+      <c r="AX183" s="88"/>
+      <c r="AY183" s="88"/>
+      <c r="AZ183" s="88"/>
+      <c r="BA183" s="88"/>
+      <c r="BB183" s="88"/>
+      <c r="BC183" s="136"/>
+      <c r="BD183" s="91"/>
+      <c r="BE183" s="88"/>
+      <c r="BF183" s="88"/>
+      <c r="BG183" s="88"/>
+      <c r="BH183" s="152"/>
+      <c r="BI183" s="88"/>
+      <c r="BJ183" s="88"/>
+      <c r="BK183" s="88"/>
+      <c r="BL183" s="88"/>
+      <c r="BM183" s="88"/>
+      <c r="BN183" s="88"/>
+      <c r="BO183" s="88"/>
+      <c r="BP183" s="88"/>
+      <c r="BQ183" s="88"/>
+      <c r="BR183" s="88"/>
+      <c r="BS183" s="88"/>
+      <c r="BT183" s="88"/>
+      <c r="BU183" s="88"/>
+      <c r="BV183" s="152"/>
+      <c r="BW183" s="89"/>
+      <c r="BX183" s="90"/>
+      <c r="BY183" s="88"/>
+      <c r="BZ183" s="88"/>
+      <c r="CA183" s="88"/>
+      <c r="CB183" s="88"/>
+      <c r="CC183" s="88"/>
+      <c r="CD183" s="88"/>
+      <c r="CE183" s="88"/>
+      <c r="CF183" s="88"/>
+      <c r="CG183" s="88"/>
+      <c r="CH183" s="88"/>
+      <c r="CI183" s="88"/>
+      <c r="CJ183" s="152"/>
+      <c r="CK183" s="88"/>
+      <c r="CL183" s="88"/>
+      <c r="CM183" s="88"/>
+      <c r="CN183" s="88"/>
+      <c r="CO183" s="88"/>
+      <c r="CP183" s="88"/>
+      <c r="CQ183" s="88"/>
+      <c r="CR183" s="88"/>
+      <c r="CS183" s="88"/>
+      <c r="CT183" s="88"/>
+      <c r="CU183" s="88"/>
+      <c r="CV183" s="88"/>
+      <c r="CW183" s="88"/>
+      <c r="CX183" s="152"/>
+      <c r="CY183" s="88"/>
+      <c r="CZ183" s="88"/>
+      <c r="DA183" s="67"/>
+      <c r="DB183" s="75"/>
+      <c r="DC183" s="70"/>
+      <c r="DD183" s="67"/>
+      <c r="DE183" s="67"/>
+      <c r="DH183" s="67"/>
+      <c r="DI183" s="67"/>
+      <c r="DJ183" s="67"/>
+      <c r="DK183" s="67"/>
+      <c r="DL183" s="67"/>
+    </row>
+    <row r="184" spans="1:132" ht="16" thickBot="1">
+      <c r="A184" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B182" s="114" t="s">
+      <c r="B184" t="s">
+        <v>113</v>
+      </c>
+      <c r="C184">
+        <v>4</v>
+      </c>
+      <c r="D184">
+        <v>5</v>
+      </c>
+      <c r="E184">
+        <v>2</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+      <c r="AU184" s="148"/>
+      <c r="BB184" s="35"/>
+      <c r="BC184" s="162"/>
+      <c r="BD184" s="149"/>
+      <c r="BG184" s="31"/>
+      <c r="BH184" s="161">
+        <v>1</v>
+      </c>
+      <c r="BI184" s="128"/>
+      <c r="BS184" s="67"/>
+      <c r="BU184" s="31"/>
+      <c r="BV184" s="162"/>
+      <c r="BW184" s="132"/>
+      <c r="CB184" s="79">
+        <v>1</v>
+      </c>
+      <c r="CC184" s="67"/>
+      <c r="CF184" s="67"/>
+      <c r="CI184" s="31"/>
+      <c r="CJ184" s="161">
+        <v>1</v>
+      </c>
+      <c r="CK184" s="128"/>
+      <c r="CM184" s="67"/>
+      <c r="CQ184" s="6"/>
+      <c r="CW184" s="31"/>
+      <c r="CX184" s="161">
+        <v>1</v>
+      </c>
+      <c r="CY184" s="128"/>
+    </row>
+    <row r="185" spans="1:132" ht="31" thickBot="1">
+      <c r="B185" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="AR182" s="88"/>
-      <c r="AS182" s="89"/>
-      <c r="AT182" s="151"/>
-      <c r="AU182" s="88"/>
-      <c r="AV182" s="88"/>
-      <c r="AW182" s="88"/>
-      <c r="AX182" s="88"/>
-      <c r="AY182" s="88"/>
-      <c r="AZ182" s="88"/>
-      <c r="BA182" s="88"/>
-      <c r="BB182" s="88"/>
-      <c r="BC182" s="136"/>
-      <c r="BD182" s="91"/>
-      <c r="BE182" s="88"/>
-      <c r="BF182" s="88"/>
-      <c r="BG182" s="88"/>
-      <c r="BH182" s="152"/>
-      <c r="BI182" s="88"/>
-      <c r="BJ182" s="88"/>
-      <c r="BK182" s="88"/>
-      <c r="BL182" s="88"/>
-      <c r="BM182" s="88"/>
-      <c r="BN182" s="88"/>
-      <c r="BO182" s="88"/>
-      <c r="BP182" s="88"/>
-      <c r="BQ182" s="88"/>
-      <c r="BR182" s="88"/>
-      <c r="BS182" s="88"/>
-      <c r="BT182" s="88"/>
-      <c r="BU182" s="88"/>
-      <c r="BV182" s="152"/>
-      <c r="BW182" s="89"/>
-      <c r="BX182" s="90"/>
-      <c r="BY182" s="88"/>
-      <c r="BZ182" s="88"/>
-      <c r="CA182" s="88"/>
-      <c r="CB182" s="88"/>
-      <c r="CC182" s="88"/>
-      <c r="CD182" s="88"/>
-      <c r="CE182" s="88"/>
-      <c r="CF182" s="88"/>
-      <c r="CG182" s="88"/>
-      <c r="CH182" s="88"/>
-      <c r="CI182" s="88"/>
-      <c r="CJ182" s="152"/>
-      <c r="CK182" s="88"/>
-      <c r="CL182" s="88"/>
-      <c r="CM182" s="88"/>
-      <c r="CN182" s="88"/>
-      <c r="CO182" s="88"/>
-      <c r="CP182" s="88"/>
-      <c r="CQ182" s="88"/>
-      <c r="CR182" s="88"/>
-      <c r="CS182" s="88"/>
-      <c r="CT182" s="88"/>
-      <c r="CU182" s="88"/>
-      <c r="CV182" s="88"/>
-      <c r="CW182" s="88"/>
-      <c r="CX182" s="152"/>
-      <c r="CY182" s="88"/>
-      <c r="CZ182" s="88"/>
-      <c r="DA182" s="67"/>
-      <c r="DB182" s="75"/>
-      <c r="DC182" s="70"/>
-      <c r="DD182" s="67"/>
-      <c r="DE182" s="67"/>
-      <c r="DH182" s="67"/>
-      <c r="DI182" s="67"/>
-      <c r="DJ182" s="67"/>
-      <c r="DK182" s="67"/>
-      <c r="DL182" s="67"/>
-    </row>
-    <row r="183" spans="1:116" ht="16" thickBot="1">
-      <c r="A183" s="1" t="s">
+      <c r="D185" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT185" s="156"/>
+      <c r="AU185" s="80"/>
+      <c r="BC185" s="15"/>
+      <c r="BG185" s="79">
+        <v>3</v>
+      </c>
+      <c r="BH185" s="157"/>
+      <c r="BM185" s="79">
+        <v>3</v>
+      </c>
+      <c r="BS185" s="115">
+        <v>3</v>
+      </c>
+      <c r="BU185" s="79">
+        <v>2</v>
+      </c>
+      <c r="BV185" s="157">
+        <v>3</v>
+      </c>
+      <c r="CA185" s="79">
+        <v>2</v>
+      </c>
+      <c r="CB185" s="115">
+        <v>3</v>
+      </c>
+      <c r="CF185" s="67"/>
+      <c r="CH185" s="79">
+        <v>2</v>
+      </c>
+      <c r="CJ185" s="158"/>
+      <c r="CM185" s="67"/>
+      <c r="CO185" s="79">
+        <v>2</v>
+      </c>
+      <c r="CQ185" s="6"/>
+      <c r="CV185" s="79">
+        <v>2</v>
+      </c>
+      <c r="CX185" s="158"/>
+      <c r="DC185" s="81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:132" ht="16" thickBot="1">
+      <c r="A186" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B183" t="s">
-        <v>113</v>
-      </c>
-      <c r="C183">
+      <c r="B186" t="s">
+        <v>118</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
         <v>4</v>
       </c>
-      <c r="D183">
-        <v>5</v>
-      </c>
-      <c r="E183">
-        <v>2</v>
-      </c>
-      <c r="F183">
-        <v>1</v>
-      </c>
-      <c r="AU183" s="148"/>
-      <c r="BB183" s="35"/>
-      <c r="BC183" s="162"/>
-      <c r="BD183" s="149"/>
-      <c r="BG183" s="31"/>
-      <c r="BH183" s="161">
-        <v>1</v>
-      </c>
-      <c r="BI183" s="128"/>
-      <c r="BS183" s="67"/>
-      <c r="BU183" s="31"/>
-      <c r="BV183" s="162"/>
-      <c r="BW183" s="132"/>
-      <c r="CB183" s="79">
-        <v>1</v>
-      </c>
-      <c r="CC183" s="67"/>
-      <c r="CF183" s="67"/>
-      <c r="CI183" s="31"/>
-      <c r="CJ183" s="161">
-        <v>1</v>
-      </c>
-      <c r="CK183" s="128"/>
-      <c r="CM183" s="67"/>
-      <c r="CQ183" s="6"/>
-      <c r="CW183" s="31"/>
-      <c r="CX183" s="161">
-        <v>1</v>
-      </c>
-      <c r="CY183" s="128"/>
-    </row>
-    <row r="184" spans="1:116" ht="31" thickBot="1">
-      <c r="B184" s="92" t="s">
-        <v>135</v>
-      </c>
-      <c r="D184" t="s">
-        <v>136</v>
-      </c>
-      <c r="AT184" s="156"/>
-      <c r="AU184" s="80"/>
-      <c r="BC184" s="15"/>
-      <c r="BG184" s="79">
-        <v>3</v>
-      </c>
-      <c r="BH184" s="157"/>
-      <c r="BM184" s="79">
-        <v>3</v>
-      </c>
-      <c r="BS184" s="115">
-        <v>3</v>
-      </c>
-      <c r="BU184" s="79">
-        <v>2</v>
-      </c>
-      <c r="BV184" s="157">
-        <v>3</v>
-      </c>
-      <c r="CA184" s="79">
-        <v>2</v>
-      </c>
-      <c r="CB184" s="115">
-        <v>3</v>
-      </c>
-      <c r="CF184" s="67"/>
-      <c r="CH184" s="79">
-        <v>2</v>
-      </c>
-      <c r="CJ184" s="158"/>
-      <c r="CM184" s="67"/>
-      <c r="CO184" s="79">
-        <v>2</v>
-      </c>
-      <c r="CQ184" s="6"/>
-      <c r="CV184" s="79">
-        <v>2</v>
-      </c>
-      <c r="CX184" s="158"/>
-      <c r="DC184" s="81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:116" ht="16" thickBot="1">
-      <c r="A185" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B185" t="s">
-        <v>118</v>
-      </c>
-      <c r="C185">
-        <v>0</v>
-      </c>
-      <c r="D185">
-        <v>0</v>
-      </c>
-      <c r="E185">
-        <v>4</v>
-      </c>
-      <c r="F185">
-        <v>3</v>
-      </c>
-      <c r="AT185" s="161">
-        <v>1</v>
-      </c>
-      <c r="AU185" s="128"/>
-      <c r="BG185" s="31"/>
-      <c r="BH185" s="161">
-        <v>1</v>
-      </c>
-      <c r="BI185" s="128"/>
-      <c r="BU185" s="31"/>
-      <c r="BV185" s="161">
-        <v>1</v>
-      </c>
-      <c r="BW185" s="132"/>
-      <c r="CI185" s="31"/>
-      <c r="CJ185" s="161">
-        <v>1</v>
-      </c>
-      <c r="CK185" s="128"/>
-      <c r="CM185" s="67"/>
-      <c r="CQ185" s="6"/>
-      <c r="CW185" s="31"/>
-      <c r="CX185" s="161">
-        <v>1</v>
-      </c>
-      <c r="CY185" s="128"/>
-      <c r="DE185" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:116">
-      <c r="AT186" s="49"/>
-      <c r="BH186" s="14"/>
-      <c r="BV186" s="14"/>
-      <c r="CJ186" s="73"/>
+      <c r="F186">
+        <v>3</v>
+      </c>
+      <c r="AT186" s="161">
+        <v>1</v>
+      </c>
+      <c r="AU186" s="128"/>
+      <c r="BG186" s="31"/>
+      <c r="BH186" s="161">
+        <v>1</v>
+      </c>
+      <c r="BI186" s="128"/>
+      <c r="BU186" s="31"/>
+      <c r="BV186" s="161">
+        <v>1</v>
+      </c>
+      <c r="BW186" s="132"/>
+      <c r="CI186" s="31"/>
+      <c r="CJ186" s="161">
+        <v>1</v>
+      </c>
+      <c r="CK186" s="128"/>
       <c r="CM186" s="67"/>
       <c r="CQ186" s="6"/>
-      <c r="CX186" s="14"/>
-    </row>
-    <row r="187" spans="1:116">
+      <c r="CW186" s="31"/>
+      <c r="CX186" s="161">
+        <v>1</v>
+      </c>
+      <c r="CY186" s="128"/>
+      <c r="DE186" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:132">
+      <c r="AT187" s="49"/>
+      <c r="BH187" s="14"/>
+      <c r="BV187" s="14"/>
+      <c r="CJ187" s="73"/>
       <c r="CM187" s="67"/>
       <c r="CQ187" s="6"/>
-    </row>
-    <row r="188" spans="1:116">
-      <c r="C188">
-        <f>SUM(C4:C187)</f>
-        <v>302</v>
-      </c>
-      <c r="D188">
-        <f>SUM(D4:D187)</f>
-        <v>288</v>
-      </c>
-      <c r="E188" s="66">
-        <f>SUM(E4:E187)</f>
-        <v>323</v>
-      </c>
-      <c r="F188">
-        <f>SUM(F4:F187)</f>
-        <v>307</v>
-      </c>
+      <c r="CX187" s="14"/>
+    </row>
+    <row r="188" spans="1:132">
       <c r="CM188" s="67"/>
       <c r="CQ188" s="6"/>
     </row>
-    <row r="189" spans="1:116">
-      <c r="C189" t="s">
-        <v>97</v>
-      </c>
-      <c r="D189" t="s">
-        <v>98</v>
-      </c>
-      <c r="E189" t="s">
-        <v>112</v>
-      </c>
-      <c r="F189" t="s">
-        <v>111</v>
+    <row r="189" spans="1:132">
+      <c r="C189">
+        <f>SUM(C4:C188)</f>
+        <v>302</v>
+      </c>
+      <c r="D189">
+        <f>SUM(D4:D188)</f>
+        <v>304</v>
+      </c>
+      <c r="E189" s="66">
+        <f>SUM(E4:E188)</f>
+        <v>324</v>
+      </c>
+      <c r="F189">
+        <f>SUM(F4:F188)</f>
+        <v>318</v>
       </c>
       <c r="CM189" s="67"/>
       <c r="CQ189" s="6"/>
     </row>
-    <row r="190" spans="1:116">
+    <row r="190" spans="1:132">
+      <c r="C190" t="s">
+        <v>97</v>
+      </c>
+      <c r="D190" t="s">
+        <v>98</v>
+      </c>
+      <c r="E190" t="s">
+        <v>112</v>
+      </c>
+      <c r="F190" t="s">
+        <v>111</v>
+      </c>
       <c r="CM190" s="67"/>
       <c r="CQ190" s="6"/>
     </row>
-    <row r="191" spans="1:116">
+    <row r="191" spans="1:132">
+      <c r="CM191" s="67"/>
       <c r="CQ191" s="6"/>
     </row>
-    <row r="192" spans="1:116">
-      <c r="CF192" s="67"/>
-      <c r="CG192" s="67"/>
-      <c r="CH192" s="67"/>
-      <c r="CI192" s="67"/>
-      <c r="CJ192" s="67"/>
-      <c r="CM192" s="67"/>
+    <row r="192" spans="1:132">
       <c r="CQ192" s="6"/>
     </row>
     <row r="193" spans="84:95">
@@ -8704,6 +8796,11 @@
       <c r="CQ195" s="6"/>
     </row>
     <row r="196" spans="84:95">
+      <c r="CF196" s="67"/>
+      <c r="CG196" s="67"/>
+      <c r="CH196" s="67"/>
+      <c r="CI196" s="67"/>
+      <c r="CJ196" s="67"/>
       <c r="CM196" s="67"/>
       <c r="CQ196" s="6"/>
     </row>
@@ -8723,12 +8820,13 @@
       <c r="CM200" s="67"/>
       <c r="CQ200" s="6"/>
     </row>
-    <row r="236" spans="91:95">
-      <c r="CM236" s="67"/>
-      <c r="CQ236" s="6"/>
+    <row r="201" spans="84:95">
+      <c r="CM201" s="67"/>
+      <c r="CQ201" s="6"/>
     </row>
     <row r="237" spans="91:95">
       <c r="CM237" s="67"/>
+      <c r="CQ237" s="6"/>
     </row>
     <row r="238" spans="91:95">
       <c r="CM238" s="67"/>
@@ -8975,6 +9073,9 @@
     </row>
     <row r="319" spans="91:91">
       <c r="CM319" s="67"/>
+    </row>
+    <row r="320" spans="91:91">
+      <c r="CM320" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="7">
